--- a/data/data_collection.xlsx
+++ b/data/data_collection.xlsx
@@ -11,10 +11,15 @@
     <sheet name="data12" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
+    <sheet name="phonopy" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet4" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet5" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="ExternalData_1" localSheetId="2">Sheet1!$A$1:$I$24</definedName>
     <definedName name="ExternalData_1" localSheetId="3">Sheet2!$A$1:$I$24</definedName>
+    <definedName name="ExternalData_1" localSheetId="4">phonopy!$A$1:$F$24</definedName>
+    <definedName name="ExternalData_1" localSheetId="6">Sheet5!$B$1:$J$24</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
@@ -26,7 +31,7 @@
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="B2" authorId="0">
+    <comment ref="B22" authorId="0">
       <text>
         <r>
           <rPr>
@@ -50,7 +55,7 @@
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="B2" authorId="0">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -84,11 +89,25 @@
       </textFields>
     </textPr>
   </connection>
+  <connection id="3" name="tmpp" type="6" background="1" refreshedVersion="2" saveData="1">
+    <textPr sourceFile="F:\William\PV0c\tmpp.txt" space="1" consecutive="1">
+      <textFields>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="4" name="tmpt" type="6" background="1" refreshedVersion="2" saveData="1">
+    <textPr sourceFile="F:\William\PV0c\tmpt.txt" space="1" consecutive="1">
+      <textFields>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107">
   <si>
     <t>C(A)</t>
   </si>
@@ -259,6 +278,156 @@
   </si>
   <si>
     <t>./z17/OSZICAR:</t>
+  </si>
+  <si>
+    <t>./a/thermal.txt:</t>
+  </si>
+  <si>
+    <t>./b/thermal.txt:</t>
+  </si>
+  <si>
+    <t>./c/thermal.txt:</t>
+  </si>
+  <si>
+    <t>./d/thermal.txt:</t>
+  </si>
+  <si>
+    <t>./e/thermal.txt:</t>
+  </si>
+  <si>
+    <t>./f/thermal.txt:</t>
+  </si>
+  <si>
+    <t>./g/thermal.txt:</t>
+  </si>
+  <si>
+    <t>./z01/thermal.txt:</t>
+  </si>
+  <si>
+    <t>./z02/thermal.txt:</t>
+  </si>
+  <si>
+    <t>./z03/thermal.txt:</t>
+  </si>
+  <si>
+    <t>./z04/thermal.txt:</t>
+  </si>
+  <si>
+    <t>./z05/thermal.txt:</t>
+  </si>
+  <si>
+    <t>./z06/thermal.txt:</t>
+  </si>
+  <si>
+    <t>./z07/thermal.txt:</t>
+  </si>
+  <si>
+    <t>./z08/thermal.txt:</t>
+  </si>
+  <si>
+    <t>./z09/thermal.txt:</t>
+  </si>
+  <si>
+    <t>./z10/thermal.txt:</t>
+  </si>
+  <si>
+    <t>./z11/thermal.txt:</t>
+  </si>
+  <si>
+    <t>./z12/thermal.txt:</t>
+  </si>
+  <si>
+    <t>./z13/thermal.txt:</t>
+  </si>
+  <si>
+    <t>./z14/thermal.txt:</t>
+  </si>
+  <si>
+    <t>./z15/thermal.txt:</t>
+  </si>
+  <si>
+    <t>./z16/thermal.txt:</t>
+  </si>
+  <si>
+    <t>./z17/thermal.txt:</t>
+  </si>
+  <si>
+    <t>./a/OUTCAR:</t>
+  </si>
+  <si>
+    <t>in</t>
+  </si>
+  <si>
+    <t>kB</t>
+  </si>
+  <si>
+    <t>./b/OUTCAR:</t>
+  </si>
+  <si>
+    <t>./c/OUTCAR:</t>
+  </si>
+  <si>
+    <t>./d/OUTCAR:</t>
+  </si>
+  <si>
+    <t>./e/OUTCAR:</t>
+  </si>
+  <si>
+    <t>./f/OUTCAR:</t>
+  </si>
+  <si>
+    <t>./g/OUTCAR:</t>
+  </si>
+  <si>
+    <t>./z01/OUTCAR:</t>
+  </si>
+  <si>
+    <t>./z02/OUTCAR:</t>
+  </si>
+  <si>
+    <t>./z03/OUTCAR:</t>
+  </si>
+  <si>
+    <t>./z04/OUTCAR:</t>
+  </si>
+  <si>
+    <t>./z05/OUTCAR:</t>
+  </si>
+  <si>
+    <t>./z06/OUTCAR:</t>
+  </si>
+  <si>
+    <t>./z07/OUTCAR:</t>
+  </si>
+  <si>
+    <t>./z08/OUTCAR:</t>
+  </si>
+  <si>
+    <t>./z09/OUTCAR:</t>
+  </si>
+  <si>
+    <t>./z10/OUTCAR:</t>
+  </si>
+  <si>
+    <t>./z11/OUTCAR:</t>
+  </si>
+  <si>
+    <t>./z12/OUTCAR:</t>
+  </si>
+  <si>
+    <t>./z13/OUTCAR:</t>
+  </si>
+  <si>
+    <t>./z14/OUTCAR:</t>
+  </si>
+  <si>
+    <t>./z15/OUTCAR:</t>
+  </si>
+  <si>
+    <t>./z16/OUTCAR:</t>
+  </si>
+  <si>
+    <t>./z17/OUTCAR:</t>
   </si>
 </sst>
 </file>
@@ -266,10 +435,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -287,29 +456,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -317,7 +464,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -332,11 +493,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -350,14 +518,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -368,21 +529,6 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -400,24 +546,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -428,6 +581,22 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -447,13 +616,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -465,7 +646,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -483,19 +670,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -507,13 +694,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -531,67 +754,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -603,25 +784,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -661,21 +830,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -692,25 +846,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -738,158 +883,182 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
@@ -948,6 +1117,2189 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" horzOverflow="overflow" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.059916994320664"/>
+          <c:y val="0.106947098615919"/>
+          <c:w val="0.917147225862822"/>
+          <c:h val="0.826698772282026"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="marker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet5!$A$1:$E$24</c:f>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet5!$F$1:$F$24</c:f>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="movingAvg"/>
+            <c:period val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet5!$A$1:$E$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>7.734603659</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.398316544</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.06202942799999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.99477200493787</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.92751458181347</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.86025715868907</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.79299973556466</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.72574231244026</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.65848488931586</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.59122746619145</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.52397004306705</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.45671261994265</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.389455197</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.05316808099999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.71688096599999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.38059385</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.044306734</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.70801961899999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.37173250299999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.035445387</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.69915827100001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.36287115500002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.02658403900003</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.69029692300004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet5!$G$1:$G$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>-17.4798</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-13.7949</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-6.49711</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-4.36941</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.94466</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.83872</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.0474</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.66066</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12.09655</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16.50845</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>21.84954</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>28.1936</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>34.70399</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>83.13759</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>163.64584</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>291.62834</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>495.90418</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>817.95232</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1262.64436</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1845.37527</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2781.77108</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4109.4174</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5152.91824</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7654.28943</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="r"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="802451987"/>
+        <c:axId val="457970784"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="802451987"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="9"/>
+          <c:min val="6"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" horzOverflow="overflow" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="457970784"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="457970784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+          <c:min val="-40"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" horzOverflow="overflow" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="802451987"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" horzOverflow="overflow" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" horzOverflow="overflow" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="en-US" sz="1000" kern="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins r="0.7" b="0.75" l="0.7" footer="0.3" header="0.3" t="0.75"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" horzOverflow="overflow" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="marker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet5!$A$1:$E$13</c:f>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet5!$F$1:$F$13</c:f>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.0726179919203862"/>
+                  <c:y val="0.0883472962680883"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="1"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" horzOverflow="overflow" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" kern="1200">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet5!$A$1:$E$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>7.734603659</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.398316544</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.06202942799999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.99477200493787</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.92751458181347</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.86025715868907</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.79299973556466</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.72574231244026</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.65848488931586</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.59122746619145</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.52397004306705</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.45671261994265</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.389455197</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet5!$G$1:$G$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>-17.4798</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-13.7949</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-6.49711</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-4.36941</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.94466</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.83872</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.0474</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.66066</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12.09655</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16.50845</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>21.84954</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>28.1936</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>34.70399</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="r"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="256782555"/>
+        <c:axId val="704716845"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="256782555"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="7"/>
+          <c:min val="6.5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" horzOverflow="overflow" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="704716845"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="0.05"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="704716845"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="5"/>
+          <c:min val="-5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" horzOverflow="overflow" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="256782555"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" horzOverflow="overflow" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" horzOverflow="overflow" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="en-US" sz="1000" kern="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins r="0.7" b="0.75" l="0.7" footer="0.3" header="0.3" t="0.75"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>443865</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>146685</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>100965</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="4730115" y="346710"/>
+        <a:ext cx="5829300" cy="5361940"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>866140</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>116205</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>565785</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>65405</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="1828165" y="716280"/>
+        <a:ext cx="6452870" cy="3349625"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="0" nextId="10">
@@ -968,6 +3320,39 @@
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+  <queryTableRefresh preserveSortFilterLayout="0" nextId="10">
+    <queryTableFields count="9">
+      <queryTableField id="1" dataBound="0"/>
+      <queryTableField id="2" dataBound="0"/>
+      <queryTableField id="3" dataBound="0"/>
+      <queryTableField id="4" dataBound="0"/>
+      <queryTableField id="5" dataBound="0"/>
+      <queryTableField id="6" dataBound="0"/>
+      <queryTableField id="7" dataBound="0"/>
+      <queryTableField id="8" dataBound="0"/>
+      <queryTableField id="9" dataBound="0"/>
+    </queryTableFields>
+  </queryTableRefresh>
+</queryTable>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+  <queryTableRefresh preserveSortFilterLayout="0" nextId="7">
+    <queryTableFields count="6">
+      <queryTableField id="1" dataBound="0"/>
+      <queryTableField id="2" dataBound="0"/>
+      <queryTableField id="3" dataBound="0"/>
+      <queryTableField id="4" dataBound="0"/>
+      <queryTableField id="5" dataBound="0"/>
+      <queryTableField id="6" dataBound="0"/>
+    </queryTableFields>
+  </queryTableRefresh>
+</queryTable>
+</file>
+
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="0" nextId="10">
     <queryTableFields count="9">
       <queryTableField id="1" dataBound="0"/>
@@ -1243,10 +3628,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -1255,7 +3640,7 @@
     <col min="3" max="3" width="12.625"/>
     <col min="4" max="4" width="13.75"/>
     <col min="5" max="5" width="12.625"/>
-    <col min="8" max="10" width="12.625"/>
+    <col min="7" max="10" width="12.625"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:5">
@@ -1272,68 +3657,62 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2">
-        <v>7.734603659</v>
-      </c>
-      <c r="C2">
-        <v>-9.29974075</v>
-      </c>
-      <c r="D2" s="2">
-        <f>C2+E2</f>
-        <v>-9.27945183302835</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0.0202889169716493</v>
-      </c>
-      <c r="I2" s="2"/>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="B2">
+        <v>7.19654427431108</v>
+      </c>
+      <c r="I2">
+        <v>1.07</v>
+      </c>
+      <c r="J2">
+        <f>6.72574231244026*I2</f>
+        <v>7.19654427431108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2">
-        <v>7.398316544</v>
-      </c>
-      <c r="C3">
-        <v>-9.303271</v>
-      </c>
-      <c r="D3" s="2">
-        <f>C3+E3</f>
-        <v>-9.2828467498425</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0.0204242501574988</v>
+      <c r="B3">
+        <v>7.12928685118668</v>
+      </c>
+      <c r="I3">
+        <v>1.06</v>
+      </c>
+      <c r="J3">
+        <f>6.72574231244026*I3</f>
+        <v>7.12928685118668</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2">
-        <v>7.06202942799999</v>
+      <c r="B4" s="3">
+        <v>7.06202942806227</v>
       </c>
       <c r="C4">
         <v>-9.305298</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <f>C4+E4</f>
-        <v>-9.28467633679579</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0.0206216632042114</v>
+        <v>-9.28401399136472</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.0212840086352783</v>
       </c>
       <c r="G4">
-        <v>0.95</v>
+        <f>6.72574231244026*2</f>
+        <v>13.4514846248805</v>
       </c>
       <c r="I4">
         <v>1.05</v>
       </c>
       <c r="J4">
-        <f t="shared" ref="J4:J14" si="0">6.72574231244026*I4</f>
+        <f>6.72574231244026*I4</f>
         <v>7.06202942806227</v>
       </c>
     </row>
@@ -1341,23 +3720,24 @@
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="3">
         <v>6.99477200493787</v>
       </c>
       <c r="C5">
         <v>-9.30541825</v>
       </c>
-      <c r="D5" s="2">
-        <v>0</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0</v>
+      <c r="D5" s="1">
+        <f t="shared" ref="D5:D13" si="0">C5+E5</f>
+        <v>-9.28414069068237</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.0212775593176295</v>
       </c>
       <c r="I5">
         <v>1.04</v>
       </c>
       <c r="J5">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="J5:J16" si="1">6.72574231244026*I5</f>
         <v>6.99477200493787</v>
       </c>
     </row>
@@ -1365,23 +3745,24 @@
       <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="3">
         <v>6.92751458181347</v>
       </c>
       <c r="C6">
         <v>-9.305416</v>
       </c>
-      <c r="D6" s="2">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0</v>
+      <c r="D6" s="1">
+        <f t="shared" si="0"/>
+        <v>-9.2841141355305</v>
+      </c>
+      <c r="E6">
+        <v>0.0213018644695016</v>
       </c>
       <c r="I6">
         <v>1.03</v>
       </c>
       <c r="J6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.92751458181347</v>
       </c>
     </row>
@@ -1389,23 +3770,24 @@
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="3">
         <v>6.86025715868907</v>
       </c>
       <c r="C7">
         <v>-9.305258</v>
       </c>
-      <c r="D7" s="2">
-        <v>0</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0</v>
+      <c r="D7" s="1">
+        <f t="shared" si="0"/>
+        <v>-9.28394005617462</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.0213179438253818</v>
       </c>
       <c r="I7">
         <v>1.02</v>
       </c>
       <c r="J7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.86025715868907</v>
       </c>
     </row>
@@ -1413,23 +3795,24 @@
       <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="3">
         <v>6.79299973556466</v>
       </c>
       <c r="C8">
         <v>-9.30494375</v>
       </c>
-      <c r="D8">
-        <v>0</v>
+      <c r="D8" s="1">
+        <f t="shared" si="0"/>
+        <v>-9.28360454025992</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.0213392097400774</v>
       </c>
       <c r="I8">
         <v>1.01</v>
       </c>
       <c r="J8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.79299973556466</v>
       </c>
     </row>
@@ -1437,18 +3820,18 @@
       <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="3">
         <v>6.72574231244026</v>
       </c>
       <c r="C9">
         <v>-9.30443575</v>
       </c>
-      <c r="D9" s="2">
-        <f>C9+E9</f>
-        <v>-9.28373072258981</v>
-      </c>
-      <c r="E9" s="2">
-        <v>0.0207050274101862</v>
+      <c r="D9" s="1">
+        <f t="shared" si="0"/>
+        <v>-9.28085089283634</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.0235848571636644</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -1461,7 +3844,7 @@
         <v>1</v>
       </c>
       <c r="J9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.72574231244026</v>
       </c>
     </row>
@@ -1469,23 +3852,24 @@
       <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="3">
         <v>6.65848488931586</v>
       </c>
       <c r="C10">
         <v>-9.303711</v>
       </c>
-      <c r="D10" s="2">
-        <v>0</v>
-      </c>
-      <c r="E10" s="2">
+      <c r="D10" s="1">
+        <f t="shared" si="0"/>
+        <v>-9.303711</v>
+      </c>
+      <c r="E10" s="1">
         <v>0</v>
       </c>
       <c r="I10">
         <v>0.99</v>
       </c>
       <c r="J10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.65848488931586</v>
       </c>
     </row>
@@ -1493,23 +3877,24 @@
       <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="3">
         <v>6.59122746619145</v>
       </c>
       <c r="C11">
         <v>-9.3027445</v>
       </c>
-      <c r="D11" s="2">
-        <v>0</v>
-      </c>
-      <c r="E11" s="2">
+      <c r="D11" s="1">
+        <f t="shared" si="0"/>
+        <v>-9.3027445</v>
+      </c>
+      <c r="E11" s="1">
         <v>0</v>
       </c>
       <c r="I11">
         <v>0.98</v>
       </c>
       <c r="J11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.59122746619145</v>
       </c>
     </row>
@@ -1517,23 +3902,24 @@
       <c r="A12" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="3">
         <v>6.52397004306705</v>
       </c>
       <c r="C12">
         <v>-9.30149675</v>
       </c>
-      <c r="D12" s="2">
-        <v>0</v>
-      </c>
-      <c r="E12" s="2">
+      <c r="D12" s="1">
+        <f t="shared" si="0"/>
+        <v>-9.30149675</v>
+      </c>
+      <c r="E12" s="1">
         <v>0</v>
       </c>
       <c r="I12">
         <v>0.97</v>
       </c>
       <c r="J12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.52397004306705</v>
       </c>
     </row>
@@ -1541,23 +3927,24 @@
       <c r="A13" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="3">
         <v>6.45671261994265</v>
       </c>
       <c r="C13">
         <v>-9.29993175</v>
       </c>
-      <c r="D13" s="2">
-        <v>0</v>
-      </c>
-      <c r="E13" s="2">
+      <c r="D13" s="1">
+        <f t="shared" si="0"/>
+        <v>-9.29993175</v>
+      </c>
+      <c r="E13" s="1">
         <v>0</v>
       </c>
       <c r="I13">
         <v>0.96</v>
       </c>
       <c r="J13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.45671261994265</v>
       </c>
     </row>
@@ -1565,18 +3952,18 @@
       <c r="A14" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="2">
-        <v>6.389455197</v>
+      <c r="B14" s="3">
+        <v>6.38945519681825</v>
       </c>
       <c r="C14">
         <v>-9.2980065</v>
       </c>
-      <c r="D14" s="2">
-        <f t="shared" ref="D14:D25" si="1">C14+E14</f>
-        <v>-9.27720872289682</v>
-      </c>
-      <c r="E14" s="2">
-        <v>0.0207977771031755</v>
+      <c r="D14" s="1">
+        <f>C14+E14</f>
+        <v>-9.2765447062902</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0.0214617937098034</v>
       </c>
       <c r="G14">
         <v>0.95</v>
@@ -1589,26 +3976,16 @@
         <v>0.95</v>
       </c>
       <c r="J14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.38945519681825</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:10">
       <c r="A15" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="2">
-        <v>6.05316808099999</v>
-      </c>
-      <c r="C15">
-        <v>-9.281312</v>
-      </c>
-      <c r="D15" s="2">
-        <f t="shared" si="1"/>
-        <v>-9.26044924256136</v>
-      </c>
-      <c r="E15" s="2">
-        <v>0.0208627574386438</v>
+      <c r="B15" s="3">
+        <v>6.32219777369384</v>
       </c>
       <c r="G15">
         <v>0.9</v>
@@ -1617,23 +3994,20 @@
         <f t="shared" si="2"/>
         <v>6.05316808119623</v>
       </c>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="I15">
+        <v>0.94</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="1"/>
+        <v>6.32219777369384</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="2">
-        <v>5.71688096599999</v>
-      </c>
-      <c r="C16">
-        <v>-9.24699775</v>
-      </c>
-      <c r="D16" s="2">
-        <f t="shared" si="1"/>
-        <v>-9.22606542156227</v>
-      </c>
-      <c r="E16" s="2">
-        <v>0.0209323284377305</v>
+      <c r="B16" s="3">
+        <v>6.25494035056944</v>
       </c>
       <c r="G16">
         <v>0.85</v>
@@ -1642,24 +4016,18 @@
         <f t="shared" si="2"/>
         <v>5.71688096557422</v>
       </c>
+      <c r="I16">
+        <v>0.93</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="1"/>
+        <v>6.25494035056944</v>
+      </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="2">
-        <v>5.38059385</v>
-      </c>
-      <c r="C17">
-        <v>-9.18425575</v>
-      </c>
-      <c r="D17" s="2">
-        <f t="shared" si="1"/>
-        <v>-9.16318770558089</v>
-      </c>
-      <c r="E17" s="2">
-        <v>0.021068044419114</v>
-      </c>
       <c r="G17">
         <v>0.8</v>
       </c>
@@ -1672,19 +4040,6 @@
       <c r="A18" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="2">
-        <v>5.044306734</v>
-      </c>
-      <c r="C18">
-        <v>-9.07655725</v>
-      </c>
-      <c r="D18" s="2">
-        <f t="shared" si="1"/>
-        <v>-9.05542446500278</v>
-      </c>
-      <c r="E18" s="2">
-        <v>0.0211327849972171</v>
-      </c>
       <c r="G18">
         <v>0.75</v>
       </c>
@@ -1697,19 +4052,6 @@
       <c r="A19" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="2">
-        <v>4.70801961899999</v>
-      </c>
-      <c r="C19">
-        <v>-8.89676175</v>
-      </c>
-      <c r="D19" s="2">
-        <f t="shared" si="1"/>
-        <v>-8.87558418799888</v>
-      </c>
-      <c r="E19" s="2">
-        <v>0.0211775620011249</v>
-      </c>
       <c r="G19">
         <v>0.7</v>
       </c>
@@ -1722,19 +4064,6 @@
       <c r="A20" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="2">
-        <v>4.37173250299999</v>
-      </c>
-      <c r="C20">
-        <v>-8.610972</v>
-      </c>
-      <c r="D20" s="2">
-        <f t="shared" si="1"/>
-        <v>-8.5902008496981</v>
-      </c>
-      <c r="E20" s="2">
-        <v>0.0207711503018963</v>
-      </c>
       <c r="G20">
         <v>0.65</v>
       </c>
@@ -1747,19 +4076,6 @@
       <c r="A21" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="2">
-        <v>4.035445387</v>
-      </c>
-      <c r="C21">
-        <v>-8.184804</v>
-      </c>
-      <c r="D21" s="2">
-        <f t="shared" si="1"/>
-        <v>-8.16517022436926</v>
-      </c>
-      <c r="E21" s="2">
-        <v>0.019633775630742</v>
-      </c>
       <c r="G21">
         <v>0.6</v>
       </c>
@@ -1772,19 +4088,6 @@
       <c r="A22" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="2">
-        <v>3.69915827100001</v>
-      </c>
-      <c r="C22">
-        <v>-7.561232</v>
-      </c>
-      <c r="D22" s="2">
-        <f t="shared" si="1"/>
-        <v>-7.54303748961431</v>
-      </c>
-      <c r="E22" s="2">
-        <v>0.0181945103856859</v>
-      </c>
       <c r="G22">
         <v>0.55</v>
       </c>
@@ -1797,19 +4100,6 @@
       <c r="A23" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="2">
-        <v>3.36287115500002</v>
-      </c>
-      <c r="C23">
-        <v>-6.6218255</v>
-      </c>
-      <c r="D23" s="2">
-        <f t="shared" si="1"/>
-        <v>-6.60305319784747</v>
-      </c>
-      <c r="E23" s="2">
-        <v>0.0187723021525279</v>
-      </c>
       <c r="G23">
         <v>0.5</v>
       </c>
@@ -1822,19 +4112,6 @@
       <c r="A24" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="2">
-        <v>3.02658403900003</v>
-      </c>
-      <c r="C24">
-        <v>-5.380071</v>
-      </c>
-      <c r="D24" s="2">
-        <f t="shared" si="1"/>
-        <v>-5.36170195460927</v>
-      </c>
-      <c r="E24" s="2">
-        <v>0.0183690453907337</v>
-      </c>
       <c r="G24">
         <v>0.45</v>
       </c>
@@ -1847,19 +4124,6 @@
       <c r="A25" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="2">
-        <v>2.69029692300004</v>
-      </c>
-      <c r="C25">
-        <v>-3.654861</v>
-      </c>
-      <c r="D25" s="2">
-        <f t="shared" si="1"/>
-        <v>-3.63993343623513</v>
-      </c>
-      <c r="E25" s="2">
-        <v>0.0149275637648665</v>
-      </c>
       <c r="G25">
         <v>0.399999999999999</v>
       </c>
@@ -1868,36 +4132,225 @@
         <v>2.6902969249761</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:1">
       <c r="A26" t="s">
         <v>28</v>
       </c>
-      <c r="B26">
-        <v>2.35400980700005</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+    </row>
+    <row r="27" spans="1:1">
       <c r="A27" t="s">
         <v>29</v>
       </c>
-      <c r="B27">
-        <v>2.01772269100006</v>
+    </row>
+    <row r="29" spans="2:5">
+      <c r="B29" s="3">
+        <v>7.7346036593063</v>
+      </c>
+      <c r="C29">
+        <v>-9.29974075</v>
+      </c>
+      <c r="D29" s="1">
+        <f>C29+E29</f>
+        <v>-9.27877112419782</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0.0209696258021805</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5">
+      <c r="B30" s="3">
+        <v>7.39831654368429</v>
+      </c>
+      <c r="C30">
+        <v>-9.303271</v>
+      </c>
+      <c r="D30" s="1">
+        <f>C30+E30</f>
+        <v>-9.28217704928256</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0.0210939507174438</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5">
+      <c r="B31" s="1">
+        <v>6.05316808099999</v>
+      </c>
+      <c r="C31">
+        <v>-9.281312</v>
+      </c>
+      <c r="D31" s="1">
+        <f t="shared" ref="D31:D41" si="3">C31+E31</f>
+        <v>-9.25981534941733</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0.0214966505826721</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5">
+      <c r="B32" s="1">
+        <v>5.71688096599999</v>
+      </c>
+      <c r="C32">
+        <v>-9.24699775</v>
+      </c>
+      <c r="D32" s="1">
+        <f t="shared" si="3"/>
+        <v>-9.22545581578752</v>
+      </c>
+      <c r="E32" s="1">
+        <v>0.0215419342124851</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5">
+      <c r="B33" s="1">
+        <v>5.38059385</v>
+      </c>
+      <c r="C33">
+        <v>-9.18425575</v>
+      </c>
+      <c r="D33" s="1">
+        <f t="shared" si="3"/>
+        <v>-9.16266257845306</v>
+      </c>
+      <c r="E33" s="1">
+        <v>0.0215931715469442</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5">
+      <c r="B34" s="1">
+        <v>5.044306734</v>
+      </c>
+      <c r="C34">
+        <v>-9.07655725</v>
+      </c>
+      <c r="D34" s="1">
+        <f t="shared" si="3"/>
+        <v>-9.05490492455843</v>
+      </c>
+      <c r="E34" s="1">
+        <v>0.0216523254415718</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5">
+      <c r="B35" s="1">
+        <v>4.70801961899999</v>
+      </c>
+      <c r="C35">
+        <v>-8.89676175</v>
+      </c>
+      <c r="D35" s="1">
+        <f t="shared" si="3"/>
+        <v>-8.87509644543177</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0.0216653045682302</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5">
+      <c r="B36" s="1">
+        <v>4.37173250299999</v>
+      </c>
+      <c r="C36">
+        <v>-8.610972</v>
+      </c>
+      <c r="D36" s="1">
+        <f t="shared" si="3"/>
+        <v>-8.58969112874629</v>
+      </c>
+      <c r="E36" s="1">
+        <v>0.021280871253706</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5">
+      <c r="B37" s="1">
+        <v>4.035445387</v>
+      </c>
+      <c r="C37">
+        <v>-8.184804</v>
+      </c>
+      <c r="D37" s="1">
+        <f t="shared" si="3"/>
+        <v>-8.1644223392305</v>
+      </c>
+      <c r="E37" s="1">
+        <v>0.0203816607694967</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5">
+      <c r="B38" s="1">
+        <v>3.69915827100001</v>
+      </c>
+      <c r="C38">
+        <v>-7.561232</v>
+      </c>
+      <c r="D38" s="1">
+        <f t="shared" si="3"/>
+        <v>-7.54245840350752</v>
+      </c>
+      <c r="E38" s="1">
+        <v>0.0187735964924786</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5">
+      <c r="B39" s="1">
+        <v>3.36287115500002</v>
+      </c>
+      <c r="C39">
+        <v>-6.6218255</v>
+      </c>
+      <c r="D39" s="1">
+        <f t="shared" si="3"/>
+        <v>-6.60562327498075</v>
+      </c>
+      <c r="E39" s="1">
+        <v>0.0162022250192528</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5">
+      <c r="B40" s="1">
+        <v>3.02658403900003</v>
+      </c>
+      <c r="C40">
+        <v>-5.380071</v>
+      </c>
+      <c r="D40" s="1">
+        <f t="shared" si="3"/>
+        <v>-5.36397948973004</v>
+      </c>
+      <c r="E40" s="1">
+        <v>0.0160915102699602</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5">
+      <c r="B41" s="1">
+        <v>2.69029692300004</v>
+      </c>
+      <c r="C41">
+        <v>-3.654861</v>
+      </c>
+      <c r="D41" s="1">
+        <f t="shared" si="3"/>
+        <v>-3.63930487592718</v>
+      </c>
+      <c r="E41" s="1">
+        <v>0.0155561240728216</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
   <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C25"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -1927,60 +4380,54 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2">
-        <v>7.62651333736756</v>
-      </c>
-      <c r="C2" s="3">
-        <v>-9.35571075</v>
+      <c r="B2" s="3">
+        <v>7.0959732791159</v>
       </c>
       <c r="D2" s="4">
         <v>0</v>
       </c>
-      <c r="E2" s="2"/>
+      <c r="E2" s="1"/>
       <c r="I2">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="J2">
         <f t="shared" ref="J2:J14" si="0">6.6317507281457*I2</f>
-        <v>7.62651333736756</v>
+        <v>7.0959732791159</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:10">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2">
-        <v>7.29492580096027</v>
-      </c>
-      <c r="C3" s="3">
-        <v>-9.36041425</v>
+      <c r="B3" s="3">
+        <v>7.02965577183444</v>
       </c>
       <c r="D3" s="4">
         <v>0</v>
       </c>
-      <c r="E3" s="2"/>
+      <c r="E3" s="1"/>
       <c r="I3">
-        <v>1.1</v>
+        <v>1.06</v>
       </c>
       <c r="J3">
         <f t="shared" si="0"/>
-        <v>7.29492580096027</v>
+        <v>7.02965577183444</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:10">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>6.96333826455299</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4">
         <v>-9.36387875</v>
       </c>
       <c r="D4" s="4">
         <v>0</v>
       </c>
-      <c r="E4" s="2"/>
+      <c r="E4" s="1"/>
       <c r="G4">
         <v>0.95</v>
       </c>
@@ -1996,16 +4443,16 @@
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>6.89702075727153</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5">
         <v>-9.364291</v>
       </c>
       <c r="D5" s="4">
         <v>0</v>
       </c>
-      <c r="E5" s="2"/>
+      <c r="E5" s="1"/>
       <c r="I5">
         <v>1.04</v>
       </c>
@@ -2018,16 +4465,16 @@
       <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>6.83070324999007</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6">
         <v>-9.36458075</v>
       </c>
       <c r="D6" s="4">
         <v>0</v>
       </c>
-      <c r="E6" s="2"/>
+      <c r="E6" s="1"/>
       <c r="I6">
         <v>1.03</v>
       </c>
@@ -2040,16 +4487,16 @@
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>6.76438574270861</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7">
         <v>-9.36471925</v>
       </c>
       <c r="D7" s="4">
         <v>0</v>
       </c>
-      <c r="E7" s="2"/>
+      <c r="E7" s="1"/>
       <c r="I7">
         <v>1.02</v>
       </c>
@@ -2065,7 +4512,7 @@
       <c r="B8">
         <v>6.69806823542716</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8">
         <v>-9.364684</v>
       </c>
       <c r="D8" s="4">
@@ -2083,16 +4530,16 @@
       <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="1">
         <v>6.6317507281457</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9">
         <v>-9.36446125</v>
       </c>
       <c r="D9" s="4">
         <v>0</v>
       </c>
-      <c r="E9" s="2"/>
+      <c r="E9" s="1"/>
       <c r="G9">
         <v>1</v>
       </c>
@@ -2112,16 +4559,16 @@
       <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="1">
         <v>6.56543322086424</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10">
         <v>-9.36401425</v>
       </c>
       <c r="D10" s="4">
         <v>0</v>
       </c>
-      <c r="E10" s="2"/>
+      <c r="E10" s="1"/>
       <c r="I10">
         <v>0.99</v>
       </c>
@@ -2134,16 +4581,16 @@
       <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="1">
         <v>6.49911571358279</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11">
         <v>-9.363318</v>
       </c>
       <c r="D11" s="4">
         <v>0</v>
       </c>
-      <c r="E11" s="2"/>
+      <c r="E11" s="1"/>
       <c r="I11">
         <v>0.98</v>
       </c>
@@ -2156,16 +4603,16 @@
       <c r="A12" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="1">
         <v>6.43279820630133</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12">
         <v>-9.36232725</v>
       </c>
       <c r="D12" s="4">
         <v>0</v>
       </c>
-      <c r="E12" s="2"/>
+      <c r="E12" s="1"/>
       <c r="I12">
         <v>0.97</v>
       </c>
@@ -2178,16 +4625,16 @@
       <c r="A13" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="1">
         <v>6.36648069901987</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13">
         <v>-9.3610255</v>
       </c>
       <c r="D13" s="4">
         <v>0</v>
       </c>
-      <c r="E13" s="2"/>
+      <c r="E13" s="1"/>
       <c r="I13">
         <v>0.96</v>
       </c>
@@ -2200,16 +4647,16 @@
       <c r="A14" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="1">
         <v>6.30016319173841</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14">
         <v>-9.359363</v>
       </c>
       <c r="D14" s="4">
         <v>0</v>
       </c>
-      <c r="E14" s="2"/>
+      <c r="E14" s="1"/>
       <c r="G14">
         <v>0.95</v>
       </c>
@@ -2229,16 +4676,17 @@
       <c r="A15" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="2">
-        <v>5.96857565533113</v>
+      <c r="B15" s="3">
+        <v>6.23384568445696</v>
       </c>
       <c r="C15" s="3">
-        <v>-9.3439195</v>
+        <f>6.6317507281457*B15</f>
+        <v>41.3413106570454</v>
       </c>
       <c r="D15" s="4">
         <v>0</v>
       </c>
-      <c r="E15" s="2"/>
+      <c r="E15" s="1"/>
       <c r="G15">
         <v>0.9</v>
       </c>
@@ -2247,27 +4695,28 @@
         <v>6.05316808119623</v>
       </c>
       <c r="I15">
-        <v>0.9</v>
+        <v>0.94</v>
       </c>
       <c r="J15">
         <f t="shared" ref="J15:J25" si="2">6.6317507281457*I15</f>
-        <v>5.96857565533113</v>
+        <v>6.23384568445696</v>
       </c>
     </row>
     <row r="16" customFormat="1" spans="1:10">
       <c r="A16" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="2">
-        <v>5.63698811892385</v>
+      <c r="B16" s="3">
+        <v>6.1675281771755</v>
       </c>
       <c r="C16" s="3">
-        <v>-9.31057675</v>
+        <f>6.6317507281457*B16</f>
+        <v>40.9015094798427</v>
       </c>
       <c r="D16" s="4">
         <v>0</v>
       </c>
-      <c r="E16" s="2"/>
+      <c r="E16" s="1"/>
       <c r="G16">
         <v>0.85</v>
       </c>
@@ -2276,27 +4725,21 @@
         <v>5.71688096557422</v>
       </c>
       <c r="I16">
-        <v>0.85</v>
+        <v>0.93</v>
       </c>
       <c r="J16">
         <f t="shared" si="2"/>
-        <v>5.63698811892385</v>
+        <v>6.1675281771755</v>
       </c>
     </row>
     <row r="17" customFormat="1" spans="1:10">
       <c r="A17" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="2">
-        <v>5.30540058251656</v>
-      </c>
-      <c r="C17" s="3">
-        <v>-9.2470915</v>
-      </c>
       <c r="D17" s="4">
         <v>0</v>
       </c>
-      <c r="E17" s="2"/>
+      <c r="E17" s="1"/>
       <c r="G17">
         <v>0.8</v>
       </c>
@@ -2304,28 +4747,19 @@
         <f t="shared" si="1"/>
         <v>5.38059384995221</v>
       </c>
-      <c r="I17">
-        <v>0.8</v>
-      </c>
       <c r="J17">
         <f t="shared" si="2"/>
-        <v>5.30540058251656</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="1" spans="1:10">
       <c r="A18" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="2">
-        <v>4.97381304610928</v>
-      </c>
-      <c r="C18" s="3">
-        <v>-9.13348925</v>
-      </c>
       <c r="D18" s="4">
         <v>0</v>
       </c>
-      <c r="E18" s="2"/>
+      <c r="E18" s="1"/>
       <c r="G18">
         <v>0.75</v>
       </c>
@@ -2345,16 +4779,10 @@
       <c r="A19" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="2">
-        <v>4.64222550970199</v>
-      </c>
-      <c r="C19" s="3">
-        <v>-8.9380785</v>
-      </c>
       <c r="D19" s="4">
         <v>0</v>
       </c>
-      <c r="E19" s="2"/>
+      <c r="E19" s="1"/>
       <c r="G19">
         <v>0.7</v>
       </c>
@@ -2374,16 +4802,10 @@
       <c r="A20" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="2">
-        <v>4.31063797329471</v>
-      </c>
-      <c r="C20" s="3">
-        <v>-8.63161825</v>
-      </c>
       <c r="D20" s="4">
         <v>0</v>
       </c>
-      <c r="E20" s="2"/>
+      <c r="E20" s="1"/>
       <c r="G20">
         <v>0.65</v>
       </c>
@@ -2403,16 +4825,10 @@
       <c r="A21" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="2">
-        <v>3.97905043688742</v>
-      </c>
-      <c r="C21" s="3">
-        <v>-8.18573275</v>
-      </c>
       <c r="D21" s="4">
         <v>0</v>
       </c>
-      <c r="E21" s="2"/>
+      <c r="E21" s="1"/>
       <c r="G21">
         <v>0.6</v>
       </c>
@@ -2432,16 +4848,16 @@
       <c r="A22" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="2">
-        <v>3.64746290048014</v>
-      </c>
-      <c r="C22" s="3">
-        <v>-7.534209</v>
+      <c r="B22" s="1">
+        <v>7.62651333736756</v>
+      </c>
+      <c r="C22">
+        <v>-9.35571075</v>
       </c>
       <c r="D22" s="4">
         <v>0</v>
       </c>
-      <c r="E22" s="2"/>
+      <c r="E22" s="1"/>
       <c r="G22">
         <v>0.55</v>
       </c>
@@ -2461,16 +4877,16 @@
       <c r="A23" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="2">
-        <v>3.31587536407285</v>
-      </c>
-      <c r="C23" s="3">
-        <v>-6.56529875</v>
+      <c r="B23" s="1">
+        <v>7.29492580096027</v>
+      </c>
+      <c r="C23">
+        <v>-9.36041425</v>
       </c>
       <c r="D23" s="4">
         <v>0</v>
       </c>
-      <c r="E23" s="2"/>
+      <c r="E23" s="1"/>
       <c r="G23">
         <v>0.5</v>
       </c>
@@ -2483,23 +4899,23 @@
       </c>
       <c r="J23">
         <f t="shared" si="2"/>
-        <v>3.31587536407285</v>
+        <v>3.31587536407286</v>
       </c>
     </row>
     <row r="24" customFormat="1" spans="1:10">
       <c r="A24" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="2">
-        <v>2.98428782766557</v>
-      </c>
-      <c r="C24" s="3">
-        <v>-5.3080285</v>
+      <c r="B24" s="1">
+        <v>5.96857565533113</v>
+      </c>
+      <c r="C24">
+        <v>-9.3439195</v>
       </c>
       <c r="D24" s="4">
         <v>0</v>
       </c>
-      <c r="E24" s="2"/>
+      <c r="E24" s="1"/>
       <c r="G24">
         <v>0.45</v>
       </c>
@@ -2519,16 +4935,16 @@
       <c r="A25" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="2">
-        <v>2.65270029125828</v>
-      </c>
-      <c r="C25" s="3">
-        <v>-3.53590775</v>
+      <c r="B25" s="1">
+        <v>5.63698811892385</v>
+      </c>
+      <c r="C25">
+        <v>-9.31057675</v>
       </c>
       <c r="D25" s="4">
         <v>0</v>
       </c>
-      <c r="E25" s="2"/>
+      <c r="E25" s="1"/>
       <c r="G25">
         <v>0.399999999999999</v>
       </c>
@@ -2541,17 +4957,85 @@
       </c>
       <c r="J25">
         <f t="shared" si="2"/>
-        <v>2.65270029125828</v>
-      </c>
-    </row>
-    <row r="26" customFormat="1" spans="1:1">
+        <v>2.65270029125829</v>
+      </c>
+    </row>
+    <row r="26" customFormat="1" spans="1:3">
       <c r="A26" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="27" customFormat="1" spans="1:1">
+      <c r="B26" s="1">
+        <v>5.30540058251656</v>
+      </c>
+      <c r="C26">
+        <v>-9.2470915</v>
+      </c>
+    </row>
+    <row r="27" customFormat="1" spans="1:3">
       <c r="A27" t="s">
         <v>29</v>
+      </c>
+      <c r="B27" s="1">
+        <v>4.97381304610928</v>
+      </c>
+      <c r="C27">
+        <v>-9.13348925</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3">
+      <c r="B28" s="1">
+        <v>4.64222550970199</v>
+      </c>
+      <c r="C28">
+        <v>-8.9380785</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3">
+      <c r="B29" s="1">
+        <v>4.31063797329471</v>
+      </c>
+      <c r="C29">
+        <v>-8.63161825</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3">
+      <c r="B30" s="1">
+        <v>3.97905043688742</v>
+      </c>
+      <c r="C30">
+        <v>-8.18573275</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3">
+      <c r="B31" s="1">
+        <v>3.64746290048014</v>
+      </c>
+      <c r="C31">
+        <v>-7.534209</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3">
+      <c r="B32" s="1">
+        <v>3.31587536407285</v>
+      </c>
+      <c r="C32">
+        <v>-6.56529875</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3">
+      <c r="B33" s="1">
+        <v>2.98428782766557</v>
+      </c>
+      <c r="C33">
+        <v>-5.3080285</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3">
+      <c r="B34" s="1">
+        <v>2.65270029125828</v>
+      </c>
+      <c r="C34">
+        <v>-3.53590775</v>
       </c>
     </row>
   </sheetData>
@@ -2592,13 +5076,13 @@
       <c r="C1" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="1">
+      <c r="D1" s="2">
         <v>-37.198963</v>
       </c>
       <c r="E1" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="1">
+      <c r="F1" s="2">
         <v>-37.198963</v>
       </c>
       <c r="G1" t="s">
@@ -2622,13 +5106,13 @@
       <c r="C2" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="2">
         <v>-37.213084</v>
       </c>
       <c r="E2" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="2">
         <v>-37.213084</v>
       </c>
       <c r="G2" t="s">
@@ -2652,13 +5136,13 @@
       <c r="C3" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="2">
         <v>-37.221192</v>
       </c>
       <c r="E3" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="2">
         <v>-37.221192</v>
       </c>
       <c r="G3" t="s">
@@ -2682,13 +5166,13 @@
       <c r="C4" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="2">
         <v>-37.221673</v>
       </c>
       <c r="E4" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="2">
         <v>-37.221673</v>
       </c>
       <c r="G4" t="s">
@@ -2712,13 +5196,13 @@
       <c r="C5" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="2">
         <v>-37.221664</v>
       </c>
       <c r="E5" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="2">
         <v>-37.221664</v>
       </c>
       <c r="G5" t="s">
@@ -2742,13 +5226,13 @@
       <c r="C6" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="2">
         <v>-37.221032</v>
       </c>
       <c r="E6" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="2">
         <v>-37.221032</v>
       </c>
       <c r="G6" t="s">
@@ -2772,13 +5256,13 @@
       <c r="C7" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="2">
         <v>-37.219775</v>
       </c>
       <c r="E7" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="2">
         <v>-37.219775</v>
       </c>
       <c r="G7" t="s">
@@ -2802,13 +5286,13 @@
       <c r="C8" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="2">
         <v>-37.217743</v>
       </c>
       <c r="E8" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="2">
         <v>-37.217743</v>
       </c>
       <c r="G8" t="s">
@@ -2832,13 +5316,13 @@
       <c r="C9" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="2">
         <v>-37.214844</v>
       </c>
       <c r="E9" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="2">
         <v>-37.214844</v>
       </c>
       <c r="G9" t="s">
@@ -2862,13 +5346,13 @@
       <c r="C10" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="2">
         <v>-37.210978</v>
       </c>
       <c r="E10" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="2">
         <v>-37.210978</v>
       </c>
       <c r="G10" t="s">
@@ -2892,13 +5376,13 @@
       <c r="C11" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="2">
         <v>-37.205987</v>
       </c>
       <c r="E11" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="2">
         <v>-37.205987</v>
       </c>
       <c r="G11" t="s">
@@ -2922,13 +5406,13 @@
       <c r="C12" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="2">
         <v>-37.199727</v>
       </c>
       <c r="E12" t="s">
         <v>32</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="2">
         <v>-37.199727</v>
       </c>
       <c r="G12" t="s">
@@ -2952,13 +5436,13 @@
       <c r="C13" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="2">
         <v>-37.192026</v>
       </c>
       <c r="E13" t="s">
         <v>32</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="2">
         <v>-37.192026</v>
       </c>
       <c r="G13" t="s">
@@ -2982,13 +5466,13 @@
       <c r="C14" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="2">
         <v>-37.125248</v>
       </c>
       <c r="E14" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="2">
         <v>-37.125248</v>
       </c>
       <c r="G14" t="s">
@@ -3012,13 +5496,13 @@
       <c r="C15" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="2">
         <v>-36.987991</v>
       </c>
       <c r="E15" t="s">
         <v>32</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" s="2">
         <v>-36.987991</v>
       </c>
       <c r="G15" t="s">
@@ -3042,13 +5526,13 @@
       <c r="C16" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="2">
         <v>-36.737023</v>
       </c>
       <c r="E16" t="s">
         <v>32</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="2">
         <v>-36.737023</v>
       </c>
       <c r="G16" t="s">
@@ -3072,13 +5556,13 @@
       <c r="C17" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="2">
         <v>-36.306229</v>
       </c>
       <c r="E17" t="s">
         <v>32</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17" s="2">
         <v>-36.306229</v>
       </c>
       <c r="G17" t="s">
@@ -3102,13 +5586,13 @@
       <c r="C18" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="2">
         <v>-35.587047</v>
       </c>
       <c r="E18" t="s">
         <v>32</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18" s="2">
         <v>-35.587047</v>
       </c>
       <c r="G18" t="s">
@@ -3132,13 +5616,13 @@
       <c r="C19" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="2">
         <v>-34.443888</v>
       </c>
       <c r="E19" t="s">
         <v>32</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19" s="2">
         <v>-34.443888</v>
       </c>
       <c r="G19" t="s">
@@ -3162,13 +5646,13 @@
       <c r="C20" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="2">
         <v>-32.739216</v>
       </c>
       <c r="E20" t="s">
         <v>32</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20" s="2">
         <v>-32.739216</v>
       </c>
       <c r="G20" t="s">
@@ -3192,13 +5676,13 @@
       <c r="C21" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="2">
         <v>-30.244928</v>
       </c>
       <c r="E21" t="s">
         <v>32</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21" s="2">
         <v>-30.244928</v>
       </c>
       <c r="G21" t="s">
@@ -3222,13 +5706,13 @@
       <c r="C22" t="s">
         <v>31</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="2">
         <v>-26.487302</v>
       </c>
       <c r="E22" t="s">
         <v>32</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F22" s="2">
         <v>-26.487302</v>
       </c>
       <c r="G22" t="s">
@@ -3252,13 +5736,13 @@
       <c r="C23" t="s">
         <v>31</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="2">
         <v>-21.520284</v>
       </c>
       <c r="E23" t="s">
         <v>32</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F23" s="2">
         <v>-21.520284</v>
       </c>
       <c r="G23" t="s">
@@ -3282,13 +5766,13 @@
       <c r="C24" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="2">
         <v>-14.619444</v>
       </c>
       <c r="E24" t="s">
         <v>32</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F24" s="2">
         <v>-14.619444</v>
       </c>
       <c r="G24" t="s">
@@ -3340,13 +5824,13 @@
       <c r="C1" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="1">
+      <c r="D1" s="2">
         <v>-37.422843</v>
       </c>
       <c r="E1" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="1">
+      <c r="F1" s="2">
         <v>-37.422843</v>
       </c>
       <c r="G1" t="s">
@@ -3374,13 +5858,13 @@
       <c r="C2" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="2">
         <v>-37.441657</v>
       </c>
       <c r="E2" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="2">
         <v>-37.441657</v>
       </c>
       <c r="G2" t="s">
@@ -3408,13 +5892,13 @@
       <c r="C3" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="2">
         <v>-37.455515</v>
       </c>
       <c r="E3" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="2">
         <v>-37.455515</v>
       </c>
       <c r="G3" t="s">
@@ -3442,13 +5926,13 @@
       <c r="C4" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="2">
         <v>-37.457164</v>
       </c>
       <c r="E4" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="2">
         <v>-37.457164</v>
       </c>
       <c r="G4" t="s">
@@ -3476,13 +5960,13 @@
       <c r="C5" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="2">
         <v>-37.458323</v>
       </c>
       <c r="E5" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="2">
         <v>-37.458323</v>
       </c>
       <c r="G5" t="s">
@@ -3510,13 +5994,13 @@
       <c r="C6" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="2">
         <v>-37.458877</v>
       </c>
       <c r="E6" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="2">
         <v>-37.458877</v>
       </c>
       <c r="G6" t="s">
@@ -3544,13 +6028,13 @@
       <c r="C7" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="2">
         <v>-37.458736</v>
       </c>
       <c r="E7" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="2">
         <v>-37.458736</v>
       </c>
       <c r="G7" t="s">
@@ -3578,13 +6062,13 @@
       <c r="C8" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="2">
         <v>-37.457845</v>
       </c>
       <c r="E8" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="2">
         <v>-37.457845</v>
       </c>
       <c r="G8" t="s">
@@ -3612,13 +6096,13 @@
       <c r="C9" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="2">
         <v>-37.456057</v>
       </c>
       <c r="E9" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="2">
         <v>-37.456057</v>
       </c>
       <c r="G9" t="s">
@@ -3646,13 +6130,13 @@
       <c r="C10" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="2">
         <v>-37.453272</v>
       </c>
       <c r="E10" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="2">
         <v>-37.453272</v>
       </c>
       <c r="G10" t="s">
@@ -3680,13 +6164,13 @@
       <c r="C11" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="2">
         <v>-37.449309</v>
       </c>
       <c r="E11" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="2">
         <v>-37.449309</v>
       </c>
       <c r="G11" t="s">
@@ -3714,13 +6198,13 @@
       <c r="C12" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="2">
         <v>-37.444102</v>
       </c>
       <c r="E12" t="s">
         <v>32</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="2">
         <v>-37.444102</v>
       </c>
       <c r="G12" t="s">
@@ -3748,13 +6232,13 @@
       <c r="C13" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="2">
         <v>-37.437452</v>
       </c>
       <c r="E13" t="s">
         <v>32</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="2">
         <v>-37.437452</v>
       </c>
       <c r="G13" t="s">
@@ -3782,13 +6266,13 @@
       <c r="C14" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="2">
         <v>-37.375678</v>
       </c>
       <c r="E14" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="2">
         <v>-37.375678</v>
       </c>
       <c r="G14" t="s">
@@ -3816,13 +6300,13 @@
       <c r="C15" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="2">
         <v>-37.242307</v>
       </c>
       <c r="E15" t="s">
         <v>32</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" s="2">
         <v>-37.242307</v>
       </c>
       <c r="G15" t="s">
@@ -3850,13 +6334,13 @@
       <c r="C16" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="2">
         <v>-36.988366</v>
       </c>
       <c r="E16" t="s">
         <v>32</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="2">
         <v>-36.988366</v>
       </c>
       <c r="G16" t="s">
@@ -3884,13 +6368,13 @@
       <c r="C17" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="2">
         <v>-36.533957</v>
       </c>
       <c r="E17" t="s">
         <v>32</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17" s="2">
         <v>-36.533957</v>
       </c>
       <c r="G17" t="s">
@@ -3918,13 +6402,13 @@
       <c r="C18" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="2">
         <v>-35.752314</v>
       </c>
       <c r="E18" t="s">
         <v>32</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18" s="2">
         <v>-35.752314</v>
       </c>
       <c r="G18" t="s">
@@ -3952,13 +6436,13 @@
       <c r="C19" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="2">
         <v>-34.526473</v>
       </c>
       <c r="E19" t="s">
         <v>32</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19" s="2">
         <v>-34.526473</v>
       </c>
       <c r="G19" t="s">
@@ -3986,13 +6470,13 @@
       <c r="C20" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="2">
         <v>-32.742931</v>
       </c>
       <c r="E20" t="s">
         <v>32</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20" s="2">
         <v>-32.742931</v>
       </c>
       <c r="G20" t="s">
@@ -4006,7 +6490,7 @@
         <v>-1.26502e-5</v>
       </c>
       <c r="J20">
-        <f>F20/4</f>
+        <f t="shared" si="0"/>
         <v>-8.18573275</v>
       </c>
     </row>
@@ -4020,13 +6504,13 @@
       <c r="C21" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="2">
         <v>-30.136836</v>
       </c>
       <c r="E21" t="s">
         <v>32</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21" s="2">
         <v>-30.136836</v>
       </c>
       <c r="G21" t="s">
@@ -4040,7 +6524,7 @@
         <v>-2.35889e-5</v>
       </c>
       <c r="J21">
-        <f>F21/4</f>
+        <f t="shared" si="0"/>
         <v>-7.534209</v>
       </c>
     </row>
@@ -4054,13 +6538,13 @@
       <c r="C22" t="s">
         <v>31</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="2">
         <v>-26.261195</v>
       </c>
       <c r="E22" t="s">
         <v>32</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F22" s="2">
         <v>-26.261195</v>
       </c>
       <c r="G22" t="s">
@@ -4074,7 +6558,7 @@
         <v>-26.2612</v>
       </c>
       <c r="J22">
-        <f>F22/4</f>
+        <f t="shared" si="0"/>
         <v>-6.56529875</v>
       </c>
     </row>
@@ -4088,13 +6572,13 @@
       <c r="C23" t="s">
         <v>31</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="2">
         <v>-21.232114</v>
       </c>
       <c r="E23" t="s">
         <v>32</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F23" s="2">
         <v>-21.232114</v>
       </c>
       <c r="G23" t="s">
@@ -4108,7 +6592,7 @@
         <v>-0.000143453</v>
       </c>
       <c r="J23">
-        <f>F23/4</f>
+        <f t="shared" si="0"/>
         <v>-5.3080285</v>
       </c>
     </row>
@@ -4122,13 +6606,13 @@
       <c r="C24" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="2">
         <v>-14.143631</v>
       </c>
       <c r="E24" t="s">
         <v>32</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F24" s="2">
         <v>-14.143631</v>
       </c>
       <c r="G24" t="s">
@@ -4142,7 +6626,7 @@
         <v>-6.03664e-5</v>
       </c>
       <c r="J24">
-        <f>F24/4</f>
+        <f t="shared" si="0"/>
         <v>-3.53590775</v>
       </c>
     </row>
@@ -4150,4 +6634,1428 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:G24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="16.375" customWidth="1"/>
+    <col min="2" max="2" width="2.375" customWidth="1"/>
+    <col min="3" max="3" width="11.5" customWidth="1"/>
+    <col min="4" max="5" width="2.375" customWidth="1"/>
+    <col min="6" max="6" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="12.625"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>64.7392709</v>
+      </c>
+      <c r="D1">
+        <v>0</v>
+      </c>
+      <c r="E1">
+        <v>0</v>
+      </c>
+      <c r="F1">
+        <v>64.7392709</v>
+      </c>
+      <c r="G1">
+        <f>C1*1000/6.022140857E+23*6242000000000000000/32</f>
+        <v>0.0209696258021805</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>65.1230977</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>65.1230977</v>
+      </c>
+      <c r="G2">
+        <f t="shared" ref="G2:G24" si="0">C2*1000/6.022140857E+23*6242000000000000000/32</f>
+        <v>0.0210939507174438</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>65.7098612</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>65.7098612</v>
+      </c>
+      <c r="G3">
+        <f t="shared" si="0"/>
+        <v>0.0212840086352783</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>65.6899503</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>65.6899503</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>0.0212775593176295</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>65.7649873</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>72.8132429</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>0.0213018644695016</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>65.8146289</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>65.8146289</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>0.0213179438253818</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>65.8802829</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>65.8802829</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>0.0213392097400774</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>72.8132429</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>72.8132429</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>0.0235848571636644</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>66.2587349</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>66.2587349</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>0.0214617937098034</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>66.3663481</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>66.3663481</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>0.0214966505826721</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>72.8132429</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>72.8132429</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>0.0235848571636644</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>72.8132429</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>72.8132429</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>0.0235848571636644</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>66.2587349</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>66.2587349</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>0.0214617937098034</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>66.3663481</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>66.3663481</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>0.0214966505826721</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>66.5061517</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>66.5061517</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>0.0215419342124851</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>66.6643361</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>66.6643361</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>0.0215931715469442</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>66.8469612</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>66.8469612</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>0.0216523254415718</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>74</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>66.8870315</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>66.8870315</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>0.0216653045682302</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>75</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>65.7001752</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>65.7001752</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="0"/>
+        <v>0.021280871253706</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>76</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>62.9240536</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>62.9240536</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="0"/>
+        <v>0.0203816607694967</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>77</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>57.9594963</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>57.9594963</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="0"/>
+        <v>0.0187735964924786</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>78</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>50.0209324</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>50.0209324</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="0"/>
+        <v>0.0162022250192528</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>79</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>49.6791241</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>49.6791241</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="0"/>
+        <v>0.0160915102699602</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>80</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>48.0262328</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>48.0262328</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="0"/>
+        <v>0.0155561240728216</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:J26"/>
+  <sheetViews>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A13" sqref="A1:G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="12.625"/>
+    <col min="2" max="2" width="14" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="2.875" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="3.375" hidden="1" customWidth="1"/>
+    <col min="5" max="6" width="11.5" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5" customWidth="1"/>
+    <col min="8" max="8" width="9.375" customWidth="1"/>
+    <col min="9" max="10" width="2.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="1">
+        <v>7.734603659</v>
+      </c>
+      <c r="B1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1">
+        <v>-2.70814</v>
+      </c>
+      <c r="F1">
+        <v>-2.38469</v>
+      </c>
+      <c r="G1">
+        <v>-17.4798</v>
+      </c>
+      <c r="H1">
+        <v>0.28012</v>
+      </c>
+      <c r="I1">
+        <v>0</v>
+      </c>
+      <c r="J1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="1">
+        <v>7.398316544</v>
+      </c>
+      <c r="B2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2">
+        <v>-3.40202</v>
+      </c>
+      <c r="F2">
+        <v>-3.18118</v>
+      </c>
+      <c r="G2">
+        <v>-13.7949</v>
+      </c>
+      <c r="H2">
+        <v>0.19125</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="1">
+        <v>7.06202942799999</v>
+      </c>
+      <c r="B3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E3">
+        <v>-4.50753</v>
+      </c>
+      <c r="F3">
+        <v>-4.36693</v>
+      </c>
+      <c r="G3">
+        <v>-6.49711</v>
+      </c>
+      <c r="H3">
+        <v>0.12176</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="1">
+        <v>6.99477200493787</v>
+      </c>
+      <c r="B4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E4">
+        <v>-4.78273</v>
+      </c>
+      <c r="F4">
+        <v>-4.65799</v>
+      </c>
+      <c r="G4">
+        <v>-4.36941</v>
+      </c>
+      <c r="H4">
+        <v>0.10803</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="1">
+        <v>6.92751458181347</v>
+      </c>
+      <c r="B5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E5">
+        <v>-5.08591</v>
+      </c>
+      <c r="F5">
+        <v>-4.97691</v>
+      </c>
+      <c r="G5">
+        <v>-1.94466</v>
+      </c>
+      <c r="H5">
+        <v>0.09439</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="1">
+        <v>6.86025715868907</v>
+      </c>
+      <c r="B6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6">
+        <v>-5.40348</v>
+      </c>
+      <c r="F6">
+        <v>-5.31029</v>
+      </c>
+      <c r="G6">
+        <v>0.83872</v>
+      </c>
+      <c r="H6">
+        <v>0.08071</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7">
+        <v>6.79299973556466</v>
+      </c>
+      <c r="B7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E7">
+        <v>-5.75432</v>
+      </c>
+      <c r="F7">
+        <v>-5.67703</v>
+      </c>
+      <c r="G7">
+        <v>4.0474</v>
+      </c>
+      <c r="H7">
+        <v>0.06694</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="1">
+        <v>6.72574231244026</v>
+      </c>
+      <c r="B8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D8" t="s">
+        <v>83</v>
+      </c>
+      <c r="E8">
+        <v>-6.11871</v>
+      </c>
+      <c r="F8">
+        <v>-6.05836</v>
+      </c>
+      <c r="G8">
+        <v>7.66066</v>
+      </c>
+      <c r="H8">
+        <v>0.05226</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="1">
+        <v>6.65848488931586</v>
+      </c>
+      <c r="B9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" t="s">
+        <v>83</v>
+      </c>
+      <c r="E9">
+        <v>-6.54105</v>
+      </c>
+      <c r="F9">
+        <v>-6.49676</v>
+      </c>
+      <c r="G9">
+        <v>12.09655</v>
+      </c>
+      <c r="H9">
+        <v>0.03836</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="1">
+        <v>6.59122746619145</v>
+      </c>
+      <c r="B10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E10">
+        <v>-6.92346</v>
+      </c>
+      <c r="F10">
+        <v>-6.89808</v>
+      </c>
+      <c r="G10">
+        <v>16.50845</v>
+      </c>
+      <c r="H10">
+        <v>0.02197</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1">
+        <v>6.52397004306705</v>
+      </c>
+      <c r="B11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E11">
+        <v>-7.3603</v>
+      </c>
+      <c r="F11">
+        <v>-7.35282</v>
+      </c>
+      <c r="G11">
+        <v>21.84954</v>
+      </c>
+      <c r="H11">
+        <v>0.00648</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1">
+        <v>6.45671261994265</v>
+      </c>
+      <c r="B12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12" t="s">
+        <v>83</v>
+      </c>
+      <c r="E12">
+        <v>-7.85094</v>
+      </c>
+      <c r="F12">
+        <v>-7.86154</v>
+      </c>
+      <c r="G12">
+        <v>28.1936</v>
+      </c>
+      <c r="H12">
+        <v>-0.00918</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1">
+        <v>6.389455197</v>
+      </c>
+      <c r="B13" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" t="s">
+        <v>83</v>
+      </c>
+      <c r="E13">
+        <v>-8.29527</v>
+      </c>
+      <c r="F13">
+        <v>-8.3259</v>
+      </c>
+      <c r="G13">
+        <v>34.70399</v>
+      </c>
+      <c r="H13">
+        <v>-0.02652</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1">
+        <v>6.05316808099999</v>
+      </c>
+      <c r="B14" t="s">
+        <v>96</v>
+      </c>
+      <c r="C14" t="s">
+        <v>82</v>
+      </c>
+      <c r="D14" t="s">
+        <v>83</v>
+      </c>
+      <c r="E14">
+        <v>-11.01718</v>
+      </c>
+      <c r="F14">
+        <v>-11.15287</v>
+      </c>
+      <c r="G14">
+        <v>83.13759</v>
+      </c>
+      <c r="H14">
+        <v>-0.11751</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="1">
+        <v>5.71688096599999</v>
+      </c>
+      <c r="B15" t="s">
+        <v>97</v>
+      </c>
+      <c r="C15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D15" t="s">
+        <v>83</v>
+      </c>
+      <c r="E15">
+        <v>-14.16293</v>
+      </c>
+      <c r="F15">
+        <v>-14.41278</v>
+      </c>
+      <c r="G15">
+        <v>163.64584</v>
+      </c>
+      <c r="H15">
+        <v>-0.21637</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="1">
+        <v>5.38059385</v>
+      </c>
+      <c r="B16" t="s">
+        <v>98</v>
+      </c>
+      <c r="C16" t="s">
+        <v>82</v>
+      </c>
+      <c r="D16" t="s">
+        <v>83</v>
+      </c>
+      <c r="E16">
+        <v>-17.17197</v>
+      </c>
+      <c r="F16">
+        <v>-17.51691</v>
+      </c>
+      <c r="G16">
+        <v>291.62834</v>
+      </c>
+      <c r="H16">
+        <v>-0.29873</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="1">
+        <v>5.044306734</v>
+      </c>
+      <c r="B17" t="s">
+        <v>99</v>
+      </c>
+      <c r="C17" t="s">
+        <v>82</v>
+      </c>
+      <c r="D17" t="s">
+        <v>83</v>
+      </c>
+      <c r="E17">
+        <v>-17.75908</v>
+      </c>
+      <c r="F17">
+        <v>-18.06139</v>
+      </c>
+      <c r="G17">
+        <v>495.90418</v>
+      </c>
+      <c r="H17">
+        <v>-0.26181</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="1">
+        <v>4.70801961899999</v>
+      </c>
+      <c r="B18" t="s">
+        <v>100</v>
+      </c>
+      <c r="C18" t="s">
+        <v>82</v>
+      </c>
+      <c r="D18" t="s">
+        <v>83</v>
+      </c>
+      <c r="E18">
+        <v>-14.08485</v>
+      </c>
+      <c r="F18">
+        <v>-13.98048</v>
+      </c>
+      <c r="G18">
+        <v>817.95232</v>
+      </c>
+      <c r="H18">
+        <v>0.09039</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="1">
+        <v>4.37173250299999</v>
+      </c>
+      <c r="B19" t="s">
+        <v>101</v>
+      </c>
+      <c r="C19" t="s">
+        <v>82</v>
+      </c>
+      <c r="D19" t="s">
+        <v>83</v>
+      </c>
+      <c r="E19">
+        <v>-9.69094</v>
+      </c>
+      <c r="F19">
+        <v>-9.39747</v>
+      </c>
+      <c r="G19">
+        <v>1262.64436</v>
+      </c>
+      <c r="H19">
+        <v>0.25415</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="1">
+        <v>4.035445387</v>
+      </c>
+      <c r="B20" t="s">
+        <v>102</v>
+      </c>
+      <c r="C20" t="s">
+        <v>82</v>
+      </c>
+      <c r="D20" t="s">
+        <v>83</v>
+      </c>
+      <c r="E20">
+        <v>62.64671</v>
+      </c>
+      <c r="F20">
+        <v>63.09021</v>
+      </c>
+      <c r="G20">
+        <v>1845.37527</v>
+      </c>
+      <c r="H20">
+        <v>0.38408</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="1">
+        <v>3.69915827100001</v>
+      </c>
+      <c r="B21" t="s">
+        <v>103</v>
+      </c>
+      <c r="C21" t="s">
+        <v>82</v>
+      </c>
+      <c r="D21" t="s">
+        <v>83</v>
+      </c>
+      <c r="E21">
+        <v>238.657</v>
+      </c>
+      <c r="F21">
+        <v>238.98526</v>
+      </c>
+      <c r="G21">
+        <v>2781.77108</v>
+      </c>
+      <c r="H21">
+        <v>0.28428</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="1">
+        <v>3.36287115500002</v>
+      </c>
+      <c r="B22" t="s">
+        <v>104</v>
+      </c>
+      <c r="C22" t="s">
+        <v>82</v>
+      </c>
+      <c r="D22" t="s">
+        <v>83</v>
+      </c>
+      <c r="E22">
+        <v>709.01882</v>
+      </c>
+      <c r="F22">
+        <v>708.28629</v>
+      </c>
+      <c r="G22">
+        <v>4109.4174</v>
+      </c>
+      <c r="H22">
+        <v>-0.6344</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="1">
+        <v>3.02658403900003</v>
+      </c>
+      <c r="B23" t="s">
+        <v>105</v>
+      </c>
+      <c r="C23" t="s">
+        <v>82</v>
+      </c>
+      <c r="D23" t="s">
+        <v>83</v>
+      </c>
+      <c r="E23">
+        <v>1922.70321</v>
+      </c>
+      <c r="F23">
+        <v>1921.58153</v>
+      </c>
+      <c r="G23">
+        <v>5152.91824</v>
+      </c>
+      <c r="H23">
+        <v>-0.9714</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="1">
+        <v>2.69029692300004</v>
+      </c>
+      <c r="B24" t="s">
+        <v>106</v>
+      </c>
+      <c r="C24" t="s">
+        <v>82</v>
+      </c>
+      <c r="D24" t="s">
+        <v>83</v>
+      </c>
+      <c r="E24">
+        <v>3453.20136</v>
+      </c>
+      <c r="F24">
+        <v>3452.14486</v>
+      </c>
+      <c r="G24">
+        <v>7654.28943</v>
+      </c>
+      <c r="H24">
+        <v>-0.91496</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25">
+        <v>2.35400980700005</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26">
+        <v>2.01772269100006</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
 </file>
--- a/data/data_collection.xlsx
+++ b/data/data_collection.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8400" tabRatio="500" activeTab="1"/>
+    <workbookView windowWidth="20145" windowHeight="7395" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="data11" sheetId="1" r:id="rId1"/>
@@ -14,12 +14,16 @@
     <sheet name="phonopy" sheetId="5" r:id="rId5"/>
     <sheet name="Sheet4" sheetId="6" r:id="rId6"/>
     <sheet name="Sheet5" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet3" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="ExternalData_1" localSheetId="2">Sheet1!$A$1:$I$24</definedName>
     <definedName name="ExternalData_1" localSheetId="3">Sheet2!$A$1:$I$24</definedName>
     <definedName name="ExternalData_1" localSheetId="4">phonopy!$A$1:$F$24</definedName>
     <definedName name="ExternalData_1" localSheetId="6">Sheet5!$B$1:$J$24</definedName>
+    <definedName name="ExternalData_1" localSheetId="5">Sheet4!$A$1:$I$24</definedName>
+    <definedName name="ExternalData_2" localSheetId="5">Sheet4!$K$1:$S$24</definedName>
+    <definedName name="ExternalData_1" localSheetId="7">Sheet3!$A$1:$F$24</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
@@ -31,7 +35,7 @@
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="B22" authorId="0">
+    <comment ref="B2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -89,14 +93,35 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="3" name="tmpp" type="6" background="1" refreshedVersion="2" saveData="1">
+  <connection id="3" name="tmp2" type="6" background="1" refreshedVersion="2" saveData="1">
+    <textPr sourceFile="F:\William\PV0c\tmp.txt" space="1" consecutive="1">
+      <textFields>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="4" name="tmpp" type="6" background="1" refreshedVersion="2" saveData="1">
     <textPr sourceFile="F:\William\PV0c\tmpp.txt" space="1" consecutive="1">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="4" name="tmpt" type="6" background="1" refreshedVersion="2" saveData="1">
+  <connection id="5" name="tmpp1" type="6" background="1" refreshedVersion="2" saveData="1">
+    <textPr sourceFile="F:\William\PV0c\tmpp.txt" space="1" consecutive="1">
+      <textFields>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="6" name="tmpt" type="6" background="1" refreshedVersion="2" saveData="1">
+    <textPr sourceFile="F:\William\PV0c\tmpt.txt" space="1" consecutive="1">
+      <textFields>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="7" name="tmpt1" type="6" background="1" refreshedVersion="2" saveData="1">
     <textPr sourceFile="F:\William\PV0c\tmpt.txt" space="1" consecutive="1">
       <textFields>
         <textField/>
@@ -107,7 +132,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108">
   <si>
     <t>C(A)</t>
   </si>
@@ -197,6 +222,9 @@
   </si>
   <si>
     <t>z19</t>
+  </si>
+  <si>
+    <t>zz(stress GPa)</t>
   </si>
   <si>
     <t>./a/OSZICAR:</t>
@@ -435,8 +463,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
@@ -456,31 +484,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -496,7 +509,29 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -508,9 +543,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -532,15 +581,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -553,50 +620,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -616,7 +644,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -628,73 +680,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -712,31 +704,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -754,19 +722,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -778,19 +746,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -812,10 +840,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -824,8 +850,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -846,16 +872,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -875,6 +901,32 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -883,175 +935,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1059,8 +1087,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3337,7 +3365,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="0" nextId="7">
     <queryTableFields count="6">
       <queryTableField id="1" dataBound="0"/>
@@ -3352,6 +3380,24 @@
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_2" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+  <queryTableRefresh preserveSortFilterLayout="0" nextId="10">
+    <queryTableFields count="9">
+      <queryTableField id="1" dataBound="0"/>
+      <queryTableField id="2" dataBound="0"/>
+      <queryTableField id="3" dataBound="0"/>
+      <queryTableField id="4" dataBound="0"/>
+      <queryTableField id="5" dataBound="0"/>
+      <queryTableField id="6" dataBound="0"/>
+      <queryTableField id="7" dataBound="0"/>
+      <queryTableField id="8" dataBound="0"/>
+      <queryTableField id="9" dataBound="0"/>
+    </queryTableFields>
+  </queryTableRefresh>
+</queryTable>
+</file>
+
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="0" nextId="10">
     <queryTableFields count="9">
@@ -3364,6 +3410,39 @@
       <queryTableField id="7" dataBound="0"/>
       <queryTableField id="8" dataBound="0"/>
       <queryTableField id="9" dataBound="0"/>
+    </queryTableFields>
+  </queryTableRefresh>
+</queryTable>
+</file>
+
+<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+  <queryTableRefresh preserveSortFilterLayout="0" nextId="10">
+    <queryTableFields count="9">
+      <queryTableField id="1" dataBound="0"/>
+      <queryTableField id="2" dataBound="0"/>
+      <queryTableField id="3" dataBound="0"/>
+      <queryTableField id="4" dataBound="0"/>
+      <queryTableField id="5" dataBound="0"/>
+      <queryTableField id="6" dataBound="0"/>
+      <queryTableField id="7" dataBound="0"/>
+      <queryTableField id="8" dataBound="0"/>
+      <queryTableField id="9" dataBound="0"/>
+    </queryTableFields>
+  </queryTableRefresh>
+</queryTable>
+</file>
+
+<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+  <queryTableRefresh preserveSortFilterLayout="0" nextId="7">
+    <queryTableFields count="6">
+      <queryTableField id="1" dataBound="0"/>
+      <queryTableField id="2" dataBound="0"/>
+      <queryTableField id="3" dataBound="0"/>
+      <queryTableField id="4" dataBound="0"/>
+      <queryTableField id="5" dataBound="0"/>
+      <queryTableField id="6" dataBound="0"/>
     </queryTableFields>
   </queryTableRefresh>
 </queryTable>
@@ -3631,7 +3710,7 @@
   <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B5"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -3691,7 +3770,7 @@
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4">
         <v>7.06202942806227</v>
       </c>
       <c r="C4">
@@ -3720,14 +3799,14 @@
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5">
         <v>6.99477200493787</v>
       </c>
       <c r="C5">
         <v>-9.30541825</v>
       </c>
       <c r="D5" s="1">
-        <f t="shared" ref="D5:D13" si="0">C5+E5</f>
+        <f t="shared" ref="D5:D14" si="0">C5+E5</f>
         <v>-9.28414069068237</v>
       </c>
       <c r="E5" s="1">
@@ -3745,7 +3824,7 @@
       <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6">
         <v>6.92751458181347</v>
       </c>
       <c r="C6">
@@ -3770,7 +3849,7 @@
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7">
         <v>6.86025715868907</v>
       </c>
       <c r="C7">
@@ -3795,7 +3874,7 @@
       <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8">
         <v>6.79299973556466</v>
       </c>
       <c r="C8">
@@ -3820,7 +3899,7 @@
       <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9">
         <v>6.72574231244026</v>
       </c>
       <c r="C9">
@@ -3852,7 +3931,7 @@
       <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10">
         <v>6.65848488931586</v>
       </c>
       <c r="C10">
@@ -3877,7 +3956,7 @@
       <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11">
         <v>6.59122746619145</v>
       </c>
       <c r="C11">
@@ -3902,7 +3981,7 @@
       <c r="A12" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12">
         <v>6.52397004306705</v>
       </c>
       <c r="C12">
@@ -3927,7 +4006,7 @@
       <c r="A13" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13">
         <v>6.45671261994265</v>
       </c>
       <c r="C13">
@@ -3952,14 +4031,14 @@
       <c r="A14" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14">
         <v>6.38945519681825</v>
       </c>
       <c r="C14">
         <v>-9.2980065</v>
       </c>
       <c r="D14" s="1">
-        <f>C14+E14</f>
+        <f t="shared" si="0"/>
         <v>-9.2765447062902</v>
       </c>
       <c r="E14" s="1">
@@ -3984,7 +4063,7 @@
       <c r="A15" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15">
         <v>6.32219777369384</v>
       </c>
       <c r="G15">
@@ -4006,7 +4085,7 @@
       <c r="A16" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16">
         <v>6.25494035056944</v>
       </c>
       <c r="G16">
@@ -4143,7 +4222,7 @@
       </c>
     </row>
     <row r="29" spans="2:5">
-      <c r="B29" s="3">
+      <c r="B29">
         <v>7.7346036593063</v>
       </c>
       <c r="C29">
@@ -4158,7 +4237,7 @@
       </c>
     </row>
     <row r="30" spans="2:5">
-      <c r="B30" s="3">
+      <c r="B30">
         <v>7.39831654368429</v>
       </c>
       <c r="C30">
@@ -4347,695 +4426,904 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:J34"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="2" max="2" width="19.25" customWidth="1"/>
     <col min="3" max="3" width="12.625"/>
-    <col min="4" max="4" width="13.75"/>
-    <col min="5" max="5" width="12.625"/>
-    <col min="8" max="10" width="12.625"/>
+    <col min="4" max="5" width="13.75"/>
+    <col min="6" max="6" width="12.625"/>
+    <col min="8" max="11" width="12.625"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" spans="2:5">
+    <row r="1" customFormat="1" spans="2:6">
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
+      <c r="D1"/>
       <c r="E1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="1" spans="1:10">
-      <c r="A2" t="s">
+    <row r="2" customFormat="1" spans="2:11">
+      <c r="B2" s="1">
+        <v>7.62651333736756</v>
+      </c>
+      <c r="C2">
+        <v>-9.35571075</v>
+      </c>
+      <c r="D2" s="3">
+        <f>C2+F2</f>
+        <v>-9.35571075</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>1.07</v>
+      </c>
+      <c r="K2">
+        <f t="shared" ref="K2:K14" si="0">6.6317507281457*J2</f>
+        <v>7.0959732791159</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" spans="2:11">
+      <c r="B3" s="1">
+        <v>7.29492580096027</v>
+      </c>
+      <c r="C3">
+        <v>-9.36041425</v>
+      </c>
+      <c r="D3" s="3">
+        <f t="shared" ref="D3:D27" si="1">C3+F3</f>
+        <v>-9.36041425</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>1.06</v>
+      </c>
+      <c r="K3">
+        <f t="shared" si="0"/>
+        <v>7.02965577183444</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" spans="1:11">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B4">
         <v>7.0959732791159</v>
       </c>
-      <c r="D2" s="4">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="I2">
-        <v>1.07</v>
-      </c>
-      <c r="J2">
-        <f t="shared" ref="J2:J14" si="0">6.6317507281457*I2</f>
-        <v>7.0959732791159</v>
-      </c>
-    </row>
-    <row r="3" customFormat="1" spans="1:10">
-      <c r="A3" t="s">
+      <c r="C4">
+        <v>-9.36272175</v>
+      </c>
+      <c r="D4" s="3">
+        <f t="shared" si="1"/>
+        <v>-9.36042330112505</v>
+      </c>
+      <c r="E4" s="3">
+        <v>-1.74798</v>
+      </c>
+      <c r="F4" s="4">
+        <f>B4*1000/6.022140857E+23*6242000000000000000/32</f>
+        <v>0.00229844887495222</v>
+      </c>
+      <c r="H4">
+        <v>0.95</v>
+      </c>
+      <c r="J4">
+        <v>1.05</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="0"/>
+        <v>6.96333826455299</v>
+      </c>
+    </row>
+    <row r="5" customFormat="1" spans="1:11">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B5">
         <v>7.02965577183444</v>
       </c>
-      <c r="D3" s="4">
-        <v>0</v>
-      </c>
-      <c r="E3" s="1"/>
-      <c r="I3">
-        <v>1.06</v>
-      </c>
-      <c r="J3">
-        <f t="shared" si="0"/>
-        <v>7.02965577183444</v>
-      </c>
-    </row>
-    <row r="4" customFormat="1" spans="1:10">
-      <c r="A4" t="s">
+      <c r="C5" s="4">
+        <v>-9.36334625</v>
+      </c>
+      <c r="D5" s="3">
+        <f t="shared" si="1"/>
+        <v>-9.36106928195565</v>
+      </c>
+      <c r="E5" s="3">
+        <v>-1.37949</v>
+      </c>
+      <c r="F5" s="4">
+        <f>B5*1000/6.022140857E+23*6242000000000000000/32</f>
+        <v>0.00227696804434519</v>
+      </c>
+      <c r="J5">
+        <v>1.04</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="0"/>
+        <v>6.89702075727153</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" spans="1:11">
+      <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B6" s="1">
         <v>6.96333826455299</v>
       </c>
-      <c r="C4">
+      <c r="C6">
         <v>-9.36387875</v>
       </c>
-      <c r="D4" s="4">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1"/>
-      <c r="G4">
+      <c r="D6" s="3">
+        <f t="shared" si="1"/>
+        <v>-9.36162326278626</v>
+      </c>
+      <c r="E6" s="3">
+        <v>-0.649711</v>
+      </c>
+      <c r="F6" s="4">
+        <f>B6*1000/6.022140857E+23*6242000000000000000/32</f>
+        <v>0.00225548721373816</v>
+      </c>
+      <c r="J6">
+        <v>1.03</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="0"/>
+        <v>6.83070324999007</v>
+      </c>
+    </row>
+    <row r="7" customFormat="1" spans="1:11">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1">
+        <v>6.89702075727153</v>
+      </c>
+      <c r="C7">
+        <v>-9.364291</v>
+      </c>
+      <c r="D7" s="3">
+        <f t="shared" si="1"/>
+        <v>-9.36205699361687</v>
+      </c>
+      <c r="E7" s="3">
+        <v>-0.436941</v>
+      </c>
+      <c r="F7" s="4">
+        <f>B7*1000/6.022140857E+23*6242000000000000000/32</f>
+        <v>0.00223400638313113</v>
+      </c>
+      <c r="J7">
+        <v>1.02</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="0"/>
+        <v>6.76438574270861</v>
+      </c>
+    </row>
+    <row r="8" customFormat="1" spans="1:11">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1">
+        <v>6.83070324999007</v>
+      </c>
+      <c r="C8">
+        <v>-9.36458075</v>
+      </c>
+      <c r="D8" s="3">
+        <f t="shared" si="1"/>
+        <v>-9.36236822444748</v>
+      </c>
+      <c r="E8" s="3">
+        <v>-0.194466</v>
+      </c>
+      <c r="F8" s="4">
+        <f>B8*1000/6.022140857E+23*6242000000000000000/32</f>
+        <v>0.0022125255525241</v>
+      </c>
+      <c r="H8">
+        <f>B10*2</f>
+        <v>13.3961364708543</v>
+      </c>
+      <c r="J8">
+        <v>1.01</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="0"/>
+        <v>6.69806823542716</v>
+      </c>
+    </row>
+    <row r="9" customFormat="1" spans="1:11">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="1">
+        <v>6.76438574270861</v>
+      </c>
+      <c r="C9">
+        <v>-9.36471925</v>
+      </c>
+      <c r="D9" s="3">
+        <f t="shared" si="1"/>
+        <v>-9.36252820527808</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.083872</v>
+      </c>
+      <c r="F9" s="4">
+        <f>B9*1000/6.022140857E+23*6242000000000000000/32</f>
+        <v>0.00219104472191707</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <f>6.72574231244026*H9</f>
+        <v>6.72574231244026</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="0"/>
+        <v>6.6317507281457</v>
+      </c>
+    </row>
+    <row r="10" customFormat="1" spans="1:11">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>6.69806823542716</v>
+      </c>
+      <c r="C10">
+        <v>-9.364684</v>
+      </c>
+      <c r="D10" s="3">
+        <f t="shared" si="1"/>
+        <v>-9.36251443610869</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.40474</v>
+      </c>
+      <c r="F10" s="4">
+        <f>B10*1000/6.022140857E+23*6242000000000000000/32</f>
+        <v>0.00216956389131004</v>
+      </c>
+      <c r="J10">
+        <v>0.99</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="0"/>
+        <v>6.56543322086424</v>
+      </c>
+    </row>
+    <row r="11" customFormat="1" spans="1:11">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="1">
+        <v>6.6317507281457</v>
+      </c>
+      <c r="C11">
+        <v>-9.36446125</v>
+      </c>
+      <c r="D11" s="3">
+        <f t="shared" si="1"/>
+        <v>-9.36446125</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.766066</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0.98</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="0"/>
+        <v>6.49911571358279</v>
+      </c>
+    </row>
+    <row r="12" customFormat="1" spans="1:11">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="1">
+        <v>6.56543322086424</v>
+      </c>
+      <c r="C12">
+        <v>-9.36401425</v>
+      </c>
+      <c r="D12" s="3">
+        <f t="shared" si="1"/>
+        <v>-9.36401425</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1.209655</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0.97</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="0"/>
+        <v>6.43279820630133</v>
+      </c>
+    </row>
+    <row r="13" customFormat="1" spans="1:11">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="1">
+        <v>6.49911571358279</v>
+      </c>
+      <c r="C13">
+        <v>-9.363318</v>
+      </c>
+      <c r="D13" s="3">
+        <f t="shared" si="1"/>
+        <v>-9.363318</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1.650845</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0.96</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="0"/>
+        <v>6.36648069901987</v>
+      </c>
+    </row>
+    <row r="14" customFormat="1" spans="1:11">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="1">
+        <v>6.43279820630133</v>
+      </c>
+      <c r="C14">
+        <v>-9.36232725</v>
+      </c>
+      <c r="D14" s="3">
+        <f t="shared" si="1"/>
+        <v>-9.36232725</v>
+      </c>
+      <c r="E14" s="3">
+        <v>2.184954</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0</v>
+      </c>
+      <c r="H14">
         <v>0.95</v>
       </c>
-      <c r="I4">
-        <v>1.05</v>
-      </c>
-      <c r="J4">
-        <f t="shared" si="0"/>
-        <v>6.96333826455299</v>
-      </c>
-    </row>
-    <row r="5" customFormat="1" spans="1:10">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="1">
-        <v>6.89702075727153</v>
-      </c>
-      <c r="C5">
-        <v>-9.364291</v>
-      </c>
-      <c r="D5" s="4">
-        <v>0</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="I5">
-        <v>1.04</v>
-      </c>
-      <c r="J5">
-        <f t="shared" si="0"/>
-        <v>6.89702075727153</v>
-      </c>
-    </row>
-    <row r="6" customFormat="1" spans="1:10">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="1">
-        <v>6.83070324999007</v>
-      </c>
-      <c r="C6">
-        <v>-9.36458075</v>
-      </c>
-      <c r="D6" s="4">
-        <v>0</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="I6">
-        <v>1.03</v>
-      </c>
-      <c r="J6">
-        <f t="shared" si="0"/>
-        <v>6.83070324999007</v>
-      </c>
-    </row>
-    <row r="7" customFormat="1" spans="1:10">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="1">
-        <v>6.76438574270861</v>
-      </c>
-      <c r="C7">
-        <v>-9.36471925</v>
-      </c>
-      <c r="D7" s="4">
-        <v>0</v>
-      </c>
-      <c r="E7" s="1"/>
-      <c r="I7">
-        <v>1.02</v>
-      </c>
-      <c r="J7">
-        <f t="shared" si="0"/>
-        <v>6.76438574270861</v>
-      </c>
-    </row>
-    <row r="8" customFormat="1" spans="1:10">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8">
-        <v>6.69806823542716</v>
-      </c>
-      <c r="C8">
-        <v>-9.364684</v>
-      </c>
-      <c r="D8" s="4">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>1.01</v>
-      </c>
-      <c r="J8">
-        <f t="shared" si="0"/>
-        <v>6.69806823542716</v>
-      </c>
-    </row>
-    <row r="9" customFormat="1" spans="1:10">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="1">
-        <v>6.6317507281457</v>
-      </c>
-      <c r="C9">
-        <v>-9.36446125</v>
-      </c>
-      <c r="D9" s="4">
-        <v>0</v>
-      </c>
-      <c r="E9" s="1"/>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9">
-        <f>6.72574231244026*G9</f>
-        <v>6.72574231244026</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="J9">
-        <f t="shared" si="0"/>
-        <v>6.6317507281457</v>
-      </c>
-    </row>
-    <row r="10" customFormat="1" spans="1:10">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="1">
-        <v>6.56543322086424</v>
-      </c>
-      <c r="C10">
-        <v>-9.36401425</v>
-      </c>
-      <c r="D10" s="4">
-        <v>0</v>
-      </c>
-      <c r="E10" s="1"/>
-      <c r="I10">
-        <v>0.99</v>
-      </c>
-      <c r="J10">
-        <f t="shared" si="0"/>
-        <v>6.56543322086424</v>
-      </c>
-    </row>
-    <row r="11" customFormat="1" spans="1:10">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="1">
-        <v>6.49911571358279</v>
-      </c>
-      <c r="C11">
-        <v>-9.363318</v>
-      </c>
-      <c r="D11" s="4">
-        <v>0</v>
-      </c>
-      <c r="E11" s="1"/>
-      <c r="I11">
-        <v>0.98</v>
-      </c>
-      <c r="J11">
-        <f t="shared" si="0"/>
-        <v>6.49911571358279</v>
-      </c>
-    </row>
-    <row r="12" customFormat="1" spans="1:10">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="1">
-        <v>6.43279820630133</v>
-      </c>
-      <c r="C12">
-        <v>-9.36232725</v>
-      </c>
-      <c r="D12" s="4">
-        <v>0</v>
-      </c>
-      <c r="E12" s="1"/>
-      <c r="I12">
-        <v>0.97</v>
-      </c>
-      <c r="J12">
-        <f t="shared" si="0"/>
-        <v>6.43279820630133</v>
-      </c>
-    </row>
-    <row r="13" customFormat="1" spans="1:10">
-      <c r="A13" t="s">
+      <c r="I14">
+        <f t="shared" ref="I14:I25" si="2">6.72574231244026*H14</f>
+        <v>6.38945519681825</v>
+      </c>
+      <c r="J14">
+        <v>0.95</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="0"/>
+        <v>6.30016319173841</v>
+      </c>
+    </row>
+    <row r="15" customFormat="1" spans="1:11">
+      <c r="A15" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B15" s="1">
         <v>6.36648069901987</v>
       </c>
-      <c r="C13">
+      <c r="C15">
         <v>-9.3610255</v>
       </c>
-      <c r="D13" s="4">
-        <v>0</v>
-      </c>
-      <c r="E13" s="1"/>
-      <c r="I13">
-        <v>0.96</v>
-      </c>
-      <c r="J13">
-        <f t="shared" si="0"/>
-        <v>6.36648069901987</v>
-      </c>
-    </row>
-    <row r="14" customFormat="1" spans="1:10">
-      <c r="A14" t="s">
+      <c r="D15" s="3">
+        <f t="shared" si="1"/>
+        <v>-9.3610255</v>
+      </c>
+      <c r="E15" s="3">
+        <v>2.81936</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0.9</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="2"/>
+        <v>6.05316808119623</v>
+      </c>
+      <c r="J15">
+        <v>0.94</v>
+      </c>
+      <c r="K15">
+        <f t="shared" ref="K15:K25" si="3">6.6317507281457*J15</f>
+        <v>6.23384568445696</v>
+      </c>
+    </row>
+    <row r="16" customFormat="1" spans="1:11">
+      <c r="A16" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B16" s="1">
         <v>6.30016319173841</v>
       </c>
-      <c r="C14">
+      <c r="C16">
         <v>-9.359363</v>
       </c>
-      <c r="D14" s="4">
-        <v>0</v>
-      </c>
-      <c r="E14" s="1"/>
-      <c r="G14">
-        <v>0.95</v>
-      </c>
-      <c r="H14">
-        <f t="shared" ref="H14:H25" si="1">6.72574231244026*G14</f>
-        <v>6.38945519681825</v>
-      </c>
-      <c r="I14">
-        <v>0.95</v>
-      </c>
-      <c r="J14">
-        <f t="shared" si="0"/>
-        <v>6.30016319173841</v>
-      </c>
-    </row>
-    <row r="15" customFormat="1" spans="1:10">
-      <c r="A15" t="s">
+      <c r="D16" s="3">
+        <f t="shared" si="1"/>
+        <v>-9.359363</v>
+      </c>
+      <c r="E16" s="3">
+        <v>3.470399</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0.85</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="2"/>
+        <v>5.71688096557422</v>
+      </c>
+      <c r="J16">
+        <v>0.93</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="3"/>
+        <v>6.1675281771755</v>
+      </c>
+    </row>
+    <row r="17" customFormat="1" spans="1:11">
+      <c r="A17" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B17">
         <v>6.23384568445696</v>
       </c>
-      <c r="C15" s="3">
-        <f>6.6317507281457*B15</f>
-        <v>41.3413106570454</v>
-      </c>
-      <c r="D15" s="4">
-        <v>0</v>
-      </c>
-      <c r="E15" s="1"/>
-      <c r="G15">
-        <v>0.9</v>
-      </c>
-      <c r="H15">
+      <c r="C17">
+        <v>-9.3572985</v>
+      </c>
+      <c r="D17" s="3">
         <f t="shared" si="1"/>
-        <v>6.05316808119623</v>
-      </c>
-      <c r="I15">
-        <v>0.94</v>
-      </c>
-      <c r="J15">
-        <f t="shared" ref="J15:J25" si="2">6.6317507281457*I15</f>
-        <v>6.23384568445696</v>
-      </c>
-    </row>
-    <row r="16" customFormat="1" spans="1:10">
-      <c r="A16" t="s">
+        <v>-9.35527930192294</v>
+      </c>
+      <c r="E17" s="3">
+        <v>8.313759</v>
+      </c>
+      <c r="F17" s="4">
+        <f>B17*1000/6.022140857E+23*6242000000000000000/32</f>
+        <v>0.00201919807706083</v>
+      </c>
+      <c r="H17">
+        <v>0.8</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="2"/>
+        <v>5.38059384995221</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" customFormat="1" spans="1:11">
+      <c r="A18" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B18">
         <v>6.1675281771755</v>
       </c>
-      <c r="C16" s="3">
-        <f>6.6317507281457*B16</f>
-        <v>40.9015094798427</v>
-      </c>
-      <c r="D16" s="4">
-        <v>0</v>
-      </c>
-      <c r="E16" s="1"/>
-      <c r="G16">
-        <v>0.85</v>
-      </c>
-      <c r="H16">
+      <c r="C18">
+        <v>-9.35477725</v>
+      </c>
+      <c r="D18" s="3">
         <f t="shared" si="1"/>
-        <v>5.71688096557422</v>
-      </c>
-      <c r="I16">
-        <v>0.93</v>
-      </c>
-      <c r="J16">
+        <v>-9.35277953275355</v>
+      </c>
+      <c r="E18" s="3">
+        <v>16.364584</v>
+      </c>
+      <c r="F18" s="4">
+        <f>B18*1000/6.022140857E+23*6242000000000000000/32</f>
+        <v>0.0019977172464538</v>
+      </c>
+      <c r="H18">
+        <v>0.75</v>
+      </c>
+      <c r="I18">
         <f t="shared" si="2"/>
-        <v>6.1675281771755</v>
-      </c>
-    </row>
-    <row r="17" customFormat="1" spans="1:10">
-      <c r="A17" t="s">
+        <v>5.04430673433019</v>
+      </c>
+      <c r="J18">
+        <v>0.75</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="3"/>
+        <v>4.97381304610928</v>
+      </c>
+    </row>
+    <row r="19" customFormat="1" spans="1:11">
+      <c r="A19" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="4">
-        <v>0</v>
-      </c>
-      <c r="E17" s="1"/>
-      <c r="G17">
-        <v>0.8</v>
-      </c>
-      <c r="H17">
+      <c r="B19" s="1">
+        <v>5.96857565533113</v>
+      </c>
+      <c r="C19">
+        <v>-9.3439195</v>
+      </c>
+      <c r="D19" s="3">
         <f t="shared" si="1"/>
-        <v>5.38059384995221</v>
-      </c>
-      <c r="J17">
+        <v>-9.3439195</v>
+      </c>
+      <c r="E19" s="3">
+        <v>29.162834</v>
+      </c>
+      <c r="F19" s="4">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0.7</v>
+      </c>
+      <c r="I19">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" customFormat="1" spans="1:10">
-      <c r="A18" t="s">
+        <v>4.70801961870818</v>
+      </c>
+      <c r="J19">
+        <v>0.7</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="3"/>
+        <v>4.64222550970199</v>
+      </c>
+    </row>
+    <row r="20" customFormat="1" spans="1:11">
+      <c r="A20" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="4">
-        <v>0</v>
-      </c>
-      <c r="E18" s="1"/>
-      <c r="G18">
-        <v>0.75</v>
-      </c>
-      <c r="H18">
+      <c r="B20" s="1">
+        <v>5.63698811892385</v>
+      </c>
+      <c r="C20">
+        <v>-9.31057675</v>
+      </c>
+      <c r="D20" s="3">
         <f t="shared" si="1"/>
-        <v>5.04430673433019</v>
-      </c>
-      <c r="I18">
-        <v>0.75</v>
-      </c>
-      <c r="J18">
+        <v>-9.31057675</v>
+      </c>
+      <c r="E20" s="3">
+        <v>49.590418</v>
+      </c>
+      <c r="F20" s="4">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0.65</v>
+      </c>
+      <c r="I20">
         <f t="shared" si="2"/>
+        <v>4.37173250308617</v>
+      </c>
+      <c r="J20">
+        <v>0.65</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="3"/>
+        <v>4.31063797329471</v>
+      </c>
+    </row>
+    <row r="21" customFormat="1" spans="1:11">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="1">
+        <v>5.30540058251656</v>
+      </c>
+      <c r="C21">
+        <v>-9.2470915</v>
+      </c>
+      <c r="D21" s="3">
+        <f t="shared" si="1"/>
+        <v>-9.2470915</v>
+      </c>
+      <c r="E21" s="3">
+        <v>81.795232</v>
+      </c>
+      <c r="F21" s="4">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0.6</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="2"/>
+        <v>4.03544538746416</v>
+      </c>
+      <c r="J21">
+        <v>0.6</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="3"/>
+        <v>3.97905043688742</v>
+      </c>
+    </row>
+    <row r="22" customFormat="1" spans="1:11">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="1">
         <v>4.97381304610928</v>
       </c>
-    </row>
-    <row r="19" customFormat="1" spans="1:10">
-      <c r="A19" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="4">
-        <v>0</v>
-      </c>
-      <c r="E19" s="1"/>
-      <c r="G19">
-        <v>0.7</v>
-      </c>
-      <c r="H19">
+      <c r="C22">
+        <v>-9.13348925</v>
+      </c>
+      <c r="D22" s="3">
         <f t="shared" si="1"/>
-        <v>4.70801961870818</v>
-      </c>
-      <c r="I19">
-        <v>0.7</v>
-      </c>
-      <c r="J19">
+        <v>-9.13348925</v>
+      </c>
+      <c r="E22" s="3">
+        <v>126.264436</v>
+      </c>
+      <c r="F22" s="4">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0.55</v>
+      </c>
+      <c r="I22">
         <f t="shared" si="2"/>
+        <v>3.69915827184214</v>
+      </c>
+      <c r="J22">
+        <v>0.55</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="3"/>
+        <v>3.64746290048014</v>
+      </c>
+    </row>
+    <row r="23" customFormat="1" spans="1:11">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="1">
         <v>4.64222550970199</v>
       </c>
-    </row>
-    <row r="20" customFormat="1" spans="1:10">
-      <c r="A20" t="s">
-        <v>22</v>
-      </c>
-      <c r="D20" s="4">
-        <v>0</v>
-      </c>
-      <c r="E20" s="1"/>
-      <c r="G20">
-        <v>0.65</v>
-      </c>
-      <c r="H20">
+      <c r="C23">
+        <v>-8.9380785</v>
+      </c>
+      <c r="D23" s="3">
         <f t="shared" si="1"/>
-        <v>4.37173250308617</v>
-      </c>
-      <c r="I20">
-        <v>0.65</v>
-      </c>
-      <c r="J20">
+        <v>-8.9380785</v>
+      </c>
+      <c r="E23" s="3">
+        <v>184.537527</v>
+      </c>
+      <c r="F23" s="4">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0.5</v>
+      </c>
+      <c r="I23">
         <f t="shared" si="2"/>
+        <v>3.36287115622013</v>
+      </c>
+      <c r="J23">
+        <v>0.500000000000001</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="3"/>
+        <v>3.31587536407286</v>
+      </c>
+    </row>
+    <row r="24" customFormat="1" spans="1:11">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="1">
         <v>4.31063797329471</v>
       </c>
-    </row>
-    <row r="21" customFormat="1" spans="1:10">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D21" s="4">
-        <v>0</v>
-      </c>
-      <c r="E21" s="1"/>
-      <c r="G21">
-        <v>0.6</v>
-      </c>
-      <c r="H21">
+      <c r="C24">
+        <v>-8.63161825</v>
+      </c>
+      <c r="D24" s="3">
         <f t="shared" si="1"/>
-        <v>4.03544538746416</v>
-      </c>
-      <c r="I21">
-        <v>0.6</v>
-      </c>
-      <c r="J21">
+        <v>-8.63161825</v>
+      </c>
+      <c r="E24" s="3">
+        <v>278.177108</v>
+      </c>
+      <c r="F24" s="4">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0.45</v>
+      </c>
+      <c r="I24">
         <f t="shared" si="2"/>
+        <v>3.02658404059812</v>
+      </c>
+      <c r="J24">
+        <v>0.450000000000001</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="3"/>
+        <v>2.98428782766557</v>
+      </c>
+    </row>
+    <row r="25" customFormat="1" spans="1:11">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="1">
         <v>3.97905043688742</v>
       </c>
-    </row>
-    <row r="22" customFormat="1" spans="1:10">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" s="1">
-        <v>7.62651333736756</v>
-      </c>
-      <c r="C22">
-        <v>-9.35571075</v>
-      </c>
-      <c r="D22" s="4">
-        <v>0</v>
-      </c>
-      <c r="E22" s="1"/>
-      <c r="G22">
-        <v>0.55</v>
-      </c>
-      <c r="H22">
+      <c r="C25">
+        <v>-8.18573275</v>
+      </c>
+      <c r="D25" s="3">
         <f t="shared" si="1"/>
-        <v>3.69915827184214</v>
-      </c>
-      <c r="I22">
-        <v>0.55</v>
-      </c>
-      <c r="J22">
+        <v>-8.18573275</v>
+      </c>
+      <c r="E25" s="3">
+        <v>410.94174</v>
+      </c>
+      <c r="F25" s="4">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0.399999999999999</v>
+      </c>
+      <c r="I25">
         <f t="shared" si="2"/>
+        <v>2.6902969249761</v>
+      </c>
+      <c r="J25">
+        <v>0.400000000000001</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="3"/>
+        <v>2.65270029125829</v>
+      </c>
+    </row>
+    <row r="26" customFormat="1" spans="1:6">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="1">
         <v>3.64746290048014</v>
       </c>
-    </row>
-    <row r="23" customFormat="1" spans="1:10">
-      <c r="A23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" s="1">
-        <v>7.29492580096027</v>
-      </c>
-      <c r="C23">
-        <v>-9.36041425</v>
-      </c>
-      <c r="D23" s="4">
-        <v>0</v>
-      </c>
-      <c r="E23" s="1"/>
-      <c r="G23">
-        <v>0.5</v>
-      </c>
-      <c r="H23">
+      <c r="C26">
+        <v>-7.534209</v>
+      </c>
+      <c r="D26" s="3">
         <f t="shared" si="1"/>
-        <v>3.36287115622013</v>
-      </c>
-      <c r="I23">
-        <v>0.500000000000001</v>
-      </c>
-      <c r="J23">
-        <f t="shared" si="2"/>
-        <v>3.31587536407286</v>
-      </c>
-    </row>
-    <row r="24" customFormat="1" spans="1:10">
-      <c r="A24" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" s="1">
-        <v>5.96857565533113</v>
-      </c>
-      <c r="C24">
-        <v>-9.3439195</v>
-      </c>
-      <c r="D24" s="4">
-        <v>0</v>
-      </c>
-      <c r="E24" s="1"/>
-      <c r="G24">
-        <v>0.45</v>
-      </c>
-      <c r="H24">
+        <v>-7.534209</v>
+      </c>
+      <c r="E26">
+        <v>515.291824</v>
+      </c>
+      <c r="F26" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" customFormat="1" spans="1:6">
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="1">
+        <v>3.31587536407285</v>
+      </c>
+      <c r="C27">
+        <v>-6.56529875</v>
+      </c>
+      <c r="D27" s="3">
         <f t="shared" si="1"/>
-        <v>3.02658404059812</v>
-      </c>
-      <c r="I24">
-        <v>0.450000000000001</v>
-      </c>
-      <c r="J24">
-        <f t="shared" si="2"/>
+        <v>-6.56529875</v>
+      </c>
+      <c r="E27">
+        <v>765.428943</v>
+      </c>
+      <c r="F27" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="1">
         <v>2.98428782766557</v>
       </c>
-    </row>
-    <row r="25" customFormat="1" spans="1:10">
-      <c r="A25" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25" s="1">
-        <v>5.63698811892385</v>
-      </c>
-      <c r="C25">
-        <v>-9.31057675</v>
-      </c>
-      <c r="D25" s="4">
-        <v>0</v>
-      </c>
-      <c r="E25" s="1"/>
-      <c r="G25">
-        <v>0.399999999999999</v>
-      </c>
-      <c r="H25">
-        <f t="shared" si="1"/>
-        <v>2.6902969249761</v>
-      </c>
-      <c r="I25">
-        <v>0.400000000000001</v>
-      </c>
-      <c r="J25">
-        <f t="shared" si="2"/>
-        <v>2.65270029125829</v>
-      </c>
-    </row>
-    <row r="26" customFormat="1" spans="1:3">
-      <c r="A26" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26" s="1">
-        <v>5.30540058251656</v>
-      </c>
-      <c r="C26">
-        <v>-9.2470915</v>
-      </c>
-    </row>
-    <row r="27" customFormat="1" spans="1:3">
-      <c r="A27" t="s">
+      <c r="C28">
+        <v>-5.3080285</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="1">
-        <v>4.97381304610928</v>
-      </c>
-      <c r="C27">
-        <v>-9.13348925</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3">
-      <c r="B28" s="1">
-        <v>4.64222550970199</v>
-      </c>
-      <c r="C28">
-        <v>-8.9380785</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3">
       <c r="B29" s="1">
-        <v>4.31063797329471</v>
+        <v>2.65270029125828</v>
       </c>
       <c r="C29">
-        <v>-8.63161825</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3">
-      <c r="B30" s="1">
-        <v>3.97905043688742</v>
-      </c>
-      <c r="C30">
-        <v>-8.18573275</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3">
-      <c r="B31" s="1">
-        <v>3.64746290048014</v>
-      </c>
-      <c r="C31">
-        <v>-7.534209</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3">
-      <c r="B32" s="1">
-        <v>3.31587536407285</v>
-      </c>
-      <c r="C32">
-        <v>-6.56529875</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3">
-      <c r="B33" s="1">
-        <v>2.98428782766557</v>
-      </c>
-      <c r="C33">
-        <v>-5.3080285</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3">
-      <c r="B34" s="1">
-        <v>2.65270029125828</v>
-      </c>
-      <c r="C34">
         <v>-3.53590775</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3">
+      <c r="B35" s="2">
+        <v>-37.453385</v>
+      </c>
+      <c r="C35">
+        <f>B35/4</f>
+        <v>-9.36334625</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3">
+      <c r="B36" s="2">
+        <v>-37.450887</v>
+      </c>
+      <c r="C36">
+        <f>B36/4</f>
+        <v>-9.36272175</v>
       </c>
     </row>
   </sheetData>
@@ -5050,7 +5338,7 @@
   <sheetPr/>
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="I1" sqref="I1:I24"/>
     </sheetView>
   </sheetViews>
@@ -5068,19 +5356,19 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B1">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D1" s="2">
         <v>-37.198963</v>
       </c>
       <c r="E1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F1" s="2">
         <v>-37.198963</v>
@@ -5089,7 +5377,7 @@
         <v>7</v>
       </c>
       <c r="H1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I1">
         <f t="shared" ref="I1:I9" si="0">F1/4</f>
@@ -5098,19 +5386,19 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D2" s="2">
         <v>-37.213084</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F2" s="2">
         <v>-37.213084</v>
@@ -5119,7 +5407,7 @@
         <v>7</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I2">
         <f t="shared" si="0"/>
@@ -5128,19 +5416,19 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D3" s="2">
         <v>-37.221192</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F3" s="2">
         <v>-37.221192</v>
@@ -5149,7 +5437,7 @@
         <v>7</v>
       </c>
       <c r="H3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I3">
         <f t="shared" si="0"/>
@@ -5158,19 +5446,19 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D4" s="2">
         <v>-37.221673</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F4" s="2">
         <v>-37.221673</v>
@@ -5179,7 +5467,7 @@
         <v>7</v>
       </c>
       <c r="H4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I4">
         <f t="shared" si="0"/>
@@ -5188,19 +5476,19 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D5" s="2">
         <v>-37.221664</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F5" s="2">
         <v>-37.221664</v>
@@ -5209,7 +5497,7 @@
         <v>7</v>
       </c>
       <c r="H5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I5">
         <f t="shared" si="0"/>
@@ -5218,19 +5506,19 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D6" s="2">
         <v>-37.221032</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F6" s="2">
         <v>-37.221032</v>
@@ -5239,7 +5527,7 @@
         <v>7</v>
       </c>
       <c r="H6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I6">
         <f t="shared" si="0"/>
@@ -5248,19 +5536,19 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D7" s="2">
         <v>-37.219775</v>
       </c>
       <c r="E7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F7" s="2">
         <v>-37.219775</v>
@@ -5269,7 +5557,7 @@
         <v>7</v>
       </c>
       <c r="H7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I7">
         <f t="shared" si="0"/>
@@ -5278,19 +5566,19 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D8" s="2">
         <v>-37.217743</v>
       </c>
       <c r="E8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F8" s="2">
         <v>-37.217743</v>
@@ -5299,7 +5587,7 @@
         <v>7</v>
       </c>
       <c r="H8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I8">
         <f t="shared" si="0"/>
@@ -5308,19 +5596,19 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D9" s="2">
         <v>-37.214844</v>
       </c>
       <c r="E9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F9" s="2">
         <v>-37.214844</v>
@@ -5329,7 +5617,7 @@
         <v>7</v>
       </c>
       <c r="H9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I9">
         <f t="shared" si="0"/>
@@ -5338,19 +5626,19 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D10" s="2">
         <v>-37.210978</v>
       </c>
       <c r="E10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F10" s="2">
         <v>-37.210978</v>
@@ -5359,7 +5647,7 @@
         <v>7</v>
       </c>
       <c r="H10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I10">
         <f t="shared" ref="I10:I24" si="1">F10/4</f>
@@ -5368,19 +5656,19 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D11" s="2">
         <v>-37.205987</v>
       </c>
       <c r="E11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F11" s="2">
         <v>-37.205987</v>
@@ -5389,7 +5677,7 @@
         <v>7</v>
       </c>
       <c r="H11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I11">
         <f t="shared" si="1"/>
@@ -5398,19 +5686,19 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D12" s="2">
         <v>-37.199727</v>
       </c>
       <c r="E12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F12" s="2">
         <v>-37.199727</v>
@@ -5419,7 +5707,7 @@
         <v>7</v>
       </c>
       <c r="H12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I12">
         <f t="shared" si="1"/>
@@ -5428,19 +5716,19 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D13" s="2">
         <v>-37.192026</v>
       </c>
       <c r="E13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F13" s="2">
         <v>-37.192026</v>
@@ -5449,7 +5737,7 @@
         <v>7</v>
       </c>
       <c r="H13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I13">
         <f t="shared" si="1"/>
@@ -5458,19 +5746,19 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D14" s="2">
         <v>-37.125248</v>
       </c>
       <c r="E14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F14" s="2">
         <v>-37.125248</v>
@@ -5479,7 +5767,7 @@
         <v>7</v>
       </c>
       <c r="H14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I14">
         <f t="shared" si="1"/>
@@ -5488,19 +5776,19 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D15" s="2">
         <v>-36.987991</v>
       </c>
       <c r="E15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F15" s="2">
         <v>-36.987991</v>
@@ -5509,7 +5797,7 @@
         <v>7</v>
       </c>
       <c r="H15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I15">
         <f t="shared" si="1"/>
@@ -5518,19 +5806,19 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D16" s="2">
         <v>-36.737023</v>
       </c>
       <c r="E16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F16" s="2">
         <v>-36.737023</v>
@@ -5539,7 +5827,7 @@
         <v>7</v>
       </c>
       <c r="H16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I16">
         <f t="shared" si="1"/>
@@ -5548,19 +5836,19 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D17" s="2">
         <v>-36.306229</v>
       </c>
       <c r="E17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F17" s="2">
         <v>-36.306229</v>
@@ -5569,7 +5857,7 @@
         <v>7</v>
       </c>
       <c r="H17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I17">
         <f t="shared" si="1"/>
@@ -5578,19 +5866,19 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D18" s="2">
         <v>-35.587047</v>
       </c>
       <c r="E18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F18" s="2">
         <v>-35.587047</v>
@@ -5599,7 +5887,7 @@
         <v>7</v>
       </c>
       <c r="H18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I18">
         <f t="shared" si="1"/>
@@ -5608,19 +5896,19 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D19" s="2">
         <v>-34.443888</v>
       </c>
       <c r="E19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F19" s="2">
         <v>-34.443888</v>
@@ -5629,7 +5917,7 @@
         <v>7</v>
       </c>
       <c r="H19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I19">
         <f t="shared" si="1"/>
@@ -5638,19 +5926,19 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D20" s="2">
         <v>-32.739216</v>
       </c>
       <c r="E20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F20" s="2">
         <v>-32.739216</v>
@@ -5659,7 +5947,7 @@
         <v>7</v>
       </c>
       <c r="H20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I20">
         <f t="shared" si="1"/>
@@ -5668,19 +5956,19 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D21" s="2">
         <v>-30.244928</v>
       </c>
       <c r="E21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F21" s="2">
         <v>-30.244928</v>
@@ -5689,7 +5977,7 @@
         <v>7</v>
       </c>
       <c r="H21" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I21">
         <f t="shared" si="1"/>
@@ -5698,19 +5986,19 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D22" s="2">
         <v>-26.487302</v>
       </c>
       <c r="E22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F22" s="2">
         <v>-26.487302</v>
@@ -5719,7 +6007,7 @@
         <v>7</v>
       </c>
       <c r="H22" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I22">
         <f t="shared" si="1"/>
@@ -5728,19 +6016,19 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D23" s="2">
         <v>-21.520284</v>
       </c>
       <c r="E23" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F23" s="2">
         <v>-21.520284</v>
@@ -5749,7 +6037,7 @@
         <v>7</v>
       </c>
       <c r="H23" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I23">
         <f t="shared" si="1"/>
@@ -5758,19 +6046,19 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B24">
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D24" s="2">
         <v>-14.619444</v>
       </c>
       <c r="E24" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F24" s="2">
         <v>-14.619444</v>
@@ -5779,7 +6067,7 @@
         <v>7</v>
       </c>
       <c r="H24" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I24">
         <f t="shared" si="1"/>
@@ -5797,7 +6085,7 @@
   <sheetPr/>
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J1" sqref="J1:J24"/>
     </sheetView>
   </sheetViews>
@@ -5816,19 +6104,19 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B1">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D1" s="2">
         <v>-37.422843</v>
       </c>
       <c r="E1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F1" s="2">
         <v>-37.422843</v>
@@ -5837,7 +6125,7 @@
         <v>7</v>
       </c>
       <c r="H1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I1">
         <f>D1/4</f>
@@ -5850,19 +6138,19 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D2" s="2">
         <v>-37.441657</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F2" s="2">
         <v>-37.441657</v>
@@ -5871,7 +6159,7 @@
         <v>7</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I2">
         <f>-37.4417</f>
@@ -5884,19 +6172,19 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D3" s="2">
         <v>-37.455515</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F3" s="2">
         <v>-37.455515</v>
@@ -5905,7 +6193,7 @@
         <v>7</v>
       </c>
       <c r="H3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I3">
         <f>-37.4555</f>
@@ -5918,19 +6206,19 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D4" s="2">
         <v>-37.457164</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F4" s="2">
         <v>-37.457164</v>
@@ -5939,7 +6227,7 @@
         <v>7</v>
       </c>
       <c r="H4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I4">
         <f>-37.4572</f>
@@ -5952,19 +6240,19 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D5" s="2">
         <v>-37.458323</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F5" s="2">
         <v>-37.458323</v>
@@ -5973,7 +6261,7 @@
         <v>7</v>
       </c>
       <c r="H5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I5">
         <f>-37.4583</f>
@@ -5986,19 +6274,19 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D6" s="2">
         <v>-37.458877</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F6" s="2">
         <v>-37.458877</v>
@@ -6007,7 +6295,7 @@
         <v>7</v>
       </c>
       <c r="H6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I6">
         <f>-37.4589</f>
@@ -6020,19 +6308,19 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D7" s="2">
         <v>-37.458736</v>
       </c>
       <c r="E7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F7" s="2">
         <v>-37.458736</v>
@@ -6041,7 +6329,7 @@
         <v>7</v>
       </c>
       <c r="H7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I7">
         <f>-37.4587</f>
@@ -6054,19 +6342,19 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D8" s="2">
         <v>-37.457845</v>
       </c>
       <c r="E8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F8" s="2">
         <v>-37.457845</v>
@@ -6075,7 +6363,7 @@
         <v>7</v>
       </c>
       <c r="H8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I8">
         <f>-37.4578</f>
@@ -6088,19 +6376,19 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D9" s="2">
         <v>-37.456057</v>
       </c>
       <c r="E9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F9" s="2">
         <v>-37.456057</v>
@@ -6109,7 +6397,7 @@
         <v>7</v>
       </c>
       <c r="H9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I9">
         <f>-37.4561</f>
@@ -6122,19 +6410,19 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D10" s="2">
         <v>-37.453272</v>
       </c>
       <c r="E10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F10" s="2">
         <v>-37.453272</v>
@@ -6143,7 +6431,7 @@
         <v>7</v>
       </c>
       <c r="H10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I10">
         <f>-37.4533</f>
@@ -6156,19 +6444,19 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D11" s="2">
         <v>-37.449309</v>
       </c>
       <c r="E11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F11" s="2">
         <v>-37.449309</v>
@@ -6177,7 +6465,7 @@
         <v>7</v>
       </c>
       <c r="H11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I11">
         <f>-37.4493</f>
@@ -6190,19 +6478,19 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D12" s="2">
         <v>-37.444102</v>
       </c>
       <c r="E12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F12" s="2">
         <v>-37.444102</v>
@@ -6211,7 +6499,7 @@
         <v>7</v>
       </c>
       <c r="H12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I12">
         <f>-37.4441</f>
@@ -6224,19 +6512,19 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D13" s="2">
         <v>-37.437452</v>
       </c>
       <c r="E13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F13" s="2">
         <v>-37.437452</v>
@@ -6245,7 +6533,7 @@
         <v>7</v>
       </c>
       <c r="H13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I13">
         <f>-37.4375</f>
@@ -6258,19 +6546,19 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D14" s="2">
         <v>-37.375678</v>
       </c>
       <c r="E14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F14" s="2">
         <v>-37.375678</v>
@@ -6279,7 +6567,7 @@
         <v>7</v>
       </c>
       <c r="H14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I14">
         <f>-37.3757</f>
@@ -6292,19 +6580,19 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D15" s="2">
         <v>-37.242307</v>
       </c>
       <c r="E15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F15" s="2">
         <v>-37.242307</v>
@@ -6313,7 +6601,7 @@
         <v>7</v>
       </c>
       <c r="H15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I15">
         <f>-37.2423</f>
@@ -6326,19 +6614,19 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D16" s="2">
         <v>-36.988366</v>
       </c>
       <c r="E16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F16" s="2">
         <v>-36.988366</v>
@@ -6347,7 +6635,7 @@
         <v>7</v>
       </c>
       <c r="H16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I16">
         <f>-36.9884</f>
@@ -6360,19 +6648,19 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D17" s="2">
         <v>-36.533957</v>
       </c>
       <c r="E17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F17" s="2">
         <v>-36.533957</v>
@@ -6381,7 +6669,7 @@
         <v>7</v>
       </c>
       <c r="H17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I17">
         <f>-36.534</f>
@@ -6394,19 +6682,19 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D18" s="2">
         <v>-35.752314</v>
       </c>
       <c r="E18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F18" s="2">
         <v>-35.752314</v>
@@ -6415,7 +6703,7 @@
         <v>7</v>
       </c>
       <c r="H18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I18">
         <f>-35.7523</f>
@@ -6428,19 +6716,19 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D19" s="2">
         <v>-34.526473</v>
       </c>
       <c r="E19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F19" s="2">
         <v>-34.526473</v>
@@ -6449,7 +6737,7 @@
         <v>7</v>
       </c>
       <c r="H19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I19">
         <f>-34.5265</f>
@@ -6462,19 +6750,19 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B20">
         <v>3</v>
       </c>
       <c r="C20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D20" s="2">
         <v>-32.742931</v>
       </c>
       <c r="E20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F20" s="2">
         <v>-32.742931</v>
@@ -6483,7 +6771,7 @@
         <v>7</v>
       </c>
       <c r="H20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I20">
         <f>-0.0000126502</f>
@@ -6496,19 +6784,19 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B21">
         <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D21" s="2">
         <v>-30.136836</v>
       </c>
       <c r="E21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F21" s="2">
         <v>-30.136836</v>
@@ -6517,7 +6805,7 @@
         <v>7</v>
       </c>
       <c r="H21" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I21">
         <f>-0.0000235889</f>
@@ -6530,19 +6818,19 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D22" s="2">
         <v>-26.261195</v>
       </c>
       <c r="E22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F22" s="2">
         <v>-26.261195</v>
@@ -6551,7 +6839,7 @@
         <v>7</v>
       </c>
       <c r="H22" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I22">
         <f>-26.2612</f>
@@ -6564,19 +6852,19 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B23">
         <v>3</v>
       </c>
       <c r="C23" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D23" s="2">
         <v>-21.232114</v>
       </c>
       <c r="E23" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F23" s="2">
         <v>-21.232114</v>
@@ -6585,7 +6873,7 @@
         <v>7</v>
       </c>
       <c r="H23" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I23">
         <f>-0.000143453</f>
@@ -6598,19 +6886,19 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B24">
         <v>3</v>
       </c>
       <c r="C24" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D24" s="2">
         <v>-14.143631</v>
       </c>
       <c r="E24" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F24" s="2">
         <v>-14.143631</v>
@@ -6619,7 +6907,7 @@
         <v>7</v>
       </c>
       <c r="H24" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I24">
         <f>-0.0000603664</f>
@@ -6657,7 +6945,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -6681,7 +6969,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -6705,7 +6993,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -6729,7 +7017,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -6753,7 +7041,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -6771,13 +7059,13 @@
         <v>72.8132429</v>
       </c>
       <c r="G5">
-        <f t="shared" si="0"/>
+        <f>C5*1000/6.022140857E+23*6242000000000000000/32</f>
         <v>0.0213018644695016</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -6801,7 +7089,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -6825,7 +7113,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -6849,7 +7137,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -6873,7 +7161,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -6897,7 +7185,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -6921,7 +7209,7 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -6945,7 +7233,7 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -6969,7 +7257,7 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -6993,7 +7281,7 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -7017,7 +7305,7 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -7041,7 +7329,7 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -7065,7 +7353,7 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -7089,7 +7377,7 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -7113,7 +7401,7 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -7137,7 +7425,7 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -7161,7 +7449,7 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -7185,7 +7473,7 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -7209,7 +7497,7 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -7240,14 +7528,1504 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:T24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="T1" sqref="T1:T24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="2.375" customWidth="1"/>
+    <col min="3" max="3" width="3.25" customWidth="1"/>
+    <col min="4" max="4" width="9.5" customWidth="1"/>
+    <col min="5" max="5" width="4.375" customWidth="1"/>
+    <col min="6" max="6" width="9.5" customWidth="1"/>
+    <col min="7" max="9" width="2.375" customWidth="1"/>
+    <col min="10" max="10" width="12.625"/>
+    <col min="11" max="11" width="14" customWidth="1"/>
+    <col min="12" max="12" width="2.875" customWidth="1"/>
+    <col min="13" max="13" width="3.375" customWidth="1"/>
+    <col min="14" max="16" width="11.5" customWidth="1"/>
+    <col min="17" max="17" width="9.375" customWidth="1"/>
+    <col min="18" max="19" width="2.375" customWidth="1"/>
+    <col min="20" max="20" width="9.375"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20">
+      <c r="A1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="2">
+        <v>-37.198963</v>
+      </c>
+      <c r="E1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="2">
+        <v>-37.198963</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1">
+        <f>-37.199</f>
+        <v>-37.199</v>
+      </c>
+      <c r="J1">
+        <f>F1/4</f>
+        <v>-9.29974075</v>
+      </c>
+      <c r="K1" t="s">
+        <v>82</v>
+      </c>
+      <c r="L1" t="s">
+        <v>83</v>
+      </c>
+      <c r="M1" t="s">
+        <v>84</v>
+      </c>
+      <c r="N1">
+        <v>-2.70814</v>
+      </c>
+      <c r="O1">
+        <v>-2.38469</v>
+      </c>
+      <c r="P1">
+        <v>-17.4798</v>
+      </c>
+      <c r="Q1">
+        <v>0.28012</v>
+      </c>
+      <c r="R1">
+        <v>0</v>
+      </c>
+      <c r="S1">
+        <v>0</v>
+      </c>
+      <c r="T1">
+        <f>P1/10</f>
+        <v>-1.74798</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="2">
+        <v>-37.213084</v>
+      </c>
+      <c r="E2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="2">
+        <v>-37.213084</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2">
+        <f>-37.2131</f>
+        <v>-37.2131</v>
+      </c>
+      <c r="J2">
+        <f>F2/4</f>
+        <v>-9.303271</v>
+      </c>
+      <c r="K2" t="s">
+        <v>85</v>
+      </c>
+      <c r="L2" t="s">
+        <v>83</v>
+      </c>
+      <c r="M2" t="s">
+        <v>84</v>
+      </c>
+      <c r="N2">
+        <v>-3.40202</v>
+      </c>
+      <c r="O2">
+        <v>-3.18118</v>
+      </c>
+      <c r="P2">
+        <v>-13.7949</v>
+      </c>
+      <c r="Q2">
+        <v>0.19125</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <f t="shared" ref="T2:T24" si="0">P2/10</f>
+        <v>-1.37949</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="2">
+        <v>-37.221192</v>
+      </c>
+      <c r="E3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="2">
+        <v>-37.221192</v>
+      </c>
+      <c r="G3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3">
+        <f>-37.2212</f>
+        <v>-37.2212</v>
+      </c>
+      <c r="K3" t="s">
+        <v>86</v>
+      </c>
+      <c r="L3" t="s">
+        <v>83</v>
+      </c>
+      <c r="M3" t="s">
+        <v>84</v>
+      </c>
+      <c r="N3">
+        <v>-4.50753</v>
+      </c>
+      <c r="O3">
+        <v>-4.36693</v>
+      </c>
+      <c r="P3">
+        <v>-6.49711</v>
+      </c>
+      <c r="Q3">
+        <v>0.12176</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <f t="shared" si="0"/>
+        <v>-0.649711</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="2">
+        <v>-37.221673</v>
+      </c>
+      <c r="E4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="2">
+        <v>-37.221673</v>
+      </c>
+      <c r="G4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4">
+        <f>-37.2217</f>
+        <v>-37.2217</v>
+      </c>
+      <c r="K4" t="s">
+        <v>87</v>
+      </c>
+      <c r="L4" t="s">
+        <v>83</v>
+      </c>
+      <c r="M4" t="s">
+        <v>84</v>
+      </c>
+      <c r="N4">
+        <v>-4.78273</v>
+      </c>
+      <c r="O4">
+        <v>-4.65799</v>
+      </c>
+      <c r="P4">
+        <v>-4.36941</v>
+      </c>
+      <c r="Q4">
+        <v>0.10803</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <f t="shared" si="0"/>
+        <v>-0.436941</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="2">
+        <v>-37.221664</v>
+      </c>
+      <c r="E5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="2">
+        <v>-37.221664</v>
+      </c>
+      <c r="G5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5">
+        <f>-37.2217</f>
+        <v>-37.2217</v>
+      </c>
+      <c r="K5" t="s">
+        <v>88</v>
+      </c>
+      <c r="L5" t="s">
+        <v>83</v>
+      </c>
+      <c r="M5" t="s">
+        <v>84</v>
+      </c>
+      <c r="N5">
+        <v>-5.08591</v>
+      </c>
+      <c r="O5">
+        <v>-4.97691</v>
+      </c>
+      <c r="P5">
+        <v>-1.94466</v>
+      </c>
+      <c r="Q5">
+        <v>0.09439</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="0"/>
+        <v>-0.194466</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="2">
+        <v>-37.221032</v>
+      </c>
+      <c r="E6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="2">
+        <v>-37.221032</v>
+      </c>
+      <c r="G6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6">
+        <f>-37.221</f>
+        <v>-37.221</v>
+      </c>
+      <c r="K6" t="s">
+        <v>89</v>
+      </c>
+      <c r="L6" t="s">
+        <v>83</v>
+      </c>
+      <c r="M6" t="s">
+        <v>84</v>
+      </c>
+      <c r="N6">
+        <v>-5.40348</v>
+      </c>
+      <c r="O6">
+        <v>-5.31029</v>
+      </c>
+      <c r="P6">
+        <v>0.83872</v>
+      </c>
+      <c r="Q6">
+        <v>0.08071</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="0"/>
+        <v>0.083872</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="2">
+        <v>-37.219775</v>
+      </c>
+      <c r="E7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="2">
+        <v>-37.219775</v>
+      </c>
+      <c r="G7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7">
+        <f>-37.2198</f>
+        <v>-37.2198</v>
+      </c>
+      <c r="K7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M7" t="s">
+        <v>84</v>
+      </c>
+      <c r="N7">
+        <v>-5.75432</v>
+      </c>
+      <c r="O7">
+        <v>-5.67703</v>
+      </c>
+      <c r="P7">
+        <v>4.0474</v>
+      </c>
+      <c r="Q7">
+        <v>0.06694</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="0"/>
+        <v>0.40474</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="2">
+        <v>-37.217743</v>
+      </c>
+      <c r="E8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="2">
+        <v>-37.217743</v>
+      </c>
+      <c r="G8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8">
+        <f>-37.2177</f>
+        <v>-37.2177</v>
+      </c>
+      <c r="K8" t="s">
+        <v>91</v>
+      </c>
+      <c r="L8" t="s">
+        <v>83</v>
+      </c>
+      <c r="M8" t="s">
+        <v>84</v>
+      </c>
+      <c r="N8">
+        <v>-6.11871</v>
+      </c>
+      <c r="O8">
+        <v>-6.05836</v>
+      </c>
+      <c r="P8">
+        <v>7.66066</v>
+      </c>
+      <c r="Q8">
+        <v>0.05226</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="0"/>
+        <v>0.766066</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="2">
+        <v>-37.214844</v>
+      </c>
+      <c r="E9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="2">
+        <v>-37.214844</v>
+      </c>
+      <c r="G9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9">
+        <f>-37.2148</f>
+        <v>-37.2148</v>
+      </c>
+      <c r="K9" t="s">
+        <v>92</v>
+      </c>
+      <c r="L9" t="s">
+        <v>83</v>
+      </c>
+      <c r="M9" t="s">
+        <v>84</v>
+      </c>
+      <c r="N9">
+        <v>-6.54105</v>
+      </c>
+      <c r="O9">
+        <v>-6.49676</v>
+      </c>
+      <c r="P9">
+        <v>12.09655</v>
+      </c>
+      <c r="Q9">
+        <v>0.03836</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="0"/>
+        <v>1.209655</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="2">
+        <v>-37.210978</v>
+      </c>
+      <c r="E10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="2">
+        <v>-37.210978</v>
+      </c>
+      <c r="G10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I10">
+        <f>-37.211</f>
+        <v>-37.211</v>
+      </c>
+      <c r="K10" t="s">
+        <v>93</v>
+      </c>
+      <c r="L10" t="s">
+        <v>83</v>
+      </c>
+      <c r="M10" t="s">
+        <v>84</v>
+      </c>
+      <c r="N10">
+        <v>-6.92346</v>
+      </c>
+      <c r="O10">
+        <v>-6.89808</v>
+      </c>
+      <c r="P10">
+        <v>16.50845</v>
+      </c>
+      <c r="Q10">
+        <v>0.02197</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="0"/>
+        <v>1.650845</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="2">
+        <v>-37.205987</v>
+      </c>
+      <c r="E11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="2">
+        <v>-37.205987</v>
+      </c>
+      <c r="G11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11">
+        <f>-37.206</f>
+        <v>-37.206</v>
+      </c>
+      <c r="K11" t="s">
+        <v>94</v>
+      </c>
+      <c r="L11" t="s">
+        <v>83</v>
+      </c>
+      <c r="M11" t="s">
+        <v>84</v>
+      </c>
+      <c r="N11">
+        <v>-7.3603</v>
+      </c>
+      <c r="O11">
+        <v>-7.35282</v>
+      </c>
+      <c r="P11">
+        <v>21.84954</v>
+      </c>
+      <c r="Q11">
+        <v>0.00648</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="0"/>
+        <v>2.184954</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="2">
+        <v>-37.199727</v>
+      </c>
+      <c r="E12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="2">
+        <v>-37.199727</v>
+      </c>
+      <c r="G12" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" t="s">
+        <v>34</v>
+      </c>
+      <c r="I12">
+        <f>-37.1997</f>
+        <v>-37.1997</v>
+      </c>
+      <c r="K12" t="s">
+        <v>95</v>
+      </c>
+      <c r="L12" t="s">
+        <v>83</v>
+      </c>
+      <c r="M12" t="s">
+        <v>84</v>
+      </c>
+      <c r="N12">
+        <v>-7.85094</v>
+      </c>
+      <c r="O12">
+        <v>-7.86154</v>
+      </c>
+      <c r="P12">
+        <v>28.1936</v>
+      </c>
+      <c r="Q12">
+        <v>-0.00918</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="0"/>
+        <v>2.81936</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="2">
+        <v>-37.192026</v>
+      </c>
+      <c r="E13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="2">
+        <v>-37.192026</v>
+      </c>
+      <c r="G13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13" t="s">
+        <v>34</v>
+      </c>
+      <c r="I13">
+        <f>-37.192</f>
+        <v>-37.192</v>
+      </c>
+      <c r="K13" t="s">
+        <v>96</v>
+      </c>
+      <c r="L13" t="s">
+        <v>83</v>
+      </c>
+      <c r="M13" t="s">
+        <v>84</v>
+      </c>
+      <c r="N13">
+        <v>-8.29527</v>
+      </c>
+      <c r="O13">
+        <v>-8.3259</v>
+      </c>
+      <c r="P13">
+        <v>34.70399</v>
+      </c>
+      <c r="Q13">
+        <v>-0.02652</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="0"/>
+        <v>3.470399</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="2">
+        <v>-37.125248</v>
+      </c>
+      <c r="E14" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="2">
+        <v>-37.125248</v>
+      </c>
+      <c r="G14" t="s">
+        <v>7</v>
+      </c>
+      <c r="H14" t="s">
+        <v>34</v>
+      </c>
+      <c r="I14">
+        <f>-37.1252</f>
+        <v>-37.1252</v>
+      </c>
+      <c r="K14" t="s">
+        <v>97</v>
+      </c>
+      <c r="L14" t="s">
+        <v>83</v>
+      </c>
+      <c r="M14" t="s">
+        <v>84</v>
+      </c>
+      <c r="N14">
+        <v>-11.01718</v>
+      </c>
+      <c r="O14">
+        <v>-11.15287</v>
+      </c>
+      <c r="P14">
+        <v>83.13759</v>
+      </c>
+      <c r="Q14">
+        <v>-0.11751</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="0"/>
+        <v>8.313759</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="2">
+        <v>-36.987991</v>
+      </c>
+      <c r="E15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="2">
+        <v>-36.987991</v>
+      </c>
+      <c r="G15" t="s">
+        <v>7</v>
+      </c>
+      <c r="H15" t="s">
+        <v>34</v>
+      </c>
+      <c r="I15">
+        <f>-36.988</f>
+        <v>-36.988</v>
+      </c>
+      <c r="K15" t="s">
+        <v>98</v>
+      </c>
+      <c r="L15" t="s">
+        <v>83</v>
+      </c>
+      <c r="M15" t="s">
+        <v>84</v>
+      </c>
+      <c r="N15">
+        <v>-14.16293</v>
+      </c>
+      <c r="O15">
+        <v>-14.41278</v>
+      </c>
+      <c r="P15">
+        <v>163.64584</v>
+      </c>
+      <c r="Q15">
+        <v>-0.21637</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="0"/>
+        <v>16.364584</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="2">
+        <v>-36.737023</v>
+      </c>
+      <c r="E16" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" s="2">
+        <v>-36.737023</v>
+      </c>
+      <c r="G16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H16" t="s">
+        <v>34</v>
+      </c>
+      <c r="I16">
+        <f>-36.737</f>
+        <v>-36.737</v>
+      </c>
+      <c r="K16" t="s">
+        <v>99</v>
+      </c>
+      <c r="L16" t="s">
+        <v>83</v>
+      </c>
+      <c r="M16" t="s">
+        <v>84</v>
+      </c>
+      <c r="N16">
+        <v>-17.17197</v>
+      </c>
+      <c r="O16">
+        <v>-17.51691</v>
+      </c>
+      <c r="P16">
+        <v>291.62834</v>
+      </c>
+      <c r="Q16">
+        <v>-0.29873</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="0"/>
+        <v>29.162834</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="2">
+        <v>-36.306229</v>
+      </c>
+      <c r="E17" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" s="2">
+        <v>-36.306229</v>
+      </c>
+      <c r="G17" t="s">
+        <v>7</v>
+      </c>
+      <c r="H17" t="s">
+        <v>34</v>
+      </c>
+      <c r="I17">
+        <f>-36.3062</f>
+        <v>-36.3062</v>
+      </c>
+      <c r="K17" t="s">
+        <v>100</v>
+      </c>
+      <c r="L17" t="s">
+        <v>83</v>
+      </c>
+      <c r="M17" t="s">
+        <v>84</v>
+      </c>
+      <c r="N17">
+        <v>-17.75908</v>
+      </c>
+      <c r="O17">
+        <v>-18.06139</v>
+      </c>
+      <c r="P17">
+        <v>495.90418</v>
+      </c>
+      <c r="Q17">
+        <v>-0.26181</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="0"/>
+        <v>49.590418</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="2">
+        <v>-35.587047</v>
+      </c>
+      <c r="E18" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" s="2">
+        <v>-35.587047</v>
+      </c>
+      <c r="G18" t="s">
+        <v>7</v>
+      </c>
+      <c r="H18" t="s">
+        <v>34</v>
+      </c>
+      <c r="I18">
+        <f>-35.587</f>
+        <v>-35.587</v>
+      </c>
+      <c r="K18" t="s">
+        <v>101</v>
+      </c>
+      <c r="L18" t="s">
+        <v>83</v>
+      </c>
+      <c r="M18" t="s">
+        <v>84</v>
+      </c>
+      <c r="N18">
+        <v>-14.08485</v>
+      </c>
+      <c r="O18">
+        <v>-13.98048</v>
+      </c>
+      <c r="P18">
+        <v>817.95232</v>
+      </c>
+      <c r="Q18">
+        <v>0.09039</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="0"/>
+        <v>81.795232</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="2">
+        <v>-34.443888</v>
+      </c>
+      <c r="E19" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" s="2">
+        <v>-34.443888</v>
+      </c>
+      <c r="G19" t="s">
+        <v>7</v>
+      </c>
+      <c r="H19" t="s">
+        <v>34</v>
+      </c>
+      <c r="I19">
+        <f>-34.4439</f>
+        <v>-34.4439</v>
+      </c>
+      <c r="K19" t="s">
+        <v>102</v>
+      </c>
+      <c r="L19" t="s">
+        <v>83</v>
+      </c>
+      <c r="M19" t="s">
+        <v>84</v>
+      </c>
+      <c r="N19">
+        <v>-9.69094</v>
+      </c>
+      <c r="O19">
+        <v>-9.39747</v>
+      </c>
+      <c r="P19">
+        <v>1262.64436</v>
+      </c>
+      <c r="Q19">
+        <v>0.25415</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="0"/>
+        <v>126.264436</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="2">
+        <v>-32.739216</v>
+      </c>
+      <c r="E20" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20" s="2">
+        <v>-32.739216</v>
+      </c>
+      <c r="G20" t="s">
+        <v>7</v>
+      </c>
+      <c r="H20" t="s">
+        <v>34</v>
+      </c>
+      <c r="I20">
+        <f>-32.7392</f>
+        <v>-32.7392</v>
+      </c>
+      <c r="K20" t="s">
+        <v>103</v>
+      </c>
+      <c r="L20" t="s">
+        <v>83</v>
+      </c>
+      <c r="M20" t="s">
+        <v>84</v>
+      </c>
+      <c r="N20">
+        <v>62.64671</v>
+      </c>
+      <c r="O20">
+        <v>63.09021</v>
+      </c>
+      <c r="P20">
+        <v>1845.37527</v>
+      </c>
+      <c r="Q20">
+        <v>0.38408</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <f t="shared" si="0"/>
+        <v>184.537527</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="2">
+        <v>-30.244928</v>
+      </c>
+      <c r="E21" t="s">
+        <v>33</v>
+      </c>
+      <c r="F21" s="2">
+        <v>-30.244928</v>
+      </c>
+      <c r="G21" t="s">
+        <v>7</v>
+      </c>
+      <c r="H21" t="s">
+        <v>34</v>
+      </c>
+      <c r="I21">
+        <f>-30.2449</f>
+        <v>-30.2449</v>
+      </c>
+      <c r="K21" t="s">
+        <v>104</v>
+      </c>
+      <c r="L21" t="s">
+        <v>83</v>
+      </c>
+      <c r="M21" t="s">
+        <v>84</v>
+      </c>
+      <c r="N21">
+        <v>238.657</v>
+      </c>
+      <c r="O21">
+        <v>238.98526</v>
+      </c>
+      <c r="P21">
+        <v>2781.77108</v>
+      </c>
+      <c r="Q21">
+        <v>0.28428</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <f t="shared" si="0"/>
+        <v>278.177108</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="2">
+        <v>-26.487302</v>
+      </c>
+      <c r="E22" t="s">
+        <v>33</v>
+      </c>
+      <c r="F22" s="2">
+        <v>-26.487302</v>
+      </c>
+      <c r="G22" t="s">
+        <v>7</v>
+      </c>
+      <c r="H22" t="s">
+        <v>34</v>
+      </c>
+      <c r="I22">
+        <f>-26.4873</f>
+        <v>-26.4873</v>
+      </c>
+      <c r="K22" t="s">
+        <v>105</v>
+      </c>
+      <c r="L22" t="s">
+        <v>83</v>
+      </c>
+      <c r="M22" t="s">
+        <v>84</v>
+      </c>
+      <c r="N22">
+        <v>709.01882</v>
+      </c>
+      <c r="O22">
+        <v>708.28629</v>
+      </c>
+      <c r="P22">
+        <v>4109.4174</v>
+      </c>
+      <c r="Q22">
+        <v>-0.6344</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <f t="shared" si="0"/>
+        <v>410.94174</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="2">
+        <v>-21.520284</v>
+      </c>
+      <c r="E23" t="s">
+        <v>33</v>
+      </c>
+      <c r="F23" s="2">
+        <v>-21.520284</v>
+      </c>
+      <c r="G23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H23" t="s">
+        <v>34</v>
+      </c>
+      <c r="I23">
+        <f>-21.5203</f>
+        <v>-21.5203</v>
+      </c>
+      <c r="K23" t="s">
+        <v>106</v>
+      </c>
+      <c r="L23" t="s">
+        <v>83</v>
+      </c>
+      <c r="M23" t="s">
+        <v>84</v>
+      </c>
+      <c r="N23">
+        <v>1922.70321</v>
+      </c>
+      <c r="O23">
+        <v>1921.58153</v>
+      </c>
+      <c r="P23">
+        <v>5152.91824</v>
+      </c>
+      <c r="Q23">
+        <v>-0.9714</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <f t="shared" si="0"/>
+        <v>515.291824</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="2">
+        <v>-14.619444</v>
+      </c>
+      <c r="E24" t="s">
+        <v>33</v>
+      </c>
+      <c r="F24" s="2">
+        <v>-14.619444</v>
+      </c>
+      <c r="G24" t="s">
+        <v>7</v>
+      </c>
+      <c r="H24" t="s">
+        <v>34</v>
+      </c>
+      <c r="I24">
+        <f>-14.6194</f>
+        <v>-14.6194</v>
+      </c>
+      <c r="K24" t="s">
+        <v>107</v>
+      </c>
+      <c r="L24" t="s">
+        <v>83</v>
+      </c>
+      <c r="M24" t="s">
+        <v>84</v>
+      </c>
+      <c r="N24">
+        <v>3453.20136</v>
+      </c>
+      <c r="O24">
+        <v>3452.14486</v>
+      </c>
+      <c r="P24">
+        <v>7654.28943</v>
+      </c>
+      <c r="Q24">
+        <v>-0.91496</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <f t="shared" si="0"/>
+        <v>765.428943</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
@@ -7279,13 +9057,13 @@
         <v>7.734603659</v>
       </c>
       <c r="B1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E1">
         <v>-2.70814</v>
@@ -7311,13 +9089,13 @@
         <v>7.398316544</v>
       </c>
       <c r="B2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" t="s">
         <v>84</v>
-      </c>
-      <c r="C2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D2" t="s">
-        <v>83</v>
       </c>
       <c r="E2">
         <v>-3.40202</v>
@@ -7343,13 +9121,13 @@
         <v>7.06202942799999</v>
       </c>
       <c r="B3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E3">
         <v>-4.50753</v>
@@ -7375,13 +9153,13 @@
         <v>6.99477200493787</v>
       </c>
       <c r="B4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E4">
         <v>-4.78273</v>
@@ -7407,13 +9185,13 @@
         <v>6.92751458181347</v>
       </c>
       <c r="B5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E5">
         <v>-5.08591</v>
@@ -7439,13 +9217,13 @@
         <v>6.86025715868907</v>
       </c>
       <c r="B6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E6">
         <v>-5.40348</v>
@@ -7471,13 +9249,13 @@
         <v>6.79299973556466</v>
       </c>
       <c r="B7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E7">
         <v>-5.75432</v>
@@ -7503,13 +9281,13 @@
         <v>6.72574231244026</v>
       </c>
       <c r="B8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E8">
         <v>-6.11871</v>
@@ -7535,13 +9313,13 @@
         <v>6.65848488931586</v>
       </c>
       <c r="B9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E9">
         <v>-6.54105</v>
@@ -7567,13 +9345,13 @@
         <v>6.59122746619145</v>
       </c>
       <c r="B10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E10">
         <v>-6.92346</v>
@@ -7599,13 +9377,13 @@
         <v>6.52397004306705</v>
       </c>
       <c r="B11" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E11">
         <v>-7.3603</v>
@@ -7631,13 +9409,13 @@
         <v>6.45671261994265</v>
       </c>
       <c r="B12" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D12" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E12">
         <v>-7.85094</v>
@@ -7663,13 +9441,13 @@
         <v>6.389455197</v>
       </c>
       <c r="B13" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D13" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E13">
         <v>-8.29527</v>
@@ -7695,13 +9473,13 @@
         <v>6.05316808099999</v>
       </c>
       <c r="B14" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D14" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E14">
         <v>-11.01718</v>
@@ -7727,13 +9505,13 @@
         <v>5.71688096599999</v>
       </c>
       <c r="B15" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C15" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D15" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E15">
         <v>-14.16293</v>
@@ -7759,13 +9537,13 @@
         <v>5.38059385</v>
       </c>
       <c r="B16" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D16" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E16">
         <v>-17.17197</v>
@@ -7791,13 +9569,13 @@
         <v>5.044306734</v>
       </c>
       <c r="B17" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C17" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D17" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E17">
         <v>-17.75908</v>
@@ -7823,13 +9601,13 @@
         <v>4.70801961899999</v>
       </c>
       <c r="B18" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D18" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E18">
         <v>-14.08485</v>
@@ -7855,13 +9633,13 @@
         <v>4.37173250299999</v>
       </c>
       <c r="B19" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C19" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D19" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E19">
         <v>-9.69094</v>
@@ -7887,13 +9665,13 @@
         <v>4.035445387</v>
       </c>
       <c r="B20" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C20" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D20" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E20">
         <v>62.64671</v>
@@ -7919,13 +9697,13 @@
         <v>3.69915827100001</v>
       </c>
       <c r="B21" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C21" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D21" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E21">
         <v>238.657</v>
@@ -7951,13 +9729,13 @@
         <v>3.36287115500002</v>
       </c>
       <c r="B22" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C22" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D22" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E22">
         <v>709.01882</v>
@@ -7983,13 +9761,13 @@
         <v>3.02658403900003</v>
       </c>
       <c r="B23" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C23" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D23" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E23">
         <v>1922.70321</v>
@@ -8015,13 +9793,13 @@
         <v>2.69029692300004</v>
       </c>
       <c r="B24" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C24" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D24" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E24">
         <v>3453.20136</v>
@@ -8058,4 +9836,605 @@
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:G24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="16.375" customWidth="1"/>
+    <col min="2" max="2" width="2.375" customWidth="1"/>
+    <col min="3" max="3" width="11.5" customWidth="1"/>
+    <col min="4" max="5" width="2.375" customWidth="1"/>
+    <col min="6" max="6" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="12.625"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>64.7392709</v>
+      </c>
+      <c r="D1">
+        <v>0</v>
+      </c>
+      <c r="E1">
+        <v>0</v>
+      </c>
+      <c r="F1">
+        <v>64.7392709</v>
+      </c>
+      <c r="G1">
+        <f>C1*1000/6.022140857E+23*6242000000000000000/32</f>
+        <v>0.0209696258021805</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>65.1230977</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>65.1230977</v>
+      </c>
+      <c r="G2">
+        <f t="shared" ref="G2:G24" si="0">C2*1000/6.022140857E+23*6242000000000000000/32</f>
+        <v>0.0210939507174438</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>65.7098612</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>65.7098612</v>
+      </c>
+      <c r="G3">
+        <f t="shared" si="0"/>
+        <v>0.0212840086352783</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>65.6899503</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>65.6899503</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>0.0212775593176295</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>72.8132429</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>72.8132429</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>0.0235848571636644</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>65.8146289</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>65.8146289</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>0.0213179438253818</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>65.8802829</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>65.8802829</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>0.0213392097400774</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>72.8132429</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>72.8132429</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>0.0235848571636644</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>66.2587349</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>66.2587349</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>0.0214617937098034</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>66.3663481</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>66.3663481</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>0.0214966505826721</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>72.8132429</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>72.8132429</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>0.0235848571636644</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>72.8132429</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>72.8132429</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>0.0235848571636644</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>66.2587349</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>66.2587349</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>0.0214617937098034</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>66.3663481</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>66.3663481</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>0.0214966505826721</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>66.5061517</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>66.5061517</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>0.0215419342124851</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>66.6643361</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>66.6643361</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>0.0215931715469442</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>74</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>66.8469612</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>66.8469612</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>0.0216523254415718</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>75</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>66.8870315</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>66.8870315</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>0.0216653045682302</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>76</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>65.7001752</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>65.7001752</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="0"/>
+        <v>0.021280871253706</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>77</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>62.9240536</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>62.9240536</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="0"/>
+        <v>0.0203816607694967</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>78</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>57.9594963</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>57.9594963</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="0"/>
+        <v>0.0187735964924786</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>79</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>50.0209324</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>50.0209324</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="0"/>
+        <v>0.0162022250192528</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>80</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>49.6791241</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>49.6791241</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="0"/>
+        <v>0.0160915102699602</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>81</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>48.0262328</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>48.0262328</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="0"/>
+        <v>0.0155561240728216</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/data/data_collection.xlsx
+++ b/data/data_collection.xlsx
@@ -23,7 +23,8 @@
     <definedName name="ExternalData_1" localSheetId="6">Sheet5!$B$1:$J$24</definedName>
     <definedName name="ExternalData_1" localSheetId="5">Sheet4!$A$1:$I$24</definedName>
     <definedName name="ExternalData_2" localSheetId="5">Sheet4!$K$1:$S$24</definedName>
-    <definedName name="ExternalData_1" localSheetId="7">Sheet3!$A$1:$F$24</definedName>
+    <definedName name="ExternalData_1" localSheetId="7">Sheet3!$A$1:$F$30</definedName>
+    <definedName name="ExternalData_2" localSheetId="7">Sheet3!$J$1:$O$30</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
@@ -100,29 +101,36 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="4" name="tmpp" type="6" background="1" refreshedVersion="2" saveData="1">
+  <connection id="4" name="tmp300" type="6" background="1" refreshedVersion="2" saveData="1">
+    <textPr sourceFile="F:\William\PBE3\tmp300.txt" space="1" consecutive="1">
+      <textFields>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="5" name="tmpp" type="6" background="1" refreshedVersion="2" saveData="1">
     <textPr sourceFile="F:\William\PV0c\tmpp.txt" space="1" consecutive="1">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="5" name="tmpp1" type="6" background="1" refreshedVersion="2" saveData="1">
+  <connection id="6" name="tmpp1" type="6" background="1" refreshedVersion="2" saveData="1">
     <textPr sourceFile="F:\William\PV0c\tmpp.txt" space="1" consecutive="1">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="6" name="tmpt" type="6" background="1" refreshedVersion="2" saveData="1">
+  <connection id="7" name="tmpt" type="6" background="1" refreshedVersion="2" saveData="1">
     <textPr sourceFile="F:\William\PV0c\tmpt.txt" space="1" consecutive="1">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="7" name="tmpt1" type="6" background="1" refreshedVersion="2" saveData="1">
-    <textPr sourceFile="F:\William\PV0c\tmpt.txt" space="1" consecutive="1">
+  <connection id="8" name="tmpt1" type="6" background="1" refreshedVersion="2" saveData="1">
+    <textPr sourceFile="F:\William\PBE3\tmpt.txt" space="1" consecutive="1">
       <textFields>
         <textField/>
       </textFields>
@@ -132,7 +140,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117">
   <si>
     <t>C(A)</t>
   </si>
@@ -224,9 +232,18 @@
     <t>z19</t>
   </si>
   <si>
+    <t>F0(eV/atm)</t>
+  </si>
+  <si>
     <t>zz(stress GPa)</t>
   </si>
   <si>
+    <t>F0 from php(eV/atm)</t>
+  </si>
+  <si>
+    <t>F300 from php(eV/atm)</t>
+  </si>
+  <si>
     <t>./a/OSZICAR:</t>
   </si>
   <si>
@@ -456,6 +473,24 @@
   </si>
   <si>
     <t>./z17/OUTCAR:</t>
+  </si>
+  <si>
+    <t>./z18/thermal.txt:</t>
+  </si>
+  <si>
+    <t>./z19/thermal.txt:</t>
+  </si>
+  <si>
+    <t>./zzz-a/thermal.txt:</t>
+  </si>
+  <si>
+    <t>./zzz-b/thermal.txt:</t>
+  </si>
+  <si>
+    <t>./zzz-z07/thermal.txt:</t>
+  </si>
+  <si>
+    <t>./zzz-z08/thermal.txt:</t>
   </si>
 </sst>
 </file>
@@ -1083,12 +1118,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3365,7 +3402,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="0" nextId="7">
     <queryTableFields count="6">
       <queryTableField id="1" dataBound="0"/>
@@ -3380,7 +3417,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_2" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_2" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="0" nextId="10">
     <queryTableFields count="9">
       <queryTableField id="1" dataBound="0"/>
@@ -3416,7 +3453,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="0" nextId="10">
     <queryTableFields count="9">
       <queryTableField id="1" dataBound="0"/>
@@ -3434,7 +3471,22 @@
 </file>
 
 <file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_2" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+  <queryTableRefresh preserveSortFilterLayout="0" nextId="7">
+    <queryTableFields count="6">
+      <queryTableField id="1" dataBound="0"/>
+      <queryTableField id="2" dataBound="0"/>
+      <queryTableField id="3" dataBound="0"/>
+      <queryTableField id="4" dataBound="0"/>
+      <queryTableField id="5" dataBound="0"/>
+      <queryTableField id="6" dataBound="0"/>
+    </queryTableFields>
+  </queryTableRefresh>
+</queryTable>
+</file>
+
+<file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="0" nextId="7">
     <queryTableFields count="6">
       <queryTableField id="1" dataBound="0"/>
@@ -3709,8 +3761,8 @@
   <sheetPr/>
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -3736,12 +3788,19 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
+    <row r="2" spans="2:10">
       <c r="B2">
-        <v>7.19654427431108</v>
+        <v>7.7346036593063</v>
+      </c>
+      <c r="C2">
+        <v>-9.29974075</v>
+      </c>
+      <c r="D2" s="2">
+        <f>C2+E2</f>
+        <v>-9.27877112419782</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.0209696258021805</v>
       </c>
       <c r="I2">
         <v>1.07</v>
@@ -3751,12 +3810,19 @@
         <v>7.19654427431108</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
+    <row r="3" spans="2:10">
       <c r="B3">
-        <v>7.12928685118668</v>
+        <v>7.39831654368429</v>
+      </c>
+      <c r="C3">
+        <v>-9.303271</v>
+      </c>
+      <c r="D3" s="2">
+        <f>C3+E3</f>
+        <v>-9.28217704928256</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.0210939507174438</v>
       </c>
       <c r="I3">
         <v>1.06</v>
@@ -3768,24 +3834,10 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4">
-        <v>7.06202942806227</v>
-      </c>
-      <c r="C4">
-        <v>-9.305298</v>
-      </c>
-      <c r="D4" s="1">
-        <f>C4+E4</f>
-        <v>-9.28401399136472</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0.0212840086352783</v>
-      </c>
-      <c r="G4">
-        <f>6.72574231244026*2</f>
-        <v>13.4514846248805</v>
+        <v>7.19654427431108</v>
       </c>
       <c r="I4">
         <v>1.05</v>
@@ -3797,622 +3849,765 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B5">
-        <v>6.99477200493787</v>
-      </c>
-      <c r="C5">
-        <v>-9.30541825</v>
-      </c>
-      <c r="D5" s="1">
-        <f t="shared" ref="D5:D14" si="0">C5+E5</f>
-        <v>-9.28414069068237</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0.0212775593176295</v>
+        <v>7.12928685118668</v>
       </c>
       <c r="I5">
         <v>1.04</v>
       </c>
       <c r="J5">
-        <f t="shared" ref="J5:J16" si="1">6.72574231244026*I5</f>
+        <f t="shared" ref="J5:J16" si="0">6.72574231244026*I5</f>
         <v>6.99477200493787</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B6">
-        <v>6.92751458181347</v>
+        <v>7.06202942806227</v>
       </c>
       <c r="C6">
-        <v>-9.305416</v>
-      </c>
-      <c r="D6" s="1">
-        <f t="shared" si="0"/>
-        <v>-9.2841141355305</v>
-      </c>
-      <c r="E6">
-        <v>0.0213018644695016</v>
+        <v>-9.305298</v>
+      </c>
+      <c r="D6" s="2">
+        <f>C6+E6</f>
+        <v>-9.28401399136472</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.0212840086352783</v>
+      </c>
+      <c r="G6">
+        <f>6.72574231244026*2</f>
+        <v>13.4514846248805</v>
       </c>
       <c r="I6">
         <v>1.03</v>
       </c>
       <c r="J6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6.92751458181347</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B7">
-        <v>6.86025715868907</v>
+        <v>6.99477200493787</v>
       </c>
       <c r="C7">
-        <v>-9.305258</v>
-      </c>
-      <c r="D7" s="1">
-        <f t="shared" si="0"/>
-        <v>-9.28394005617462</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0.0213179438253818</v>
+        <v>-9.30541825</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" ref="D7:D16" si="1">C7+E7</f>
+        <v>-9.28414069068237</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.0212775593176295</v>
       </c>
       <c r="I7">
         <v>1.02</v>
       </c>
       <c r="J7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6.86025715868907</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B8">
-        <v>6.79299973556466</v>
+        <v>6.92751458181347</v>
       </c>
       <c r="C8">
-        <v>-9.30494375</v>
-      </c>
-      <c r="D8" s="1">
-        <f t="shared" si="0"/>
-        <v>-9.28360454025992</v>
+        <v>-9.305416</v>
+      </c>
+      <c r="D8" s="2">
+        <f t="shared" si="1"/>
+        <v>-9.2841141355305</v>
       </c>
       <c r="E8">
-        <v>0.0213392097400774</v>
+        <v>0.0213018644695016</v>
       </c>
       <c r="I8">
         <v>1.01</v>
       </c>
       <c r="J8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6.79299973556466</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B9">
-        <v>6.72574231244026</v>
+        <v>6.86025715868907</v>
       </c>
       <c r="C9">
-        <v>-9.30443575</v>
-      </c>
-      <c r="D9" s="1">
-        <f t="shared" si="0"/>
-        <v>-9.28085089283634</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0.0235848571636644</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9">
-        <f>6.72574231244026*G9</f>
-        <v>6.72574231244026</v>
+        <v>-9.305258</v>
+      </c>
+      <c r="D9" s="2">
+        <f t="shared" si="1"/>
+        <v>-9.28394005617462</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.0213179438253818</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6.72574231244026</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B10">
-        <v>6.65848488931586</v>
+        <v>6.79299973556466</v>
       </c>
       <c r="C10">
-        <v>-9.303711</v>
-      </c>
-      <c r="D10" s="1">
-        <f t="shared" si="0"/>
-        <v>-9.303711</v>
-      </c>
-      <c r="E10" s="1">
-        <v>0</v>
+        <v>-9.30494375</v>
+      </c>
+      <c r="D10" s="2">
+        <f t="shared" si="1"/>
+        <v>-9.28360454025992</v>
+      </c>
+      <c r="E10">
+        <v>0.0213392097400774</v>
       </c>
       <c r="I10">
         <v>0.99</v>
       </c>
       <c r="J10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6.65848488931586</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B11">
-        <v>6.59122746619145</v>
+        <v>6.72574231244026</v>
       </c>
       <c r="C11">
-        <v>-9.3027445</v>
-      </c>
-      <c r="D11" s="1">
-        <f t="shared" si="0"/>
-        <v>-9.3027445</v>
-      </c>
-      <c r="E11" s="1">
-        <v>0</v>
+        <v>-9.30443575</v>
+      </c>
+      <c r="D11" s="2">
+        <f t="shared" si="1"/>
+        <v>-9.28085089283634</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.0235848571636644</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <f>6.72574231244026*G11</f>
+        <v>6.72574231244026</v>
       </c>
       <c r="I11">
         <v>0.98</v>
       </c>
       <c r="J11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6.59122746619145</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B12">
-        <v>6.52397004306705</v>
+        <v>6.65848488931586</v>
       </c>
       <c r="C12">
-        <v>-9.30149675</v>
-      </c>
-      <c r="D12" s="1">
-        <f t="shared" si="0"/>
-        <v>-9.30149675</v>
-      </c>
-      <c r="E12" s="1">
+        <v>-9.303711</v>
+      </c>
+      <c r="D12" s="2">
+        <f t="shared" si="1"/>
+        <v>-9.303711</v>
+      </c>
+      <c r="E12" s="2">
         <v>0</v>
       </c>
       <c r="I12">
         <v>0.97</v>
       </c>
       <c r="J12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6.52397004306705</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B13">
-        <v>6.45671261994265</v>
+        <v>6.59122746619145</v>
       </c>
       <c r="C13">
-        <v>-9.29993175</v>
-      </c>
-      <c r="D13" s="1">
-        <f t="shared" si="0"/>
-        <v>-9.29993175</v>
-      </c>
-      <c r="E13" s="1">
+        <v>-9.3027445</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" si="1"/>
+        <v>-9.3027445</v>
+      </c>
+      <c r="E13" s="2">
         <v>0</v>
       </c>
       <c r="I13">
         <v>0.96</v>
       </c>
       <c r="J13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6.45671261994265</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B14">
-        <v>6.38945519681825</v>
+        <v>6.52397004306705</v>
       </c>
       <c r="C14">
-        <v>-9.2980065</v>
-      </c>
-      <c r="D14" s="1">
-        <f t="shared" si="0"/>
-        <v>-9.2765447062902</v>
-      </c>
-      <c r="E14" s="1">
-        <v>0.0214617937098034</v>
-      </c>
-      <c r="G14">
-        <v>0.95</v>
-      </c>
-      <c r="H14">
-        <f t="shared" ref="H14:H25" si="2">6.72574231244026*G14</f>
-        <v>6.38945519681825</v>
+        <v>-9.30149675</v>
+      </c>
+      <c r="D14" s="2">
+        <f t="shared" si="1"/>
+        <v>-9.30149675</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0.95</v>
       </c>
       <c r="J14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6.38945519681825</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>6.45671261994265</v>
+      </c>
+      <c r="C15">
+        <v>-9.29993175</v>
+      </c>
+      <c r="D15" s="2">
+        <f t="shared" si="1"/>
+        <v>-9.29993175</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0.94</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="0"/>
+        <v>6.32219777369384</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>6.38945519681825</v>
+      </c>
+      <c r="C16">
+        <v>-9.2980065</v>
+      </c>
+      <c r="D16" s="2">
+        <f t="shared" si="1"/>
+        <v>-9.2765447062902</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0.0214617937098034</v>
+      </c>
+      <c r="G16">
+        <v>0.95</v>
+      </c>
+      <c r="H16">
+        <f t="shared" ref="H16:H27" si="2">6.72574231244026*G16</f>
+        <v>6.38945519681825</v>
+      </c>
+      <c r="I16">
+        <v>0.93</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="0"/>
+        <v>6.25494035056944</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
         <v>17</v>
       </c>
-      <c r="B15">
+      <c r="B17">
         <v>6.32219777369384</v>
       </c>
-      <c r="G15">
+      <c r="G17">
         <v>0.9</v>
       </c>
-      <c r="H15">
+      <c r="H17">
         <f t="shared" si="2"/>
         <v>6.05316808119623</v>
       </c>
-      <c r="I15">
-        <v>0.94</v>
-      </c>
-      <c r="J15">
-        <f t="shared" si="1"/>
-        <v>6.32219777369384</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" t="s">
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" t="s">
         <v>18</v>
       </c>
-      <c r="B16">
+      <c r="B18">
         <v>6.25494035056944</v>
       </c>
-      <c r="G16">
+      <c r="G18">
         <v>0.85</v>
       </c>
-      <c r="H16">
+      <c r="H18">
         <f t="shared" si="2"/>
         <v>5.71688096557422</v>
       </c>
-      <c r="I16">
-        <v>0.93</v>
-      </c>
-      <c r="J16">
-        <f t="shared" si="1"/>
-        <v>6.25494035056944</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" t="s">
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" t="s">
         <v>19</v>
       </c>
-      <c r="G17">
+      <c r="B19" s="6">
+        <v>6.05316808099999</v>
+      </c>
+      <c r="C19" s="1">
+        <v>-9.281312</v>
+      </c>
+      <c r="D19" s="6">
+        <f t="shared" ref="D19:D29" si="3">C19+E19</f>
+        <v>-9.25981534941733</v>
+      </c>
+      <c r="E19" s="6">
+        <v>0.0214966505826721</v>
+      </c>
+      <c r="G19">
         <v>0.8</v>
       </c>
-      <c r="H17">
+      <c r="H19">
         <f t="shared" si="2"/>
         <v>5.38059384995221</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
-      <c r="A18" t="s">
+    <row r="20" spans="1:8">
+      <c r="A20" t="s">
         <v>20</v>
       </c>
-      <c r="G18">
+      <c r="B20" s="6">
+        <v>5.71688096599999</v>
+      </c>
+      <c r="C20" s="1">
+        <v>-9.24699775</v>
+      </c>
+      <c r="D20" s="6">
+        <f t="shared" si="3"/>
+        <v>-9.22545581578752</v>
+      </c>
+      <c r="E20" s="6">
+        <v>0.0215419342124851</v>
+      </c>
+      <c r="G20">
         <v>0.75</v>
       </c>
-      <c r="H18">
+      <c r="H20">
         <f t="shared" si="2"/>
         <v>5.04430673433019</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
-      <c r="A19" t="s">
+    <row r="21" spans="1:8">
+      <c r="A21" t="s">
         <v>21</v>
       </c>
-      <c r="G19">
+      <c r="B21" s="6">
+        <v>5.38059385</v>
+      </c>
+      <c r="C21" s="1">
+        <v>-9.18425575</v>
+      </c>
+      <c r="D21" s="6">
+        <f t="shared" si="3"/>
+        <v>-9.16266257845306</v>
+      </c>
+      <c r="E21" s="6">
+        <v>0.0215931715469442</v>
+      </c>
+      <c r="G21">
         <v>0.7</v>
       </c>
-      <c r="H19">
+      <c r="H21">
         <f t="shared" si="2"/>
         <v>4.70801961870818</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
-      <c r="A20" t="s">
+    <row r="22" spans="1:8">
+      <c r="A22" t="s">
         <v>22</v>
       </c>
-      <c r="G20">
+      <c r="B22" s="6">
+        <v>5.044306734</v>
+      </c>
+      <c r="C22" s="1">
+        <v>-9.07655725</v>
+      </c>
+      <c r="D22" s="6">
+        <f t="shared" si="3"/>
+        <v>-9.05490492455843</v>
+      </c>
+      <c r="E22" s="6">
+        <v>0.0216523254415718</v>
+      </c>
+      <c r="G22">
         <v>0.65</v>
       </c>
-      <c r="H20">
+      <c r="H22">
         <f t="shared" si="2"/>
         <v>4.37173250308617</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
-      <c r="A21" t="s">
+    <row r="23" spans="1:8">
+      <c r="A23" t="s">
         <v>23</v>
       </c>
-      <c r="G21">
+      <c r="B23" s="6">
+        <v>4.70801961899999</v>
+      </c>
+      <c r="C23" s="1">
+        <v>-8.89676175</v>
+      </c>
+      <c r="D23" s="6">
+        <f t="shared" si="3"/>
+        <v>-8.87509644543177</v>
+      </c>
+      <c r="E23" s="6">
+        <v>0.0216653045682302</v>
+      </c>
+      <c r="G23">
         <v>0.6</v>
       </c>
-      <c r="H21">
+      <c r="H23">
         <f t="shared" si="2"/>
         <v>4.03544538746416</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
-      <c r="A22" t="s">
+    <row r="24" spans="1:8">
+      <c r="A24" t="s">
         <v>24</v>
       </c>
-      <c r="G22">
+      <c r="B24" s="6">
+        <v>4.37173250299999</v>
+      </c>
+      <c r="C24" s="1">
+        <v>-8.610972</v>
+      </c>
+      <c r="D24" s="6">
+        <f t="shared" si="3"/>
+        <v>-8.58969112874629</v>
+      </c>
+      <c r="E24" s="6">
+        <v>0.021280871253706</v>
+      </c>
+      <c r="G24">
         <v>0.55</v>
       </c>
-      <c r="H22">
+      <c r="H24">
         <f t="shared" si="2"/>
         <v>3.69915827184214</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
-      <c r="A23" t="s">
+    <row r="25" spans="1:8">
+      <c r="A25" t="s">
         <v>25</v>
       </c>
-      <c r="G23">
+      <c r="B25" s="6">
+        <v>4.035445387</v>
+      </c>
+      <c r="C25" s="1">
+        <v>-8.184804</v>
+      </c>
+      <c r="D25" s="6">
+        <f t="shared" si="3"/>
+        <v>-8.1644223392305</v>
+      </c>
+      <c r="E25" s="6">
+        <v>0.0203816607694967</v>
+      </c>
+      <c r="G25">
         <v>0.5</v>
       </c>
-      <c r="H23">
+      <c r="H25">
         <f t="shared" si="2"/>
         <v>3.36287115622013</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
-      <c r="A24" t="s">
+    <row r="26" spans="1:8">
+      <c r="A26" t="s">
         <v>26</v>
       </c>
-      <c r="G24">
+      <c r="B26" s="6">
+        <v>3.69915827100001</v>
+      </c>
+      <c r="C26" s="1">
+        <v>-7.561232</v>
+      </c>
+      <c r="D26" s="6">
+        <f t="shared" si="3"/>
+        <v>-7.54245840350752</v>
+      </c>
+      <c r="E26" s="6">
+        <v>0.0187735964924786</v>
+      </c>
+      <c r="G26">
         <v>0.45</v>
       </c>
-      <c r="H24">
+      <c r="H26">
         <f t="shared" si="2"/>
         <v>3.02658404059812</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
-      <c r="A25" t="s">
+    <row r="27" spans="1:8">
+      <c r="A27" t="s">
         <v>27</v>
       </c>
-      <c r="G25">
+      <c r="B27" s="6">
+        <v>3.36287115500002</v>
+      </c>
+      <c r="C27" s="1">
+        <v>-6.6218255</v>
+      </c>
+      <c r="D27" s="6">
+        <f t="shared" si="3"/>
+        <v>-6.60562327498075</v>
+      </c>
+      <c r="E27" s="6">
+        <v>0.0162022250192528</v>
+      </c>
+      <c r="G27">
         <v>0.399999999999999</v>
       </c>
-      <c r="H25">
+      <c r="H27">
         <f t="shared" si="2"/>
         <v>2.6902969249761</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
-      <c r="A26" t="s">
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" t="s">
+      <c r="B28" s="6">
+        <v>3.02658403900003</v>
+      </c>
+      <c r="C28" s="1">
+        <v>-5.380071</v>
+      </c>
+      <c r="D28" s="6">
+        <f t="shared" si="3"/>
+        <v>-5.36397948973004</v>
+      </c>
+      <c r="E28" s="6">
+        <v>0.0160915102699602</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="29" spans="2:5">
-      <c r="B29">
-        <v>7.7346036593063</v>
-      </c>
-      <c r="C29">
-        <v>-9.29974075</v>
-      </c>
-      <c r="D29" s="1">
-        <f>C29+E29</f>
-        <v>-9.27877112419782</v>
-      </c>
-      <c r="E29" s="1">
-        <v>0.0209696258021805</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5">
-      <c r="B30">
-        <v>7.39831654368429</v>
-      </c>
-      <c r="C30">
-        <v>-9.303271</v>
-      </c>
-      <c r="D30" s="1">
-        <f>C30+E30</f>
-        <v>-9.28217704928256</v>
-      </c>
-      <c r="E30" s="1">
-        <v>0.0210939507174438</v>
+      <c r="B29" s="6">
+        <v>2.69029692300004</v>
+      </c>
+      <c r="C29" s="1">
+        <v>-3.654861</v>
+      </c>
+      <c r="D29" s="6">
+        <f t="shared" si="3"/>
+        <v>-3.63930487592718</v>
+      </c>
+      <c r="E29" s="6">
+        <v>0.0155561240728216</v>
       </c>
     </row>
     <row r="31" spans="2:5">
-      <c r="B31" s="1">
+      <c r="B31" s="2">
         <v>6.05316808099999</v>
       </c>
       <c r="C31">
         <v>-9.281312</v>
       </c>
-      <c r="D31" s="1">
-        <f t="shared" ref="D31:D41" si="3">C31+E31</f>
+      <c r="D31" s="2">
+        <f t="shared" ref="D31:D41" si="4">C31+E31</f>
         <v>-9.25981534941733</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E31" s="2">
         <v>0.0214966505826721</v>
       </c>
     </row>
     <row r="32" spans="2:5">
-      <c r="B32" s="1">
+      <c r="B32" s="2">
         <v>5.71688096599999</v>
       </c>
       <c r="C32">
         <v>-9.24699775</v>
       </c>
-      <c r="D32" s="1">
-        <f t="shared" si="3"/>
+      <c r="D32" s="2">
+        <f t="shared" si="4"/>
         <v>-9.22545581578752</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E32" s="2">
         <v>0.0215419342124851</v>
       </c>
     </row>
     <row r="33" spans="2:5">
-      <c r="B33" s="1">
+      <c r="B33" s="2">
         <v>5.38059385</v>
       </c>
       <c r="C33">
         <v>-9.18425575</v>
       </c>
-      <c r="D33" s="1">
-        <f t="shared" si="3"/>
+      <c r="D33" s="2">
+        <f t="shared" si="4"/>
         <v>-9.16266257845306</v>
       </c>
-      <c r="E33" s="1">
+      <c r="E33" s="2">
         <v>0.0215931715469442</v>
       </c>
     </row>
     <row r="34" spans="2:5">
-      <c r="B34" s="1">
+      <c r="B34" s="2">
         <v>5.044306734</v>
       </c>
       <c r="C34">
         <v>-9.07655725</v>
       </c>
-      <c r="D34" s="1">
-        <f t="shared" si="3"/>
+      <c r="D34" s="2">
+        <f t="shared" si="4"/>
         <v>-9.05490492455843</v>
       </c>
-      <c r="E34" s="1">
+      <c r="E34" s="2">
         <v>0.0216523254415718</v>
       </c>
     </row>
     <row r="35" spans="2:5">
-      <c r="B35" s="1">
+      <c r="B35" s="2">
         <v>4.70801961899999</v>
       </c>
       <c r="C35">
         <v>-8.89676175</v>
       </c>
-      <c r="D35" s="1">
-        <f t="shared" si="3"/>
+      <c r="D35" s="2">
+        <f t="shared" si="4"/>
         <v>-8.87509644543177</v>
       </c>
-      <c r="E35" s="1">
+      <c r="E35" s="2">
         <v>0.0216653045682302</v>
       </c>
     </row>
     <row r="36" spans="2:5">
-      <c r="B36" s="1">
+      <c r="B36" s="2">
         <v>4.37173250299999</v>
       </c>
       <c r="C36">
         <v>-8.610972</v>
       </c>
-      <c r="D36" s="1">
-        <f t="shared" si="3"/>
+      <c r="D36" s="2">
+        <f t="shared" si="4"/>
         <v>-8.58969112874629</v>
       </c>
-      <c r="E36" s="1">
+      <c r="E36" s="2">
         <v>0.021280871253706</v>
       </c>
     </row>
     <row r="37" spans="2:5">
-      <c r="B37" s="1">
+      <c r="B37" s="2">
         <v>4.035445387</v>
       </c>
       <c r="C37">
         <v>-8.184804</v>
       </c>
-      <c r="D37" s="1">
-        <f t="shared" si="3"/>
+      <c r="D37" s="2">
+        <f t="shared" si="4"/>
         <v>-8.1644223392305</v>
       </c>
-      <c r="E37" s="1">
+      <c r="E37" s="2">
         <v>0.0203816607694967</v>
       </c>
     </row>
     <row r="38" spans="2:5">
-      <c r="B38" s="1">
+      <c r="B38" s="2">
         <v>3.69915827100001</v>
       </c>
       <c r="C38">
         <v>-7.561232</v>
       </c>
-      <c r="D38" s="1">
-        <f t="shared" si="3"/>
+      <c r="D38" s="2">
+        <f t="shared" si="4"/>
         <v>-7.54245840350752</v>
       </c>
-      <c r="E38" s="1">
+      <c r="E38" s="2">
         <v>0.0187735964924786</v>
       </c>
     </row>
     <row r="39" spans="2:5">
-      <c r="B39" s="1">
+      <c r="B39" s="2">
         <v>3.36287115500002</v>
       </c>
       <c r="C39">
         <v>-6.6218255</v>
       </c>
-      <c r="D39" s="1">
-        <f t="shared" si="3"/>
+      <c r="D39" s="2">
+        <f t="shared" si="4"/>
         <v>-6.60562327498075</v>
       </c>
-      <c r="E39" s="1">
+      <c r="E39" s="2">
         <v>0.0162022250192528</v>
       </c>
     </row>
     <row r="40" spans="2:5">
-      <c r="B40" s="1">
+      <c r="B40" s="2">
         <v>3.02658403900003</v>
       </c>
       <c r="C40">
         <v>-5.380071</v>
       </c>
-      <c r="D40" s="1">
-        <f t="shared" si="3"/>
+      <c r="D40" s="2">
+        <f t="shared" si="4"/>
         <v>-5.36397948973004</v>
       </c>
-      <c r="E40" s="1">
+      <c r="E40" s="2">
         <v>0.0160915102699602</v>
       </c>
     </row>
     <row r="41" spans="2:5">
-      <c r="B41" s="1">
+      <c r="B41" s="2">
         <v>2.69029692300004</v>
       </c>
       <c r="C41">
         <v>-3.654861</v>
       </c>
-      <c r="D41" s="1">
-        <f t="shared" si="3"/>
+      <c r="D41" s="2">
+        <f t="shared" si="4"/>
         <v>-3.63930487592718</v>
       </c>
-      <c r="E41" s="1">
+      <c r="E41" s="2">
         <v>0.0155561240728216</v>
       </c>
     </row>
@@ -4428,8 +4623,8 @@
   <sheetPr/>
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E27"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -4438,39 +4633,49 @@
     <col min="3" max="3" width="12.625"/>
     <col min="4" max="5" width="13.75"/>
     <col min="6" max="6" width="12.625"/>
+    <col min="7" max="7" width="12.625" style="1"/>
     <col min="8" max="11" width="12.625"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" spans="2:6">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:7">
+      <c r="A1" s="4"/>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1"/>
-      <c r="E1" t="s">
+      <c r="D1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F1" t="s">
-        <v>3</v>
+      <c r="E1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="2" customFormat="1" spans="2:11">
-      <c r="B2" s="1">
+      <c r="B2" s="2">
         <v>7.62651333736756</v>
       </c>
       <c r="C2">
         <v>-9.35571075</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="5">
         <f>C2+F2</f>
         <v>-9.35571075</v>
       </c>
-      <c r="E2" s="3">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1">
+      <c r="E2" s="5">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
         <v>0</v>
       </c>
       <c r="J2">
@@ -4482,20 +4687,23 @@
       </c>
     </row>
     <row r="3" customFormat="1" spans="2:11">
-      <c r="B3" s="1">
+      <c r="B3" s="2">
         <v>7.29492580096027</v>
       </c>
       <c r="C3">
         <v>-9.36041425</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="5">
         <f t="shared" ref="D3:D27" si="1">C3+F3</f>
         <v>-9.36041425</v>
       </c>
-      <c r="E3" s="3">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1">
+      <c r="E3" s="5">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
         <v>0</v>
       </c>
       <c r="J3">
@@ -4516,16 +4724,18 @@
       <c r="C4">
         <v>-9.36272175</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="5">
         <f t="shared" si="1"/>
-        <v>-9.36042330112505</v>
-      </c>
-      <c r="E4" s="3">
+        <v>-9.34142444866186</v>
+      </c>
+      <c r="E4" s="5">
         <v>-1.74798</v>
       </c>
-      <c r="F4" s="4">
-        <f>B4*1000/6.022140857E+23*6242000000000000000/32</f>
-        <v>0.00229844887495222</v>
+      <c r="F4" s="1">
+        <v>0.0212973013381394</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.0206943201157467</v>
       </c>
       <c r="H4">
         <v>0.95</v>
@@ -4545,19 +4755,21 @@
       <c r="B5">
         <v>7.02965577183444</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="1">
         <v>-9.36334625</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="5">
         <f t="shared" si="1"/>
-        <v>-9.36106928195565</v>
-      </c>
-      <c r="E5" s="3">
+        <v>-9.34203116612822</v>
+      </c>
+      <c r="E5" s="5">
         <v>-1.37949</v>
       </c>
-      <c r="F5" s="4">
-        <f>B5*1000/6.022140857E+23*6242000000000000000/32</f>
-        <v>0.00227696804434519</v>
+      <c r="F5" s="1">
+        <v>0.0213150838717795</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.0207214062522322</v>
       </c>
       <c r="J5">
         <v>1.04</v>
@@ -4571,22 +4783,24 @@
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="2">
         <v>6.96333826455299</v>
       </c>
       <c r="C6">
         <v>-9.36387875</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="5">
         <f t="shared" si="1"/>
-        <v>-9.36162326278626</v>
-      </c>
-      <c r="E6" s="3">
+        <v>-9.34252731341168</v>
+      </c>
+      <c r="E6" s="5">
         <v>-0.649711</v>
       </c>
-      <c r="F6" s="4">
-        <f>B6*1000/6.022140857E+23*6242000000000000000/32</f>
-        <v>0.00225548721373816</v>
+      <c r="F6" s="1">
+        <v>0.0213514365883235</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.0207224978899954</v>
       </c>
       <c r="J6">
         <v>1.03</v>
@@ -4600,22 +4814,24 @@
       <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="2">
         <v>6.89702075727153</v>
       </c>
       <c r="C7">
         <v>-9.364291</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="5">
         <f t="shared" si="1"/>
-        <v>-9.36205699361687</v>
-      </c>
-      <c r="E7" s="3">
+        <v>-9.34292050564871</v>
+      </c>
+      <c r="E7" s="5">
         <v>-0.436941</v>
       </c>
-      <c r="F7" s="4">
-        <f>B7*1000/6.022140857E+23*6242000000000000000/32</f>
-        <v>0.00223400638313113</v>
+      <c r="F7" s="1">
+        <v>0.0213704943512894</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.0207691221463404</v>
       </c>
       <c r="J7">
         <v>1.02</v>
@@ -4629,22 +4845,24 @@
       <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="2">
         <v>6.83070324999007</v>
       </c>
       <c r="C8">
         <v>-9.36458075</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="5">
         <f t="shared" si="1"/>
-        <v>-9.36236822444748</v>
-      </c>
-      <c r="E8" s="3">
+        <v>-9.34319526886993</v>
+      </c>
+      <c r="E8" s="5">
         <v>-0.194466</v>
       </c>
-      <c r="F8" s="4">
-        <f>B8*1000/6.022140857E+23*6242000000000000000/32</f>
-        <v>0.0022125255525241</v>
+      <c r="F8" s="1">
+        <v>0.0213854811300705</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.0207971474890624</v>
       </c>
       <c r="H8">
         <f>B10*2</f>
@@ -4662,22 +4880,24 @@
       <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="2">
         <v>6.76438574270861</v>
       </c>
       <c r="C9">
         <v>-9.36471925</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="5">
         <f t="shared" si="1"/>
-        <v>-9.36252820527808</v>
-      </c>
-      <c r="E9" s="3">
+        <v>-9.34329465155856</v>
+      </c>
+      <c r="E9" s="5">
         <v>0.083872</v>
       </c>
-      <c r="F9" s="4">
-        <f>B9*1000/6.022140857E+23*6242000000000000000/32</f>
-        <v>0.00219104472191707</v>
+      <c r="F9" s="1">
+        <v>0.0214245984414376</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.0208237304654679</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -4704,16 +4924,18 @@
       <c r="C10">
         <v>-9.364684</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="5">
         <f t="shared" si="1"/>
-        <v>-9.36251443610869</v>
-      </c>
-      <c r="E10" s="3">
+        <v>-9.34324236527863</v>
+      </c>
+      <c r="E10" s="5">
         <v>0.40474</v>
       </c>
-      <c r="F10" s="4">
-        <f>B10*1000/6.022140857E+23*6242000000000000000/32</f>
-        <v>0.00216956389131004</v>
+      <c r="F10" s="1">
+        <v>0.0214416347213709</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.0208437353704383</v>
       </c>
       <c r="J10">
         <v>0.99</v>
@@ -4727,21 +4949,24 @@
       <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="2">
         <v>6.6317507281457</v>
       </c>
       <c r="C11">
         <v>-9.36446125</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="5">
         <f t="shared" si="1"/>
-        <v>-9.36446125</v>
-      </c>
-      <c r="E11" s="3">
+        <v>-9.34298510923149</v>
+      </c>
+      <c r="E11" s="5">
         <v>0.766066</v>
       </c>
-      <c r="F11" s="4">
-        <v>0</v>
+      <c r="F11" s="1">
+        <v>0.0214761407685137</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.0230033702441303</v>
       </c>
       <c r="J11">
         <v>0.98</v>
@@ -4755,21 +4980,24 @@
       <c r="A12" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="2">
         <v>6.56543322086424</v>
       </c>
       <c r="C12">
         <v>-9.36401425</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="5">
         <f t="shared" si="1"/>
-        <v>-9.36401425</v>
-      </c>
-      <c r="E12" s="3">
+        <v>-9.3425189263749</v>
+      </c>
+      <c r="E12" s="5">
         <v>1.209655</v>
       </c>
-      <c r="F12" s="4">
-        <v>0</v>
+      <c r="F12" s="1">
+        <v>0.0214953236250955</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.0230033702441303</v>
       </c>
       <c r="J12">
         <v>0.97</v>
@@ -4783,21 +5011,24 @@
       <c r="A13" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="2">
         <v>6.49911571358279</v>
       </c>
       <c r="C13">
         <v>-9.363318</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="5">
         <f t="shared" si="1"/>
-        <v>-9.363318</v>
-      </c>
-      <c r="E13" s="3">
+        <v>-9.34181344827522</v>
+      </c>
+      <c r="E13" s="5">
         <v>1.650845</v>
       </c>
-      <c r="F13" s="4">
-        <v>0</v>
+      <c r="F13" s="1">
+        <v>0.0215045517247771</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0.0208632790939217</v>
       </c>
       <c r="J13">
         <v>0.96</v>
@@ -4811,20 +5042,23 @@
       <c r="A14" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="2">
         <v>6.43279820630133</v>
       </c>
       <c r="C14">
         <v>-9.36232725</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="5">
         <f t="shared" si="1"/>
         <v>-9.36232725</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="5">
         <v>2.184954</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14">
@@ -4846,20 +5080,23 @@
       <c r="A15" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="2">
         <v>6.36648069901987</v>
       </c>
       <c r="C15">
         <v>-9.3610255</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="5">
         <f t="shared" si="1"/>
         <v>-9.3610255</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="5">
         <v>2.81936</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1">
         <v>0</v>
       </c>
       <c r="H15">
@@ -4881,20 +5118,23 @@
       <c r="A16" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="2">
         <v>6.30016319173841</v>
       </c>
       <c r="C16">
         <v>-9.359363</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="5">
         <f t="shared" si="1"/>
         <v>-9.359363</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="5">
         <v>3.470399</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1">
         <v>0</v>
       </c>
       <c r="H16">
@@ -4922,16 +5162,18 @@
       <c r="C17">
         <v>-9.3572985</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="5">
         <f t="shared" si="1"/>
-        <v>-9.35527930192294</v>
-      </c>
-      <c r="E17" s="3">
+        <v>-9.33572266567675</v>
+      </c>
+      <c r="E17" s="5">
         <v>8.313759</v>
       </c>
-      <c r="F17" s="4">
-        <f>B17*1000/6.022140857E+23*6242000000000000000/32</f>
-        <v>0.00201919807706083</v>
+      <c r="F17" s="1">
+        <v>0.0215758343232551</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0.0209624503779583</v>
       </c>
       <c r="H17">
         <v>0.8</v>
@@ -4955,16 +5197,18 @@
       <c r="C18">
         <v>-9.35477725</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="5">
         <f t="shared" si="1"/>
-        <v>-9.35277953275355</v>
-      </c>
-      <c r="E18" s="3">
+        <v>-9.33318746929334</v>
+      </c>
+      <c r="E18" s="5">
         <v>16.364584</v>
       </c>
-      <c r="F18" s="4">
-        <f>B18*1000/6.022140857E+23*6242000000000000000/32</f>
-        <v>0.0019977172464538</v>
+      <c r="F18" s="1">
+        <v>0.0215897807066604</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0.0209664669130575</v>
       </c>
       <c r="H18">
         <v>0.75</v>
@@ -4985,22 +5229,23 @@
       <c r="A19" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="2">
         <v>5.96857565533113</v>
       </c>
       <c r="C19">
         <v>-9.3439195</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="5">
         <f t="shared" si="1"/>
         <v>-9.3439195</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="5">
         <v>29.162834</v>
       </c>
-      <c r="F19" s="4">
-        <v>0</v>
-      </c>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1"/>
       <c r="H19">
         <v>0.7</v>
       </c>
@@ -5020,22 +5265,23 @@
       <c r="A20" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="2">
         <v>5.63698811892385</v>
       </c>
       <c r="C20">
         <v>-9.31057675</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="5">
         <f t="shared" si="1"/>
         <v>-9.31057675</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="5">
         <v>49.590418</v>
       </c>
-      <c r="F20" s="4">
-        <v>0</v>
-      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1"/>
       <c r="H20">
         <v>0.65</v>
       </c>
@@ -5055,22 +5301,23 @@
       <c r="A21" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="2">
         <v>5.30540058251656</v>
       </c>
       <c r="C21">
         <v>-9.2470915</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="5">
         <f t="shared" si="1"/>
         <v>-9.2470915</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="5">
         <v>81.795232</v>
       </c>
-      <c r="F21" s="4">
-        <v>0</v>
-      </c>
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1"/>
       <c r="H21">
         <v>0.6</v>
       </c>
@@ -5090,22 +5337,23 @@
       <c r="A22" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="2">
         <v>4.97381304610928</v>
       </c>
       <c r="C22">
         <v>-9.13348925</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="5">
         <f t="shared" si="1"/>
         <v>-9.13348925</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="5">
         <v>126.264436</v>
       </c>
-      <c r="F22" s="4">
-        <v>0</v>
-      </c>
+      <c r="F22" s="1">
+        <v>0</v>
+      </c>
+      <c r="G22" s="1"/>
       <c r="H22">
         <v>0.55</v>
       </c>
@@ -5125,22 +5373,23 @@
       <c r="A23" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="2">
         <v>4.64222550970199</v>
       </c>
       <c r="C23">
         <v>-8.9380785</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="5">
         <f t="shared" si="1"/>
         <v>-8.9380785</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="5">
         <v>184.537527</v>
       </c>
-      <c r="F23" s="4">
-        <v>0</v>
-      </c>
+      <c r="F23" s="1">
+        <v>0</v>
+      </c>
+      <c r="G23" s="1"/>
       <c r="H23">
         <v>0.5</v>
       </c>
@@ -5160,22 +5409,23 @@
       <c r="A24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="2">
         <v>4.31063797329471</v>
       </c>
       <c r="C24">
         <v>-8.63161825</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="5">
         <f t="shared" si="1"/>
         <v>-8.63161825</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="5">
         <v>278.177108</v>
       </c>
-      <c r="F24" s="4">
-        <v>0</v>
-      </c>
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1"/>
       <c r="H24">
         <v>0.45</v>
       </c>
@@ -5195,22 +5445,23 @@
       <c r="A25" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="2">
         <v>3.97905043688742</v>
       </c>
       <c r="C25">
         <v>-8.18573275</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="5">
         <f t="shared" si="1"/>
         <v>-8.18573275</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25" s="5">
         <v>410.94174</v>
       </c>
-      <c r="F25" s="4">
-        <v>0</v>
-      </c>
+      <c r="F25" s="1">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1"/>
       <c r="H25">
         <v>0.399999999999999</v>
       </c>
@@ -5226,53 +5477,55 @@
         <v>2.65270029125829</v>
       </c>
     </row>
-    <row r="26" customFormat="1" spans="1:6">
+    <row r="26" customFormat="1" spans="1:7">
       <c r="A26" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="2">
         <v>3.64746290048014</v>
       </c>
       <c r="C26">
         <v>-7.534209</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="5">
         <f t="shared" si="1"/>
         <v>-7.534209</v>
       </c>
       <c r="E26">
         <v>515.291824</v>
       </c>
-      <c r="F26" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" customFormat="1" spans="1:6">
+      <c r="F26" s="1">
+        <v>0</v>
+      </c>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" customFormat="1" spans="1:7">
       <c r="A27" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27" s="2">
         <v>3.31587536407285</v>
       </c>
       <c r="C27">
         <v>-6.56529875</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="5">
         <f t="shared" si="1"/>
         <v>-6.56529875</v>
       </c>
       <c r="E27">
         <v>765.428943</v>
       </c>
-      <c r="F27" s="4">
-        <v>0</v>
-      </c>
+      <c r="F27" s="1">
+        <v>0</v>
+      </c>
+      <c r="G27" s="1"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28" s="2">
         <v>2.98428782766557</v>
       </c>
       <c r="C28">
@@ -5284,7 +5537,7 @@
       <c r="E28">
         <v>0</v>
       </c>
-      <c r="F28" s="1">
+      <c r="F28" s="2">
         <v>0</v>
       </c>
     </row>
@@ -5292,7 +5545,7 @@
       <c r="A29" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29" s="2">
         <v>2.65270029125828</v>
       </c>
       <c r="C29">
@@ -5304,12 +5557,12 @@
       <c r="E29">
         <v>0</v>
       </c>
-      <c r="F29" s="1">
+      <c r="F29" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="2:3">
-      <c r="B35" s="2">
+      <c r="B35" s="3">
         <v>-37.453385</v>
       </c>
       <c r="C35">
@@ -5318,7 +5571,7 @@
       </c>
     </row>
     <row r="36" spans="2:3">
-      <c r="B36" s="2">
+      <c r="B36" s="3">
         <v>-37.450887</v>
       </c>
       <c r="C36">
@@ -5356,28 +5609,28 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B1">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1" s="2">
+        <v>35</v>
+      </c>
+      <c r="D1" s="3">
         <v>-37.198963</v>
       </c>
       <c r="E1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F1" s="2">
+        <v>36</v>
+      </c>
+      <c r="F1" s="3">
         <v>-37.198963</v>
       </c>
       <c r="G1" t="s">
         <v>7</v>
       </c>
       <c r="H1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I1">
         <f t="shared" ref="I1:I9" si="0">F1/4</f>
@@ -5386,28 +5639,28 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="2">
+        <v>35</v>
+      </c>
+      <c r="D2" s="3">
         <v>-37.213084</v>
       </c>
       <c r="E2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F2" s="2">
+        <v>36</v>
+      </c>
+      <c r="F2" s="3">
         <v>-37.213084</v>
       </c>
       <c r="G2" t="s">
         <v>7</v>
       </c>
       <c r="H2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I2">
         <f t="shared" si="0"/>
@@ -5416,28 +5669,28 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="2">
+        <v>35</v>
+      </c>
+      <c r="D3" s="3">
         <v>-37.221192</v>
       </c>
       <c r="E3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" s="2">
+        <v>36</v>
+      </c>
+      <c r="F3" s="3">
         <v>-37.221192</v>
       </c>
       <c r="G3" t="s">
         <v>7</v>
       </c>
       <c r="H3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I3">
         <f t="shared" si="0"/>
@@ -5446,28 +5699,28 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="2">
+        <v>35</v>
+      </c>
+      <c r="D4" s="3">
         <v>-37.221673</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" s="2">
+        <v>36</v>
+      </c>
+      <c r="F4" s="3">
         <v>-37.221673</v>
       </c>
       <c r="G4" t="s">
         <v>7</v>
       </c>
       <c r="H4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I4">
         <f t="shared" si="0"/>
@@ -5476,28 +5729,28 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="2">
+        <v>35</v>
+      </c>
+      <c r="D5" s="3">
         <v>-37.221664</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" s="2">
+        <v>36</v>
+      </c>
+      <c r="F5" s="3">
         <v>-37.221664</v>
       </c>
       <c r="G5" t="s">
         <v>7</v>
       </c>
       <c r="H5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I5">
         <f t="shared" si="0"/>
@@ -5506,28 +5759,28 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="2">
+        <v>35</v>
+      </c>
+      <c r="D6" s="3">
         <v>-37.221032</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" s="2">
+        <v>36</v>
+      </c>
+      <c r="F6" s="3">
         <v>-37.221032</v>
       </c>
       <c r="G6" t="s">
         <v>7</v>
       </c>
       <c r="H6" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I6">
         <f t="shared" si="0"/>
@@ -5536,28 +5789,28 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="2">
+        <v>35</v>
+      </c>
+      <c r="D7" s="3">
         <v>-37.219775</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="2">
+        <v>36</v>
+      </c>
+      <c r="F7" s="3">
         <v>-37.219775</v>
       </c>
       <c r="G7" t="s">
         <v>7</v>
       </c>
       <c r="H7" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I7">
         <f t="shared" si="0"/>
@@ -5566,28 +5819,28 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="2">
+        <v>35</v>
+      </c>
+      <c r="D8" s="3">
         <v>-37.217743</v>
       </c>
       <c r="E8" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" s="2">
+        <v>36</v>
+      </c>
+      <c r="F8" s="3">
         <v>-37.217743</v>
       </c>
       <c r="G8" t="s">
         <v>7</v>
       </c>
       <c r="H8" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I8">
         <f t="shared" si="0"/>
@@ -5596,28 +5849,28 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="2">
+        <v>35</v>
+      </c>
+      <c r="D9" s="3">
         <v>-37.214844</v>
       </c>
       <c r="E9" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" s="2">
+        <v>36</v>
+      </c>
+      <c r="F9" s="3">
         <v>-37.214844</v>
       </c>
       <c r="G9" t="s">
         <v>7</v>
       </c>
       <c r="H9" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I9">
         <f t="shared" si="0"/>
@@ -5626,28 +5879,28 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="2">
+        <v>35</v>
+      </c>
+      <c r="D10" s="3">
         <v>-37.210978</v>
       </c>
       <c r="E10" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10" s="2">
+        <v>36</v>
+      </c>
+      <c r="F10" s="3">
         <v>-37.210978</v>
       </c>
       <c r="G10" t="s">
         <v>7</v>
       </c>
       <c r="H10" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I10">
         <f t="shared" ref="I10:I24" si="1">F10/4</f>
@@ -5656,28 +5909,28 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="2">
+        <v>35</v>
+      </c>
+      <c r="D11" s="3">
         <v>-37.205987</v>
       </c>
       <c r="E11" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11" s="2">
+        <v>36</v>
+      </c>
+      <c r="F11" s="3">
         <v>-37.205987</v>
       </c>
       <c r="G11" t="s">
         <v>7</v>
       </c>
       <c r="H11" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I11">
         <f t="shared" si="1"/>
@@ -5686,28 +5939,28 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="2">
+        <v>35</v>
+      </c>
+      <c r="D12" s="3">
         <v>-37.199727</v>
       </c>
       <c r="E12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" s="2">
+        <v>36</v>
+      </c>
+      <c r="F12" s="3">
         <v>-37.199727</v>
       </c>
       <c r="G12" t="s">
         <v>7</v>
       </c>
       <c r="H12" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I12">
         <f t="shared" si="1"/>
@@ -5716,28 +5969,28 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="2">
+        <v>35</v>
+      </c>
+      <c r="D13" s="3">
         <v>-37.192026</v>
       </c>
       <c r="E13" t="s">
-        <v>33</v>
-      </c>
-      <c r="F13" s="2">
+        <v>36</v>
+      </c>
+      <c r="F13" s="3">
         <v>-37.192026</v>
       </c>
       <c r="G13" t="s">
         <v>7</v>
       </c>
       <c r="H13" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I13">
         <f t="shared" si="1"/>
@@ -5746,28 +5999,28 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="2">
+        <v>35</v>
+      </c>
+      <c r="D14" s="3">
         <v>-37.125248</v>
       </c>
       <c r="E14" t="s">
-        <v>33</v>
-      </c>
-      <c r="F14" s="2">
+        <v>36</v>
+      </c>
+      <c r="F14" s="3">
         <v>-37.125248</v>
       </c>
       <c r="G14" t="s">
         <v>7</v>
       </c>
       <c r="H14" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I14">
         <f t="shared" si="1"/>
@@ -5776,28 +6029,28 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="2">
+        <v>35</v>
+      </c>
+      <c r="D15" s="3">
         <v>-36.987991</v>
       </c>
       <c r="E15" t="s">
-        <v>33</v>
-      </c>
-      <c r="F15" s="2">
+        <v>36</v>
+      </c>
+      <c r="F15" s="3">
         <v>-36.987991</v>
       </c>
       <c r="G15" t="s">
         <v>7</v>
       </c>
       <c r="H15" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I15">
         <f t="shared" si="1"/>
@@ -5806,28 +6059,28 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="2">
+        <v>35</v>
+      </c>
+      <c r="D16" s="3">
         <v>-36.737023</v>
       </c>
       <c r="E16" t="s">
-        <v>33</v>
-      </c>
-      <c r="F16" s="2">
+        <v>36</v>
+      </c>
+      <c r="F16" s="3">
         <v>-36.737023</v>
       </c>
       <c r="G16" t="s">
         <v>7</v>
       </c>
       <c r="H16" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I16">
         <f t="shared" si="1"/>
@@ -5836,28 +6089,28 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" s="2">
+        <v>35</v>
+      </c>
+      <c r="D17" s="3">
         <v>-36.306229</v>
       </c>
       <c r="E17" t="s">
-        <v>33</v>
-      </c>
-      <c r="F17" s="2">
+        <v>36</v>
+      </c>
+      <c r="F17" s="3">
         <v>-36.306229</v>
       </c>
       <c r="G17" t="s">
         <v>7</v>
       </c>
       <c r="H17" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I17">
         <f t="shared" si="1"/>
@@ -5866,28 +6119,28 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>32</v>
-      </c>
-      <c r="D18" s="2">
+        <v>35</v>
+      </c>
+      <c r="D18" s="3">
         <v>-35.587047</v>
       </c>
       <c r="E18" t="s">
-        <v>33</v>
-      </c>
-      <c r="F18" s="2">
+        <v>36</v>
+      </c>
+      <c r="F18" s="3">
         <v>-35.587047</v>
       </c>
       <c r="G18" t="s">
         <v>7</v>
       </c>
       <c r="H18" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I18">
         <f t="shared" si="1"/>
@@ -5896,28 +6149,28 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" s="2">
+        <v>35</v>
+      </c>
+      <c r="D19" s="3">
         <v>-34.443888</v>
       </c>
       <c r="E19" t="s">
-        <v>33</v>
-      </c>
-      <c r="F19" s="2">
+        <v>36</v>
+      </c>
+      <c r="F19" s="3">
         <v>-34.443888</v>
       </c>
       <c r="G19" t="s">
         <v>7</v>
       </c>
       <c r="H19" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I19">
         <f t="shared" si="1"/>
@@ -5926,28 +6179,28 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>32</v>
-      </c>
-      <c r="D20" s="2">
+        <v>35</v>
+      </c>
+      <c r="D20" s="3">
         <v>-32.739216</v>
       </c>
       <c r="E20" t="s">
-        <v>33</v>
-      </c>
-      <c r="F20" s="2">
+        <v>36</v>
+      </c>
+      <c r="F20" s="3">
         <v>-32.739216</v>
       </c>
       <c r="G20" t="s">
         <v>7</v>
       </c>
       <c r="H20" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I20">
         <f t="shared" si="1"/>
@@ -5956,28 +6209,28 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>32</v>
-      </c>
-      <c r="D21" s="2">
+        <v>35</v>
+      </c>
+      <c r="D21" s="3">
         <v>-30.244928</v>
       </c>
       <c r="E21" t="s">
-        <v>33</v>
-      </c>
-      <c r="F21" s="2">
+        <v>36</v>
+      </c>
+      <c r="F21" s="3">
         <v>-30.244928</v>
       </c>
       <c r="G21" t="s">
         <v>7</v>
       </c>
       <c r="H21" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I21">
         <f t="shared" si="1"/>
@@ -5986,28 +6239,28 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>32</v>
-      </c>
-      <c r="D22" s="2">
+        <v>35</v>
+      </c>
+      <c r="D22" s="3">
         <v>-26.487302</v>
       </c>
       <c r="E22" t="s">
-        <v>33</v>
-      </c>
-      <c r="F22" s="2">
+        <v>36</v>
+      </c>
+      <c r="F22" s="3">
         <v>-26.487302</v>
       </c>
       <c r="G22" t="s">
         <v>7</v>
       </c>
       <c r="H22" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I22">
         <f t="shared" si="1"/>
@@ -6016,28 +6269,28 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>32</v>
-      </c>
-      <c r="D23" s="2">
+        <v>35</v>
+      </c>
+      <c r="D23" s="3">
         <v>-21.520284</v>
       </c>
       <c r="E23" t="s">
-        <v>33</v>
-      </c>
-      <c r="F23" s="2">
+        <v>36</v>
+      </c>
+      <c r="F23" s="3">
         <v>-21.520284</v>
       </c>
       <c r="G23" t="s">
         <v>7</v>
       </c>
       <c r="H23" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I23">
         <f t="shared" si="1"/>
@@ -6046,28 +6299,28 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B24">
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>32</v>
-      </c>
-      <c r="D24" s="2">
+        <v>35</v>
+      </c>
+      <c r="D24" s="3">
         <v>-14.619444</v>
       </c>
       <c r="E24" t="s">
-        <v>33</v>
-      </c>
-      <c r="F24" s="2">
+        <v>36</v>
+      </c>
+      <c r="F24" s="3">
         <v>-14.619444</v>
       </c>
       <c r="G24" t="s">
         <v>7</v>
       </c>
       <c r="H24" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I24">
         <f t="shared" si="1"/>
@@ -6104,28 +6357,28 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B1">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1" s="2">
+        <v>35</v>
+      </c>
+      <c r="D1" s="3">
         <v>-37.422843</v>
       </c>
       <c r="E1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F1" s="2">
+        <v>36</v>
+      </c>
+      <c r="F1" s="3">
         <v>-37.422843</v>
       </c>
       <c r="G1" t="s">
         <v>7</v>
       </c>
       <c r="H1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I1">
         <f>D1/4</f>
@@ -6138,28 +6391,28 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="2">
+        <v>35</v>
+      </c>
+      <c r="D2" s="3">
         <v>-37.441657</v>
       </c>
       <c r="E2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F2" s="2">
+        <v>36</v>
+      </c>
+      <c r="F2" s="3">
         <v>-37.441657</v>
       </c>
       <c r="G2" t="s">
         <v>7</v>
       </c>
       <c r="H2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I2">
         <f>-37.4417</f>
@@ -6172,28 +6425,28 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="2">
+        <v>35</v>
+      </c>
+      <c r="D3" s="3">
         <v>-37.455515</v>
       </c>
       <c r="E3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" s="2">
+        <v>36</v>
+      </c>
+      <c r="F3" s="3">
         <v>-37.455515</v>
       </c>
       <c r="G3" t="s">
         <v>7</v>
       </c>
       <c r="H3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I3">
         <f>-37.4555</f>
@@ -6206,28 +6459,28 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="2">
+        <v>35</v>
+      </c>
+      <c r="D4" s="3">
         <v>-37.457164</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" s="2">
+        <v>36</v>
+      </c>
+      <c r="F4" s="3">
         <v>-37.457164</v>
       </c>
       <c r="G4" t="s">
         <v>7</v>
       </c>
       <c r="H4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I4">
         <f>-37.4572</f>
@@ -6240,28 +6493,28 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="2">
+        <v>35</v>
+      </c>
+      <c r="D5" s="3">
         <v>-37.458323</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" s="2">
+        <v>36</v>
+      </c>
+      <c r="F5" s="3">
         <v>-37.458323</v>
       </c>
       <c r="G5" t="s">
         <v>7</v>
       </c>
       <c r="H5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I5">
         <f>-37.4583</f>
@@ -6274,28 +6527,28 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="2">
+        <v>35</v>
+      </c>
+      <c r="D6" s="3">
         <v>-37.458877</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" s="2">
+        <v>36</v>
+      </c>
+      <c r="F6" s="3">
         <v>-37.458877</v>
       </c>
       <c r="G6" t="s">
         <v>7</v>
       </c>
       <c r="H6" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I6">
         <f>-37.4589</f>
@@ -6308,28 +6561,28 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="2">
+        <v>35</v>
+      </c>
+      <c r="D7" s="3">
         <v>-37.458736</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="2">
+        <v>36</v>
+      </c>
+      <c r="F7" s="3">
         <v>-37.458736</v>
       </c>
       <c r="G7" t="s">
         <v>7</v>
       </c>
       <c r="H7" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I7">
         <f>-37.4587</f>
@@ -6342,28 +6595,28 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="2">
+        <v>35</v>
+      </c>
+      <c r="D8" s="3">
         <v>-37.457845</v>
       </c>
       <c r="E8" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" s="2">
+        <v>36</v>
+      </c>
+      <c r="F8" s="3">
         <v>-37.457845</v>
       </c>
       <c r="G8" t="s">
         <v>7</v>
       </c>
       <c r="H8" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I8">
         <f>-37.4578</f>
@@ -6376,28 +6629,28 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="2">
+        <v>35</v>
+      </c>
+      <c r="D9" s="3">
         <v>-37.456057</v>
       </c>
       <c r="E9" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" s="2">
+        <v>36</v>
+      </c>
+      <c r="F9" s="3">
         <v>-37.456057</v>
       </c>
       <c r="G9" t="s">
         <v>7</v>
       </c>
       <c r="H9" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I9">
         <f>-37.4561</f>
@@ -6410,28 +6663,28 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="2">
+        <v>35</v>
+      </c>
+      <c r="D10" s="3">
         <v>-37.453272</v>
       </c>
       <c r="E10" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10" s="2">
+        <v>36</v>
+      </c>
+      <c r="F10" s="3">
         <v>-37.453272</v>
       </c>
       <c r="G10" t="s">
         <v>7</v>
       </c>
       <c r="H10" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I10">
         <f>-37.4533</f>
@@ -6444,28 +6697,28 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="2">
+        <v>35</v>
+      </c>
+      <c r="D11" s="3">
         <v>-37.449309</v>
       </c>
       <c r="E11" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11" s="2">
+        <v>36</v>
+      </c>
+      <c r="F11" s="3">
         <v>-37.449309</v>
       </c>
       <c r="G11" t="s">
         <v>7</v>
       </c>
       <c r="H11" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I11">
         <f>-37.4493</f>
@@ -6478,28 +6731,28 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="2">
+        <v>35</v>
+      </c>
+      <c r="D12" s="3">
         <v>-37.444102</v>
       </c>
       <c r="E12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" s="2">
+        <v>36</v>
+      </c>
+      <c r="F12" s="3">
         <v>-37.444102</v>
       </c>
       <c r="G12" t="s">
         <v>7</v>
       </c>
       <c r="H12" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I12">
         <f>-37.4441</f>
@@ -6512,28 +6765,28 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="2">
+        <v>35</v>
+      </c>
+      <c r="D13" s="3">
         <v>-37.437452</v>
       </c>
       <c r="E13" t="s">
-        <v>33</v>
-      </c>
-      <c r="F13" s="2">
+        <v>36</v>
+      </c>
+      <c r="F13" s="3">
         <v>-37.437452</v>
       </c>
       <c r="G13" t="s">
         <v>7</v>
       </c>
       <c r="H13" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I13">
         <f>-37.4375</f>
@@ -6546,28 +6799,28 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="2">
+        <v>35</v>
+      </c>
+      <c r="D14" s="3">
         <v>-37.375678</v>
       </c>
       <c r="E14" t="s">
-        <v>33</v>
-      </c>
-      <c r="F14" s="2">
+        <v>36</v>
+      </c>
+      <c r="F14" s="3">
         <v>-37.375678</v>
       </c>
       <c r="G14" t="s">
         <v>7</v>
       </c>
       <c r="H14" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I14">
         <f>-37.3757</f>
@@ -6580,28 +6833,28 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="2">
+        <v>35</v>
+      </c>
+      <c r="D15" s="3">
         <v>-37.242307</v>
       </c>
       <c r="E15" t="s">
-        <v>33</v>
-      </c>
-      <c r="F15" s="2">
+        <v>36</v>
+      </c>
+      <c r="F15" s="3">
         <v>-37.242307</v>
       </c>
       <c r="G15" t="s">
         <v>7</v>
       </c>
       <c r="H15" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I15">
         <f>-37.2423</f>
@@ -6614,28 +6867,28 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="2">
+        <v>35</v>
+      </c>
+      <c r="D16" s="3">
         <v>-36.988366</v>
       </c>
       <c r="E16" t="s">
-        <v>33</v>
-      </c>
-      <c r="F16" s="2">
+        <v>36</v>
+      </c>
+      <c r="F16" s="3">
         <v>-36.988366</v>
       </c>
       <c r="G16" t="s">
         <v>7</v>
       </c>
       <c r="H16" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I16">
         <f>-36.9884</f>
@@ -6648,28 +6901,28 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" s="2">
+        <v>35</v>
+      </c>
+      <c r="D17" s="3">
         <v>-36.533957</v>
       </c>
       <c r="E17" t="s">
-        <v>33</v>
-      </c>
-      <c r="F17" s="2">
+        <v>36</v>
+      </c>
+      <c r="F17" s="3">
         <v>-36.533957</v>
       </c>
       <c r="G17" t="s">
         <v>7</v>
       </c>
       <c r="H17" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I17">
         <f>-36.534</f>
@@ -6682,28 +6935,28 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>32</v>
-      </c>
-      <c r="D18" s="2">
+        <v>35</v>
+      </c>
+      <c r="D18" s="3">
         <v>-35.752314</v>
       </c>
       <c r="E18" t="s">
-        <v>33</v>
-      </c>
-      <c r="F18" s="2">
+        <v>36</v>
+      </c>
+      <c r="F18" s="3">
         <v>-35.752314</v>
       </c>
       <c r="G18" t="s">
         <v>7</v>
       </c>
       <c r="H18" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I18">
         <f>-35.7523</f>
@@ -6716,28 +6969,28 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" s="2">
+        <v>35</v>
+      </c>
+      <c r="D19" s="3">
         <v>-34.526473</v>
       </c>
       <c r="E19" t="s">
-        <v>33</v>
-      </c>
-      <c r="F19" s="2">
+        <v>36</v>
+      </c>
+      <c r="F19" s="3">
         <v>-34.526473</v>
       </c>
       <c r="G19" t="s">
         <v>7</v>
       </c>
       <c r="H19" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I19">
         <f>-34.5265</f>
@@ -6750,28 +7003,28 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B20">
         <v>3</v>
       </c>
       <c r="C20" t="s">
-        <v>32</v>
-      </c>
-      <c r="D20" s="2">
+        <v>35</v>
+      </c>
+      <c r="D20" s="3">
         <v>-32.742931</v>
       </c>
       <c r="E20" t="s">
-        <v>33</v>
-      </c>
-      <c r="F20" s="2">
+        <v>36</v>
+      </c>
+      <c r="F20" s="3">
         <v>-32.742931</v>
       </c>
       <c r="G20" t="s">
         <v>7</v>
       </c>
       <c r="H20" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I20">
         <f>-0.0000126502</f>
@@ -6784,28 +7037,28 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B21">
         <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>32</v>
-      </c>
-      <c r="D21" s="2">
+        <v>35</v>
+      </c>
+      <c r="D21" s="3">
         <v>-30.136836</v>
       </c>
       <c r="E21" t="s">
-        <v>33</v>
-      </c>
-      <c r="F21" s="2">
+        <v>36</v>
+      </c>
+      <c r="F21" s="3">
         <v>-30.136836</v>
       </c>
       <c r="G21" t="s">
         <v>7</v>
       </c>
       <c r="H21" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I21">
         <f>-0.0000235889</f>
@@ -6818,28 +7071,28 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>32</v>
-      </c>
-      <c r="D22" s="2">
+        <v>35</v>
+      </c>
+      <c r="D22" s="3">
         <v>-26.261195</v>
       </c>
       <c r="E22" t="s">
-        <v>33</v>
-      </c>
-      <c r="F22" s="2">
+        <v>36</v>
+      </c>
+      <c r="F22" s="3">
         <v>-26.261195</v>
       </c>
       <c r="G22" t="s">
         <v>7</v>
       </c>
       <c r="H22" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I22">
         <f>-26.2612</f>
@@ -6852,28 +7105,28 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B23">
         <v>3</v>
       </c>
       <c r="C23" t="s">
-        <v>32</v>
-      </c>
-      <c r="D23" s="2">
+        <v>35</v>
+      </c>
+      <c r="D23" s="3">
         <v>-21.232114</v>
       </c>
       <c r="E23" t="s">
-        <v>33</v>
-      </c>
-      <c r="F23" s="2">
+        <v>36</v>
+      </c>
+      <c r="F23" s="3">
         <v>-21.232114</v>
       </c>
       <c r="G23" t="s">
         <v>7</v>
       </c>
       <c r="H23" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I23">
         <f>-0.000143453</f>
@@ -6886,28 +7139,28 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B24">
         <v>3</v>
       </c>
       <c r="C24" t="s">
-        <v>32</v>
-      </c>
-      <c r="D24" s="2">
+        <v>35</v>
+      </c>
+      <c r="D24" s="3">
         <v>-14.143631</v>
       </c>
       <c r="E24" t="s">
-        <v>33</v>
-      </c>
-      <c r="F24" s="2">
+        <v>36</v>
+      </c>
+      <c r="F24" s="3">
         <v>-14.143631</v>
       </c>
       <c r="G24" t="s">
         <v>7</v>
       </c>
       <c r="H24" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I24">
         <f>-0.0000603664</f>
@@ -6930,7 +7183,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="6"/>
@@ -6945,7 +7198,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -6969,7 +7222,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -6993,7 +7246,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -7017,7 +7270,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -7041,7 +7294,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -7065,7 +7318,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -7089,7 +7342,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -7113,7 +7366,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -7137,7 +7390,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -7161,7 +7414,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -7185,7 +7438,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -7209,7 +7462,7 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -7233,7 +7486,7 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -7257,7 +7510,7 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -7281,7 +7534,7 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -7305,7 +7558,7 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -7329,7 +7582,7 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -7353,7 +7606,7 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -7377,7 +7630,7 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -7401,7 +7654,7 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -7425,7 +7678,7 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -7449,7 +7702,7 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -7473,7 +7726,7 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -7497,7 +7750,7 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -7555,28 +7808,28 @@
   <sheetData>
     <row r="1" spans="1:20">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B1">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1" s="2">
+        <v>35</v>
+      </c>
+      <c r="D1" s="3">
         <v>-37.198963</v>
       </c>
       <c r="E1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F1" s="2">
+        <v>36</v>
+      </c>
+      <c r="F1" s="3">
         <v>-37.198963</v>
       </c>
       <c r="G1" t="s">
         <v>7</v>
       </c>
       <c r="H1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I1">
         <f>-37.199</f>
@@ -7587,13 +7840,13 @@
         <v>-9.29974075</v>
       </c>
       <c r="K1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="L1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="M1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="N1">
         <v>-2.70814</v>
@@ -7620,28 +7873,28 @@
     </row>
     <row r="2" spans="1:20">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="2">
+        <v>35</v>
+      </c>
+      <c r="D2" s="3">
         <v>-37.213084</v>
       </c>
       <c r="E2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F2" s="2">
+        <v>36</v>
+      </c>
+      <c r="F2" s="3">
         <v>-37.213084</v>
       </c>
       <c r="G2" t="s">
         <v>7</v>
       </c>
       <c r="H2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I2">
         <f>-37.2131</f>
@@ -7652,13 +7905,13 @@
         <v>-9.303271</v>
       </c>
       <c r="K2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="L2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="M2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="N2">
         <v>-3.40202</v>
@@ -7685,41 +7938,41 @@
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="2">
+        <v>35</v>
+      </c>
+      <c r="D3" s="3">
         <v>-37.221192</v>
       </c>
       <c r="E3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" s="2">
+        <v>36</v>
+      </c>
+      <c r="F3" s="3">
         <v>-37.221192</v>
       </c>
       <c r="G3" t="s">
         <v>7</v>
       </c>
       <c r="H3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I3">
         <f>-37.2212</f>
         <v>-37.2212</v>
       </c>
       <c r="K3" t="s">
+        <v>89</v>
+      </c>
+      <c r="L3" t="s">
         <v>86</v>
       </c>
-      <c r="L3" t="s">
-        <v>83</v>
-      </c>
       <c r="M3" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="N3">
         <v>-4.50753</v>
@@ -7746,41 +7999,41 @@
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="2">
+        <v>35</v>
+      </c>
+      <c r="D4" s="3">
         <v>-37.221673</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" s="2">
+        <v>36</v>
+      </c>
+      <c r="F4" s="3">
         <v>-37.221673</v>
       </c>
       <c r="G4" t="s">
         <v>7</v>
       </c>
       <c r="H4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I4">
         <f>-37.2217</f>
         <v>-37.2217</v>
       </c>
       <c r="K4" t="s">
+        <v>90</v>
+      </c>
+      <c r="L4" t="s">
+        <v>86</v>
+      </c>
+      <c r="M4" t="s">
         <v>87</v>
-      </c>
-      <c r="L4" t="s">
-        <v>83</v>
-      </c>
-      <c r="M4" t="s">
-        <v>84</v>
       </c>
       <c r="N4">
         <v>-4.78273</v>
@@ -7807,41 +8060,41 @@
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="2">
+        <v>35</v>
+      </c>
+      <c r="D5" s="3">
         <v>-37.221664</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" s="2">
+        <v>36</v>
+      </c>
+      <c r="F5" s="3">
         <v>-37.221664</v>
       </c>
       <c r="G5" t="s">
         <v>7</v>
       </c>
       <c r="H5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I5">
         <f>-37.2217</f>
         <v>-37.2217</v>
       </c>
       <c r="K5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="L5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="M5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="N5">
         <v>-5.08591</v>
@@ -7868,41 +8121,41 @@
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="2">
+        <v>35</v>
+      </c>
+      <c r="D6" s="3">
         <v>-37.221032</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" s="2">
+        <v>36</v>
+      </c>
+      <c r="F6" s="3">
         <v>-37.221032</v>
       </c>
       <c r="G6" t="s">
         <v>7</v>
       </c>
       <c r="H6" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I6">
         <f>-37.221</f>
         <v>-37.221</v>
       </c>
       <c r="K6" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="L6" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="M6" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="N6">
         <v>-5.40348</v>
@@ -7929,41 +8182,41 @@
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="2">
+        <v>35</v>
+      </c>
+      <c r="D7" s="3">
         <v>-37.219775</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="2">
+        <v>36</v>
+      </c>
+      <c r="F7" s="3">
         <v>-37.219775</v>
       </c>
       <c r="G7" t="s">
         <v>7</v>
       </c>
       <c r="H7" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I7">
         <f>-37.2198</f>
         <v>-37.2198</v>
       </c>
       <c r="K7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="L7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="M7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="N7">
         <v>-5.75432</v>
@@ -7990,41 +8243,41 @@
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="2">
+        <v>35</v>
+      </c>
+      <c r="D8" s="3">
         <v>-37.217743</v>
       </c>
       <c r="E8" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" s="2">
+        <v>36</v>
+      </c>
+      <c r="F8" s="3">
         <v>-37.217743</v>
       </c>
       <c r="G8" t="s">
         <v>7</v>
       </c>
       <c r="H8" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I8">
         <f>-37.2177</f>
         <v>-37.2177</v>
       </c>
       <c r="K8" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="L8" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="M8" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="N8">
         <v>-6.11871</v>
@@ -8051,41 +8304,41 @@
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="2">
+        <v>35</v>
+      </c>
+      <c r="D9" s="3">
         <v>-37.214844</v>
       </c>
       <c r="E9" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" s="2">
+        <v>36</v>
+      </c>
+      <c r="F9" s="3">
         <v>-37.214844</v>
       </c>
       <c r="G9" t="s">
         <v>7</v>
       </c>
       <c r="H9" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I9">
         <f>-37.2148</f>
         <v>-37.2148</v>
       </c>
       <c r="K9" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="L9" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="M9" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="N9">
         <v>-6.54105</v>
@@ -8112,41 +8365,41 @@
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="2">
+        <v>35</v>
+      </c>
+      <c r="D10" s="3">
         <v>-37.210978</v>
       </c>
       <c r="E10" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10" s="2">
+        <v>36</v>
+      </c>
+      <c r="F10" s="3">
         <v>-37.210978</v>
       </c>
       <c r="G10" t="s">
         <v>7</v>
       </c>
       <c r="H10" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I10">
         <f>-37.211</f>
         <v>-37.211</v>
       </c>
       <c r="K10" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="L10" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="M10" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="N10">
         <v>-6.92346</v>
@@ -8173,41 +8426,41 @@
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="2">
+        <v>35</v>
+      </c>
+      <c r="D11" s="3">
         <v>-37.205987</v>
       </c>
       <c r="E11" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11" s="2">
+        <v>36</v>
+      </c>
+      <c r="F11" s="3">
         <v>-37.205987</v>
       </c>
       <c r="G11" t="s">
         <v>7</v>
       </c>
       <c r="H11" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I11">
         <f>-37.206</f>
         <v>-37.206</v>
       </c>
       <c r="K11" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="L11" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="M11" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="N11">
         <v>-7.3603</v>
@@ -8234,41 +8487,41 @@
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="2">
+        <v>35</v>
+      </c>
+      <c r="D12" s="3">
         <v>-37.199727</v>
       </c>
       <c r="E12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" s="2">
+        <v>36</v>
+      </c>
+      <c r="F12" s="3">
         <v>-37.199727</v>
       </c>
       <c r="G12" t="s">
         <v>7</v>
       </c>
       <c r="H12" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I12">
         <f>-37.1997</f>
         <v>-37.1997</v>
       </c>
       <c r="K12" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="L12" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="M12" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="N12">
         <v>-7.85094</v>
@@ -8295,41 +8548,41 @@
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="2">
+        <v>35</v>
+      </c>
+      <c r="D13" s="3">
         <v>-37.192026</v>
       </c>
       <c r="E13" t="s">
-        <v>33</v>
-      </c>
-      <c r="F13" s="2">
+        <v>36</v>
+      </c>
+      <c r="F13" s="3">
         <v>-37.192026</v>
       </c>
       <c r="G13" t="s">
         <v>7</v>
       </c>
       <c r="H13" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I13">
         <f>-37.192</f>
         <v>-37.192</v>
       </c>
       <c r="K13" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="L13" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="M13" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="N13">
         <v>-8.29527</v>
@@ -8356,41 +8609,41 @@
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="2">
+        <v>35</v>
+      </c>
+      <c r="D14" s="3">
         <v>-37.125248</v>
       </c>
       <c r="E14" t="s">
-        <v>33</v>
-      </c>
-      <c r="F14" s="2">
+        <v>36</v>
+      </c>
+      <c r="F14" s="3">
         <v>-37.125248</v>
       </c>
       <c r="G14" t="s">
         <v>7</v>
       </c>
       <c r="H14" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I14">
         <f>-37.1252</f>
         <v>-37.1252</v>
       </c>
       <c r="K14" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="L14" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="M14" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="N14">
         <v>-11.01718</v>
@@ -8417,41 +8670,41 @@
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="2">
+        <v>35</v>
+      </c>
+      <c r="D15" s="3">
         <v>-36.987991</v>
       </c>
       <c r="E15" t="s">
-        <v>33</v>
-      </c>
-      <c r="F15" s="2">
+        <v>36</v>
+      </c>
+      <c r="F15" s="3">
         <v>-36.987991</v>
       </c>
       <c r="G15" t="s">
         <v>7</v>
       </c>
       <c r="H15" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I15">
         <f>-36.988</f>
         <v>-36.988</v>
       </c>
       <c r="K15" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="L15" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="M15" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="N15">
         <v>-14.16293</v>
@@ -8478,41 +8731,41 @@
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="2">
+        <v>35</v>
+      </c>
+      <c r="D16" s="3">
         <v>-36.737023</v>
       </c>
       <c r="E16" t="s">
-        <v>33</v>
-      </c>
-      <c r="F16" s="2">
+        <v>36</v>
+      </c>
+      <c r="F16" s="3">
         <v>-36.737023</v>
       </c>
       <c r="G16" t="s">
         <v>7</v>
       </c>
       <c r="H16" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I16">
         <f>-36.737</f>
         <v>-36.737</v>
       </c>
       <c r="K16" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="L16" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="M16" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="N16">
         <v>-17.17197</v>
@@ -8539,41 +8792,41 @@
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" s="2">
+        <v>35</v>
+      </c>
+      <c r="D17" s="3">
         <v>-36.306229</v>
       </c>
       <c r="E17" t="s">
-        <v>33</v>
-      </c>
-      <c r="F17" s="2">
+        <v>36</v>
+      </c>
+      <c r="F17" s="3">
         <v>-36.306229</v>
       </c>
       <c r="G17" t="s">
         <v>7</v>
       </c>
       <c r="H17" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I17">
         <f>-36.3062</f>
         <v>-36.3062</v>
       </c>
       <c r="K17" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="L17" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="M17" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="N17">
         <v>-17.75908</v>
@@ -8600,41 +8853,41 @@
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>32</v>
-      </c>
-      <c r="D18" s="2">
+        <v>35</v>
+      </c>
+      <c r="D18" s="3">
         <v>-35.587047</v>
       </c>
       <c r="E18" t="s">
-        <v>33</v>
-      </c>
-      <c r="F18" s="2">
+        <v>36</v>
+      </c>
+      <c r="F18" s="3">
         <v>-35.587047</v>
       </c>
       <c r="G18" t="s">
         <v>7</v>
       </c>
       <c r="H18" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I18">
         <f>-35.587</f>
         <v>-35.587</v>
       </c>
       <c r="K18" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="L18" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="M18" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="N18">
         <v>-14.08485</v>
@@ -8661,41 +8914,41 @@
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" s="2">
+        <v>35</v>
+      </c>
+      <c r="D19" s="3">
         <v>-34.443888</v>
       </c>
       <c r="E19" t="s">
-        <v>33</v>
-      </c>
-      <c r="F19" s="2">
+        <v>36</v>
+      </c>
+      <c r="F19" s="3">
         <v>-34.443888</v>
       </c>
       <c r="G19" t="s">
         <v>7</v>
       </c>
       <c r="H19" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I19">
         <f>-34.4439</f>
         <v>-34.4439</v>
       </c>
       <c r="K19" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="L19" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="M19" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="N19">
         <v>-9.69094</v>
@@ -8722,41 +8975,41 @@
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>32</v>
-      </c>
-      <c r="D20" s="2">
+        <v>35</v>
+      </c>
+      <c r="D20" s="3">
         <v>-32.739216</v>
       </c>
       <c r="E20" t="s">
-        <v>33</v>
-      </c>
-      <c r="F20" s="2">
+        <v>36</v>
+      </c>
+      <c r="F20" s="3">
         <v>-32.739216</v>
       </c>
       <c r="G20" t="s">
         <v>7</v>
       </c>
       <c r="H20" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I20">
         <f>-32.7392</f>
         <v>-32.7392</v>
       </c>
       <c r="K20" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="L20" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="M20" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="N20">
         <v>62.64671</v>
@@ -8783,41 +9036,41 @@
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>32</v>
-      </c>
-      <c r="D21" s="2">
+        <v>35</v>
+      </c>
+      <c r="D21" s="3">
         <v>-30.244928</v>
       </c>
       <c r="E21" t="s">
-        <v>33</v>
-      </c>
-      <c r="F21" s="2">
+        <v>36</v>
+      </c>
+      <c r="F21" s="3">
         <v>-30.244928</v>
       </c>
       <c r="G21" t="s">
         <v>7</v>
       </c>
       <c r="H21" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I21">
         <f>-30.2449</f>
         <v>-30.2449</v>
       </c>
       <c r="K21" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="L21" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="M21" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="N21">
         <v>238.657</v>
@@ -8844,41 +9097,41 @@
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>32</v>
-      </c>
-      <c r="D22" s="2">
+        <v>35</v>
+      </c>
+      <c r="D22" s="3">
         <v>-26.487302</v>
       </c>
       <c r="E22" t="s">
-        <v>33</v>
-      </c>
-      <c r="F22" s="2">
+        <v>36</v>
+      </c>
+      <c r="F22" s="3">
         <v>-26.487302</v>
       </c>
       <c r="G22" t="s">
         <v>7</v>
       </c>
       <c r="H22" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I22">
         <f>-26.4873</f>
         <v>-26.4873</v>
       </c>
       <c r="K22" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="L22" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="M22" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="N22">
         <v>709.01882</v>
@@ -8905,41 +9158,41 @@
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>32</v>
-      </c>
-      <c r="D23" s="2">
+        <v>35</v>
+      </c>
+      <c r="D23" s="3">
         <v>-21.520284</v>
       </c>
       <c r="E23" t="s">
-        <v>33</v>
-      </c>
-      <c r="F23" s="2">
+        <v>36</v>
+      </c>
+      <c r="F23" s="3">
         <v>-21.520284</v>
       </c>
       <c r="G23" t="s">
         <v>7</v>
       </c>
       <c r="H23" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I23">
         <f>-21.5203</f>
         <v>-21.5203</v>
       </c>
       <c r="K23" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="L23" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="M23" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="N23">
         <v>1922.70321</v>
@@ -8966,41 +9219,41 @@
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B24">
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>32</v>
-      </c>
-      <c r="D24" s="2">
+        <v>35</v>
+      </c>
+      <c r="D24" s="3">
         <v>-14.619444</v>
       </c>
       <c r="E24" t="s">
-        <v>33</v>
-      </c>
-      <c r="F24" s="2">
+        <v>36</v>
+      </c>
+      <c r="F24" s="3">
         <v>-14.619444</v>
       </c>
       <c r="G24" t="s">
         <v>7</v>
       </c>
       <c r="H24" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I24">
         <f>-14.6194</f>
         <v>-14.6194</v>
       </c>
       <c r="K24" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="L24" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="M24" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="N24">
         <v>3453.20136</v>
@@ -9053,17 +9306,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="1">
+      <c r="A1" s="2">
         <v>7.734603659</v>
       </c>
       <c r="B1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E1">
         <v>-2.70814</v>
@@ -9085,17 +9338,17 @@
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="1">
+      <c r="A2" s="2">
         <v>7.398316544</v>
       </c>
       <c r="B2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E2">
         <v>-3.40202</v>
@@ -9117,17 +9370,17 @@
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="1">
+      <c r="A3" s="2">
         <v>7.06202942799999</v>
       </c>
       <c r="B3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" t="s">
         <v>86</v>
       </c>
-      <c r="C3" t="s">
-        <v>83</v>
-      </c>
       <c r="D3" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E3">
         <v>-4.50753</v>
@@ -9149,17 +9402,17 @@
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="1">
+      <c r="A4" s="2">
         <v>6.99477200493787</v>
       </c>
       <c r="B4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" t="s">
         <v>87</v>
-      </c>
-      <c r="C4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D4" t="s">
-        <v>84</v>
       </c>
       <c r="E4">
         <v>-4.78273</v>
@@ -9181,17 +9434,17 @@
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="1">
+      <c r="A5" s="2">
         <v>6.92751458181347</v>
       </c>
       <c r="B5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E5">
         <v>-5.08591</v>
@@ -9213,17 +9466,17 @@
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="1">
+      <c r="A6" s="2">
         <v>6.86025715868907</v>
       </c>
       <c r="B6" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C6" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D6" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E6">
         <v>-5.40348</v>
@@ -9249,13 +9502,13 @@
         <v>6.79299973556466</v>
       </c>
       <c r="B7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E7">
         <v>-5.75432</v>
@@ -9277,17 +9530,17 @@
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="1">
+      <c r="A8" s="2">
         <v>6.72574231244026</v>
       </c>
       <c r="B8" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C8" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D8" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E8">
         <v>-6.11871</v>
@@ -9309,17 +9562,17 @@
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="1">
+      <c r="A9" s="2">
         <v>6.65848488931586</v>
       </c>
       <c r="B9" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C9" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D9" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E9">
         <v>-6.54105</v>
@@ -9341,17 +9594,17 @@
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="1">
+      <c r="A10" s="2">
         <v>6.59122746619145</v>
       </c>
       <c r="B10" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C10" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D10" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E10">
         <v>-6.92346</v>
@@ -9373,17 +9626,17 @@
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="1">
+      <c r="A11" s="2">
         <v>6.52397004306705</v>
       </c>
       <c r="B11" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C11" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D11" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E11">
         <v>-7.3603</v>
@@ -9405,17 +9658,17 @@
       </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="1">
+      <c r="A12" s="2">
         <v>6.45671261994265</v>
       </c>
       <c r="B12" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C12" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D12" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E12">
         <v>-7.85094</v>
@@ -9437,17 +9690,17 @@
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="1">
+      <c r="A13" s="2">
         <v>6.389455197</v>
       </c>
       <c r="B13" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C13" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D13" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E13">
         <v>-8.29527</v>
@@ -9469,17 +9722,17 @@
       </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="1">
+      <c r="A14" s="2">
         <v>6.05316808099999</v>
       </c>
       <c r="B14" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C14" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D14" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E14">
         <v>-11.01718</v>
@@ -9501,17 +9754,17 @@
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="1">
+      <c r="A15" s="2">
         <v>5.71688096599999</v>
       </c>
       <c r="B15" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C15" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D15" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E15">
         <v>-14.16293</v>
@@ -9533,17 +9786,17 @@
       </c>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="1">
+      <c r="A16" s="2">
         <v>5.38059385</v>
       </c>
       <c r="B16" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C16" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D16" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E16">
         <v>-17.17197</v>
@@ -9565,17 +9818,17 @@
       </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="1">
+      <c r="A17" s="2">
         <v>5.044306734</v>
       </c>
       <c r="B17" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C17" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D17" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E17">
         <v>-17.75908</v>
@@ -9597,17 +9850,17 @@
       </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="1">
+      <c r="A18" s="2">
         <v>4.70801961899999</v>
       </c>
       <c r="B18" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C18" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D18" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E18">
         <v>-14.08485</v>
@@ -9629,17 +9882,17 @@
       </c>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="1">
+      <c r="A19" s="2">
         <v>4.37173250299999</v>
       </c>
       <c r="B19" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C19" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D19" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E19">
         <v>-9.69094</v>
@@ -9661,17 +9914,17 @@
       </c>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="1">
+      <c r="A20" s="2">
         <v>4.035445387</v>
       </c>
       <c r="B20" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C20" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D20" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E20">
         <v>62.64671</v>
@@ -9693,17 +9946,17 @@
       </c>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="1">
+      <c r="A21" s="2">
         <v>3.69915827100001</v>
       </c>
       <c r="B21" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C21" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D21" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E21">
         <v>238.657</v>
@@ -9725,17 +9978,17 @@
       </c>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="1">
+      <c r="A22" s="2">
         <v>3.36287115500002</v>
       </c>
       <c r="B22" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C22" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D22" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E22">
         <v>709.01882</v>
@@ -9757,17 +10010,17 @@
       </c>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="1">
+      <c r="A23" s="2">
         <v>3.02658403900003</v>
       </c>
       <c r="B23" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C23" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D23" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E23">
         <v>1922.70321</v>
@@ -9789,17 +10042,17 @@
       </c>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="1">
+      <c r="A24" s="2">
         <v>2.69029692300004</v>
       </c>
       <c r="B24" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C24" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D24" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E24">
         <v>3453.20136</v>
@@ -9841,31 +10094,35 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:P30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G24"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="16.375" customWidth="1"/>
+    <col min="1" max="1" width="19.625" customWidth="1"/>
     <col min="2" max="2" width="2.375" customWidth="1"/>
     <col min="3" max="3" width="11.5" customWidth="1"/>
     <col min="4" max="5" width="2.375" customWidth="1"/>
     <col min="6" max="6" width="11.5" customWidth="1"/>
     <col min="7" max="7" width="12.625"/>
+    <col min="10" max="10" width="19.625" customWidth="1"/>
+    <col min="11" max="11" width="4.375" customWidth="1"/>
+    <col min="12" max="15" width="11.5" customWidth="1"/>
+    <col min="16" max="16" width="12.625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B1">
         <v>0</v>
       </c>
       <c r="C1">
-        <v>64.7392709</v>
+        <v>65.7508996</v>
       </c>
       <c r="D1">
         <v>0</v>
@@ -9874,22 +10131,44 @@
         <v>0</v>
       </c>
       <c r="F1">
-        <v>64.7392709</v>
+        <v>65.7508996</v>
       </c>
       <c r="G1">
         <f>C1*1000/6.022140857E+23*6242000000000000000/32</f>
-        <v>0.0209696258021805</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>0.0212973013381394</v>
+      </c>
+      <c r="J1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K1">
+        <v>300</v>
+      </c>
+      <c r="L1">
+        <v>63.7234008</v>
+      </c>
+      <c r="M1">
+        <v>19.9334864</v>
+      </c>
+      <c r="N1">
+        <v>34.047158</v>
+      </c>
+      <c r="O1">
+        <v>69.7034468</v>
+      </c>
+      <c r="P1" s="1">
+        <f>L1*1000/6.022140857E+23*6242000000000000000/32</f>
+        <v>0.0206405764390277</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2">
-        <v>65.1230977</v>
+        <v>65.8057994</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -9898,22 +10177,44 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>65.1230977</v>
+        <v>65.8057994</v>
       </c>
       <c r="G2">
         <f t="shared" ref="G2:G24" si="0">C2*1000/6.022140857E+23*6242000000000000000/32</f>
-        <v>0.0210939507174438</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.0213150838717795</v>
+      </c>
+      <c r="J2" t="s">
+        <v>62</v>
+      </c>
+      <c r="K2">
+        <v>300</v>
+      </c>
+      <c r="L2">
+        <v>63.7884216</v>
+      </c>
+      <c r="M2">
+        <v>19.8685204</v>
+      </c>
+      <c r="N2">
+        <v>33.9884486</v>
+      </c>
+      <c r="O2">
+        <v>69.7489777</v>
+      </c>
+      <c r="P2" s="1">
+        <f t="shared" ref="P2:P24" si="1">L2*1000/6.022140857E+23*6242000000000000000/32</f>
+        <v>0.02066163725461</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3">
-        <v>65.7098612</v>
+        <v>65.9180307</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -9922,22 +10223,44 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>65.7098612</v>
+        <v>65.9180307</v>
       </c>
       <c r="G3">
         <f t="shared" si="0"/>
-        <v>0.0212840086352783</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>0.0213514365883235</v>
+      </c>
+      <c r="J3" t="s">
+        <v>63</v>
+      </c>
+      <c r="K3">
+        <v>300</v>
+      </c>
+      <c r="L3">
+        <v>63.889323</v>
+      </c>
+      <c r="M3">
+        <v>19.9339896</v>
+      </c>
+      <c r="N3">
+        <v>34.0566491</v>
+      </c>
+      <c r="O3">
+        <v>69.8695199</v>
+      </c>
+      <c r="P3" s="1">
+        <f t="shared" si="1"/>
+        <v>0.0206943201157467</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
       <c r="C4">
-        <v>65.6899503</v>
+        <v>65.9768675</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -9946,22 +10269,44 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>65.6899503</v>
+        <v>65.9768675</v>
       </c>
       <c r="G4">
         <f t="shared" si="0"/>
-        <v>0.0212775593176295</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.0213704943512894</v>
+      </c>
+      <c r="J4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4">
+        <v>300</v>
+      </c>
+      <c r="L4">
+        <v>63.9729457</v>
+      </c>
+      <c r="M4">
+        <v>19.8109338</v>
+      </c>
+      <c r="N4">
+        <v>33.9994019</v>
+      </c>
+      <c r="O4">
+        <v>69.9162258</v>
+      </c>
+      <c r="P4" s="1">
+        <f t="shared" si="1"/>
+        <v>0.0207214062522322</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5">
-        <v>72.8132429</v>
+        <v>66.023136</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -9970,22 +10315,44 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>72.8132429</v>
+        <v>66.023136</v>
       </c>
       <c r="G5">
         <f t="shared" si="0"/>
-        <v>0.0235848571636644</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>0.0213854811300705</v>
+      </c>
+      <c r="J5" t="s">
+        <v>65</v>
+      </c>
+      <c r="K5">
+        <v>300</v>
+      </c>
+      <c r="L5">
+        <v>63.9763159</v>
+      </c>
+      <c r="M5">
+        <v>20.0111502</v>
+      </c>
+      <c r="N5">
+        <v>34.0477993</v>
+      </c>
+      <c r="O5">
+        <v>69.979661</v>
+      </c>
+      <c r="P5" s="1">
+        <f t="shared" si="1"/>
+        <v>0.0207224978899954</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6">
-        <v>65.8146289</v>
+        <v>66.1439024</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -9994,22 +10361,44 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>65.8146289</v>
+        <v>66.1439024</v>
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
-        <v>0.0213179438253818</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.0214245984414376</v>
+      </c>
+      <c r="J6" t="s">
+        <v>66</v>
+      </c>
+      <c r="K6">
+        <v>300</v>
+      </c>
+      <c r="L6">
+        <v>64.1202584</v>
+      </c>
+      <c r="M6">
+        <v>19.8936167</v>
+      </c>
+      <c r="N6">
+        <v>34.0201439</v>
+      </c>
+      <c r="O6">
+        <v>70.0883434</v>
+      </c>
+      <c r="P6" s="1">
+        <f t="shared" si="1"/>
+        <v>0.0207691221463404</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7">
-        <v>65.8802829</v>
+        <v>66.1964983</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -10018,22 +10407,44 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>65.8802829</v>
+        <v>66.1964983</v>
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
-        <v>0.0213392097400774</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>0.0214416347213709</v>
+      </c>
+      <c r="J7" t="s">
+        <v>67</v>
+      </c>
+      <c r="K7">
+        <v>300</v>
+      </c>
+      <c r="L7">
+        <v>64.2067807</v>
+      </c>
+      <c r="M7">
+        <v>19.736629</v>
+      </c>
+      <c r="N7">
+        <v>33.993308</v>
+      </c>
+      <c r="O7">
+        <v>70.1277694</v>
+      </c>
+      <c r="P7" s="1">
+        <f t="shared" si="1"/>
+        <v>0.0207971474890624</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="C8">
-        <v>72.8132429</v>
+        <v>66.3030284</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -10042,22 +10453,44 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>72.8132429</v>
+        <v>66.3030284</v>
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
-        <v>0.0235848571636644</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.0214761407685137</v>
+      </c>
+      <c r="J8" t="s">
+        <v>68</v>
+      </c>
+      <c r="K8">
+        <v>300</v>
+      </c>
+      <c r="L8">
+        <v>64.28885</v>
+      </c>
+      <c r="M8">
+        <v>19.8390554</v>
+      </c>
+      <c r="N8">
+        <v>34.0238996</v>
+      </c>
+      <c r="O8">
+        <v>70.2405666</v>
+      </c>
+      <c r="P8" s="1">
+        <f t="shared" si="1"/>
+        <v>0.0208237304654679</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="C9">
-        <v>66.2587349</v>
+        <v>66.3622514</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -10066,22 +10499,44 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>66.2587349</v>
+        <v>66.3622514</v>
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
-        <v>0.0214617937098034</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0.0214953236250955</v>
+      </c>
+      <c r="J9" t="s">
+        <v>69</v>
+      </c>
+      <c r="K9">
+        <v>300</v>
+      </c>
+      <c r="L9">
+        <v>64.3506109</v>
+      </c>
+      <c r="M9">
+        <v>19.7995072</v>
+      </c>
+      <c r="N9">
+        <v>34.0021078</v>
+      </c>
+      <c r="O9">
+        <v>70.2904631</v>
+      </c>
+      <c r="P9" s="1">
+        <f t="shared" si="1"/>
+        <v>0.0208437353704383</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10">
-        <v>66.3663481</v>
+        <v>66.3907412</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -10090,16 +10545,38 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>66.3663481</v>
+        <v>66.3907412</v>
       </c>
       <c r="G10">
         <f t="shared" si="0"/>
-        <v>0.0214966505826721</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.0215045517247771</v>
+      </c>
+      <c r="J10" t="s">
+        <v>70</v>
+      </c>
+      <c r="K10">
+        <v>300</v>
+      </c>
+      <c r="L10">
+        <v>64.410948</v>
+      </c>
+      <c r="M10">
+        <v>16.2603954</v>
+      </c>
+      <c r="N10">
+        <v>25.8250935</v>
+      </c>
+      <c r="O10">
+        <v>75.896144</v>
+      </c>
+      <c r="P10" s="1">
+        <f t="shared" si="1"/>
+        <v>0.0208632790939217</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -10120,10 +10597,32 @@
         <f t="shared" si="0"/>
         <v>0.0235848571636644</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="J11" t="s">
+        <v>71</v>
+      </c>
+      <c r="K11">
+        <v>300</v>
+      </c>
+      <c r="L11">
+        <v>71.0180254</v>
+      </c>
+      <c r="M11">
+        <v>16.2603954</v>
+      </c>
+      <c r="N11">
+        <v>25.8250935</v>
+      </c>
+      <c r="O11">
+        <v>75.896144</v>
+      </c>
+      <c r="P11" s="1">
+        <f t="shared" si="1"/>
+        <v>0.0230033702441303</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -10144,16 +10643,38 @@
         <f t="shared" si="0"/>
         <v>0.0235848571636644</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="J12" t="s">
+        <v>72</v>
+      </c>
+      <c r="K12">
+        <v>300</v>
+      </c>
+      <c r="L12">
+        <v>71.0180254</v>
+      </c>
+      <c r="M12">
+        <v>16.2603954</v>
+      </c>
+      <c r="N12">
+        <v>25.8250935</v>
+      </c>
+      <c r="O12">
+        <v>75.896144</v>
+      </c>
+      <c r="P12" s="1">
+        <f t="shared" si="1"/>
+        <v>0.0230033702441303</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
       <c r="C13">
-        <v>66.2587349</v>
+        <v>16.9523193</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -10162,22 +10683,44 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>66.2587349</v>
+        <v>16.9523193</v>
       </c>
       <c r="G13">
-        <f t="shared" si="0"/>
-        <v>0.0214617937098034</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <f>C13*1000/6.022140857E+23*6242000000000000000/32</f>
+        <v>0.00549100703882166</v>
+      </c>
+      <c r="J13" t="s">
+        <v>73</v>
+      </c>
+      <c r="K13">
+        <v>300</v>
+      </c>
+      <c r="L13">
+        <v>12.406831</v>
+      </c>
+      <c r="M13">
+        <v>34.6858295</v>
+      </c>
+      <c r="N13">
+        <v>39.6022326</v>
+      </c>
+      <c r="O13">
+        <v>22.8125799</v>
+      </c>
+      <c r="P13" s="1">
+        <f t="shared" si="1"/>
+        <v>0.00401868293918171</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
       <c r="C14">
-        <v>66.3663481</v>
+        <v>66.6108111</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -10186,22 +10729,44 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>66.3663481</v>
+        <v>66.6108111</v>
       </c>
       <c r="G14">
         <f t="shared" si="0"/>
-        <v>0.0214966505826721</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0.0215758343232551</v>
+      </c>
+      <c r="J14" t="s">
+        <v>74</v>
+      </c>
+      <c r="K14">
+        <v>300</v>
+      </c>
+      <c r="L14">
+        <v>64.7171183</v>
+      </c>
+      <c r="M14">
+        <v>19.1794315</v>
+      </c>
+      <c r="N14">
+        <v>33.8226015</v>
+      </c>
+      <c r="O14">
+        <v>70.4709478</v>
+      </c>
+      <c r="P14" s="1">
+        <f t="shared" si="1"/>
+        <v>0.0209624503779583</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
       <c r="C15">
-        <v>66.5061517</v>
+        <v>66.6538676</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -10210,22 +10775,44 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>66.5061517</v>
+        <v>66.6538676</v>
       </c>
       <c r="G15">
         <f t="shared" si="0"/>
-        <v>0.0215419342124851</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>0.0215897807066604</v>
+      </c>
+      <c r="J15" t="s">
+        <v>75</v>
+      </c>
+      <c r="K15">
+        <v>300</v>
+      </c>
+      <c r="L15">
+        <v>64.7295185</v>
+      </c>
+      <c r="M15">
+        <v>19.2746551</v>
+      </c>
+      <c r="N15">
+        <v>33.826004</v>
+      </c>
+      <c r="O15">
+        <v>70.511915</v>
+      </c>
+      <c r="P15" s="1">
+        <f t="shared" si="1"/>
+        <v>0.0209664669130575</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
       <c r="A16" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
       <c r="C16">
-        <v>66.6643361</v>
+        <v>19.021884</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -10234,22 +10821,44 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>66.6643361</v>
+        <v>19.021884</v>
       </c>
       <c r="G16">
         <f t="shared" si="0"/>
-        <v>0.0215931715469442</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>0.00616135745718576</v>
+      </c>
+      <c r="J16" t="s">
+        <v>76</v>
+      </c>
+      <c r="K16">
+        <v>300</v>
+      </c>
+      <c r="L16">
+        <v>14.2547946</v>
+      </c>
+      <c r="M16">
+        <v>38.1453746</v>
+      </c>
+      <c r="N16">
+        <v>45.0102034</v>
+      </c>
+      <c r="O16">
+        <v>25.6984069</v>
+      </c>
+      <c r="P16" s="1">
+        <f t="shared" si="1"/>
+        <v>0.00461725478976537</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
       <c r="C17">
-        <v>66.8469612</v>
+        <v>19.8244049</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -10258,22 +10867,44 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>66.8469612</v>
+        <v>19.8244049</v>
       </c>
       <c r="G17">
         <f t="shared" si="0"/>
-        <v>0.0216523254415718</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>0.00642130111638179</v>
+      </c>
+      <c r="J17" t="s">
+        <v>77</v>
+      </c>
+      <c r="K17">
+        <v>300</v>
+      </c>
+      <c r="L17">
+        <v>15.5598885</v>
+      </c>
+      <c r="M17">
+        <v>35.6441786</v>
+      </c>
+      <c r="N17">
+        <v>44.8267245</v>
+      </c>
+      <c r="O17">
+        <v>26.2531421</v>
+      </c>
+      <c r="P17" s="1">
+        <f t="shared" si="1"/>
+        <v>0.00503998631483895</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
       <c r="C18">
-        <v>66.8870315</v>
+        <v>20.6528422</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -10282,22 +10913,44 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>66.8870315</v>
+        <v>20.6528422</v>
       </c>
       <c r="G18">
         <f t="shared" si="0"/>
-        <v>0.0216653045682302</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <v>0.00668963932810497</v>
+      </c>
+      <c r="J18" t="s">
+        <v>78</v>
+      </c>
+      <c r="K18">
+        <v>300</v>
+      </c>
+      <c r="L18">
+        <v>16.9532152</v>
+      </c>
+      <c r="M18">
+        <v>32.8230843</v>
+      </c>
+      <c r="N18">
+        <v>44.4775925</v>
+      </c>
+      <c r="O18">
+        <v>26.8001405</v>
+      </c>
+      <c r="P18" s="1">
+        <f t="shared" si="1"/>
+        <v>0.0054912972288021</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
       <c r="C19">
-        <v>65.7001752</v>
+        <v>22.308639</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -10306,22 +10959,44 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>65.7001752</v>
+        <v>22.308639</v>
       </c>
       <c r="G19">
         <f t="shared" si="0"/>
-        <v>0.021280871253706</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>0.00722596664254261</v>
+      </c>
+      <c r="J19" t="s">
+        <v>79</v>
+      </c>
+      <c r="K19">
+        <v>300</v>
+      </c>
+      <c r="L19">
+        <v>19.1544571</v>
+      </c>
+      <c r="M19">
+        <v>30.1500898</v>
+      </c>
+      <c r="N19">
+        <v>45.2251133</v>
+      </c>
+      <c r="O19">
+        <v>28.199484</v>
+      </c>
+      <c r="P19" s="1">
+        <f t="shared" si="1"/>
+        <v>0.00620429906372207</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
       <c r="C20">
-        <v>62.9240536</v>
+        <v>22.395319</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -10330,22 +11005,44 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>62.9240536</v>
+        <v>22.395319</v>
       </c>
       <c r="G20">
         <f t="shared" si="0"/>
-        <v>0.0203816607694967</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0.00725404306569759</v>
+      </c>
+      <c r="J20" t="s">
+        <v>80</v>
+      </c>
+      <c r="K20">
+        <v>300</v>
+      </c>
+      <c r="L20">
+        <v>18.8871578</v>
+      </c>
+      <c r="M20">
+        <v>32.3733756</v>
+      </c>
+      <c r="N20">
+        <v>46.3952855</v>
+      </c>
+      <c r="O20">
+        <v>28.5991705</v>
+      </c>
+      <c r="P20" s="1">
+        <f t="shared" si="1"/>
+        <v>0.00611771844240424</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
       <c r="C21">
-        <v>57.9594963</v>
+        <v>22.395319</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -10354,22 +11051,44 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>57.9594963</v>
+        <v>22.395319</v>
       </c>
       <c r="G21">
         <f t="shared" si="0"/>
-        <v>0.0187735964924786</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>0.00725404306569759</v>
+      </c>
+      <c r="J21" t="s">
+        <v>81</v>
+      </c>
+      <c r="K21">
+        <v>300</v>
+      </c>
+      <c r="L21">
+        <v>18.8871578</v>
+      </c>
+      <c r="M21">
+        <v>32.3733756</v>
+      </c>
+      <c r="N21">
+        <v>46.3952855</v>
+      </c>
+      <c r="O21">
+        <v>28.5991705</v>
+      </c>
+      <c r="P21" s="1">
+        <f t="shared" si="1"/>
+        <v>0.00611771844240424</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B22">
         <v>0</v>
       </c>
       <c r="C22">
-        <v>50.0209324</v>
+        <v>22.395319</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -10378,22 +11097,44 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>50.0209324</v>
+        <v>22.395319</v>
       </c>
       <c r="G22">
         <f t="shared" si="0"/>
-        <v>0.0162022250192528</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>0.00725404306569759</v>
+      </c>
+      <c r="J22" t="s">
+        <v>82</v>
+      </c>
+      <c r="K22">
+        <v>300</v>
+      </c>
+      <c r="L22">
+        <v>18.8871578</v>
+      </c>
+      <c r="M22">
+        <v>32.3733756</v>
+      </c>
+      <c r="N22">
+        <v>46.3952855</v>
+      </c>
+      <c r="O22">
+        <v>28.5991705</v>
+      </c>
+      <c r="P22" s="1">
+        <f t="shared" si="1"/>
+        <v>0.00611771844240424</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B23">
         <v>0</v>
       </c>
       <c r="C23">
-        <v>49.6791241</v>
+        <v>22.395319</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -10402,22 +11143,44 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>49.6791241</v>
+        <v>22.395319</v>
       </c>
       <c r="G23">
         <f t="shared" si="0"/>
-        <v>0.0160915102699602</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>0.00725404306569759</v>
+      </c>
+      <c r="J23" t="s">
+        <v>83</v>
+      </c>
+      <c r="K23">
+        <v>300</v>
+      </c>
+      <c r="L23">
+        <v>18.8871578</v>
+      </c>
+      <c r="M23">
+        <v>32.3733756</v>
+      </c>
+      <c r="N23">
+        <v>46.3952855</v>
+      </c>
+      <c r="O23">
+        <v>28.5991705</v>
+      </c>
+      <c r="P23" s="1">
+        <f t="shared" si="1"/>
+        <v>0.00611771844240424</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B24">
         <v>0</v>
       </c>
       <c r="C24">
-        <v>48.0262328</v>
+        <v>22.395319</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -10426,11 +11189,261 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>48.0262328</v>
+        <v>22.395319</v>
       </c>
       <c r="G24">
         <f t="shared" si="0"/>
-        <v>0.0155561240728216</v>
+        <v>0.00725404306569759</v>
+      </c>
+      <c r="J24" t="s">
+        <v>84</v>
+      </c>
+      <c r="K24">
+        <v>300</v>
+      </c>
+      <c r="L24">
+        <v>18.8871578</v>
+      </c>
+      <c r="M24">
+        <v>32.3733756</v>
+      </c>
+      <c r="N24">
+        <v>46.3952855</v>
+      </c>
+      <c r="O24">
+        <v>28.5991705</v>
+      </c>
+      <c r="P24" s="1">
+        <f t="shared" si="1"/>
+        <v>0.00611771844240424</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="A25" t="s">
+        <v>111</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>22.395319</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>22.395319</v>
+      </c>
+      <c r="J25" t="s">
+        <v>111</v>
+      </c>
+      <c r="K25">
+        <v>300</v>
+      </c>
+      <c r="L25">
+        <v>18.8871578</v>
+      </c>
+      <c r="M25">
+        <v>32.3733756</v>
+      </c>
+      <c r="N25">
+        <v>46.3952855</v>
+      </c>
+      <c r="O25">
+        <v>28.5991705</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="A26" t="s">
+        <v>112</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>22.395319</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>22.395319</v>
+      </c>
+      <c r="J26" t="s">
+        <v>112</v>
+      </c>
+      <c r="K26">
+        <v>300</v>
+      </c>
+      <c r="L26">
+        <v>18.8871578</v>
+      </c>
+      <c r="M26">
+        <v>32.3733756</v>
+      </c>
+      <c r="N26">
+        <v>46.3952855</v>
+      </c>
+      <c r="O26">
+        <v>28.5991705</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="A27" t="s">
+        <v>113</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>72.8132429</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>72.8132429</v>
+      </c>
+      <c r="J27" t="s">
+        <v>113</v>
+      </c>
+      <c r="K27">
+        <v>300</v>
+      </c>
+      <c r="L27">
+        <v>71.0180254</v>
+      </c>
+      <c r="M27">
+        <v>16.2603954</v>
+      </c>
+      <c r="N27">
+        <v>25.8250935</v>
+      </c>
+      <c r="O27">
+        <v>75.896144</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="A28" t="s">
+        <v>114</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>16.0294562</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>16.0294562</v>
+      </c>
+      <c r="J28" t="s">
+        <v>114</v>
+      </c>
+      <c r="K28">
+        <v>300</v>
+      </c>
+      <c r="L28">
+        <v>13.2563391</v>
+      </c>
+      <c r="M28">
+        <v>24.6106522</v>
+      </c>
+      <c r="N28">
+        <v>34.4262135</v>
+      </c>
+      <c r="O28">
+        <v>20.6395348</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="A29" t="s">
+        <v>115</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>17.5375936</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>17.5375936</v>
+      </c>
+      <c r="J29" t="s">
+        <v>115</v>
+      </c>
+      <c r="K29">
+        <v>300</v>
+      </c>
+      <c r="L29">
+        <v>13.380823</v>
+      </c>
+      <c r="M29">
+        <v>33.6195577</v>
+      </c>
+      <c r="N29">
+        <v>40.629946</v>
+      </c>
+      <c r="O29">
+        <v>23.4666903</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="A30" t="s">
+        <v>116</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>18.1291886</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>18.1291886</v>
+      </c>
+      <c r="J30" t="s">
+        <v>116</v>
+      </c>
+      <c r="K30">
+        <v>300</v>
+      </c>
+      <c r="L30">
+        <v>13.7939275</v>
+      </c>
+      <c r="M30">
+        <v>34.8179454</v>
+      </c>
+      <c r="N30">
+        <v>41.8937252</v>
+      </c>
+      <c r="O30">
+        <v>24.2393111</v>
       </c>
     </row>
   </sheetData>

--- a/data/data_collection.xlsx
+++ b/data/data_collection.xlsx
@@ -24,7 +24,8 @@
     <definedName name="ExternalData_1" localSheetId="5">Sheet4!$A$1:$I$24</definedName>
     <definedName name="ExternalData_2" localSheetId="5">Sheet4!$K$1:$S$24</definedName>
     <definedName name="ExternalData_1" localSheetId="7">Sheet3!$A$1:$F$30</definedName>
-    <definedName name="ExternalData_2" localSheetId="7">Sheet3!$J$1:$O$30</definedName>
+    <definedName name="ExternalData_2" localSheetId="7">Sheet3!$K$1:$O$30</definedName>
+    <definedName name="ExternalData_3" localSheetId="7">Sheet3!$J$1:$O$30</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
@@ -522,27 +523,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -556,20 +542,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -579,22 +551,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -602,7 +559,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -616,6 +573,73 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -624,17 +648,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -649,22 +665,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -679,7 +680,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -691,13 +704,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -709,37 +806,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -757,31 +842,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -793,73 +860,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -882,15 +883,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -906,32 +898,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -953,6 +924,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -962,170 +942,190 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3417,7 +3417,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_2" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="0" nextId="10">
     <queryTableFields count="9">
       <queryTableField id="1" dataBound="0"/>
@@ -3435,7 +3435,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_2" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="0" nextId="10">
     <queryTableFields count="9">
       <queryTableField id="1" dataBound="0"/>
@@ -3471,7 +3471,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_2" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_3" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="0" nextId="7">
     <queryTableFields count="6">
       <queryTableField id="1" dataBound="0"/>
@@ -3761,8 +3761,8 @@
   <sheetPr/>
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -3796,7 +3796,7 @@
         <v>-9.29974075</v>
       </c>
       <c r="D2" s="2">
-        <f>C2+E2</f>
+        <f t="shared" ref="D2:D6" si="0">C2+E2</f>
         <v>-9.27877112419782</v>
       </c>
       <c r="E2" s="2">
@@ -3818,7 +3818,7 @@
         <v>-9.303271</v>
       </c>
       <c r="D3" s="2">
-        <f>C3+E3</f>
+        <f t="shared" si="0"/>
         <v>-9.28217704928256</v>
       </c>
       <c r="E3" s="2">
@@ -3858,7 +3858,7 @@
         <v>1.04</v>
       </c>
       <c r="J5">
-        <f t="shared" ref="J5:J16" si="0">6.72574231244026*I5</f>
+        <f t="shared" ref="J5:J16" si="1">6.72574231244026*I5</f>
         <v>6.99477200493787</v>
       </c>
     </row>
@@ -3873,7 +3873,7 @@
         <v>-9.305298</v>
       </c>
       <c r="D6" s="2">
-        <f>C6+E6</f>
+        <f t="shared" si="0"/>
         <v>-9.28401399136472</v>
       </c>
       <c r="E6" s="2">
@@ -3887,7 +3887,7 @@
         <v>1.03</v>
       </c>
       <c r="J6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.92751458181347</v>
       </c>
     </row>
@@ -3902,7 +3902,7 @@
         <v>-9.30541825</v>
       </c>
       <c r="D7" s="2">
-        <f t="shared" ref="D7:D16" si="1">C7+E7</f>
+        <f t="shared" ref="D7:D16" si="2">C7+E7</f>
         <v>-9.28414069068237</v>
       </c>
       <c r="E7" s="2">
@@ -3912,7 +3912,7 @@
         <v>1.02</v>
       </c>
       <c r="J7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.86025715868907</v>
       </c>
     </row>
@@ -3927,7 +3927,7 @@
         <v>-9.305416</v>
       </c>
       <c r="D8" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-9.2841141355305</v>
       </c>
       <c r="E8">
@@ -3937,7 +3937,7 @@
         <v>1.01</v>
       </c>
       <c r="J8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.79299973556466</v>
       </c>
     </row>
@@ -3952,7 +3952,7 @@
         <v>-9.305258</v>
       </c>
       <c r="D9" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-9.28394005617462</v>
       </c>
       <c r="E9" s="2">
@@ -3962,7 +3962,7 @@
         <v>1</v>
       </c>
       <c r="J9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.72574231244026</v>
       </c>
     </row>
@@ -3977,7 +3977,7 @@
         <v>-9.30494375</v>
       </c>
       <c r="D10" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-9.28360454025992</v>
       </c>
       <c r="E10">
@@ -3987,7 +3987,7 @@
         <v>0.99</v>
       </c>
       <c r="J10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.65848488931586</v>
       </c>
     </row>
@@ -4002,7 +4002,7 @@
         <v>-9.30443575</v>
       </c>
       <c r="D11" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-9.28085089283634</v>
       </c>
       <c r="E11" s="2">
@@ -4019,7 +4019,7 @@
         <v>0.98</v>
       </c>
       <c r="J11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.59122746619145</v>
       </c>
     </row>
@@ -4034,7 +4034,7 @@
         <v>-9.303711</v>
       </c>
       <c r="D12" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-9.303711</v>
       </c>
       <c r="E12" s="2">
@@ -4044,7 +4044,7 @@
         <v>0.97</v>
       </c>
       <c r="J12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.52397004306705</v>
       </c>
     </row>
@@ -4059,7 +4059,7 @@
         <v>-9.3027445</v>
       </c>
       <c r="D13" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-9.3027445</v>
       </c>
       <c r="E13" s="2">
@@ -4069,7 +4069,7 @@
         <v>0.96</v>
       </c>
       <c r="J13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.45671261994265</v>
       </c>
     </row>
@@ -4084,7 +4084,7 @@
         <v>-9.30149675</v>
       </c>
       <c r="D14" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-9.30149675</v>
       </c>
       <c r="E14" s="2">
@@ -4094,7 +4094,7 @@
         <v>0.95</v>
       </c>
       <c r="J14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.38945519681825</v>
       </c>
     </row>
@@ -4109,7 +4109,7 @@
         <v>-9.29993175</v>
       </c>
       <c r="D15" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-9.29993175</v>
       </c>
       <c r="E15" s="2">
@@ -4119,7 +4119,7 @@
         <v>0.94</v>
       </c>
       <c r="J15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.32219777369384</v>
       </c>
     </row>
@@ -4134,7 +4134,7 @@
         <v>-9.2980065</v>
       </c>
       <c r="D16" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-9.2765447062902</v>
       </c>
       <c r="E16" s="2">
@@ -4144,14 +4144,14 @@
         <v>0.95</v>
       </c>
       <c r="H16">
-        <f t="shared" ref="H16:H27" si="2">6.72574231244026*G16</f>
+        <f t="shared" ref="H16:H27" si="3">6.72574231244026*G16</f>
         <v>6.38945519681825</v>
       </c>
       <c r="I16">
         <v>0.93</v>
       </c>
       <c r="J16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.25494035056944</v>
       </c>
     </row>
@@ -4166,7 +4166,7 @@
         <v>0.9</v>
       </c>
       <c r="H17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.05316808119623</v>
       </c>
     </row>
@@ -4181,7 +4181,7 @@
         <v>0.85</v>
       </c>
       <c r="H18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.71688096557422</v>
       </c>
     </row>
@@ -4189,24 +4189,24 @@
       <c r="A19" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="2">
         <v>6.05316808099999</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19">
         <v>-9.281312</v>
       </c>
-      <c r="D19" s="6">
-        <f t="shared" ref="D19:D29" si="3">C19+E19</f>
+      <c r="D19" s="2">
+        <f t="shared" ref="D19:D29" si="4">C19+E19</f>
         <v>-9.25981534941733</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="2">
         <v>0.0214966505826721</v>
       </c>
       <c r="G19">
         <v>0.8</v>
       </c>
       <c r="H19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.38059384995221</v>
       </c>
     </row>
@@ -4214,24 +4214,24 @@
       <c r="A20" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="2">
         <v>5.71688096599999</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20">
         <v>-9.24699775</v>
       </c>
-      <c r="D20" s="6">
-        <f t="shared" si="3"/>
+      <c r="D20" s="2">
+        <f t="shared" si="4"/>
         <v>-9.22545581578752</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="2">
         <v>0.0215419342124851</v>
       </c>
       <c r="G20">
         <v>0.75</v>
       </c>
       <c r="H20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.04430673433019</v>
       </c>
     </row>
@@ -4239,24 +4239,24 @@
       <c r="A21" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="2">
         <v>5.38059385</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21">
         <v>-9.18425575</v>
       </c>
-      <c r="D21" s="6">
-        <f t="shared" si="3"/>
+      <c r="D21" s="2">
+        <f t="shared" si="4"/>
         <v>-9.16266257845306</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="2">
         <v>0.0215931715469442</v>
       </c>
       <c r="G21">
         <v>0.7</v>
       </c>
       <c r="H21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.70801961870818</v>
       </c>
     </row>
@@ -4264,24 +4264,24 @@
       <c r="A22" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="2">
         <v>5.044306734</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22">
         <v>-9.07655725</v>
       </c>
-      <c r="D22" s="6">
-        <f t="shared" si="3"/>
+      <c r="D22" s="2">
+        <f t="shared" si="4"/>
         <v>-9.05490492455843</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="2">
         <v>0.0216523254415718</v>
       </c>
       <c r="G22">
         <v>0.65</v>
       </c>
       <c r="H22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.37173250308617</v>
       </c>
     </row>
@@ -4289,24 +4289,24 @@
       <c r="A23" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="2">
         <v>4.70801961899999</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23">
         <v>-8.89676175</v>
       </c>
-      <c r="D23" s="6">
-        <f t="shared" si="3"/>
+      <c r="D23" s="2">
+        <f t="shared" si="4"/>
         <v>-8.87509644543177</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E23" s="2">
         <v>0.0216653045682302</v>
       </c>
       <c r="G23">
         <v>0.6</v>
       </c>
       <c r="H23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.03544538746416</v>
       </c>
     </row>
@@ -4314,24 +4314,24 @@
       <c r="A24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B24" s="2">
         <v>4.37173250299999</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24">
         <v>-8.610972</v>
       </c>
-      <c r="D24" s="6">
-        <f t="shared" si="3"/>
+      <c r="D24" s="2">
+        <f t="shared" si="4"/>
         <v>-8.58969112874629</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E24" s="2">
         <v>0.021280871253706</v>
       </c>
       <c r="G24">
         <v>0.55</v>
       </c>
       <c r="H24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.69915827184214</v>
       </c>
     </row>
@@ -4339,24 +4339,24 @@
       <c r="A25" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="6">
+      <c r="B25" s="2">
         <v>4.035445387</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25">
         <v>-8.184804</v>
       </c>
-      <c r="D25" s="6">
-        <f t="shared" si="3"/>
+      <c r="D25" s="2">
+        <f t="shared" si="4"/>
         <v>-8.1644223392305</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25" s="2">
         <v>0.0203816607694967</v>
       </c>
       <c r="G25">
         <v>0.5</v>
       </c>
       <c r="H25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.36287115622013</v>
       </c>
     </row>
@@ -4364,24 +4364,24 @@
       <c r="A26" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="6">
+      <c r="B26" s="2">
         <v>3.69915827100001</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26">
         <v>-7.561232</v>
       </c>
-      <c r="D26" s="6">
-        <f t="shared" si="3"/>
+      <c r="D26" s="2">
+        <f t="shared" si="4"/>
         <v>-7.54245840350752</v>
       </c>
-      <c r="E26" s="6">
+      <c r="E26" s="2">
         <v>0.0187735964924786</v>
       </c>
       <c r="G26">
         <v>0.45</v>
       </c>
       <c r="H26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.02658404059812</v>
       </c>
     </row>
@@ -4389,24 +4389,24 @@
       <c r="A27" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="6">
+      <c r="B27" s="2">
         <v>3.36287115500002</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27">
         <v>-6.6218255</v>
       </c>
-      <c r="D27" s="6">
-        <f t="shared" si="3"/>
+      <c r="D27" s="2">
+        <f t="shared" si="4"/>
         <v>-6.60562327498075</v>
       </c>
-      <c r="E27" s="6">
+      <c r="E27" s="2">
         <v>0.0162022250192528</v>
       </c>
       <c r="G27">
         <v>0.399999999999999</v>
       </c>
       <c r="H27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.6902969249761</v>
       </c>
     </row>
@@ -4414,17 +4414,17 @@
       <c r="A28" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="6">
+      <c r="B28" s="2">
         <v>3.02658403900003</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28">
         <v>-5.380071</v>
       </c>
-      <c r="D28" s="6">
-        <f t="shared" si="3"/>
+      <c r="D28" s="2">
+        <f t="shared" si="4"/>
         <v>-5.36397948973004</v>
       </c>
-      <c r="E28" s="6">
+      <c r="E28" s="2">
         <v>0.0160915102699602</v>
       </c>
     </row>
@@ -4432,17 +4432,17 @@
       <c r="A29" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="6">
+      <c r="B29" s="2">
         <v>2.69029692300004</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29">
         <v>-3.654861</v>
       </c>
-      <c r="D29" s="6">
-        <f t="shared" si="3"/>
+      <c r="D29" s="2">
+        <f t="shared" si="4"/>
         <v>-3.63930487592718</v>
       </c>
-      <c r="E29" s="6">
+      <c r="E29" s="2">
         <v>0.0155561240728216</v>
       </c>
     </row>
@@ -4454,7 +4454,7 @@
         <v>-9.281312</v>
       </c>
       <c r="D31" s="2">
-        <f t="shared" ref="D31:D41" si="4">C31+E31</f>
+        <f t="shared" ref="D31:D41" si="5">C31+E31</f>
         <v>-9.25981534941733</v>
       </c>
       <c r="E31" s="2">
@@ -4469,7 +4469,7 @@
         <v>-9.24699775</v>
       </c>
       <c r="D32" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-9.22545581578752</v>
       </c>
       <c r="E32" s="2">
@@ -4484,7 +4484,7 @@
         <v>-9.18425575</v>
       </c>
       <c r="D33" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-9.16266257845306</v>
       </c>
       <c r="E33" s="2">
@@ -4499,7 +4499,7 @@
         <v>-9.07655725</v>
       </c>
       <c r="D34" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-9.05490492455843</v>
       </c>
       <c r="E34" s="2">
@@ -4514,7 +4514,7 @@
         <v>-8.89676175</v>
       </c>
       <c r="D35" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-8.87509644543177</v>
       </c>
       <c r="E35" s="2">
@@ -4529,7 +4529,7 @@
         <v>-8.610972</v>
       </c>
       <c r="D36" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-8.58969112874629</v>
       </c>
       <c r="E36" s="2">
@@ -4544,7 +4544,7 @@
         <v>-8.184804</v>
       </c>
       <c r="D37" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-8.1644223392305</v>
       </c>
       <c r="E37" s="2">
@@ -4559,7 +4559,7 @@
         <v>-7.561232</v>
       </c>
       <c r="D38" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-7.54245840350752</v>
       </c>
       <c r="E38" s="2">
@@ -4574,7 +4574,7 @@
         <v>-6.6218255</v>
       </c>
       <c r="D39" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-6.60562327498075</v>
       </c>
       <c r="E39" s="2">
@@ -4589,7 +4589,7 @@
         <v>-5.380071</v>
       </c>
       <c r="D40" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-5.36397948973004</v>
       </c>
       <c r="E40" s="2">
@@ -4604,7 +4604,7 @@
         <v>-3.654861</v>
       </c>
       <c r="D41" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-3.63930487592718</v>
       </c>
       <c r="E41" s="2">
@@ -4624,7 +4624,7 @@
   <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F4" sqref="F4:G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -4633,11 +4633,11 @@
     <col min="3" max="3" width="12.625"/>
     <col min="4" max="5" width="13.75"/>
     <col min="6" max="6" width="12.625"/>
-    <col min="7" max="7" width="12.625" style="1"/>
+    <col min="7" max="7" width="12.625"/>
     <col min="8" max="11" width="12.625"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:7">
+    <row r="1" customFormat="1" spans="1:7">
       <c r="A1" s="4"/>
       <c r="B1" s="4" t="s">
         <v>0</v>
@@ -4675,7 +4675,7 @@
       <c r="F2" s="2">
         <v>0</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2">
         <v>0</v>
       </c>
       <c r="J2">
@@ -4703,7 +4703,7 @@
       <c r="F3" s="2">
         <v>0</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3">
         <v>0</v>
       </c>
       <c r="J3">
@@ -4731,11 +4731,11 @@
       <c r="E4" s="5">
         <v>-1.74798</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4">
         <v>0.0212973013381394</v>
       </c>
       <c r="G4" s="1">
-        <v>0.0206943201157467</v>
+        <v>0.0206405764390277</v>
       </c>
       <c r="H4">
         <v>0.95</v>
@@ -4755,7 +4755,7 @@
       <c r="B5">
         <v>7.02965577183444</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5">
         <v>-9.36334625</v>
       </c>
       <c r="D5" s="5">
@@ -4765,11 +4765,11 @@
       <c r="E5" s="5">
         <v>-1.37949</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5">
         <v>0.0213150838717795</v>
       </c>
       <c r="G5" s="1">
-        <v>0.0207214062522322</v>
+        <v>0.02066163725461</v>
       </c>
       <c r="J5">
         <v>1.04</v>
@@ -4796,11 +4796,11 @@
       <c r="E6" s="5">
         <v>-0.649711</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6">
         <v>0.0213514365883235</v>
       </c>
       <c r="G6" s="1">
-        <v>0.0207224978899954</v>
+        <v>0.0206943201157467</v>
       </c>
       <c r="J6">
         <v>1.03</v>
@@ -4827,11 +4827,11 @@
       <c r="E7" s="5">
         <v>-0.436941</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7">
         <v>0.0213704943512894</v>
       </c>
       <c r="G7" s="1">
-        <v>0.0207691221463404</v>
+        <v>0.0207214062522322</v>
       </c>
       <c r="J7">
         <v>1.02</v>
@@ -4858,11 +4858,11 @@
       <c r="E8" s="5">
         <v>-0.194466</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8">
         <v>0.0213854811300705</v>
       </c>
       <c r="G8" s="1">
-        <v>0.0207971474890624</v>
+        <v>0.0207224978899954</v>
       </c>
       <c r="H8">
         <f>B10*2</f>
@@ -4893,11 +4893,11 @@
       <c r="E9" s="5">
         <v>0.083872</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9">
         <v>0.0214245984414376</v>
       </c>
       <c r="G9" s="1">
-        <v>0.0208237304654679</v>
+        <v>0.0207691221463404</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -4931,11 +4931,11 @@
       <c r="E10" s="5">
         <v>0.40474</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10">
         <v>0.0214416347213709</v>
       </c>
       <c r="G10" s="1">
-        <v>0.0208437353704383</v>
+        <v>0.0207971474890624</v>
       </c>
       <c r="J10">
         <v>0.99</v>
@@ -4962,11 +4962,11 @@
       <c r="E11" s="5">
         <v>0.766066</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11">
         <v>0.0214761407685137</v>
       </c>
       <c r="G11" s="1">
-        <v>0.0230033702441303</v>
+        <v>0.0208237304654679</v>
       </c>
       <c r="J11">
         <v>0.98</v>
@@ -4993,11 +4993,11 @@
       <c r="E12" s="5">
         <v>1.209655</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12">
         <v>0.0214953236250955</v>
       </c>
       <c r="G12" s="1">
-        <v>0.0230033702441303</v>
+        <v>0.0208437353704383</v>
       </c>
       <c r="J12">
         <v>0.97</v>
@@ -5024,7 +5024,7 @@
       <c r="E13" s="5">
         <v>1.650845</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13">
         <v>0.0215045517247771</v>
       </c>
       <c r="G13" s="1">
@@ -5050,16 +5050,16 @@
       </c>
       <c r="D14" s="5">
         <f t="shared" si="1"/>
-        <v>-9.36232725</v>
+        <v>-9.34080128378352</v>
       </c>
       <c r="E14" s="5">
         <v>2.184954</v>
       </c>
       <c r="F14" s="1">
-        <v>0</v>
+        <v>0.0215259662164836</v>
       </c>
       <c r="G14" s="1">
-        <v>0</v>
+        <v>0.0208786517777622</v>
       </c>
       <c r="H14">
         <v>0.95</v>
@@ -5088,16 +5088,16 @@
       </c>
       <c r="D15" s="5">
         <f t="shared" si="1"/>
-        <v>-9.3610255</v>
+        <v>-9.33948007495655</v>
       </c>
       <c r="E15" s="5">
         <v>2.81936</v>
       </c>
-      <c r="F15" s="1">
-        <v>0</v>
+      <c r="F15">
+        <v>0.0215454250434452</v>
       </c>
       <c r="G15" s="1">
-        <v>0</v>
+        <v>0.0209155631075892</v>
       </c>
       <c r="H15">
         <v>0.9</v>
@@ -5126,16 +5126,16 @@
       </c>
       <c r="D16" s="5">
         <f t="shared" si="1"/>
-        <v>-9.359363</v>
+        <v>-9.33780344436616</v>
       </c>
       <c r="E16" s="5">
         <v>3.470399</v>
       </c>
-      <c r="F16" s="1">
-        <v>0</v>
+      <c r="F16">
+        <v>0.02155955563384</v>
       </c>
       <c r="G16" s="1">
-        <v>0</v>
+        <v>0.02093910836919</v>
       </c>
       <c r="H16">
         <v>0.85</v>
@@ -5169,7 +5169,7 @@
       <c r="E17" s="5">
         <v>8.313759</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17">
         <v>0.0215758343232551</v>
       </c>
       <c r="G17" s="1">
@@ -5204,7 +5204,7 @@
       <c r="E18" s="5">
         <v>16.364584</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18">
         <v>0.0215897807066604</v>
       </c>
       <c r="G18" s="1">
@@ -5242,10 +5242,9 @@
       <c r="E19" s="5">
         <v>29.162834</v>
       </c>
-      <c r="F19" s="1">
-        <v>0</v>
-      </c>
-      <c r="G19" s="1"/>
+      <c r="F19">
+        <v>0</v>
+      </c>
       <c r="H19">
         <v>0.7</v>
       </c>
@@ -5278,10 +5277,9 @@
       <c r="E20" s="5">
         <v>49.590418</v>
       </c>
-      <c r="F20" s="1">
-        <v>0</v>
-      </c>
-      <c r="G20" s="1"/>
+      <c r="F20">
+        <v>0</v>
+      </c>
       <c r="H20">
         <v>0.65</v>
       </c>
@@ -5314,10 +5312,9 @@
       <c r="E21" s="5">
         <v>81.795232</v>
       </c>
-      <c r="F21" s="1">
-        <v>0</v>
-      </c>
-      <c r="G21" s="1"/>
+      <c r="F21">
+        <v>0</v>
+      </c>
       <c r="H21">
         <v>0.6</v>
       </c>
@@ -5350,10 +5347,9 @@
       <c r="E22" s="5">
         <v>126.264436</v>
       </c>
-      <c r="F22" s="1">
-        <v>0</v>
-      </c>
-      <c r="G22" s="1"/>
+      <c r="F22">
+        <v>0</v>
+      </c>
       <c r="H22">
         <v>0.55</v>
       </c>
@@ -5386,10 +5382,9 @@
       <c r="E23" s="5">
         <v>184.537527</v>
       </c>
-      <c r="F23" s="1">
-        <v>0</v>
-      </c>
-      <c r="G23" s="1"/>
+      <c r="F23">
+        <v>0</v>
+      </c>
       <c r="H23">
         <v>0.5</v>
       </c>
@@ -5422,10 +5417,9 @@
       <c r="E24" s="5">
         <v>278.177108</v>
       </c>
-      <c r="F24" s="1">
-        <v>0</v>
-      </c>
-      <c r="G24" s="1"/>
+      <c r="F24">
+        <v>0</v>
+      </c>
       <c r="H24">
         <v>0.45</v>
       </c>
@@ -5458,10 +5452,9 @@
       <c r="E25" s="5">
         <v>410.94174</v>
       </c>
-      <c r="F25" s="1">
-        <v>0</v>
-      </c>
-      <c r="G25" s="1"/>
+      <c r="F25">
+        <v>0</v>
+      </c>
       <c r="H25">
         <v>0.399999999999999</v>
       </c>
@@ -5477,7 +5470,7 @@
         <v>2.65270029125829</v>
       </c>
     </row>
-    <row r="26" customFormat="1" spans="1:7">
+    <row r="26" customFormat="1" spans="1:6">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -5494,12 +5487,11 @@
       <c r="E26">
         <v>515.291824</v>
       </c>
-      <c r="F26" s="1">
-        <v>0</v>
-      </c>
-      <c r="G26" s="1"/>
-    </row>
-    <row r="27" customFormat="1" spans="1:7">
+      <c r="F26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" customFormat="1" spans="1:6">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -5516,10 +5508,9 @@
       <c r="E27">
         <v>765.428943</v>
       </c>
-      <c r="F27" s="1">
-        <v>0</v>
-      </c>
-      <c r="G27" s="1"/>
+      <c r="F27">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
@@ -7312,7 +7303,7 @@
         <v>72.8132429</v>
       </c>
       <c r="G5">
-        <f>C5*1000/6.022140857E+23*6242000000000000000/32</f>
+        <f t="shared" si="0"/>
         <v>0.0213018644695016</v>
       </c>
     </row>
@@ -10096,8 +10087,8 @@
   <sheetPr/>
   <dimension ref="A1:P30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -10155,7 +10146,7 @@
       <c r="O1">
         <v>69.7034468</v>
       </c>
-      <c r="P1" s="1">
+      <c r="P1">
         <f>L1*1000/6.022140857E+23*6242000000000000000/32</f>
         <v>0.0206405764390277</v>
       </c>
@@ -10201,8 +10192,8 @@
       <c r="O2">
         <v>69.7489777</v>
       </c>
-      <c r="P2" s="1">
-        <f t="shared" ref="P2:P24" si="1">L2*1000/6.022140857E+23*6242000000000000000/32</f>
+      <c r="P2">
+        <f t="shared" ref="P2:P17" si="1">L2*1000/6.022140857E+23*6242000000000000000/32</f>
         <v>0.02066163725461</v>
       </c>
     </row>
@@ -10247,7 +10238,7 @@
       <c r="O3">
         <v>69.8695199</v>
       </c>
-      <c r="P3" s="1">
+      <c r="P3">
         <f t="shared" si="1"/>
         <v>0.0206943201157467</v>
       </c>
@@ -10293,7 +10284,7 @@
       <c r="O4">
         <v>69.9162258</v>
       </c>
-      <c r="P4" s="1">
+      <c r="P4">
         <f t="shared" si="1"/>
         <v>0.0207214062522322</v>
       </c>
@@ -10339,7 +10330,7 @@
       <c r="O5">
         <v>69.979661</v>
       </c>
-      <c r="P5" s="1">
+      <c r="P5">
         <f t="shared" si="1"/>
         <v>0.0207224978899954</v>
       </c>
@@ -10385,7 +10376,7 @@
       <c r="O6">
         <v>70.0883434</v>
       </c>
-      <c r="P6" s="1">
+      <c r="P6">
         <f t="shared" si="1"/>
         <v>0.0207691221463404</v>
       </c>
@@ -10431,7 +10422,7 @@
       <c r="O7">
         <v>70.1277694</v>
       </c>
-      <c r="P7" s="1">
+      <c r="P7">
         <f t="shared" si="1"/>
         <v>0.0207971474890624</v>
       </c>
@@ -10477,7 +10468,7 @@
       <c r="O8">
         <v>70.2405666</v>
       </c>
-      <c r="P8" s="1">
+      <c r="P8">
         <f t="shared" si="1"/>
         <v>0.0208237304654679</v>
       </c>
@@ -10523,7 +10514,7 @@
       <c r="O9">
         <v>70.2904631</v>
       </c>
-      <c r="P9" s="1">
+      <c r="P9">
         <f t="shared" si="1"/>
         <v>0.0208437353704383</v>
       </c>
@@ -10561,15 +10552,15 @@
         <v>64.410948</v>
       </c>
       <c r="M10">
-        <v>16.2603954</v>
+        <v>19.6543974</v>
       </c>
       <c r="N10">
-        <v>25.8250935</v>
+        <v>33.9730094</v>
       </c>
       <c r="O10">
-        <v>75.896144</v>
-      </c>
-      <c r="P10" s="1">
+        <v>70.3072673</v>
+      </c>
+      <c r="P10">
         <f t="shared" si="1"/>
         <v>0.0208632790939217</v>
       </c>
@@ -10581,8 +10572,8 @@
       <c r="B11">
         <v>0</v>
       </c>
-      <c r="C11">
-        <v>72.8132429</v>
+      <c r="C11" s="1">
+        <v>66.4568539</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -10590,12 +10581,12 @@
       <c r="E11">
         <v>0</v>
       </c>
-      <c r="F11">
-        <v>72.8132429</v>
+      <c r="F11" s="1">
+        <v>66.4568539</v>
       </c>
       <c r="G11">
         <f t="shared" si="0"/>
-        <v>0.0235848571636644</v>
+        <v>0.0215259662164836</v>
       </c>
       <c r="J11" t="s">
         <v>71</v>
@@ -10604,20 +10595,20 @@
         <v>300</v>
       </c>
       <c r="L11">
-        <v>71.0180254</v>
+        <v>64.4584079</v>
       </c>
       <c r="M11">
-        <v>16.2603954</v>
+        <v>19.7159907</v>
       </c>
       <c r="N11">
-        <v>25.8250935</v>
+        <v>33.961207</v>
       </c>
       <c r="O11">
-        <v>75.896144</v>
-      </c>
-      <c r="P11" s="1">
+        <v>70.3732051</v>
+      </c>
+      <c r="P11">
         <f t="shared" si="1"/>
-        <v>0.0230033702441303</v>
+        <v>0.0208786517777622</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -10628,7 +10619,7 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>72.8132429</v>
+        <v>66.5169289</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -10637,11 +10628,11 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>72.8132429</v>
+        <v>66.5169289</v>
       </c>
       <c r="G12">
         <f t="shared" si="0"/>
-        <v>0.0235848571636644</v>
+        <v>0.0215454250434452</v>
       </c>
       <c r="J12" t="s">
         <v>72</v>
@@ -10650,20 +10641,20 @@
         <v>300</v>
       </c>
       <c r="L12">
-        <v>71.0180254</v>
+        <v>64.5723638</v>
       </c>
       <c r="M12">
-        <v>16.2603954</v>
+        <v>19.4696597</v>
       </c>
       <c r="N12">
-        <v>25.8250935</v>
+        <v>33.9155843</v>
       </c>
       <c r="O12">
-        <v>75.896144</v>
-      </c>
-      <c r="P12" s="1">
+        <v>70.4132617</v>
+      </c>
+      <c r="P12">
         <f t="shared" si="1"/>
-        <v>0.0230033702441303</v>
+        <v>0.0209155631075892</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -10674,7 +10665,7 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>16.9523193</v>
+        <v>66.5605541</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -10683,11 +10674,11 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>16.9523193</v>
+        <v>66.5605541</v>
       </c>
       <c r="G13">
-        <f>C13*1000/6.022140857E+23*6242000000000000000/32</f>
-        <v>0.00549100703882166</v>
+        <f t="shared" si="0"/>
+        <v>0.02155955563384</v>
       </c>
       <c r="J13" t="s">
         <v>73</v>
@@ -10696,20 +10687,20 @@
         <v>300</v>
       </c>
       <c r="L13">
-        <v>12.406831</v>
+        <v>64.6450548</v>
       </c>
       <c r="M13">
-        <v>34.6858295</v>
+        <v>19.3094941</v>
       </c>
       <c r="N13">
-        <v>39.6022326</v>
+        <v>33.8717367</v>
       </c>
       <c r="O13">
-        <v>22.8125799</v>
-      </c>
-      <c r="P13" s="1">
+        <v>70.437903</v>
+      </c>
+      <c r="P13">
         <f t="shared" si="1"/>
-        <v>0.00401868293918171</v>
+        <v>0.02093910836919</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -10753,7 +10744,7 @@
       <c r="O14">
         <v>70.4709478</v>
       </c>
-      <c r="P14" s="1">
+      <c r="P14">
         <f t="shared" si="1"/>
         <v>0.0209624503779583</v>
       </c>
@@ -10799,7 +10790,7 @@
       <c r="O15">
         <v>70.511915</v>
       </c>
-      <c r="P15" s="1">
+      <c r="P15">
         <f t="shared" si="1"/>
         <v>0.0209664669130575</v>
       </c>
@@ -10845,7 +10836,7 @@
       <c r="O16">
         <v>25.6984069</v>
       </c>
-      <c r="P16" s="1">
+      <c r="P16">
         <f t="shared" si="1"/>
         <v>0.00461725478976537</v>
       </c>
@@ -10891,7 +10882,7 @@
       <c r="O17">
         <v>26.2531421</v>
       </c>
-      <c r="P17" s="1">
+      <c r="P17">
         <f t="shared" si="1"/>
         <v>0.00503998631483895</v>
       </c>
@@ -10937,9 +10928,9 @@
       <c r="O18">
         <v>26.8001405</v>
       </c>
-      <c r="P18" s="1">
-        <f t="shared" si="1"/>
-        <v>0.0054912972288021</v>
+      <c r="P18">
+        <f>M18*1000/6.022140857E+23*6242000000000000000/32</f>
+        <v>0.0106316890177462</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -10983,9 +10974,9 @@
       <c r="O19">
         <v>28.199484</v>
       </c>
-      <c r="P19" s="1">
-        <f t="shared" si="1"/>
-        <v>0.00620429906372207</v>
+      <c r="P19">
+        <f>M19*1000/6.022140857E+23*6242000000000000000/32</f>
+        <v>0.00976588231870462</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -11029,9 +11020,9 @@
       <c r="O20">
         <v>28.5991705</v>
       </c>
-      <c r="P20" s="1">
-        <f t="shared" si="1"/>
-        <v>0.00611771844240424</v>
+      <c r="P20">
+        <f>M20*1000/6.022140857E+23*6242000000000000000/32</f>
+        <v>0.0104860243689498</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -11075,9 +11066,9 @@
       <c r="O21">
         <v>28.5991705</v>
       </c>
-      <c r="P21" s="1">
-        <f t="shared" si="1"/>
-        <v>0.00611771844240424</v>
+      <c r="P21">
+        <f>M21*1000/6.022140857E+23*6242000000000000000/32</f>
+        <v>0.0104860243689498</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -11121,9 +11112,9 @@
       <c r="O22">
         <v>28.5991705</v>
       </c>
-      <c r="P22" s="1">
-        <f t="shared" si="1"/>
-        <v>0.00611771844240424</v>
+      <c r="P22">
+        <f>M22*1000/6.022140857E+23*6242000000000000000/32</f>
+        <v>0.0104860243689498</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -11167,9 +11158,9 @@
       <c r="O23">
         <v>28.5991705</v>
       </c>
-      <c r="P23" s="1">
-        <f t="shared" si="1"/>
-        <v>0.00611771844240424</v>
+      <c r="P23">
+        <f>M23*1000/6.022140857E+23*6242000000000000000/32</f>
+        <v>0.0104860243689498</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -11213,9 +11204,9 @@
       <c r="O24">
         <v>28.5991705</v>
       </c>
-      <c r="P24" s="1">
-        <f t="shared" si="1"/>
-        <v>0.00611771844240424</v>
+      <c r="P24">
+        <f>M24*1000/6.022140857E+23*6242000000000000000/32</f>
+        <v>0.0104860243689498</v>
       </c>
     </row>
     <row r="25" spans="1:15">

--- a/data/data_collection.xlsx
+++ b/data/data_collection.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20145" windowHeight="7395" tabRatio="500" activeTab="1"/>
+    <workbookView windowWidth="20385" windowHeight="9435" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="data11" sheetId="1" r:id="rId1"/>
@@ -141,7 +141,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119">
   <si>
     <t>C(A)</t>
   </si>
@@ -243,6 +243,12 @@
   </si>
   <si>
     <t>F300 from php(eV/atm)</t>
+  </si>
+  <si>
+    <t>E0(kcal/mol)</t>
+  </si>
+  <si>
+    <t>ref</t>
   </si>
   <si>
     <t>./a/OSZICAR:</t>
@@ -523,12 +529,20 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -544,7 +558,105 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -564,112 +676,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -677,6 +683,78 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -692,19 +770,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -716,13 +842,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -734,133 +854,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -874,10 +880,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -901,8 +933,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -925,207 +972,166 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3761,8 +3767,8 @@
   <sheetPr/>
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -3795,11 +3801,11 @@
       <c r="C2">
         <v>-9.29974075</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <f t="shared" ref="D2:D6" si="0">C2+E2</f>
         <v>-9.27877112419782</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
         <v>0.0209696258021805</v>
       </c>
       <c r="I2">
@@ -3817,11 +3823,11 @@
       <c r="C3">
         <v>-9.303271</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <f t="shared" si="0"/>
         <v>-9.28217704928256</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <v>0.0210939507174438</v>
       </c>
       <c r="I3">
@@ -3872,11 +3878,11 @@
       <c r="C6">
         <v>-9.305298</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <f t="shared" si="0"/>
         <v>-9.28401399136472</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <v>0.0212840086352783</v>
       </c>
       <c r="G6">
@@ -3901,11 +3907,11 @@
       <c r="C7">
         <v>-9.30541825</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <f t="shared" ref="D7:D16" si="2">C7+E7</f>
         <v>-9.28414069068237</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <v>0.0212775593176295</v>
       </c>
       <c r="I7">
@@ -3926,7 +3932,7 @@
       <c r="C8">
         <v>-9.305416</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="1">
         <f t="shared" si="2"/>
         <v>-9.2841141355305</v>
       </c>
@@ -3951,11 +3957,11 @@
       <c r="C9">
         <v>-9.305258</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="1">
         <f t="shared" si="2"/>
         <v>-9.28394005617462</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="1">
         <v>0.0213179438253818</v>
       </c>
       <c r="I9">
@@ -3976,7 +3982,7 @@
       <c r="C10">
         <v>-9.30494375</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="1">
         <f t="shared" si="2"/>
         <v>-9.28360454025992</v>
       </c>
@@ -4001,11 +4007,11 @@
       <c r="C11">
         <v>-9.30443575</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="1">
         <f t="shared" si="2"/>
         <v>-9.28085089283634</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="1">
         <v>0.0235848571636644</v>
       </c>
       <c r="G11">
@@ -4033,11 +4039,11 @@
       <c r="C12">
         <v>-9.303711</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="1">
         <f t="shared" si="2"/>
         <v>-9.303711</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="1">
         <v>0</v>
       </c>
       <c r="I12">
@@ -4058,11 +4064,11 @@
       <c r="C13">
         <v>-9.3027445</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="1">
         <f t="shared" si="2"/>
         <v>-9.3027445</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="1">
         <v>0</v>
       </c>
       <c r="I13">
@@ -4083,11 +4089,11 @@
       <c r="C14">
         <v>-9.30149675</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="1">
         <f t="shared" si="2"/>
         <v>-9.30149675</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="1">
         <v>0</v>
       </c>
       <c r="I14">
@@ -4108,11 +4114,11 @@
       <c r="C15">
         <v>-9.29993175</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="1">
         <f t="shared" si="2"/>
         <v>-9.29993175</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="1">
         <v>0</v>
       </c>
       <c r="I15">
@@ -4133,11 +4139,11 @@
       <c r="C16">
         <v>-9.2980065</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="1">
         <f t="shared" si="2"/>
         <v>-9.2765447062902</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="1">
         <v>0.0214617937098034</v>
       </c>
       <c r="G16">
@@ -4189,17 +4195,17 @@
       <c r="A19" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="1">
         <v>6.05316808099999</v>
       </c>
       <c r="C19">
         <v>-9.281312</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="1">
         <f t="shared" ref="D19:D29" si="4">C19+E19</f>
         <v>-9.25981534941733</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="1">
         <v>0.0214966505826721</v>
       </c>
       <c r="G19">
@@ -4214,17 +4220,17 @@
       <c r="A20" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="1">
         <v>5.71688096599999</v>
       </c>
       <c r="C20">
         <v>-9.24699775</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="1">
         <f t="shared" si="4"/>
         <v>-9.22545581578752</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="1">
         <v>0.0215419342124851</v>
       </c>
       <c r="G20">
@@ -4239,17 +4245,17 @@
       <c r="A21" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="1">
         <v>5.38059385</v>
       </c>
       <c r="C21">
         <v>-9.18425575</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="1">
         <f t="shared" si="4"/>
         <v>-9.16266257845306</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="1">
         <v>0.0215931715469442</v>
       </c>
       <c r="G21">
@@ -4264,17 +4270,17 @@
       <c r="A22" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="1">
         <v>5.044306734</v>
       </c>
       <c r="C22">
         <v>-9.07655725</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="1">
         <f t="shared" si="4"/>
         <v>-9.05490492455843</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="1">
         <v>0.0216523254415718</v>
       </c>
       <c r="G22">
@@ -4289,17 +4295,17 @@
       <c r="A23" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="1">
         <v>4.70801961899999</v>
       </c>
       <c r="C23">
         <v>-8.89676175</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="1">
         <f t="shared" si="4"/>
         <v>-8.87509644543177</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="1">
         <v>0.0216653045682302</v>
       </c>
       <c r="G23">
@@ -4314,17 +4320,17 @@
       <c r="A24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="1">
         <v>4.37173250299999</v>
       </c>
       <c r="C24">
         <v>-8.610972</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="1">
         <f t="shared" si="4"/>
         <v>-8.58969112874629</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24" s="1">
         <v>0.021280871253706</v>
       </c>
       <c r="G24">
@@ -4339,17 +4345,17 @@
       <c r="A25" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="1">
         <v>4.035445387</v>
       </c>
       <c r="C25">
         <v>-8.184804</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="1">
         <f t="shared" si="4"/>
         <v>-8.1644223392305</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25" s="1">
         <v>0.0203816607694967</v>
       </c>
       <c r="G25">
@@ -4364,17 +4370,17 @@
       <c r="A26" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="1">
         <v>3.69915827100001</v>
       </c>
       <c r="C26">
         <v>-7.561232</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26" s="1">
         <f t="shared" si="4"/>
         <v>-7.54245840350752</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E26" s="1">
         <v>0.0187735964924786</v>
       </c>
       <c r="G26">
@@ -4389,17 +4395,17 @@
       <c r="A27" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="1">
         <v>3.36287115500002</v>
       </c>
       <c r="C27">
         <v>-6.6218255</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27" s="1">
         <f t="shared" si="4"/>
         <v>-6.60562327498075</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E27" s="1">
         <v>0.0162022250192528</v>
       </c>
       <c r="G27">
@@ -4414,17 +4420,17 @@
       <c r="A28" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="1">
         <v>3.02658403900003</v>
       </c>
       <c r="C28">
         <v>-5.380071</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D28" s="1">
         <f t="shared" si="4"/>
         <v>-5.36397948973004</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E28" s="1">
         <v>0.0160915102699602</v>
       </c>
     </row>
@@ -4432,182 +4438,182 @@
       <c r="A29" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="1">
         <v>2.69029692300004</v>
       </c>
       <c r="C29">
         <v>-3.654861</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D29" s="1">
         <f t="shared" si="4"/>
         <v>-3.63930487592718</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E29" s="1">
         <v>0.0155561240728216</v>
       </c>
     </row>
     <row r="31" spans="2:5">
-      <c r="B31" s="2">
+      <c r="B31" s="1">
         <v>6.05316808099999</v>
       </c>
       <c r="C31">
         <v>-9.281312</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D31" s="1">
         <f t="shared" ref="D31:D41" si="5">C31+E31</f>
         <v>-9.25981534941733</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E31" s="1">
         <v>0.0214966505826721</v>
       </c>
     </row>
     <row r="32" spans="2:5">
-      <c r="B32" s="2">
+      <c r="B32" s="1">
         <v>5.71688096599999</v>
       </c>
       <c r="C32">
         <v>-9.24699775</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D32" s="1">
         <f t="shared" si="5"/>
         <v>-9.22545581578752</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E32" s="1">
         <v>0.0215419342124851</v>
       </c>
     </row>
     <row r="33" spans="2:5">
-      <c r="B33" s="2">
+      <c r="B33" s="1">
         <v>5.38059385</v>
       </c>
       <c r="C33">
         <v>-9.18425575</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D33" s="1">
         <f t="shared" si="5"/>
         <v>-9.16266257845306</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E33" s="1">
         <v>0.0215931715469442</v>
       </c>
     </row>
     <row r="34" spans="2:5">
-      <c r="B34" s="2">
+      <c r="B34" s="1">
         <v>5.044306734</v>
       </c>
       <c r="C34">
         <v>-9.07655725</v>
       </c>
-      <c r="D34" s="2">
+      <c r="D34" s="1">
         <f t="shared" si="5"/>
         <v>-9.05490492455843</v>
       </c>
-      <c r="E34" s="2">
+      <c r="E34" s="1">
         <v>0.0216523254415718</v>
       </c>
     </row>
     <row r="35" spans="2:5">
-      <c r="B35" s="2">
+      <c r="B35" s="1">
         <v>4.70801961899999</v>
       </c>
       <c r="C35">
         <v>-8.89676175</v>
       </c>
-      <c r="D35" s="2">
+      <c r="D35" s="1">
         <f t="shared" si="5"/>
         <v>-8.87509644543177</v>
       </c>
-      <c r="E35" s="2">
+      <c r="E35" s="1">
         <v>0.0216653045682302</v>
       </c>
     </row>
     <row r="36" spans="2:5">
-      <c r="B36" s="2">
+      <c r="B36" s="1">
         <v>4.37173250299999</v>
       </c>
       <c r="C36">
         <v>-8.610972</v>
       </c>
-      <c r="D36" s="2">
+      <c r="D36" s="1">
         <f t="shared" si="5"/>
         <v>-8.58969112874629</v>
       </c>
-      <c r="E36" s="2">
+      <c r="E36" s="1">
         <v>0.021280871253706</v>
       </c>
     </row>
     <row r="37" spans="2:5">
-      <c r="B37" s="2">
+      <c r="B37" s="1">
         <v>4.035445387</v>
       </c>
       <c r="C37">
         <v>-8.184804</v>
       </c>
-      <c r="D37" s="2">
+      <c r="D37" s="1">
         <f t="shared" si="5"/>
         <v>-8.1644223392305</v>
       </c>
-      <c r="E37" s="2">
+      <c r="E37" s="1">
         <v>0.0203816607694967</v>
       </c>
     </row>
     <row r="38" spans="2:5">
-      <c r="B38" s="2">
+      <c r="B38" s="1">
         <v>3.69915827100001</v>
       </c>
       <c r="C38">
         <v>-7.561232</v>
       </c>
-      <c r="D38" s="2">
+      <c r="D38" s="1">
         <f t="shared" si="5"/>
         <v>-7.54245840350752</v>
       </c>
-      <c r="E38" s="2">
+      <c r="E38" s="1">
         <v>0.0187735964924786</v>
       </c>
     </row>
     <row r="39" spans="2:5">
-      <c r="B39" s="2">
+      <c r="B39" s="1">
         <v>3.36287115500002</v>
       </c>
       <c r="C39">
         <v>-6.6218255</v>
       </c>
-      <c r="D39" s="2">
+      <c r="D39" s="1">
         <f t="shared" si="5"/>
         <v>-6.60562327498075</v>
       </c>
-      <c r="E39" s="2">
+      <c r="E39" s="1">
         <v>0.0162022250192528</v>
       </c>
     </row>
     <row r="40" spans="2:5">
-      <c r="B40" s="2">
+      <c r="B40" s="1">
         <v>3.02658403900003</v>
       </c>
       <c r="C40">
         <v>-5.380071</v>
       </c>
-      <c r="D40" s="2">
+      <c r="D40" s="1">
         <f t="shared" si="5"/>
         <v>-5.36397948973004</v>
       </c>
-      <c r="E40" s="2">
+      <c r="E40" s="1">
         <v>0.0160915102699602</v>
       </c>
     </row>
     <row r="41" spans="2:5">
-      <c r="B41" s="2">
+      <c r="B41" s="1">
         <v>2.69029692300004</v>
       </c>
       <c r="C41">
         <v>-3.654861</v>
       </c>
-      <c r="D41" s="2">
+      <c r="D41" s="1">
         <f t="shared" si="5"/>
         <v>-3.63930487592718</v>
       </c>
-      <c r="E41" s="2">
+      <c r="E41" s="1">
         <v>0.0155561240728216</v>
       </c>
     </row>
@@ -4621,10 +4627,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:K36"/>
+  <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4:G18"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4:I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -4633,88 +4639,96 @@
     <col min="3" max="3" width="12.625"/>
     <col min="4" max="5" width="13.75"/>
     <col min="6" max="6" width="12.625"/>
-    <col min="7" max="7" width="12.625"/>
-    <col min="8" max="11" width="12.625"/>
+    <col min="7" max="7" width="21.875" customWidth="1"/>
+    <col min="8" max="9" width="14.2416666666667" customWidth="1"/>
+    <col min="10" max="13" width="12.625"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" spans="1:7">
-      <c r="A1" s="4"/>
-      <c r="B1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="4" t="s">
+    <row r="1" customFormat="1" spans="1:9">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" customFormat="1" spans="2:11">
-      <c r="B2" s="2">
+      <c r="H1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="3"/>
+    </row>
+    <row r="2" customFormat="1" spans="2:13">
+      <c r="B2" s="1">
         <v>7.62651333736756</v>
       </c>
       <c r="C2">
         <v>-9.35571075</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="4">
         <f>C2+F2</f>
         <v>-9.35571075</v>
       </c>
-      <c r="E2" s="5">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2">
+      <c r="E2" s="4">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
         <v>0</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
-      <c r="J2">
+      <c r="L2">
         <v>1.07</v>
       </c>
-      <c r="K2">
-        <f t="shared" ref="K2:K14" si="0">6.6317507281457*J2</f>
+      <c r="M2">
+        <f t="shared" ref="M2:M14" si="0">6.6317507281457*L2</f>
         <v>7.0959732791159</v>
       </c>
     </row>
-    <row r="3" customFormat="1" spans="2:11">
-      <c r="B3" s="2">
+    <row r="3" customFormat="1" spans="2:13">
+      <c r="B3" s="1">
         <v>7.29492580096027</v>
       </c>
       <c r="C3">
         <v>-9.36041425</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <f t="shared" ref="D3:D27" si="1">C3+F3</f>
         <v>-9.36041425</v>
       </c>
-      <c r="E3" s="5">
-        <v>0</v>
-      </c>
-      <c r="F3" s="2">
+      <c r="E3" s="4">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
         <v>0</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
-      <c r="J3">
+      <c r="I3" s="5">
+        <v>-214.676473994638</v>
+      </c>
+      <c r="L3">
         <v>1.06</v>
       </c>
-      <c r="K3">
+      <c r="M3">
         <f t="shared" si="0"/>
         <v>7.02965577183444</v>
       </c>
     </row>
-    <row r="4" customFormat="1" spans="1:11">
+    <row r="4" customFormat="1" spans="1:13">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -4724,31 +4738,39 @@
       <c r="C4">
         <v>-9.36272175</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <f t="shared" si="1"/>
         <v>-9.34142444866186</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="4">
         <v>-1.74798</v>
       </c>
       <c r="F4">
         <v>0.0212973013381394</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4">
         <v>0.0206405764390277</v>
       </c>
       <c r="H4">
+        <f>C4/2.611E+22*6.02*1E+23</f>
+        <v>-215.869723994638</v>
+      </c>
+      <c r="I4">
+        <f>H4+214.676473994638</f>
+        <v>-1.19325000000001</v>
+      </c>
+      <c r="J4">
         <v>0.95</v>
       </c>
-      <c r="J4">
+      <c r="L4">
         <v>1.05</v>
       </c>
-      <c r="K4">
+      <c r="M4">
         <f t="shared" si="0"/>
         <v>6.96333826455299</v>
       </c>
     </row>
-    <row r="5" customFormat="1" spans="1:11">
+    <row r="5" customFormat="1" spans="1:13">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -4758,163 +4780,203 @@
       <c r="C5">
         <v>-9.36334625</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <f t="shared" si="1"/>
         <v>-9.34203116612822</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
         <v>-1.37949</v>
       </c>
       <c r="F5">
         <v>0.0213150838717795</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5">
         <v>0.02066163725461</v>
       </c>
-      <c r="J5">
+      <c r="H5">
+        <f t="shared" ref="H5:H30" si="2">C5/2.611E+22*6.02*1E+23</f>
+        <v>-215.884122654155</v>
+      </c>
+      <c r="I5">
+        <f>H5+214.676473994638</f>
+        <v>-1.20764865951699</v>
+      </c>
+      <c r="L5">
         <v>1.04</v>
       </c>
-      <c r="K5">
+      <c r="M5">
         <f t="shared" si="0"/>
         <v>6.89702075727153</v>
       </c>
     </row>
-    <row r="6" customFormat="1" spans="1:11">
+    <row r="6" customFormat="1" spans="1:13">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>6.96333826455299</v>
       </c>
       <c r="C6">
         <v>-9.36387875</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <f t="shared" si="1"/>
         <v>-9.34252731341168</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="4">
         <v>-0.649711</v>
       </c>
       <c r="F6">
         <v>0.0213514365883235</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6">
         <v>0.0206943201157467</v>
       </c>
-      <c r="J6">
+      <c r="H6">
+        <f t="shared" si="2"/>
+        <v>-215.896400134048</v>
+      </c>
+      <c r="I6">
+        <f t="shared" ref="I6:I18" si="3">H6+214.676473994638</f>
+        <v>-1.21992613941001</v>
+      </c>
+      <c r="L6">
         <v>1.03</v>
       </c>
-      <c r="K6">
+      <c r="M6">
         <f t="shared" si="0"/>
         <v>6.83070324999007</v>
       </c>
     </row>
-    <row r="7" customFormat="1" spans="1:11">
+    <row r="7" customFormat="1" spans="1:13">
       <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>6.89702075727153</v>
       </c>
       <c r="C7">
         <v>-9.364291</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <f t="shared" si="1"/>
         <v>-9.34292050564871</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="4">
         <v>-0.436941</v>
       </c>
       <c r="F7">
         <v>0.0213704943512894</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7">
         <v>0.0207214062522322</v>
       </c>
-      <c r="J7">
+      <c r="H7">
+        <f t="shared" si="2"/>
+        <v>-215.905905093834</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="3"/>
+        <v>-1.22943109919601</v>
+      </c>
+      <c r="L7">
         <v>1.02</v>
       </c>
-      <c r="K7">
+      <c r="M7">
         <f t="shared" si="0"/>
         <v>6.76438574270861</v>
       </c>
     </row>
-    <row r="8" customFormat="1" spans="1:11">
+    <row r="8" customFormat="1" spans="1:13">
       <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>6.83070324999007</v>
       </c>
       <c r="C8">
         <v>-9.36458075</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="4">
         <f t="shared" si="1"/>
         <v>-9.34319526886993</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="4">
         <v>-0.194466</v>
       </c>
       <c r="F8">
         <v>0.0213854811300705</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8">
         <v>0.0207224978899954</v>
       </c>
       <c r="H8">
+        <f t="shared" si="2"/>
+        <v>-215.912585656836</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="3"/>
+        <v>-1.236111662198</v>
+      </c>
+      <c r="J8">
         <f>B10*2</f>
         <v>13.3961364708543</v>
       </c>
-      <c r="J8">
+      <c r="L8">
         <v>1.01</v>
       </c>
-      <c r="K8">
+      <c r="M8">
         <f t="shared" si="0"/>
         <v>6.69806823542716</v>
       </c>
     </row>
-    <row r="9" customFormat="1" spans="1:11">
+    <row r="9" customFormat="1" spans="1:13">
       <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="1">
         <v>6.76438574270861</v>
       </c>
       <c r="C9">
         <v>-9.36471925</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="4">
         <f t="shared" si="1"/>
         <v>-9.34329465155856</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="4">
         <v>0.083872</v>
       </c>
       <c r="F9">
         <v>0.0214245984414376</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9">
         <v>0.0207691221463404</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>-215.915778954424</v>
       </c>
       <c r="I9">
-        <f>6.72574231244026*H9</f>
-        <v>6.72574231244026</v>
+        <f t="shared" si="3"/>
+        <v>-1.23930495978601</v>
       </c>
       <c r="J9">
         <v>1</v>
       </c>
       <c r="K9">
+        <f>6.72574231244026*J9</f>
+        <v>6.72574231244026</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
         <f t="shared" si="0"/>
         <v>6.6317507281457</v>
       </c>
     </row>
-    <row r="10" customFormat="1" spans="1:11">
+    <row r="10" customFormat="1" spans="1:13">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -4924,235 +4986,291 @@
       <c r="C10">
         <v>-9.364684</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="4">
         <f t="shared" si="1"/>
         <v>-9.34324236527863</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="4">
         <v>0.40474</v>
       </c>
       <c r="F10">
         <v>0.0214416347213709</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10">
         <v>0.0207971474890624</v>
       </c>
-      <c r="J10">
+      <c r="H10">
+        <f t="shared" si="2"/>
+        <v>-215.914966219839</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="3"/>
+        <v>-1.23849222520099</v>
+      </c>
+      <c r="L10">
         <v>0.99</v>
       </c>
-      <c r="K10">
+      <c r="M10">
         <f t="shared" si="0"/>
         <v>6.56543322086424</v>
       </c>
     </row>
-    <row r="11" customFormat="1" spans="1:11">
+    <row r="11" customFormat="1" spans="1:13">
       <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="1">
         <v>6.6317507281457</v>
       </c>
       <c r="C11">
         <v>-9.36446125</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="4">
         <f t="shared" si="1"/>
         <v>-9.34298510923149</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="4">
         <v>0.766066</v>
       </c>
       <c r="F11">
         <v>0.0214761407685137</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11">
         <v>0.0208237304654679</v>
       </c>
-      <c r="J11">
+      <c r="H11">
+        <f t="shared" si="2"/>
+        <v>-215.909830428954</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="3"/>
+        <v>-1.23335643431599</v>
+      </c>
+      <c r="L11">
         <v>0.98</v>
       </c>
-      <c r="K11">
+      <c r="M11">
         <f t="shared" si="0"/>
         <v>6.49911571358279</v>
       </c>
     </row>
-    <row r="12" customFormat="1" spans="1:11">
+    <row r="12" customFormat="1" spans="1:13">
       <c r="A12" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="1">
         <v>6.56543322086424</v>
       </c>
       <c r="C12">
         <v>-9.36401425</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="4">
         <f t="shared" si="1"/>
         <v>-9.3425189263749</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="4">
         <v>1.209655</v>
       </c>
       <c r="F12">
         <v>0.0214953236250955</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12">
         <v>0.0208437353704383</v>
       </c>
-      <c r="J12">
+      <c r="H12">
+        <f t="shared" si="2"/>
+        <v>-215.899524262735</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="3"/>
+        <v>-1.22305026809701</v>
+      </c>
+      <c r="L12">
         <v>0.97</v>
       </c>
-      <c r="K12">
+      <c r="M12">
         <f t="shared" si="0"/>
         <v>6.43279820630133</v>
       </c>
     </row>
-    <row r="13" customFormat="1" spans="1:11">
+    <row r="13" customFormat="1" spans="1:13">
       <c r="A13" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="1">
         <v>6.49911571358279</v>
       </c>
       <c r="C13">
         <v>-9.363318</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="4">
         <f t="shared" si="1"/>
         <v>-9.34181344827522</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="4">
         <v>1.650845</v>
       </c>
       <c r="F13">
         <v>0.0215045517247771</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13">
         <v>0.0208632790939217</v>
       </c>
-      <c r="J13">
+      <c r="H13">
+        <f t="shared" si="2"/>
+        <v>-215.883471313673</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="3"/>
+        <v>-1.206997319035</v>
+      </c>
+      <c r="L13">
         <v>0.96</v>
       </c>
-      <c r="K13">
+      <c r="M13">
         <f t="shared" si="0"/>
         <v>6.36648069901987</v>
       </c>
     </row>
-    <row r="14" customFormat="1" spans="1:11">
+    <row r="14" customFormat="1" spans="1:13">
       <c r="A14" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="1">
         <v>6.43279820630133</v>
       </c>
       <c r="C14">
         <v>-9.36232725</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="4">
         <f t="shared" si="1"/>
         <v>-9.34080128378352</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="4">
         <v>2.184954</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14">
         <v>0.0215259662164836</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14">
         <v>0.0208786517777622</v>
       </c>
       <c r="H14">
-        <v>0.95</v>
+        <f t="shared" si="2"/>
+        <v>-215.860628284182</v>
       </c>
       <c r="I14">
-        <f t="shared" ref="I14:I25" si="2">6.72574231244026*H14</f>
-        <v>6.38945519681825</v>
+        <f t="shared" si="3"/>
+        <v>-1.18415428954401</v>
       </c>
       <c r="J14">
         <v>0.95</v>
       </c>
       <c r="K14">
+        <f t="shared" ref="K14:K25" si="4">6.72574231244026*J14</f>
+        <v>6.38945519681825</v>
+      </c>
+      <c r="L14">
+        <v>0.95</v>
+      </c>
+      <c r="M14">
         <f t="shared" si="0"/>
         <v>6.30016319173841</v>
       </c>
     </row>
-    <row r="15" customFormat="1" spans="1:11">
+    <row r="15" customFormat="1" spans="1:13">
       <c r="A15" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="1">
         <v>6.36648069901987</v>
       </c>
       <c r="C15">
         <v>-9.3610255</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="4">
         <f t="shared" si="1"/>
         <v>-9.33948007495655</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="4">
         <v>2.81936</v>
       </c>
       <c r="F15">
         <v>0.0215454250434452</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15">
         <v>0.0209155631075892</v>
       </c>
       <c r="H15">
+        <f t="shared" si="2"/>
+        <v>-215.830614745308</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="3"/>
+        <v>-1.15414075067</v>
+      </c>
+      <c r="J15">
         <v>0.9</v>
       </c>
-      <c r="I15">
-        <f t="shared" si="2"/>
+      <c r="K15">
+        <f t="shared" si="4"/>
         <v>6.05316808119623</v>
       </c>
-      <c r="J15">
+      <c r="L15">
         <v>0.94</v>
       </c>
-      <c r="K15">
-        <f t="shared" ref="K15:K25" si="3">6.6317507281457*J15</f>
+      <c r="M15">
+        <f t="shared" ref="M15:M25" si="5">6.6317507281457*L15</f>
         <v>6.23384568445696</v>
       </c>
     </row>
-    <row r="16" customFormat="1" spans="1:11">
+    <row r="16" customFormat="1" spans="1:13">
       <c r="A16" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="1">
         <v>6.30016319173841</v>
       </c>
       <c r="C16">
         <v>-9.359363</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="4">
         <f t="shared" si="1"/>
         <v>-9.33780344436616</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="4">
         <v>3.470399</v>
       </c>
       <c r="F16">
         <v>0.02155955563384</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G16">
         <v>0.02093910836919</v>
       </c>
       <c r="H16">
+        <f t="shared" si="2"/>
+        <v>-215.792283646113</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="3"/>
+        <v>-1.11580965147499</v>
+      </c>
+      <c r="J16">
         <v>0.85</v>
       </c>
-      <c r="I16">
-        <f t="shared" si="2"/>
+      <c r="K16">
+        <f t="shared" si="4"/>
         <v>5.71688096557422</v>
       </c>
-      <c r="J16">
+      <c r="L16">
         <v>0.93</v>
       </c>
-      <c r="K16">
-        <f t="shared" si="3"/>
+      <c r="M16">
+        <f t="shared" si="5"/>
         <v>6.1675281771755</v>
       </c>
     </row>
-    <row r="17" customFormat="1" spans="1:11">
+    <row r="17" customFormat="1" spans="1:13">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -5162,32 +5280,40 @@
       <c r="C17">
         <v>-9.3572985</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="4">
         <f t="shared" si="1"/>
         <v>-9.33572266567675</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="4">
         <v>8.313759</v>
       </c>
       <c r="F17">
         <v>0.0215758343232551</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G17">
         <v>0.0209624503779583</v>
       </c>
       <c r="H17">
+        <f t="shared" si="2"/>
+        <v>-215.744683914209</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="3"/>
+        <v>-1.06820991957099</v>
+      </c>
+      <c r="J17">
         <v>0.8</v>
       </c>
-      <c r="I17">
-        <f t="shared" si="2"/>
+      <c r="K17">
+        <f t="shared" si="4"/>
         <v>5.38059384995221</v>
       </c>
-      <c r="K17">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" customFormat="1" spans="1:11">
+      <c r="M17">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" customFormat="1" spans="1:13">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -5197,291 +5323,327 @@
       <c r="C18">
         <v>-9.35477725</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="4">
         <f t="shared" si="1"/>
         <v>-9.33318746929334</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="4">
         <v>16.364584</v>
       </c>
       <c r="F18">
         <v>0.0215897807066604</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G18">
         <v>0.0209664669130575</v>
       </c>
       <c r="H18">
-        <v>0.75</v>
+        <f t="shared" si="2"/>
+        <v>-215.686553217158</v>
       </c>
       <c r="I18">
-        <f t="shared" si="2"/>
-        <v>5.04430673433019</v>
+        <f t="shared" si="3"/>
+        <v>-1.01007922252001</v>
       </c>
       <c r="J18">
         <v>0.75</v>
       </c>
       <c r="K18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
+        <v>5.04430673433019</v>
+      </c>
+      <c r="L18">
+        <v>0.75</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="5"/>
         <v>4.97381304610928</v>
       </c>
     </row>
-    <row r="19" customFormat="1" spans="1:11">
+    <row r="19" customFormat="1" spans="1:13">
       <c r="A19" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="1">
         <v>5.96857565533113</v>
       </c>
       <c r="C19">
         <v>-9.3439195</v>
       </c>
-      <c r="D19" s="5">
-        <f t="shared" si="1"/>
+      <c r="D19" s="4">
+        <f t="shared" ref="D19:D30" si="6">C19+F19</f>
         <v>-9.3439195</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="4">
         <v>29.162834</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.7</v>
-      </c>
-      <c r="I19">
         <f t="shared" si="2"/>
-        <v>4.70801961870818</v>
+        <v>-215.436213672922</v>
       </c>
       <c r="J19">
         <v>0.7</v>
       </c>
       <c r="K19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
+        <v>4.70801961870818</v>
+      </c>
+      <c r="L19">
+        <v>0.7</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="5"/>
         <v>4.64222550970199</v>
       </c>
     </row>
-    <row r="20" customFormat="1" spans="1:11">
+    <row r="20" customFormat="1" spans="1:13">
       <c r="A20" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="1">
         <v>5.63698811892385</v>
       </c>
       <c r="C20">
         <v>-9.31057675</v>
       </c>
-      <c r="D20" s="5">
-        <f t="shared" si="1"/>
+      <c r="D20" s="4">
+        <f t="shared" si="6"/>
         <v>-9.31057675</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="4">
         <v>49.590418</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.65</v>
-      </c>
-      <c r="I20">
         <f t="shared" si="2"/>
-        <v>4.37173250308617</v>
+        <v>-214.667453217158</v>
       </c>
       <c r="J20">
         <v>0.65</v>
       </c>
       <c r="K20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
+        <v>4.37173250308617</v>
+      </c>
+      <c r="L20">
+        <v>0.65</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="5"/>
         <v>4.31063797329471</v>
       </c>
     </row>
-    <row r="21" customFormat="1" spans="1:11">
+    <row r="21" customFormat="1" spans="1:13">
       <c r="A21" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="1">
         <v>5.30540058251656</v>
       </c>
       <c r="C21">
         <v>-9.2470915</v>
       </c>
-      <c r="D21" s="5">
-        <f t="shared" si="1"/>
+      <c r="D21" s="4">
+        <f t="shared" si="6"/>
         <v>-9.2470915</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21" s="4">
         <v>81.795232</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.6</v>
-      </c>
-      <c r="I21">
         <f t="shared" si="2"/>
-        <v>4.03544538746416</v>
+        <v>-213.203718230563</v>
       </c>
       <c r="J21">
         <v>0.6</v>
       </c>
       <c r="K21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
+        <v>4.03544538746416</v>
+      </c>
+      <c r="L21">
+        <v>0.6</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="5"/>
         <v>3.97905043688742</v>
       </c>
     </row>
-    <row r="22" customFormat="1" spans="1:11">
+    <row r="22" customFormat="1" spans="1:13">
       <c r="A22" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="1">
         <v>4.97381304610928</v>
       </c>
       <c r="C22">
         <v>-9.13348925</v>
       </c>
-      <c r="D22" s="5">
-        <f t="shared" si="1"/>
+      <c r="D22" s="4">
+        <f t="shared" si="6"/>
         <v>-9.13348925</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22" s="4">
         <v>126.264436</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.55</v>
-      </c>
-      <c r="I22">
         <f t="shared" si="2"/>
-        <v>3.69915827184214</v>
+        <v>-210.584470643432</v>
       </c>
       <c r="J22">
         <v>0.55</v>
       </c>
       <c r="K22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
+        <v>3.69915827184214</v>
+      </c>
+      <c r="L22">
+        <v>0.55</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="5"/>
         <v>3.64746290048014</v>
       </c>
     </row>
-    <row r="23" customFormat="1" spans="1:11">
+    <row r="23" customFormat="1" spans="1:13">
       <c r="A23" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="1">
         <v>4.64222550970199</v>
       </c>
       <c r="C23">
         <v>-8.9380785</v>
       </c>
-      <c r="D23" s="5">
-        <f t="shared" si="1"/>
+      <c r="D23" s="4">
+        <f t="shared" si="6"/>
         <v>-8.9380785</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E23" s="4">
         <v>184.537527</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="H23">
+        <f t="shared" si="2"/>
+        <v>-206.079021715818</v>
+      </c>
+      <c r="J23">
         <v>0.5</v>
       </c>
-      <c r="I23">
-        <f t="shared" si="2"/>
+      <c r="K23">
+        <f t="shared" si="4"/>
         <v>3.36287115622013</v>
       </c>
-      <c r="J23">
+      <c r="L23">
         <v>0.500000000000001</v>
       </c>
-      <c r="K23">
-        <f t="shared" si="3"/>
+      <c r="M23">
+        <f t="shared" si="5"/>
         <v>3.31587536407286</v>
       </c>
     </row>
-    <row r="24" customFormat="1" spans="1:11">
+    <row r="24" customFormat="1" spans="1:13">
       <c r="A24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="1">
         <v>4.31063797329471</v>
       </c>
       <c r="C24">
         <v>-8.63161825</v>
       </c>
-      <c r="D24" s="5">
-        <f t="shared" si="1"/>
+      <c r="D24" s="4">
+        <f t="shared" si="6"/>
         <v>-8.63161825</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E24" s="4">
         <v>278.177108</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="H24">
+        <f t="shared" si="2"/>
+        <v>-199.013182171582</v>
+      </c>
+      <c r="J24">
         <v>0.45</v>
       </c>
-      <c r="I24">
-        <f t="shared" si="2"/>
+      <c r="K24">
+        <f t="shared" si="4"/>
         <v>3.02658404059812</v>
       </c>
-      <c r="J24">
+      <c r="L24">
         <v>0.450000000000001</v>
       </c>
-      <c r="K24">
-        <f t="shared" si="3"/>
+      <c r="M24">
+        <f t="shared" si="5"/>
         <v>2.98428782766557</v>
       </c>
     </row>
-    <row r="25" customFormat="1" spans="1:11">
+    <row r="25" customFormat="1" spans="1:13">
       <c r="A25" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="1">
         <v>3.97905043688742</v>
       </c>
       <c r="C25">
         <v>-8.18573275</v>
       </c>
-      <c r="D25" s="5">
-        <f t="shared" si="1"/>
+      <c r="D25" s="4">
+        <f t="shared" si="6"/>
         <v>-8.18573275</v>
       </c>
-      <c r="E25" s="5">
+      <c r="E25" s="4">
         <v>410.94174</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="H25">
+        <f t="shared" si="2"/>
+        <v>-188.732712198391</v>
+      </c>
+      <c r="J25">
         <v>0.399999999999999</v>
       </c>
-      <c r="I25">
-        <f t="shared" si="2"/>
+      <c r="K25">
+        <f t="shared" si="4"/>
         <v>2.6902969249761</v>
       </c>
-      <c r="J25">
+      <c r="L25">
         <v>0.400000000000001</v>
       </c>
-      <c r="K25">
-        <f t="shared" si="3"/>
+      <c r="M25">
+        <f t="shared" si="5"/>
         <v>2.65270029125829</v>
       </c>
     </row>
-    <row r="26" customFormat="1" spans="1:6">
+    <row r="26" customFormat="1" spans="1:8">
       <c r="A26" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="1">
         <v>3.64746290048014</v>
       </c>
       <c r="C26">
         <v>-7.534209</v>
       </c>
-      <c r="D26" s="5">
-        <f t="shared" si="1"/>
+      <c r="D26" s="4">
+        <f t="shared" si="6"/>
         <v>-7.534209</v>
       </c>
       <c r="E26">
@@ -5490,19 +5652,23 @@
       <c r="F26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" customFormat="1" spans="1:6">
+      <c r="H26">
+        <f t="shared" si="2"/>
+        <v>-173.710984986595</v>
+      </c>
+    </row>
+    <row r="27" customFormat="1" spans="1:8">
       <c r="A27" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="1">
         <v>3.31587536407285</v>
       </c>
       <c r="C27">
         <v>-6.56529875</v>
       </c>
-      <c r="D27" s="5">
-        <f t="shared" si="1"/>
+      <c r="D27" s="4">
+        <f t="shared" si="6"/>
         <v>-6.56529875</v>
       </c>
       <c r="E27">
@@ -5511,49 +5677,82 @@
       <c r="F27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="H27">
+        <f t="shared" si="2"/>
+        <v>-151.371499329759</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="1">
         <v>2.98428782766557</v>
       </c>
       <c r="C28">
         <v>-5.3080285</v>
       </c>
-      <c r="D28">
-        <v>0</v>
+      <c r="D28" s="4">
+        <f t="shared" si="6"/>
+        <v>-5.3080285</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
-      <c r="F28" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+      <c r="F28" s="1">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="2"/>
+        <v>-122.383498927614</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="1">
         <v>2.65270029125828</v>
       </c>
       <c r="C29">
         <v>-3.53590775</v>
       </c>
-      <c r="D29">
-        <v>0</v>
+      <c r="D29" s="4">
+        <f t="shared" si="6"/>
+        <v>-3.53590775</v>
       </c>
       <c r="E29">
         <v>0</v>
       </c>
-      <c r="F29" s="2">
-        <v>0</v>
+      <c r="F29" s="1">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="2"/>
+        <v>-81.5249508042895</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30">
+        <v>-9.310968</v>
+      </c>
+      <c r="D30" s="4">
+        <f t="shared" si="6"/>
+        <v>-9.2921861209303</v>
+      </c>
+      <c r="F30">
+        <v>0.0187818790697002</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="2"/>
+        <v>-214.676473994638</v>
       </c>
     </row>
     <row r="35" spans="2:3">
-      <c r="B35" s="3">
+      <c r="B35" s="2">
         <v>-37.453385</v>
       </c>
       <c r="C35">
@@ -5562,7 +5761,7 @@
       </c>
     </row>
     <row r="36" spans="2:3">
-      <c r="B36" s="3">
+      <c r="B36" s="2">
         <v>-37.450887</v>
       </c>
       <c r="C36">
@@ -5583,7 +5782,7 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I24"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -5600,28 +5799,28 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B1">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="3">
+        <v>37</v>
+      </c>
+      <c r="D1" s="2">
         <v>-37.198963</v>
       </c>
       <c r="E1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F1" s="3">
+        <v>38</v>
+      </c>
+      <c r="F1" s="2">
         <v>-37.198963</v>
       </c>
       <c r="G1" t="s">
         <v>7</v>
       </c>
       <c r="H1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I1">
         <f t="shared" ref="I1:I9" si="0">F1/4</f>
@@ -5630,28 +5829,28 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" s="3">
+        <v>37</v>
+      </c>
+      <c r="D2" s="2">
         <v>-37.213084</v>
       </c>
       <c r="E2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" s="3">
+        <v>38</v>
+      </c>
+      <c r="F2" s="2">
         <v>-37.213084</v>
       </c>
       <c r="G2" t="s">
         <v>7</v>
       </c>
       <c r="H2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I2">
         <f t="shared" si="0"/>
@@ -5660,28 +5859,28 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="3">
+        <v>37</v>
+      </c>
+      <c r="D3" s="2">
         <v>-37.221192</v>
       </c>
       <c r="E3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3" s="3">
+        <v>38</v>
+      </c>
+      <c r="F3" s="2">
         <v>-37.221192</v>
       </c>
       <c r="G3" t="s">
         <v>7</v>
       </c>
       <c r="H3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I3">
         <f t="shared" si="0"/>
@@ -5690,28 +5889,28 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="3">
+        <v>37</v>
+      </c>
+      <c r="D4" s="2">
         <v>-37.221673</v>
       </c>
       <c r="E4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" s="3">
+        <v>38</v>
+      </c>
+      <c r="F4" s="2">
         <v>-37.221673</v>
       </c>
       <c r="G4" t="s">
         <v>7</v>
       </c>
       <c r="H4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I4">
         <f t="shared" si="0"/>
@@ -5720,28 +5919,28 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="3">
+        <v>37</v>
+      </c>
+      <c r="D5" s="2">
         <v>-37.221664</v>
       </c>
       <c r="E5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" s="3">
+        <v>38</v>
+      </c>
+      <c r="F5" s="2">
         <v>-37.221664</v>
       </c>
       <c r="G5" t="s">
         <v>7</v>
       </c>
       <c r="H5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I5">
         <f t="shared" si="0"/>
@@ -5750,28 +5949,28 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="3">
+        <v>37</v>
+      </c>
+      <c r="D6" s="2">
         <v>-37.221032</v>
       </c>
       <c r="E6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" s="3">
+        <v>38</v>
+      </c>
+      <c r="F6" s="2">
         <v>-37.221032</v>
       </c>
       <c r="G6" t="s">
         <v>7</v>
       </c>
       <c r="H6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I6">
         <f t="shared" si="0"/>
@@ -5780,28 +5979,28 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="3">
+        <v>37</v>
+      </c>
+      <c r="D7" s="2">
         <v>-37.219775</v>
       </c>
       <c r="E7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" s="3">
+        <v>38</v>
+      </c>
+      <c r="F7" s="2">
         <v>-37.219775</v>
       </c>
       <c r="G7" t="s">
         <v>7</v>
       </c>
       <c r="H7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I7">
         <f t="shared" si="0"/>
@@ -5810,28 +6009,28 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" s="3">
+        <v>37</v>
+      </c>
+      <c r="D8" s="2">
         <v>-37.217743</v>
       </c>
       <c r="E8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8" s="3">
+        <v>38</v>
+      </c>
+      <c r="F8" s="2">
         <v>-37.217743</v>
       </c>
       <c r="G8" t="s">
         <v>7</v>
       </c>
       <c r="H8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I8">
         <f t="shared" si="0"/>
@@ -5840,28 +6039,28 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="3">
+        <v>37</v>
+      </c>
+      <c r="D9" s="2">
         <v>-37.214844</v>
       </c>
       <c r="E9" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" s="3">
+        <v>38</v>
+      </c>
+      <c r="F9" s="2">
         <v>-37.214844</v>
       </c>
       <c r="G9" t="s">
         <v>7</v>
       </c>
       <c r="H9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I9">
         <f t="shared" si="0"/>
@@ -5870,28 +6069,28 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="3">
+        <v>37</v>
+      </c>
+      <c r="D10" s="2">
         <v>-37.210978</v>
       </c>
       <c r="E10" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10" s="3">
+        <v>38</v>
+      </c>
+      <c r="F10" s="2">
         <v>-37.210978</v>
       </c>
       <c r="G10" t="s">
         <v>7</v>
       </c>
       <c r="H10" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I10">
         <f t="shared" ref="I10:I24" si="1">F10/4</f>
@@ -5900,28 +6099,28 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="3">
+        <v>37</v>
+      </c>
+      <c r="D11" s="2">
         <v>-37.205987</v>
       </c>
       <c r="E11" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" s="3">
+        <v>38</v>
+      </c>
+      <c r="F11" s="2">
         <v>-37.205987</v>
       </c>
       <c r="G11" t="s">
         <v>7</v>
       </c>
       <c r="H11" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I11">
         <f t="shared" si="1"/>
@@ -5930,28 +6129,28 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="3">
+        <v>37</v>
+      </c>
+      <c r="D12" s="2">
         <v>-37.199727</v>
       </c>
       <c r="E12" t="s">
-        <v>36</v>
-      </c>
-      <c r="F12" s="3">
+        <v>38</v>
+      </c>
+      <c r="F12" s="2">
         <v>-37.199727</v>
       </c>
       <c r="G12" t="s">
         <v>7</v>
       </c>
       <c r="H12" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I12">
         <f t="shared" si="1"/>
@@ -5960,28 +6159,28 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="3">
+        <v>37</v>
+      </c>
+      <c r="D13" s="2">
         <v>-37.192026</v>
       </c>
       <c r="E13" t="s">
-        <v>36</v>
-      </c>
-      <c r="F13" s="3">
+        <v>38</v>
+      </c>
+      <c r="F13" s="2">
         <v>-37.192026</v>
       </c>
       <c r="G13" t="s">
         <v>7</v>
       </c>
       <c r="H13" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I13">
         <f t="shared" si="1"/>
@@ -5990,28 +6189,28 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="3">
+        <v>37</v>
+      </c>
+      <c r="D14" s="2">
         <v>-37.125248</v>
       </c>
       <c r="E14" t="s">
-        <v>36</v>
-      </c>
-      <c r="F14" s="3">
+        <v>38</v>
+      </c>
+      <c r="F14" s="2">
         <v>-37.125248</v>
       </c>
       <c r="G14" t="s">
         <v>7</v>
       </c>
       <c r="H14" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I14">
         <f t="shared" si="1"/>
@@ -6020,28 +6219,28 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" s="3">
+        <v>37</v>
+      </c>
+      <c r="D15" s="2">
         <v>-36.987991</v>
       </c>
       <c r="E15" t="s">
-        <v>36</v>
-      </c>
-      <c r="F15" s="3">
+        <v>38</v>
+      </c>
+      <c r="F15" s="2">
         <v>-36.987991</v>
       </c>
       <c r="G15" t="s">
         <v>7</v>
       </c>
       <c r="H15" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I15">
         <f t="shared" si="1"/>
@@ -6050,28 +6249,28 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" s="3">
+        <v>37</v>
+      </c>
+      <c r="D16" s="2">
         <v>-36.737023</v>
       </c>
       <c r="E16" t="s">
-        <v>36</v>
-      </c>
-      <c r="F16" s="3">
+        <v>38</v>
+      </c>
+      <c r="F16" s="2">
         <v>-36.737023</v>
       </c>
       <c r="G16" t="s">
         <v>7</v>
       </c>
       <c r="H16" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I16">
         <f t="shared" si="1"/>
@@ -6080,28 +6279,28 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" s="3">
+        <v>37</v>
+      </c>
+      <c r="D17" s="2">
         <v>-36.306229</v>
       </c>
       <c r="E17" t="s">
-        <v>36</v>
-      </c>
-      <c r="F17" s="3">
+        <v>38</v>
+      </c>
+      <c r="F17" s="2">
         <v>-36.306229</v>
       </c>
       <c r="G17" t="s">
         <v>7</v>
       </c>
       <c r="H17" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I17">
         <f t="shared" si="1"/>
@@ -6110,28 +6309,28 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18" s="3">
+        <v>37</v>
+      </c>
+      <c r="D18" s="2">
         <v>-35.587047</v>
       </c>
       <c r="E18" t="s">
-        <v>36</v>
-      </c>
-      <c r="F18" s="3">
+        <v>38</v>
+      </c>
+      <c r="F18" s="2">
         <v>-35.587047</v>
       </c>
       <c r="G18" t="s">
         <v>7</v>
       </c>
       <c r="H18" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I18">
         <f t="shared" si="1"/>
@@ -6140,28 +6339,28 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>35</v>
-      </c>
-      <c r="D19" s="3">
+        <v>37</v>
+      </c>
+      <c r="D19" s="2">
         <v>-34.443888</v>
       </c>
       <c r="E19" t="s">
-        <v>36</v>
-      </c>
-      <c r="F19" s="3">
+        <v>38</v>
+      </c>
+      <c r="F19" s="2">
         <v>-34.443888</v>
       </c>
       <c r="G19" t="s">
         <v>7</v>
       </c>
       <c r="H19" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I19">
         <f t="shared" si="1"/>
@@ -6170,28 +6369,28 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>35</v>
-      </c>
-      <c r="D20" s="3">
+        <v>37</v>
+      </c>
+      <c r="D20" s="2">
         <v>-32.739216</v>
       </c>
       <c r="E20" t="s">
-        <v>36</v>
-      </c>
-      <c r="F20" s="3">
+        <v>38</v>
+      </c>
+      <c r="F20" s="2">
         <v>-32.739216</v>
       </c>
       <c r="G20" t="s">
         <v>7</v>
       </c>
       <c r="H20" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I20">
         <f t="shared" si="1"/>
@@ -6200,28 +6399,28 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>35</v>
-      </c>
-      <c r="D21" s="3">
+        <v>37</v>
+      </c>
+      <c r="D21" s="2">
         <v>-30.244928</v>
       </c>
       <c r="E21" t="s">
-        <v>36</v>
-      </c>
-      <c r="F21" s="3">
+        <v>38</v>
+      </c>
+      <c r="F21" s="2">
         <v>-30.244928</v>
       </c>
       <c r="G21" t="s">
         <v>7</v>
       </c>
       <c r="H21" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I21">
         <f t="shared" si="1"/>
@@ -6230,28 +6429,28 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D22" s="3">
+        <v>37</v>
+      </c>
+      <c r="D22" s="2">
         <v>-26.487302</v>
       </c>
       <c r="E22" t="s">
-        <v>36</v>
-      </c>
-      <c r="F22" s="3">
+        <v>38</v>
+      </c>
+      <c r="F22" s="2">
         <v>-26.487302</v>
       </c>
       <c r="G22" t="s">
         <v>7</v>
       </c>
       <c r="H22" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I22">
         <f t="shared" si="1"/>
@@ -6260,28 +6459,28 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>35</v>
-      </c>
-      <c r="D23" s="3">
+        <v>37</v>
+      </c>
+      <c r="D23" s="2">
         <v>-21.520284</v>
       </c>
       <c r="E23" t="s">
-        <v>36</v>
-      </c>
-      <c r="F23" s="3">
+        <v>38</v>
+      </c>
+      <c r="F23" s="2">
         <v>-21.520284</v>
       </c>
       <c r="G23" t="s">
         <v>7</v>
       </c>
       <c r="H23" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I23">
         <f t="shared" si="1"/>
@@ -6290,28 +6489,28 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B24">
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>35</v>
-      </c>
-      <c r="D24" s="3">
+        <v>37</v>
+      </c>
+      <c r="D24" s="2">
         <v>-14.619444</v>
       </c>
       <c r="E24" t="s">
-        <v>36</v>
-      </c>
-      <c r="F24" s="3">
+        <v>38</v>
+      </c>
+      <c r="F24" s="2">
         <v>-14.619444</v>
       </c>
       <c r="G24" t="s">
         <v>7</v>
       </c>
       <c r="H24" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I24">
         <f t="shared" si="1"/>
@@ -6348,28 +6547,28 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B1">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="3">
+        <v>37</v>
+      </c>
+      <c r="D1" s="2">
         <v>-37.422843</v>
       </c>
       <c r="E1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F1" s="3">
+        <v>38</v>
+      </c>
+      <c r="F1" s="2">
         <v>-37.422843</v>
       </c>
       <c r="G1" t="s">
         <v>7</v>
       </c>
       <c r="H1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I1">
         <f>D1/4</f>
@@ -6382,28 +6581,28 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" s="3">
+        <v>37</v>
+      </c>
+      <c r="D2" s="2">
         <v>-37.441657</v>
       </c>
       <c r="E2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" s="3">
+        <v>38</v>
+      </c>
+      <c r="F2" s="2">
         <v>-37.441657</v>
       </c>
       <c r="G2" t="s">
         <v>7</v>
       </c>
       <c r="H2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I2">
         <f>-37.4417</f>
@@ -6416,28 +6615,28 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="3">
+        <v>37</v>
+      </c>
+      <c r="D3" s="2">
         <v>-37.455515</v>
       </c>
       <c r="E3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3" s="3">
+        <v>38</v>
+      </c>
+      <c r="F3" s="2">
         <v>-37.455515</v>
       </c>
       <c r="G3" t="s">
         <v>7</v>
       </c>
       <c r="H3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I3">
         <f>-37.4555</f>
@@ -6450,28 +6649,28 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="3">
+        <v>37</v>
+      </c>
+      <c r="D4" s="2">
         <v>-37.457164</v>
       </c>
       <c r="E4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" s="3">
+        <v>38</v>
+      </c>
+      <c r="F4" s="2">
         <v>-37.457164</v>
       </c>
       <c r="G4" t="s">
         <v>7</v>
       </c>
       <c r="H4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I4">
         <f>-37.4572</f>
@@ -6484,28 +6683,28 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="3">
+        <v>37</v>
+      </c>
+      <c r="D5" s="2">
         <v>-37.458323</v>
       </c>
       <c r="E5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" s="3">
+        <v>38</v>
+      </c>
+      <c r="F5" s="2">
         <v>-37.458323</v>
       </c>
       <c r="G5" t="s">
         <v>7</v>
       </c>
       <c r="H5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I5">
         <f>-37.4583</f>
@@ -6518,28 +6717,28 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="3">
+        <v>37</v>
+      </c>
+      <c r="D6" s="2">
         <v>-37.458877</v>
       </c>
       <c r="E6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" s="3">
+        <v>38</v>
+      </c>
+      <c r="F6" s="2">
         <v>-37.458877</v>
       </c>
       <c r="G6" t="s">
         <v>7</v>
       </c>
       <c r="H6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I6">
         <f>-37.4589</f>
@@ -6552,28 +6751,28 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="3">
+        <v>37</v>
+      </c>
+      <c r="D7" s="2">
         <v>-37.458736</v>
       </c>
       <c r="E7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" s="3">
+        <v>38</v>
+      </c>
+      <c r="F7" s="2">
         <v>-37.458736</v>
       </c>
       <c r="G7" t="s">
         <v>7</v>
       </c>
       <c r="H7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I7">
         <f>-37.4587</f>
@@ -6586,28 +6785,28 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" s="3">
+        <v>37</v>
+      </c>
+      <c r="D8" s="2">
         <v>-37.457845</v>
       </c>
       <c r="E8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8" s="3">
+        <v>38</v>
+      </c>
+      <c r="F8" s="2">
         <v>-37.457845</v>
       </c>
       <c r="G8" t="s">
         <v>7</v>
       </c>
       <c r="H8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I8">
         <f>-37.4578</f>
@@ -6620,28 +6819,28 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="3">
+        <v>37</v>
+      </c>
+      <c r="D9" s="2">
         <v>-37.456057</v>
       </c>
       <c r="E9" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" s="3">
+        <v>38</v>
+      </c>
+      <c r="F9" s="2">
         <v>-37.456057</v>
       </c>
       <c r="G9" t="s">
         <v>7</v>
       </c>
       <c r="H9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I9">
         <f>-37.4561</f>
@@ -6654,28 +6853,28 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="3">
+        <v>37</v>
+      </c>
+      <c r="D10" s="2">
         <v>-37.453272</v>
       </c>
       <c r="E10" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10" s="3">
+        <v>38</v>
+      </c>
+      <c r="F10" s="2">
         <v>-37.453272</v>
       </c>
       <c r="G10" t="s">
         <v>7</v>
       </c>
       <c r="H10" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I10">
         <f>-37.4533</f>
@@ -6688,28 +6887,28 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="3">
+        <v>37</v>
+      </c>
+      <c r="D11" s="2">
         <v>-37.449309</v>
       </c>
       <c r="E11" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" s="3">
+        <v>38</v>
+      </c>
+      <c r="F11" s="2">
         <v>-37.449309</v>
       </c>
       <c r="G11" t="s">
         <v>7</v>
       </c>
       <c r="H11" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I11">
         <f>-37.4493</f>
@@ -6722,28 +6921,28 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="3">
+        <v>37</v>
+      </c>
+      <c r="D12" s="2">
         <v>-37.444102</v>
       </c>
       <c r="E12" t="s">
-        <v>36</v>
-      </c>
-      <c r="F12" s="3">
+        <v>38</v>
+      </c>
+      <c r="F12" s="2">
         <v>-37.444102</v>
       </c>
       <c r="G12" t="s">
         <v>7</v>
       </c>
       <c r="H12" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I12">
         <f>-37.4441</f>
@@ -6756,28 +6955,28 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="3">
+        <v>37</v>
+      </c>
+      <c r="D13" s="2">
         <v>-37.437452</v>
       </c>
       <c r="E13" t="s">
-        <v>36</v>
-      </c>
-      <c r="F13" s="3">
+        <v>38</v>
+      </c>
+      <c r="F13" s="2">
         <v>-37.437452</v>
       </c>
       <c r="G13" t="s">
         <v>7</v>
       </c>
       <c r="H13" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I13">
         <f>-37.4375</f>
@@ -6790,28 +6989,28 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="3">
+        <v>37</v>
+      </c>
+      <c r="D14" s="2">
         <v>-37.375678</v>
       </c>
       <c r="E14" t="s">
-        <v>36</v>
-      </c>
-      <c r="F14" s="3">
+        <v>38</v>
+      </c>
+      <c r="F14" s="2">
         <v>-37.375678</v>
       </c>
       <c r="G14" t="s">
         <v>7</v>
       </c>
       <c r="H14" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I14">
         <f>-37.3757</f>
@@ -6824,28 +7023,28 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" s="3">
+        <v>37</v>
+      </c>
+      <c r="D15" s="2">
         <v>-37.242307</v>
       </c>
       <c r="E15" t="s">
-        <v>36</v>
-      </c>
-      <c r="F15" s="3">
+        <v>38</v>
+      </c>
+      <c r="F15" s="2">
         <v>-37.242307</v>
       </c>
       <c r="G15" t="s">
         <v>7</v>
       </c>
       <c r="H15" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I15">
         <f>-37.2423</f>
@@ -6858,28 +7057,28 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" s="3">
+        <v>37</v>
+      </c>
+      <c r="D16" s="2">
         <v>-36.988366</v>
       </c>
       <c r="E16" t="s">
-        <v>36</v>
-      </c>
-      <c r="F16" s="3">
+        <v>38</v>
+      </c>
+      <c r="F16" s="2">
         <v>-36.988366</v>
       </c>
       <c r="G16" t="s">
         <v>7</v>
       </c>
       <c r="H16" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I16">
         <f>-36.9884</f>
@@ -6892,28 +7091,28 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" s="3">
+        <v>37</v>
+      </c>
+      <c r="D17" s="2">
         <v>-36.533957</v>
       </c>
       <c r="E17" t="s">
-        <v>36</v>
-      </c>
-      <c r="F17" s="3">
+        <v>38</v>
+      </c>
+      <c r="F17" s="2">
         <v>-36.533957</v>
       </c>
       <c r="G17" t="s">
         <v>7</v>
       </c>
       <c r="H17" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I17">
         <f>-36.534</f>
@@ -6926,28 +7125,28 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18" s="3">
+        <v>37</v>
+      </c>
+      <c r="D18" s="2">
         <v>-35.752314</v>
       </c>
       <c r="E18" t="s">
-        <v>36</v>
-      </c>
-      <c r="F18" s="3">
+        <v>38</v>
+      </c>
+      <c r="F18" s="2">
         <v>-35.752314</v>
       </c>
       <c r="G18" t="s">
         <v>7</v>
       </c>
       <c r="H18" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I18">
         <f>-35.7523</f>
@@ -6960,28 +7159,28 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>35</v>
-      </c>
-      <c r="D19" s="3">
+        <v>37</v>
+      </c>
+      <c r="D19" s="2">
         <v>-34.526473</v>
       </c>
       <c r="E19" t="s">
-        <v>36</v>
-      </c>
-      <c r="F19" s="3">
+        <v>38</v>
+      </c>
+      <c r="F19" s="2">
         <v>-34.526473</v>
       </c>
       <c r="G19" t="s">
         <v>7</v>
       </c>
       <c r="H19" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I19">
         <f>-34.5265</f>
@@ -6994,28 +7193,28 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B20">
         <v>3</v>
       </c>
       <c r="C20" t="s">
-        <v>35</v>
-      </c>
-      <c r="D20" s="3">
+        <v>37</v>
+      </c>
+      <c r="D20" s="2">
         <v>-32.742931</v>
       </c>
       <c r="E20" t="s">
-        <v>36</v>
-      </c>
-      <c r="F20" s="3">
+        <v>38</v>
+      </c>
+      <c r="F20" s="2">
         <v>-32.742931</v>
       </c>
       <c r="G20" t="s">
         <v>7</v>
       </c>
       <c r="H20" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I20">
         <f>-0.0000126502</f>
@@ -7028,28 +7227,28 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B21">
         <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>35</v>
-      </c>
-      <c r="D21" s="3">
+        <v>37</v>
+      </c>
+      <c r="D21" s="2">
         <v>-30.136836</v>
       </c>
       <c r="E21" t="s">
-        <v>36</v>
-      </c>
-      <c r="F21" s="3">
+        <v>38</v>
+      </c>
+      <c r="F21" s="2">
         <v>-30.136836</v>
       </c>
       <c r="G21" t="s">
         <v>7</v>
       </c>
       <c r="H21" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I21">
         <f>-0.0000235889</f>
@@ -7062,28 +7261,28 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D22" s="3">
+        <v>37</v>
+      </c>
+      <c r="D22" s="2">
         <v>-26.261195</v>
       </c>
       <c r="E22" t="s">
-        <v>36</v>
-      </c>
-      <c r="F22" s="3">
+        <v>38</v>
+      </c>
+      <c r="F22" s="2">
         <v>-26.261195</v>
       </c>
       <c r="G22" t="s">
         <v>7</v>
       </c>
       <c r="H22" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I22">
         <f>-26.2612</f>
@@ -7096,28 +7295,28 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B23">
         <v>3</v>
       </c>
       <c r="C23" t="s">
-        <v>35</v>
-      </c>
-      <c r="D23" s="3">
+        <v>37</v>
+      </c>
+      <c r="D23" s="2">
         <v>-21.232114</v>
       </c>
       <c r="E23" t="s">
-        <v>36</v>
-      </c>
-      <c r="F23" s="3">
+        <v>38</v>
+      </c>
+      <c r="F23" s="2">
         <v>-21.232114</v>
       </c>
       <c r="G23" t="s">
         <v>7</v>
       </c>
       <c r="H23" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I23">
         <f>-0.000143453</f>
@@ -7130,28 +7329,28 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B24">
         <v>3</v>
       </c>
       <c r="C24" t="s">
-        <v>35</v>
-      </c>
-      <c r="D24" s="3">
+        <v>37</v>
+      </c>
+      <c r="D24" s="2">
         <v>-14.143631</v>
       </c>
       <c r="E24" t="s">
-        <v>36</v>
-      </c>
-      <c r="F24" s="3">
+        <v>38</v>
+      </c>
+      <c r="F24" s="2">
         <v>-14.143631</v>
       </c>
       <c r="G24" t="s">
         <v>7</v>
       </c>
       <c r="H24" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I24">
         <f>-0.0000603664</f>
@@ -7171,10 +7370,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="6"/>
@@ -7189,7 +7388,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -7213,7 +7412,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -7237,7 +7436,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -7261,7 +7460,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -7285,7 +7484,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -7309,7 +7508,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -7333,7 +7532,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -7357,7 +7556,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -7381,7 +7580,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -7405,7 +7604,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -7429,7 +7628,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -7453,7 +7652,7 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -7477,7 +7676,7 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -7501,7 +7700,7 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -7525,7 +7724,7 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -7549,7 +7748,7 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -7573,7 +7772,7 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -7597,7 +7796,7 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -7621,7 +7820,7 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -7645,7 +7844,7 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -7669,7 +7868,7 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -7693,7 +7892,7 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -7717,7 +7916,7 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -7741,7 +7940,7 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -7761,6 +7960,15 @@
       <c r="G24">
         <f t="shared" si="0"/>
         <v>0.0155561240728216</v>
+      </c>
+    </row>
+    <row r="25" spans="3:7">
+      <c r="C25">
+        <v>28.9925335</v>
+      </c>
+      <c r="G25">
+        <f>C25*1000/6.022140857E+23*6242000000000000000/16</f>
+        <v>0.0187818790697002</v>
       </c>
     </row>
   </sheetData>
@@ -7772,10 +7980,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:T24"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="T1" sqref="T1:T24"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -7799,28 +8007,28 @@
   <sheetData>
     <row r="1" spans="1:20">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B1">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="3">
+        <v>37</v>
+      </c>
+      <c r="D1" s="2">
         <v>-37.198963</v>
       </c>
       <c r="E1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F1" s="3">
+        <v>38</v>
+      </c>
+      <c r="F1" s="2">
         <v>-37.198963</v>
       </c>
       <c r="G1" t="s">
         <v>7</v>
       </c>
       <c r="H1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I1">
         <f>-37.199</f>
@@ -7831,13 +8039,13 @@
         <v>-9.29974075</v>
       </c>
       <c r="K1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="N1">
         <v>-2.70814</v>
@@ -7864,28 +8072,28 @@
     </row>
     <row r="2" spans="1:20">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" s="3">
+        <v>37</v>
+      </c>
+      <c r="D2" s="2">
         <v>-37.213084</v>
       </c>
       <c r="E2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" s="3">
+        <v>38</v>
+      </c>
+      <c r="F2" s="2">
         <v>-37.213084</v>
       </c>
       <c r="G2" t="s">
         <v>7</v>
       </c>
       <c r="H2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I2">
         <f>-37.2131</f>
@@ -7896,13 +8104,13 @@
         <v>-9.303271</v>
       </c>
       <c r="K2" t="s">
+        <v>90</v>
+      </c>
+      <c r="L2" t="s">
         <v>88</v>
       </c>
-      <c r="L2" t="s">
-        <v>86</v>
-      </c>
       <c r="M2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="N2">
         <v>-3.40202</v>
@@ -7929,41 +8137,45 @@
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="3">
+        <v>37</v>
+      </c>
+      <c r="D3" s="2">
         <v>-37.221192</v>
       </c>
       <c r="E3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3" s="3">
+        <v>38</v>
+      </c>
+      <c r="F3" s="2">
         <v>-37.221192</v>
       </c>
       <c r="G3" t="s">
         <v>7</v>
       </c>
       <c r="H3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I3">
         <f>-37.2212</f>
         <v>-37.2212</v>
       </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J25" si="1">F3/4</f>
+        <v>-9.305298</v>
+      </c>
       <c r="K3" t="s">
+        <v>91</v>
+      </c>
+      <c r="L3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M3" t="s">
         <v>89</v>
-      </c>
-      <c r="L3" t="s">
-        <v>86</v>
-      </c>
-      <c r="M3" t="s">
-        <v>87</v>
       </c>
       <c r="N3">
         <v>-4.50753</v>
@@ -7990,41 +8202,45 @@
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="3">
+        <v>37</v>
+      </c>
+      <c r="D4" s="2">
         <v>-37.221673</v>
       </c>
       <c r="E4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" s="3">
+        <v>38</v>
+      </c>
+      <c r="F4" s="2">
         <v>-37.221673</v>
       </c>
       <c r="G4" t="s">
         <v>7</v>
       </c>
       <c r="H4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I4">
         <f>-37.2217</f>
         <v>-37.2217</v>
       </c>
+      <c r="J4">
+        <f t="shared" si="1"/>
+        <v>-9.30541825</v>
+      </c>
       <c r="K4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="N4">
         <v>-4.78273</v>
@@ -8051,41 +8267,45 @@
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="3">
+        <v>37</v>
+      </c>
+      <c r="D5" s="2">
         <v>-37.221664</v>
       </c>
       <c r="E5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" s="3">
+        <v>38</v>
+      </c>
+      <c r="F5" s="2">
         <v>-37.221664</v>
       </c>
       <c r="G5" t="s">
         <v>7</v>
       </c>
       <c r="H5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I5">
         <f>-37.2217</f>
         <v>-37.2217</v>
       </c>
+      <c r="J5">
+        <f t="shared" si="1"/>
+        <v>-9.305416</v>
+      </c>
       <c r="K5" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="N5">
         <v>-5.08591</v>
@@ -8112,41 +8332,45 @@
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="3">
+        <v>37</v>
+      </c>
+      <c r="D6" s="2">
         <v>-37.221032</v>
       </c>
       <c r="E6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" s="3">
+        <v>38</v>
+      </c>
+      <c r="F6" s="2">
         <v>-37.221032</v>
       </c>
       <c r="G6" t="s">
         <v>7</v>
       </c>
       <c r="H6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I6">
         <f>-37.221</f>
         <v>-37.221</v>
       </c>
+      <c r="J6">
+        <f t="shared" si="1"/>
+        <v>-9.305258</v>
+      </c>
       <c r="K6" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M6" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="N6">
         <v>-5.40348</v>
@@ -8173,41 +8397,45 @@
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="3">
+        <v>37</v>
+      </c>
+      <c r="D7" s="2">
         <v>-37.219775</v>
       </c>
       <c r="E7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" s="3">
+        <v>38</v>
+      </c>
+      <c r="F7" s="2">
         <v>-37.219775</v>
       </c>
       <c r="G7" t="s">
         <v>7</v>
       </c>
       <c r="H7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I7">
         <f>-37.2198</f>
         <v>-37.2198</v>
       </c>
+      <c r="J7">
+        <f t="shared" si="1"/>
+        <v>-9.30494375</v>
+      </c>
       <c r="K7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="L7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="N7">
         <v>-5.75432</v>
@@ -8234,41 +8462,45 @@
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" s="3">
+        <v>37</v>
+      </c>
+      <c r="D8" s="2">
         <v>-37.217743</v>
       </c>
       <c r="E8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8" s="3">
+        <v>38</v>
+      </c>
+      <c r="F8" s="2">
         <v>-37.217743</v>
       </c>
       <c r="G8" t="s">
         <v>7</v>
       </c>
       <c r="H8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I8">
         <f>-37.2177</f>
         <v>-37.2177</v>
       </c>
+      <c r="J8">
+        <f t="shared" si="1"/>
+        <v>-9.30443575</v>
+      </c>
       <c r="K8" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L8" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M8" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="N8">
         <v>-6.11871</v>
@@ -8295,41 +8527,45 @@
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="3">
+        <v>37</v>
+      </c>
+      <c r="D9" s="2">
         <v>-37.214844</v>
       </c>
       <c r="E9" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" s="3">
+        <v>38</v>
+      </c>
+      <c r="F9" s="2">
         <v>-37.214844</v>
       </c>
       <c r="G9" t="s">
         <v>7</v>
       </c>
       <c r="H9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I9">
         <f>-37.2148</f>
         <v>-37.2148</v>
       </c>
+      <c r="J9">
+        <f t="shared" si="1"/>
+        <v>-9.303711</v>
+      </c>
       <c r="K9" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L9" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M9" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="N9">
         <v>-6.54105</v>
@@ -8356,41 +8592,45 @@
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="3">
+        <v>37</v>
+      </c>
+      <c r="D10" s="2">
         <v>-37.210978</v>
       </c>
       <c r="E10" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10" s="3">
+        <v>38</v>
+      </c>
+      <c r="F10" s="2">
         <v>-37.210978</v>
       </c>
       <c r="G10" t="s">
         <v>7</v>
       </c>
       <c r="H10" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I10">
         <f>-37.211</f>
         <v>-37.211</v>
       </c>
+      <c r="J10">
+        <f t="shared" si="1"/>
+        <v>-9.3027445</v>
+      </c>
       <c r="K10" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L10" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M10" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="N10">
         <v>-6.92346</v>
@@ -8417,41 +8657,45 @@
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="3">
+        <v>37</v>
+      </c>
+      <c r="D11" s="2">
         <v>-37.205987</v>
       </c>
       <c r="E11" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" s="3">
+        <v>38</v>
+      </c>
+      <c r="F11" s="2">
         <v>-37.205987</v>
       </c>
       <c r="G11" t="s">
         <v>7</v>
       </c>
       <c r="H11" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I11">
         <f>-37.206</f>
         <v>-37.206</v>
       </c>
+      <c r="J11">
+        <f t="shared" si="1"/>
+        <v>-9.30149675</v>
+      </c>
       <c r="K11" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="L11" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M11" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="N11">
         <v>-7.3603</v>
@@ -8478,41 +8722,45 @@
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="3">
+        <v>37</v>
+      </c>
+      <c r="D12" s="2">
         <v>-37.199727</v>
       </c>
       <c r="E12" t="s">
-        <v>36</v>
-      </c>
-      <c r="F12" s="3">
+        <v>38</v>
+      </c>
+      <c r="F12" s="2">
         <v>-37.199727</v>
       </c>
       <c r="G12" t="s">
         <v>7</v>
       </c>
       <c r="H12" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I12">
         <f>-37.1997</f>
         <v>-37.1997</v>
       </c>
+      <c r="J12">
+        <f t="shared" si="1"/>
+        <v>-9.29993175</v>
+      </c>
       <c r="K12" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L12" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M12" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="N12">
         <v>-7.85094</v>
@@ -8539,41 +8787,45 @@
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="3">
+        <v>37</v>
+      </c>
+      <c r="D13" s="2">
         <v>-37.192026</v>
       </c>
       <c r="E13" t="s">
-        <v>36</v>
-      </c>
-      <c r="F13" s="3">
+        <v>38</v>
+      </c>
+      <c r="F13" s="2">
         <v>-37.192026</v>
       </c>
       <c r="G13" t="s">
         <v>7</v>
       </c>
       <c r="H13" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I13">
         <f>-37.192</f>
         <v>-37.192</v>
       </c>
+      <c r="J13">
+        <f t="shared" si="1"/>
+        <v>-9.2980065</v>
+      </c>
       <c r="K13" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L13" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M13" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="N13">
         <v>-8.29527</v>
@@ -8600,41 +8852,45 @@
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="3">
+        <v>37</v>
+      </c>
+      <c r="D14" s="2">
         <v>-37.125248</v>
       </c>
       <c r="E14" t="s">
-        <v>36</v>
-      </c>
-      <c r="F14" s="3">
+        <v>38</v>
+      </c>
+      <c r="F14" s="2">
         <v>-37.125248</v>
       </c>
       <c r="G14" t="s">
         <v>7</v>
       </c>
       <c r="H14" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I14">
         <f>-37.1252</f>
         <v>-37.1252</v>
       </c>
+      <c r="J14">
+        <f t="shared" si="1"/>
+        <v>-9.281312</v>
+      </c>
       <c r="K14" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L14" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M14" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="N14">
         <v>-11.01718</v>
@@ -8661,41 +8917,45 @@
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" s="3">
+        <v>37</v>
+      </c>
+      <c r="D15" s="2">
         <v>-36.987991</v>
       </c>
       <c r="E15" t="s">
-        <v>36</v>
-      </c>
-      <c r="F15" s="3">
+        <v>38</v>
+      </c>
+      <c r="F15" s="2">
         <v>-36.987991</v>
       </c>
       <c r="G15" t="s">
         <v>7</v>
       </c>
       <c r="H15" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I15">
         <f>-36.988</f>
         <v>-36.988</v>
       </c>
+      <c r="J15">
+        <f t="shared" si="1"/>
+        <v>-9.24699775</v>
+      </c>
       <c r="K15" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L15" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="N15">
         <v>-14.16293</v>
@@ -8722,41 +8982,45 @@
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" s="3">
+        <v>37</v>
+      </c>
+      <c r="D16" s="2">
         <v>-36.737023</v>
       </c>
       <c r="E16" t="s">
-        <v>36</v>
-      </c>
-      <c r="F16" s="3">
+        <v>38</v>
+      </c>
+      <c r="F16" s="2">
         <v>-36.737023</v>
       </c>
       <c r="G16" t="s">
         <v>7</v>
       </c>
       <c r="H16" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I16">
         <f>-36.737</f>
         <v>-36.737</v>
       </c>
+      <c r="J16">
+        <f t="shared" si="1"/>
+        <v>-9.18425575</v>
+      </c>
       <c r="K16" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="L16" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M16" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="N16">
         <v>-17.17197</v>
@@ -8783,41 +9047,45 @@
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" s="3">
+        <v>37</v>
+      </c>
+      <c r="D17" s="2">
         <v>-36.306229</v>
       </c>
       <c r="E17" t="s">
-        <v>36</v>
-      </c>
-      <c r="F17" s="3">
+        <v>38</v>
+      </c>
+      <c r="F17" s="2">
         <v>-36.306229</v>
       </c>
       <c r="G17" t="s">
         <v>7</v>
       </c>
       <c r="H17" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I17">
         <f>-36.3062</f>
         <v>-36.3062</v>
       </c>
+      <c r="J17">
+        <f t="shared" si="1"/>
+        <v>-9.07655725</v>
+      </c>
       <c r="K17" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="L17" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="N17">
         <v>-17.75908</v>
@@ -8844,41 +9112,45 @@
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18" s="3">
+        <v>37</v>
+      </c>
+      <c r="D18" s="2">
         <v>-35.587047</v>
       </c>
       <c r="E18" t="s">
-        <v>36</v>
-      </c>
-      <c r="F18" s="3">
+        <v>38</v>
+      </c>
+      <c r="F18" s="2">
         <v>-35.587047</v>
       </c>
       <c r="G18" t="s">
         <v>7</v>
       </c>
       <c r="H18" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I18">
         <f>-35.587</f>
         <v>-35.587</v>
       </c>
+      <c r="J18">
+        <f t="shared" si="1"/>
+        <v>-8.89676175</v>
+      </c>
       <c r="K18" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="L18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="N18">
         <v>-14.08485</v>
@@ -8905,41 +9177,45 @@
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>35</v>
-      </c>
-      <c r="D19" s="3">
+        <v>37</v>
+      </c>
+      <c r="D19" s="2">
         <v>-34.443888</v>
       </c>
       <c r="E19" t="s">
-        <v>36</v>
-      </c>
-      <c r="F19" s="3">
+        <v>38</v>
+      </c>
+      <c r="F19" s="2">
         <v>-34.443888</v>
       </c>
       <c r="G19" t="s">
         <v>7</v>
       </c>
       <c r="H19" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I19">
         <f>-34.4439</f>
         <v>-34.4439</v>
       </c>
+      <c r="J19">
+        <f t="shared" si="1"/>
+        <v>-8.610972</v>
+      </c>
       <c r="K19" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="L19" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M19" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="N19">
         <v>-9.69094</v>
@@ -8966,41 +9242,45 @@
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>35</v>
-      </c>
-      <c r="D20" s="3">
+        <v>37</v>
+      </c>
+      <c r="D20" s="2">
         <v>-32.739216</v>
       </c>
       <c r="E20" t="s">
-        <v>36</v>
-      </c>
-      <c r="F20" s="3">
+        <v>38</v>
+      </c>
+      <c r="F20" s="2">
         <v>-32.739216</v>
       </c>
       <c r="G20" t="s">
         <v>7</v>
       </c>
       <c r="H20" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I20">
         <f>-32.7392</f>
         <v>-32.7392</v>
       </c>
+      <c r="J20">
+        <f t="shared" si="1"/>
+        <v>-8.184804</v>
+      </c>
       <c r="K20" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L20" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M20" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="N20">
         <v>62.64671</v>
@@ -9027,41 +9307,45 @@
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>35</v>
-      </c>
-      <c r="D21" s="3">
+        <v>37</v>
+      </c>
+      <c r="D21" s="2">
         <v>-30.244928</v>
       </c>
       <c r="E21" t="s">
-        <v>36</v>
-      </c>
-      <c r="F21" s="3">
+        <v>38</v>
+      </c>
+      <c r="F21" s="2">
         <v>-30.244928</v>
       </c>
       <c r="G21" t="s">
         <v>7</v>
       </c>
       <c r="H21" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I21">
         <f>-30.2449</f>
         <v>-30.2449</v>
       </c>
+      <c r="J21">
+        <f t="shared" si="1"/>
+        <v>-7.561232</v>
+      </c>
       <c r="K21" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L21" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M21" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="N21">
         <v>238.657</v>
@@ -9088,41 +9372,45 @@
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D22" s="3">
+        <v>37</v>
+      </c>
+      <c r="D22" s="2">
         <v>-26.487302</v>
       </c>
       <c r="E22" t="s">
-        <v>36</v>
-      </c>
-      <c r="F22" s="3">
+        <v>38</v>
+      </c>
+      <c r="F22" s="2">
         <v>-26.487302</v>
       </c>
       <c r="G22" t="s">
         <v>7</v>
       </c>
       <c r="H22" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I22">
         <f>-26.4873</f>
         <v>-26.4873</v>
       </c>
+      <c r="J22">
+        <f t="shared" si="1"/>
+        <v>-6.6218255</v>
+      </c>
       <c r="K22" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L22" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M22" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="N22">
         <v>709.01882</v>
@@ -9149,41 +9437,45 @@
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>35</v>
-      </c>
-      <c r="D23" s="3">
+        <v>37</v>
+      </c>
+      <c r="D23" s="2">
         <v>-21.520284</v>
       </c>
       <c r="E23" t="s">
-        <v>36</v>
-      </c>
-      <c r="F23" s="3">
+        <v>38</v>
+      </c>
+      <c r="F23" s="2">
         <v>-21.520284</v>
       </c>
       <c r="G23" t="s">
         <v>7</v>
       </c>
       <c r="H23" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I23">
         <f>-21.5203</f>
         <v>-21.5203</v>
       </c>
+      <c r="J23">
+        <f t="shared" si="1"/>
+        <v>-5.380071</v>
+      </c>
       <c r="K23" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="N23">
         <v>1922.70321</v>
@@ -9210,41 +9502,45 @@
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B24">
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>35</v>
-      </c>
-      <c r="D24" s="3">
+        <v>37</v>
+      </c>
+      <c r="D24" s="2">
         <v>-14.619444</v>
       </c>
       <c r="E24" t="s">
-        <v>36</v>
-      </c>
-      <c r="F24" s="3">
+        <v>38</v>
+      </c>
+      <c r="F24" s="2">
         <v>-14.619444</v>
       </c>
       <c r="G24" t="s">
         <v>7</v>
       </c>
       <c r="H24" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I24">
         <f>-14.6194</f>
         <v>-14.6194</v>
       </c>
+      <c r="J24">
+        <f t="shared" si="1"/>
+        <v>-3.654861</v>
+      </c>
       <c r="K24" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L24" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M24" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="N24">
         <v>3453.20136</v>
@@ -9267,6 +9563,15 @@
       <c r="T24">
         <f t="shared" si="0"/>
         <v>765.428943</v>
+      </c>
+    </row>
+    <row r="25" spans="6:10">
+      <c r="F25" s="2">
+        <v>-18.621936</v>
+      </c>
+      <c r="J25">
+        <f>F25/2</f>
+        <v>-9.310968</v>
       </c>
     </row>
   </sheetData>
@@ -9297,17 +9602,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="2">
+      <c r="A1" s="1">
         <v>7.734603659</v>
       </c>
       <c r="B1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E1">
         <v>-2.70814</v>
@@ -9329,17 +9634,17 @@
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <v>7.398316544</v>
       </c>
       <c r="B2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" t="s">
         <v>88</v>
       </c>
-      <c r="C2" t="s">
-        <v>86</v>
-      </c>
       <c r="D2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E2">
         <v>-3.40202</v>
@@ -9361,17 +9666,17 @@
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>7.06202942799999</v>
       </c>
       <c r="B3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" t="s">
         <v>89</v>
-      </c>
-      <c r="C3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D3" t="s">
-        <v>87</v>
       </c>
       <c r="E3">
         <v>-4.50753</v>
@@ -9393,17 +9698,17 @@
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>6.99477200493787</v>
       </c>
       <c r="B4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E4">
         <v>-4.78273</v>
@@ -9425,17 +9730,17 @@
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>6.92751458181347</v>
       </c>
       <c r="B5" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E5">
         <v>-5.08591</v>
@@ -9457,17 +9762,17 @@
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>6.86025715868907</v>
       </c>
       <c r="B6" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D6" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E6">
         <v>-5.40348</v>
@@ -9493,13 +9798,13 @@
         <v>6.79299973556466</v>
       </c>
       <c r="B7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E7">
         <v>-5.75432</v>
@@ -9521,17 +9826,17 @@
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="2">
+      <c r="A8" s="1">
         <v>6.72574231244026</v>
       </c>
       <c r="B8" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C8" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D8" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E8">
         <v>-6.11871</v>
@@ -9553,17 +9858,17 @@
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="2">
+      <c r="A9" s="1">
         <v>6.65848488931586</v>
       </c>
       <c r="B9" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C9" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D9" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E9">
         <v>-6.54105</v>
@@ -9585,17 +9890,17 @@
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="2">
+      <c r="A10" s="1">
         <v>6.59122746619145</v>
       </c>
       <c r="B10" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C10" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D10" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E10">
         <v>-6.92346</v>
@@ -9617,17 +9922,17 @@
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="2">
+      <c r="A11" s="1">
         <v>6.52397004306705</v>
       </c>
       <c r="B11" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C11" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D11" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E11">
         <v>-7.3603</v>
@@ -9649,17 +9954,17 @@
       </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="2">
+      <c r="A12" s="1">
         <v>6.45671261994265</v>
       </c>
       <c r="B12" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C12" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D12" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E12">
         <v>-7.85094</v>
@@ -9681,17 +9986,17 @@
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="2">
+      <c r="A13" s="1">
         <v>6.389455197</v>
       </c>
       <c r="B13" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C13" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D13" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E13">
         <v>-8.29527</v>
@@ -9713,17 +10018,17 @@
       </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="2">
+      <c r="A14" s="1">
         <v>6.05316808099999</v>
       </c>
       <c r="B14" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C14" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D14" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E14">
         <v>-11.01718</v>
@@ -9745,17 +10050,17 @@
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="2">
+      <c r="A15" s="1">
         <v>5.71688096599999</v>
       </c>
       <c r="B15" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C15" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E15">
         <v>-14.16293</v>
@@ -9777,17 +10082,17 @@
       </c>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="2">
+      <c r="A16" s="1">
         <v>5.38059385</v>
       </c>
       <c r="B16" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C16" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D16" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E16">
         <v>-17.17197</v>
@@ -9809,17 +10114,17 @@
       </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="2">
+      <c r="A17" s="1">
         <v>5.044306734</v>
       </c>
       <c r="B17" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C17" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E17">
         <v>-17.75908</v>
@@ -9841,17 +10146,17 @@
       </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="2">
+      <c r="A18" s="1">
         <v>4.70801961899999</v>
       </c>
       <c r="B18" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E18">
         <v>-14.08485</v>
@@ -9873,17 +10178,17 @@
       </c>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="2">
+      <c r="A19" s="1">
         <v>4.37173250299999</v>
       </c>
       <c r="B19" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C19" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D19" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E19">
         <v>-9.69094</v>
@@ -9905,17 +10210,17 @@
       </c>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="2">
+      <c r="A20" s="1">
         <v>4.035445387</v>
       </c>
       <c r="B20" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C20" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D20" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E20">
         <v>62.64671</v>
@@ -9937,17 +10242,17 @@
       </c>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="2">
+      <c r="A21" s="1">
         <v>3.69915827100001</v>
       </c>
       <c r="B21" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C21" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D21" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E21">
         <v>238.657</v>
@@ -9969,17 +10274,17 @@
       </c>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="2">
+      <c r="A22" s="1">
         <v>3.36287115500002</v>
       </c>
       <c r="B22" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C22" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D22" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E22">
         <v>709.01882</v>
@@ -10001,17 +10306,17 @@
       </c>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="2">
+      <c r="A23" s="1">
         <v>3.02658403900003</v>
       </c>
       <c r="B23" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E23">
         <v>1922.70321</v>
@@ -10033,17 +10338,17 @@
       </c>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="2">
+      <c r="A24" s="1">
         <v>2.69029692300004</v>
       </c>
       <c r="B24" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C24" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D24" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E24">
         <v>3453.20136</v>
@@ -10087,7 +10392,7 @@
   <sheetPr/>
   <dimension ref="A1:P30"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="D1" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="D15" workbookViewId="0">
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
@@ -10107,7 +10412,7 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -10129,7 +10434,7 @@
         <v>0.0212973013381394</v>
       </c>
       <c r="J1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K1">
         <v>300</v>
@@ -10153,7 +10458,7 @@
     </row>
     <row r="2" spans="1:16">
       <c r="A2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -10175,7 +10480,7 @@
         <v>0.0213150838717795</v>
       </c>
       <c r="J2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K2">
         <v>300</v>
@@ -10199,7 +10504,7 @@
     </row>
     <row r="3" spans="1:16">
       <c r="A3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -10221,7 +10526,7 @@
         <v>0.0213514365883235</v>
       </c>
       <c r="J3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K3">
         <v>300</v>
@@ -10245,7 +10550,7 @@
     </row>
     <row r="4" spans="1:16">
       <c r="A4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -10267,7 +10572,7 @@
         <v>0.0213704943512894</v>
       </c>
       <c r="J4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K4">
         <v>300</v>
@@ -10291,7 +10596,7 @@
     </row>
     <row r="5" spans="1:16">
       <c r="A5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -10313,7 +10618,7 @@
         <v>0.0213854811300705</v>
       </c>
       <c r="J5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K5">
         <v>300</v>
@@ -10337,7 +10642,7 @@
     </row>
     <row r="6" spans="1:16">
       <c r="A6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -10359,7 +10664,7 @@
         <v>0.0214245984414376</v>
       </c>
       <c r="J6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K6">
         <v>300</v>
@@ -10383,7 +10688,7 @@
     </row>
     <row r="7" spans="1:16">
       <c r="A7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -10405,7 +10710,7 @@
         <v>0.0214416347213709</v>
       </c>
       <c r="J7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K7">
         <v>300</v>
@@ -10429,7 +10734,7 @@
     </row>
     <row r="8" spans="1:16">
       <c r="A8" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -10451,7 +10756,7 @@
         <v>0.0214761407685137</v>
       </c>
       <c r="J8" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K8">
         <v>300</v>
@@ -10475,7 +10780,7 @@
     </row>
     <row r="9" spans="1:16">
       <c r="A9" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -10497,7 +10802,7 @@
         <v>0.0214953236250955</v>
       </c>
       <c r="J9" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K9">
         <v>300</v>
@@ -10521,7 +10826,7 @@
     </row>
     <row r="10" spans="1:16">
       <c r="A10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -10543,7 +10848,7 @@
         <v>0.0215045517247771</v>
       </c>
       <c r="J10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K10">
         <v>300</v>
@@ -10567,12 +10872,12 @@
     </row>
     <row r="11" spans="1:16">
       <c r="A11" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11">
         <v>66.4568539</v>
       </c>
       <c r="D11">
@@ -10581,7 +10886,7 @@
       <c r="E11">
         <v>0</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11">
         <v>66.4568539</v>
       </c>
       <c r="G11">
@@ -10589,7 +10894,7 @@
         <v>0.0215259662164836</v>
       </c>
       <c r="J11" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K11">
         <v>300</v>
@@ -10613,7 +10918,7 @@
     </row>
     <row r="12" spans="1:16">
       <c r="A12" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -10635,7 +10940,7 @@
         <v>0.0215454250434452</v>
       </c>
       <c r="J12" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K12">
         <v>300</v>
@@ -10659,7 +10964,7 @@
     </row>
     <row r="13" spans="1:16">
       <c r="A13" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -10681,7 +10986,7 @@
         <v>0.02155955563384</v>
       </c>
       <c r="J13" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K13">
         <v>300</v>
@@ -10705,7 +11010,7 @@
     </row>
     <row r="14" spans="1:16">
       <c r="A14" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -10727,7 +11032,7 @@
         <v>0.0215758343232551</v>
       </c>
       <c r="J14" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K14">
         <v>300</v>
@@ -10751,7 +11056,7 @@
     </row>
     <row r="15" spans="1:16">
       <c r="A15" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -10773,7 +11078,7 @@
         <v>0.0215897807066604</v>
       </c>
       <c r="J15" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K15">
         <v>300</v>
@@ -10797,7 +11102,7 @@
     </row>
     <row r="16" spans="1:16">
       <c r="A16" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -10819,7 +11124,7 @@
         <v>0.00616135745718576</v>
       </c>
       <c r="J16" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K16">
         <v>300</v>
@@ -10843,7 +11148,7 @@
     </row>
     <row r="17" spans="1:16">
       <c r="A17" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -10865,7 +11170,7 @@
         <v>0.00642130111638179</v>
       </c>
       <c r="J17" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K17">
         <v>300</v>
@@ -10889,7 +11194,7 @@
     </row>
     <row r="18" spans="1:16">
       <c r="A18" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -10911,7 +11216,7 @@
         <v>0.00668963932810497</v>
       </c>
       <c r="J18" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K18">
         <v>300</v>
@@ -10929,13 +11234,13 @@
         <v>26.8001405</v>
       </c>
       <c r="P18">
-        <f>M18*1000/6.022140857E+23*6242000000000000000/32</f>
+        <f t="shared" ref="P18:P24" si="2">M18*1000/6.022140857E+23*6242000000000000000/32</f>
         <v>0.0106316890177462</v>
       </c>
     </row>
     <row r="19" spans="1:16">
       <c r="A19" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -10957,7 +11262,7 @@
         <v>0.00722596664254261</v>
       </c>
       <c r="J19" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K19">
         <v>300</v>
@@ -10975,13 +11280,13 @@
         <v>28.199484</v>
       </c>
       <c r="P19">
-        <f>M19*1000/6.022140857E+23*6242000000000000000/32</f>
+        <f t="shared" si="2"/>
         <v>0.00976588231870462</v>
       </c>
     </row>
     <row r="20" spans="1:16">
       <c r="A20" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -11003,7 +11308,7 @@
         <v>0.00725404306569759</v>
       </c>
       <c r="J20" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K20">
         <v>300</v>
@@ -11021,13 +11326,13 @@
         <v>28.5991705</v>
       </c>
       <c r="P20">
-        <f>M20*1000/6.022140857E+23*6242000000000000000/32</f>
+        <f t="shared" si="2"/>
         <v>0.0104860243689498</v>
       </c>
     </row>
     <row r="21" spans="1:16">
       <c r="A21" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -11049,7 +11354,7 @@
         <v>0.00725404306569759</v>
       </c>
       <c r="J21" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K21">
         <v>300</v>
@@ -11067,13 +11372,13 @@
         <v>28.5991705</v>
       </c>
       <c r="P21">
-        <f>M21*1000/6.022140857E+23*6242000000000000000/32</f>
+        <f t="shared" si="2"/>
         <v>0.0104860243689498</v>
       </c>
     </row>
     <row r="22" spans="1:16">
       <c r="A22" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -11095,7 +11400,7 @@
         <v>0.00725404306569759</v>
       </c>
       <c r="J22" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K22">
         <v>300</v>
@@ -11113,13 +11418,13 @@
         <v>28.5991705</v>
       </c>
       <c r="P22">
-        <f>M22*1000/6.022140857E+23*6242000000000000000/32</f>
+        <f t="shared" si="2"/>
         <v>0.0104860243689498</v>
       </c>
     </row>
     <row r="23" spans="1:16">
       <c r="A23" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -11141,7 +11446,7 @@
         <v>0.00725404306569759</v>
       </c>
       <c r="J23" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K23">
         <v>300</v>
@@ -11159,13 +11464,13 @@
         <v>28.5991705</v>
       </c>
       <c r="P23">
-        <f>M23*1000/6.022140857E+23*6242000000000000000/32</f>
+        <f t="shared" si="2"/>
         <v>0.0104860243689498</v>
       </c>
     </row>
     <row r="24" spans="1:16">
       <c r="A24" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -11187,7 +11492,7 @@
         <v>0.00725404306569759</v>
       </c>
       <c r="J24" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K24">
         <v>300</v>
@@ -11205,13 +11510,13 @@
         <v>28.5991705</v>
       </c>
       <c r="P24">
-        <f>M24*1000/6.022140857E+23*6242000000000000000/32</f>
+        <f t="shared" si="2"/>
         <v>0.0104860243689498</v>
       </c>
     </row>
     <row r="25" spans="1:15">
       <c r="A25" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -11229,7 +11534,7 @@
         <v>22.395319</v>
       </c>
       <c r="J25" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K25">
         <v>300</v>
@@ -11249,7 +11554,7 @@
     </row>
     <row r="26" spans="1:15">
       <c r="A26" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -11267,7 +11572,7 @@
         <v>22.395319</v>
       </c>
       <c r="J26" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="K26">
         <v>300</v>
@@ -11287,7 +11592,7 @@
     </row>
     <row r="27" spans="1:15">
       <c r="A27" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -11305,7 +11610,7 @@
         <v>72.8132429</v>
       </c>
       <c r="J27" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="K27">
         <v>300</v>
@@ -11325,7 +11630,7 @@
     </row>
     <row r="28" spans="1:15">
       <c r="A28" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -11343,7 +11648,7 @@
         <v>16.0294562</v>
       </c>
       <c r="J28" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="K28">
         <v>300</v>
@@ -11363,7 +11668,7 @@
     </row>
     <row r="29" spans="1:15">
       <c r="A29" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -11381,7 +11686,7 @@
         <v>17.5375936</v>
       </c>
       <c r="J29" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K29">
         <v>300</v>
@@ -11401,7 +11706,7 @@
     </row>
     <row r="30" spans="1:15">
       <c r="A30" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -11419,7 +11724,7 @@
         <v>18.1291886</v>
       </c>
       <c r="J30" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K30">
         <v>300</v>

--- a/data/data_collection.xlsx
+++ b/data/data_collection.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="960" yWindow="460" windowWidth="24640" windowHeight="15540" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="960" yWindow="460" windowWidth="24640" windowHeight="15540" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="data11" sheetId="1" r:id="rId1"/>
@@ -25,6 +25,8 @@
     <sheet name="Sheet3" sheetId="8" r:id="rId11"/>
   </sheets>
   <definedNames>
+    <definedName name="_99_optimized" localSheetId="4">Sheet7!$A$1:$J$15</definedName>
+    <definedName name="_99_optimized_1" localSheetId="4">Sheet7!$L$1:$U$15</definedName>
     <definedName name="ExternalData_1" localSheetId="7">phonopy!$A$1:$F$24</definedName>
     <definedName name="ExternalData_1" localSheetId="5">Sheet1!$A$1:$I$24</definedName>
     <definedName name="ExternalData_1" localSheetId="6">Sheet2!$A$1:$I$24</definedName>
@@ -34,8 +36,6 @@
     <definedName name="ExternalData_2" localSheetId="10">Sheet3!$K$1:$O$30</definedName>
     <definedName name="ExternalData_2" localSheetId="8">Sheet4!$K$1:$S$24</definedName>
     <definedName name="ExternalData_3" localSheetId="10">Sheet3!$J$1:$O$30</definedName>
-    <definedName name="tmp_optimized_1" localSheetId="4">Sheet7!$L$1:$U$15</definedName>
-    <definedName name="tmp_original_1" localSheetId="4">Sheet7!$A$1:$J$15</definedName>
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -99,15 +99,8 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="tmp" type="6" refreshedVersion="2" background="1" saveData="1">
-    <textPr sourceFile="F:\William\PV0c\tmp.txt" space="1" consecutive="1">
-      <textFields>
-        <textField/>
-      </textFields>
-    </textPr>
-  </connection>
-  <connection id="2" name="tmp-optimized" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" sourceFile="/Users/yerong/Documents/William/MD-LJ/graphite/tmp-optimized.txt" delimited="0">
+  <connection id="1" name="99-optimized" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" codePage="10000" sourceFile="/Users/yerong/Documents/William/MD-LJ/graphite/99-optimized.txt" delimited="0">
       <textFields count="10">
         <textField/>
         <textField position="6"/>
@@ -117,13 +110,13 @@
         <textField position="48"/>
         <textField position="74"/>
         <textField position="86"/>
-        <textField position="98"/>
-        <textField position="110"/>
+        <textField position="97"/>
+        <textField position="108"/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="3" name="tmp-original" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" sourceFile="/Users/yerong/Documents/William/MD-LJ/graphite/tmp-original.txt" delimited="0">
+  <connection id="2" name="99-optimized1" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" codePage="10000" sourceFile="/Users/yerong/Documents/William/MD-X6/graphite/99-optimized.txt" delimited="0">
       <textFields count="10">
         <textField/>
         <textField position="6"/>
@@ -133,8 +126,15 @@
         <textField position="48"/>
         <textField position="74"/>
         <textField position="86"/>
-        <textField position="98"/>
-        <textField position="110"/>
+        <textField position="96"/>
+        <textField position="108"/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="3" name="tmp" type="6" refreshedVersion="2" background="1" saveData="1">
+    <textPr sourceFile="F:\William\PV0c\tmp.txt" space="1" consecutive="1">
+      <textFields>
+        <textField/>
       </textFields>
     </textPr>
   </connection>
@@ -926,11 +926,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2095029024"/>
-        <c:axId val="-2096691680"/>
+        <c:axId val="2143919328"/>
+        <c:axId val="2143920400"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2095029024"/>
+        <c:axId val="2143919328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -986,12 +986,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2096691680"/>
+        <c:crossAx val="2143920400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2096691680"/>
+        <c:axId val="2143920400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1047,7 +1047,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2095029024"/>
+        <c:crossAx val="2143919328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1481,11 +1481,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2136120800"/>
-        <c:axId val="-2136116736"/>
+        <c:axId val="2080531984"/>
+        <c:axId val="2080528592"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2136120800"/>
+        <c:axId val="2080531984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="9.0"/>
@@ -1544,12 +1544,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2136116736"/>
+        <c:crossAx val="2080528592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2136116736"/>
+        <c:axId val="2080528592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100.0"/>
@@ -1608,7 +1608,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2136120800"/>
+        <c:crossAx val="2080531984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2007,11 +2007,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2101344576"/>
-        <c:axId val="-2098195456"/>
+        <c:axId val="2144194912"/>
+        <c:axId val="2144198272"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2101344576"/>
+        <c:axId val="2144194912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="7.0"/>
@@ -2070,13 +2070,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2098195456"/>
+        <c:crossAx val="2144198272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.05"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2098195456"/>
+        <c:axId val="2144198272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5.0"/>
@@ -2135,7 +2135,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2101344576"/>
+        <c:crossAx val="2144194912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3991,7 +3991,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="tmp-original_1" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="99-optimized_1" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4010,11 +4010,11 @@
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="tmp-optimized_1" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="99-optimized" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="0" nextId="10">
     <queryTableFields count="9">
       <queryTableField id="1" dataBound="0"/>
@@ -8556,8 +8556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="A1:H16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8609,13 +8609,13 @@
         <v>-0.48899999999999999</v>
       </c>
       <c r="F2">
-        <v>0.22700000000000001</v>
+        <v>-1.1224000000000001</v>
       </c>
       <c r="G2">
         <v>-0.43709999999999999</v>
       </c>
       <c r="H2">
-        <v>0.22750000000000001</v>
+        <v>-1.1273</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -8635,13 +8635,13 @@
         <v>-0.50070000000000003</v>
       </c>
       <c r="F3">
-        <v>0.22689999999999999</v>
+        <v>-1.1551</v>
       </c>
       <c r="G3">
         <v>-0.44840000000000002</v>
       </c>
       <c r="H3">
-        <v>0.22739999999999999</v>
+        <v>-1.1593</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -8661,13 +8661,13 @@
         <v>-0.51090000000000002</v>
       </c>
       <c r="F4">
-        <v>0.2268</v>
+        <v>-1.1852</v>
       </c>
       <c r="G4">
         <v>-0.4582</v>
       </c>
       <c r="H4">
-        <v>0.2273</v>
+        <v>-1.1886000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -8687,13 +8687,13 @@
         <v>-0.51939999999999997</v>
       </c>
       <c r="F5">
-        <v>0.22670000000000001</v>
+        <v>-1.2121999999999999</v>
       </c>
       <c r="G5">
         <v>-0.46600000000000003</v>
       </c>
       <c r="H5">
-        <v>0.2273</v>
+        <v>-1.2143999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -8713,13 +8713,13 @@
         <v>-0.52569999999999995</v>
       </c>
       <c r="F6">
-        <v>0.2266</v>
+        <v>-1.2352000000000001</v>
       </c>
       <c r="G6">
         <v>-0.47139999999999999</v>
       </c>
       <c r="H6">
-        <v>0.22720000000000001</v>
+        <v>-1.2361</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -8739,13 +8739,13 @@
         <v>-0.52949999999999997</v>
       </c>
       <c r="F7">
-        <v>0.22650000000000001</v>
+        <v>-1.2532000000000001</v>
       </c>
       <c r="G7">
         <v>-0.47389999999999999</v>
       </c>
       <c r="H7">
-        <v>0.2271</v>
+        <v>-1.2525999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -8765,13 +8765,13 @@
         <v>-0.53010000000000002</v>
       </c>
       <c r="F8">
-        <v>0.22639999999999999</v>
+        <v>-1.2652000000000001</v>
       </c>
       <c r="G8">
         <v>-0.47289999999999999</v>
       </c>
       <c r="H8">
-        <v>0.2271</v>
+        <v>-1.2632000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -8791,13 +8791,13 @@
         <v>-0.52690000000000003</v>
       </c>
       <c r="F9">
-        <v>0.22620000000000001</v>
+        <v>-1.27</v>
       </c>
       <c r="G9">
         <v>-0.46760000000000002</v>
       </c>
       <c r="H9">
-        <v>0.22700000000000001</v>
+        <v>-1.2665</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -8817,13 +8817,13 @@
         <v>-0.51939999999999997</v>
       </c>
       <c r="F10">
-        <v>0.2261</v>
+        <v>-1.266</v>
       </c>
       <c r="G10">
         <v>-0.4572</v>
       </c>
       <c r="H10">
-        <v>0.22689999999999999</v>
+        <v>-1.2613000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -8843,13 +8843,13 @@
         <v>-0.50649999999999995</v>
       </c>
       <c r="F11">
-        <v>0.22600000000000001</v>
+        <v>-1.2516</v>
       </c>
       <c r="G11">
         <v>-0.44080000000000003</v>
       </c>
       <c r="H11">
-        <v>0.2268</v>
+        <v>-1.2462</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -8869,13 +8869,13 @@
         <v>-0.4874</v>
       </c>
       <c r="F12">
-        <v>0.2258</v>
+        <v>-1.2246999999999999</v>
       </c>
       <c r="G12">
         <v>-0.4173</v>
       </c>
       <c r="H12">
-        <v>0.22670000000000001</v>
+        <v>-1.2194</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -8895,13 +8895,13 @@
         <v>-0.46100000000000002</v>
       </c>
       <c r="F13">
-        <v>0.22570000000000001</v>
+        <v>-1.1832</v>
       </c>
       <c r="G13">
         <v>-0.38540000000000002</v>
       </c>
       <c r="H13">
-        <v>0.2266</v>
+        <v>-1.1791</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -8921,13 +8921,13 @@
         <v>-0.4259</v>
       </c>
       <c r="F14">
-        <v>0.22550000000000001</v>
+        <v>-1.1243000000000001</v>
       </c>
       <c r="G14">
         <v>-0.34350000000000003</v>
       </c>
       <c r="H14">
-        <v>0.22650000000000001</v>
+        <v>-1.1232</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -8947,13 +8947,13 @@
         <v>-0.38069999999999998</v>
       </c>
       <c r="F15">
-        <v>0.22539999999999999</v>
+        <v>-1.0448999999999999</v>
       </c>
       <c r="G15">
         <v>-0.29020000000000001</v>
       </c>
       <c r="H15">
-        <v>0.2263</v>
+        <v>-1.0491999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -8973,13 +8973,13 @@
         <v>-0.3236</v>
       </c>
       <c r="F16">
-        <v>0.22520000000000001</v>
+        <v>-0.94140000000000001</v>
       </c>
       <c r="G16">
         <v>-0.2233</v>
       </c>
       <c r="H16">
-        <v>0.22620000000000001</v>
+        <v>-0.95450000000000002</v>
       </c>
     </row>
   </sheetData>
@@ -8991,7 +8991,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -9164,18 +9164,18 @@
     <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="2.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="2.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="2.1640625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="7.5" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="2.1640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="2.1640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -9196,19 +9196,19 @@
         <v>2</v>
       </c>
       <c r="F1">
-        <v>-0.48899999999999999</v>
+        <v>-1.1224000000000001</v>
       </c>
       <c r="G1">
         <v>-1.1932</v>
       </c>
       <c r="H1">
-        <v>1</v>
+        <v>1E-3</v>
       </c>
       <c r="I1">
-        <v>0.49590000000000001</v>
+        <v>5022.6094999999996</v>
       </c>
       <c r="J1">
-        <v>0.49590000000000001</v>
+        <v>5022.6094999999996</v>
       </c>
       <c r="L1" t="s">
         <v>124</v>
@@ -9226,19 +9226,19 @@
         <v>2</v>
       </c>
       <c r="Q1">
-        <v>0.22700000000000001</v>
+        <v>-1.1273</v>
       </c>
       <c r="R1">
         <v>-1.1932</v>
       </c>
       <c r="S1">
-        <v>1</v>
+        <v>1E-3</v>
       </c>
       <c r="T1">
-        <v>2.0169999999999999</v>
+        <v>4347.6401999999998</v>
       </c>
       <c r="U1">
-        <v>2.0169999999999999</v>
+        <v>4347.6401999999998</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
@@ -9258,19 +9258,19 @@
         <v>2</v>
       </c>
       <c r="F2">
-        <v>-0.50070000000000003</v>
+        <v>-1.1551</v>
       </c>
       <c r="G2">
         <v>-1.2076</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>1E-3</v>
       </c>
       <c r="I2">
-        <v>0.49980000000000002</v>
+        <v>2764.4965999999999</v>
       </c>
       <c r="J2">
-        <v>0.99580000000000002</v>
+        <v>7787.1061</v>
       </c>
       <c r="L2" t="s">
         <v>124</v>
@@ -9288,19 +9288,19 @@
         <v>2</v>
       </c>
       <c r="Q2">
-        <v>0.22689999999999999</v>
+        <v>-1.1593</v>
       </c>
       <c r="R2">
         <v>-1.2076</v>
       </c>
       <c r="S2">
-        <v>1</v>
+        <v>1E-3</v>
       </c>
       <c r="T2">
-        <v>2.0579000000000001</v>
+        <v>2335.4524000000001</v>
       </c>
       <c r="U2">
-        <v>4.0749000000000004</v>
+        <v>6683.0925999999999</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
@@ -9320,19 +9320,19 @@
         <v>2</v>
       </c>
       <c r="F3">
-        <v>-0.51090000000000002</v>
+        <v>-1.1852</v>
       </c>
       <c r="G3">
         <v>-1.2199</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>1E-3</v>
       </c>
       <c r="I3">
-        <v>0.50270000000000004</v>
+        <v>1203.1791000000001</v>
       </c>
       <c r="J3">
-        <v>1.4984999999999999</v>
+        <v>8990.2852000000003</v>
       </c>
       <c r="L3" t="s">
         <v>124</v>
@@ -9350,19 +9350,19 @@
         <v>2</v>
       </c>
       <c r="Q3">
-        <v>0.2268</v>
+        <v>-1.1886000000000001</v>
       </c>
       <c r="R3">
         <v>-1.2199</v>
       </c>
       <c r="S3">
-        <v>1</v>
+        <v>1E-3</v>
       </c>
       <c r="T3">
-        <v>2.093</v>
+        <v>982.49199999999996</v>
       </c>
       <c r="U3">
-        <v>6.1679000000000004</v>
+        <v>7665.5844999999999</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
@@ -9382,19 +9382,19 @@
         <v>2</v>
       </c>
       <c r="F4">
-        <v>-0.51939999999999997</v>
+        <v>-1.2121999999999999</v>
       </c>
       <c r="G4">
         <v>-1.2294</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>1E-3</v>
       </c>
       <c r="I4">
-        <v>0.50419999999999998</v>
+        <v>296.87889999999999</v>
       </c>
       <c r="J4">
-        <v>2.0026999999999999</v>
+        <v>9287.1641</v>
       </c>
       <c r="L4" t="s">
         <v>124</v>
@@ -9412,19 +9412,19 @@
         <v>2</v>
       </c>
       <c r="Q4">
-        <v>0.22670000000000001</v>
+        <v>-1.2143999999999999</v>
       </c>
       <c r="R4">
         <v>-1.2294</v>
       </c>
       <c r="S4">
-        <v>1</v>
+        <v>1E-3</v>
       </c>
       <c r="T4">
-        <v>2.1202999999999999</v>
+        <v>225.41239999999999</v>
       </c>
       <c r="U4">
-        <v>8.2881999999999998</v>
+        <v>7890.9969000000001</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.2">
@@ -9444,19 +9444,19 @@
         <v>2</v>
       </c>
       <c r="F5">
-        <v>-0.52569999999999995</v>
+        <v>-1.2352000000000001</v>
       </c>
       <c r="G5">
         <v>-1.2361</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>1E-3</v>
       </c>
       <c r="I5">
-        <v>0.50470000000000004</v>
+        <v>0.90549999999999997</v>
       </c>
       <c r="J5">
-        <v>2.5072999999999999</v>
+        <v>9288.0697</v>
       </c>
       <c r="L5" t="s">
         <v>124</v>
@@ -9474,19 +9474,19 @@
         <v>2</v>
       </c>
       <c r="Q5">
-        <v>0.2266</v>
+        <v>-1.2361</v>
       </c>
       <c r="R5">
         <v>-1.2361</v>
       </c>
       <c r="S5">
-        <v>1</v>
+        <v>1E-3</v>
       </c>
       <c r="T5">
-        <v>2.1395</v>
+        <v>2.3E-3</v>
       </c>
       <c r="U5">
-        <v>10.4277</v>
+        <v>7890.9992000000002</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.2">
@@ -9506,19 +9506,19 @@
         <v>2</v>
       </c>
       <c r="F6">
-        <v>-0.52949999999999997</v>
+        <v>-1.2532000000000001</v>
       </c>
       <c r="G6">
         <v>-1.2393000000000001</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>1E-3</v>
       </c>
       <c r="I6">
-        <v>0.50390000000000001</v>
+        <v>192.71299999999999</v>
       </c>
       <c r="J6">
-        <v>3.0112000000000001</v>
+        <v>9480.7826999999997</v>
       </c>
       <c r="L6" t="s">
         <v>124</v>
@@ -9536,19 +9536,19 @@
         <v>2</v>
       </c>
       <c r="Q6">
-        <v>0.22650000000000001</v>
+        <v>-1.2525999999999999</v>
       </c>
       <c r="R6">
         <v>-1.2393000000000001</v>
       </c>
       <c r="S6">
-        <v>1</v>
+        <v>1E-3</v>
       </c>
       <c r="T6">
-        <v>2.1484999999999999</v>
+        <v>177.91130000000001</v>
       </c>
       <c r="U6">
-        <v>12.5762</v>
+        <v>8068.9106000000002</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.2">
@@ -9568,19 +9568,19 @@
         <v>2</v>
       </c>
       <c r="F7">
-        <v>-0.53010000000000002</v>
+        <v>-1.2652000000000001</v>
       </c>
       <c r="G7">
         <v>-1.2384999999999999</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>1E-3</v>
       </c>
       <c r="I7">
-        <v>0.50190000000000001</v>
+        <v>713.68209999999999</v>
       </c>
       <c r="J7">
-        <v>3.5131000000000001</v>
+        <v>10194.4647</v>
       </c>
       <c r="L7" t="s">
         <v>124</v>
@@ -9598,19 +9598,19 @@
         <v>2</v>
       </c>
       <c r="Q7">
-        <v>0.22639999999999999</v>
+        <v>-1.2632000000000001</v>
       </c>
       <c r="R7">
         <v>-1.2384999999999999</v>
       </c>
       <c r="S7">
-        <v>1</v>
+        <v>1E-3</v>
       </c>
       <c r="T7">
-        <v>2.1457999999999999</v>
+        <v>608.58360000000005</v>
       </c>
       <c r="U7">
-        <v>14.722</v>
+        <v>8677.4940999999999</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.2">
@@ -9630,19 +9630,19 @@
         <v>2</v>
       </c>
       <c r="F8">
-        <v>-0.52690000000000003</v>
+        <v>-1.27</v>
       </c>
       <c r="G8">
         <v>-1.2334000000000001</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>1E-3</v>
       </c>
       <c r="I8">
-        <v>0.499</v>
+        <v>1339.7491</v>
       </c>
       <c r="J8">
-        <v>4.0121000000000002</v>
+        <v>11534.2138</v>
       </c>
       <c r="L8" t="s">
         <v>124</v>
@@ -9660,19 +9660,19 @@
         <v>2</v>
       </c>
       <c r="Q8">
-        <v>0.22620000000000001</v>
+        <v>-1.2665</v>
       </c>
       <c r="R8">
         <v>-1.2334000000000001</v>
       </c>
       <c r="S8">
-        <v>1</v>
+        <v>1E-3</v>
       </c>
       <c r="T8">
-        <v>2.1303999999999998</v>
+        <v>1097.0763999999999</v>
       </c>
       <c r="U8">
-        <v>16.852499999999999</v>
+        <v>9774.5705999999991</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.2">
@@ -9692,19 +9692,19 @@
         <v>2</v>
       </c>
       <c r="F9">
-        <v>-0.51939999999999997</v>
+        <v>-1.266</v>
       </c>
       <c r="G9">
         <v>-1.2231000000000001</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>1E-3</v>
       </c>
       <c r="I9">
-        <v>0.49519999999999997</v>
+        <v>1842.9109000000001</v>
       </c>
       <c r="J9">
-        <v>4.5072000000000001</v>
+        <v>13377.1248</v>
       </c>
       <c r="L9" t="s">
         <v>124</v>
@@ -9722,19 +9722,19 @@
         <v>2</v>
       </c>
       <c r="Q9">
-        <v>0.2261</v>
+        <v>-1.2613000000000001</v>
       </c>
       <c r="R9">
         <v>-1.2231000000000001</v>
       </c>
       <c r="S9">
-        <v>1</v>
+        <v>1E-3</v>
       </c>
       <c r="T9">
-        <v>2.1000999999999999</v>
+        <v>1463.0754999999999</v>
       </c>
       <c r="U9">
-        <v>18.9526</v>
+        <v>11237.646000000001</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.2">
@@ -9754,19 +9754,19 @@
         <v>2</v>
       </c>
       <c r="F10">
-        <v>-0.50649999999999995</v>
+        <v>-1.2516</v>
       </c>
       <c r="G10">
         <v>-1.2070000000000001</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>1E-3</v>
       </c>
       <c r="I10">
-        <v>0.49070000000000003</v>
+        <v>1986.652</v>
       </c>
       <c r="J10">
-        <v>4.9978999999999996</v>
+        <v>15363.7768</v>
       </c>
       <c r="L10" t="s">
         <v>124</v>
@@ -9784,19 +9784,19 @@
         <v>2</v>
       </c>
       <c r="Q10">
-        <v>0.22600000000000001</v>
+        <v>-1.2462</v>
       </c>
       <c r="R10">
         <v>-1.2070000000000001</v>
       </c>
       <c r="S10">
-        <v>1</v>
+        <v>1E-3</v>
       </c>
       <c r="T10">
-        <v>2.0533999999999999</v>
+        <v>1533.8738000000001</v>
       </c>
       <c r="U10">
-        <v>21.006</v>
+        <v>12771.5198</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.2">
@@ -9816,19 +9816,19 @@
         <v>2</v>
       </c>
       <c r="F11">
-        <v>-0.4874</v>
+        <v>-1.2246999999999999</v>
       </c>
       <c r="G11">
         <v>-1.1841999999999999</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>1E-3</v>
       </c>
       <c r="I11">
-        <v>0.4854</v>
+        <v>1647.6411000000001</v>
       </c>
       <c r="J11">
-        <v>5.4832999999999998</v>
+        <v>17011.4179</v>
       </c>
       <c r="L11" t="s">
         <v>124</v>
@@ -9846,19 +9846,19 @@
         <v>2</v>
       </c>
       <c r="Q11">
-        <v>0.2258</v>
+        <v>-1.2194</v>
       </c>
       <c r="R11">
         <v>-1.1841999999999999</v>
       </c>
       <c r="S11">
-        <v>1</v>
+        <v>1E-3</v>
       </c>
       <c r="T11">
-        <v>1.9881</v>
+        <v>1241.8641</v>
       </c>
       <c r="U11">
-        <v>22.9941</v>
+        <v>14013.383900000001</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.2">
@@ -9878,19 +9878,19 @@
         <v>2</v>
       </c>
       <c r="F12">
-        <v>-0.46100000000000002</v>
+        <v>-1.1832</v>
       </c>
       <c r="G12">
         <v>-1.1540999999999999</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>1E-3</v>
       </c>
       <c r="I12">
-        <v>0.48049999999999998</v>
+        <v>844.9787</v>
       </c>
       <c r="J12">
-        <v>5.9638</v>
+        <v>17856.3966</v>
       </c>
       <c r="L12" t="s">
         <v>124</v>
@@ -9908,19 +9908,19 @@
         <v>2</v>
       </c>
       <c r="Q12">
-        <v>0.22570000000000001</v>
+        <v>-1.1791</v>
       </c>
       <c r="R12">
         <v>-1.1540999999999999</v>
       </c>
       <c r="S12">
-        <v>1</v>
+        <v>1E-3</v>
       </c>
       <c r="T12">
-        <v>1.9038999999999999</v>
+        <v>623.68939999999998</v>
       </c>
       <c r="U12">
-        <v>24.898099999999999</v>
+        <v>14637.0733</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.2">
@@ -9940,19 +9940,19 @@
         <v>2</v>
       </c>
       <c r="F13">
-        <v>-0.4259</v>
+        <v>-1.1243000000000001</v>
       </c>
       <c r="G13">
         <v>-1.1157999999999999</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>1E-3</v>
       </c>
       <c r="I13">
-        <v>0.47599999999999998</v>
+        <v>71.866100000000003</v>
       </c>
       <c r="J13">
-        <v>6.4397000000000002</v>
+        <v>17928.2628</v>
       </c>
       <c r="L13" t="s">
         <v>124</v>
@@ -9970,19 +9970,19 @@
         <v>2</v>
       </c>
       <c r="Q13">
-        <v>0.22550000000000001</v>
+        <v>-1.1232</v>
       </c>
       <c r="R13">
         <v>-1.1157999999999999</v>
       </c>
       <c r="S13">
-        <v>1</v>
+        <v>1E-3</v>
       </c>
       <c r="T13">
-        <v>1.7991999999999999</v>
+        <v>54.493400000000001</v>
       </c>
       <c r="U13">
-        <v>26.697299999999998</v>
+        <v>14691.566699999999</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.2">
@@ -10002,19 +10002,19 @@
         <v>2</v>
       </c>
       <c r="F14">
-        <v>-0.38069999999999998</v>
+        <v>-1.0448999999999999</v>
       </c>
       <c r="G14">
         <v>-1.0682</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>1E-3</v>
       </c>
       <c r="I14">
-        <v>0.47270000000000001</v>
+        <v>544.07439999999997</v>
       </c>
       <c r="J14">
-        <v>6.9123999999999999</v>
+        <v>18472.337100000001</v>
       </c>
       <c r="L14" t="s">
         <v>124</v>
@@ -10032,19 +10032,19 @@
         <v>2</v>
       </c>
       <c r="Q14">
-        <v>0.22539999999999999</v>
+        <v>-1.0491999999999999</v>
       </c>
       <c r="R14">
         <v>-1.0682</v>
       </c>
       <c r="S14">
-        <v>1</v>
+        <v>1E-3</v>
       </c>
       <c r="T14">
-        <v>1.6733</v>
+        <v>360.17129999999997</v>
       </c>
       <c r="U14">
-        <v>28.3706</v>
+        <v>15051.737999999999</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.2">
@@ -10064,19 +10064,19 @@
         <v>2</v>
       </c>
       <c r="F15">
-        <v>-0.3236</v>
+        <v>-0.94140000000000001</v>
       </c>
       <c r="G15">
         <v>-1.0101</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>1E-3</v>
       </c>
       <c r="I15">
-        <v>0.4713</v>
+        <v>4721.6588000000002</v>
       </c>
       <c r="J15">
-        <v>7.3837000000000002</v>
+        <v>23193.995999999999</v>
       </c>
       <c r="L15" t="s">
         <v>124</v>
@@ -10094,19 +10094,19 @@
         <v>2</v>
       </c>
       <c r="Q15">
-        <v>0.22520000000000001</v>
+        <v>-0.95450000000000002</v>
       </c>
       <c r="R15">
         <v>-1.0101</v>
       </c>
       <c r="S15">
-        <v>1</v>
+        <v>1E-3</v>
       </c>
       <c r="T15">
-        <v>1.5259</v>
+        <v>3089.2703000000001</v>
       </c>
       <c r="U15">
-        <v>29.8965</v>
+        <v>18141.008399999999</v>
       </c>
     </row>
   </sheetData>

--- a/data/data_collection.xlsx
+++ b/data/data_collection.xlsx
@@ -4,33 +4,34 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="9015" tabRatio="719" activeTab="8"/>
+    <workbookView windowWidth="20385" windowHeight="8400" tabRatio="719" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="data11" sheetId="1" r:id="rId1"/>
     <sheet name="data12" sheetId="2" r:id="rId2"/>
     <sheet name="CCmd" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet6" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet7" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
-    <sheet name="Sheet2" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet6" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet7" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId7"/>
     <sheet name="phonopy" sheetId="8" r:id="rId8"/>
     <sheet name="Sheet4" sheetId="9" r:id="rId9"/>
     <sheet name="Sheet5" sheetId="10" r:id="rId10"/>
     <sheet name="Sheet3" sheetId="11" r:id="rId11"/>
   </sheets>
   <definedNames>
-    <definedName name="_99_optimized" localSheetId="4">Sheet7!$A$1:$J$15</definedName>
-    <definedName name="_99_optimized_1" localSheetId="4">Sheet7!$L$1:$U$15</definedName>
+    <definedName name="_99_optimized" localSheetId="5">Sheet7!$A$1:$J$15</definedName>
+    <definedName name="_99_optimized_1" localSheetId="5">Sheet7!$L$1:$U$15</definedName>
     <definedName name="ExternalData_1" localSheetId="7">phonopy!$A$1:$F$24</definedName>
-    <definedName name="ExternalData_1" localSheetId="5">Sheet1!$A$1:$I$24</definedName>
-    <definedName name="ExternalData_1" localSheetId="6">Sheet2!$A$1:$I$24</definedName>
+    <definedName name="ExternalData_1" localSheetId="6">Sheet1!$A$1:$I$24</definedName>
+    <definedName name="ExternalData_1" localSheetId="3">Sheet2!$A$1:$J$17</definedName>
     <definedName name="ExternalData_1" localSheetId="10">Sheet3!$A$1:$F$30</definedName>
     <definedName name="ExternalData_1" localSheetId="8">Sheet4!$A$1:$I$24</definedName>
     <definedName name="ExternalData_1" localSheetId="9">Sheet5!$B$1:$J$24</definedName>
     <definedName name="ExternalData_2" localSheetId="10">Sheet3!$K$1:$O$30</definedName>
     <definedName name="ExternalData_2" localSheetId="8">Sheet4!$L$1:$T$24</definedName>
     <definedName name="ExternalData_3" localSheetId="10">Sheet3!$J$1:$O$30</definedName>
+    <definedName name="ExternalData_2" localSheetId="3">Sheet2!$L$1:$U$15</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
@@ -100,15 +101,15 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="3" name="tmp" type="6" background="1" refreshedVersion="2" saveData="1">
-    <textPr sourceFile="F:\William\PV0c\tmp.txt" space="1" consecutive="1">
+  <connection id="3" name="99-original" type="6" background="1" refreshedVersion="2" saveData="1">
+    <textPr sourceFile="F:\William\MD-X6S\graphite\99-original.txt" space="1" consecutive="1">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="4" name="tmp1" type="6" background="1" refreshedVersion="2" saveData="1">
-    <textPr sourceFile="F:\William\PBE3\tmp.txt" space="1" consecutive="1">
+  <connection id="4" name="tmp" type="6" background="1" refreshedVersion="2" saveData="1">
+    <textPr sourceFile="F:\William\PV0c\tmp.txt" space="1" consecutive="1">
       <textFields>
         <textField/>
       </textFields>
@@ -128,28 +129,35 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="7" name="tmpp" type="6" background="1" refreshedVersion="2" saveData="1">
+  <connection id="7" name="tmp_optimized" type="6" background="1" refreshedVersion="2" saveData="1">
+    <textPr sourceFile="F:\William\MD-X6S\graphite\tmp_optimized.txt" space="1" consecutive="1">
+      <textFields>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="8" name="tmpp" type="6" background="1" refreshedVersion="2" saveData="1">
     <textPr sourceFile="F:\William\PV0c\tmpp.txt" space="1" consecutive="1">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="8" name="tmpp1" type="6" background="1" refreshedVersion="2" saveData="1">
+  <connection id="9" name="tmpp1" type="6" background="1" refreshedVersion="2" saveData="1">
     <textPr sourceFile="F:\William\PV0c\tmpp.txt" space="1" consecutive="1">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="9" name="tmpt" type="6" background="1" refreshedVersion="2" saveData="1">
+  <connection id="10" name="tmpt" type="6" background="1" refreshedVersion="2" saveData="1">
     <textPr sourceFile="F:\William\PV0c\tmpt.txt" space="1" consecutive="1">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="10" name="tmpt1" type="6" background="1" refreshedVersion="2" saveData="1">
+  <connection id="11" name="tmpt1" type="6" background="1" refreshedVersion="2" saveData="1">
     <textPr sourceFile="F:\William\PBE3\tmpt.txt" space="1" consecutive="1">
       <textFields>
         <textField/>
@@ -160,7 +168,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166">
   <si>
     <t>C(A)</t>
   </si>
@@ -270,6 +278,9 @@
     <t>ref</t>
   </si>
   <si>
+    <t>C</t>
+  </si>
+  <si>
     <t>QM</t>
   </si>
   <si>
@@ -291,6 +302,27 @@
     <t>X6-optimized</t>
   </si>
   <si>
+    <t>FField</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>QM/Lit</t>
+  </si>
+  <si>
+    <t>Weight</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>error</t>
+  </si>
+  <si>
     <t>Energy</t>
   </si>
   <si>
@@ -309,37 +341,76 @@
     <t>+CC-68970/</t>
   </si>
   <si>
+    <t>493208.86721463968.4628</t>
+  </si>
+  <si>
     <t>+CC-68307/</t>
   </si>
   <si>
+    <t>497757.79881961726.2616</t>
+  </si>
+  <si>
     <t>+CC-67643/</t>
   </si>
   <si>
+    <t>502482.72172464208.9833</t>
+  </si>
+  <si>
     <t>+CC-66980/</t>
   </si>
   <si>
+    <t>507411.15952971620.1428</t>
+  </si>
+  <si>
     <t>+CC-66317/</t>
   </si>
   <si>
+    <t>512950.51623484570.6590</t>
+  </si>
+  <si>
     <t>+CC-65654/</t>
   </si>
   <si>
+    <t>520010.96164004581.6206</t>
+  </si>
+  <si>
     <t>+CC-64991/</t>
   </si>
   <si>
+    <t>528996.92064533578.5411</t>
+  </si>
+  <si>
     <t>+CC-64327/</t>
   </si>
   <si>
+    <t>541004.82125074583.3623</t>
+  </si>
+  <si>
     <t>+CC-63664/</t>
   </si>
   <si>
+    <t>556845.55855631428.9208</t>
+  </si>
+  <si>
     <t>+CC-63001/</t>
   </si>
   <si>
+    <t>578783.91576210212.8365</t>
+  </si>
+  <si>
     <t>+CC-62338/</t>
   </si>
   <si>
+    <t>608588.13366818800.9702</t>
+  </si>
+  <si>
     <t>+CC-61675/</t>
+  </si>
+  <si>
+    <t>649138.15057467939.1206</t>
+  </si>
+  <si>
+    <t>704011.80168171950.9223</t>
   </si>
   <si>
     <t>./a/OSZICAR:</t>
@@ -603,11 +674,18 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="23">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -626,17 +704,11 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -644,8 +716,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -660,15 +733,60 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -682,10 +800,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -704,59 +851,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -764,6 +858,60 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -779,13 +927,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -797,19 +1011,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -821,25 +1023,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -851,103 +1041,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -961,20 +1055,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -998,7 +1089,40 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1028,188 +1152,169 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="47">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="47">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -1220,432 +1325,51 @@
     <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
     <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
     <cellStyle name="Note" xfId="9" builtinId="10"/>
-    <cellStyle name="60% - Accent4" xfId="10" builtinId="44"/>
-    <cellStyle name="40% - Accent3" xfId="11" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="12" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="13" builtinId="35"/>
-    <cellStyle name="Title" xfId="14" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="15" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="16" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="17" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="18" builtinId="19"/>
-    <cellStyle name="Input" xfId="19" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="20" builtinId="40"/>
-    <cellStyle name="Good" xfId="21" builtinId="26"/>
-    <cellStyle name="Output" xfId="22" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="23" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="24" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="25" builtinId="24"/>
-    <cellStyle name="Total" xfId="26" builtinId="25"/>
-    <cellStyle name="Bad" xfId="27" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="28" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="29" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="30" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="31" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="32" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="33" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="34" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="35" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="36" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="37" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="38" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="39" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="40" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="42" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="43" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="44" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="45" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="46" builtinId="52"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="marker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="31750" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet6!$A$1:$A$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>3.7027</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.7127</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.7227</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.7327</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.7427</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.7527</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.7627</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.7727</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3.7827</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.7927</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3.8027</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3.8127</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3.9127</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3.9627</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4.0527</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>4.1027</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>4.1127</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>4.2127</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet6!$B$1:$B$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>-0.4074</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-0.4119</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-0.4164</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-0.4207</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-0.425</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-0.4291</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-0.4332</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-0.4371</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-0.4409</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-0.4447</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-0.4482</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-0.4517</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-0.4768</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-0.4813</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-0.4702</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-0.4506</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-0.4453</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-0.3622</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:dLblPos val="r"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="2143919328"/>
-        <c:axId val="2143920400"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="2143919328"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2143920400"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="2143920400"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2143919328"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" horzOverflow="overflow" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr lang="en-US"/>
-      </a:pPr>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins r="0.7" b="0.75" l="0.7" footer="0.3" header="0.3" t="0.75"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -2168,7 +1892,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -2692,46 +2416,6 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3803,558 +3487,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>241300</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame>
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="3467100" y="400050"/>
-        <a:ext cx="5003800" cy="5372100"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4420,8 +3553,8 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="99-optimized" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh preserveSortFilterLayout="1" nextId="11">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_2" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+  <queryTableRefresh preserveSortFilterLayout="0" nextId="11">
     <queryTableFields count="10">
       <queryTableField id="1" dataBound="0"/>
       <queryTableField id="2" dataBound="0"/>
@@ -4453,7 +3586,41 @@
 </queryTable>
 </file>
 
+<file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="11" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+  <queryTableRefresh preserveSortFilterLayout="0" nextId="7">
+    <queryTableFields count="6">
+      <queryTableField id="1" dataBound="0"/>
+      <queryTableField id="2" dataBound="0"/>
+      <queryTableField id="3" dataBound="0"/>
+      <queryTableField id="4" dataBound="0"/>
+      <queryTableField id="5" dataBound="0"/>
+      <queryTableField id="6" dataBound="0"/>
+    </queryTableFields>
+  </queryTableRefresh>
+</queryTable>
+</file>
+
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+  <queryTableRefresh preserveSortFilterLayout="0" nextId="11">
+    <queryTableFields count="10">
+      <queryTableField id="1" dataBound="0"/>
+      <queryTableField id="2" dataBound="0"/>
+      <queryTableField id="3" dataBound="0"/>
+      <queryTableField id="4" dataBound="0"/>
+      <queryTableField id="5" dataBound="0"/>
+      <queryTableField id="6" dataBound="0"/>
+      <queryTableField id="7" dataBound="0"/>
+      <queryTableField id="8" dataBound="0"/>
+      <queryTableField id="9" dataBound="0"/>
+      <queryTableField id="10" dataBound="0"/>
+    </queryTableFields>
+  </queryTableRefresh>
+</queryTable>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="99-optimized_1" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="1" nextId="11">
     <queryTableFields count="10">
@@ -4472,10 +3639,10 @@
 </queryTable>
 </file>
 
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh preserveSortFilterLayout="0" nextId="10">
-    <queryTableFields count="9">
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="99-optimized" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+  <queryTableRefresh preserveSortFilterLayout="1" nextId="11">
+    <queryTableFields count="10">
       <queryTableField id="1" dataBound="0"/>
       <queryTableField id="2" dataBound="0"/>
       <queryTableField id="3" dataBound="0"/>
@@ -4485,12 +3652,13 @@
       <queryTableField id="7" dataBound="0"/>
       <queryTableField id="8" dataBound="0"/>
       <queryTableField id="9" dataBound="0"/>
+      <queryTableField id="10" dataBound="0"/>
     </queryTableFields>
   </queryTableRefresh>
 </queryTable>
 </file>
 
-<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="0" nextId="10">
     <queryTableFields count="9">
@@ -4508,8 +3676,8 @@
 </queryTable>
 </file>
 
-<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="10" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="0" nextId="7">
     <queryTableFields count="6">
       <queryTableField id="1" dataBound="0"/>
@@ -4518,24 +3686,6 @@
       <queryTableField id="4" dataBound="0"/>
       <queryTableField id="5" dataBound="0"/>
       <queryTableField id="6" dataBound="0"/>
-    </queryTableFields>
-  </queryTableRefresh>
-</queryTable>
-</file>
-
-<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_2" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh preserveSortFilterLayout="0" nextId="10">
-    <queryTableFields count="9">
-      <queryTableField id="1" dataBound="0"/>
-      <queryTableField id="2" dataBound="0"/>
-      <queryTableField id="3" dataBound="0"/>
-      <queryTableField id="4" dataBound="0"/>
-      <queryTableField id="5" dataBound="0"/>
-      <queryTableField id="6" dataBound="0"/>
-      <queryTableField id="7" dataBound="0"/>
-      <queryTableField id="8" dataBound="0"/>
-      <queryTableField id="9" dataBound="0"/>
     </queryTableFields>
   </queryTableRefresh>
 </queryTable>
@@ -4560,7 +3710,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_2" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="0" nextId="10">
     <queryTableFields count="9">
       <queryTableField id="1" dataBound="0"/>
@@ -4578,15 +3728,18 @@
 </file>
 
 <file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="10" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh preserveSortFilterLayout="0" nextId="7">
-    <queryTableFields count="6">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+  <queryTableRefresh preserveSortFilterLayout="0" nextId="10">
+    <queryTableFields count="9">
       <queryTableField id="1" dataBound="0"/>
       <queryTableField id="2" dataBound="0"/>
       <queryTableField id="3" dataBound="0"/>
       <queryTableField id="4" dataBound="0"/>
       <queryTableField id="5" dataBound="0"/>
       <queryTableField id="6" dataBound="0"/>
+      <queryTableField id="7" dataBound="0"/>
+      <queryTableField id="8" dataBound="0"/>
+      <queryTableField id="9" dataBound="0"/>
     </queryTableFields>
   </queryTableRefresh>
 </queryTable>
@@ -5731,13 +4884,13 @@
         <v>7.734603659</v>
       </c>
       <c r="B1" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="C1" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="D1" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="E1">
         <v>-2.70814</v>
@@ -5763,13 +4916,13 @@
         <v>7.398316544</v>
       </c>
       <c r="B2" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="C2" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="D2" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="E2">
         <v>-3.40202</v>
@@ -5795,13 +4948,13 @@
         <v>7.06202942799999</v>
       </c>
       <c r="B3" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="C3" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="D3" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="E3">
         <v>-4.50753</v>
@@ -5827,13 +4980,13 @@
         <v>6.99477200493787</v>
       </c>
       <c r="B4" t="s">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="C4" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="D4" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="E4">
         <v>-4.78273</v>
@@ -5859,13 +5012,13 @@
         <v>6.92751458181347</v>
       </c>
       <c r="B5" t="s">
-        <v>118</v>
+        <v>139</v>
       </c>
       <c r="C5" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="D5" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="E5">
         <v>-5.08591</v>
@@ -5891,13 +5044,13 @@
         <v>6.86025715868907</v>
       </c>
       <c r="B6" t="s">
-        <v>119</v>
+        <v>140</v>
       </c>
       <c r="C6" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="D6" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="E6">
         <v>-5.40348</v>
@@ -5923,13 +5076,13 @@
         <v>6.79299973556466</v>
       </c>
       <c r="B7" t="s">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="C7" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="D7" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="E7">
         <v>-5.75432</v>
@@ -5955,13 +5108,13 @@
         <v>6.72574231244026</v>
       </c>
       <c r="B8" t="s">
-        <v>122</v>
+        <v>143</v>
       </c>
       <c r="C8" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="D8" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="E8">
         <v>-6.11871</v>
@@ -5987,13 +5140,13 @@
         <v>6.65848488931586</v>
       </c>
       <c r="B9" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="C9" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="D9" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="E9">
         <v>-6.54105</v>
@@ -6019,13 +5172,13 @@
         <v>6.59122746619145</v>
       </c>
       <c r="B10" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="C10" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="D10" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="E10">
         <v>-6.92346</v>
@@ -6051,13 +5204,13 @@
         <v>6.52397004306705</v>
       </c>
       <c r="B11" t="s">
-        <v>125</v>
+        <v>146</v>
       </c>
       <c r="C11" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="D11" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="E11">
         <v>-7.3603</v>
@@ -6083,13 +5236,13 @@
         <v>6.45671261994265</v>
       </c>
       <c r="B12" t="s">
-        <v>126</v>
+        <v>147</v>
       </c>
       <c r="C12" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="D12" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="E12">
         <v>-7.85094</v>
@@ -6115,13 +5268,13 @@
         <v>6.389455197</v>
       </c>
       <c r="B13" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="C13" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="D13" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="E13">
         <v>-8.29527</v>
@@ -6147,13 +5300,13 @@
         <v>6.05316808099999</v>
       </c>
       <c r="B14" t="s">
-        <v>128</v>
+        <v>149</v>
       </c>
       <c r="C14" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="D14" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="E14">
         <v>-11.01718</v>
@@ -6179,13 +5332,13 @@
         <v>5.71688096599999</v>
       </c>
       <c r="B15" t="s">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="C15" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="D15" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="E15">
         <v>-14.16293</v>
@@ -6211,13 +5364,13 @@
         <v>5.38059385</v>
       </c>
       <c r="B16" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="C16" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="D16" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="E16">
         <v>-17.17197</v>
@@ -6243,13 +5396,13 @@
         <v>5.044306734</v>
       </c>
       <c r="B17" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="C17" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="D17" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="E17">
         <v>-17.75908</v>
@@ -6275,13 +5428,13 @@
         <v>4.70801961899999</v>
       </c>
       <c r="B18" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
       <c r="C18" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="D18" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="E18">
         <v>-14.08485</v>
@@ -6307,13 +5460,13 @@
         <v>4.37173250299999</v>
       </c>
       <c r="B19" t="s">
-        <v>133</v>
+        <v>154</v>
       </c>
       <c r="C19" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="D19" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="E19">
         <v>-9.69094</v>
@@ -6339,13 +5492,13 @@
         <v>4.035445387</v>
       </c>
       <c r="B20" t="s">
+        <v>155</v>
+      </c>
+      <c r="C20" t="s">
         <v>134</v>
       </c>
-      <c r="C20" t="s">
-        <v>113</v>
-      </c>
       <c r="D20" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="E20">
         <v>62.64671</v>
@@ -6371,13 +5524,13 @@
         <v>3.69915827100001</v>
       </c>
       <c r="B21" t="s">
+        <v>156</v>
+      </c>
+      <c r="C21" t="s">
+        <v>134</v>
+      </c>
+      <c r="D21" t="s">
         <v>135</v>
-      </c>
-      <c r="C21" t="s">
-        <v>113</v>
-      </c>
-      <c r="D21" t="s">
-        <v>114</v>
       </c>
       <c r="E21">
         <v>238.657</v>
@@ -6403,13 +5556,13 @@
         <v>3.36287115500002</v>
       </c>
       <c r="B22" t="s">
-        <v>136</v>
+        <v>157</v>
       </c>
       <c r="C22" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="D22" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="E22">
         <v>709.01882</v>
@@ -6435,13 +5588,13 @@
         <v>3.02658403900003</v>
       </c>
       <c r="B23" t="s">
-        <v>137</v>
+        <v>158</v>
       </c>
       <c r="C23" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="D23" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="E23">
         <v>1922.70321</v>
@@ -6467,13 +5620,13 @@
         <v>2.69029692300004</v>
       </c>
       <c r="B24" t="s">
-        <v>138</v>
+        <v>159</v>
       </c>
       <c r="C24" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="D24" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="E24">
         <v>3453.20136</v>
@@ -6518,7 +5671,7 @@
   <dimension ref="A1:P30"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="D15" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -6535,7 +5688,7 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -6557,7 +5710,7 @@
         <v>0.0212973013381394</v>
       </c>
       <c r="J1" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="K1">
         <v>300</v>
@@ -6581,7 +5734,7 @@
     </row>
     <row r="2" spans="1:16">
       <c r="A2" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -6603,7 +5756,7 @@
         <v>0.0213150838717795</v>
       </c>
       <c r="J2" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="K2">
         <v>300</v>
@@ -6627,7 +5780,7 @@
     </row>
     <row r="3" spans="1:16">
       <c r="A3" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -6649,7 +5802,7 @@
         <v>0.0213514365883235</v>
       </c>
       <c r="J3" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="K3">
         <v>300</v>
@@ -6673,7 +5826,7 @@
     </row>
     <row r="4" spans="1:16">
       <c r="A4" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -6695,7 +5848,7 @@
         <v>0.0213704943512894</v>
       </c>
       <c r="J4" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="K4">
         <v>300</v>
@@ -6719,7 +5872,7 @@
     </row>
     <row r="5" spans="1:16">
       <c r="A5" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -6741,7 +5894,7 @@
         <v>0.0213854811300705</v>
       </c>
       <c r="J5" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="K5">
         <v>300</v>
@@ -6765,7 +5918,7 @@
     </row>
     <row r="6" spans="1:16">
       <c r="A6" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -6787,7 +5940,7 @@
         <v>0.0214245984414376</v>
       </c>
       <c r="J6" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="K6">
         <v>300</v>
@@ -6811,7 +5964,7 @@
     </row>
     <row r="7" spans="1:16">
       <c r="A7" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -6833,7 +5986,7 @@
         <v>0.0214416347213709</v>
       </c>
       <c r="J7" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="K7">
         <v>300</v>
@@ -6857,7 +6010,7 @@
     </row>
     <row r="8" spans="1:16">
       <c r="A8" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -6879,7 +6032,7 @@
         <v>0.0214761407685137</v>
       </c>
       <c r="J8" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="K8">
         <v>300</v>
@@ -6903,7 +6056,7 @@
     </row>
     <row r="9" spans="1:16">
       <c r="A9" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -6925,7 +6078,7 @@
         <v>0.0214953236250955</v>
       </c>
       <c r="J9" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="K9">
         <v>300</v>
@@ -6949,7 +6102,7 @@
     </row>
     <row r="10" spans="1:16">
       <c r="A10" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -6971,7 +6124,7 @@
         <v>0.0215045517247771</v>
       </c>
       <c r="J10" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="K10">
         <v>300</v>
@@ -6995,7 +6148,7 @@
     </row>
     <row r="11" spans="1:16">
       <c r="A11" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -7017,7 +6170,7 @@
         <v>0.0215259662164836</v>
       </c>
       <c r="J11" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="K11">
         <v>300</v>
@@ -7041,7 +6194,7 @@
     </row>
     <row r="12" spans="1:16">
       <c r="A12" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -7063,7 +6216,7 @@
         <v>0.0215454250434452</v>
       </c>
       <c r="J12" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="K12">
         <v>300</v>
@@ -7087,7 +6240,7 @@
     </row>
     <row r="13" spans="1:16">
       <c r="A13" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -7109,7 +6262,7 @@
         <v>0.02155955563384</v>
       </c>
       <c r="J13" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="K13">
         <v>300</v>
@@ -7133,7 +6286,7 @@
     </row>
     <row r="14" spans="1:16">
       <c r="A14" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -7155,7 +6308,7 @@
         <v>0.0215758343232551</v>
       </c>
       <c r="J14" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="K14">
         <v>300</v>
@@ -7179,7 +6332,7 @@
     </row>
     <row r="15" spans="1:16">
       <c r="A15" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -7201,7 +6354,7 @@
         <v>0.0215897807066604</v>
       </c>
       <c r="J15" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="K15">
         <v>300</v>
@@ -7225,7 +6378,7 @@
     </row>
     <row r="16" spans="1:16">
       <c r="A16" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -7247,7 +6400,7 @@
         <v>0.00616135745718576</v>
       </c>
       <c r="J16" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="K16">
         <v>300</v>
@@ -7271,7 +6424,7 @@
     </row>
     <row r="17" spans="1:16">
       <c r="A17" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -7293,7 +6446,7 @@
         <v>0.00642130111638179</v>
       </c>
       <c r="J17" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="K17">
         <v>300</v>
@@ -7317,7 +6470,7 @@
     </row>
     <row r="18" spans="1:16">
       <c r="A18" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -7339,7 +6492,7 @@
         <v>0.00668963932810497</v>
       </c>
       <c r="J18" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="K18">
         <v>300</v>
@@ -7363,7 +6516,7 @@
     </row>
     <row r="19" spans="1:16">
       <c r="A19" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -7385,7 +6538,7 @@
         <v>0.00722596664254261</v>
       </c>
       <c r="J19" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="K19">
         <v>300</v>
@@ -7409,7 +6562,7 @@
     </row>
     <row r="20" spans="1:16">
       <c r="A20" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -7431,7 +6584,7 @@
         <v>0.00725404306569759</v>
       </c>
       <c r="J20" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
       <c r="K20">
         <v>300</v>
@@ -7455,7 +6608,7 @@
     </row>
     <row r="21" spans="1:16">
       <c r="A21" t="s">
-        <v>107</v>
+        <v>128</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -7477,7 +6630,7 @@
         <v>0.00725404306569759</v>
       </c>
       <c r="J21" t="s">
-        <v>107</v>
+        <v>128</v>
       </c>
       <c r="K21">
         <v>300</v>
@@ -7501,7 +6654,7 @@
     </row>
     <row r="22" spans="1:16">
       <c r="A22" t="s">
-        <v>108</v>
+        <v>129</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -7523,7 +6676,7 @@
         <v>0.00725404306569759</v>
       </c>
       <c r="J22" t="s">
-        <v>108</v>
+        <v>129</v>
       </c>
       <c r="K22">
         <v>300</v>
@@ -7547,7 +6700,7 @@
     </row>
     <row r="23" spans="1:16">
       <c r="A23" t="s">
-        <v>109</v>
+        <v>130</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -7569,7 +6722,7 @@
         <v>0.00725404306569759</v>
       </c>
       <c r="J23" t="s">
-        <v>109</v>
+        <v>130</v>
       </c>
       <c r="K23">
         <v>300</v>
@@ -7593,7 +6746,7 @@
     </row>
     <row r="24" spans="1:16">
       <c r="A24" t="s">
-        <v>110</v>
+        <v>131</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -7615,7 +6768,7 @@
         <v>0.00725404306569759</v>
       </c>
       <c r="J24" t="s">
-        <v>110</v>
+        <v>131</v>
       </c>
       <c r="K24">
         <v>300</v>
@@ -7639,7 +6792,7 @@
     </row>
     <row r="25" spans="1:15">
       <c r="A25" t="s">
-        <v>139</v>
+        <v>160</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -7657,7 +6810,7 @@
         <v>22.395319</v>
       </c>
       <c r="J25" t="s">
-        <v>139</v>
+        <v>160</v>
       </c>
       <c r="K25">
         <v>300</v>
@@ -7677,7 +6830,7 @@
     </row>
     <row r="26" spans="1:15">
       <c r="A26" t="s">
-        <v>140</v>
+        <v>161</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -7695,7 +6848,7 @@
         <v>22.395319</v>
       </c>
       <c r="J26" t="s">
-        <v>140</v>
+        <v>161</v>
       </c>
       <c r="K26">
         <v>300</v>
@@ -7715,7 +6868,7 @@
     </row>
     <row r="27" spans="1:15">
       <c r="A27" t="s">
-        <v>141</v>
+        <v>162</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -7733,7 +6886,7 @@
         <v>72.8132429</v>
       </c>
       <c r="J27" t="s">
-        <v>141</v>
+        <v>162</v>
       </c>
       <c r="K27">
         <v>300</v>
@@ -7753,7 +6906,7 @@
     </row>
     <row r="28" spans="1:15">
       <c r="A28" t="s">
-        <v>142</v>
+        <v>163</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -7771,7 +6924,7 @@
         <v>16.0294562</v>
       </c>
       <c r="J28" t="s">
-        <v>142</v>
+        <v>163</v>
       </c>
       <c r="K28">
         <v>300</v>
@@ -7791,7 +6944,7 @@
     </row>
     <row r="29" spans="1:15">
       <c r="A29" t="s">
-        <v>143</v>
+        <v>164</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -7809,7 +6962,7 @@
         <v>17.5375936</v>
       </c>
       <c r="J29" t="s">
-        <v>143</v>
+        <v>164</v>
       </c>
       <c r="K29">
         <v>300</v>
@@ -7829,7 +6982,7 @@
     </row>
     <row r="30" spans="1:15">
       <c r="A30" t="s">
-        <v>144</v>
+        <v>165</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -7847,7 +7000,7 @@
         <v>18.1291886</v>
       </c>
       <c r="J30" t="s">
-        <v>144</v>
+        <v>165</v>
       </c>
       <c r="K30">
         <v>300</v>
@@ -7888,29 +7041,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="4"/>
-      <c r="B1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="A1" s="9"/>
+      <c r="B1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="I1" s="4"/>
+      <c r="I1" s="9"/>
     </row>
     <row r="2" spans="2:13">
       <c r="B2" s="1">
@@ -7919,11 +7072,11 @@
       <c r="C2">
         <v>-9.35571075</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="10">
         <f>C2+F2</f>
         <v>-9.35571075</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="10">
         <v>0</v>
       </c>
       <c r="F2" s="1">
@@ -7947,11 +7100,11 @@
       <c r="C3">
         <v>-9.36041425</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="10">
         <f t="shared" ref="D3:D18" si="1">C3+F3</f>
         <v>-9.36041425</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="10">
         <v>0</v>
       </c>
       <c r="F3" s="1">
@@ -7960,7 +7113,7 @@
       <c r="G3">
         <v>0</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="11">
         <v>-214.676473994638</v>
       </c>
       <c r="L3">
@@ -7981,11 +7134,11 @@
       <c r="C4">
         <v>-9.36272175</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="10">
         <f t="shared" si="1"/>
         <v>-9.34142444866186</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="10">
         <v>-1.74798</v>
       </c>
       <c r="F4">
@@ -8023,11 +7176,11 @@
       <c r="C5">
         <v>-9.36334625</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="10">
         <f t="shared" si="1"/>
         <v>-9.34203116612822</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="10">
         <v>-1.37949</v>
       </c>
       <c r="F5">
@@ -8062,11 +7215,11 @@
       <c r="C6">
         <v>-9.36387875</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="10">
         <f t="shared" si="1"/>
         <v>-9.34252731341168</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="10">
         <v>-0.649711</v>
       </c>
       <c r="F6">
@@ -8101,11 +7254,11 @@
       <c r="C7">
         <v>-9.364291</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="10">
         <f t="shared" si="1"/>
         <v>-9.34292050564871</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="10">
         <v>-0.436941</v>
       </c>
       <c r="F7">
@@ -8140,11 +7293,11 @@
       <c r="C8">
         <v>-9.36458075</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="10">
         <f t="shared" si="1"/>
         <v>-9.34319526886993</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="10">
         <v>-0.194466</v>
       </c>
       <c r="F8">
@@ -8183,11 +7336,11 @@
       <c r="C9">
         <v>-9.36471925</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="10">
         <f t="shared" si="1"/>
         <v>-9.34329465155856</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="10">
         <v>0.083872</v>
       </c>
       <c r="F9">
@@ -8229,11 +7382,11 @@
       <c r="C10">
         <v>-9.364684</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="10">
         <f t="shared" si="1"/>
         <v>-9.34324236527863</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="10">
         <v>0.40474</v>
       </c>
       <c r="F10">
@@ -8268,11 +7421,11 @@
       <c r="C11">
         <v>-9.36446125</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="10">
         <f t="shared" si="1"/>
         <v>-9.34298510923149</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="10">
         <v>0.766066</v>
       </c>
       <c r="F11">
@@ -8307,11 +7460,11 @@
       <c r="C12">
         <v>-9.36401425</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="10">
         <f t="shared" si="1"/>
         <v>-9.3425189263749</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="10">
         <v>1.209655</v>
       </c>
       <c r="F12">
@@ -8346,11 +7499,11 @@
       <c r="C13">
         <v>-9.363318</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="10">
         <f t="shared" si="1"/>
         <v>-9.34181344827522</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="10">
         <v>1.650845</v>
       </c>
       <c r="F13">
@@ -8385,11 +7538,11 @@
       <c r="C14">
         <v>-9.36232725</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="10">
         <f t="shared" si="1"/>
         <v>-9.34080128378352</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="10">
         <v>2.184954</v>
       </c>
       <c r="F14">
@@ -8431,11 +7584,11 @@
       <c r="C15">
         <v>-9.3610255</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="10">
         <f t="shared" si="1"/>
         <v>-9.33948007495655</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="10">
         <v>2.81936</v>
       </c>
       <c r="F15">
@@ -8477,11 +7630,11 @@
       <c r="C16">
         <v>-9.359363</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="10">
         <f t="shared" si="1"/>
         <v>-9.33780344436616</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="10">
         <v>3.470399</v>
       </c>
       <c r="F16">
@@ -8523,11 +7676,11 @@
       <c r="C17">
         <v>-9.3572985</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="10">
         <f t="shared" si="1"/>
         <v>-9.33572266567675</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="10">
         <v>8.313759</v>
       </c>
       <c r="F17">
@@ -8566,11 +7719,11 @@
       <c r="C18">
         <v>-9.35477725</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="10">
         <f t="shared" si="1"/>
         <v>-9.33318746929334</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="10">
         <v>16.364584</v>
       </c>
       <c r="F18">
@@ -8612,11 +7765,11 @@
       <c r="C19">
         <v>-9.3439195</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="10">
         <f t="shared" ref="D19:D30" si="6">C19+F19</f>
         <v>-9.3439195</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="10">
         <v>29.162834</v>
       </c>
       <c r="F19">
@@ -8651,11 +7804,11 @@
       <c r="C20">
         <v>-9.31057675</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="10">
         <f t="shared" si="6"/>
         <v>-9.31057675</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="10">
         <v>49.590418</v>
       </c>
       <c r="F20">
@@ -8690,11 +7843,11 @@
       <c r="C21">
         <v>-9.2470915</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="10">
         <f t="shared" si="6"/>
         <v>-9.2470915</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21" s="10">
         <v>81.795232</v>
       </c>
       <c r="F21">
@@ -8729,11 +7882,11 @@
       <c r="C22">
         <v>-9.13348925</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="10">
         <f t="shared" si="6"/>
         <v>-9.13348925</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22" s="10">
         <v>126.264436</v>
       </c>
       <c r="F22">
@@ -8768,11 +7921,11 @@
       <c r="C23">
         <v>-8.9380785</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="10">
         <f t="shared" si="6"/>
         <v>-8.9380785</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E23" s="10">
         <v>184.537527</v>
       </c>
       <c r="F23">
@@ -8807,11 +7960,11 @@
       <c r="C24">
         <v>-8.63161825</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24" s="10">
         <f t="shared" si="6"/>
         <v>-8.63161825</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E24" s="10">
         <v>278.177108</v>
       </c>
       <c r="F24">
@@ -8846,11 +7999,11 @@
       <c r="C25">
         <v>-8.18573275</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D25" s="10">
         <f t="shared" si="6"/>
         <v>-8.18573275</v>
       </c>
-      <c r="E25" s="5">
+      <c r="E25" s="10">
         <v>410.94174</v>
       </c>
       <c r="F25">
@@ -8885,7 +8038,7 @@
       <c r="C26">
         <v>-7.534209</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D26" s="10">
         <f t="shared" si="6"/>
         <v>-7.534209</v>
       </c>
@@ -8910,7 +8063,7 @@
       <c r="C27">
         <v>-6.56529875</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D27" s="10">
         <f t="shared" si="6"/>
         <v>-6.56529875</v>
       </c>
@@ -8935,7 +8088,7 @@
       <c r="C28">
         <v>-5.3080285</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D28" s="10">
         <f t="shared" si="6"/>
         <v>-5.3080285</v>
       </c>
@@ -8960,7 +8113,7 @@
       <c r="C29">
         <v>-3.53590775</v>
       </c>
-      <c r="D29" s="5">
+      <c r="D29" s="10">
         <f t="shared" si="6"/>
         <v>-3.53590775</v>
       </c>
@@ -8982,7 +8135,7 @@
       <c r="C30">
         <v>-9.310968</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D30" s="10">
         <f t="shared" si="6"/>
         <v>-9.2921861209303</v>
       </c>
@@ -9022,23 +8175,26 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="10.8333333333333" style="3"/>
-    <col min="4" max="4" width="12.8333333333333" customWidth="1"/>
-    <col min="5" max="6" width="10.3333333333333" customWidth="1"/>
-    <col min="7" max="7" width="7.66666666666667" customWidth="1"/>
-    <col min="8" max="8" width="11.8333333333333" customWidth="1"/>
+    <col min="2" max="2" width="12.625" style="4"/>
+    <col min="3" max="3" width="13.75"/>
+    <col min="4" max="4" width="9.125"/>
+    <col min="5" max="5" width="12.8333333333333" customWidth="1"/>
+    <col min="6" max="7" width="10.3333333333333" customWidth="1"/>
+    <col min="8" max="8" width="9.125" customWidth="1"/>
+    <col min="9" max="9" width="11.8333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8">
-      <c r="B1" t="s">
+    <row r="1" spans="2:9">
+      <c r="B1" s="5" t="s">
         <v>36</v>
       </c>
       <c r="C1" t="s">
@@ -9059,395 +8215,443 @@
       <c r="H1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="4">
+        <v>7.0959732791159</v>
+      </c>
+      <c r="C2">
         <v>-1.19325000000003</v>
       </c>
-      <c r="C2">
-        <v>0.0111</v>
-      </c>
-      <c r="D2">
-        <v>-0.2087</v>
-      </c>
-      <c r="E2">
-        <v>-0.489</v>
-      </c>
-      <c r="F2">
+      <c r="D2" s="6">
+        <v>-0.4985</v>
+      </c>
+      <c r="E2" s="7">
+        <v>-1.1389</v>
+      </c>
+      <c r="F2" s="6">
+        <v>-0.5643</v>
+      </c>
+      <c r="G2" s="7">
         <v>-1.1224</v>
       </c>
-      <c r="G2">
-        <v>-0.4371</v>
-      </c>
-      <c r="H2">
-        <v>-1.1273</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="H2" s="6">
+        <v>-0.5127</v>
+      </c>
+      <c r="I2" s="7">
+        <v>-1.1448</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="4">
+        <v>7.02965577183444</v>
+      </c>
+      <c r="C3">
         <v>-1.20764865951742</v>
       </c>
-      <c r="C3">
-        <v>-0.0107</v>
-      </c>
-      <c r="D3">
-        <v>-0.2175</v>
-      </c>
-      <c r="E3">
-        <v>-0.5007</v>
-      </c>
-      <c r="F3">
+      <c r="D3" s="6">
+        <v>-0.509</v>
+      </c>
+      <c r="E3" s="7">
+        <v>-1.1675</v>
+      </c>
+      <c r="F3" s="6">
+        <v>-0.5759</v>
+      </c>
+      <c r="G3" s="7">
         <v>-1.1551</v>
       </c>
-      <c r="G3">
-        <v>-0.4484</v>
-      </c>
-      <c r="H3">
-        <v>-1.1593</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="H3" s="6">
+        <v>-0.524</v>
+      </c>
+      <c r="I3" s="7">
+        <v>-1.1717</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="8">
+        <v>6.96333826455299</v>
+      </c>
+      <c r="C4">
         <v>-1.21992613941021</v>
       </c>
-      <c r="C4">
-        <v>-0.034</v>
-      </c>
-      <c r="D4">
-        <v>-0.2264</v>
-      </c>
-      <c r="E4">
-        <v>-0.5109</v>
-      </c>
-      <c r="F4">
+      <c r="D4" s="6">
+        <v>-0.5176</v>
+      </c>
+      <c r="E4" s="7">
+        <v>-1.1937</v>
+      </c>
+      <c r="F4" s="6">
+        <v>-0.586</v>
+      </c>
+      <c r="G4" s="7">
         <v>-1.1852</v>
       </c>
-      <c r="G4">
-        <v>-0.4582</v>
-      </c>
-      <c r="H4">
-        <v>-1.1886</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="H4" s="6">
+        <v>-0.5337</v>
+      </c>
+      <c r="I4" s="7">
+        <v>-1.1961</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="8">
+        <v>6.89702075727153</v>
+      </c>
+      <c r="C5">
         <v>-1.22943109919572</v>
       </c>
-      <c r="C5">
-        <v>-0.0591</v>
-      </c>
-      <c r="D5">
-        <v>-0.2355</v>
-      </c>
-      <c r="E5">
-        <v>-0.5194</v>
-      </c>
-      <c r="F5">
+      <c r="D5" s="6">
+        <v>-0.5239</v>
+      </c>
+      <c r="E5" s="7">
+        <v>-1.2169</v>
+      </c>
+      <c r="F5" s="6">
+        <v>-0.5944</v>
+      </c>
+      <c r="G5" s="7">
         <v>-1.2122</v>
       </c>
-      <c r="G5">
-        <v>-0.466</v>
-      </c>
-      <c r="H5">
-        <v>-1.2144</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="H5" s="6">
+        <v>-0.5414</v>
+      </c>
+      <c r="I5" s="7">
+        <v>-1.2175</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="8">
+        <v>6.83070324999007</v>
+      </c>
+      <c r="C6">
         <v>-1.2361116621984</v>
       </c>
-      <c r="C6">
-        <v>-0.086</v>
-      </c>
-      <c r="D6">
-        <v>-0.2448</v>
-      </c>
-      <c r="E6">
-        <v>-0.5257</v>
-      </c>
-      <c r="F6">
+      <c r="D6" s="6">
+        <v>-0.5273</v>
+      </c>
+      <c r="E6" s="7">
+        <v>-1.2365</v>
+      </c>
+      <c r="F6" s="6">
+        <v>-0.6007</v>
+      </c>
+      <c r="G6" s="7">
         <v>-1.2352</v>
       </c>
-      <c r="G6">
-        <v>-0.4714</v>
-      </c>
-      <c r="H6">
-        <v>-1.2361</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="H6" s="6">
+        <v>-0.5467</v>
+      </c>
+      <c r="I6" s="7">
+        <v>-1.2352</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="8">
+        <v>6.76438574270861</v>
+      </c>
+      <c r="C7">
         <v>-1.23930495978553</v>
       </c>
-      <c r="C7">
-        <v>-0.1149</v>
-      </c>
-      <c r="D7">
-        <v>-0.2543</v>
-      </c>
-      <c r="E7">
-        <v>-0.5295</v>
-      </c>
-      <c r="F7">
+      <c r="D7" s="6">
+        <v>-0.527</v>
+      </c>
+      <c r="E7" s="7">
+        <v>-1.2514</v>
+      </c>
+      <c r="F7" s="6">
+        <v>-0.6043</v>
+      </c>
+      <c r="G7" s="7">
         <v>-1.2532</v>
       </c>
-      <c r="G7">
-        <v>-0.4739</v>
-      </c>
-      <c r="H7">
-        <v>-1.2526</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="H7" s="6">
+        <v>-0.5491</v>
+      </c>
+      <c r="I7" s="7">
+        <v>-1.2484</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="4">
+        <v>6.69806823542716</v>
+      </c>
+      <c r="C8">
         <v>-1.23849222520113</v>
       </c>
-      <c r="C8">
-        <v>-0.1459</v>
-      </c>
-      <c r="D8">
-        <v>-0.2641</v>
-      </c>
-      <c r="E8">
-        <v>-0.5301</v>
-      </c>
-      <c r="F8">
+      <c r="D8" s="6">
+        <v>-0.5223</v>
+      </c>
+      <c r="E8" s="7">
+        <v>-1.2608</v>
+      </c>
+      <c r="F8" s="6">
+        <v>-0.6047</v>
+      </c>
+      <c r="G8" s="7">
         <v>-1.2652</v>
       </c>
-      <c r="G8">
-        <v>-0.4729</v>
-      </c>
-      <c r="H8">
-        <v>-1.2632</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="H8" s="6">
+        <v>-0.5479</v>
+      </c>
+      <c r="I8" s="7">
+        <v>-1.2562</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="8">
+        <v>6.6317507281457</v>
+      </c>
+      <c r="C9">
         <v>-1.23335643431639</v>
       </c>
-      <c r="C9">
-        <v>-0.1791</v>
-      </c>
-      <c r="D9">
-        <v>-0.274</v>
-      </c>
-      <c r="E9">
-        <v>-0.5269</v>
-      </c>
-      <c r="F9">
+      <c r="D9" s="6">
+        <v>-0.5122</v>
+      </c>
+      <c r="E9" s="7">
+        <v>-1.2636</v>
+      </c>
+      <c r="F9" s="6">
+        <v>-0.6014</v>
+      </c>
+      <c r="G9" s="7">
         <v>-1.27</v>
       </c>
-      <c r="G9">
-        <v>-0.4676</v>
-      </c>
-      <c r="H9">
-        <v>-1.2665</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="H9" s="6">
+        <v>-0.5424</v>
+      </c>
+      <c r="I9" s="7">
+        <v>-1.2576</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="8">
+        <v>6.56543322086424</v>
+      </c>
+      <c r="C10">
         <v>-1.22305026809653</v>
       </c>
-      <c r="C10">
-        <v>-0.2147</v>
-      </c>
-      <c r="D10">
-        <v>-0.2842</v>
-      </c>
-      <c r="E10">
-        <v>-0.5194</v>
-      </c>
-      <c r="F10">
+      <c r="D10" s="6">
+        <v>-0.4957</v>
+      </c>
+      <c r="E10" s="7">
+        <v>-1.2584</v>
+      </c>
+      <c r="F10" s="6">
+        <v>-0.5936</v>
+      </c>
+      <c r="G10" s="7">
         <v>-1.266</v>
       </c>
-      <c r="G10">
-        <v>-0.4572</v>
-      </c>
-      <c r="H10">
-        <v>-1.2613</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="H10" s="6">
+        <v>-0.5318</v>
+      </c>
+      <c r="I10" s="7">
+        <v>-1.2515</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="8">
+        <v>6.49911571358279</v>
+      </c>
+      <c r="C11">
         <v>-1.20699731903488</v>
       </c>
-      <c r="C11">
-        <v>-0.2529</v>
-      </c>
-      <c r="D11">
-        <v>-0.2945</v>
-      </c>
-      <c r="E11">
-        <v>-0.5065</v>
-      </c>
-      <c r="F11">
+      <c r="D11" s="6">
+        <v>-0.4715</v>
+      </c>
+      <c r="E11" s="7">
+        <v>-1.2439</v>
+      </c>
+      <c r="F11" s="6">
+        <v>-0.5804</v>
+      </c>
+      <c r="G11" s="7">
         <v>-1.2516</v>
       </c>
-      <c r="G11">
-        <v>-0.4408</v>
-      </c>
-      <c r="H11">
-        <v>-1.2462</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="H11" s="6">
+        <v>-0.5151</v>
+      </c>
+      <c r="I11" s="7">
+        <v>-1.2365</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="8">
+        <v>6.43279820630133</v>
+      </c>
+      <c r="C12">
         <v>-1.18415428954427</v>
       </c>
-      <c r="C12">
-        <v>-0.2938</v>
-      </c>
-      <c r="D12">
-        <v>-0.3051</v>
-      </c>
-      <c r="E12">
-        <v>-0.4874</v>
-      </c>
-      <c r="F12">
+      <c r="D12" s="6">
+        <v>-0.4379</v>
+      </c>
+      <c r="E12" s="7">
+        <v>-1.2182</v>
+      </c>
+      <c r="F12" s="6">
+        <v>-0.5609</v>
+      </c>
+      <c r="G12" s="7">
         <v>-1.2247</v>
       </c>
-      <c r="G12">
-        <v>-0.4173</v>
-      </c>
-      <c r="H12">
-        <v>-1.2194</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="H12" s="6">
+        <v>-0.4912</v>
+      </c>
+      <c r="I12" s="7">
+        <v>-1.2112</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="8">
+        <v>6.36648069901987</v>
+      </c>
+      <c r="C13">
         <v>-1.15414075067028</v>
       </c>
-      <c r="C13">
-        <v>-0.3377</v>
-      </c>
-      <c r="D13">
-        <v>-0.316</v>
-      </c>
-      <c r="E13">
-        <v>-0.461</v>
-      </c>
-      <c r="F13">
+      <c r="D13" s="6">
+        <v>-0.3934</v>
+      </c>
+      <c r="E13" s="7">
+        <v>-1.1796</v>
+      </c>
+      <c r="F13" s="6">
+        <v>-0.534</v>
+      </c>
+      <c r="G13" s="7">
         <v>-1.1832</v>
       </c>
-      <c r="G13">
-        <v>-0.3854</v>
-      </c>
-      <c r="H13">
-        <v>-1.1791</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="H13" s="6">
+        <v>-0.4588</v>
+      </c>
+      <c r="I13" s="7">
+        <v>-1.1738</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="8">
+        <v>6.30016319173841</v>
+      </c>
+      <c r="C14">
         <v>-1.11580965147456</v>
       </c>
-      <c r="C14">
-        <v>-0.3848</v>
-      </c>
-      <c r="D14">
-        <v>-0.327</v>
-      </c>
-      <c r="E14">
-        <v>-0.4259</v>
-      </c>
-      <c r="F14">
+      <c r="D14" s="6">
+        <v>-0.3357</v>
+      </c>
+      <c r="E14" s="7">
+        <v>-1.1258</v>
+      </c>
+      <c r="F14" s="6">
+        <v>-0.4983</v>
+      </c>
+      <c r="G14" s="7">
         <v>-1.1243</v>
       </c>
-      <c r="G14">
-        <v>-0.3435</v>
-      </c>
-      <c r="H14">
-        <v>-1.1232</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="H14" s="6">
+        <v>-0.4165</v>
+      </c>
+      <c r="I14" s="7">
+        <v>-1.1224</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="4">
+        <v>6.23384568445696</v>
+      </c>
+      <c r="C15">
         <v>-1.06820991957107</v>
       </c>
-      <c r="C15">
-        <v>-0.4352</v>
-      </c>
-      <c r="D15">
-        <v>-0.3383</v>
-      </c>
-      <c r="E15">
-        <v>-0.3807</v>
-      </c>
-      <c r="F15">
+      <c r="D15" s="6">
+        <v>-0.2625</v>
+      </c>
+      <c r="E15" s="7">
+        <v>-1.0542</v>
+      </c>
+      <c r="F15" s="6">
+        <v>-0.4524</v>
+      </c>
+      <c r="G15" s="7">
         <v>-1.0449</v>
       </c>
-      <c r="G15">
-        <v>-0.2902</v>
-      </c>
-      <c r="H15">
-        <v>-1.0492</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="H15" s="6">
+        <v>-0.3625</v>
+      </c>
+      <c r="I15" s="7">
+        <v>-1.0548</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="4">
+        <v>6.1675281771755</v>
+      </c>
+      <c r="C16">
         <v>-1.01007922252012</v>
       </c>
-      <c r="C16">
-        <v>-0.4893</v>
-      </c>
-      <c r="D16">
-        <v>-0.3499</v>
-      </c>
-      <c r="E16">
-        <v>-0.3236</v>
-      </c>
-      <c r="F16">
+      <c r="D16" s="6">
+        <v>-0.171</v>
+      </c>
+      <c r="E16" s="7">
+        <v>-0.9622</v>
+      </c>
+      <c r="F16" s="6">
+        <v>-0.3943</v>
+      </c>
+      <c r="G16" s="7">
         <v>-0.9414</v>
       </c>
-      <c r="G16">
-        <v>-0.2233</v>
-      </c>
-      <c r="H16">
-        <v>-0.9545</v>
+      <c r="H16" s="6">
+        <v>-0.2949</v>
+      </c>
+      <c r="I16" s="7">
+        <v>-0.9687</v>
       </c>
     </row>
   </sheetData>
@@ -9457,6 +8661,1018 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:U24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1:Q15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="7" customWidth="1"/>
+    <col min="2" max="2" width="11.125" customWidth="1"/>
+    <col min="3" max="3" width="5.75" customWidth="1"/>
+    <col min="4" max="4" width="8" customWidth="1"/>
+    <col min="5" max="5" width="5.75" customWidth="1"/>
+    <col min="6" max="6" width="9.125" customWidth="1"/>
+    <col min="7" max="7" width="8.375" customWidth="1"/>
+    <col min="8" max="8" width="6.375" customWidth="1"/>
+    <col min="9" max="9" width="24.875" customWidth="1"/>
+    <col min="10" max="10" width="12.625" customWidth="1"/>
+    <col min="12" max="12" width="7" customWidth="1"/>
+    <col min="13" max="13" width="11.125" customWidth="1"/>
+    <col min="14" max="14" width="2.375" customWidth="1"/>
+    <col min="15" max="15" width="8" customWidth="1"/>
+    <col min="16" max="16" width="2.375" customWidth="1"/>
+    <col min="17" max="18" width="8.375" customWidth="1"/>
+    <col min="19" max="19" width="6.375" customWidth="1"/>
+    <col min="20" max="20" width="10.375" customWidth="1"/>
+    <col min="21" max="21" width="11.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:21">
+      <c r="B1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1"/>
+      <c r="L1" t="s">
+        <v>51</v>
+      </c>
+      <c r="M1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N1">
+        <v>4</v>
+      </c>
+      <c r="O1" t="s">
+        <v>53</v>
+      </c>
+      <c r="P1">
+        <v>2</v>
+      </c>
+      <c r="Q1">
+        <v>-1.1389</v>
+      </c>
+      <c r="R1">
+        <v>-1.1932</v>
+      </c>
+      <c r="S1">
+        <v>0.001</v>
+      </c>
+      <c r="T1">
+        <v>2957.9235</v>
+      </c>
+      <c r="U1">
+        <v>2957.9235</v>
+      </c>
+    </row>
+    <row r="2" spans="4:21">
+      <c r="D2" s="2"/>
+      <c r="E2"/>
+      <c r="F2" s="2"/>
+      <c r="G2"/>
+      <c r="H2"/>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="s">
+        <v>54</v>
+      </c>
+      <c r="N2">
+        <v>4</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2">
+        <v>2</v>
+      </c>
+      <c r="Q2">
+        <v>-1.1675</v>
+      </c>
+      <c r="R2">
+        <v>-1.2076</v>
+      </c>
+      <c r="S2">
+        <v>0.001</v>
+      </c>
+      <c r="T2">
+        <v>1614.6503</v>
+      </c>
+      <c r="U2">
+        <v>4572.5737</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
+      <c r="A3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3" s="2">
+        <v>-0.4985</v>
+      </c>
+      <c r="G3">
+        <v>-1.1932</v>
+      </c>
+      <c r="H3">
+        <v>0.001</v>
+      </c>
+      <c r="I3">
+        <v>482660.6238</v>
+      </c>
+      <c r="J3">
+        <v>482660.6238</v>
+      </c>
+      <c r="L3" t="s">
+        <v>51</v>
+      </c>
+      <c r="M3" t="s">
+        <v>55</v>
+      </c>
+      <c r="N3">
+        <v>4</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3">
+        <v>2</v>
+      </c>
+      <c r="Q3">
+        <v>-1.1937</v>
+      </c>
+      <c r="R3">
+        <v>-1.2199</v>
+      </c>
+      <c r="S3">
+        <v>0.001</v>
+      </c>
+      <c r="T3">
+        <v>687.5357</v>
+      </c>
+      <c r="U3">
+        <v>5260.1094</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
+      <c r="A4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4" s="2">
+        <v>-0.509</v>
+      </c>
+      <c r="G4">
+        <v>-1.2076</v>
+      </c>
+      <c r="H4">
+        <v>0.001</v>
+      </c>
+      <c r="I4">
+        <v>488098.9718</v>
+      </c>
+      <c r="J4">
+        <v>970759.5956</v>
+      </c>
+      <c r="L4" t="s">
+        <v>51</v>
+      </c>
+      <c r="M4" t="s">
+        <v>56</v>
+      </c>
+      <c r="N4">
+        <v>4</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4">
+        <v>2</v>
+      </c>
+      <c r="Q4">
+        <v>-1.2169</v>
+      </c>
+      <c r="R4">
+        <v>-1.2294</v>
+      </c>
+      <c r="S4">
+        <v>0.001</v>
+      </c>
+      <c r="T4">
+        <v>155.8363</v>
+      </c>
+      <c r="U4">
+        <v>5415.9457</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
+      <c r="A5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5" s="2">
+        <v>-0.5176</v>
+      </c>
+      <c r="G5">
+        <v>-1.2199</v>
+      </c>
+      <c r="H5">
+        <v>0.001</v>
+      </c>
+      <c r="I5" t="s">
+        <v>57</v>
+      </c>
+      <c r="J5"/>
+      <c r="L5" t="s">
+        <v>51</v>
+      </c>
+      <c r="M5" t="s">
+        <v>58</v>
+      </c>
+      <c r="N5">
+        <v>4</v>
+      </c>
+      <c r="O5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5">
+        <v>2</v>
+      </c>
+      <c r="Q5">
+        <v>-1.2365</v>
+      </c>
+      <c r="R5">
+        <v>-1.2361</v>
+      </c>
+      <c r="S5">
+        <v>0.001</v>
+      </c>
+      <c r="T5">
+        <v>0.1249</v>
+      </c>
+      <c r="U5">
+        <v>5416.0707</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
+      <c r="A6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6" s="2">
+        <v>-0.5239</v>
+      </c>
+      <c r="G6">
+        <v>-1.2294</v>
+      </c>
+      <c r="H6">
+        <v>0.001</v>
+      </c>
+      <c r="I6" t="s">
+        <v>59</v>
+      </c>
+      <c r="J6"/>
+      <c r="L6" t="s">
+        <v>51</v>
+      </c>
+      <c r="M6" t="s">
+        <v>60</v>
+      </c>
+      <c r="N6">
+        <v>4</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6">
+        <v>2</v>
+      </c>
+      <c r="Q6">
+        <v>-1.2514</v>
+      </c>
+      <c r="R6">
+        <v>-1.2393</v>
+      </c>
+      <c r="S6">
+        <v>0.001</v>
+      </c>
+      <c r="T6">
+        <v>146.6499</v>
+      </c>
+      <c r="U6">
+        <v>5562.7206</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
+      <c r="A7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7" s="2">
+        <v>-0.5273</v>
+      </c>
+      <c r="G7">
+        <v>-1.2361</v>
+      </c>
+      <c r="H7">
+        <v>0.001</v>
+      </c>
+      <c r="I7" t="s">
+        <v>61</v>
+      </c>
+      <c r="J7"/>
+      <c r="L7" t="s">
+        <v>51</v>
+      </c>
+      <c r="M7" t="s">
+        <v>62</v>
+      </c>
+      <c r="N7">
+        <v>4</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7">
+        <v>2</v>
+      </c>
+      <c r="Q7">
+        <v>-1.2608</v>
+      </c>
+      <c r="R7">
+        <v>-1.2385</v>
+      </c>
+      <c r="S7">
+        <v>0.001</v>
+      </c>
+      <c r="T7">
+        <v>499.0788</v>
+      </c>
+      <c r="U7">
+        <v>6061.7994</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
+      <c r="A8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8" s="2">
+        <v>-0.527</v>
+      </c>
+      <c r="G8">
+        <v>-1.2393</v>
+      </c>
+      <c r="H8">
+        <v>0.001</v>
+      </c>
+      <c r="I8" t="s">
+        <v>63</v>
+      </c>
+      <c r="J8"/>
+      <c r="L8" t="s">
+        <v>51</v>
+      </c>
+      <c r="M8" t="s">
+        <v>64</v>
+      </c>
+      <c r="N8">
+        <v>4</v>
+      </c>
+      <c r="O8" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8">
+        <v>2</v>
+      </c>
+      <c r="Q8">
+        <v>-1.2636</v>
+      </c>
+      <c r="R8">
+        <v>-1.2334</v>
+      </c>
+      <c r="S8">
+        <v>0.001</v>
+      </c>
+      <c r="T8">
+        <v>914.6615</v>
+      </c>
+      <c r="U8">
+        <v>6976.4608</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
+      <c r="A9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9" s="2">
+        <v>-0.5223</v>
+      </c>
+      <c r="G9">
+        <v>-1.2385</v>
+      </c>
+      <c r="H9">
+        <v>0.001</v>
+      </c>
+      <c r="I9" t="s">
+        <v>65</v>
+      </c>
+      <c r="J9"/>
+      <c r="L9" t="s">
+        <v>51</v>
+      </c>
+      <c r="M9" t="s">
+        <v>66</v>
+      </c>
+      <c r="N9">
+        <v>4</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9">
+        <v>2</v>
+      </c>
+      <c r="Q9">
+        <v>-1.2584</v>
+      </c>
+      <c r="R9">
+        <v>-1.2231</v>
+      </c>
+      <c r="S9">
+        <v>0.001</v>
+      </c>
+      <c r="T9">
+        <v>1252.2144</v>
+      </c>
+      <c r="U9">
+        <v>8228.6752</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
+      <c r="A10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10" s="2">
+        <v>-0.5122</v>
+      </c>
+      <c r="G10">
+        <v>-1.2334</v>
+      </c>
+      <c r="H10">
+        <v>0.001</v>
+      </c>
+      <c r="I10" t="s">
+        <v>67</v>
+      </c>
+      <c r="J10"/>
+      <c r="L10" t="s">
+        <v>51</v>
+      </c>
+      <c r="M10" t="s">
+        <v>68</v>
+      </c>
+      <c r="N10">
+        <v>4</v>
+      </c>
+      <c r="O10" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10">
+        <v>2</v>
+      </c>
+      <c r="Q10">
+        <v>-1.2439</v>
+      </c>
+      <c r="R10">
+        <v>-1.207</v>
+      </c>
+      <c r="S10">
+        <v>0.001</v>
+      </c>
+      <c r="T10">
+        <v>1360.2121</v>
+      </c>
+      <c r="U10">
+        <v>9588.8874</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
+      <c r="A11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11" s="2">
+        <v>-0.4957</v>
+      </c>
+      <c r="G11">
+        <v>-1.2231</v>
+      </c>
+      <c r="H11">
+        <v>0.001</v>
+      </c>
+      <c r="I11" t="s">
+        <v>69</v>
+      </c>
+      <c r="J11"/>
+      <c r="L11" t="s">
+        <v>51</v>
+      </c>
+      <c r="M11" t="s">
+        <v>70</v>
+      </c>
+      <c r="N11">
+        <v>4</v>
+      </c>
+      <c r="O11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11">
+        <v>2</v>
+      </c>
+      <c r="Q11">
+        <v>-1.2182</v>
+      </c>
+      <c r="R11">
+        <v>-1.1842</v>
+      </c>
+      <c r="S11">
+        <v>0.001</v>
+      </c>
+      <c r="T11">
+        <v>1161.7678</v>
+      </c>
+      <c r="U11">
+        <v>10750.6552</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
+      <c r="A12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12" s="2">
+        <v>-0.4715</v>
+      </c>
+      <c r="G12">
+        <v>-1.207</v>
+      </c>
+      <c r="H12">
+        <v>0.001</v>
+      </c>
+      <c r="I12" t="s">
+        <v>71</v>
+      </c>
+      <c r="J12"/>
+      <c r="L12" t="s">
+        <v>51</v>
+      </c>
+      <c r="M12" t="s">
+        <v>72</v>
+      </c>
+      <c r="N12">
+        <v>4</v>
+      </c>
+      <c r="O12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12">
+        <v>2</v>
+      </c>
+      <c r="Q12">
+        <v>-1.1796</v>
+      </c>
+      <c r="R12">
+        <v>-1.1541</v>
+      </c>
+      <c r="S12">
+        <v>0.001</v>
+      </c>
+      <c r="T12">
+        <v>648.0824</v>
+      </c>
+      <c r="U12">
+        <v>11398.7376</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
+      <c r="A13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13" s="2">
+        <v>-0.4379</v>
+      </c>
+      <c r="G13">
+        <v>-1.1842</v>
+      </c>
+      <c r="H13">
+        <v>0.001</v>
+      </c>
+      <c r="I13" t="s">
+        <v>73</v>
+      </c>
+      <c r="J13"/>
+      <c r="L13" t="s">
+        <v>51</v>
+      </c>
+      <c r="M13" t="s">
+        <v>74</v>
+      </c>
+      <c r="N13">
+        <v>4</v>
+      </c>
+      <c r="O13" t="s">
+        <v>53</v>
+      </c>
+      <c r="P13">
+        <v>2</v>
+      </c>
+      <c r="Q13">
+        <v>-1.1258</v>
+      </c>
+      <c r="R13">
+        <v>-1.1158</v>
+      </c>
+      <c r="S13">
+        <v>0.001</v>
+      </c>
+      <c r="T13">
+        <v>99.0313</v>
+      </c>
+      <c r="U13">
+        <v>11497.7689</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
+      <c r="A14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14">
+        <v>4</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14" s="2">
+        <v>-0.3934</v>
+      </c>
+      <c r="G14">
+        <v>-1.1541</v>
+      </c>
+      <c r="H14">
+        <v>0.001</v>
+      </c>
+      <c r="I14" t="s">
+        <v>75</v>
+      </c>
+      <c r="J14"/>
+      <c r="L14" t="s">
+        <v>51</v>
+      </c>
+      <c r="M14" t="s">
+        <v>76</v>
+      </c>
+      <c r="N14">
+        <v>4</v>
+      </c>
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14">
+        <v>2</v>
+      </c>
+      <c r="Q14">
+        <v>-1.0542</v>
+      </c>
+      <c r="R14">
+        <v>-1.0682</v>
+      </c>
+      <c r="S14">
+        <v>0.001</v>
+      </c>
+      <c r="T14">
+        <v>195.2604</v>
+      </c>
+      <c r="U14">
+        <v>11693.0294</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
+      <c r="A15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15" s="2">
+        <v>-0.3357</v>
+      </c>
+      <c r="G15">
+        <v>-1.1158</v>
+      </c>
+      <c r="H15">
+        <v>0.001</v>
+      </c>
+      <c r="I15" t="s">
+        <v>77</v>
+      </c>
+      <c r="J15"/>
+      <c r="L15" t="s">
+        <v>51</v>
+      </c>
+      <c r="M15" t="s">
+        <v>78</v>
+      </c>
+      <c r="N15">
+        <v>4</v>
+      </c>
+      <c r="O15" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15">
+        <v>2</v>
+      </c>
+      <c r="Q15">
+        <v>-0.9622</v>
+      </c>
+      <c r="R15">
+        <v>-1.0101</v>
+      </c>
+      <c r="S15">
+        <v>0.001</v>
+      </c>
+      <c r="T15">
+        <v>2297.183</v>
+      </c>
+      <c r="U15">
+        <v>13990.2124</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16">
+        <v>4</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16" s="2">
+        <v>-0.2625</v>
+      </c>
+      <c r="G16">
+        <v>-1.0682</v>
+      </c>
+      <c r="H16">
+        <v>0.001</v>
+      </c>
+      <c r="I16" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17" s="2">
+        <v>-0.171</v>
+      </c>
+      <c r="G17">
+        <v>-1.0101</v>
+      </c>
+      <c r="H17">
+        <v>0.001</v>
+      </c>
+      <c r="I17" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="4:6">
+      <c r="D18" s="2"/>
+      <c r="E18"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="4:6">
+      <c r="D19" s="2"/>
+      <c r="E19"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="4:6">
+      <c r="D20" s="2"/>
+      <c r="E20"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="4:6">
+      <c r="D21" s="2"/>
+      <c r="E21"/>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="4:6">
+      <c r="D22" s="2"/>
+      <c r="E22"/>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="4:6">
+      <c r="D23" s="2"/>
+      <c r="E23"/>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="4:6">
+      <c r="D24" s="2"/>
+      <c r="E24"/>
+      <c r="F24" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:B19"/>
@@ -9615,11 +9831,10 @@
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>
   <headerFooter/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:U15"/>
@@ -9653,16 +9868,16 @@
   <sheetData>
     <row r="1" spans="1:21">
       <c r="A1" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B1" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C1">
         <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="E1">
         <v>2</v>
@@ -9683,16 +9898,16 @@
         <v>5022.6095</v>
       </c>
       <c r="L1" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="M1" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="N1">
         <v>4</v>
       </c>
       <c r="O1" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="P1">
         <v>2</v>
@@ -9715,16 +9930,16 @@
     </row>
     <row r="2" spans="1:21">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="C2">
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -9745,16 +9960,16 @@
         <v>7787.1061</v>
       </c>
       <c r="L2" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="M2" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="N2">
         <v>4</v>
       </c>
       <c r="O2" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="P2">
         <v>2</v>
@@ -9777,16 +9992,16 @@
     </row>
     <row r="3" spans="1:21">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="C3">
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -9807,16 +10022,16 @@
         <v>8990.2852</v>
       </c>
       <c r="L3" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="M3" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="N3">
         <v>4</v>
       </c>
       <c r="O3" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="P3">
         <v>2</v>
@@ -9839,16 +10054,16 @@
     </row>
     <row r="4" spans="1:21">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="C4">
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -9869,16 +10084,16 @@
         <v>9287.1641</v>
       </c>
       <c r="L4" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="M4" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="N4">
         <v>4</v>
       </c>
       <c r="O4" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="P4">
         <v>2</v>
@@ -9901,16 +10116,16 @@
     </row>
     <row r="5" spans="1:21">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -9931,16 +10146,16 @@
         <v>9288.0697</v>
       </c>
       <c r="L5" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="M5" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="N5">
         <v>4</v>
       </c>
       <c r="O5" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="P5">
         <v>2</v>
@@ -9963,16 +10178,16 @@
     </row>
     <row r="6" spans="1:21">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C6">
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -9993,16 +10208,16 @@
         <v>9480.7827</v>
       </c>
       <c r="L6" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="M6" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="N6">
         <v>4</v>
       </c>
       <c r="O6" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="P6">
         <v>2</v>
@@ -10025,16 +10240,16 @@
     </row>
     <row r="7" spans="1:21">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="C7">
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -10055,16 +10270,16 @@
         <v>10194.4647</v>
       </c>
       <c r="L7" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="M7" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="N7">
         <v>4</v>
       </c>
       <c r="O7" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="P7">
         <v>2</v>
@@ -10087,16 +10302,16 @@
     </row>
     <row r="8" spans="1:21">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B8" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="C8">
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -10117,16 +10332,16 @@
         <v>11534.2138</v>
       </c>
       <c r="L8" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="M8" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="N8">
         <v>4</v>
       </c>
       <c r="O8" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="P8">
         <v>2</v>
@@ -10149,16 +10364,16 @@
     </row>
     <row r="9" spans="1:21">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B9" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="C9">
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -10179,16 +10394,16 @@
         <v>13377.1248</v>
       </c>
       <c r="L9" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="M9" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="N9">
         <v>4</v>
       </c>
       <c r="O9" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="P9">
         <v>2</v>
@@ -10211,16 +10426,16 @@
     </row>
     <row r="10" spans="1:21">
       <c r="A10" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B10" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="C10">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -10241,16 +10456,16 @@
         <v>15363.7768</v>
       </c>
       <c r="L10" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="M10" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="N10">
         <v>4</v>
       </c>
       <c r="O10" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="P10">
         <v>2</v>
@@ -10273,16 +10488,16 @@
     </row>
     <row r="11" spans="1:21">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B11" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="C11">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -10303,16 +10518,16 @@
         <v>17011.4179</v>
       </c>
       <c r="L11" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="M11" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="N11">
         <v>4</v>
       </c>
       <c r="O11" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="P11">
         <v>2</v>
@@ -10335,16 +10550,16 @@
     </row>
     <row r="12" spans="1:21">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B12" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="C12">
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -10365,16 +10580,16 @@
         <v>17856.3966</v>
       </c>
       <c r="L12" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="M12" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="N12">
         <v>4</v>
       </c>
       <c r="O12" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="P12">
         <v>2</v>
@@ -10397,16 +10612,16 @@
     </row>
     <row r="13" spans="1:21">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B13" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="C13">
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -10427,16 +10642,16 @@
         <v>17928.2628</v>
       </c>
       <c r="L13" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="M13" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="N13">
         <v>4</v>
       </c>
       <c r="O13" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="P13">
         <v>2</v>
@@ -10459,16 +10674,16 @@
     </row>
     <row r="14" spans="1:21">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B14" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="C14">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="E14">
         <v>2</v>
@@ -10489,16 +10704,16 @@
         <v>18472.3371</v>
       </c>
       <c r="L14" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="M14" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="N14">
         <v>4</v>
       </c>
       <c r="O14" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="P14">
         <v>2</v>
@@ -10521,16 +10736,16 @@
     </row>
     <row r="15" spans="1:21">
       <c r="A15" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B15" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="C15">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="E15">
         <v>2</v>
@@ -10551,16 +10766,16 @@
         <v>23193.996</v>
       </c>
       <c r="L15" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="M15" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="N15">
         <v>4</v>
       </c>
       <c r="O15" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="P15">
         <v>2</v>
@@ -10587,7 +10802,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:I24"/>
@@ -10610,19 +10825,19 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="B1">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="D1" s="2">
         <v>-37.198963</v>
       </c>
       <c r="E1" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="F1" s="2">
         <v>-37.198963</v>
@@ -10631,7 +10846,7 @@
         <v>7</v>
       </c>
       <c r="H1" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="I1">
         <f t="shared" ref="I1:I9" si="0">F1/4</f>
@@ -10640,19 +10855,19 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="D2" s="2">
         <v>-37.213084</v>
       </c>
       <c r="E2" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="F2" s="2">
         <v>-37.213084</v>
@@ -10661,7 +10876,7 @@
         <v>7</v>
       </c>
       <c r="H2" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="I2">
         <f t="shared" si="0"/>
@@ -10670,19 +10885,19 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="D3" s="2">
         <v>-37.221192</v>
       </c>
       <c r="E3" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="F3" s="2">
         <v>-37.221192</v>
@@ -10691,7 +10906,7 @@
         <v>7</v>
       </c>
       <c r="H3" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="I3">
         <f t="shared" si="0"/>
@@ -10700,19 +10915,19 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="D4" s="2">
         <v>-37.221673</v>
       </c>
       <c r="E4" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="F4" s="2">
         <v>-37.221673</v>
@@ -10721,7 +10936,7 @@
         <v>7</v>
       </c>
       <c r="H4" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="I4">
         <f t="shared" si="0"/>
@@ -10730,19 +10945,19 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="D5" s="2">
         <v>-37.221664</v>
       </c>
       <c r="E5" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="F5" s="2">
         <v>-37.221664</v>
@@ -10751,7 +10966,7 @@
         <v>7</v>
       </c>
       <c r="H5" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="I5">
         <f t="shared" si="0"/>
@@ -10760,19 +10975,19 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="D6" s="2">
         <v>-37.221032</v>
       </c>
       <c r="E6" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="F6" s="2">
         <v>-37.221032</v>
@@ -10781,7 +10996,7 @@
         <v>7</v>
       </c>
       <c r="H6" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="I6">
         <f t="shared" si="0"/>
@@ -10790,19 +11005,19 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="D7" s="2">
         <v>-37.219775</v>
       </c>
       <c r="E7" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="F7" s="2">
         <v>-37.219775</v>
@@ -10811,7 +11026,7 @@
         <v>7</v>
       </c>
       <c r="H7" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="I7">
         <f t="shared" si="0"/>
@@ -10820,19 +11035,19 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="D8" s="2">
         <v>-37.217743</v>
       </c>
       <c r="E8" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="F8" s="2">
         <v>-37.217743</v>
@@ -10841,7 +11056,7 @@
         <v>7</v>
       </c>
       <c r="H8" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="I8">
         <f t="shared" si="0"/>
@@ -10850,19 +11065,19 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="D9" s="2">
         <v>-37.214844</v>
       </c>
       <c r="E9" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="F9" s="2">
         <v>-37.214844</v>
@@ -10871,7 +11086,7 @@
         <v>7</v>
       </c>
       <c r="H9" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="I9">
         <f t="shared" si="0"/>
@@ -10880,19 +11095,19 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="D10" s="2">
         <v>-37.210978</v>
       </c>
       <c r="E10" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="F10" s="2">
         <v>-37.210978</v>
@@ -10901,7 +11116,7 @@
         <v>7</v>
       </c>
       <c r="H10" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="I10">
         <f t="shared" ref="I10:I24" si="1">F10/4</f>
@@ -10910,19 +11125,19 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="D11" s="2">
         <v>-37.205987</v>
       </c>
       <c r="E11" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="F11" s="2">
         <v>-37.205987</v>
@@ -10931,7 +11146,7 @@
         <v>7</v>
       </c>
       <c r="H11" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="I11">
         <f t="shared" si="1"/>
@@ -10940,19 +11155,19 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="D12" s="2">
         <v>-37.199727</v>
       </c>
       <c r="E12" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="F12" s="2">
         <v>-37.199727</v>
@@ -10961,7 +11176,7 @@
         <v>7</v>
       </c>
       <c r="H12" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="I12">
         <f t="shared" si="1"/>
@@ -10970,19 +11185,19 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="D13" s="2">
         <v>-37.192026</v>
       </c>
       <c r="E13" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="F13" s="2">
         <v>-37.192026</v>
@@ -10991,7 +11206,7 @@
         <v>7</v>
       </c>
       <c r="H13" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="I13">
         <f t="shared" si="1"/>
@@ -11000,19 +11215,19 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="D14" s="2">
         <v>-37.125248</v>
       </c>
       <c r="E14" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="F14" s="2">
         <v>-37.125248</v>
@@ -11021,7 +11236,7 @@
         <v>7</v>
       </c>
       <c r="H14" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="I14">
         <f t="shared" si="1"/>
@@ -11030,19 +11245,19 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="D15" s="2">
         <v>-36.987991</v>
       </c>
       <c r="E15" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="F15" s="2">
         <v>-36.987991</v>
@@ -11051,7 +11266,7 @@
         <v>7</v>
       </c>
       <c r="H15" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="I15">
         <f t="shared" si="1"/>
@@ -11060,19 +11275,19 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="D16" s="2">
         <v>-36.737023</v>
       </c>
       <c r="E16" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="F16" s="2">
         <v>-36.737023</v>
@@ -11081,7 +11296,7 @@
         <v>7</v>
       </c>
       <c r="H16" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="I16">
         <f t="shared" si="1"/>
@@ -11090,19 +11305,19 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="D17" s="2">
         <v>-36.306229</v>
       </c>
       <c r="E17" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="F17" s="2">
         <v>-36.306229</v>
@@ -11111,7 +11326,7 @@
         <v>7</v>
       </c>
       <c r="H17" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="I17">
         <f t="shared" si="1"/>
@@ -11120,19 +11335,19 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="D18" s="2">
         <v>-35.587047</v>
       </c>
       <c r="E18" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="F18" s="2">
         <v>-35.587047</v>
@@ -11141,7 +11356,7 @@
         <v>7</v>
       </c>
       <c r="H18" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="I18">
         <f t="shared" si="1"/>
@@ -11150,19 +11365,19 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="D19" s="2">
         <v>-34.443888</v>
       </c>
       <c r="E19" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="F19" s="2">
         <v>-34.443888</v>
@@ -11171,7 +11386,7 @@
         <v>7</v>
       </c>
       <c r="H19" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="I19">
         <f t="shared" si="1"/>
@@ -11180,19 +11395,19 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="D20" s="2">
         <v>-32.739216</v>
       </c>
       <c r="E20" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="F20" s="2">
         <v>-32.739216</v>
@@ -11201,7 +11416,7 @@
         <v>7</v>
       </c>
       <c r="H20" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="I20">
         <f t="shared" si="1"/>
@@ -11210,19 +11425,19 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="D21" s="2">
         <v>-30.244928</v>
       </c>
       <c r="E21" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="F21" s="2">
         <v>-30.244928</v>
@@ -11231,7 +11446,7 @@
         <v>7</v>
       </c>
       <c r="H21" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="I21">
         <f t="shared" si="1"/>
@@ -11240,19 +11455,19 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="D22" s="2">
         <v>-26.487302</v>
       </c>
       <c r="E22" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="F22" s="2">
         <v>-26.487302</v>
@@ -11261,7 +11476,7 @@
         <v>7</v>
       </c>
       <c r="H22" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="I22">
         <f t="shared" si="1"/>
@@ -11270,19 +11485,19 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="D23" s="2">
         <v>-21.520284</v>
       </c>
       <c r="E23" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="F23" s="2">
         <v>-21.520284</v>
@@ -11291,7 +11506,7 @@
         <v>7</v>
       </c>
       <c r="H23" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="I23">
         <f t="shared" si="1"/>
@@ -11300,19 +11515,19 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="B24">
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="D24" s="2">
         <v>-14.619444</v>
       </c>
       <c r="E24" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="F24" s="2">
         <v>-14.619444</v>
@@ -11321,854 +11536,11 @@
         <v>7</v>
       </c>
       <c r="H24" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="I24">
         <f t="shared" si="1"/>
         <v>-3.654861</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:J24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
-  <cols>
-    <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="2.33333333333333" customWidth="1"/>
-    <col min="3" max="3" width="3.16666666666667" customWidth="1"/>
-    <col min="4" max="4" width="9.5" customWidth="1"/>
-    <col min="5" max="5" width="4.33333333333333" customWidth="1"/>
-    <col min="6" max="6" width="9.5" customWidth="1"/>
-    <col min="7" max="8" width="2.33333333333333" customWidth="1"/>
-    <col min="9" max="9" width="20.8333333333333" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D1" s="2">
-        <v>-37.422843</v>
-      </c>
-      <c r="E1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F1" s="2">
-        <v>-37.422843</v>
-      </c>
-      <c r="G1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" t="s">
-        <v>63</v>
-      </c>
-      <c r="I1">
-        <f>D1/4</f>
-        <v>-9.35571075</v>
-      </c>
-      <c r="J1">
-        <f>F1/4</f>
-        <v>-9.35571075</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D2" s="2">
-        <v>-37.441657</v>
-      </c>
-      <c r="E2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F2" s="2">
-        <v>-37.441657</v>
-      </c>
-      <c r="G2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" t="s">
-        <v>63</v>
-      </c>
-      <c r="I2">
-        <f>-37.4417</f>
-        <v>-37.4417</v>
-      </c>
-      <c r="J2">
-        <f t="shared" ref="J2:J24" si="0">F2/4</f>
-        <v>-9.36041425</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D3" s="2">
-        <v>-37.455515</v>
-      </c>
-      <c r="E3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F3" s="2">
-        <v>-37.455515</v>
-      </c>
-      <c r="G3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" t="s">
-        <v>63</v>
-      </c>
-      <c r="I3">
-        <f>-37.4555</f>
-        <v>-37.4555</v>
-      </c>
-      <c r="J3">
-        <f t="shared" si="0"/>
-        <v>-9.36387875</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D4" s="2">
-        <v>-37.457164</v>
-      </c>
-      <c r="E4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F4" s="2">
-        <v>-37.457164</v>
-      </c>
-      <c r="G4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" t="s">
-        <v>63</v>
-      </c>
-      <c r="I4">
-        <f>-37.4572</f>
-        <v>-37.4572</v>
-      </c>
-      <c r="J4">
-        <f t="shared" si="0"/>
-        <v>-9.364291</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D5" s="2">
-        <v>-37.458323</v>
-      </c>
-      <c r="E5" t="s">
-        <v>62</v>
-      </c>
-      <c r="F5" s="2">
-        <v>-37.458323</v>
-      </c>
-      <c r="G5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H5" t="s">
-        <v>63</v>
-      </c>
-      <c r="I5">
-        <f>-37.4583</f>
-        <v>-37.4583</v>
-      </c>
-      <c r="J5">
-        <f t="shared" si="0"/>
-        <v>-9.36458075</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" t="s">
-        <v>68</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D6" s="2">
-        <v>-37.458877</v>
-      </c>
-      <c r="E6" t="s">
-        <v>62</v>
-      </c>
-      <c r="F6" s="2">
-        <v>-37.458877</v>
-      </c>
-      <c r="G6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H6" t="s">
-        <v>63</v>
-      </c>
-      <c r="I6">
-        <f>-37.4589</f>
-        <v>-37.4589</v>
-      </c>
-      <c r="J6">
-        <f t="shared" si="0"/>
-        <v>-9.36471925</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" t="s">
-        <v>69</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>61</v>
-      </c>
-      <c r="D7" s="2">
-        <v>-37.458736</v>
-      </c>
-      <c r="E7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F7" s="2">
-        <v>-37.458736</v>
-      </c>
-      <c r="G7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H7" t="s">
-        <v>63</v>
-      </c>
-      <c r="I7">
-        <f>-37.4587</f>
-        <v>-37.4587</v>
-      </c>
-      <c r="J7">
-        <f t="shared" si="0"/>
-        <v>-9.364684</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" t="s">
-        <v>70</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
-        <v>61</v>
-      </c>
-      <c r="D8" s="2">
-        <v>-37.457845</v>
-      </c>
-      <c r="E8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F8" s="2">
-        <v>-37.457845</v>
-      </c>
-      <c r="G8" t="s">
-        <v>7</v>
-      </c>
-      <c r="H8" t="s">
-        <v>63</v>
-      </c>
-      <c r="I8">
-        <f>-37.4578</f>
-        <v>-37.4578</v>
-      </c>
-      <c r="J8">
-        <f t="shared" si="0"/>
-        <v>-9.36446125</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" t="s">
-        <v>71</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D9" s="2">
-        <v>-37.456057</v>
-      </c>
-      <c r="E9" t="s">
-        <v>62</v>
-      </c>
-      <c r="F9" s="2">
-        <v>-37.456057</v>
-      </c>
-      <c r="G9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H9" t="s">
-        <v>63</v>
-      </c>
-      <c r="I9">
-        <f>-37.4561</f>
-        <v>-37.4561</v>
-      </c>
-      <c r="J9">
-        <f t="shared" si="0"/>
-        <v>-9.36401425</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" t="s">
-        <v>72</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
-        <v>61</v>
-      </c>
-      <c r="D10" s="2">
-        <v>-37.453272</v>
-      </c>
-      <c r="E10" t="s">
-        <v>62</v>
-      </c>
-      <c r="F10" s="2">
-        <v>-37.453272</v>
-      </c>
-      <c r="G10" t="s">
-        <v>7</v>
-      </c>
-      <c r="H10" t="s">
-        <v>63</v>
-      </c>
-      <c r="I10">
-        <f>-37.4533</f>
-        <v>-37.4533</v>
-      </c>
-      <c r="J10">
-        <f t="shared" si="0"/>
-        <v>-9.363318</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" t="s">
-        <v>73</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s">
-        <v>61</v>
-      </c>
-      <c r="D11" s="2">
-        <v>-37.449309</v>
-      </c>
-      <c r="E11" t="s">
-        <v>62</v>
-      </c>
-      <c r="F11" s="2">
-        <v>-37.449309</v>
-      </c>
-      <c r="G11" t="s">
-        <v>7</v>
-      </c>
-      <c r="H11" t="s">
-        <v>63</v>
-      </c>
-      <c r="I11">
-        <f>-37.4493</f>
-        <v>-37.4493</v>
-      </c>
-      <c r="J11">
-        <f t="shared" si="0"/>
-        <v>-9.36232725</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" t="s">
-        <v>74</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12" t="s">
-        <v>61</v>
-      </c>
-      <c r="D12" s="2">
-        <v>-37.444102</v>
-      </c>
-      <c r="E12" t="s">
-        <v>62</v>
-      </c>
-      <c r="F12" s="2">
-        <v>-37.444102</v>
-      </c>
-      <c r="G12" t="s">
-        <v>7</v>
-      </c>
-      <c r="H12" t="s">
-        <v>63</v>
-      </c>
-      <c r="I12">
-        <f>-37.4441</f>
-        <v>-37.4441</v>
-      </c>
-      <c r="J12">
-        <f t="shared" si="0"/>
-        <v>-9.3610255</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" t="s">
-        <v>75</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13" t="s">
-        <v>61</v>
-      </c>
-      <c r="D13" s="2">
-        <v>-37.437452</v>
-      </c>
-      <c r="E13" t="s">
-        <v>62</v>
-      </c>
-      <c r="F13" s="2">
-        <v>-37.437452</v>
-      </c>
-      <c r="G13" t="s">
-        <v>7</v>
-      </c>
-      <c r="H13" t="s">
-        <v>63</v>
-      </c>
-      <c r="I13">
-        <f>-37.4375</f>
-        <v>-37.4375</v>
-      </c>
-      <c r="J13">
-        <f t="shared" si="0"/>
-        <v>-9.359363</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" t="s">
-        <v>76</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14" t="s">
-        <v>61</v>
-      </c>
-      <c r="D14" s="2">
-        <v>-37.375678</v>
-      </c>
-      <c r="E14" t="s">
-        <v>62</v>
-      </c>
-      <c r="F14" s="2">
-        <v>-37.375678</v>
-      </c>
-      <c r="G14" t="s">
-        <v>7</v>
-      </c>
-      <c r="H14" t="s">
-        <v>63</v>
-      </c>
-      <c r="I14">
-        <f>-37.3757</f>
-        <v>-37.3757</v>
-      </c>
-      <c r="J14">
-        <f t="shared" si="0"/>
-        <v>-9.3439195</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" t="s">
-        <v>77</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15" t="s">
-        <v>61</v>
-      </c>
-      <c r="D15" s="2">
-        <v>-37.242307</v>
-      </c>
-      <c r="E15" t="s">
-        <v>62</v>
-      </c>
-      <c r="F15" s="2">
-        <v>-37.242307</v>
-      </c>
-      <c r="G15" t="s">
-        <v>7</v>
-      </c>
-      <c r="H15" t="s">
-        <v>63</v>
-      </c>
-      <c r="I15">
-        <f>-37.2423</f>
-        <v>-37.2423</v>
-      </c>
-      <c r="J15">
-        <f t="shared" si="0"/>
-        <v>-9.31057675</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" t="s">
-        <v>78</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16" t="s">
-        <v>61</v>
-      </c>
-      <c r="D16" s="2">
-        <v>-36.988366</v>
-      </c>
-      <c r="E16" t="s">
-        <v>62</v>
-      </c>
-      <c r="F16" s="2">
-        <v>-36.988366</v>
-      </c>
-      <c r="G16" t="s">
-        <v>7</v>
-      </c>
-      <c r="H16" t="s">
-        <v>63</v>
-      </c>
-      <c r="I16">
-        <f>-36.9884</f>
-        <v>-36.9884</v>
-      </c>
-      <c r="J16">
-        <f t="shared" si="0"/>
-        <v>-9.2470915</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" t="s">
-        <v>79</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17" t="s">
-        <v>61</v>
-      </c>
-      <c r="D17" s="2">
-        <v>-36.533957</v>
-      </c>
-      <c r="E17" t="s">
-        <v>62</v>
-      </c>
-      <c r="F17" s="2">
-        <v>-36.533957</v>
-      </c>
-      <c r="G17" t="s">
-        <v>7</v>
-      </c>
-      <c r="H17" t="s">
-        <v>63</v>
-      </c>
-      <c r="I17">
-        <f>-36.534</f>
-        <v>-36.534</v>
-      </c>
-      <c r="J17">
-        <f t="shared" si="0"/>
-        <v>-9.13348925</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" t="s">
-        <v>80</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18" t="s">
-        <v>61</v>
-      </c>
-      <c r="D18" s="2">
-        <v>-35.752314</v>
-      </c>
-      <c r="E18" t="s">
-        <v>62</v>
-      </c>
-      <c r="F18" s="2">
-        <v>-35.752314</v>
-      </c>
-      <c r="G18" t="s">
-        <v>7</v>
-      </c>
-      <c r="H18" t="s">
-        <v>63</v>
-      </c>
-      <c r="I18">
-        <f>-35.7523</f>
-        <v>-35.7523</v>
-      </c>
-      <c r="J18">
-        <f t="shared" si="0"/>
-        <v>-8.9380785</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" t="s">
-        <v>81</v>
-      </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19" t="s">
-        <v>61</v>
-      </c>
-      <c r="D19" s="2">
-        <v>-34.526473</v>
-      </c>
-      <c r="E19" t="s">
-        <v>62</v>
-      </c>
-      <c r="F19" s="2">
-        <v>-34.526473</v>
-      </c>
-      <c r="G19" t="s">
-        <v>7</v>
-      </c>
-      <c r="H19" t="s">
-        <v>63</v>
-      </c>
-      <c r="I19">
-        <f>-34.5265</f>
-        <v>-34.5265</v>
-      </c>
-      <c r="J19">
-        <f t="shared" si="0"/>
-        <v>-8.63161825</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" t="s">
-        <v>82</v>
-      </c>
-      <c r="B20">
-        <v>3</v>
-      </c>
-      <c r="C20" t="s">
-        <v>61</v>
-      </c>
-      <c r="D20" s="2">
-        <v>-32.742931</v>
-      </c>
-      <c r="E20" t="s">
-        <v>62</v>
-      </c>
-      <c r="F20" s="2">
-        <v>-32.742931</v>
-      </c>
-      <c r="G20" t="s">
-        <v>7</v>
-      </c>
-      <c r="H20" t="s">
-        <v>63</v>
-      </c>
-      <c r="I20">
-        <f>-0.0000126502</f>
-        <v>-1.26502e-5</v>
-      </c>
-      <c r="J20">
-        <f t="shared" si="0"/>
-        <v>-8.18573275</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B21">
-        <v>3</v>
-      </c>
-      <c r="C21" t="s">
-        <v>61</v>
-      </c>
-      <c r="D21" s="2">
-        <v>-30.136836</v>
-      </c>
-      <c r="E21" t="s">
-        <v>62</v>
-      </c>
-      <c r="F21" s="2">
-        <v>-30.136836</v>
-      </c>
-      <c r="G21" t="s">
-        <v>7</v>
-      </c>
-      <c r="H21" t="s">
-        <v>63</v>
-      </c>
-      <c r="I21">
-        <f>-0.0000235889</f>
-        <v>-2.35889e-5</v>
-      </c>
-      <c r="J21">
-        <f t="shared" si="0"/>
-        <v>-7.534209</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" t="s">
-        <v>84</v>
-      </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22" t="s">
-        <v>61</v>
-      </c>
-      <c r="D22" s="2">
-        <v>-26.261195</v>
-      </c>
-      <c r="E22" t="s">
-        <v>62</v>
-      </c>
-      <c r="F22" s="2">
-        <v>-26.261195</v>
-      </c>
-      <c r="G22" t="s">
-        <v>7</v>
-      </c>
-      <c r="H22" t="s">
-        <v>63</v>
-      </c>
-      <c r="I22">
-        <f>-26.2612</f>
-        <v>-26.2612</v>
-      </c>
-      <c r="J22">
-        <f t="shared" si="0"/>
-        <v>-6.56529875</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" t="s">
-        <v>85</v>
-      </c>
-      <c r="B23">
-        <v>3</v>
-      </c>
-      <c r="C23" t="s">
-        <v>61</v>
-      </c>
-      <c r="D23" s="2">
-        <v>-21.232114</v>
-      </c>
-      <c r="E23" t="s">
-        <v>62</v>
-      </c>
-      <c r="F23" s="2">
-        <v>-21.232114</v>
-      </c>
-      <c r="G23" t="s">
-        <v>7</v>
-      </c>
-      <c r="H23" t="s">
-        <v>63</v>
-      </c>
-      <c r="I23">
-        <f>-0.000143453</f>
-        <v>-0.000143453</v>
-      </c>
-      <c r="J23">
-        <f t="shared" si="0"/>
-        <v>-5.3080285</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" t="s">
-        <v>86</v>
-      </c>
-      <c r="B24">
-        <v>3</v>
-      </c>
-      <c r="C24" t="s">
-        <v>61</v>
-      </c>
-      <c r="D24" s="2">
-        <v>-14.143631</v>
-      </c>
-      <c r="E24" t="s">
-        <v>62</v>
-      </c>
-      <c r="F24" s="2">
-        <v>-14.143631</v>
-      </c>
-      <c r="G24" t="s">
-        <v>7</v>
-      </c>
-      <c r="H24" t="s">
-        <v>63</v>
-      </c>
-      <c r="I24">
-        <f>-0.0000603664</f>
-        <v>-6.03664e-5</v>
-      </c>
-      <c r="J24">
-        <f t="shared" si="0"/>
-        <v>-3.53590775</v>
       </c>
     </row>
   </sheetData>
@@ -12197,7 +11569,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -12221,7 +11593,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -12245,7 +11617,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -12269,7 +11641,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -12293,7 +11665,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -12317,7 +11689,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -12341,7 +11713,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -12365,7 +11737,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -12389,7 +11761,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -12413,7 +11785,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -12437,7 +11809,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -12461,7 +11833,7 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -12485,7 +11857,7 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -12509,7 +11881,7 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -12533,7 +11905,7 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -12557,7 +11929,7 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -12581,7 +11953,7 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -12605,7 +11977,7 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -12629,7 +12001,7 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -12653,7 +12025,7 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -12677,7 +12049,7 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>107</v>
+        <v>128</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -12701,7 +12073,7 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>108</v>
+        <v>129</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -12725,7 +12097,7 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>109</v>
+        <v>130</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -12749,7 +12121,7 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>110</v>
+        <v>131</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -12773,7 +12145,7 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="C25">
         <v>28.9925335</v>
@@ -12794,7 +12166,7 @@
   <sheetPr/>
   <dimension ref="A1:U25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
@@ -12818,19 +12190,19 @@
   <sheetData>
     <row r="1" spans="1:21">
       <c r="A1" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="B1">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="D1" s="2">
         <v>-37.198963</v>
       </c>
       <c r="E1" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="F1" s="2">
         <v>-37.198963</v>
@@ -12839,7 +12211,7 @@
         <v>7</v>
       </c>
       <c r="H1" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="I1">
         <f>-37.199</f>
@@ -12850,13 +12222,13 @@
         <v>-9.29974075</v>
       </c>
       <c r="L1" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="M1" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="N1" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="O1">
         <v>-2.70814</v>
@@ -12883,19 +12255,19 @@
     </row>
     <row r="2" spans="1:21">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="D2" s="2">
         <v>-37.213084</v>
       </c>
       <c r="E2" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="F2" s="2">
         <v>-37.213084</v>
@@ -12904,7 +12276,7 @@
         <v>7</v>
       </c>
       <c r="H2" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="I2">
         <f>-37.2131</f>
@@ -12915,13 +12287,13 @@
         <v>-9.303271</v>
       </c>
       <c r="L2" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="M2" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="N2" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="O2">
         <v>-3.40202</v>
@@ -12948,19 +12320,19 @@
     </row>
     <row r="3" spans="1:21">
       <c r="A3" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="D3" s="2">
         <v>-37.221192</v>
       </c>
       <c r="E3" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="F3" s="2">
         <v>-37.221192</v>
@@ -12969,7 +12341,7 @@
         <v>7</v>
       </c>
       <c r="H3" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="I3">
         <f>-37.2212</f>
@@ -12980,13 +12352,13 @@
         <v>-9.305298</v>
       </c>
       <c r="L3" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="M3" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="N3" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="O3">
         <v>-4.50753</v>
@@ -13013,19 +12385,19 @@
     </row>
     <row r="4" spans="1:21">
       <c r="A4" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="D4" s="2">
         <v>-37.221673</v>
       </c>
       <c r="E4" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="F4" s="2">
         <v>-37.221673</v>
@@ -13034,7 +12406,7 @@
         <v>7</v>
       </c>
       <c r="H4" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="I4">
         <f>-37.2217</f>
@@ -13045,13 +12417,13 @@
         <v>-9.30541825</v>
       </c>
       <c r="L4" t="s">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="M4" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="N4" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="O4">
         <v>-4.78273</v>
@@ -13078,19 +12450,19 @@
     </row>
     <row r="5" spans="1:21">
       <c r="A5" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="D5" s="2">
         <v>-37.221664</v>
       </c>
       <c r="E5" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="F5" s="2">
         <v>-37.221664</v>
@@ -13099,7 +12471,7 @@
         <v>7</v>
       </c>
       <c r="H5" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="I5">
         <f>-37.2217</f>
@@ -13110,13 +12482,13 @@
         <v>-9.305416</v>
       </c>
       <c r="L5" t="s">
-        <v>118</v>
+        <v>139</v>
       </c>
       <c r="M5" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="N5" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="O5">
         <v>-5.08591</v>
@@ -13143,19 +12515,19 @@
     </row>
     <row r="6" spans="1:21">
       <c r="A6" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="D6" s="2">
         <v>-37.221032</v>
       </c>
       <c r="E6" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="F6" s="2">
         <v>-37.221032</v>
@@ -13164,7 +12536,7 @@
         <v>7</v>
       </c>
       <c r="H6" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="I6">
         <f>-37.221</f>
@@ -13175,13 +12547,13 @@
         <v>-9.305258</v>
       </c>
       <c r="L6" t="s">
-        <v>119</v>
+        <v>140</v>
       </c>
       <c r="M6" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="N6" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="O6">
         <v>-5.40348</v>
@@ -13208,19 +12580,19 @@
     </row>
     <row r="7" spans="1:21">
       <c r="A7" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="D7" s="2">
         <v>-37.219775</v>
       </c>
       <c r="E7" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="F7" s="2">
         <v>-37.219775</v>
@@ -13229,7 +12601,7 @@
         <v>7</v>
       </c>
       <c r="H7" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="I7">
         <f>-37.2198</f>
@@ -13240,16 +12612,16 @@
         <v>-9.30494375</v>
       </c>
       <c r="K7" t="s">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="L7" t="s">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="M7" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="N7" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="O7">
         <v>-5.75432</v>
@@ -13276,19 +12648,19 @@
     </row>
     <row r="8" spans="1:21">
       <c r="A8" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="D8" s="2">
         <v>-37.217743</v>
       </c>
       <c r="E8" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="F8" s="2">
         <v>-37.217743</v>
@@ -13297,7 +12669,7 @@
         <v>7</v>
       </c>
       <c r="H8" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="I8">
         <f>-37.2177</f>
@@ -13308,13 +12680,13 @@
         <v>-9.30443575</v>
       </c>
       <c r="L8" t="s">
-        <v>122</v>
+        <v>143</v>
       </c>
       <c r="M8" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="N8" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="O8">
         <v>-6.11871</v>
@@ -13341,19 +12713,19 @@
     </row>
     <row r="9" spans="1:21">
       <c r="A9" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="D9" s="2">
         <v>-37.214844</v>
       </c>
       <c r="E9" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="F9" s="2">
         <v>-37.214844</v>
@@ -13362,7 +12734,7 @@
         <v>7</v>
       </c>
       <c r="H9" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="I9">
         <f>-37.2148</f>
@@ -13373,13 +12745,13 @@
         <v>-9.303711</v>
       </c>
       <c r="L9" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="M9" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="N9" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="O9">
         <v>-6.54105</v>
@@ -13406,19 +12778,19 @@
     </row>
     <row r="10" spans="1:21">
       <c r="A10" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="D10" s="2">
         <v>-37.210978</v>
       </c>
       <c r="E10" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="F10" s="2">
         <v>-37.210978</v>
@@ -13427,7 +12799,7 @@
         <v>7</v>
       </c>
       <c r="H10" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="I10">
         <f>-37.211</f>
@@ -13438,13 +12810,13 @@
         <v>-9.3027445</v>
       </c>
       <c r="L10" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="M10" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="N10" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="O10">
         <v>-6.92346</v>
@@ -13471,19 +12843,19 @@
     </row>
     <row r="11" spans="1:21">
       <c r="A11" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="D11" s="2">
         <v>-37.205987</v>
       </c>
       <c r="E11" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="F11" s="2">
         <v>-37.205987</v>
@@ -13492,7 +12864,7 @@
         <v>7</v>
       </c>
       <c r="H11" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="I11">
         <f>-37.206</f>
@@ -13503,13 +12875,13 @@
         <v>-9.30149675</v>
       </c>
       <c r="L11" t="s">
-        <v>125</v>
+        <v>146</v>
       </c>
       <c r="M11" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="N11" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="O11">
         <v>-7.3603</v>
@@ -13536,19 +12908,19 @@
     </row>
     <row r="12" spans="1:21">
       <c r="A12" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="D12" s="2">
         <v>-37.199727</v>
       </c>
       <c r="E12" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="F12" s="2">
         <v>-37.199727</v>
@@ -13557,7 +12929,7 @@
         <v>7</v>
       </c>
       <c r="H12" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="I12">
         <f>-37.1997</f>
@@ -13568,13 +12940,13 @@
         <v>-9.29993175</v>
       </c>
       <c r="L12" t="s">
-        <v>126</v>
+        <v>147</v>
       </c>
       <c r="M12" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="N12" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="O12">
         <v>-7.85094</v>
@@ -13601,19 +12973,19 @@
     </row>
     <row r="13" spans="1:21">
       <c r="A13" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="D13" s="2">
         <v>-37.192026</v>
       </c>
       <c r="E13" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="F13" s="2">
         <v>-37.192026</v>
@@ -13622,7 +12994,7 @@
         <v>7</v>
       </c>
       <c r="H13" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="I13">
         <f>-37.192</f>
@@ -13633,13 +13005,13 @@
         <v>-9.2980065</v>
       </c>
       <c r="L13" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="M13" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="N13" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="O13">
         <v>-8.29527</v>
@@ -13666,19 +13038,19 @@
     </row>
     <row r="14" spans="1:21">
       <c r="A14" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="D14" s="2">
         <v>-37.125248</v>
       </c>
       <c r="E14" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="F14" s="2">
         <v>-37.125248</v>
@@ -13687,7 +13059,7 @@
         <v>7</v>
       </c>
       <c r="H14" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="I14">
         <f>-37.1252</f>
@@ -13698,13 +13070,13 @@
         <v>-9.281312</v>
       </c>
       <c r="L14" t="s">
-        <v>128</v>
+        <v>149</v>
       </c>
       <c r="M14" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="N14" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="O14">
         <v>-11.01718</v>
@@ -13731,19 +13103,19 @@
     </row>
     <row r="15" spans="1:21">
       <c r="A15" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="D15" s="2">
         <v>-36.987991</v>
       </c>
       <c r="E15" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="F15" s="2">
         <v>-36.987991</v>
@@ -13752,7 +13124,7 @@
         <v>7</v>
       </c>
       <c r="H15" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="I15">
         <f>-36.988</f>
@@ -13763,13 +13135,13 @@
         <v>-9.24699775</v>
       </c>
       <c r="L15" t="s">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="M15" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="N15" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="O15">
         <v>-14.16293</v>
@@ -13796,19 +13168,19 @@
     </row>
     <row r="16" spans="1:21">
       <c r="A16" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="D16" s="2">
         <v>-36.737023</v>
       </c>
       <c r="E16" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="F16" s="2">
         <v>-36.737023</v>
@@ -13817,7 +13189,7 @@
         <v>7</v>
       </c>
       <c r="H16" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="I16">
         <f>-36.737</f>
@@ -13828,13 +13200,13 @@
         <v>-9.18425575</v>
       </c>
       <c r="L16" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="M16" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="N16" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="O16">
         <v>-17.17197</v>
@@ -13861,19 +13233,19 @@
     </row>
     <row r="17" spans="1:21">
       <c r="A17" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="D17" s="2">
         <v>-36.306229</v>
       </c>
       <c r="E17" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="F17" s="2">
         <v>-36.306229</v>
@@ -13882,7 +13254,7 @@
         <v>7</v>
       </c>
       <c r="H17" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="I17">
         <f>-36.3062</f>
@@ -13893,13 +13265,13 @@
         <v>-9.07655725</v>
       </c>
       <c r="L17" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="M17" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="N17" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="O17">
         <v>-17.75908</v>
@@ -13926,19 +13298,19 @@
     </row>
     <row r="18" spans="1:21">
       <c r="A18" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="D18" s="2">
         <v>-35.587047</v>
       </c>
       <c r="E18" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="F18" s="2">
         <v>-35.587047</v>
@@ -13947,7 +13319,7 @@
         <v>7</v>
       </c>
       <c r="H18" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="I18">
         <f>-35.587</f>
@@ -13958,13 +13330,13 @@
         <v>-8.89676175</v>
       </c>
       <c r="L18" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
       <c r="M18" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="N18" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="O18">
         <v>-14.08485</v>
@@ -13991,19 +13363,19 @@
     </row>
     <row r="19" spans="1:21">
       <c r="A19" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="D19" s="2">
         <v>-34.443888</v>
       </c>
       <c r="E19" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="F19" s="2">
         <v>-34.443888</v>
@@ -14012,7 +13384,7 @@
         <v>7</v>
       </c>
       <c r="H19" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="I19">
         <f>-34.4439</f>
@@ -14023,13 +13395,13 @@
         <v>-8.610972</v>
       </c>
       <c r="L19" t="s">
-        <v>133</v>
+        <v>154</v>
       </c>
       <c r="M19" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="N19" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="O19">
         <v>-9.69094</v>
@@ -14056,19 +13428,19 @@
     </row>
     <row r="20" spans="1:21">
       <c r="A20" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="D20" s="2">
         <v>-32.739216</v>
       </c>
       <c r="E20" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="F20" s="2">
         <v>-32.739216</v>
@@ -14077,7 +13449,7 @@
         <v>7</v>
       </c>
       <c r="H20" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="I20">
         <f>-32.7392</f>
@@ -14088,13 +13460,13 @@
         <v>-8.184804</v>
       </c>
       <c r="L20" t="s">
+        <v>155</v>
+      </c>
+      <c r="M20" t="s">
         <v>134</v>
       </c>
-      <c r="M20" t="s">
-        <v>113</v>
-      </c>
       <c r="N20" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="O20">
         <v>62.64671</v>
@@ -14121,19 +13493,19 @@
     </row>
     <row r="21" spans="1:21">
       <c r="A21" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="D21" s="2">
         <v>-30.244928</v>
       </c>
       <c r="E21" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="F21" s="2">
         <v>-30.244928</v>
@@ -14142,7 +13514,7 @@
         <v>7</v>
       </c>
       <c r="H21" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="I21">
         <f>-30.2449</f>
@@ -14153,13 +13525,13 @@
         <v>-7.561232</v>
       </c>
       <c r="L21" t="s">
+        <v>156</v>
+      </c>
+      <c r="M21" t="s">
+        <v>134</v>
+      </c>
+      <c r="N21" t="s">
         <v>135</v>
-      </c>
-      <c r="M21" t="s">
-        <v>113</v>
-      </c>
-      <c r="N21" t="s">
-        <v>114</v>
       </c>
       <c r="O21">
         <v>238.657</v>
@@ -14186,19 +13558,19 @@
     </row>
     <row r="22" spans="1:21">
       <c r="A22" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="D22" s="2">
         <v>-26.487302</v>
       </c>
       <c r="E22" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="F22" s="2">
         <v>-26.487302</v>
@@ -14207,7 +13579,7 @@
         <v>7</v>
       </c>
       <c r="H22" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="I22">
         <f>-26.4873</f>
@@ -14218,13 +13590,13 @@
         <v>-6.6218255</v>
       </c>
       <c r="L22" t="s">
-        <v>136</v>
+        <v>157</v>
       </c>
       <c r="M22" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="N22" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="O22">
         <v>709.01882</v>
@@ -14251,19 +13623,19 @@
     </row>
     <row r="23" spans="1:21">
       <c r="A23" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="D23" s="2">
         <v>-21.520284</v>
       </c>
       <c r="E23" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="F23" s="2">
         <v>-21.520284</v>
@@ -14272,7 +13644,7 @@
         <v>7</v>
       </c>
       <c r="H23" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="I23">
         <f>-21.5203</f>
@@ -14283,13 +13655,13 @@
         <v>-5.380071</v>
       </c>
       <c r="L23" t="s">
-        <v>137</v>
+        <v>158</v>
       </c>
       <c r="M23" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="N23" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="O23">
         <v>1922.70321</v>
@@ -14316,19 +13688,19 @@
     </row>
     <row r="24" spans="1:21">
       <c r="A24" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="B24">
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="D24" s="2">
         <v>-14.619444</v>
       </c>
       <c r="E24" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="F24" s="2">
         <v>-14.619444</v>
@@ -14337,7 +13709,7 @@
         <v>7</v>
       </c>
       <c r="H24" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="I24">
         <f>-14.6194</f>
@@ -14348,13 +13720,13 @@
         <v>-3.654861</v>
       </c>
       <c r="L24" t="s">
-        <v>138</v>
+        <v>159</v>
       </c>
       <c r="M24" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="N24" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="O24">
         <v>3453.20136</v>

--- a/data/data_collection.xlsx
+++ b/data/data_collection.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8400" tabRatio="719" activeTab="2"/>
+    <workbookView windowWidth="20385" windowHeight="9435" tabRatio="719" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="data11" sheetId="1" r:id="rId1"/>
@@ -673,26 +673,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="23">
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -709,8 +695,52 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -724,30 +754,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -769,9 +777,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -785,40 +792,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -829,8 +807,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -844,9 +831,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -861,7 +847,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -873,13 +889,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -891,19 +907,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -915,55 +931,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -975,19 +949,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1005,19 +967,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1029,19 +1027,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1052,45 +1038,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1113,7 +1060,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1121,19 +1083,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1152,165 +1118,181 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -3553,6 +3535,55 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+  <queryTableRefresh preserveSortFilterLayout="0" nextId="11">
+    <queryTableFields count="10">
+      <queryTableField id="1" dataBound="0"/>
+      <queryTableField id="2" dataBound="0"/>
+      <queryTableField id="3" dataBound="0"/>
+      <queryTableField id="4" dataBound="0"/>
+      <queryTableField id="5" dataBound="0"/>
+      <queryTableField id="6" dataBound="0"/>
+      <queryTableField id="7" dataBound="0"/>
+      <queryTableField id="8" dataBound="0"/>
+      <queryTableField id="9" dataBound="0"/>
+      <queryTableField id="10" dataBound="0"/>
+    </queryTableFields>
+  </queryTableRefresh>
+</queryTable>
+</file>
+
+<file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="11" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+  <queryTableRefresh preserveSortFilterLayout="0" nextId="7">
+    <queryTableFields count="6">
+      <queryTableField id="1" dataBound="0"/>
+      <queryTableField id="2" dataBound="0"/>
+      <queryTableField id="3" dataBound="0"/>
+      <queryTableField id="4" dataBound="0"/>
+      <queryTableField id="5" dataBound="0"/>
+      <queryTableField id="6" dataBound="0"/>
+    </queryTableFields>
+  </queryTableRefresh>
+</queryTable>
+</file>
+
+<file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_3" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+  <queryTableRefresh preserveSortFilterLayout="0" nextId="7">
+    <queryTableFields count="6">
+      <queryTableField id="1" dataBound="0"/>
+      <queryTableField id="2" dataBound="0"/>
+      <queryTableField id="3" dataBound="0"/>
+      <queryTableField id="4" dataBound="0"/>
+      <queryTableField id="5" dataBound="0"/>
+      <queryTableField id="6" dataBound="0"/>
+    </queryTableFields>
+  </queryTableRefresh>
+</queryTable>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_2" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="0" nextId="11">
     <queryTableFields count="10">
@@ -3571,57 +3602,8 @@
 </queryTable>
 </file>
 
-<file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_3" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh preserveSortFilterLayout="0" nextId="7">
-    <queryTableFields count="6">
-      <queryTableField id="1" dataBound="0"/>
-      <queryTableField id="2" dataBound="0"/>
-      <queryTableField id="3" dataBound="0"/>
-      <queryTableField id="4" dataBound="0"/>
-      <queryTableField id="5" dataBound="0"/>
-      <queryTableField id="6" dataBound="0"/>
-    </queryTableFields>
-  </queryTableRefresh>
-</queryTable>
-</file>
-
-<file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="11" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh preserveSortFilterLayout="0" nextId="7">
-    <queryTableFields count="6">
-      <queryTableField id="1" dataBound="0"/>
-      <queryTableField id="2" dataBound="0"/>
-      <queryTableField id="3" dataBound="0"/>
-      <queryTableField id="4" dataBound="0"/>
-      <queryTableField id="5" dataBound="0"/>
-      <queryTableField id="6" dataBound="0"/>
-    </queryTableFields>
-  </queryTableRefresh>
-</queryTable>
-</file>
-
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh preserveSortFilterLayout="0" nextId="11">
-    <queryTableFields count="10">
-      <queryTableField id="1" dataBound="0"/>
-      <queryTableField id="2" dataBound="0"/>
-      <queryTableField id="3" dataBound="0"/>
-      <queryTableField id="4" dataBound="0"/>
-      <queryTableField id="5" dataBound="0"/>
-      <queryTableField id="6" dataBound="0"/>
-      <queryTableField id="7" dataBound="0"/>
-      <queryTableField id="8" dataBound="0"/>
-      <queryTableField id="9" dataBound="0"/>
-      <queryTableField id="10" dataBound="0"/>
-    </queryTableFields>
-  </queryTableRefresh>
-</queryTable>
-</file>
-
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="99-optimized_1" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="99-optimized" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="1" nextId="11">
     <queryTableFields count="10">
       <queryTableField id="1" dataBound="0"/>
@@ -3640,7 +3622,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="99-optimized" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="99-optimized_1" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="1" nextId="11">
     <queryTableFields count="10">
       <queryTableField id="1" dataBound="0"/>
@@ -3692,7 +3674,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_2" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="0" nextId="10">
     <queryTableFields count="9">
       <queryTableField id="1" dataBound="0"/>
@@ -3710,7 +3692,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_2" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="0" nextId="10">
     <queryTableFields count="9">
       <queryTableField id="1" dataBound="0"/>
@@ -5668,10 +5650,10 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:P30"/>
+  <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="D15" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="D15" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -5681,6 +5663,7 @@
     <col min="3" max="3" width="11.5" customWidth="1"/>
     <col min="4" max="5" width="2.33333333333333" customWidth="1"/>
     <col min="6" max="6" width="11.5" customWidth="1"/>
+    <col min="8" max="8" width="12.625"/>
     <col min="10" max="10" width="19.6666666666667" customWidth="1"/>
     <col min="11" max="11" width="4.33333333333333" customWidth="1"/>
     <col min="12" max="15" width="11.5" customWidth="1"/>
@@ -7016,6 +6999,12 @@
       </c>
       <c r="O30">
         <v>24.2393111</v>
+      </c>
+    </row>
+    <row r="34" spans="8:8">
+      <c r="H34">
+        <f>-684.95/3.5^6+3.85^6</f>
+        <v>3256.22708223864</v>
       </c>
     </row>
   </sheetData>
@@ -7041,29 +7030,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="9"/>
-      <c r="B1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="9" t="s">
+      <c r="A1" s="4"/>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="I1" s="9"/>
+      <c r="I1" s="4"/>
     </row>
     <row r="2" spans="2:13">
       <c r="B2" s="1">
@@ -7072,11 +7061,11 @@
       <c r="C2">
         <v>-9.35571075</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="6">
         <f>C2+F2</f>
         <v>-9.35571075</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="6">
         <v>0</v>
       </c>
       <c r="F2" s="1">
@@ -7100,11 +7089,11 @@
       <c r="C3">
         <v>-9.36041425</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="6">
         <f t="shared" ref="D3:D18" si="1">C3+F3</f>
         <v>-9.36041425</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="6">
         <v>0</v>
       </c>
       <c r="F3" s="1">
@@ -7113,7 +7102,7 @@
       <c r="G3">
         <v>0</v>
       </c>
-      <c r="I3" s="11">
+      <c r="I3" s="7">
         <v>-214.676473994638</v>
       </c>
       <c r="L3">
@@ -7134,11 +7123,11 @@
       <c r="C4">
         <v>-9.36272175</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="6">
         <f t="shared" si="1"/>
         <v>-9.34142444866186</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="6">
         <v>-1.74798</v>
       </c>
       <c r="F4">
@@ -7176,11 +7165,11 @@
       <c r="C5">
         <v>-9.36334625</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="6">
         <f t="shared" si="1"/>
         <v>-9.34203116612822</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="6">
         <v>-1.37949</v>
       </c>
       <c r="F5">
@@ -7215,11 +7204,11 @@
       <c r="C6">
         <v>-9.36387875</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="6">
         <f t="shared" si="1"/>
         <v>-9.34252731341168</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="6">
         <v>-0.649711</v>
       </c>
       <c r="F6">
@@ -7254,11 +7243,11 @@
       <c r="C7">
         <v>-9.364291</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="6">
         <f t="shared" si="1"/>
         <v>-9.34292050564871</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="6">
         <v>-0.436941</v>
       </c>
       <c r="F7">
@@ -7293,11 +7282,11 @@
       <c r="C8">
         <v>-9.36458075</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="6">
         <f t="shared" si="1"/>
         <v>-9.34319526886993</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="6">
         <v>-0.194466</v>
       </c>
       <c r="F8">
@@ -7336,11 +7325,11 @@
       <c r="C9">
         <v>-9.36471925</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="6">
         <f t="shared" si="1"/>
         <v>-9.34329465155856</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="6">
         <v>0.083872</v>
       </c>
       <c r="F9">
@@ -7382,11 +7371,11 @@
       <c r="C10">
         <v>-9.364684</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="6">
         <f t="shared" si="1"/>
         <v>-9.34324236527863</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="6">
         <v>0.40474</v>
       </c>
       <c r="F10">
@@ -7421,11 +7410,11 @@
       <c r="C11">
         <v>-9.36446125</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="6">
         <f t="shared" si="1"/>
         <v>-9.34298510923149</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="6">
         <v>0.766066</v>
       </c>
       <c r="F11">
@@ -7460,11 +7449,11 @@
       <c r="C12">
         <v>-9.36401425</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="6">
         <f t="shared" si="1"/>
         <v>-9.3425189263749</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="6">
         <v>1.209655</v>
       </c>
       <c r="F12">
@@ -7499,11 +7488,11 @@
       <c r="C13">
         <v>-9.363318</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="6">
         <f t="shared" si="1"/>
         <v>-9.34181344827522</v>
       </c>
-      <c r="E13" s="10">
+      <c r="E13" s="6">
         <v>1.650845</v>
       </c>
       <c r="F13">
@@ -7538,11 +7527,11 @@
       <c r="C14">
         <v>-9.36232725</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="6">
         <f t="shared" si="1"/>
         <v>-9.34080128378352</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E14" s="6">
         <v>2.184954</v>
       </c>
       <c r="F14">
@@ -7584,11 +7573,11 @@
       <c r="C15">
         <v>-9.3610255</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="6">
         <f t="shared" si="1"/>
         <v>-9.33948007495655</v>
       </c>
-      <c r="E15" s="10">
+      <c r="E15" s="6">
         <v>2.81936</v>
       </c>
       <c r="F15">
@@ -7630,11 +7619,11 @@
       <c r="C16">
         <v>-9.359363</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="6">
         <f t="shared" si="1"/>
         <v>-9.33780344436616</v>
       </c>
-      <c r="E16" s="10">
+      <c r="E16" s="6">
         <v>3.470399</v>
       </c>
       <c r="F16">
@@ -7676,11 +7665,11 @@
       <c r="C17">
         <v>-9.3572985</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D17" s="6">
         <f t="shared" si="1"/>
         <v>-9.33572266567675</v>
       </c>
-      <c r="E17" s="10">
+      <c r="E17" s="6">
         <v>8.313759</v>
       </c>
       <c r="F17">
@@ -7719,11 +7708,11 @@
       <c r="C18">
         <v>-9.35477725</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D18" s="6">
         <f t="shared" si="1"/>
         <v>-9.33318746929334</v>
       </c>
-      <c r="E18" s="10">
+      <c r="E18" s="6">
         <v>16.364584</v>
       </c>
       <c r="F18">
@@ -7765,11 +7754,11 @@
       <c r="C19">
         <v>-9.3439195</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D19" s="6">
         <f t="shared" ref="D19:D30" si="6">C19+F19</f>
         <v>-9.3439195</v>
       </c>
-      <c r="E19" s="10">
+      <c r="E19" s="6">
         <v>29.162834</v>
       </c>
       <c r="F19">
@@ -7804,11 +7793,11 @@
       <c r="C20">
         <v>-9.31057675</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D20" s="6">
         <f t="shared" si="6"/>
         <v>-9.31057675</v>
       </c>
-      <c r="E20" s="10">
+      <c r="E20" s="6">
         <v>49.590418</v>
       </c>
       <c r="F20">
@@ -7843,11 +7832,11 @@
       <c r="C21">
         <v>-9.2470915</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D21" s="6">
         <f t="shared" si="6"/>
         <v>-9.2470915</v>
       </c>
-      <c r="E21" s="10">
+      <c r="E21" s="6">
         <v>81.795232</v>
       </c>
       <c r="F21">
@@ -7882,11 +7871,11 @@
       <c r="C22">
         <v>-9.13348925</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D22" s="6">
         <f t="shared" si="6"/>
         <v>-9.13348925</v>
       </c>
-      <c r="E22" s="10">
+      <c r="E22" s="6">
         <v>126.264436</v>
       </c>
       <c r="F22">
@@ -7921,11 +7910,11 @@
       <c r="C23">
         <v>-8.9380785</v>
       </c>
-      <c r="D23" s="10">
+      <c r="D23" s="6">
         <f t="shared" si="6"/>
         <v>-8.9380785</v>
       </c>
-      <c r="E23" s="10">
+      <c r="E23" s="6">
         <v>184.537527</v>
       </c>
       <c r="F23">
@@ -7960,11 +7949,11 @@
       <c r="C24">
         <v>-8.63161825</v>
       </c>
-      <c r="D24" s="10">
+      <c r="D24" s="6">
         <f t="shared" si="6"/>
         <v>-8.63161825</v>
       </c>
-      <c r="E24" s="10">
+      <c r="E24" s="6">
         <v>278.177108</v>
       </c>
       <c r="F24">
@@ -7999,11 +7988,11 @@
       <c r="C25">
         <v>-8.18573275</v>
       </c>
-      <c r="D25" s="10">
+      <c r="D25" s="6">
         <f t="shared" si="6"/>
         <v>-8.18573275</v>
       </c>
-      <c r="E25" s="10">
+      <c r="E25" s="6">
         <v>410.94174</v>
       </c>
       <c r="F25">
@@ -8038,7 +8027,7 @@
       <c r="C26">
         <v>-7.534209</v>
       </c>
-      <c r="D26" s="10">
+      <c r="D26" s="6">
         <f t="shared" si="6"/>
         <v>-7.534209</v>
       </c>
@@ -8063,7 +8052,7 @@
       <c r="C27">
         <v>-6.56529875</v>
       </c>
-      <c r="D27" s="10">
+      <c r="D27" s="6">
         <f t="shared" si="6"/>
         <v>-6.56529875</v>
       </c>
@@ -8088,7 +8077,7 @@
       <c r="C28">
         <v>-5.3080285</v>
       </c>
-      <c r="D28" s="10">
+      <c r="D28" s="6">
         <f t="shared" si="6"/>
         <v>-5.3080285</v>
       </c>
@@ -8113,7 +8102,7 @@
       <c r="C29">
         <v>-3.53590775</v>
       </c>
-      <c r="D29" s="10">
+      <c r="D29" s="6">
         <f t="shared" si="6"/>
         <v>-3.53590775</v>
       </c>
@@ -8135,7 +8124,7 @@
       <c r="C30">
         <v>-9.310968</v>
       </c>
-      <c r="D30" s="10">
+      <c r="D30" s="6">
         <f t="shared" si="6"/>
         <v>-9.2921861209303</v>
       </c>
@@ -8177,7 +8166,7 @@
   <sheetPr/>
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2:E16"/>
     </sheetView>
   </sheetViews>
@@ -8229,22 +8218,22 @@
       <c r="C2">
         <v>-1.19325000000003</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="2">
         <v>-0.4985</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2">
         <v>-1.1389</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="2">
         <v>-0.5643</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2">
         <v>-1.1224</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2" s="2">
         <v>-0.5127</v>
       </c>
-      <c r="I2" s="7">
+      <c r="I2">
         <v>-1.1448</v>
       </c>
     </row>
@@ -8258,22 +8247,22 @@
       <c r="C3">
         <v>-1.20764865951742</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="2">
         <v>-0.509</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3">
         <v>-1.1675</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="2">
         <v>-0.5759</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3">
         <v>-1.1551</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="2">
         <v>-0.524</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3">
         <v>-1.1717</v>
       </c>
     </row>
@@ -8281,28 +8270,28 @@
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="6">
         <v>6.96333826455299</v>
       </c>
       <c r="C4">
         <v>-1.21992613941021</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="2">
         <v>-0.5176</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4">
         <v>-1.1937</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="2">
         <v>-0.586</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4">
         <v>-1.1852</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="2">
         <v>-0.5337</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4">
         <v>-1.1961</v>
       </c>
     </row>
@@ -8310,28 +8299,28 @@
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="6">
         <v>6.89702075727153</v>
       </c>
       <c r="C5">
         <v>-1.22943109919572</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="2">
         <v>-0.5239</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5">
         <v>-1.2169</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="2">
         <v>-0.5944</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5">
         <v>-1.2122</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="2">
         <v>-0.5414</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5">
         <v>-1.2175</v>
       </c>
     </row>
@@ -8339,28 +8328,28 @@
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="6">
         <v>6.83070324999007</v>
       </c>
       <c r="C6">
         <v>-1.2361116621984</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="2">
         <v>-0.5273</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6">
         <v>-1.2365</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="2">
         <v>-0.6007</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6">
         <v>-1.2352</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="2">
         <v>-0.5467</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6">
         <v>-1.2352</v>
       </c>
     </row>
@@ -8368,28 +8357,28 @@
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="6">
         <v>6.76438574270861</v>
       </c>
       <c r="C7">
         <v>-1.23930495978553</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="2">
         <v>-0.527</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7">
         <v>-1.2514</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="2">
         <v>-0.6043</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7">
         <v>-1.2532</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="2">
         <v>-0.5491</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7">
         <v>-1.2484</v>
       </c>
     </row>
@@ -8403,22 +8392,22 @@
       <c r="C8">
         <v>-1.23849222520113</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="2">
         <v>-0.5223</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8">
         <v>-1.2608</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="2">
         <v>-0.6047</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8">
         <v>-1.2652</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="2">
         <v>-0.5479</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8">
         <v>-1.2562</v>
       </c>
     </row>
@@ -8426,28 +8415,28 @@
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="6">
         <v>6.6317507281457</v>
       </c>
       <c r="C9">
         <v>-1.23335643431639</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="2">
         <v>-0.5122</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9">
         <v>-1.2636</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="2">
         <v>-0.6014</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9">
         <v>-1.27</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="2">
         <v>-0.5424</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9">
         <v>-1.2576</v>
       </c>
     </row>
@@ -8455,28 +8444,28 @@
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="6">
         <v>6.56543322086424</v>
       </c>
       <c r="C10">
         <v>-1.22305026809653</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="2">
         <v>-0.4957</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10">
         <v>-1.2584</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="2">
         <v>-0.5936</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10">
         <v>-1.266</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="2">
         <v>-0.5318</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I10">
         <v>-1.2515</v>
       </c>
     </row>
@@ -8484,28 +8473,28 @@
       <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="6">
         <v>6.49911571358279</v>
       </c>
       <c r="C11">
         <v>-1.20699731903488</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="2">
         <v>-0.4715</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11">
         <v>-1.2439</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="2">
         <v>-0.5804</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11">
         <v>-1.2516</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11" s="2">
         <v>-0.5151</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I11">
         <v>-1.2365</v>
       </c>
     </row>
@@ -8513,28 +8502,28 @@
       <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="6">
         <v>6.43279820630133</v>
       </c>
       <c r="C12">
         <v>-1.18415428954427</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="2">
         <v>-0.4379</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12">
         <v>-1.2182</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="2">
         <v>-0.5609</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12">
         <v>-1.2247</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12" s="2">
         <v>-0.4912</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I12">
         <v>-1.2112</v>
       </c>
     </row>
@@ -8542,28 +8531,28 @@
       <c r="A13" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="6">
         <v>6.36648069901987</v>
       </c>
       <c r="C13">
         <v>-1.15414075067028</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="2">
         <v>-0.3934</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13">
         <v>-1.1796</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="2">
         <v>-0.534</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13">
         <v>-1.1832</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13" s="2">
         <v>-0.4588</v>
       </c>
-      <c r="I13" s="7">
+      <c r="I13">
         <v>-1.1738</v>
       </c>
     </row>
@@ -8571,28 +8560,28 @@
       <c r="A14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="6">
         <v>6.30016319173841</v>
       </c>
       <c r="C14">
         <v>-1.11580965147456</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="2">
         <v>-0.3357</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14">
         <v>-1.1258</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="2">
         <v>-0.4983</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G14">
         <v>-1.1243</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H14" s="2">
         <v>-0.4165</v>
       </c>
-      <c r="I14" s="7">
+      <c r="I14">
         <v>-1.1224</v>
       </c>
     </row>
@@ -8606,22 +8595,22 @@
       <c r="C15">
         <v>-1.06820991957107</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="2">
         <v>-0.2625</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15">
         <v>-1.0542</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="2">
         <v>-0.4524</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15">
         <v>-1.0449</v>
       </c>
-      <c r="H15" s="6">
+      <c r="H15" s="2">
         <v>-0.3625</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I15">
         <v>-1.0548</v>
       </c>
     </row>
@@ -8635,22 +8624,22 @@
       <c r="C16">
         <v>-1.01007922252012</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="2">
         <v>-0.171</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16">
         <v>-0.9622</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="2">
         <v>-0.3943</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16">
         <v>-0.9414</v>
       </c>
-      <c r="H16" s="6">
+      <c r="H16" s="2">
         <v>-0.2949</v>
       </c>
-      <c r="I16" s="7">
+      <c r="I16">
         <v>-0.9687</v>
       </c>
     </row>
@@ -8717,7 +8706,6 @@
       <c r="I1" t="s">
         <v>50</v>
       </c>
-      <c r="J1"/>
       <c r="L1" t="s">
         <v>51</v>
       </c>
@@ -8751,12 +8739,7 @@
     </row>
     <row r="2" spans="4:21">
       <c r="D2" s="2"/>
-      <c r="E2"/>
       <c r="F2" s="2"/>
-      <c r="G2"/>
-      <c r="H2"/>
-      <c r="I2"/>
-      <c r="J2"/>
       <c r="L2" t="s">
         <v>51</v>
       </c>
@@ -8940,7 +8923,6 @@
       <c r="I5" t="s">
         <v>57</v>
       </c>
-      <c r="J5"/>
       <c r="L5" t="s">
         <v>51</v>
       </c>
@@ -9000,7 +8982,6 @@
       <c r="I6" t="s">
         <v>59</v>
       </c>
-      <c r="J6"/>
       <c r="L6" t="s">
         <v>51</v>
       </c>
@@ -9060,7 +9041,6 @@
       <c r="I7" t="s">
         <v>61</v>
       </c>
-      <c r="J7"/>
       <c r="L7" t="s">
         <v>51</v>
       </c>
@@ -9120,7 +9100,6 @@
       <c r="I8" t="s">
         <v>63</v>
       </c>
-      <c r="J8"/>
       <c r="L8" t="s">
         <v>51</v>
       </c>
@@ -9180,7 +9159,6 @@
       <c r="I9" t="s">
         <v>65</v>
       </c>
-      <c r="J9"/>
       <c r="L9" t="s">
         <v>51</v>
       </c>
@@ -9240,7 +9218,6 @@
       <c r="I10" t="s">
         <v>67</v>
       </c>
-      <c r="J10"/>
       <c r="L10" t="s">
         <v>51</v>
       </c>
@@ -9300,7 +9277,6 @@
       <c r="I11" t="s">
         <v>69</v>
       </c>
-      <c r="J11"/>
       <c r="L11" t="s">
         <v>51</v>
       </c>
@@ -9360,7 +9336,6 @@
       <c r="I12" t="s">
         <v>71</v>
       </c>
-      <c r="J12"/>
       <c r="L12" t="s">
         <v>51</v>
       </c>
@@ -9420,7 +9395,6 @@
       <c r="I13" t="s">
         <v>73</v>
       </c>
-      <c r="J13"/>
       <c r="L13" t="s">
         <v>51</v>
       </c>
@@ -9480,7 +9454,6 @@
       <c r="I14" t="s">
         <v>75</v>
       </c>
-      <c r="J14"/>
       <c r="L14" t="s">
         <v>51</v>
       </c>
@@ -9540,7 +9513,6 @@
       <c r="I15" t="s">
         <v>77</v>
       </c>
-      <c r="J15"/>
       <c r="L15" t="s">
         <v>51</v>
       </c>
@@ -9632,37 +9604,30 @@
     </row>
     <row r="18" spans="4:6">
       <c r="D18" s="2"/>
-      <c r="E18"/>
       <c r="F18" s="2"/>
     </row>
     <row r="19" spans="4:6">
       <c r="D19" s="2"/>
-      <c r="E19"/>
       <c r="F19" s="2"/>
     </row>
     <row r="20" spans="4:6">
       <c r="D20" s="2"/>
-      <c r="E20"/>
       <c r="F20" s="2"/>
     </row>
     <row r="21" spans="4:6">
       <c r="D21" s="2"/>
-      <c r="E21"/>
       <c r="F21" s="2"/>
     </row>
     <row r="22" spans="4:6">
       <c r="D22" s="2"/>
-      <c r="E22"/>
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="4:6">
       <c r="D23" s="2"/>
-      <c r="E23"/>
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="4:6">
       <c r="D24" s="2"/>
-      <c r="E24"/>
       <c r="F24" s="2"/>
     </row>
   </sheetData>

--- a/data/data_collection.xlsx
+++ b/data/data_collection.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="9435" tabRatio="719" activeTab="10"/>
+    <workbookView windowWidth="20385" windowHeight="8370" tabRatio="719" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="data11" sheetId="1" r:id="rId1"/>
@@ -20,8 +20,6 @@
     <sheet name="Sheet3" sheetId="11" r:id="rId11"/>
   </sheets>
   <definedNames>
-    <definedName name="_99_optimized" localSheetId="5">Sheet7!$A$1:$J$15</definedName>
-    <definedName name="_99_optimized_1" localSheetId="5">Sheet7!$L$1:$U$15</definedName>
     <definedName name="ExternalData_1" localSheetId="7">phonopy!$A$1:$F$24</definedName>
     <definedName name="ExternalData_1" localSheetId="6">Sheet1!$A$1:$I$24</definedName>
     <definedName name="ExternalData_1" localSheetId="3">Sheet2!$A$1:$J$17</definedName>
@@ -32,6 +30,8 @@
     <definedName name="ExternalData_2" localSheetId="8">Sheet4!$L$1:$T$24</definedName>
     <definedName name="ExternalData_3" localSheetId="10">Sheet3!$J$1:$O$30</definedName>
     <definedName name="ExternalData_2" localSheetId="3">Sheet2!$L$1:$U$15</definedName>
+    <definedName name="ExternalData_1" localSheetId="5">Sheet7!$A$1:$J$17</definedName>
+    <definedName name="ExternalData_2" localSheetId="5">Sheet7!$L$1:$U$17</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
@@ -48,7 +48,6 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
@@ -72,7 +71,6 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
@@ -88,14 +86,14 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <connection id="1" name="99-optimized" type="6" background="1" refreshedVersion="2" saveData="1">
-    <textPr sourceFile="/Users/yerong/Documents/William/MD-LJ/graphite/99-optimized.txt">
+    <textPr sourceFile="F:\William\MD-X6\graphite\99-optimized.txt" space="1" consecutive="1">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
   <connection id="2" name="99-optimized1" type="6" background="1" refreshedVersion="2" saveData="1">
-    <textPr sourceFile="/Users/yerong/Documents/William/MD-X6/graphite/99-optimized.txt">
+    <textPr sourceFile="F:\William\MD-VopX\graphite\99-optimized.txt" space="1" consecutive="1">
       <textFields>
         <textField/>
       </textFields>
@@ -168,7 +166,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167">
   <si>
     <t>C(A)</t>
   </si>
@@ -300,6 +298,9 @@
   </si>
   <si>
     <t>X6-optimized</t>
+  </si>
+  <si>
+    <t>Vop-optimized</t>
   </si>
   <si>
     <t>FField</t>
@@ -673,15 +674,30 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="21">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -702,16 +718,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -720,27 +752,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -755,7 +766,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -769,6 +787,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -778,15 +803,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -801,36 +825,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -847,7 +848,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -859,79 +998,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -949,85 +1028,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1038,6 +1039,65 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1059,8 +1119,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1079,210 +1139,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1300,10 +1301,10 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Currency" xfId="3" builtinId="4"/>
-    <cellStyle name="Comma[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Percent" xfId="5" builtinId="5"/>
-    <cellStyle name="Currency[0]" xfId="6" builtinId="7"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
     <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
     <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
     <cellStyle name="Note" xfId="9" builtinId="10"/>
@@ -1436,6 +1437,9 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet5!$A$1:$E$24</c:f>
@@ -1473,6 +1477,9 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:trendline>
             <c:spPr>
               <a:ln w="19050" cap="rnd">
@@ -1653,7 +1660,6 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="r"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -1675,7 +1681,6 @@
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
-            <a:noFill/>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -1739,7 +1744,6 @@
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
-            <a:noFill/>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -1868,7 +1872,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins r="0.7" b="0.75" l="0.7" footer="0.3" header="0.3" t="0.75"/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1949,6 +1953,9 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet5!$A$1:$E$13</c:f>
@@ -1986,6 +1993,9 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:trendline>
             <c:spPr>
               <a:ln w="19050" cap="rnd">
@@ -2135,7 +2145,6 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="r"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -2157,7 +2166,6 @@
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
-            <a:noFill/>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -2222,7 +2230,6 @@
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
-            <a:noFill/>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -2351,7 +2358,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins r="0.7" b="0.75" l="0.7" footer="0.3" header="0.3" t="0.75"/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3535,6 +3542,55 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_2" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+  <queryTableRefresh preserveSortFilterLayout="0" nextId="11">
+    <queryTableFields count="10">
+      <queryTableField id="1" dataBound="0"/>
+      <queryTableField id="2" dataBound="0"/>
+      <queryTableField id="3" dataBound="0"/>
+      <queryTableField id="4" dataBound="0"/>
+      <queryTableField id="5" dataBound="0"/>
+      <queryTableField id="6" dataBound="0"/>
+      <queryTableField id="7" dataBound="0"/>
+      <queryTableField id="8" dataBound="0"/>
+      <queryTableField id="9" dataBound="0"/>
+      <queryTableField id="10" dataBound="0"/>
+    </queryTableFields>
+  </queryTableRefresh>
+</queryTable>
+</file>
+
+<file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_3" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+  <queryTableRefresh preserveSortFilterLayout="0" nextId="7">
+    <queryTableFields count="6">
+      <queryTableField id="1" dataBound="0"/>
+      <queryTableField id="2" dataBound="0"/>
+      <queryTableField id="3" dataBound="0"/>
+      <queryTableField id="4" dataBound="0"/>
+      <queryTableField id="5" dataBound="0"/>
+      <queryTableField id="6" dataBound="0"/>
+    </queryTableFields>
+  </queryTableRefresh>
+</queryTable>
+</file>
+
+<file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="11" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+  <queryTableRefresh preserveSortFilterLayout="0" nextId="7">
+    <queryTableFields count="6">
+      <queryTableField id="1" dataBound="0"/>
+      <queryTableField id="2" dataBound="0"/>
+      <queryTableField id="3" dataBound="0"/>
+      <queryTableField id="4" dataBound="0"/>
+      <queryTableField id="5" dataBound="0"/>
+      <queryTableField id="6" dataBound="0"/>
+    </queryTableFields>
+  </queryTableRefresh>
+</queryTable>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="0" nextId="11">
     <queryTableFields count="10">
@@ -3553,38 +3609,8 @@
 </queryTable>
 </file>
 
-<file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="11" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh preserveSortFilterLayout="0" nextId="7">
-    <queryTableFields count="6">
-      <queryTableField id="1" dataBound="0"/>
-      <queryTableField id="2" dataBound="0"/>
-      <queryTableField id="3" dataBound="0"/>
-      <queryTableField id="4" dataBound="0"/>
-      <queryTableField id="5" dataBound="0"/>
-      <queryTableField id="6" dataBound="0"/>
-    </queryTableFields>
-  </queryTableRefresh>
-</queryTable>
-</file>
-
-<file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_3" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh preserveSortFilterLayout="0" nextId="7">
-    <queryTableFields count="6">
-      <queryTableField id="1" dataBound="0"/>
-      <queryTableField id="2" dataBound="0"/>
-      <queryTableField id="3" dataBound="0"/>
-      <queryTableField id="4" dataBound="0"/>
-      <queryTableField id="5" dataBound="0"/>
-      <queryTableField id="6" dataBound="0"/>
-    </queryTableFields>
-  </queryTableRefresh>
-</queryTable>
-</file>
-
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_2" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_2" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="0" nextId="11">
     <queryTableFields count="10">
       <queryTableField id="1" dataBound="0"/>
@@ -3602,28 +3628,9 @@
 </queryTable>
 </file>
 
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="99-optimized" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh preserveSortFilterLayout="1" nextId="11">
-    <queryTableFields count="10">
-      <queryTableField id="1" dataBound="0"/>
-      <queryTableField id="2" dataBound="0"/>
-      <queryTableField id="3" dataBound="0"/>
-      <queryTableField id="4" dataBound="0"/>
-      <queryTableField id="5" dataBound="0"/>
-      <queryTableField id="6" dataBound="0"/>
-      <queryTableField id="7" dataBound="0"/>
-      <queryTableField id="8" dataBound="0"/>
-      <queryTableField id="9" dataBound="0"/>
-      <queryTableField id="10" dataBound="0"/>
-    </queryTableFields>
-  </queryTableRefresh>
-</queryTable>
-</file>
-
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="99-optimized_1" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh preserveSortFilterLayout="1" nextId="11">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+  <queryTableRefresh preserveSortFilterLayout="0" nextId="11">
     <queryTableFields count="10">
       <queryTableField id="1" dataBound="0"/>
       <queryTableField id="2" dataBound="0"/>
@@ -3674,7 +3681,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_2" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="0" nextId="10">
     <queryTableFields count="9">
       <queryTableField id="1" dataBound="0"/>
@@ -3692,7 +3699,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_2" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="0" nextId="10">
     <queryTableFields count="9">
       <queryTableField id="1" dataBound="0"/>
@@ -3979,7 +3986,6 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
@@ -4866,13 +4872,13 @@
         <v>7.734603659</v>
       </c>
       <c r="B1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E1">
         <v>-2.70814</v>
@@ -4898,13 +4904,13 @@
         <v>7.398316544</v>
       </c>
       <c r="B2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D2" t="s">
         <v>136</v>
-      </c>
-      <c r="C2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D2" t="s">
-        <v>135</v>
       </c>
       <c r="E2">
         <v>-3.40202</v>
@@ -4930,13 +4936,13 @@
         <v>7.06202942799999</v>
       </c>
       <c r="B3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E3">
         <v>-4.50753</v>
@@ -4962,13 +4968,13 @@
         <v>6.99477200493787</v>
       </c>
       <c r="B4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E4">
         <v>-4.78273</v>
@@ -4994,13 +5000,13 @@
         <v>6.92751458181347</v>
       </c>
       <c r="B5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C5" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D5" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E5">
         <v>-5.08591</v>
@@ -5026,13 +5032,13 @@
         <v>6.86025715868907</v>
       </c>
       <c r="B6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E6">
         <v>-5.40348</v>
@@ -5058,13 +5064,13 @@
         <v>6.79299973556466</v>
       </c>
       <c r="B7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E7">
         <v>-5.75432</v>
@@ -5090,13 +5096,13 @@
         <v>6.72574231244026</v>
       </c>
       <c r="B8" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C8" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E8">
         <v>-6.11871</v>
@@ -5122,13 +5128,13 @@
         <v>6.65848488931586</v>
       </c>
       <c r="B9" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C9" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D9" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E9">
         <v>-6.54105</v>
@@ -5154,13 +5160,13 @@
         <v>6.59122746619145</v>
       </c>
       <c r="B10" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D10" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E10">
         <v>-6.92346</v>
@@ -5186,13 +5192,13 @@
         <v>6.52397004306705</v>
       </c>
       <c r="B11" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D11" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E11">
         <v>-7.3603</v>
@@ -5218,13 +5224,13 @@
         <v>6.45671261994265</v>
       </c>
       <c r="B12" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C12" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D12" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E12">
         <v>-7.85094</v>
@@ -5250,13 +5256,13 @@
         <v>6.389455197</v>
       </c>
       <c r="B13" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C13" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D13" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E13">
         <v>-8.29527</v>
@@ -5282,13 +5288,13 @@
         <v>6.05316808099999</v>
       </c>
       <c r="B14" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C14" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D14" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E14">
         <v>-11.01718</v>
@@ -5314,13 +5320,13 @@
         <v>5.71688096599999</v>
       </c>
       <c r="B15" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C15" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D15" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E15">
         <v>-14.16293</v>
@@ -5346,13 +5352,13 @@
         <v>5.38059385</v>
       </c>
       <c r="B16" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C16" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D16" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E16">
         <v>-17.17197</v>
@@ -5378,13 +5384,13 @@
         <v>5.044306734</v>
       </c>
       <c r="B17" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C17" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D17" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E17">
         <v>-17.75908</v>
@@ -5410,13 +5416,13 @@
         <v>4.70801961899999</v>
       </c>
       <c r="B18" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C18" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D18" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E18">
         <v>-14.08485</v>
@@ -5442,13 +5448,13 @@
         <v>4.37173250299999</v>
       </c>
       <c r="B19" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C19" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D19" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E19">
         <v>-9.69094</v>
@@ -5474,13 +5480,13 @@
         <v>4.035445387</v>
       </c>
       <c r="B20" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C20" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D20" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E20">
         <v>62.64671</v>
@@ -5506,13 +5512,13 @@
         <v>3.69915827100001</v>
       </c>
       <c r="B21" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C21" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D21" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E21">
         <v>238.657</v>
@@ -5538,13 +5544,13 @@
         <v>3.36287115500002</v>
       </c>
       <c r="B22" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C22" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D22" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E22">
         <v>709.01882</v>
@@ -5570,13 +5576,13 @@
         <v>3.02658403900003</v>
       </c>
       <c r="B23" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C23" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D23" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E23">
         <v>1922.70321</v>
@@ -5602,13 +5608,13 @@
         <v>2.69029692300004</v>
       </c>
       <c r="B24" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C24" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D24" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E24">
         <v>3453.20136</v>
@@ -5652,7 +5658,7 @@
   <sheetPr/>
   <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="D15" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="D13" workbookViewId="0">
       <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
@@ -5671,7 +5677,7 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -5693,7 +5699,7 @@
         <v>0.0212973013381394</v>
       </c>
       <c r="J1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K1">
         <v>300</v>
@@ -5717,7 +5723,7 @@
     </row>
     <row r="2" spans="1:16">
       <c r="A2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -5739,7 +5745,7 @@
         <v>0.0213150838717795</v>
       </c>
       <c r="J2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K2">
         <v>300</v>
@@ -5763,7 +5769,7 @@
     </row>
     <row r="3" spans="1:16">
       <c r="A3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -5785,7 +5791,7 @@
         <v>0.0213514365883235</v>
       </c>
       <c r="J3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K3">
         <v>300</v>
@@ -5809,7 +5815,7 @@
     </row>
     <row r="4" spans="1:16">
       <c r="A4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -5831,7 +5837,7 @@
         <v>0.0213704943512894</v>
       </c>
       <c r="J4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K4">
         <v>300</v>
@@ -5855,7 +5861,7 @@
     </row>
     <row r="5" spans="1:16">
       <c r="A5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -5877,7 +5883,7 @@
         <v>0.0213854811300705</v>
       </c>
       <c r="J5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K5">
         <v>300</v>
@@ -5901,7 +5907,7 @@
     </row>
     <row r="6" spans="1:16">
       <c r="A6" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -5923,7 +5929,7 @@
         <v>0.0214245984414376</v>
       </c>
       <c r="J6" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K6">
         <v>300</v>
@@ -5947,7 +5953,7 @@
     </row>
     <row r="7" spans="1:16">
       <c r="A7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -5969,7 +5975,7 @@
         <v>0.0214416347213709</v>
       </c>
       <c r="J7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K7">
         <v>300</v>
@@ -5993,7 +5999,7 @@
     </row>
     <row r="8" spans="1:16">
       <c r="A8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -6015,7 +6021,7 @@
         <v>0.0214761407685137</v>
       </c>
       <c r="J8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K8">
         <v>300</v>
@@ -6039,7 +6045,7 @@
     </row>
     <row r="9" spans="1:16">
       <c r="A9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -6061,7 +6067,7 @@
         <v>0.0214953236250955</v>
       </c>
       <c r="J9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K9">
         <v>300</v>
@@ -6085,7 +6091,7 @@
     </row>
     <row r="10" spans="1:16">
       <c r="A10" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -6107,7 +6113,7 @@
         <v>0.0215045517247771</v>
       </c>
       <c r="J10" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K10">
         <v>300</v>
@@ -6131,7 +6137,7 @@
     </row>
     <row r="11" spans="1:16">
       <c r="A11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -6153,7 +6159,7 @@
         <v>0.0215259662164836</v>
       </c>
       <c r="J11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K11">
         <v>300</v>
@@ -6177,7 +6183,7 @@
     </row>
     <row r="12" spans="1:16">
       <c r="A12" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -6199,7 +6205,7 @@
         <v>0.0215454250434452</v>
       </c>
       <c r="J12" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K12">
         <v>300</v>
@@ -6223,7 +6229,7 @@
     </row>
     <row r="13" spans="1:16">
       <c r="A13" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -6245,7 +6251,7 @@
         <v>0.02155955563384</v>
       </c>
       <c r="J13" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K13">
         <v>300</v>
@@ -6269,7 +6275,7 @@
     </row>
     <row r="14" spans="1:16">
       <c r="A14" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -6291,7 +6297,7 @@
         <v>0.0215758343232551</v>
       </c>
       <c r="J14" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K14">
         <v>300</v>
@@ -6315,7 +6321,7 @@
     </row>
     <row r="15" spans="1:16">
       <c r="A15" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -6337,7 +6343,7 @@
         <v>0.0215897807066604</v>
       </c>
       <c r="J15" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K15">
         <v>300</v>
@@ -6361,7 +6367,7 @@
     </row>
     <row r="16" spans="1:16">
       <c r="A16" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -6383,7 +6389,7 @@
         <v>0.00616135745718576</v>
       </c>
       <c r="J16" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K16">
         <v>300</v>
@@ -6407,7 +6413,7 @@
     </row>
     <row r="17" spans="1:16">
       <c r="A17" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -6429,7 +6435,7 @@
         <v>0.00642130111638179</v>
       </c>
       <c r="J17" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K17">
         <v>300</v>
@@ -6453,7 +6459,7 @@
     </row>
     <row r="18" spans="1:16">
       <c r="A18" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -6475,7 +6481,7 @@
         <v>0.00668963932810497</v>
       </c>
       <c r="J18" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K18">
         <v>300</v>
@@ -6499,7 +6505,7 @@
     </row>
     <row r="19" spans="1:16">
       <c r="A19" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -6521,7 +6527,7 @@
         <v>0.00722596664254261</v>
       </c>
       <c r="J19" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K19">
         <v>300</v>
@@ -6545,7 +6551,7 @@
     </row>
     <row r="20" spans="1:16">
       <c r="A20" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -6567,7 +6573,7 @@
         <v>0.00725404306569759</v>
       </c>
       <c r="J20" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K20">
         <v>300</v>
@@ -6591,7 +6597,7 @@
     </row>
     <row r="21" spans="1:16">
       <c r="A21" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -6613,7 +6619,7 @@
         <v>0.00725404306569759</v>
       </c>
       <c r="J21" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K21">
         <v>300</v>
@@ -6637,7 +6643,7 @@
     </row>
     <row r="22" spans="1:16">
       <c r="A22" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -6659,7 +6665,7 @@
         <v>0.00725404306569759</v>
       </c>
       <c r="J22" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K22">
         <v>300</v>
@@ -6683,7 +6689,7 @@
     </row>
     <row r="23" spans="1:16">
       <c r="A23" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -6705,7 +6711,7 @@
         <v>0.00725404306569759</v>
       </c>
       <c r="J23" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K23">
         <v>300</v>
@@ -6729,7 +6735,7 @@
     </row>
     <row r="24" spans="1:16">
       <c r="A24" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -6751,7 +6757,7 @@
         <v>0.00725404306569759</v>
       </c>
       <c r="J24" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K24">
         <v>300</v>
@@ -6775,7 +6781,7 @@
     </row>
     <row r="25" spans="1:15">
       <c r="A25" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -6793,7 +6799,7 @@
         <v>22.395319</v>
       </c>
       <c r="J25" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K25">
         <v>300</v>
@@ -6813,7 +6819,7 @@
     </row>
     <row r="26" spans="1:15">
       <c r="A26" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -6831,7 +6837,7 @@
         <v>22.395319</v>
       </c>
       <c r="J26" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K26">
         <v>300</v>
@@ -6851,7 +6857,7 @@
     </row>
     <row r="27" spans="1:15">
       <c r="A27" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -6869,7 +6875,7 @@
         <v>72.8132429</v>
       </c>
       <c r="J27" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K27">
         <v>300</v>
@@ -6889,7 +6895,7 @@
     </row>
     <row r="28" spans="1:15">
       <c r="A28" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -6907,7 +6913,7 @@
         <v>16.0294562</v>
       </c>
       <c r="J28" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K28">
         <v>300</v>
@@ -6927,7 +6933,7 @@
     </row>
     <row r="29" spans="1:15">
       <c r="A29" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -6945,7 +6951,7 @@
         <v>17.5375936</v>
       </c>
       <c r="J29" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K29">
         <v>300</v>
@@ -6965,7 +6971,7 @@
     </row>
     <row r="30" spans="1:15">
       <c r="A30" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -6983,7 +6989,7 @@
         <v>18.1291886</v>
       </c>
       <c r="J30" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K30">
         <v>300</v>
@@ -8164,10 +8170,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -8182,7 +8188,7 @@
     <col min="9" max="9" width="11.8333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9">
+    <row r="1" spans="2:10">
       <c r="B1" s="5" t="s">
         <v>36</v>
       </c>
@@ -8207,8 +8213,11 @@
       <c r="I1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -8234,10 +8243,13 @@
         <v>-0.5127</v>
       </c>
       <c r="I2">
-        <v>-1.1448</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>-1.1506</v>
+      </c>
+      <c r="J2">
+        <v>-1.1683</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -8263,10 +8275,13 @@
         <v>-0.524</v>
       </c>
       <c r="I3">
-        <v>-1.1717</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>-1.175</v>
+      </c>
+      <c r="J3">
+        <v>-1.1884</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -8292,10 +8307,13 @@
         <v>-0.5337</v>
       </c>
       <c r="I4">
-        <v>-1.1961</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>-1.1968</v>
+      </c>
+      <c r="J4">
+        <v>-1.2062</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -8321,10 +8339,13 @@
         <v>-0.5414</v>
       </c>
       <c r="I5">
-        <v>-1.2175</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>-1.2154</v>
+      </c>
+      <c r="J5">
+        <v>-1.221</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
@@ -8350,10 +8371,13 @@
         <v>-0.5467</v>
       </c>
       <c r="I6">
-        <v>-1.2352</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>-1.2303</v>
+      </c>
+      <c r="J6">
+        <v>-1.2324</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
@@ -8379,10 +8403,13 @@
         <v>-0.5491</v>
       </c>
       <c r="I7">
-        <v>-1.2484</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>-1.2406</v>
+      </c>
+      <c r="J7">
+        <v>-1.2398</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
@@ -8408,10 +8435,13 @@
         <v>-0.5479</v>
       </c>
       <c r="I8">
-        <v>-1.2562</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>-1.2456</v>
+      </c>
+      <c r="J8">
+        <v>-1.2425</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
@@ -8437,10 +8467,13 @@
         <v>-0.5424</v>
       </c>
       <c r="I9">
-        <v>-1.2576</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>-1.2443</v>
+      </c>
+      <c r="J9">
+        <v>-1.2397</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
@@ -8466,10 +8499,13 @@
         <v>-0.5318</v>
       </c>
       <c r="I10">
-        <v>-1.2515</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>-1.2357</v>
+      </c>
+      <c r="J10">
+        <v>-1.2306</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
@@ -8495,10 +8531,13 @@
         <v>-0.5151</v>
       </c>
       <c r="I11">
-        <v>-1.2365</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>-1.2185</v>
+      </c>
+      <c r="J11">
+        <v>-1.2141</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
@@ -8524,10 +8563,13 @@
         <v>-0.4912</v>
       </c>
       <c r="I12">
-        <v>-1.2112</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>-1.1915</v>
+      </c>
+      <c r="J12">
+        <v>-1.1893</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="3" t="s">
         <v>15</v>
       </c>
@@ -8553,10 +8595,13 @@
         <v>-0.4588</v>
       </c>
       <c r="I13">
-        <v>-1.1738</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>-1.1531</v>
+      </c>
+      <c r="J13">
+        <v>-1.1549</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="3" t="s">
         <v>16</v>
       </c>
@@ -8582,10 +8627,13 @@
         <v>-0.4165</v>
       </c>
       <c r="I14">
-        <v>-1.1224</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>-1.1017</v>
+      </c>
+      <c r="J14">
+        <v>-1.1094</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="3" t="s">
         <v>17</v>
       </c>
@@ -8611,10 +8659,13 @@
         <v>-0.3625</v>
       </c>
       <c r="I15">
-        <v>-1.0548</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>-1.0353</v>
+      </c>
+      <c r="J15">
+        <v>-1.0513</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="3" t="s">
         <v>18</v>
       </c>
@@ -8640,7 +8691,10 @@
         <v>-0.2949</v>
       </c>
       <c r="I16">
-        <v>-0.9687</v>
+        <v>-0.9518</v>
+      </c>
+      <c r="J16">
+        <v>-0.9787</v>
       </c>
     </row>
   </sheetData>
@@ -8683,40 +8737,40 @@
   <sheetData>
     <row r="1" spans="2:21">
       <c r="B1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" t="s">
         <v>46</v>
       </c>
-      <c r="E1" t="s">
-        <v>45</v>
-      </c>
       <c r="F1" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N1">
         <v>4</v>
       </c>
       <c r="O1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P1">
         <v>2</v>
@@ -8741,16 +8795,16 @@
       <c r="D2" s="2"/>
       <c r="F2" s="2"/>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N2">
         <v>4</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2">
         <v>2</v>
@@ -8773,16 +8827,16 @@
     </row>
     <row r="3" spans="1:21">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C3">
         <v>4</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -8803,16 +8857,16 @@
         <v>482660.6238</v>
       </c>
       <c r="L3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N3">
         <v>4</v>
       </c>
       <c r="O3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P3">
         <v>2</v>
@@ -8835,16 +8889,16 @@
     </row>
     <row r="4" spans="1:21">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C4">
         <v>4</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -8865,16 +8919,16 @@
         <v>970759.5956</v>
       </c>
       <c r="L4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N4">
         <v>4</v>
       </c>
       <c r="O4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P4">
         <v>2</v>
@@ -8897,16 +8951,16 @@
     </row>
     <row r="5" spans="1:21">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -8921,19 +8975,19 @@
         <v>0.001</v>
       </c>
       <c r="I5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N5">
         <v>4</v>
       </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P5">
         <v>2</v>
@@ -8956,16 +9010,16 @@
     </row>
     <row r="6" spans="1:21">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C6">
         <v>4</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -8980,19 +9034,19 @@
         <v>0.001</v>
       </c>
       <c r="I6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="N6">
         <v>4</v>
       </c>
       <c r="O6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P6">
         <v>2</v>
@@ -9015,16 +9069,16 @@
     </row>
     <row r="7" spans="1:21">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C7">
         <v>4</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -9039,19 +9093,19 @@
         <v>0.001</v>
       </c>
       <c r="I7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="N7">
         <v>4</v>
       </c>
       <c r="O7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P7">
         <v>2</v>
@@ -9074,16 +9128,16 @@
     </row>
     <row r="8" spans="1:21">
       <c r="A8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C8">
         <v>4</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -9098,19 +9152,19 @@
         <v>0.001</v>
       </c>
       <c r="I8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N8">
         <v>4</v>
       </c>
       <c r="O8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P8">
         <v>2</v>
@@ -9133,16 +9187,16 @@
     </row>
     <row r="9" spans="1:21">
       <c r="A9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C9">
         <v>4</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -9157,19 +9211,19 @@
         <v>0.001</v>
       </c>
       <c r="I9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="N9">
         <v>4</v>
       </c>
       <c r="O9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P9">
         <v>2</v>
@@ -9192,16 +9246,16 @@
     </row>
     <row r="10" spans="1:21">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C10">
         <v>4</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -9216,19 +9270,19 @@
         <v>0.001</v>
       </c>
       <c r="I10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="N10">
         <v>4</v>
       </c>
       <c r="O10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P10">
         <v>2</v>
@@ -9251,16 +9305,16 @@
     </row>
     <row r="11" spans="1:21">
       <c r="A11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C11">
         <v>4</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -9275,19 +9329,19 @@
         <v>0.001</v>
       </c>
       <c r="I11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="N11">
         <v>4</v>
       </c>
       <c r="O11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P11">
         <v>2</v>
@@ -9310,16 +9364,16 @@
     </row>
     <row r="12" spans="1:21">
       <c r="A12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C12">
         <v>4</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -9334,19 +9388,19 @@
         <v>0.001</v>
       </c>
       <c r="I12" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M12" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="N12">
         <v>4</v>
       </c>
       <c r="O12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P12">
         <v>2</v>
@@ -9369,16 +9423,16 @@
     </row>
     <row r="13" spans="1:21">
       <c r="A13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B13" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C13">
         <v>4</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -9393,19 +9447,19 @@
         <v>0.001</v>
       </c>
       <c r="I13" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M13" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N13">
         <v>4</v>
       </c>
       <c r="O13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P13">
         <v>2</v>
@@ -9428,16 +9482,16 @@
     </row>
     <row r="14" spans="1:21">
       <c r="A14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C14">
         <v>4</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E14">
         <v>2</v>
@@ -9452,19 +9506,19 @@
         <v>0.001</v>
       </c>
       <c r="I14" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M14" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="N14">
         <v>4</v>
       </c>
       <c r="O14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P14">
         <v>2</v>
@@ -9487,16 +9541,16 @@
     </row>
     <row r="15" spans="1:21">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B15" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C15">
         <v>4</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E15">
         <v>2</v>
@@ -9511,19 +9565,19 @@
         <v>0.001</v>
       </c>
       <c r="I15" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M15" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N15">
         <v>4</v>
       </c>
       <c r="O15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P15">
         <v>2</v>
@@ -9546,16 +9600,16 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B16" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C16">
         <v>4</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E16">
         <v>2</v>
@@ -9570,21 +9624,21 @@
         <v>0.001</v>
       </c>
       <c r="I16" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B17" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C17">
         <v>4</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -9599,7 +9653,7 @@
         <v>0.001</v>
       </c>
       <c r="I17" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="4:6">
@@ -9802,963 +9856,1013 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:U15"/>
+  <dimension ref="A1:U17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1:Q15"/>
+      <selection activeCell="Q3" sqref="Q3:Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="6.66666666666667" customWidth="1"/>
-    <col min="2" max="2" width="10.6666666666667" customWidth="1"/>
-    <col min="3" max="3" width="2.16666666666667" customWidth="1"/>
-    <col min="4" max="4" width="7.5" customWidth="1"/>
-    <col min="5" max="5" width="2.16666666666667" customWidth="1"/>
-    <col min="6" max="7" width="7.66666666666667" customWidth="1"/>
-    <col min="8" max="8" width="6.16666666666667" customWidth="1"/>
-    <col min="9" max="9" width="10.1666666666667" customWidth="1"/>
-    <col min="10" max="10" width="11.1666666666667" customWidth="1"/>
-    <col min="12" max="12" width="6.66666666666667" customWidth="1"/>
-    <col min="13" max="13" width="10.6666666666667" customWidth="1"/>
-    <col min="14" max="14" width="2.16666666666667" customWidth="1"/>
-    <col min="15" max="15" width="7.5" customWidth="1"/>
-    <col min="16" max="16" width="2.16666666666667" customWidth="1"/>
-    <col min="17" max="18" width="7.66666666666667" customWidth="1"/>
-    <col min="19" max="19" width="6.16666666666667" customWidth="1"/>
-    <col min="20" max="20" width="10.1666666666667" customWidth="1"/>
-    <col min="21" max="21" width="11.1666666666667" customWidth="1"/>
+    <col min="1" max="1" width="7" customWidth="1"/>
+    <col min="2" max="2" width="11.125" customWidth="1"/>
+    <col min="3" max="3" width="5.75" customWidth="1"/>
+    <col min="4" max="4" width="8" customWidth="1"/>
+    <col min="5" max="5" width="5.75" customWidth="1"/>
+    <col min="6" max="7" width="8.375" customWidth="1"/>
+    <col min="8" max="8" width="6.375" customWidth="1"/>
+    <col min="9" max="9" width="8.375" customWidth="1"/>
+    <col min="10" max="10" width="9.375" customWidth="1"/>
+    <col min="12" max="12" width="7" customWidth="1"/>
+    <col min="13" max="13" width="11.125" customWidth="1"/>
+    <col min="14" max="14" width="5.75" customWidth="1"/>
+    <col min="15" max="15" width="8" customWidth="1"/>
+    <col min="16" max="16" width="5.75" customWidth="1"/>
+    <col min="17" max="18" width="8.375" customWidth="1"/>
+    <col min="19" max="19" width="6.375" customWidth="1"/>
+    <col min="20" max="21" width="8.375" customWidth="1"/>
     <col min="22" max="22" width="14.8333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
-      <c r="A1" t="s">
+    <row r="1" spans="2:20">
+      <c r="B1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1" t="s">
         <v>51</v>
       </c>
-      <c r="B1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C1">
-        <v>4</v>
-      </c>
-      <c r="D1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E1">
-        <v>2</v>
-      </c>
-      <c r="F1">
-        <v>-1.1224</v>
-      </c>
-      <c r="G1">
-        <v>-1.1932</v>
-      </c>
-      <c r="H1">
-        <v>0.001</v>
-      </c>
-      <c r="I1">
-        <v>5022.6095</v>
-      </c>
-      <c r="J1">
-        <v>5022.6095</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="J1"/>
+      <c r="M1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P1" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>48</v>
+      </c>
+      <c r="R1" t="s">
+        <v>49</v>
+      </c>
+      <c r="S1" t="s">
+        <v>50</v>
+      </c>
+      <c r="T1" t="s">
         <v>51</v>
-      </c>
-      <c r="M1" t="s">
-        <v>52</v>
-      </c>
-      <c r="N1">
-        <v>4</v>
-      </c>
-      <c r="O1" t="s">
-        <v>53</v>
-      </c>
-      <c r="P1">
-        <v>2</v>
-      </c>
-      <c r="Q1">
-        <v>-1.1273</v>
-      </c>
-      <c r="R1">
-        <v>-1.1932</v>
-      </c>
-      <c r="S1">
-        <v>0.001</v>
-      </c>
-      <c r="T1">
-        <v>4347.6402</v>
-      </c>
-      <c r="U1">
-        <v>4347.6402</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21">
-      <c r="A2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E2">
-        <v>2</v>
-      </c>
-      <c r="F2">
-        <v>-1.1551</v>
-      </c>
-      <c r="G2">
-        <v>-1.2076</v>
-      </c>
-      <c r="H2">
-        <v>0.001</v>
-      </c>
-      <c r="I2">
-        <v>2764.4966</v>
-      </c>
-      <c r="J2">
-        <v>7787.1061</v>
-      </c>
-      <c r="L2" t="s">
-        <v>51</v>
-      </c>
-      <c r="M2" t="s">
-        <v>54</v>
-      </c>
-      <c r="N2">
-        <v>4</v>
-      </c>
-      <c r="O2" t="s">
-        <v>53</v>
-      </c>
-      <c r="P2">
-        <v>2</v>
-      </c>
-      <c r="Q2">
-        <v>-1.1593</v>
-      </c>
-      <c r="R2">
-        <v>-1.2076</v>
-      </c>
-      <c r="S2">
-        <v>0.001</v>
-      </c>
-      <c r="T2">
-        <v>2335.4524</v>
-      </c>
-      <c r="U2">
-        <v>6683.0926</v>
       </c>
     </row>
     <row r="3" spans="1:21">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C3">
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E3">
         <v>2</v>
       </c>
       <c r="F3">
-        <v>-1.1852</v>
+        <v>-1.1506</v>
       </c>
       <c r="G3">
-        <v>-1.2199</v>
+        <v>-1.1932</v>
       </c>
       <c r="H3">
-        <v>0.001</v>
+        <v>0.01</v>
       </c>
       <c r="I3">
-        <v>1203.1791</v>
+        <v>18.1605</v>
       </c>
       <c r="J3">
-        <v>8990.2852</v>
+        <v>18.1605</v>
       </c>
       <c r="L3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="N3">
         <v>4</v>
       </c>
       <c r="O3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P3">
         <v>2</v>
       </c>
       <c r="Q3">
-        <v>-1.1886</v>
+        <v>-1.1683</v>
       </c>
       <c r="R3">
-        <v>-1.2199</v>
+        <v>-1.1932</v>
       </c>
       <c r="S3">
-        <v>0.001</v>
+        <v>0.01</v>
       </c>
       <c r="T3">
-        <v>982.492</v>
+        <v>6.2486</v>
       </c>
       <c r="U3">
-        <v>7665.5845</v>
+        <v>6.2486</v>
       </c>
     </row>
     <row r="4" spans="1:21">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C4">
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E4">
         <v>2</v>
       </c>
       <c r="F4">
-        <v>-1.2122</v>
+        <v>-1.175</v>
       </c>
       <c r="G4">
-        <v>-1.2294</v>
+        <v>-1.2076</v>
       </c>
       <c r="H4">
-        <v>0.001</v>
+        <v>0.01</v>
       </c>
       <c r="I4">
-        <v>296.8789</v>
+        <v>10.6592</v>
       </c>
       <c r="J4">
-        <v>9287.1641</v>
+        <v>28.8197</v>
       </c>
       <c r="L4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N4">
         <v>4</v>
       </c>
       <c r="O4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P4">
         <v>2</v>
       </c>
       <c r="Q4">
-        <v>-1.2144</v>
+        <v>-1.1884</v>
       </c>
       <c r="R4">
-        <v>-1.2294</v>
+        <v>-1.2076</v>
       </c>
       <c r="S4">
-        <v>0.001</v>
+        <v>0.01</v>
       </c>
       <c r="T4">
-        <v>225.4124</v>
+        <v>3.6925</v>
       </c>
       <c r="U4">
-        <v>7890.9969</v>
+        <v>9.9411</v>
       </c>
     </row>
     <row r="5" spans="1:21">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E5">
         <v>2</v>
       </c>
       <c r="F5">
-        <v>-1.2352</v>
+        <v>-1.1968</v>
       </c>
       <c r="G5">
-        <v>-1.2361</v>
+        <v>-1.2199</v>
       </c>
       <c r="H5">
-        <v>0.001</v>
+        <v>0.01</v>
       </c>
       <c r="I5">
-        <v>0.9055</v>
+        <v>5.355</v>
       </c>
       <c r="J5">
-        <v>9288.0697</v>
+        <v>34.1747</v>
       </c>
       <c r="L5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="N5">
         <v>4</v>
       </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P5">
         <v>2</v>
       </c>
       <c r="Q5">
-        <v>-1.2361</v>
+        <v>-1.2062</v>
       </c>
       <c r="R5">
-        <v>-1.2361</v>
+        <v>-1.2199</v>
       </c>
       <c r="S5">
-        <v>0.001</v>
+        <v>0.01</v>
       </c>
       <c r="T5">
-        <v>0.0023</v>
+        <v>1.8911</v>
       </c>
       <c r="U5">
-        <v>7890.9992</v>
+        <v>11.8322</v>
       </c>
     </row>
     <row r="6" spans="1:21">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C6">
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E6">
         <v>2</v>
       </c>
       <c r="F6">
-        <v>-1.2532</v>
+        <v>-1.2154</v>
       </c>
       <c r="G6">
-        <v>-1.2393</v>
+        <v>-1.2294</v>
       </c>
       <c r="H6">
-        <v>0.001</v>
+        <v>0.01</v>
       </c>
       <c r="I6">
-        <v>192.713</v>
+        <v>1.9627</v>
       </c>
       <c r="J6">
-        <v>9480.7827</v>
+        <v>36.1374</v>
       </c>
       <c r="L6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="N6">
         <v>4</v>
       </c>
       <c r="O6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P6">
         <v>2</v>
       </c>
       <c r="Q6">
-        <v>-1.2526</v>
+        <v>-1.221</v>
       </c>
       <c r="R6">
-        <v>-1.2393</v>
+        <v>-1.2294</v>
       </c>
       <c r="S6">
-        <v>0.001</v>
+        <v>0.01</v>
       </c>
       <c r="T6">
-        <v>177.9113</v>
+        <v>0.7092</v>
       </c>
       <c r="U6">
-        <v>8068.9106</v>
+        <v>12.5414</v>
       </c>
     </row>
     <row r="7" spans="1:21">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C7">
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E7">
         <v>2</v>
       </c>
       <c r="F7">
-        <v>-1.2652</v>
+        <v>-1.2303</v>
       </c>
       <c r="G7">
-        <v>-1.2385</v>
+        <v>-1.2361</v>
       </c>
       <c r="H7">
         <v>0.001</v>
       </c>
       <c r="I7">
-        <v>713.6821</v>
+        <v>34.1566</v>
       </c>
       <c r="J7">
-        <v>10194.4647</v>
+        <v>70.2939</v>
       </c>
       <c r="L7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="N7">
         <v>4</v>
       </c>
       <c r="O7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P7">
         <v>2</v>
       </c>
       <c r="Q7">
-        <v>-1.2632</v>
+        <v>-1.2324</v>
       </c>
       <c r="R7">
-        <v>-1.2385</v>
+        <v>-1.2361</v>
       </c>
       <c r="S7">
         <v>0.001</v>
       </c>
       <c r="T7">
-        <v>608.5836</v>
+        <v>13.6822</v>
       </c>
       <c r="U7">
-        <v>8677.4941</v>
+        <v>26.2236</v>
       </c>
     </row>
     <row r="8" spans="1:21">
       <c r="A8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B8" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C8">
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E8">
         <v>2</v>
       </c>
       <c r="F8">
-        <v>-1.27</v>
+        <v>-1.2406</v>
       </c>
       <c r="G8">
-        <v>-1.2334</v>
+        <v>-1.2393</v>
       </c>
       <c r="H8">
         <v>0.001</v>
       </c>
       <c r="I8">
-        <v>1339.7491</v>
+        <v>1.6585</v>
       </c>
       <c r="J8">
-        <v>11534.2138</v>
+        <v>71.9524</v>
       </c>
       <c r="L8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M8" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="N8">
         <v>4</v>
       </c>
       <c r="O8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P8">
         <v>2</v>
       </c>
       <c r="Q8">
-        <v>-1.2665</v>
+        <v>-1.2398</v>
       </c>
       <c r="R8">
-        <v>-1.2334</v>
+        <v>-1.2393</v>
       </c>
       <c r="S8">
         <v>0.001</v>
       </c>
       <c r="T8">
-        <v>1097.0764</v>
+        <v>0.2323</v>
       </c>
       <c r="U8">
-        <v>9774.5706</v>
+        <v>26.456</v>
       </c>
     </row>
     <row r="9" spans="1:21">
       <c r="A9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B9" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C9">
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E9">
         <v>2</v>
       </c>
       <c r="F9">
-        <v>-1.266</v>
+        <v>-1.2456</v>
       </c>
       <c r="G9">
-        <v>-1.2231</v>
+        <v>-1.2385</v>
       </c>
       <c r="H9">
         <v>0.001</v>
       </c>
       <c r="I9">
-        <v>1842.9109</v>
+        <v>50.1793</v>
       </c>
       <c r="J9">
-        <v>13377.1248</v>
+        <v>122.1317</v>
       </c>
       <c r="L9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M9" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="N9">
         <v>4</v>
       </c>
       <c r="O9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P9">
         <v>2</v>
       </c>
       <c r="Q9">
-        <v>-1.2613</v>
+        <v>-1.2425</v>
       </c>
       <c r="R9">
-        <v>-1.2231</v>
+        <v>-1.2385</v>
       </c>
       <c r="S9">
         <v>0.001</v>
       </c>
       <c r="T9">
-        <v>1463.0755</v>
+        <v>15.7507</v>
       </c>
       <c r="U9">
-        <v>11237.646</v>
+        <v>42.2067</v>
       </c>
     </row>
     <row r="10" spans="1:21">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C10">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E10">
         <v>2</v>
       </c>
       <c r="F10">
-        <v>-1.2516</v>
+        <v>-1.2443</v>
       </c>
       <c r="G10">
-        <v>-1.207</v>
+        <v>-1.2334</v>
       </c>
       <c r="H10">
-        <v>0.001</v>
+        <v>0.01</v>
       </c>
       <c r="I10">
-        <v>1986.652</v>
+        <v>1.1936</v>
       </c>
       <c r="J10">
-        <v>15363.7768</v>
+        <v>123.3252</v>
       </c>
       <c r="L10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="N10">
         <v>4</v>
       </c>
       <c r="O10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P10">
         <v>2</v>
       </c>
       <c r="Q10">
-        <v>-1.2462</v>
+        <v>-1.2397</v>
       </c>
       <c r="R10">
-        <v>-1.207</v>
+        <v>-1.2334</v>
       </c>
       <c r="S10">
-        <v>0.001</v>
+        <v>0.01</v>
       </c>
       <c r="T10">
-        <v>1533.8738</v>
+        <v>0.3987</v>
       </c>
       <c r="U10">
-        <v>12771.5198</v>
+        <v>42.6054</v>
       </c>
     </row>
     <row r="11" spans="1:21">
       <c r="A11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B11" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C11">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E11">
         <v>2</v>
       </c>
       <c r="F11">
-        <v>-1.2247</v>
+        <v>-1.2357</v>
       </c>
       <c r="G11">
-        <v>-1.1842</v>
+        <v>-1.2231</v>
       </c>
       <c r="H11">
-        <v>0.001</v>
+        <v>0.01</v>
       </c>
       <c r="I11">
-        <v>1647.6411</v>
+        <v>1.5887</v>
       </c>
       <c r="J11">
-        <v>17011.4179</v>
+        <v>124.914</v>
       </c>
       <c r="L11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M11" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="N11">
         <v>4</v>
       </c>
       <c r="O11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P11">
         <v>2</v>
       </c>
       <c r="Q11">
-        <v>-1.2194</v>
+        <v>-1.2306</v>
       </c>
       <c r="R11">
-        <v>-1.1842</v>
+        <v>-1.2231</v>
       </c>
       <c r="S11">
-        <v>0.001</v>
+        <v>0.01</v>
       </c>
       <c r="T11">
-        <v>1241.8641</v>
+        <v>0.5633</v>
       </c>
       <c r="U11">
-        <v>14013.3839</v>
+        <v>43.1687</v>
       </c>
     </row>
     <row r="12" spans="1:21">
       <c r="A12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B12" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C12">
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E12">
         <v>2</v>
       </c>
       <c r="F12">
-        <v>-1.1832</v>
+        <v>-1.2185</v>
       </c>
       <c r="G12">
-        <v>-1.1541</v>
+        <v>-1.207</v>
       </c>
       <c r="H12">
-        <v>0.001</v>
+        <v>0.01</v>
       </c>
       <c r="I12">
-        <v>844.9787</v>
+        <v>1.3255</v>
       </c>
       <c r="J12">
-        <v>17856.3966</v>
+        <v>126.2395</v>
       </c>
       <c r="L12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M12" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="N12">
         <v>4</v>
       </c>
       <c r="O12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P12">
         <v>2</v>
       </c>
       <c r="Q12">
-        <v>-1.1791</v>
+        <v>-1.2141</v>
       </c>
       <c r="R12">
-        <v>-1.1541</v>
+        <v>-1.207</v>
       </c>
       <c r="S12">
-        <v>0.001</v>
+        <v>0.01</v>
       </c>
       <c r="T12">
-        <v>623.6894</v>
+        <v>0.5108</v>
       </c>
       <c r="U12">
-        <v>14637.0733</v>
+        <v>43.6795</v>
       </c>
     </row>
     <row r="13" spans="1:21">
       <c r="A13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B13" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C13">
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E13">
         <v>2</v>
       </c>
       <c r="F13">
-        <v>-1.1243</v>
+        <v>-1.1915</v>
       </c>
       <c r="G13">
-        <v>-1.1158</v>
+        <v>-1.1842</v>
       </c>
       <c r="H13">
-        <v>0.001</v>
+        <v>0.01</v>
       </c>
       <c r="I13">
-        <v>71.8661</v>
+        <v>0.5401</v>
       </c>
       <c r="J13">
-        <v>17928.2628</v>
+        <v>126.7795</v>
       </c>
       <c r="L13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M13" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="N13">
         <v>4</v>
       </c>
       <c r="O13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P13">
         <v>2</v>
       </c>
       <c r="Q13">
-        <v>-1.1232</v>
+        <v>-1.1893</v>
       </c>
       <c r="R13">
-        <v>-1.1158</v>
+        <v>-1.1842</v>
       </c>
       <c r="S13">
-        <v>0.001</v>
+        <v>0.01</v>
       </c>
       <c r="T13">
-        <v>54.4934</v>
+        <v>0.268</v>
       </c>
       <c r="U13">
-        <v>14691.5667</v>
+        <v>43.9476</v>
       </c>
     </row>
     <row r="14" spans="1:21">
       <c r="A14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B14" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C14">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E14">
         <v>2</v>
       </c>
       <c r="F14">
-        <v>-1.0449</v>
+        <v>-1.1531</v>
       </c>
       <c r="G14">
-        <v>-1.0682</v>
+        <v>-1.1541</v>
       </c>
       <c r="H14">
-        <v>0.001</v>
+        <v>0.01</v>
       </c>
       <c r="I14">
-        <v>544.0744</v>
+        <v>0.0102</v>
       </c>
       <c r="J14">
-        <v>18472.3371</v>
+        <v>126.7898</v>
       </c>
       <c r="L14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M14" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="N14">
         <v>4</v>
       </c>
       <c r="O14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P14">
         <v>2</v>
       </c>
       <c r="Q14">
-        <v>-1.0492</v>
+        <v>-1.1549</v>
       </c>
       <c r="R14">
-        <v>-1.0682</v>
+        <v>-1.1541</v>
       </c>
       <c r="S14">
-        <v>0.001</v>
+        <v>0.01</v>
       </c>
       <c r="T14">
-        <v>360.1713</v>
+        <v>0.0054</v>
       </c>
       <c r="U14">
-        <v>15051.738</v>
+        <v>43.953</v>
       </c>
     </row>
     <row r="15" spans="1:21">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B15" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C15">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E15">
         <v>2</v>
       </c>
       <c r="F15">
-        <v>-0.9414</v>
+        <v>-1.1017</v>
       </c>
       <c r="G15">
-        <v>-1.0101</v>
+        <v>-1.1158</v>
       </c>
       <c r="H15">
-        <v>0.001</v>
+        <v>0.01</v>
       </c>
       <c r="I15">
-        <v>4721.6588</v>
+        <v>1.993</v>
       </c>
       <c r="J15">
-        <v>23193.996</v>
+        <v>128.7828</v>
       </c>
       <c r="L15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M15" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="N15">
         <v>4</v>
       </c>
       <c r="O15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P15">
         <v>2</v>
       </c>
       <c r="Q15">
-        <v>-0.9545</v>
+        <v>-1.1094</v>
       </c>
       <c r="R15">
+        <v>-1.1158</v>
+      </c>
+      <c r="S15">
+        <v>0.01</v>
+      </c>
+      <c r="T15">
+        <v>0.4136</v>
+      </c>
+      <c r="U15">
+        <v>44.3666</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
+      <c r="A16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16">
+        <v>4</v>
+      </c>
+      <c r="D16" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>-1.0353</v>
+      </c>
+      <c r="G16">
+        <v>-1.0682</v>
+      </c>
+      <c r="H16">
+        <v>0.01</v>
+      </c>
+      <c r="I16">
+        <v>10.8273</v>
+      </c>
+      <c r="J16">
+        <v>139.6101</v>
+      </c>
+      <c r="L16" t="s">
+        <v>52</v>
+      </c>
+      <c r="M16" t="s">
+        <v>77</v>
+      </c>
+      <c r="N16">
+        <v>4</v>
+      </c>
+      <c r="O16" t="s">
+        <v>54</v>
+      </c>
+      <c r="P16">
+        <v>2</v>
+      </c>
+      <c r="Q16">
+        <v>-1.0513</v>
+      </c>
+      <c r="R16">
+        <v>-1.0682</v>
+      </c>
+      <c r="S16">
+        <v>0.01</v>
+      </c>
+      <c r="T16">
+        <v>2.8729</v>
+      </c>
+      <c r="U16">
+        <v>47.2395</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21">
+      <c r="A17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
+      <c r="D17" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>-0.9518</v>
+      </c>
+      <c r="G17">
         <v>-1.0101</v>
       </c>
-      <c r="S15">
-        <v>0.001</v>
-      </c>
-      <c r="T15">
-        <v>3089.2703</v>
-      </c>
-      <c r="U15">
-        <v>18141.0084</v>
+      <c r="H17">
+        <v>0.01</v>
+      </c>
+      <c r="I17">
+        <v>33.9473</v>
+      </c>
+      <c r="J17">
+        <v>173.5574</v>
+      </c>
+      <c r="L17" t="s">
+        <v>52</v>
+      </c>
+      <c r="M17" t="s">
+        <v>79</v>
+      </c>
+      <c r="N17">
+        <v>4</v>
+      </c>
+      <c r="O17" t="s">
+        <v>54</v>
+      </c>
+      <c r="P17">
+        <v>2</v>
+      </c>
+      <c r="Q17">
+        <v>-0.9787</v>
+      </c>
+      <c r="R17">
+        <v>-1.0101</v>
+      </c>
+      <c r="S17">
+        <v>0.01</v>
+      </c>
+      <c r="T17">
+        <v>9.8356</v>
+      </c>
+      <c r="U17">
+        <v>57.0751</v>
       </c>
     </row>
   </sheetData>
@@ -10790,19 +10894,19 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B1">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D1" s="2">
         <v>-37.198963</v>
       </c>
       <c r="E1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F1" s="2">
         <v>-37.198963</v>
@@ -10811,7 +10915,7 @@
         <v>7</v>
       </c>
       <c r="H1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I1">
         <f t="shared" ref="I1:I9" si="0">F1/4</f>
@@ -10820,19 +10924,19 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D2" s="2">
         <v>-37.213084</v>
       </c>
       <c r="E2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F2" s="2">
         <v>-37.213084</v>
@@ -10841,7 +10945,7 @@
         <v>7</v>
       </c>
       <c r="H2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I2">
         <f t="shared" si="0"/>
@@ -10850,19 +10954,19 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D3" s="2">
         <v>-37.221192</v>
       </c>
       <c r="E3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F3" s="2">
         <v>-37.221192</v>
@@ -10871,7 +10975,7 @@
         <v>7</v>
       </c>
       <c r="H3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I3">
         <f t="shared" si="0"/>
@@ -10880,19 +10984,19 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D4" s="2">
         <v>-37.221673</v>
       </c>
       <c r="E4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F4" s="2">
         <v>-37.221673</v>
@@ -10901,7 +11005,7 @@
         <v>7</v>
       </c>
       <c r="H4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I4">
         <f t="shared" si="0"/>
@@ -10910,19 +11014,19 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D5" s="2">
         <v>-37.221664</v>
       </c>
       <c r="E5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F5" s="2">
         <v>-37.221664</v>
@@ -10931,7 +11035,7 @@
         <v>7</v>
       </c>
       <c r="H5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I5">
         <f t="shared" si="0"/>
@@ -10940,19 +11044,19 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D6" s="2">
         <v>-37.221032</v>
       </c>
       <c r="E6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F6" s="2">
         <v>-37.221032</v>
@@ -10961,7 +11065,7 @@
         <v>7</v>
       </c>
       <c r="H6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I6">
         <f t="shared" si="0"/>
@@ -10970,19 +11074,19 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D7" s="2">
         <v>-37.219775</v>
       </c>
       <c r="E7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F7" s="2">
         <v>-37.219775</v>
@@ -10991,7 +11095,7 @@
         <v>7</v>
       </c>
       <c r="H7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I7">
         <f t="shared" si="0"/>
@@ -11000,19 +11104,19 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D8" s="2">
         <v>-37.217743</v>
       </c>
       <c r="E8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F8" s="2">
         <v>-37.217743</v>
@@ -11021,7 +11125,7 @@
         <v>7</v>
       </c>
       <c r="H8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I8">
         <f t="shared" si="0"/>
@@ -11030,19 +11134,19 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D9" s="2">
         <v>-37.214844</v>
       </c>
       <c r="E9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F9" s="2">
         <v>-37.214844</v>
@@ -11051,7 +11155,7 @@
         <v>7</v>
       </c>
       <c r="H9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I9">
         <f t="shared" si="0"/>
@@ -11060,19 +11164,19 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D10" s="2">
         <v>-37.210978</v>
       </c>
       <c r="E10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F10" s="2">
         <v>-37.210978</v>
@@ -11081,7 +11185,7 @@
         <v>7</v>
       </c>
       <c r="H10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I10">
         <f t="shared" ref="I10:I24" si="1">F10/4</f>
@@ -11090,19 +11194,19 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D11" s="2">
         <v>-37.205987</v>
       </c>
       <c r="E11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F11" s="2">
         <v>-37.205987</v>
@@ -11111,7 +11215,7 @@
         <v>7</v>
       </c>
       <c r="H11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I11">
         <f t="shared" si="1"/>
@@ -11120,19 +11224,19 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D12" s="2">
         <v>-37.199727</v>
       </c>
       <c r="E12" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F12" s="2">
         <v>-37.199727</v>
@@ -11141,7 +11245,7 @@
         <v>7</v>
       </c>
       <c r="H12" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I12">
         <f t="shared" si="1"/>
@@ -11150,19 +11254,19 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D13" s="2">
         <v>-37.192026</v>
       </c>
       <c r="E13" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F13" s="2">
         <v>-37.192026</v>
@@ -11171,7 +11275,7 @@
         <v>7</v>
       </c>
       <c r="H13" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I13">
         <f t="shared" si="1"/>
@@ -11180,19 +11284,19 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D14" s="2">
         <v>-37.125248</v>
       </c>
       <c r="E14" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F14" s="2">
         <v>-37.125248</v>
@@ -11201,7 +11305,7 @@
         <v>7</v>
       </c>
       <c r="H14" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I14">
         <f t="shared" si="1"/>
@@ -11210,19 +11314,19 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D15" s="2">
         <v>-36.987991</v>
       </c>
       <c r="E15" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F15" s="2">
         <v>-36.987991</v>
@@ -11231,7 +11335,7 @@
         <v>7</v>
       </c>
       <c r="H15" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I15">
         <f t="shared" si="1"/>
@@ -11240,19 +11344,19 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D16" s="2">
         <v>-36.737023</v>
       </c>
       <c r="E16" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F16" s="2">
         <v>-36.737023</v>
@@ -11261,7 +11365,7 @@
         <v>7</v>
       </c>
       <c r="H16" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I16">
         <f t="shared" si="1"/>
@@ -11270,19 +11374,19 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D17" s="2">
         <v>-36.306229</v>
       </c>
       <c r="E17" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F17" s="2">
         <v>-36.306229</v>
@@ -11291,7 +11395,7 @@
         <v>7</v>
       </c>
       <c r="H17" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I17">
         <f t="shared" si="1"/>
@@ -11300,19 +11404,19 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D18" s="2">
         <v>-35.587047</v>
       </c>
       <c r="E18" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F18" s="2">
         <v>-35.587047</v>
@@ -11321,7 +11425,7 @@
         <v>7</v>
       </c>
       <c r="H18" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I18">
         <f t="shared" si="1"/>
@@ -11330,19 +11434,19 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D19" s="2">
         <v>-34.443888</v>
       </c>
       <c r="E19" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F19" s="2">
         <v>-34.443888</v>
@@ -11351,7 +11455,7 @@
         <v>7</v>
       </c>
       <c r="H19" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I19">
         <f t="shared" si="1"/>
@@ -11360,19 +11464,19 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D20" s="2">
         <v>-32.739216</v>
       </c>
       <c r="E20" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F20" s="2">
         <v>-32.739216</v>
@@ -11381,7 +11485,7 @@
         <v>7</v>
       </c>
       <c r="H20" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I20">
         <f t="shared" si="1"/>
@@ -11390,19 +11494,19 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D21" s="2">
         <v>-30.244928</v>
       </c>
       <c r="E21" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F21" s="2">
         <v>-30.244928</v>
@@ -11411,7 +11515,7 @@
         <v>7</v>
       </c>
       <c r="H21" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I21">
         <f t="shared" si="1"/>
@@ -11420,19 +11524,19 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D22" s="2">
         <v>-26.487302</v>
       </c>
       <c r="E22" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F22" s="2">
         <v>-26.487302</v>
@@ -11441,7 +11545,7 @@
         <v>7</v>
       </c>
       <c r="H22" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I22">
         <f t="shared" si="1"/>
@@ -11450,19 +11554,19 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D23" s="2">
         <v>-21.520284</v>
       </c>
       <c r="E23" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F23" s="2">
         <v>-21.520284</v>
@@ -11471,7 +11575,7 @@
         <v>7</v>
       </c>
       <c r="H23" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I23">
         <f t="shared" si="1"/>
@@ -11480,19 +11584,19 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B24">
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D24" s="2">
         <v>-14.619444</v>
       </c>
       <c r="E24" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F24" s="2">
         <v>-14.619444</v>
@@ -11501,7 +11605,7 @@
         <v>7</v>
       </c>
       <c r="H24" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I24">
         <f t="shared" si="1"/>
@@ -11534,7 +11638,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -11558,7 +11662,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -11582,7 +11686,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -11606,7 +11710,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -11630,7 +11734,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -11654,7 +11758,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -11678,7 +11782,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -11702,7 +11806,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -11726,7 +11830,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -11750,7 +11854,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -11774,7 +11878,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -11798,7 +11902,7 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -11822,7 +11926,7 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -11846,7 +11950,7 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -11870,7 +11974,7 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -11894,7 +11998,7 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -11918,7 +12022,7 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -11942,7 +12046,7 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -11966,7 +12070,7 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -11990,7 +12094,7 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -12014,7 +12118,7 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -12038,7 +12142,7 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -12062,7 +12166,7 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -12086,7 +12190,7 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -12110,7 +12214,7 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C25">
         <v>28.9925335</v>
@@ -12155,19 +12259,19 @@
   <sheetData>
     <row r="1" spans="1:21">
       <c r="A1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B1">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D1" s="2">
         <v>-37.198963</v>
       </c>
       <c r="E1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F1" s="2">
         <v>-37.198963</v>
@@ -12176,7 +12280,7 @@
         <v>7</v>
       </c>
       <c r="H1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I1">
         <f>-37.199</f>
@@ -12187,13 +12291,13 @@
         <v>-9.29974075</v>
       </c>
       <c r="L1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="N1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O1">
         <v>-2.70814</v>
@@ -12220,19 +12324,19 @@
     </row>
     <row r="2" spans="1:21">
       <c r="A2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D2" s="2">
         <v>-37.213084</v>
       </c>
       <c r="E2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F2" s="2">
         <v>-37.213084</v>
@@ -12241,7 +12345,7 @@
         <v>7</v>
       </c>
       <c r="H2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I2">
         <f>-37.2131</f>
@@ -12252,13 +12356,13 @@
         <v>-9.303271</v>
       </c>
       <c r="L2" t="s">
+        <v>137</v>
+      </c>
+      <c r="M2" t="s">
+        <v>135</v>
+      </c>
+      <c r="N2" t="s">
         <v>136</v>
-      </c>
-      <c r="M2" t="s">
-        <v>134</v>
-      </c>
-      <c r="N2" t="s">
-        <v>135</v>
       </c>
       <c r="O2">
         <v>-3.40202</v>
@@ -12285,19 +12389,19 @@
     </row>
     <row r="3" spans="1:21">
       <c r="A3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D3" s="2">
         <v>-37.221192</v>
       </c>
       <c r="E3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F3" s="2">
         <v>-37.221192</v>
@@ -12306,7 +12410,7 @@
         <v>7</v>
       </c>
       <c r="H3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I3">
         <f>-37.2212</f>
@@ -12317,13 +12421,13 @@
         <v>-9.305298</v>
       </c>
       <c r="L3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="N3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O3">
         <v>-4.50753</v>
@@ -12350,19 +12454,19 @@
     </row>
     <row r="4" spans="1:21">
       <c r="A4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D4" s="2">
         <v>-37.221673</v>
       </c>
       <c r="E4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F4" s="2">
         <v>-37.221673</v>
@@ -12371,7 +12475,7 @@
         <v>7</v>
       </c>
       <c r="H4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I4">
         <f>-37.2217</f>
@@ -12382,13 +12486,13 @@
         <v>-9.30541825</v>
       </c>
       <c r="L4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="N4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O4">
         <v>-4.78273</v>
@@ -12415,19 +12519,19 @@
     </row>
     <row r="5" spans="1:21">
       <c r="A5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D5" s="2">
         <v>-37.221664</v>
       </c>
       <c r="E5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F5" s="2">
         <v>-37.221664</v>
@@ -12436,7 +12540,7 @@
         <v>7</v>
       </c>
       <c r="H5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I5">
         <f>-37.2217</f>
@@ -12447,13 +12551,13 @@
         <v>-9.305416</v>
       </c>
       <c r="L5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M5" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="N5" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O5">
         <v>-5.08591</v>
@@ -12480,19 +12584,19 @@
     </row>
     <row r="6" spans="1:21">
       <c r="A6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D6" s="2">
         <v>-37.221032</v>
       </c>
       <c r="E6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F6" s="2">
         <v>-37.221032</v>
@@ -12501,7 +12605,7 @@
         <v>7</v>
       </c>
       <c r="H6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I6">
         <f>-37.221</f>
@@ -12512,13 +12616,13 @@
         <v>-9.305258</v>
       </c>
       <c r="L6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="N6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O6">
         <v>-5.40348</v>
@@ -12545,19 +12649,19 @@
     </row>
     <row r="7" spans="1:21">
       <c r="A7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D7" s="2">
         <v>-37.219775</v>
       </c>
       <c r="E7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F7" s="2">
         <v>-37.219775</v>
@@ -12566,7 +12670,7 @@
         <v>7</v>
       </c>
       <c r="H7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I7">
         <f>-37.2198</f>
@@ -12577,16 +12681,16 @@
         <v>-9.30494375</v>
       </c>
       <c r="K7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="N7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O7">
         <v>-5.75432</v>
@@ -12613,19 +12717,19 @@
     </row>
     <row r="8" spans="1:21">
       <c r="A8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D8" s="2">
         <v>-37.217743</v>
       </c>
       <c r="E8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F8" s="2">
         <v>-37.217743</v>
@@ -12634,7 +12738,7 @@
         <v>7</v>
       </c>
       <c r="H8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I8">
         <f>-37.2177</f>
@@ -12645,13 +12749,13 @@
         <v>-9.30443575</v>
       </c>
       <c r="L8" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M8" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="N8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O8">
         <v>-6.11871</v>
@@ -12678,19 +12782,19 @@
     </row>
     <row r="9" spans="1:21">
       <c r="A9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D9" s="2">
         <v>-37.214844</v>
       </c>
       <c r="E9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F9" s="2">
         <v>-37.214844</v>
@@ -12699,7 +12803,7 @@
         <v>7</v>
       </c>
       <c r="H9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I9">
         <f>-37.2148</f>
@@ -12710,13 +12814,13 @@
         <v>-9.303711</v>
       </c>
       <c r="L9" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M9" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="N9" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O9">
         <v>-6.54105</v>
@@ -12743,19 +12847,19 @@
     </row>
     <row r="10" spans="1:21">
       <c r="A10" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D10" s="2">
         <v>-37.210978</v>
       </c>
       <c r="E10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F10" s="2">
         <v>-37.210978</v>
@@ -12764,7 +12868,7 @@
         <v>7</v>
       </c>
       <c r="H10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I10">
         <f>-37.211</f>
@@ -12775,13 +12879,13 @@
         <v>-9.3027445</v>
       </c>
       <c r="L10" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="N10" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O10">
         <v>-6.92346</v>
@@ -12808,19 +12912,19 @@
     </row>
     <row r="11" spans="1:21">
       <c r="A11" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D11" s="2">
         <v>-37.205987</v>
       </c>
       <c r="E11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F11" s="2">
         <v>-37.205987</v>
@@ -12829,7 +12933,7 @@
         <v>7</v>
       </c>
       <c r="H11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I11">
         <f>-37.206</f>
@@ -12840,13 +12944,13 @@
         <v>-9.30149675</v>
       </c>
       <c r="L11" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="N11" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O11">
         <v>-7.3603</v>
@@ -12873,19 +12977,19 @@
     </row>
     <row r="12" spans="1:21">
       <c r="A12" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D12" s="2">
         <v>-37.199727</v>
       </c>
       <c r="E12" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F12" s="2">
         <v>-37.199727</v>
@@ -12894,7 +12998,7 @@
         <v>7</v>
       </c>
       <c r="H12" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I12">
         <f>-37.1997</f>
@@ -12905,13 +13009,13 @@
         <v>-9.29993175</v>
       </c>
       <c r="L12" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M12" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="N12" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O12">
         <v>-7.85094</v>
@@ -12938,19 +13042,19 @@
     </row>
     <row r="13" spans="1:21">
       <c r="A13" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D13" s="2">
         <v>-37.192026</v>
       </c>
       <c r="E13" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F13" s="2">
         <v>-37.192026</v>
@@ -12959,7 +13063,7 @@
         <v>7</v>
       </c>
       <c r="H13" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I13">
         <f>-37.192</f>
@@ -12970,13 +13074,13 @@
         <v>-9.2980065</v>
       </c>
       <c r="L13" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M13" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="N13" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O13">
         <v>-8.29527</v>
@@ -13003,19 +13107,19 @@
     </row>
     <row r="14" spans="1:21">
       <c r="A14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D14" s="2">
         <v>-37.125248</v>
       </c>
       <c r="E14" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F14" s="2">
         <v>-37.125248</v>
@@ -13024,7 +13128,7 @@
         <v>7</v>
       </c>
       <c r="H14" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I14">
         <f>-37.1252</f>
@@ -13035,13 +13139,13 @@
         <v>-9.281312</v>
       </c>
       <c r="L14" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M14" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="N14" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O14">
         <v>-11.01718</v>
@@ -13068,19 +13172,19 @@
     </row>
     <row r="15" spans="1:21">
       <c r="A15" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D15" s="2">
         <v>-36.987991</v>
       </c>
       <c r="E15" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F15" s="2">
         <v>-36.987991</v>
@@ -13089,7 +13193,7 @@
         <v>7</v>
       </c>
       <c r="H15" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I15">
         <f>-36.988</f>
@@ -13100,13 +13204,13 @@
         <v>-9.24699775</v>
       </c>
       <c r="L15" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M15" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="N15" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O15">
         <v>-14.16293</v>
@@ -13133,19 +13237,19 @@
     </row>
     <row r="16" spans="1:21">
       <c r="A16" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D16" s="2">
         <v>-36.737023</v>
       </c>
       <c r="E16" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F16" s="2">
         <v>-36.737023</v>
@@ -13154,7 +13258,7 @@
         <v>7</v>
       </c>
       <c r="H16" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I16">
         <f>-36.737</f>
@@ -13165,13 +13269,13 @@
         <v>-9.18425575</v>
       </c>
       <c r="L16" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M16" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="N16" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O16">
         <v>-17.17197</v>
@@ -13198,19 +13302,19 @@
     </row>
     <row r="17" spans="1:21">
       <c r="A17" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D17" s="2">
         <v>-36.306229</v>
       </c>
       <c r="E17" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F17" s="2">
         <v>-36.306229</v>
@@ -13219,7 +13323,7 @@
         <v>7</v>
       </c>
       <c r="H17" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I17">
         <f>-36.3062</f>
@@ -13230,13 +13334,13 @@
         <v>-9.07655725</v>
       </c>
       <c r="L17" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M17" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="N17" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O17">
         <v>-17.75908</v>
@@ -13263,19 +13367,19 @@
     </row>
     <row r="18" spans="1:21">
       <c r="A18" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D18" s="2">
         <v>-35.587047</v>
       </c>
       <c r="E18" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F18" s="2">
         <v>-35.587047</v>
@@ -13284,7 +13388,7 @@
         <v>7</v>
       </c>
       <c r="H18" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I18">
         <f>-35.587</f>
@@ -13295,13 +13399,13 @@
         <v>-8.89676175</v>
       </c>
       <c r="L18" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M18" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="N18" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O18">
         <v>-14.08485</v>
@@ -13328,19 +13432,19 @@
     </row>
     <row r="19" spans="1:21">
       <c r="A19" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D19" s="2">
         <v>-34.443888</v>
       </c>
       <c r="E19" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F19" s="2">
         <v>-34.443888</v>
@@ -13349,7 +13453,7 @@
         <v>7</v>
       </c>
       <c r="H19" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I19">
         <f>-34.4439</f>
@@ -13360,13 +13464,13 @@
         <v>-8.610972</v>
       </c>
       <c r="L19" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M19" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="N19" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O19">
         <v>-9.69094</v>
@@ -13393,19 +13497,19 @@
     </row>
     <row r="20" spans="1:21">
       <c r="A20" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D20" s="2">
         <v>-32.739216</v>
       </c>
       <c r="E20" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F20" s="2">
         <v>-32.739216</v>
@@ -13414,7 +13518,7 @@
         <v>7</v>
       </c>
       <c r="H20" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I20">
         <f>-32.7392</f>
@@ -13425,13 +13529,13 @@
         <v>-8.184804</v>
       </c>
       <c r="L20" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M20" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="N20" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O20">
         <v>62.64671</v>
@@ -13458,19 +13562,19 @@
     </row>
     <row r="21" spans="1:21">
       <c r="A21" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D21" s="2">
         <v>-30.244928</v>
       </c>
       <c r="E21" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F21" s="2">
         <v>-30.244928</v>
@@ -13479,7 +13583,7 @@
         <v>7</v>
       </c>
       <c r="H21" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I21">
         <f>-30.2449</f>
@@ -13490,13 +13594,13 @@
         <v>-7.561232</v>
       </c>
       <c r="L21" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M21" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="N21" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O21">
         <v>238.657</v>
@@ -13523,19 +13627,19 @@
     </row>
     <row r="22" spans="1:21">
       <c r="A22" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D22" s="2">
         <v>-26.487302</v>
       </c>
       <c r="E22" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F22" s="2">
         <v>-26.487302</v>
@@ -13544,7 +13648,7 @@
         <v>7</v>
       </c>
       <c r="H22" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I22">
         <f>-26.4873</f>
@@ -13555,13 +13659,13 @@
         <v>-6.6218255</v>
       </c>
       <c r="L22" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M22" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="N22" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O22">
         <v>709.01882</v>
@@ -13588,19 +13692,19 @@
     </row>
     <row r="23" spans="1:21">
       <c r="A23" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D23" s="2">
         <v>-21.520284</v>
       </c>
       <c r="E23" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F23" s="2">
         <v>-21.520284</v>
@@ -13609,7 +13713,7 @@
         <v>7</v>
       </c>
       <c r="H23" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I23">
         <f>-21.5203</f>
@@ -13620,13 +13724,13 @@
         <v>-5.380071</v>
       </c>
       <c r="L23" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M23" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="N23" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O23">
         <v>1922.70321</v>
@@ -13653,19 +13757,19 @@
     </row>
     <row r="24" spans="1:21">
       <c r="A24" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B24">
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D24" s="2">
         <v>-14.619444</v>
       </c>
       <c r="E24" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F24" s="2">
         <v>-14.619444</v>
@@ -13674,7 +13778,7 @@
         <v>7</v>
       </c>
       <c r="H24" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I24">
         <f>-14.6194</f>
@@ -13685,13 +13789,13 @@
         <v>-3.654861</v>
       </c>
       <c r="L24" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M24" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="N24" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O24">
         <v>3453.20136</v>

--- a/data/data_collection.xlsx
+++ b/data/data_collection.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370" tabRatio="719" activeTab="2"/>
+    <workbookView windowWidth="20385" windowHeight="7950" tabRatio="719" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="data11" sheetId="1" r:id="rId1"/>
@@ -32,6 +32,7 @@
     <definedName name="ExternalData_2" localSheetId="3">Sheet2!$L$1:$U$15</definedName>
     <definedName name="ExternalData_1" localSheetId="5">Sheet7!$A$1:$J$17</definedName>
     <definedName name="ExternalData_2" localSheetId="5">Sheet7!$L$1:$U$17</definedName>
+    <definedName name="ExternalData_1" localSheetId="2">CCmd!$K$2:$K$16</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
@@ -113,49 +114,56 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="5" name="tmp2" type="6" background="1" refreshedVersion="2" saveData="1">
+  <connection id="5" name="tmp1" type="6" background="1" refreshedVersion="2" saveData="1">
+    <textPr sourceFile="F:\William\tmp\tmp.txt">
+      <textFields>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="6" name="tmp2" type="6" background="1" refreshedVersion="2" saveData="1">
     <textPr sourceFile="F:\William\PV0c\tmp.txt" space="1" consecutive="1">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="6" name="tmp300" type="6" background="1" refreshedVersion="2" saveData="1">
+  <connection id="7" name="tmp300" type="6" background="1" refreshedVersion="2" saveData="1">
     <textPr sourceFile="F:\William\PBE3\tmp300.txt" space="1" consecutive="1">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="7" name="tmp_optimized" type="6" background="1" refreshedVersion="2" saveData="1">
+  <connection id="8" name="tmp_optimized" type="6" background="1" refreshedVersion="2" saveData="1">
     <textPr sourceFile="F:\William\MD-X6S\graphite\tmp_optimized.txt" space="1" consecutive="1">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="8" name="tmpp" type="6" background="1" refreshedVersion="2" saveData="1">
+  <connection id="9" name="tmpp" type="6" background="1" refreshedVersion="2" saveData="1">
     <textPr sourceFile="F:\William\PV0c\tmpp.txt" space="1" consecutive="1">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="9" name="tmpp1" type="6" background="1" refreshedVersion="2" saveData="1">
+  <connection id="10" name="tmpp1" type="6" background="1" refreshedVersion="2" saveData="1">
     <textPr sourceFile="F:\William\PV0c\tmpp.txt" space="1" consecutive="1">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="10" name="tmpt" type="6" background="1" refreshedVersion="2" saveData="1">
+  <connection id="11" name="tmpt" type="6" background="1" refreshedVersion="2" saveData="1">
     <textPr sourceFile="F:\William\PV0c\tmpt.txt" space="1" consecutive="1">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="11" name="tmpt1" type="6" background="1" refreshedVersion="2" saveData="1">
+  <connection id="12" name="tmpt1" type="6" background="1" refreshedVersion="2" saveData="1">
     <textPr sourceFile="F:\William\PBE3\tmpt.txt" space="1" consecutive="1">
       <textFields>
         <textField/>
@@ -166,7 +174,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168">
   <si>
     <t>C(A)</t>
   </si>
@@ -301,6 +309,9 @@
   </si>
   <si>
     <t>Vop-optimized</t>
+  </si>
+  <si>
+    <t>EXP2-optimized</t>
   </si>
   <si>
     <t>FField</t>
@@ -674,10 +685,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -689,6 +700,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -696,10 +714,26 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -711,7 +745,15 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -719,7 +761,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -734,63 +783,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -809,18 +805,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -831,9 +835,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -848,19 +859,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -884,13 +901,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -914,67 +1021,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -986,49 +1033,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1046,27 +1057,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1101,6 +1107,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1125,165 +1142,159 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3542,7 +3553,65 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_2" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+  <queryTableRefresh preserveSortFilterLayout="0" nextId="2">
+    <queryTableFields count="1">
+      <queryTableField id="1" dataBound="0"/>
+    </queryTableFields>
+  </queryTableRefresh>
+</queryTable>
+</file>
+
+<file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+  <queryTableRefresh preserveSortFilterLayout="0" nextId="10">
+    <queryTableFields count="9">
+      <queryTableField id="1" dataBound="0"/>
+      <queryTableField id="2" dataBound="0"/>
+      <queryTableField id="3" dataBound="0"/>
+      <queryTableField id="4" dataBound="0"/>
+      <queryTableField id="5" dataBound="0"/>
+      <queryTableField id="6" dataBound="0"/>
+      <queryTableField id="7" dataBound="0"/>
+      <queryTableField id="8" dataBound="0"/>
+      <queryTableField id="9" dataBound="0"/>
+    </queryTableFields>
+  </queryTableRefresh>
+</queryTable>
+</file>
+
+<file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_3" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+  <queryTableRefresh preserveSortFilterLayout="0" nextId="7">
+    <queryTableFields count="6">
+      <queryTableField id="1" dataBound="0"/>
+      <queryTableField id="2" dataBound="0"/>
+      <queryTableField id="3" dataBound="0"/>
+      <queryTableField id="4" dataBound="0"/>
+      <queryTableField id="5" dataBound="0"/>
+      <queryTableField id="6" dataBound="0"/>
+    </queryTableFields>
+  </queryTableRefresh>
+</queryTable>
+</file>
+
+<file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="12" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+  <queryTableRefresh preserveSortFilterLayout="0" nextId="7">
+    <queryTableFields count="6">
+      <queryTableField id="1" dataBound="0"/>
+      <queryTableField id="2" dataBound="0"/>
+      <queryTableField id="3" dataBound="0"/>
+      <queryTableField id="4" dataBound="0"/>
+      <queryTableField id="5" dataBound="0"/>
+      <queryTableField id="6" dataBound="0"/>
+    </queryTableFields>
+  </queryTableRefresh>
+</queryTable>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_2" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="0" nextId="11">
     <queryTableFields count="10">
       <queryTableField id="1" dataBound="0"/>
@@ -3560,37 +3629,7 @@
 </queryTable>
 </file>
 
-<file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_3" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh preserveSortFilterLayout="0" nextId="7">
-    <queryTableFields count="6">
-      <queryTableField id="1" dataBound="0"/>
-      <queryTableField id="2" dataBound="0"/>
-      <queryTableField id="3" dataBound="0"/>
-      <queryTableField id="4" dataBound="0"/>
-      <queryTableField id="5" dataBound="0"/>
-      <queryTableField id="6" dataBound="0"/>
-    </queryTableFields>
-  </queryTableRefresh>
-</queryTable>
-</file>
-
-<file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="11" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh preserveSortFilterLayout="0" nextId="7">
-    <queryTableFields count="6">
-      <queryTableField id="1" dataBound="0"/>
-      <queryTableField id="2" dataBound="0"/>
-      <queryTableField id="3" dataBound="0"/>
-      <queryTableField id="4" dataBound="0"/>
-      <queryTableField id="5" dataBound="0"/>
-      <queryTableField id="6" dataBound="0"/>
-    </queryTableFields>
-  </queryTableRefresh>
-</queryTable>
-</file>
-
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="0" nextId="11">
     <queryTableFields count="10">
@@ -3609,7 +3648,7 @@
 </queryTable>
 </file>
 
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_2" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="0" nextId="11">
     <queryTableFields count="10">
@@ -3628,7 +3667,7 @@
 </queryTable>
 </file>
 
-<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="0" nextId="11">
     <queryTableFields count="10">
@@ -3647,7 +3686,7 @@
 </queryTable>
 </file>
 
-<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="0" nextId="10">
     <queryTableFields count="9">
@@ -3665,8 +3704,8 @@
 </queryTable>
 </file>
 
-<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="10" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="11" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="0" nextId="7">
     <queryTableFields count="6">
       <queryTableField id="1" dataBound="0"/>
@@ -3680,26 +3719,8 @@
 </queryTable>
 </file>
 
-<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh preserveSortFilterLayout="0" nextId="10">
-    <queryTableFields count="9">
-      <queryTableField id="1" dataBound="0"/>
-      <queryTableField id="2" dataBound="0"/>
-      <queryTableField id="3" dataBound="0"/>
-      <queryTableField id="4" dataBound="0"/>
-      <queryTableField id="5" dataBound="0"/>
-      <queryTableField id="6" dataBound="0"/>
-      <queryTableField id="7" dataBound="0"/>
-      <queryTableField id="8" dataBound="0"/>
-      <queryTableField id="9" dataBound="0"/>
-    </queryTableFields>
-  </queryTableRefresh>
-</queryTable>
-</file>
-
 <file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_2" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="0" nextId="10">
     <queryTableFields count="9">
       <queryTableField id="1" dataBound="0"/>
@@ -3717,7 +3738,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_2" connectionId="10" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="0" nextId="10">
     <queryTableFields count="9">
       <queryTableField id="1" dataBound="0"/>
@@ -4872,13 +4893,13 @@
         <v>7.734603659</v>
       </c>
       <c r="B1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E1">
         <v>-2.70814</v>
@@ -4904,13 +4925,13 @@
         <v>7.398316544</v>
       </c>
       <c r="B2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D2" t="s">
         <v>137</v>
-      </c>
-      <c r="C2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D2" t="s">
-        <v>136</v>
       </c>
       <c r="E2">
         <v>-3.40202</v>
@@ -4936,13 +4957,13 @@
         <v>7.06202942799999</v>
       </c>
       <c r="B3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E3">
         <v>-4.50753</v>
@@ -4968,13 +4989,13 @@
         <v>6.99477200493787</v>
       </c>
       <c r="B4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E4">
         <v>-4.78273</v>
@@ -5000,13 +5021,13 @@
         <v>6.92751458181347</v>
       </c>
       <c r="B5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C5" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E5">
         <v>-5.08591</v>
@@ -5032,13 +5053,13 @@
         <v>6.86025715868907</v>
       </c>
       <c r="B6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E6">
         <v>-5.40348</v>
@@ -5064,13 +5085,13 @@
         <v>6.79299973556466</v>
       </c>
       <c r="B7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E7">
         <v>-5.75432</v>
@@ -5096,13 +5117,13 @@
         <v>6.72574231244026</v>
       </c>
       <c r="B8" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E8">
         <v>-6.11871</v>
@@ -5128,13 +5149,13 @@
         <v>6.65848488931586</v>
       </c>
       <c r="B9" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C9" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D9" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E9">
         <v>-6.54105</v>
@@ -5160,13 +5181,13 @@
         <v>6.59122746619145</v>
       </c>
       <c r="B10" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C10" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D10" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E10">
         <v>-6.92346</v>
@@ -5192,13 +5213,13 @@
         <v>6.52397004306705</v>
       </c>
       <c r="B11" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C11" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D11" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E11">
         <v>-7.3603</v>
@@ -5224,13 +5245,13 @@
         <v>6.45671261994265</v>
       </c>
       <c r="B12" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C12" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D12" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E12">
         <v>-7.85094</v>
@@ -5256,13 +5277,13 @@
         <v>6.389455197</v>
       </c>
       <c r="B13" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C13" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D13" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E13">
         <v>-8.29527</v>
@@ -5288,13 +5309,13 @@
         <v>6.05316808099999</v>
       </c>
       <c r="B14" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C14" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D14" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E14">
         <v>-11.01718</v>
@@ -5320,13 +5341,13 @@
         <v>5.71688096599999</v>
       </c>
       <c r="B15" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C15" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D15" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E15">
         <v>-14.16293</v>
@@ -5352,13 +5373,13 @@
         <v>5.38059385</v>
       </c>
       <c r="B16" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C16" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D16" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E16">
         <v>-17.17197</v>
@@ -5384,13 +5405,13 @@
         <v>5.044306734</v>
       </c>
       <c r="B17" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C17" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D17" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E17">
         <v>-17.75908</v>
@@ -5416,13 +5437,13 @@
         <v>4.70801961899999</v>
       </c>
       <c r="B18" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C18" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D18" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E18">
         <v>-14.08485</v>
@@ -5448,13 +5469,13 @@
         <v>4.37173250299999</v>
       </c>
       <c r="B19" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C19" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D19" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E19">
         <v>-9.69094</v>
@@ -5480,13 +5501,13 @@
         <v>4.035445387</v>
       </c>
       <c r="B20" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C20" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D20" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E20">
         <v>62.64671</v>
@@ -5512,13 +5533,13 @@
         <v>3.69915827100001</v>
       </c>
       <c r="B21" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C21" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D21" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E21">
         <v>238.657</v>
@@ -5544,13 +5565,13 @@
         <v>3.36287115500002</v>
       </c>
       <c r="B22" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C22" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D22" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E22">
         <v>709.01882</v>
@@ -5576,13 +5597,13 @@
         <v>3.02658403900003</v>
       </c>
       <c r="B23" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C23" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D23" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E23">
         <v>1922.70321</v>
@@ -5608,13 +5629,13 @@
         <v>2.69029692300004</v>
       </c>
       <c r="B24" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C24" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D24" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E24">
         <v>3453.20136</v>
@@ -5677,7 +5698,7 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -5699,7 +5720,7 @@
         <v>0.0212973013381394</v>
       </c>
       <c r="J1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K1">
         <v>300</v>
@@ -5723,7 +5744,7 @@
     </row>
     <row r="2" spans="1:16">
       <c r="A2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -5745,7 +5766,7 @@
         <v>0.0213150838717795</v>
       </c>
       <c r="J2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K2">
         <v>300</v>
@@ -5769,7 +5790,7 @@
     </row>
     <row r="3" spans="1:16">
       <c r="A3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -5791,7 +5812,7 @@
         <v>0.0213514365883235</v>
       </c>
       <c r="J3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K3">
         <v>300</v>
@@ -5815,7 +5836,7 @@
     </row>
     <row r="4" spans="1:16">
       <c r="A4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -5837,7 +5858,7 @@
         <v>0.0213704943512894</v>
       </c>
       <c r="J4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K4">
         <v>300</v>
@@ -5861,7 +5882,7 @@
     </row>
     <row r="5" spans="1:16">
       <c r="A5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -5883,7 +5904,7 @@
         <v>0.0213854811300705</v>
       </c>
       <c r="J5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K5">
         <v>300</v>
@@ -5907,7 +5928,7 @@
     </row>
     <row r="6" spans="1:16">
       <c r="A6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -5929,7 +5950,7 @@
         <v>0.0214245984414376</v>
       </c>
       <c r="J6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K6">
         <v>300</v>
@@ -5953,7 +5974,7 @@
     </row>
     <row r="7" spans="1:16">
       <c r="A7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -5975,7 +5996,7 @@
         <v>0.0214416347213709</v>
       </c>
       <c r="J7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K7">
         <v>300</v>
@@ -5999,7 +6020,7 @@
     </row>
     <row r="8" spans="1:16">
       <c r="A8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -6021,7 +6042,7 @@
         <v>0.0214761407685137</v>
       </c>
       <c r="J8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K8">
         <v>300</v>
@@ -6045,7 +6066,7 @@
     </row>
     <row r="9" spans="1:16">
       <c r="A9" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -6067,7 +6088,7 @@
         <v>0.0214953236250955</v>
       </c>
       <c r="J9" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K9">
         <v>300</v>
@@ -6091,7 +6112,7 @@
     </row>
     <row r="10" spans="1:16">
       <c r="A10" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -6113,7 +6134,7 @@
         <v>0.0215045517247771</v>
       </c>
       <c r="J10" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K10">
         <v>300</v>
@@ -6137,7 +6158,7 @@
     </row>
     <row r="11" spans="1:16">
       <c r="A11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -6159,7 +6180,7 @@
         <v>0.0215259662164836</v>
       </c>
       <c r="J11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K11">
         <v>300</v>
@@ -6183,7 +6204,7 @@
     </row>
     <row r="12" spans="1:16">
       <c r="A12" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -6205,7 +6226,7 @@
         <v>0.0215454250434452</v>
       </c>
       <c r="J12" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K12">
         <v>300</v>
@@ -6229,7 +6250,7 @@
     </row>
     <row r="13" spans="1:16">
       <c r="A13" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -6251,7 +6272,7 @@
         <v>0.02155955563384</v>
       </c>
       <c r="J13" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K13">
         <v>300</v>
@@ -6275,7 +6296,7 @@
     </row>
     <row r="14" spans="1:16">
       <c r="A14" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -6297,7 +6318,7 @@
         <v>0.0215758343232551</v>
       </c>
       <c r="J14" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K14">
         <v>300</v>
@@ -6321,7 +6342,7 @@
     </row>
     <row r="15" spans="1:16">
       <c r="A15" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -6343,7 +6364,7 @@
         <v>0.0215897807066604</v>
       </c>
       <c r="J15" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K15">
         <v>300</v>
@@ -6367,7 +6388,7 @@
     </row>
     <row r="16" spans="1:16">
       <c r="A16" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -6389,7 +6410,7 @@
         <v>0.00616135745718576</v>
       </c>
       <c r="J16" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K16">
         <v>300</v>
@@ -6413,7 +6434,7 @@
     </row>
     <row r="17" spans="1:16">
       <c r="A17" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -6435,7 +6456,7 @@
         <v>0.00642130111638179</v>
       </c>
       <c r="J17" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K17">
         <v>300</v>
@@ -6459,7 +6480,7 @@
     </row>
     <row r="18" spans="1:16">
       <c r="A18" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -6481,7 +6502,7 @@
         <v>0.00668963932810497</v>
       </c>
       <c r="J18" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K18">
         <v>300</v>
@@ -6505,7 +6526,7 @@
     </row>
     <row r="19" spans="1:16">
       <c r="A19" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -6527,7 +6548,7 @@
         <v>0.00722596664254261</v>
       </c>
       <c r="J19" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K19">
         <v>300</v>
@@ -6551,7 +6572,7 @@
     </row>
     <row r="20" spans="1:16">
       <c r="A20" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -6573,7 +6594,7 @@
         <v>0.00725404306569759</v>
       </c>
       <c r="J20" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K20">
         <v>300</v>
@@ -6597,7 +6618,7 @@
     </row>
     <row r="21" spans="1:16">
       <c r="A21" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -6619,7 +6640,7 @@
         <v>0.00725404306569759</v>
       </c>
       <c r="J21" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K21">
         <v>300</v>
@@ -6643,7 +6664,7 @@
     </row>
     <row r="22" spans="1:16">
       <c r="A22" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -6665,7 +6686,7 @@
         <v>0.00725404306569759</v>
       </c>
       <c r="J22" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K22">
         <v>300</v>
@@ -6689,7 +6710,7 @@
     </row>
     <row r="23" spans="1:16">
       <c r="A23" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -6711,7 +6732,7 @@
         <v>0.00725404306569759</v>
       </c>
       <c r="J23" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K23">
         <v>300</v>
@@ -6735,7 +6756,7 @@
     </row>
     <row r="24" spans="1:16">
       <c r="A24" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -6757,7 +6778,7 @@
         <v>0.00725404306569759</v>
       </c>
       <c r="J24" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K24">
         <v>300</v>
@@ -6781,7 +6802,7 @@
     </row>
     <row r="25" spans="1:15">
       <c r="A25" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -6799,7 +6820,7 @@
         <v>22.395319</v>
       </c>
       <c r="J25" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K25">
         <v>300</v>
@@ -6819,7 +6840,7 @@
     </row>
     <row r="26" spans="1:15">
       <c r="A26" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -6837,7 +6858,7 @@
         <v>22.395319</v>
       </c>
       <c r="J26" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K26">
         <v>300</v>
@@ -6857,7 +6878,7 @@
     </row>
     <row r="27" spans="1:15">
       <c r="A27" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -6875,7 +6896,7 @@
         <v>72.8132429</v>
       </c>
       <c r="J27" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K27">
         <v>300</v>
@@ -6895,7 +6916,7 @@
     </row>
     <row r="28" spans="1:15">
       <c r="A28" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -6913,7 +6934,7 @@
         <v>16.0294562</v>
       </c>
       <c r="J28" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K28">
         <v>300</v>
@@ -6933,7 +6954,7 @@
     </row>
     <row r="29" spans="1:15">
       <c r="A29" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -6951,7 +6972,7 @@
         <v>17.5375936</v>
       </c>
       <c r="J29" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K29">
         <v>300</v>
@@ -6971,7 +6992,7 @@
     </row>
     <row r="30" spans="1:15">
       <c r="A30" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -6989,7 +7010,7 @@
         <v>18.1291886</v>
       </c>
       <c r="J30" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K30">
         <v>300</v>
@@ -8170,10 +8191,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="K2" sqref="K2:K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -8186,9 +8207,11 @@
     <col min="6" max="7" width="10.3333333333333" customWidth="1"/>
     <col min="8" max="8" width="9.125" customWidth="1"/>
     <col min="9" max="9" width="11.8333333333333" customWidth="1"/>
+    <col min="11" max="11" width="11.875" customWidth="1"/>
+    <col min="12" max="12" width="8.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10">
+    <row r="1" spans="2:11">
       <c r="B1" s="5" t="s">
         <v>36</v>
       </c>
@@ -8216,8 +8239,11 @@
       <c r="J1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -8248,8 +8274,11 @@
       <c r="J2">
         <v>-1.1683</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="K2">
+        <v>-1.1843</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -8280,8 +8309,11 @@
       <c r="J3">
         <v>-1.1884</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="K3">
+        <v>-1.2037</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -8312,8 +8344,11 @@
       <c r="J4">
         <v>-1.2062</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="K4">
+        <v>-1.22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -8344,8 +8379,11 @@
       <c r="J5">
         <v>-1.221</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="K5">
+        <v>-1.2327</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
@@ -8376,8 +8414,11 @@
       <c r="J6">
         <v>-1.2324</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="K6">
+        <v>-1.2412</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
@@ -8408,8 +8449,11 @@
       <c r="J7">
         <v>-1.2398</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="K7">
+        <v>-1.2445</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
@@ -8440,8 +8484,11 @@
       <c r="J8">
         <v>-1.2425</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="K8">
+        <v>-1.2419</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
@@ -8472,8 +8519,11 @@
       <c r="J9">
         <v>-1.2397</v>
       </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="K9">
+        <v>-1.2323</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
@@ -8504,8 +8554,11 @@
       <c r="J10">
         <v>-1.2306</v>
       </c>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="K10">
+        <v>-1.2145</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
@@ -8536,8 +8589,11 @@
       <c r="J11">
         <v>-1.2141</v>
       </c>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="K11">
+        <v>-1.1872</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
@@ -8568,8 +8624,11 @@
       <c r="J12">
         <v>-1.1893</v>
       </c>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="K12">
+        <v>-1.1489</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="3" t="s">
         <v>15</v>
       </c>
@@ -8600,8 +8659,11 @@
       <c r="J13">
         <v>-1.1549</v>
       </c>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="K13">
+        <v>-1.0978</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="3" t="s">
         <v>16</v>
       </c>
@@ -8632,8 +8694,11 @@
       <c r="J14">
         <v>-1.1094</v>
       </c>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="K14">
+        <v>-1.0318</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="3" t="s">
         <v>17</v>
       </c>
@@ -8664,8 +8729,11 @@
       <c r="J15">
         <v>-1.0513</v>
       </c>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="K15">
+        <v>-0.9489</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="3" t="s">
         <v>18</v>
       </c>
@@ -8695,6 +8763,9 @@
       </c>
       <c r="J16">
         <v>-0.9787</v>
+      </c>
+      <c r="K16">
+        <v>-0.8464</v>
       </c>
     </row>
   </sheetData>
@@ -8737,40 +8808,40 @@
   <sheetData>
     <row r="1" spans="2:21">
       <c r="B1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" t="s">
         <v>47</v>
       </c>
-      <c r="E1" t="s">
-        <v>46</v>
-      </c>
       <c r="F1" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N1">
         <v>4</v>
       </c>
       <c r="O1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P1">
         <v>2</v>
@@ -8795,16 +8866,16 @@
       <c r="D2" s="2"/>
       <c r="F2" s="2"/>
       <c r="L2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N2">
         <v>4</v>
       </c>
       <c r="O2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P2">
         <v>2</v>
@@ -8827,16 +8898,16 @@
     </row>
     <row r="3" spans="1:21">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C3">
         <v>4</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -8857,16 +8928,16 @@
         <v>482660.6238</v>
       </c>
       <c r="L3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N3">
         <v>4</v>
       </c>
       <c r="O3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P3">
         <v>2</v>
@@ -8889,16 +8960,16 @@
     </row>
     <row r="4" spans="1:21">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C4">
         <v>4</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -8919,16 +8990,16 @@
         <v>970759.5956</v>
       </c>
       <c r="L4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N4">
         <v>4</v>
       </c>
       <c r="O4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P4">
         <v>2</v>
@@ -8951,16 +9022,16 @@
     </row>
     <row r="5" spans="1:21">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -8975,19 +9046,19 @@
         <v>0.001</v>
       </c>
       <c r="I5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N5">
         <v>4</v>
       </c>
       <c r="O5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P5">
         <v>2</v>
@@ -9010,16 +9081,16 @@
     </row>
     <row r="6" spans="1:21">
       <c r="A6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C6">
         <v>4</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -9034,19 +9105,19 @@
         <v>0.001</v>
       </c>
       <c r="I6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N6">
         <v>4</v>
       </c>
       <c r="O6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P6">
         <v>2</v>
@@ -9069,16 +9140,16 @@
     </row>
     <row r="7" spans="1:21">
       <c r="A7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C7">
         <v>4</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -9093,19 +9164,19 @@
         <v>0.001</v>
       </c>
       <c r="I7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="N7">
         <v>4</v>
       </c>
       <c r="O7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P7">
         <v>2</v>
@@ -9128,16 +9199,16 @@
     </row>
     <row r="8" spans="1:21">
       <c r="A8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C8">
         <v>4</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -9152,19 +9223,19 @@
         <v>0.001</v>
       </c>
       <c r="I8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N8">
         <v>4</v>
       </c>
       <c r="O8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P8">
         <v>2</v>
@@ -9187,16 +9258,16 @@
     </row>
     <row r="9" spans="1:21">
       <c r="A9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C9">
         <v>4</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -9211,19 +9282,19 @@
         <v>0.001</v>
       </c>
       <c r="I9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N9">
         <v>4</v>
       </c>
       <c r="O9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P9">
         <v>2</v>
@@ -9246,16 +9317,16 @@
     </row>
     <row r="10" spans="1:21">
       <c r="A10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C10">
         <v>4</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -9270,19 +9341,19 @@
         <v>0.001</v>
       </c>
       <c r="I10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="N10">
         <v>4</v>
       </c>
       <c r="O10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P10">
         <v>2</v>
@@ -9305,16 +9376,16 @@
     </row>
     <row r="11" spans="1:21">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C11">
         <v>4</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -9329,19 +9400,19 @@
         <v>0.001</v>
       </c>
       <c r="I11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="N11">
         <v>4</v>
       </c>
       <c r="O11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P11">
         <v>2</v>
@@ -9364,16 +9435,16 @@
     </row>
     <row r="12" spans="1:21">
       <c r="A12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C12">
         <v>4</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -9388,19 +9459,19 @@
         <v>0.001</v>
       </c>
       <c r="I12" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M12" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="N12">
         <v>4</v>
       </c>
       <c r="O12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P12">
         <v>2</v>
@@ -9423,16 +9494,16 @@
     </row>
     <row r="13" spans="1:21">
       <c r="A13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B13" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C13">
         <v>4</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -9447,19 +9518,19 @@
         <v>0.001</v>
       </c>
       <c r="I13" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M13" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N13">
         <v>4</v>
       </c>
       <c r="O13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P13">
         <v>2</v>
@@ -9482,16 +9553,16 @@
     </row>
     <row r="14" spans="1:21">
       <c r="A14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B14" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C14">
         <v>4</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E14">
         <v>2</v>
@@ -9506,19 +9577,19 @@
         <v>0.001</v>
       </c>
       <c r="I14" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="N14">
         <v>4</v>
       </c>
       <c r="O14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P14">
         <v>2</v>
@@ -9541,16 +9612,16 @@
     </row>
     <row r="15" spans="1:21">
       <c r="A15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B15" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C15">
         <v>4</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E15">
         <v>2</v>
@@ -9565,19 +9636,19 @@
         <v>0.001</v>
       </c>
       <c r="I15" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M15" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N15">
         <v>4</v>
       </c>
       <c r="O15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P15">
         <v>2</v>
@@ -9600,16 +9671,16 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B16" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C16">
         <v>4</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E16">
         <v>2</v>
@@ -9624,21 +9695,21 @@
         <v>0.001</v>
       </c>
       <c r="I16" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B17" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C17">
         <v>4</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -9653,7 +9724,7 @@
         <v>0.001</v>
       </c>
       <c r="I17" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="4:6">
@@ -9886,67 +9957,66 @@
   <sheetData>
     <row r="1" spans="2:20">
       <c r="B1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M1" t="s">
         <v>46</v>
       </c>
-      <c r="D1" t="s">
+      <c r="N1" t="s">
         <v>47</v>
       </c>
-      <c r="E1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="O1" t="s">
         <v>48</v>
       </c>
-      <c r="G1" t="s">
+      <c r="P1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q1" t="s">
         <v>49</v>
       </c>
-      <c r="H1" t="s">
+      <c r="R1" t="s">
         <v>50</v>
       </c>
-      <c r="I1" t="s">
+      <c r="S1" t="s">
         <v>51</v>
       </c>
-      <c r="J1"/>
-      <c r="M1" t="s">
-        <v>45</v>
-      </c>
-      <c r="N1" t="s">
-        <v>46</v>
-      </c>
-      <c r="O1" t="s">
-        <v>47</v>
-      </c>
-      <c r="P1" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>48</v>
-      </c>
-      <c r="R1" t="s">
-        <v>49</v>
-      </c>
-      <c r="S1" t="s">
-        <v>50</v>
-      </c>
       <c r="T1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:21">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C3">
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -9967,16 +10037,16 @@
         <v>18.1605</v>
       </c>
       <c r="L3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N3">
         <v>4</v>
       </c>
       <c r="O3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P3">
         <v>2</v>
@@ -9999,16 +10069,16 @@
     </row>
     <row r="4" spans="1:21">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C4">
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -10029,16 +10099,16 @@
         <v>28.8197</v>
       </c>
       <c r="L4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N4">
         <v>4</v>
       </c>
       <c r="O4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P4">
         <v>2</v>
@@ -10061,16 +10131,16 @@
     </row>
     <row r="5" spans="1:21">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -10091,16 +10161,16 @@
         <v>34.1747</v>
       </c>
       <c r="L5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N5">
         <v>4</v>
       </c>
       <c r="O5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P5">
         <v>2</v>
@@ -10123,16 +10193,16 @@
     </row>
     <row r="6" spans="1:21">
       <c r="A6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C6">
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -10153,16 +10223,16 @@
         <v>36.1374</v>
       </c>
       <c r="L6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N6">
         <v>4</v>
       </c>
       <c r="O6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P6">
         <v>2</v>
@@ -10185,16 +10255,16 @@
     </row>
     <row r="7" spans="1:21">
       <c r="A7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C7">
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -10215,16 +10285,16 @@
         <v>70.2939</v>
       </c>
       <c r="L7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N7">
         <v>4</v>
       </c>
       <c r="O7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P7">
         <v>2</v>
@@ -10247,16 +10317,16 @@
     </row>
     <row r="8" spans="1:21">
       <c r="A8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C8">
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -10277,16 +10347,16 @@
         <v>71.9524</v>
       </c>
       <c r="L8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N8">
         <v>4</v>
       </c>
       <c r="O8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P8">
         <v>2</v>
@@ -10309,16 +10379,16 @@
     </row>
     <row r="9" spans="1:21">
       <c r="A9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C9">
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -10339,16 +10409,16 @@
         <v>122.1317</v>
       </c>
       <c r="L9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="N9">
         <v>4</v>
       </c>
       <c r="O9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P9">
         <v>2</v>
@@ -10371,16 +10441,16 @@
     </row>
     <row r="10" spans="1:21">
       <c r="A10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C10">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -10401,16 +10471,16 @@
         <v>123.3252</v>
       </c>
       <c r="L10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N10">
         <v>4</v>
       </c>
       <c r="O10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P10">
         <v>2</v>
@@ -10433,16 +10503,16 @@
     </row>
     <row r="11" spans="1:21">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C11">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -10463,16 +10533,16 @@
         <v>124.914</v>
       </c>
       <c r="L11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N11">
         <v>4</v>
       </c>
       <c r="O11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P11">
         <v>2</v>
@@ -10495,16 +10565,16 @@
     </row>
     <row r="12" spans="1:21">
       <c r="A12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C12">
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -10525,16 +10595,16 @@
         <v>126.2395</v>
       </c>
       <c r="L12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="N12">
         <v>4</v>
       </c>
       <c r="O12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P12">
         <v>2</v>
@@ -10557,16 +10627,16 @@
     </row>
     <row r="13" spans="1:21">
       <c r="A13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B13" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C13">
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -10587,16 +10657,16 @@
         <v>126.7795</v>
       </c>
       <c r="L13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M13" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="N13">
         <v>4</v>
       </c>
       <c r="O13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P13">
         <v>2</v>
@@ -10619,16 +10689,16 @@
     </row>
     <row r="14" spans="1:21">
       <c r="A14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B14" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C14">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E14">
         <v>2</v>
@@ -10649,16 +10719,16 @@
         <v>126.7898</v>
       </c>
       <c r="L14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M14" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="N14">
         <v>4</v>
       </c>
       <c r="O14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P14">
         <v>2</v>
@@ -10681,16 +10751,16 @@
     </row>
     <row r="15" spans="1:21">
       <c r="A15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B15" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C15">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E15">
         <v>2</v>
@@ -10711,16 +10781,16 @@
         <v>128.7828</v>
       </c>
       <c r="L15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M15" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N15">
         <v>4</v>
       </c>
       <c r="O15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P15">
         <v>2</v>
@@ -10743,16 +10813,16 @@
     </row>
     <row r="16" spans="1:21">
       <c r="A16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B16" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C16">
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E16">
         <v>2</v>
@@ -10773,16 +10843,16 @@
         <v>139.6101</v>
       </c>
       <c r="L16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M16" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="N16">
         <v>4</v>
       </c>
       <c r="O16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P16">
         <v>2</v>
@@ -10805,16 +10875,16 @@
     </row>
     <row r="17" spans="1:21">
       <c r="A17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B17" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C17">
         <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -10835,16 +10905,16 @@
         <v>173.5574</v>
       </c>
       <c r="L17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M17" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N17">
         <v>4</v>
       </c>
       <c r="O17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P17">
         <v>2</v>
@@ -10894,19 +10964,19 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B1">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D1" s="2">
         <v>-37.198963</v>
       </c>
       <c r="E1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F1" s="2">
         <v>-37.198963</v>
@@ -10915,7 +10985,7 @@
         <v>7</v>
       </c>
       <c r="H1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I1">
         <f t="shared" ref="I1:I9" si="0">F1/4</f>
@@ -10924,19 +10994,19 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D2" s="2">
         <v>-37.213084</v>
       </c>
       <c r="E2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F2" s="2">
         <v>-37.213084</v>
@@ -10945,7 +11015,7 @@
         <v>7</v>
       </c>
       <c r="H2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I2">
         <f t="shared" si="0"/>
@@ -10954,19 +11024,19 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D3" s="2">
         <v>-37.221192</v>
       </c>
       <c r="E3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F3" s="2">
         <v>-37.221192</v>
@@ -10975,7 +11045,7 @@
         <v>7</v>
       </c>
       <c r="H3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I3">
         <f t="shared" si="0"/>
@@ -10984,19 +11054,19 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D4" s="2">
         <v>-37.221673</v>
       </c>
       <c r="E4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F4" s="2">
         <v>-37.221673</v>
@@ -11005,7 +11075,7 @@
         <v>7</v>
       </c>
       <c r="H4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I4">
         <f t="shared" si="0"/>
@@ -11014,19 +11084,19 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D5" s="2">
         <v>-37.221664</v>
       </c>
       <c r="E5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F5" s="2">
         <v>-37.221664</v>
@@ -11035,7 +11105,7 @@
         <v>7</v>
       </c>
       <c r="H5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I5">
         <f t="shared" si="0"/>
@@ -11044,19 +11114,19 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D6" s="2">
         <v>-37.221032</v>
       </c>
       <c r="E6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F6" s="2">
         <v>-37.221032</v>
@@ -11065,7 +11135,7 @@
         <v>7</v>
       </c>
       <c r="H6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I6">
         <f t="shared" si="0"/>
@@ -11074,19 +11144,19 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D7" s="2">
         <v>-37.219775</v>
       </c>
       <c r="E7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F7" s="2">
         <v>-37.219775</v>
@@ -11095,7 +11165,7 @@
         <v>7</v>
       </c>
       <c r="H7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I7">
         <f t="shared" si="0"/>
@@ -11104,19 +11174,19 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D8" s="2">
         <v>-37.217743</v>
       </c>
       <c r="E8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F8" s="2">
         <v>-37.217743</v>
@@ -11125,7 +11195,7 @@
         <v>7</v>
       </c>
       <c r="H8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I8">
         <f t="shared" si="0"/>
@@ -11134,19 +11204,19 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D9" s="2">
         <v>-37.214844</v>
       </c>
       <c r="E9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F9" s="2">
         <v>-37.214844</v>
@@ -11155,7 +11225,7 @@
         <v>7</v>
       </c>
       <c r="H9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I9">
         <f t="shared" si="0"/>
@@ -11164,19 +11234,19 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D10" s="2">
         <v>-37.210978</v>
       </c>
       <c r="E10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F10" s="2">
         <v>-37.210978</v>
@@ -11185,7 +11255,7 @@
         <v>7</v>
       </c>
       <c r="H10" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I10">
         <f t="shared" ref="I10:I24" si="1">F10/4</f>
@@ -11194,19 +11264,19 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D11" s="2">
         <v>-37.205987</v>
       </c>
       <c r="E11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F11" s="2">
         <v>-37.205987</v>
@@ -11215,7 +11285,7 @@
         <v>7</v>
       </c>
       <c r="H11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I11">
         <f t="shared" si="1"/>
@@ -11224,19 +11294,19 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D12" s="2">
         <v>-37.199727</v>
       </c>
       <c r="E12" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F12" s="2">
         <v>-37.199727</v>
@@ -11245,7 +11315,7 @@
         <v>7</v>
       </c>
       <c r="H12" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I12">
         <f t="shared" si="1"/>
@@ -11254,19 +11324,19 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D13" s="2">
         <v>-37.192026</v>
       </c>
       <c r="E13" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F13" s="2">
         <v>-37.192026</v>
@@ -11275,7 +11345,7 @@
         <v>7</v>
       </c>
       <c r="H13" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I13">
         <f t="shared" si="1"/>
@@ -11284,19 +11354,19 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D14" s="2">
         <v>-37.125248</v>
       </c>
       <c r="E14" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F14" s="2">
         <v>-37.125248</v>
@@ -11305,7 +11375,7 @@
         <v>7</v>
       </c>
       <c r="H14" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I14">
         <f t="shared" si="1"/>
@@ -11314,19 +11384,19 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D15" s="2">
         <v>-36.987991</v>
       </c>
       <c r="E15" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F15" s="2">
         <v>-36.987991</v>
@@ -11335,7 +11405,7 @@
         <v>7</v>
       </c>
       <c r="H15" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I15">
         <f t="shared" si="1"/>
@@ -11344,19 +11414,19 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D16" s="2">
         <v>-36.737023</v>
       </c>
       <c r="E16" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F16" s="2">
         <v>-36.737023</v>
@@ -11365,7 +11435,7 @@
         <v>7</v>
       </c>
       <c r="H16" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I16">
         <f t="shared" si="1"/>
@@ -11374,19 +11444,19 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D17" s="2">
         <v>-36.306229</v>
       </c>
       <c r="E17" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F17" s="2">
         <v>-36.306229</v>
@@ -11395,7 +11465,7 @@
         <v>7</v>
       </c>
       <c r="H17" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I17">
         <f t="shared" si="1"/>
@@ -11404,19 +11474,19 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D18" s="2">
         <v>-35.587047</v>
       </c>
       <c r="E18" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F18" s="2">
         <v>-35.587047</v>
@@ -11425,7 +11495,7 @@
         <v>7</v>
       </c>
       <c r="H18" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I18">
         <f t="shared" si="1"/>
@@ -11434,19 +11504,19 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D19" s="2">
         <v>-34.443888</v>
       </c>
       <c r="E19" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F19" s="2">
         <v>-34.443888</v>
@@ -11455,7 +11525,7 @@
         <v>7</v>
       </c>
       <c r="H19" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I19">
         <f t="shared" si="1"/>
@@ -11464,19 +11534,19 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D20" s="2">
         <v>-32.739216</v>
       </c>
       <c r="E20" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F20" s="2">
         <v>-32.739216</v>
@@ -11485,7 +11555,7 @@
         <v>7</v>
       </c>
       <c r="H20" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I20">
         <f t="shared" si="1"/>
@@ -11494,19 +11564,19 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D21" s="2">
         <v>-30.244928</v>
       </c>
       <c r="E21" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F21" s="2">
         <v>-30.244928</v>
@@ -11515,7 +11585,7 @@
         <v>7</v>
       </c>
       <c r="H21" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I21">
         <f t="shared" si="1"/>
@@ -11524,19 +11594,19 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D22" s="2">
         <v>-26.487302</v>
       </c>
       <c r="E22" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F22" s="2">
         <v>-26.487302</v>
@@ -11545,7 +11615,7 @@
         <v>7</v>
       </c>
       <c r="H22" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I22">
         <f t="shared" si="1"/>
@@ -11554,19 +11624,19 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D23" s="2">
         <v>-21.520284</v>
       </c>
       <c r="E23" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F23" s="2">
         <v>-21.520284</v>
@@ -11575,7 +11645,7 @@
         <v>7</v>
       </c>
       <c r="H23" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I23">
         <f t="shared" si="1"/>
@@ -11584,19 +11654,19 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B24">
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D24" s="2">
         <v>-14.619444</v>
       </c>
       <c r="E24" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F24" s="2">
         <v>-14.619444</v>
@@ -11605,7 +11675,7 @@
         <v>7</v>
       </c>
       <c r="H24" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I24">
         <f t="shared" si="1"/>
@@ -11638,7 +11708,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -11662,7 +11732,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -11686,7 +11756,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -11710,7 +11780,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -11734,7 +11804,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -11758,7 +11828,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -11782,7 +11852,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -11806,7 +11876,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -11830,7 +11900,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -11854,7 +11924,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -11878,7 +11948,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -11902,7 +11972,7 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -11926,7 +11996,7 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -11950,7 +12020,7 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -11974,7 +12044,7 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -11998,7 +12068,7 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -12022,7 +12092,7 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -12046,7 +12116,7 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -12070,7 +12140,7 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -12094,7 +12164,7 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -12118,7 +12188,7 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -12142,7 +12212,7 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -12166,7 +12236,7 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -12190,7 +12260,7 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -12214,7 +12284,7 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C25">
         <v>28.9925335</v>
@@ -12259,19 +12329,19 @@
   <sheetData>
     <row r="1" spans="1:21">
       <c r="A1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B1">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D1" s="2">
         <v>-37.198963</v>
       </c>
       <c r="E1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F1" s="2">
         <v>-37.198963</v>
@@ -12280,7 +12350,7 @@
         <v>7</v>
       </c>
       <c r="H1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I1">
         <f>-37.199</f>
@@ -12291,13 +12361,13 @@
         <v>-9.29974075</v>
       </c>
       <c r="L1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="N1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O1">
         <v>-2.70814</v>
@@ -12324,19 +12394,19 @@
     </row>
     <row r="2" spans="1:21">
       <c r="A2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D2" s="2">
         <v>-37.213084</v>
       </c>
       <c r="E2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F2" s="2">
         <v>-37.213084</v>
@@ -12345,7 +12415,7 @@
         <v>7</v>
       </c>
       <c r="H2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I2">
         <f>-37.2131</f>
@@ -12356,13 +12426,13 @@
         <v>-9.303271</v>
       </c>
       <c r="L2" t="s">
+        <v>138</v>
+      </c>
+      <c r="M2" t="s">
+        <v>136</v>
+      </c>
+      <c r="N2" t="s">
         <v>137</v>
-      </c>
-      <c r="M2" t="s">
-        <v>135</v>
-      </c>
-      <c r="N2" t="s">
-        <v>136</v>
       </c>
       <c r="O2">
         <v>-3.40202</v>
@@ -12389,19 +12459,19 @@
     </row>
     <row r="3" spans="1:21">
       <c r="A3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D3" s="2">
         <v>-37.221192</v>
       </c>
       <c r="E3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F3" s="2">
         <v>-37.221192</v>
@@ -12410,7 +12480,7 @@
         <v>7</v>
       </c>
       <c r="H3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I3">
         <f>-37.2212</f>
@@ -12421,13 +12491,13 @@
         <v>-9.305298</v>
       </c>
       <c r="L3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="N3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O3">
         <v>-4.50753</v>
@@ -12454,19 +12524,19 @@
     </row>
     <row r="4" spans="1:21">
       <c r="A4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D4" s="2">
         <v>-37.221673</v>
       </c>
       <c r="E4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F4" s="2">
         <v>-37.221673</v>
@@ -12475,7 +12545,7 @@
         <v>7</v>
       </c>
       <c r="H4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I4">
         <f>-37.2217</f>
@@ -12486,13 +12556,13 @@
         <v>-9.30541825</v>
       </c>
       <c r="L4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="N4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O4">
         <v>-4.78273</v>
@@ -12519,19 +12589,19 @@
     </row>
     <row r="5" spans="1:21">
       <c r="A5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D5" s="2">
         <v>-37.221664</v>
       </c>
       <c r="E5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F5" s="2">
         <v>-37.221664</v>
@@ -12540,7 +12610,7 @@
         <v>7</v>
       </c>
       <c r="H5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I5">
         <f>-37.2217</f>
@@ -12551,13 +12621,13 @@
         <v>-9.305416</v>
       </c>
       <c r="L5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M5" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="N5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O5">
         <v>-5.08591</v>
@@ -12584,19 +12654,19 @@
     </row>
     <row r="6" spans="1:21">
       <c r="A6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D6" s="2">
         <v>-37.221032</v>
       </c>
       <c r="E6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F6" s="2">
         <v>-37.221032</v>
@@ -12605,7 +12675,7 @@
         <v>7</v>
       </c>
       <c r="H6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I6">
         <f>-37.221</f>
@@ -12616,13 +12686,13 @@
         <v>-9.305258</v>
       </c>
       <c r="L6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="N6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O6">
         <v>-5.40348</v>
@@ -12649,19 +12719,19 @@
     </row>
     <row r="7" spans="1:21">
       <c r="A7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D7" s="2">
         <v>-37.219775</v>
       </c>
       <c r="E7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F7" s="2">
         <v>-37.219775</v>
@@ -12670,7 +12740,7 @@
         <v>7</v>
       </c>
       <c r="H7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I7">
         <f>-37.2198</f>
@@ -12681,16 +12751,16 @@
         <v>-9.30494375</v>
       </c>
       <c r="K7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="N7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O7">
         <v>-5.75432</v>
@@ -12717,19 +12787,19 @@
     </row>
     <row r="8" spans="1:21">
       <c r="A8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D8" s="2">
         <v>-37.217743</v>
       </c>
       <c r="E8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F8" s="2">
         <v>-37.217743</v>
@@ -12738,7 +12808,7 @@
         <v>7</v>
       </c>
       <c r="H8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I8">
         <f>-37.2177</f>
@@ -12749,13 +12819,13 @@
         <v>-9.30443575</v>
       </c>
       <c r="L8" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="N8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O8">
         <v>-6.11871</v>
@@ -12782,19 +12852,19 @@
     </row>
     <row r="9" spans="1:21">
       <c r="A9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D9" s="2">
         <v>-37.214844</v>
       </c>
       <c r="E9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F9" s="2">
         <v>-37.214844</v>
@@ -12803,7 +12873,7 @@
         <v>7</v>
       </c>
       <c r="H9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I9">
         <f>-37.2148</f>
@@ -12814,13 +12884,13 @@
         <v>-9.303711</v>
       </c>
       <c r="L9" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M9" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="N9" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O9">
         <v>-6.54105</v>
@@ -12847,19 +12917,19 @@
     </row>
     <row r="10" spans="1:21">
       <c r="A10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D10" s="2">
         <v>-37.210978</v>
       </c>
       <c r="E10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F10" s="2">
         <v>-37.210978</v>
@@ -12868,7 +12938,7 @@
         <v>7</v>
       </c>
       <c r="H10" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I10">
         <f>-37.211</f>
@@ -12879,13 +12949,13 @@
         <v>-9.3027445</v>
       </c>
       <c r="L10" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M10" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="N10" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O10">
         <v>-6.92346</v>
@@ -12912,19 +12982,19 @@
     </row>
     <row r="11" spans="1:21">
       <c r="A11" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D11" s="2">
         <v>-37.205987</v>
       </c>
       <c r="E11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F11" s="2">
         <v>-37.205987</v>
@@ -12933,7 +13003,7 @@
         <v>7</v>
       </c>
       <c r="H11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I11">
         <f>-37.206</f>
@@ -12944,13 +13014,13 @@
         <v>-9.30149675</v>
       </c>
       <c r="L11" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M11" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="N11" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O11">
         <v>-7.3603</v>
@@ -12977,19 +13047,19 @@
     </row>
     <row r="12" spans="1:21">
       <c r="A12" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D12" s="2">
         <v>-37.199727</v>
       </c>
       <c r="E12" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F12" s="2">
         <v>-37.199727</v>
@@ -12998,7 +13068,7 @@
         <v>7</v>
       </c>
       <c r="H12" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I12">
         <f>-37.1997</f>
@@ -13009,13 +13079,13 @@
         <v>-9.29993175</v>
       </c>
       <c r="L12" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M12" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="N12" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O12">
         <v>-7.85094</v>
@@ -13042,19 +13112,19 @@
     </row>
     <row r="13" spans="1:21">
       <c r="A13" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D13" s="2">
         <v>-37.192026</v>
       </c>
       <c r="E13" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F13" s="2">
         <v>-37.192026</v>
@@ -13063,7 +13133,7 @@
         <v>7</v>
       </c>
       <c r="H13" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I13">
         <f>-37.192</f>
@@ -13074,13 +13144,13 @@
         <v>-9.2980065</v>
       </c>
       <c r="L13" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M13" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="N13" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O13">
         <v>-8.29527</v>
@@ -13107,19 +13177,19 @@
     </row>
     <row r="14" spans="1:21">
       <c r="A14" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D14" s="2">
         <v>-37.125248</v>
       </c>
       <c r="E14" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F14" s="2">
         <v>-37.125248</v>
@@ -13128,7 +13198,7 @@
         <v>7</v>
       </c>
       <c r="H14" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I14">
         <f>-37.1252</f>
@@ -13139,13 +13209,13 @@
         <v>-9.281312</v>
       </c>
       <c r="L14" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M14" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="N14" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O14">
         <v>-11.01718</v>
@@ -13172,19 +13242,19 @@
     </row>
     <row r="15" spans="1:21">
       <c r="A15" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D15" s="2">
         <v>-36.987991</v>
       </c>
       <c r="E15" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F15" s="2">
         <v>-36.987991</v>
@@ -13193,7 +13263,7 @@
         <v>7</v>
       </c>
       <c r="H15" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I15">
         <f>-36.988</f>
@@ -13204,13 +13274,13 @@
         <v>-9.24699775</v>
       </c>
       <c r="L15" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M15" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="N15" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O15">
         <v>-14.16293</v>
@@ -13237,19 +13307,19 @@
     </row>
     <row r="16" spans="1:21">
       <c r="A16" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D16" s="2">
         <v>-36.737023</v>
       </c>
       <c r="E16" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F16" s="2">
         <v>-36.737023</v>
@@ -13258,7 +13328,7 @@
         <v>7</v>
       </c>
       <c r="H16" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I16">
         <f>-36.737</f>
@@ -13269,13 +13339,13 @@
         <v>-9.18425575</v>
       </c>
       <c r="L16" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M16" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="N16" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O16">
         <v>-17.17197</v>
@@ -13302,19 +13372,19 @@
     </row>
     <row r="17" spans="1:21">
       <c r="A17" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D17" s="2">
         <v>-36.306229</v>
       </c>
       <c r="E17" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F17" s="2">
         <v>-36.306229</v>
@@ -13323,7 +13393,7 @@
         <v>7</v>
       </c>
       <c r="H17" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I17">
         <f>-36.3062</f>
@@ -13334,13 +13404,13 @@
         <v>-9.07655725</v>
       </c>
       <c r="L17" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M17" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="N17" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O17">
         <v>-17.75908</v>
@@ -13367,19 +13437,19 @@
     </row>
     <row r="18" spans="1:21">
       <c r="A18" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D18" s="2">
         <v>-35.587047</v>
       </c>
       <c r="E18" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F18" s="2">
         <v>-35.587047</v>
@@ -13388,7 +13458,7 @@
         <v>7</v>
       </c>
       <c r="H18" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I18">
         <f>-35.587</f>
@@ -13399,13 +13469,13 @@
         <v>-8.89676175</v>
       </c>
       <c r="L18" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M18" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="N18" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O18">
         <v>-14.08485</v>
@@ -13432,19 +13502,19 @@
     </row>
     <row r="19" spans="1:21">
       <c r="A19" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D19" s="2">
         <v>-34.443888</v>
       </c>
       <c r="E19" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F19" s="2">
         <v>-34.443888</v>
@@ -13453,7 +13523,7 @@
         <v>7</v>
       </c>
       <c r="H19" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I19">
         <f>-34.4439</f>
@@ -13464,13 +13534,13 @@
         <v>-8.610972</v>
       </c>
       <c r="L19" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M19" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="N19" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O19">
         <v>-9.69094</v>
@@ -13497,19 +13567,19 @@
     </row>
     <row r="20" spans="1:21">
       <c r="A20" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D20" s="2">
         <v>-32.739216</v>
       </c>
       <c r="E20" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F20" s="2">
         <v>-32.739216</v>
@@ -13518,7 +13588,7 @@
         <v>7</v>
       </c>
       <c r="H20" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I20">
         <f>-32.7392</f>
@@ -13529,13 +13599,13 @@
         <v>-8.184804</v>
       </c>
       <c r="L20" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M20" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="N20" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O20">
         <v>62.64671</v>
@@ -13562,19 +13632,19 @@
     </row>
     <row r="21" spans="1:21">
       <c r="A21" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D21" s="2">
         <v>-30.244928</v>
       </c>
       <c r="E21" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F21" s="2">
         <v>-30.244928</v>
@@ -13583,7 +13653,7 @@
         <v>7</v>
       </c>
       <c r="H21" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I21">
         <f>-30.2449</f>
@@ -13594,13 +13664,13 @@
         <v>-7.561232</v>
       </c>
       <c r="L21" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M21" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="N21" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O21">
         <v>238.657</v>
@@ -13627,19 +13697,19 @@
     </row>
     <row r="22" spans="1:21">
       <c r="A22" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D22" s="2">
         <v>-26.487302</v>
       </c>
       <c r="E22" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F22" s="2">
         <v>-26.487302</v>
@@ -13648,7 +13718,7 @@
         <v>7</v>
       </c>
       <c r="H22" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I22">
         <f>-26.4873</f>
@@ -13659,13 +13729,13 @@
         <v>-6.6218255</v>
       </c>
       <c r="L22" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M22" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="N22" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O22">
         <v>709.01882</v>
@@ -13692,19 +13762,19 @@
     </row>
     <row r="23" spans="1:21">
       <c r="A23" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D23" s="2">
         <v>-21.520284</v>
       </c>
       <c r="E23" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F23" s="2">
         <v>-21.520284</v>
@@ -13713,7 +13783,7 @@
         <v>7</v>
       </c>
       <c r="H23" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I23">
         <f>-21.5203</f>
@@ -13724,13 +13794,13 @@
         <v>-5.380071</v>
       </c>
       <c r="L23" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M23" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="N23" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O23">
         <v>1922.70321</v>
@@ -13757,19 +13827,19 @@
     </row>
     <row r="24" spans="1:21">
       <c r="A24" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B24">
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D24" s="2">
         <v>-14.619444</v>
       </c>
       <c r="E24" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F24" s="2">
         <v>-14.619444</v>
@@ -13778,7 +13848,7 @@
         <v>7</v>
       </c>
       <c r="H24" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I24">
         <f>-14.6194</f>
@@ -13789,13 +13859,13 @@
         <v>-3.654861</v>
       </c>
       <c r="L24" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M24" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="N24" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O24">
         <v>3453.20136</v>

--- a/data/data_collection.xlsx
+++ b/data/data_collection.xlsx
@@ -34,7 +34,6 @@
     <definedName name="ExternalData_3" localSheetId="10">Sheet3!$J$1:$O$30</definedName>
     <definedName name="tmp" localSheetId="2">CCmd!$K$2:$K$16</definedName>
     <definedName name="tmp_1" localSheetId="2">CCmd!$J$2:$J$16</definedName>
-    <definedName name="ExternalData_1" localSheetId="2">CCmd!$L$2:$L$16</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
@@ -151,42 +150,35 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="10" name="tmp4" type="6" background="1" refreshedVersion="2" saveData="1">
-    <textPr sourceFile="F:\William\tmp\tmp.txt">
-      <textFields>
-        <textField/>
-      </textFields>
-    </textPr>
-  </connection>
-  <connection id="11" name="tmp_optimized" type="6" background="1" refreshedVersion="2" saveData="1">
+  <connection id="10" name="tmp_optimized" type="6" background="1" refreshedVersion="2" saveData="1">
     <textPr sourceFile="F:\William\MD-X6S\graphite\tmp_optimized.txt" space="1" consecutive="1">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="12" name="tmpp" type="6" background="1" refreshedVersion="2" saveData="1">
+  <connection id="11" name="tmpp" type="6" background="1" refreshedVersion="2" saveData="1">
     <textPr sourceFile="F:\William\PV0c\tmpp.txt" space="1" consecutive="1">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="13" name="tmpp1" type="6" background="1" refreshedVersion="2" saveData="1">
+  <connection id="12" name="tmpp1" type="6" background="1" refreshedVersion="2" saveData="1">
     <textPr sourceFile="F:\William\PV0c\tmpp.txt" space="1" consecutive="1">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="14" name="tmpt" type="6" background="1" refreshedVersion="2" saveData="1">
+  <connection id="13" name="tmpt" type="6" background="1" refreshedVersion="2" saveData="1">
     <textPr sourceFile="F:\William\PV0c\tmpt.txt" space="1" consecutive="1">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="15" name="tmpt1" type="6" background="1" refreshedVersion="2" saveData="1">
+  <connection id="14" name="tmpt1" type="6" background="1" refreshedVersion="2" saveData="1">
     <textPr sourceFile="F:\William\PBE3\tmpt.txt" space="1" consecutive="1">
       <textFields>
         <textField/>
@@ -712,9 +704,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -728,135 +720,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -875,6 +739,134 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -885,7 +877,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -897,25 +973,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -933,55 +1045,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -993,79 +1057,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1083,6 +1075,65 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1103,41 +1154,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1152,175 +1168,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3580,8 +3572,8 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="10" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh preserveSortFilterLayout="0" nextId="2">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="tmp" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+  <queryTableRefresh preserveSortFilterLayout="1" nextId="2">
     <queryTableFields count="1">
       <queryTableField id="1" dataBound="0"/>
     </queryTableFields>
@@ -3590,7 +3582,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_2" connectionId="13" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_2" connectionId="12" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="0" nextId="10">
     <queryTableFields count="9">
       <queryTableField id="1" dataBound="0"/>
@@ -3608,7 +3600,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="11" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="0" nextId="10">
     <queryTableFields count="9">
       <queryTableField id="1" dataBound="0"/>
@@ -3626,25 +3618,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="12" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh preserveSortFilterLayout="0" nextId="10">
-    <queryTableFields count="9">
-      <queryTableField id="1" dataBound="0"/>
-      <queryTableField id="2" dataBound="0"/>
-      <queryTableField id="3" dataBound="0"/>
-      <queryTableField id="4" dataBound="0"/>
-      <queryTableField id="5" dataBound="0"/>
-      <queryTableField id="6" dataBound="0"/>
-      <queryTableField id="7" dataBound="0"/>
-      <queryTableField id="8" dataBound="0"/>
-      <queryTableField id="9" dataBound="0"/>
-    </queryTableFields>
-  </queryTableRefresh>
-</queryTable>
-</file>
-
-<file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_3" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="14" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="0" nextId="7">
     <queryTableFields count="6">
       <queryTableField id="1" dataBound="0"/>
@@ -3658,8 +3632,8 @@
 </queryTable>
 </file>
 
-<file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="15" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_3" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="0" nextId="7">
     <queryTableFields count="6">
       <queryTableField id="1" dataBound="0"/>
@@ -3684,10 +3658,19 @@
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="tmp" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh preserveSortFilterLayout="1" nextId="2">
-    <queryTableFields count="1">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_2" connectionId="10" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+  <queryTableRefresh preserveSortFilterLayout="0" nextId="11">
+    <queryTableFields count="10">
       <queryTableField id="1" dataBound="0"/>
+      <queryTableField id="2" dataBound="0"/>
+      <queryTableField id="3" dataBound="0"/>
+      <queryTableField id="4" dataBound="0"/>
+      <queryTableField id="5" dataBound="0"/>
+      <queryTableField id="6" dataBound="0"/>
+      <queryTableField id="7" dataBound="0"/>
+      <queryTableField id="8" dataBound="0"/>
+      <queryTableField id="9" dataBound="0"/>
+      <queryTableField id="10" dataBound="0"/>
     </queryTableFields>
   </queryTableRefresh>
 </queryTable>
@@ -3713,7 +3696,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_2" connectionId="11" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="0" nextId="11">
     <queryTableFields count="10">
       <queryTableField id="1" dataBound="0"/>
@@ -3751,25 +3734,6 @@
 </file>
 
 <file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh preserveSortFilterLayout="0" nextId="11">
-    <queryTableFields count="10">
-      <queryTableField id="1" dataBound="0"/>
-      <queryTableField id="2" dataBound="0"/>
-      <queryTableField id="3" dataBound="0"/>
-      <queryTableField id="4" dataBound="0"/>
-      <queryTableField id="5" dataBound="0"/>
-      <queryTableField id="6" dataBound="0"/>
-      <queryTableField id="7" dataBound="0"/>
-      <queryTableField id="8" dataBound="0"/>
-      <queryTableField id="9" dataBound="0"/>
-      <queryTableField id="10" dataBound="0"/>
-    </queryTableFields>
-  </queryTableRefresh>
-</queryTable>
-</file>
-
-<file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="0" nextId="10">
     <queryTableFields count="9">
@@ -3787,8 +3751,8 @@
 </queryTable>
 </file>
 
-<file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="14" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="13" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="0" nextId="7">
     <queryTableFields count="6">
       <queryTableField id="1" dataBound="0"/>
@@ -3797,6 +3761,24 @@
       <queryTableField id="4" dataBound="0"/>
       <queryTableField id="5" dataBound="0"/>
       <queryTableField id="6" dataBound="0"/>
+    </queryTableFields>
+  </queryTableRefresh>
+</queryTable>
+</file>
+
+<file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+  <queryTableRefresh preserveSortFilterLayout="0" nextId="10">
+    <queryTableFields count="9">
+      <queryTableField id="1" dataBound="0"/>
+      <queryTableField id="2" dataBound="0"/>
+      <queryTableField id="3" dataBound="0"/>
+      <queryTableField id="4" dataBound="0"/>
+      <queryTableField id="5" dataBound="0"/>
+      <queryTableField id="6" dataBound="0"/>
+      <queryTableField id="7" dataBound="0"/>
+      <queryTableField id="8" dataBound="0"/>
+      <queryTableField id="9" dataBound="0"/>
     </queryTableFields>
   </queryTableRefresh>
 </queryTable>
@@ -8326,7 +8308,7 @@
         <v>-1.1812</v>
       </c>
       <c r="L2">
-        <v>-1.0528</v>
+        <v>-1.053</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -8364,7 +8346,7 @@
         <v>-1.2007</v>
       </c>
       <c r="L3">
-        <v>-1.0877</v>
+        <v>-1.0879</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -8402,7 +8384,7 @@
         <v>-1.2173</v>
       </c>
       <c r="L4">
-        <v>-1.1234</v>
+        <v>-1.1236</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -8440,7 +8422,7 @@
         <v>-1.2304</v>
       </c>
       <c r="L5">
-        <v>-1.1598</v>
+        <v>-1.16</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -8478,7 +8460,7 @@
         <v>-1.2394</v>
       </c>
       <c r="L6">
-        <v>-1.1968</v>
+        <v>-1.197</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -8516,7 +8498,7 @@
         <v>-1.2435</v>
       </c>
       <c r="L7">
-        <v>-1.2344</v>
+        <v>-1.2345</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -8592,7 +8574,7 @@
         <v>-1.2337</v>
       </c>
       <c r="L9">
-        <v>-1.3098</v>
+        <v>-1.3096</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -8630,7 +8612,7 @@
         <v>-1.2176</v>
       </c>
       <c r="L10">
-        <v>-1.346</v>
+        <v>-1.3454</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -8668,7 +8650,7 @@
         <v>-1.1925</v>
       </c>
       <c r="L11">
-        <v>-1.3781</v>
+        <v>-1.3768</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -8706,7 +8688,7 @@
         <v>-1.1569</v>
       </c>
       <c r="L12">
-        <v>-1.4004</v>
+        <v>-1.3978</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -8744,7 +8726,7 @@
         <v>-1.1092</v>
       </c>
       <c r="L13">
-        <v>-1.4004</v>
+        <v>-1.396</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -8782,7 +8764,7 @@
         <v>-1.0475</v>
       </c>
       <c r="L14">
-        <v>-1.3525</v>
+        <v>-1.346</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -8820,7 +8802,7 @@
         <v>-0.9697</v>
       </c>
       <c r="L15">
-        <v>-1.2033</v>
+        <v>-1.1961</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -8858,7 +8840,7 @@
         <v>-0.8734</v>
       </c>
       <c r="L16">
-        <v>-0.8446</v>
+        <v>-0.8435</v>
       </c>
     </row>
   </sheetData>

--- a/data/data_collection.xlsx
+++ b/data/data_collection.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370" tabRatio="719" activeTab="2"/>
+    <workbookView windowWidth="20385" windowHeight="7950" tabRatio="719" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="data11" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,8 @@
     <definedName name="ExternalData_2" localSheetId="5">Sheet7!$L$1:$U$17</definedName>
     <definedName name="ExternalData_3" localSheetId="10">Sheet3!$J$1:$O$30</definedName>
     <definedName name="tmp" localSheetId="2">CCmd!$K$2:$K$16</definedName>
-    <definedName name="tmp_1" localSheetId="2">CCmd!$J$2:$J$16</definedName>
+    <definedName name="ExternalData_1" localSheetId="2">CCmd!$J$2:$J$16</definedName>
+    <definedName name="ExternalData_2" localSheetId="2">CCmd!$L$2:$L$16</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
@@ -123,7 +124,7 @@
     </textPr>
   </connection>
   <connection id="6" name="tmp11" type="6" background="1" refreshedVersion="2" saveData="1">
-    <textPr sourceFile="/Users/yerong/Documents/William/tmp/tmp.txt">
+    <textPr sourceFile="F:\William\tmp\tmp1.txt">
       <textFields>
         <textField/>
       </textFields>
@@ -157,28 +158,35 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="11" name="tmpp" type="6" background="1" refreshedVersion="2" saveData="1">
+  <connection id="11" name="tmpfull" type="6" background="1" refreshedVersion="2" saveData="1">
+    <textPr sourceFile="F:\William\tmp\tmpfull.txt">
+      <textFields>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="12" name="tmpp" type="6" background="1" refreshedVersion="2" saveData="1">
     <textPr sourceFile="F:\William\PV0c\tmpp.txt" space="1" consecutive="1">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="12" name="tmpp1" type="6" background="1" refreshedVersion="2" saveData="1">
+  <connection id="13" name="tmpp1" type="6" background="1" refreshedVersion="2" saveData="1">
     <textPr sourceFile="F:\William\PV0c\tmpp.txt" space="1" consecutive="1">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="13" name="tmpt" type="6" background="1" refreshedVersion="2" saveData="1">
+  <connection id="14" name="tmpt" type="6" background="1" refreshedVersion="2" saveData="1">
     <textPr sourceFile="F:\William\PV0c\tmpt.txt" space="1" consecutive="1">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="14" name="tmpt1" type="6" background="1" refreshedVersion="2" saveData="1">
+  <connection id="15" name="tmpt1" type="6" background="1" refreshedVersion="2" saveData="1">
     <textPr sourceFile="F:\William\PBE3\tmpt.txt" space="1" consecutive="1">
       <textFields>
         <textField/>
@@ -704,8 +712,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -725,10 +733,18 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -740,46 +756,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -794,21 +772,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -817,6 +781,13 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -831,24 +802,25 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -867,6 +839,42 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -877,13 +885,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -901,13 +921,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -919,19 +939,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -943,7 +957,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -955,19 +987,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -985,37 +1023,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1027,37 +1047,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1075,25 +1083,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1113,28 +1118,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1154,24 +1166,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1189,130 +1197,130 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3572,8 +3580,8 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="tmp" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh preserveSortFilterLayout="1" nextId="2">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_2" connectionId="11" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+  <queryTableRefresh preserveSortFilterLayout="0" nextId="2">
     <queryTableFields count="1">
       <queryTableField id="1" dataBound="0"/>
     </queryTableFields>
@@ -3582,7 +3590,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_2" connectionId="12" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_2" connectionId="13" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="0" nextId="10">
     <queryTableFields count="9">
       <queryTableField id="1" dataBound="0"/>
@@ -3600,7 +3608,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="11" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="0" nextId="10">
     <queryTableFields count="9">
       <queryTableField id="1" dataBound="0"/>
@@ -3618,15 +3626,18 @@
 </file>
 
 <file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="14" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh preserveSortFilterLayout="0" nextId="7">
-    <queryTableFields count="6">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="12" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+  <queryTableRefresh preserveSortFilterLayout="0" nextId="10">
+    <queryTableFields count="9">
       <queryTableField id="1" dataBound="0"/>
       <queryTableField id="2" dataBound="0"/>
       <queryTableField id="3" dataBound="0"/>
       <queryTableField id="4" dataBound="0"/>
       <queryTableField id="5" dataBound="0"/>
       <queryTableField id="6" dataBound="0"/>
+      <queryTableField id="7" dataBound="0"/>
+      <queryTableField id="8" dataBound="0"/>
+      <queryTableField id="9" dataBound="0"/>
     </queryTableFields>
   </queryTableRefresh>
 </queryTable>
@@ -3647,9 +3658,24 @@
 </queryTable>
 </file>
 
+<file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="15" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+  <queryTableRefresh preserveSortFilterLayout="0" nextId="7">
+    <queryTableFields count="6">
+      <queryTableField id="1" dataBound="0"/>
+      <queryTableField id="2" dataBound="0"/>
+      <queryTableField id="3" dataBound="0"/>
+      <queryTableField id="4" dataBound="0"/>
+      <queryTableField id="5" dataBound="0"/>
+      <queryTableField id="6" dataBound="0"/>
+    </queryTableFields>
+  </queryTableRefresh>
+</queryTable>
+</file>
+
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="tmp_1" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh preserveSortFilterLayout="1" nextId="2">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+  <queryTableRefresh preserveSortFilterLayout="0" nextId="2">
     <queryTableFields count="1">
       <queryTableField id="1" dataBound="0"/>
     </queryTableFields>
@@ -3658,19 +3684,10 @@
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_2" connectionId="10" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh preserveSortFilterLayout="0" nextId="11">
-    <queryTableFields count="10">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="tmp" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+  <queryTableRefresh preserveSortFilterLayout="1" nextId="2">
+    <queryTableFields count="1">
       <queryTableField id="1" dataBound="0"/>
-      <queryTableField id="2" dataBound="0"/>
-      <queryTableField id="3" dataBound="0"/>
-      <queryTableField id="4" dataBound="0"/>
-      <queryTableField id="5" dataBound="0"/>
-      <queryTableField id="6" dataBound="0"/>
-      <queryTableField id="7" dataBound="0"/>
-      <queryTableField id="8" dataBound="0"/>
-      <queryTableField id="9" dataBound="0"/>
-      <queryTableField id="10" dataBound="0"/>
     </queryTableFields>
   </queryTableRefresh>
 </queryTable>
@@ -3696,7 +3713,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_2" connectionId="10" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="0" nextId="11">
     <queryTableFields count="10">
       <queryTableField id="1" dataBound="0"/>
@@ -3734,6 +3751,25 @@
 </file>
 
 <file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+  <queryTableRefresh preserveSortFilterLayout="0" nextId="11">
+    <queryTableFields count="10">
+      <queryTableField id="1" dataBound="0"/>
+      <queryTableField id="2" dataBound="0"/>
+      <queryTableField id="3" dataBound="0"/>
+      <queryTableField id="4" dataBound="0"/>
+      <queryTableField id="5" dataBound="0"/>
+      <queryTableField id="6" dataBound="0"/>
+      <queryTableField id="7" dataBound="0"/>
+      <queryTableField id="8" dataBound="0"/>
+      <queryTableField id="9" dataBound="0"/>
+      <queryTableField id="10" dataBound="0"/>
+    </queryTableFields>
+  </queryTableRefresh>
+</queryTable>
+</file>
+
+<file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="0" nextId="10">
     <queryTableFields count="9">
@@ -3751,8 +3787,8 @@
 </queryTable>
 </file>
 
-<file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="13" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="14" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="0" nextId="7">
     <queryTableFields count="6">
       <queryTableField id="1" dataBound="0"/>
@@ -3761,24 +3797,6 @@
       <queryTableField id="4" dataBound="0"/>
       <queryTableField id="5" dataBound="0"/>
       <queryTableField id="6" dataBound="0"/>
-    </queryTableFields>
-  </queryTableRefresh>
-</queryTable>
-</file>
-
-<file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh preserveSortFilterLayout="0" nextId="10">
-    <queryTableFields count="9">
-      <queryTableField id="1" dataBound="0"/>
-      <queryTableField id="2" dataBound="0"/>
-      <queryTableField id="3" dataBound="0"/>
-      <queryTableField id="4" dataBound="0"/>
-      <queryTableField id="5" dataBound="0"/>
-      <queryTableField id="6" dataBound="0"/>
-      <queryTableField id="7" dataBound="0"/>
-      <queryTableField id="8" dataBound="0"/>
-      <queryTableField id="9" dataBound="0"/>
     </queryTableFields>
   </queryTableRefresh>
 </queryTable>
@@ -8222,7 +8240,7 @@
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L16"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -8233,6 +8251,7 @@
     <col min="6" max="7" width="10.3333333333333" customWidth="1"/>
     <col min="8" max="8" width="9.16666666666667" customWidth="1"/>
     <col min="9" max="9" width="11.8333333333333" customWidth="1"/>
+    <col min="10" max="10" width="13.5" customWidth="1"/>
     <col min="11" max="11" width="11.8333333333333" customWidth="1"/>
     <col min="12" max="12" width="16.25" customWidth="1"/>
   </cols>
@@ -8302,13 +8321,13 @@
         <v>-1.1506</v>
       </c>
       <c r="J2" s="4">
-        <v>-1.1688</v>
+        <v>-1.1655</v>
       </c>
       <c r="K2">
         <v>-1.1812</v>
       </c>
       <c r="L2">
-        <v>-1.053</v>
+        <v>-1.1634</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -8340,13 +8359,13 @@
         <v>-1.175</v>
       </c>
       <c r="J3" s="4">
-        <v>-1.1889</v>
+        <v>-1.1862</v>
       </c>
       <c r="K3">
         <v>-1.2007</v>
       </c>
       <c r="L3">
-        <v>-1.0879</v>
+        <v>-1.1845</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -8378,13 +8397,13 @@
         <v>-1.1968</v>
       </c>
       <c r="J4" s="4">
-        <v>-1.2066</v>
+        <v>-1.2046</v>
       </c>
       <c r="K4">
         <v>-1.2173</v>
       </c>
       <c r="L4">
-        <v>-1.1236</v>
+        <v>-1.2032</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -8416,13 +8435,13 @@
         <v>-1.2154</v>
       </c>
       <c r="J5" s="4">
-        <v>-1.2213</v>
+        <v>-1.22</v>
       </c>
       <c r="K5">
         <v>-1.2304</v>
       </c>
       <c r="L5">
-        <v>-1.16</v>
+        <v>-1.219</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -8454,13 +8473,13 @@
         <v>-1.2303</v>
       </c>
       <c r="J6" s="4">
-        <v>-1.2326</v>
+        <v>-1.232</v>
       </c>
       <c r="K6">
         <v>-1.2394</v>
       </c>
       <c r="L6">
-        <v>-1.197</v>
+        <v>-1.2314</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -8492,13 +8511,13 @@
         <v>-1.2406</v>
       </c>
       <c r="J7" s="4">
-        <v>-1.2398</v>
+        <v>-1.2399</v>
       </c>
       <c r="K7">
         <v>-1.2435</v>
       </c>
       <c r="L7">
-        <v>-1.2345</v>
+        <v>-1.2398</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -8530,13 +8549,13 @@
         <v>-1.2456</v>
       </c>
       <c r="J8" s="4">
-        <v>-1.2423</v>
+        <v>-1.243</v>
       </c>
       <c r="K8">
         <v>-1.2419</v>
       </c>
       <c r="L8">
-        <v>-1.2722</v>
+        <v>-1.2434</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -8568,13 +8587,13 @@
         <v>-1.2443</v>
       </c>
       <c r="J9" s="4">
-        <v>-1.2394</v>
+        <v>-1.2405</v>
       </c>
       <c r="K9">
         <v>-1.2337</v>
       </c>
       <c r="L9">
-        <v>-1.3096</v>
+        <v>-1.2414</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -8606,13 +8625,13 @@
         <v>-1.2357</v>
       </c>
       <c r="J10" s="4">
-        <v>-1.2301</v>
+        <v>-1.2314</v>
       </c>
       <c r="K10">
         <v>-1.2176</v>
       </c>
       <c r="L10">
-        <v>-1.3454</v>
+        <v>-1.2329</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -8644,13 +8663,13 @@
         <v>-1.2185</v>
       </c>
       <c r="J11" s="4">
-        <v>-1.2134</v>
+        <v>-1.2149</v>
       </c>
       <c r="K11">
         <v>-1.1925</v>
       </c>
       <c r="L11">
-        <v>-1.3768</v>
+        <v>-1.2169</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -8682,13 +8701,13 @@
         <v>-1.1915</v>
       </c>
       <c r="J12" s="4">
-        <v>-1.1884</v>
+        <v>-1.1895</v>
       </c>
       <c r="K12">
         <v>-1.1569</v>
       </c>
       <c r="L12">
-        <v>-1.3978</v>
+        <v>-1.1921</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -8720,13 +8739,13 @@
         <v>-1.1531</v>
       </c>
       <c r="J13" s="4">
-        <v>-1.1536</v>
+        <v>-1.1541</v>
       </c>
       <c r="K13">
         <v>-1.1092</v>
       </c>
       <c r="L13">
-        <v>-1.396</v>
+        <v>-1.1572</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -8758,13 +8777,13 @@
         <v>-1.1017</v>
       </c>
       <c r="J14" s="4">
-        <v>-1.1078</v>
+        <v>-1.107</v>
       </c>
       <c r="K14">
         <v>-1.0475</v>
       </c>
       <c r="L14">
-        <v>-1.346</v>
+        <v>-1.1107</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -8796,13 +8815,13 @@
         <v>-1.0353</v>
       </c>
       <c r="J15" s="4">
-        <v>-1.0494</v>
+        <v>-1.0466</v>
       </c>
       <c r="K15">
         <v>-0.9697</v>
       </c>
       <c r="L15">
-        <v>-1.1961</v>
+        <v>-1.0507</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -8834,13 +8853,13 @@
         <v>-0.9518</v>
       </c>
       <c r="J16" s="4">
-        <v>-0.9765</v>
+        <v>-0.9708</v>
       </c>
       <c r="K16">
         <v>-0.8734</v>
       </c>
       <c r="L16">
-        <v>-0.8435</v>
+        <v>-0.9754</v>
       </c>
     </row>
   </sheetData>

--- a/data/data_collection.xlsx
+++ b/data/data_collection.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="7950" tabRatio="719" activeTab="2"/>
+    <workbookView windowWidth="20385" windowHeight="8370" tabRatio="719" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="data11" sheetId="1" r:id="rId1"/>
@@ -197,7 +197,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171">
   <si>
     <t>C(A)</t>
   </si>
@@ -302,6 +302,12 @@
   </si>
   <si>
     <t>E0(kcal/mol)</t>
+  </si>
+  <si>
+    <t>eqa1</t>
+  </si>
+  <si>
+    <t>eqb1</t>
   </si>
   <si>
     <t>ref</t>
@@ -711,10 +717,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -722,29 +728,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -757,15 +740,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -778,9 +767,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -809,8 +806,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -818,23 +816,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -849,7 +831,31 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -891,7 +897,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -903,37 +1017,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -945,115 +1059,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1079,15 +1085,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1099,6 +1096,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1129,6 +1135,32 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -1150,63 +1182,43 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1215,52 +1227,46 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1269,58 +1275,58 @@
     <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3580,8 +3586,8 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_2" connectionId="11" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh preserveSortFilterLayout="0" nextId="2">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="tmp" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+  <queryTableRefresh preserveSortFilterLayout="1" nextId="2">
     <queryTableFields count="1">
       <queryTableField id="1" dataBound="0"/>
     </queryTableFields>
@@ -3590,7 +3596,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_2" connectionId="13" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="0" nextId="10">
     <queryTableFields count="9">
       <queryTableField id="1" dataBound="0"/>
@@ -3608,7 +3614,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_2" connectionId="13" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="0" nextId="10">
     <queryTableFields count="9">
       <queryTableField id="1" dataBound="0"/>
@@ -3644,7 +3650,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_3" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="15" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="0" nextId="7">
     <queryTableFields count="6">
       <queryTableField id="1" dataBound="0"/>
@@ -3659,7 +3665,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="15" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_3" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="0" nextId="7">
     <queryTableFields count="6">
       <queryTableField id="1" dataBound="0"/>
@@ -3684,8 +3690,8 @@
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="tmp" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh preserveSortFilterLayout="1" nextId="2">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_2" connectionId="11" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+  <queryTableRefresh preserveSortFilterLayout="0" nextId="2">
     <queryTableFields count="1">
       <queryTableField id="1" dataBound="0"/>
     </queryTableFields>
@@ -3694,6 +3700,25 @@
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_2" connectionId="10" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+  <queryTableRefresh preserveSortFilterLayout="0" nextId="11">
+    <queryTableFields count="10">
+      <queryTableField id="1" dataBound="0"/>
+      <queryTableField id="2" dataBound="0"/>
+      <queryTableField id="3" dataBound="0"/>
+      <queryTableField id="4" dataBound="0"/>
+      <queryTableField id="5" dataBound="0"/>
+      <queryTableField id="6" dataBound="0"/>
+      <queryTableField id="7" dataBound="0"/>
+      <queryTableField id="8" dataBound="0"/>
+      <queryTableField id="9" dataBound="0"/>
+      <queryTableField id="10" dataBound="0"/>
+    </queryTableFields>
+  </queryTableRefresh>
+</queryTable>
+</file>
+
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="0" nextId="11">
     <queryTableFields count="10">
@@ -3712,27 +3737,8 @@
 </queryTable>
 </file>
 
-<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_2" connectionId="10" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh preserveSortFilterLayout="0" nextId="11">
-    <queryTableFields count="10">
-      <queryTableField id="1" dataBound="0"/>
-      <queryTableField id="2" dataBound="0"/>
-      <queryTableField id="3" dataBound="0"/>
-      <queryTableField id="4" dataBound="0"/>
-      <queryTableField id="5" dataBound="0"/>
-      <queryTableField id="6" dataBound="0"/>
-      <queryTableField id="7" dataBound="0"/>
-      <queryTableField id="8" dataBound="0"/>
-      <queryTableField id="9" dataBound="0"/>
-      <queryTableField id="10" dataBound="0"/>
-    </queryTableFields>
-  </queryTableRefresh>
-</queryTable>
-</file>
-
 <file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_2" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="0" nextId="11">
     <queryTableFields count="10">
       <queryTableField id="1" dataBound="0"/>
@@ -3751,7 +3757,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_2" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="0" nextId="11">
     <queryTableFields count="10">
       <queryTableField id="1" dataBound="0"/>
@@ -4940,13 +4946,13 @@
         <v>7.734603659</v>
       </c>
       <c r="B1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E1">
         <v>-2.70814</v>
@@ -4972,13 +4978,13 @@
         <v>7.398316544</v>
       </c>
       <c r="B2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C2" t="s">
         <v>139</v>
       </c>
-      <c r="C2" t="s">
-        <v>137</v>
-      </c>
       <c r="D2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E2">
         <v>-3.40202</v>
@@ -5004,13 +5010,13 @@
         <v>7.06202942799999</v>
       </c>
       <c r="B3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D3" t="s">
         <v>140</v>
-      </c>
-      <c r="C3" t="s">
-        <v>137</v>
-      </c>
-      <c r="D3" t="s">
-        <v>138</v>
       </c>
       <c r="E3">
         <v>-4.50753</v>
@@ -5036,13 +5042,13 @@
         <v>6.99477200493787</v>
       </c>
       <c r="B4" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C4" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D4" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E4">
         <v>-4.78273</v>
@@ -5068,13 +5074,13 @@
         <v>6.92751458181347</v>
       </c>
       <c r="B5" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D5" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E5">
         <v>-5.08591</v>
@@ -5100,13 +5106,13 @@
         <v>6.86025715868907</v>
       </c>
       <c r="B6" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C6" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D6" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E6">
         <v>-5.40348</v>
@@ -5132,13 +5138,13 @@
         <v>6.79299973556466</v>
       </c>
       <c r="B7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E7">
         <v>-5.75432</v>
@@ -5164,13 +5170,13 @@
         <v>6.72574231244026</v>
       </c>
       <c r="B8" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C8" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D8" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E8">
         <v>-6.11871</v>
@@ -5196,13 +5202,13 @@
         <v>6.65848488931586</v>
       </c>
       <c r="B9" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C9" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E9">
         <v>-6.54105</v>
@@ -5228,13 +5234,13 @@
         <v>6.59122746619145</v>
       </c>
       <c r="B10" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C10" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D10" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E10">
         <v>-6.92346</v>
@@ -5260,13 +5266,13 @@
         <v>6.52397004306705</v>
       </c>
       <c r="B11" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C11" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D11" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E11">
         <v>-7.3603</v>
@@ -5292,13 +5298,13 @@
         <v>6.45671261994265</v>
       </c>
       <c r="B12" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C12" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D12" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E12">
         <v>-7.85094</v>
@@ -5324,13 +5330,13 @@
         <v>6.389455197</v>
       </c>
       <c r="B13" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C13" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D13" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E13">
         <v>-8.29527</v>
@@ -5356,13 +5362,13 @@
         <v>6.05316808099999</v>
       </c>
       <c r="B14" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C14" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D14" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E14">
         <v>-11.01718</v>
@@ -5388,13 +5394,13 @@
         <v>5.71688096599999</v>
       </c>
       <c r="B15" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C15" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D15" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E15">
         <v>-14.16293</v>
@@ -5420,13 +5426,13 @@
         <v>5.38059385</v>
       </c>
       <c r="B16" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C16" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D16" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E16">
         <v>-17.17197</v>
@@ -5452,13 +5458,13 @@
         <v>5.044306734</v>
       </c>
       <c r="B17" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C17" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D17" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E17">
         <v>-17.75908</v>
@@ -5484,13 +5490,13 @@
         <v>4.70801961899999</v>
       </c>
       <c r="B18" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C18" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D18" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E18">
         <v>-14.08485</v>
@@ -5516,13 +5522,13 @@
         <v>4.37173250299999</v>
       </c>
       <c r="B19" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C19" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D19" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E19">
         <v>-9.69094</v>
@@ -5548,13 +5554,13 @@
         <v>4.035445387</v>
       </c>
       <c r="B20" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C20" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D20" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E20">
         <v>62.64671</v>
@@ -5580,13 +5586,13 @@
         <v>3.69915827100001</v>
       </c>
       <c r="B21" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C21" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D21" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E21">
         <v>238.657</v>
@@ -5612,13 +5618,13 @@
         <v>3.36287115500002</v>
       </c>
       <c r="B22" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C22" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D22" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E22">
         <v>709.01882</v>
@@ -5644,13 +5650,13 @@
         <v>3.02658403900003</v>
       </c>
       <c r="B23" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C23" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D23" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E23">
         <v>1922.70321</v>
@@ -5676,13 +5682,13 @@
         <v>2.69029692300004</v>
       </c>
       <c r="B24" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C24" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D24" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E24">
         <v>3453.20136</v>
@@ -5744,7 +5750,7 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -5766,7 +5772,7 @@
         <v>0.0212973013381394</v>
       </c>
       <c r="J1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K1">
         <v>300</v>
@@ -5790,7 +5796,7 @@
     </row>
     <row r="2" spans="1:16">
       <c r="A2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -5812,7 +5818,7 @@
         <v>0.0213150838717795</v>
       </c>
       <c r="J2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="K2">
         <v>300</v>
@@ -5836,7 +5842,7 @@
     </row>
     <row r="3" spans="1:16">
       <c r="A3" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -5858,7 +5864,7 @@
         <v>0.0213514365883235</v>
       </c>
       <c r="J3" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="K3">
         <v>300</v>
@@ -5882,7 +5888,7 @@
     </row>
     <row r="4" spans="1:16">
       <c r="A4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -5904,7 +5910,7 @@
         <v>0.0213704943512894</v>
       </c>
       <c r="J4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="K4">
         <v>300</v>
@@ -5928,7 +5934,7 @@
     </row>
     <row r="5" spans="1:16">
       <c r="A5" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -5950,7 +5956,7 @@
         <v>0.0213854811300705</v>
       </c>
       <c r="J5" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K5">
         <v>300</v>
@@ -5974,7 +5980,7 @@
     </row>
     <row r="6" spans="1:16">
       <c r="A6" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -5996,7 +6002,7 @@
         <v>0.0214245984414376</v>
       </c>
       <c r="J6" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K6">
         <v>300</v>
@@ -6020,7 +6026,7 @@
     </row>
     <row r="7" spans="1:16">
       <c r="A7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -6042,7 +6048,7 @@
         <v>0.0214416347213709</v>
       </c>
       <c r="J7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K7">
         <v>300</v>
@@ -6066,7 +6072,7 @@
     </row>
     <row r="8" spans="1:16">
       <c r="A8" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -6088,7 +6094,7 @@
         <v>0.0214761407685137</v>
       </c>
       <c r="J8" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K8">
         <v>300</v>
@@ -6112,7 +6118,7 @@
     </row>
     <row r="9" spans="1:16">
       <c r="A9" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -6134,7 +6140,7 @@
         <v>0.0214953236250955</v>
       </c>
       <c r="J9" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="K9">
         <v>300</v>
@@ -6158,7 +6164,7 @@
     </row>
     <row r="10" spans="1:16">
       <c r="A10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -6180,7 +6186,7 @@
         <v>0.0215045517247771</v>
       </c>
       <c r="J10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K10">
         <v>300</v>
@@ -6204,7 +6210,7 @@
     </row>
     <row r="11" spans="1:16">
       <c r="A11" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -6226,7 +6232,7 @@
         <v>0.0215259662164836</v>
       </c>
       <c r="J11" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K11">
         <v>300</v>
@@ -6250,7 +6256,7 @@
     </row>
     <row r="12" spans="1:16">
       <c r="A12" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -6272,7 +6278,7 @@
         <v>0.0215454250434452</v>
       </c>
       <c r="J12" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K12">
         <v>300</v>
@@ -6296,7 +6302,7 @@
     </row>
     <row r="13" spans="1:16">
       <c r="A13" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -6318,7 +6324,7 @@
         <v>0.02155955563384</v>
       </c>
       <c r="J13" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K13">
         <v>300</v>
@@ -6342,7 +6348,7 @@
     </row>
     <row r="14" spans="1:16">
       <c r="A14" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -6364,7 +6370,7 @@
         <v>0.0215758343232551</v>
       </c>
       <c r="J14" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K14">
         <v>300</v>
@@ -6388,7 +6394,7 @@
     </row>
     <row r="15" spans="1:16">
       <c r="A15" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -6410,7 +6416,7 @@
         <v>0.0215897807066604</v>
       </c>
       <c r="J15" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K15">
         <v>300</v>
@@ -6434,7 +6440,7 @@
     </row>
     <row r="16" spans="1:16">
       <c r="A16" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -6456,7 +6462,7 @@
         <v>0.00616135745718576</v>
       </c>
       <c r="J16" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K16">
         <v>300</v>
@@ -6480,7 +6486,7 @@
     </row>
     <row r="17" spans="1:16">
       <c r="A17" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -6502,7 +6508,7 @@
         <v>0.00642130111638179</v>
       </c>
       <c r="J17" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K17">
         <v>300</v>
@@ -6526,7 +6532,7 @@
     </row>
     <row r="18" spans="1:16">
       <c r="A18" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -6548,7 +6554,7 @@
         <v>0.00668963932810497</v>
       </c>
       <c r="J18" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K18">
         <v>300</v>
@@ -6572,7 +6578,7 @@
     </row>
     <row r="19" spans="1:16">
       <c r="A19" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -6594,7 +6600,7 @@
         <v>0.00722596664254261</v>
       </c>
       <c r="J19" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="K19">
         <v>300</v>
@@ -6618,7 +6624,7 @@
     </row>
     <row r="20" spans="1:16">
       <c r="A20" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -6640,7 +6646,7 @@
         <v>0.00725404306569759</v>
       </c>
       <c r="J20" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K20">
         <v>300</v>
@@ -6664,7 +6670,7 @@
     </row>
     <row r="21" spans="1:16">
       <c r="A21" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -6686,7 +6692,7 @@
         <v>0.00725404306569759</v>
       </c>
       <c r="J21" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K21">
         <v>300</v>
@@ -6710,7 +6716,7 @@
     </row>
     <row r="22" spans="1:16">
       <c r="A22" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -6732,7 +6738,7 @@
         <v>0.00725404306569759</v>
       </c>
       <c r="J22" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K22">
         <v>300</v>
@@ -6756,7 +6762,7 @@
     </row>
     <row r="23" spans="1:16">
       <c r="A23" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -6778,7 +6784,7 @@
         <v>0.00725404306569759</v>
       </c>
       <c r="J23" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K23">
         <v>300</v>
@@ -6802,7 +6808,7 @@
     </row>
     <row r="24" spans="1:16">
       <c r="A24" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -6824,7 +6830,7 @@
         <v>0.00725404306569759</v>
       </c>
       <c r="J24" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K24">
         <v>300</v>
@@ -6848,7 +6854,7 @@
     </row>
     <row r="25" spans="1:15">
       <c r="A25" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -6866,7 +6872,7 @@
         <v>22.395319</v>
       </c>
       <c r="J25" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K25">
         <v>300</v>
@@ -6886,7 +6892,7 @@
     </row>
     <row r="26" spans="1:15">
       <c r="A26" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -6904,7 +6910,7 @@
         <v>22.395319</v>
       </c>
       <c r="J26" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="K26">
         <v>300</v>
@@ -6924,7 +6930,7 @@
     </row>
     <row r="27" spans="1:15">
       <c r="A27" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -6942,7 +6948,7 @@
         <v>72.8132429</v>
       </c>
       <c r="J27" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K27">
         <v>300</v>
@@ -6962,7 +6968,7 @@
     </row>
     <row r="28" spans="1:15">
       <c r="A28" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -6980,7 +6986,7 @@
         <v>16.0294562</v>
       </c>
       <c r="J28" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="K28">
         <v>300</v>
@@ -7000,7 +7006,7 @@
     </row>
     <row r="29" spans="1:15">
       <c r="A29" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -7018,7 +7024,7 @@
         <v>17.5375936</v>
       </c>
       <c r="J29" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="K29">
         <v>300</v>
@@ -7038,7 +7044,7 @@
     </row>
     <row r="30" spans="1:15">
       <c r="A30" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -7056,7 +7062,7 @@
         <v>18.1291886</v>
       </c>
       <c r="J30" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="K30">
         <v>300</v>
@@ -7089,17 +7095,23 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:M36"/>
+  <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="2" max="2" width="19.1666666666667" customWidth="1"/>
+    <col min="3" max="3" width="12.625"/>
+    <col min="4" max="4" width="13.75"/>
+    <col min="5" max="5" width="10.375"/>
+    <col min="6" max="6" width="12.625"/>
     <col min="7" max="7" width="21.8333333333333" customWidth="1"/>
     <col min="8" max="9" width="14.1666666666667" customWidth="1"/>
+    <col min="10" max="11" width="12.625"/>
+    <col min="13" max="13" width="12.625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -7151,7 +7163,7 @@
         <v>1.07</v>
       </c>
       <c r="M2">
-        <f t="shared" ref="M2:M14" si="0">6.6317507281457*L2</f>
+        <f>6.6317507281457*L2</f>
         <v>7.0959732791159</v>
       </c>
     </row>
@@ -7163,7 +7175,7 @@
         <v>-9.36041425</v>
       </c>
       <c r="D3" s="7">
-        <f t="shared" ref="D3:D18" si="1">C3+F3</f>
+        <f>C3+F3</f>
         <v>-9.36041425</v>
       </c>
       <c r="E3" s="7">
@@ -7182,7 +7194,7 @@
         <v>1.06</v>
       </c>
       <c r="M3">
-        <f t="shared" si="0"/>
+        <f>6.6317507281457*L3</f>
         <v>7.02965577183444</v>
       </c>
     </row>
@@ -7197,7 +7209,7 @@
         <v>-9.36272175</v>
       </c>
       <c r="D4" s="7">
-        <f t="shared" si="1"/>
+        <f>C4+F4</f>
         <v>-9.34142444866186</v>
       </c>
       <c r="E4" s="7">
@@ -7224,7 +7236,7 @@
         <v>1.05</v>
       </c>
       <c r="M4">
-        <f t="shared" si="0"/>
+        <f>6.6317507281457*L4</f>
         <v>6.96333826455299</v>
       </c>
     </row>
@@ -7239,7 +7251,7 @@
         <v>-9.36334625</v>
       </c>
       <c r="D5" s="7">
-        <f t="shared" si="1"/>
+        <f>C5+F5</f>
         <v>-9.34203116612822</v>
       </c>
       <c r="E5" s="7">
@@ -7252,7 +7264,7 @@
         <v>0.02066163725461</v>
       </c>
       <c r="H5">
-        <f t="shared" ref="H5:H29" si="2">C5/2.611E+22*6.02*1E+23</f>
+        <f>C5/2.611E+22*6.02*1E+23</f>
         <v>-215.884122654155</v>
       </c>
       <c r="I5">
@@ -7263,7 +7275,7 @@
         <v>1.04</v>
       </c>
       <c r="M5">
-        <f t="shared" si="0"/>
+        <f>6.6317507281457*L5</f>
         <v>6.89702075727153</v>
       </c>
     </row>
@@ -7278,7 +7290,7 @@
         <v>-9.36387875</v>
       </c>
       <c r="D6" s="7">
-        <f t="shared" si="1"/>
+        <f>C6+F6</f>
         <v>-9.34252731341168</v>
       </c>
       <c r="E6" s="7">
@@ -7291,18 +7303,18 @@
         <v>0.0206943201157467</v>
       </c>
       <c r="H6">
-        <f t="shared" si="2"/>
+        <f>C6/2.611E+22*6.02*1E+23</f>
         <v>-215.896400134048</v>
       </c>
       <c r="I6">
-        <f t="shared" ref="I6:I18" si="3">H6+214.676473994638</f>
+        <f>H6+214.676473994638</f>
         <v>-1.21992613941021</v>
       </c>
       <c r="L6">
         <v>1.03</v>
       </c>
       <c r="M6">
-        <f t="shared" si="0"/>
+        <f>6.6317507281457*L6</f>
         <v>6.83070324999007</v>
       </c>
     </row>
@@ -7317,7 +7329,7 @@
         <v>-9.364291</v>
       </c>
       <c r="D7" s="7">
-        <f t="shared" si="1"/>
+        <f>C7+F7</f>
         <v>-9.34292050564871</v>
       </c>
       <c r="E7" s="7">
@@ -7330,19 +7342,19 @@
         <v>0.0207214062522322</v>
       </c>
       <c r="H7">
-        <f t="shared" si="2"/>
+        <f>C7/2.611E+22*6.02*1E+23</f>
         <v>-215.905905093834</v>
       </c>
       <c r="I7">
-        <f t="shared" si="3"/>
+        <f>H7+214.676473994638</f>
         <v>-1.22943109919572</v>
       </c>
       <c r="L7">
-        <v>1.02</v>
+        <v>1.025</v>
       </c>
       <c r="M7">
-        <f t="shared" si="0"/>
-        <v>6.76438574270861</v>
+        <f>6.6317507281457*L7</f>
+        <v>6.79754449634934</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -7356,7 +7368,7 @@
         <v>-9.36458075</v>
       </c>
       <c r="D8" s="7">
-        <f t="shared" si="1"/>
+        <f>C8+F8</f>
         <v>-9.34319526886993</v>
       </c>
       <c r="E8" s="7">
@@ -7369,861 +7381,895 @@
         <v>0.0207224978899954</v>
       </c>
       <c r="H8">
-        <f t="shared" si="2"/>
+        <f>C8/2.611E+22*6.02*1E+23</f>
         <v>-215.912585656836</v>
       </c>
       <c r="I8">
-        <f t="shared" si="3"/>
+        <f>H8+214.676473994638</f>
         <v>-1.2361116621984</v>
       </c>
       <c r="J8">
-        <f>B10*2</f>
+        <f>B12*2</f>
         <v>13.3961364708543</v>
       </c>
       <c r="L8">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="M8">
-        <f t="shared" si="0"/>
-        <v>6.69806823542716</v>
+        <f>6.6317507281457*L8</f>
+        <v>6.76438574270861</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="B9" s="1">
-        <v>6.76438574270861</v>
-      </c>
-      <c r="C9">
-        <v>-9.36471925</v>
-      </c>
-      <c r="D9" s="7">
-        <f t="shared" si="1"/>
-        <v>-9.34329465155856</v>
-      </c>
-      <c r="E9" s="7">
-        <v>0.083872</v>
-      </c>
-      <c r="F9">
-        <v>0.0214245984414376</v>
-      </c>
-      <c r="G9">
-        <v>0.0207691221463404</v>
-      </c>
-      <c r="H9">
-        <f t="shared" si="2"/>
-        <v>-215.915778954424</v>
-      </c>
-      <c r="I9">
-        <f t="shared" si="3"/>
-        <v>-1.23930495978553</v>
-      </c>
-      <c r="J9">
-        <v>1</v>
-      </c>
-      <c r="K9">
-        <f>6.72574231244026*J9</f>
-        <v>6.72574231244026</v>
-      </c>
+        <v>6.79754449634934</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
       <c r="L9">
-        <v>1</v>
+        <v>1.015</v>
       </c>
       <c r="M9">
-        <f t="shared" si="0"/>
-        <v>6.6317507281457</v>
+        <f>6.6317507281457*L9</f>
+        <v>6.73122698906788</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>6.76438574270861</v>
+      </c>
+      <c r="C10">
+        <v>-9.36471925</v>
+      </c>
+      <c r="D10" s="7">
+        <f>C10+F10</f>
+        <v>-9.34329465155856</v>
+      </c>
+      <c r="E10" s="7">
+        <v>0.083872</v>
+      </c>
+      <c r="F10">
+        <v>0.0214245984414376</v>
+      </c>
+      <c r="G10">
+        <v>0.0207691221463404</v>
+      </c>
+      <c r="H10">
+        <f>C10/2.611E+22*6.02*1E+23</f>
+        <v>-215.915778954424</v>
+      </c>
+      <c r="I10">
+        <f>H10+214.676473994638</f>
+        <v>-1.23930495978553</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <f>6.72574231244026*J10</f>
+        <v>6.72574231244026</v>
+      </c>
+      <c r="L10">
+        <v>1.01</v>
+      </c>
+      <c r="M10">
+        <f t="shared" ref="M10:M16" si="0">6.6317507281457*L10</f>
         <v>6.69806823542716</v>
-      </c>
-      <c r="C10">
-        <v>-9.364684</v>
-      </c>
-      <c r="D10" s="7">
-        <f t="shared" si="1"/>
-        <v>-9.34324236527863</v>
-      </c>
-      <c r="E10" s="7">
-        <v>0.40474</v>
-      </c>
-      <c r="F10">
-        <v>0.0214416347213709</v>
-      </c>
-      <c r="G10">
-        <v>0.0207971474890624</v>
-      </c>
-      <c r="H10">
-        <f t="shared" si="2"/>
-        <v>-215.914966219839</v>
-      </c>
-      <c r="I10">
-        <f t="shared" si="3"/>
-        <v>-1.23849222520113</v>
-      </c>
-      <c r="L10">
-        <v>0.99</v>
-      </c>
-      <c r="M10">
-        <f t="shared" si="0"/>
-        <v>6.56543322086424</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="1">
+        <v>6.73122698906788</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <f>6.6317507281457*L11</f>
+        <v>6.6317507281457</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>6.69806823542716</v>
+      </c>
+      <c r="C12">
+        <v>-9.364684</v>
+      </c>
+      <c r="D12" s="7">
+        <f t="shared" ref="D12:D20" si="1">C12+F12</f>
+        <v>-9.34324236527863</v>
+      </c>
+      <c r="E12" s="7">
+        <v>0.40474</v>
+      </c>
+      <c r="F12">
+        <v>0.0214416347213709</v>
+      </c>
+      <c r="G12">
+        <v>0.0207971474890624</v>
+      </c>
+      <c r="H12">
+        <f t="shared" ref="H12:H31" si="2">C12/2.611E+22*6.02*1E+23</f>
+        <v>-215.914966219839</v>
+      </c>
+      <c r="I12">
+        <f t="shared" ref="I12:I20" si="3">H12+214.676473994638</f>
+        <v>-1.23849222520113</v>
+      </c>
+      <c r="L12">
+        <v>0.99</v>
+      </c>
+      <c r="M12">
+        <f>6.6317507281457*L12</f>
+        <v>6.56543322086424</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B13" s="1">
         <v>6.6317507281457</v>
       </c>
-      <c r="C11">
+      <c r="C13">
         <v>-9.36446125</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D13" s="7">
         <f t="shared" si="1"/>
         <v>-9.34298510923149</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E13" s="7">
         <v>0.766066</v>
       </c>
-      <c r="F11">
+      <c r="F13">
         <v>0.0214761407685137</v>
       </c>
-      <c r="G11">
+      <c r="G13">
         <v>0.0208237304654679</v>
       </c>
-      <c r="H11">
+      <c r="H13">
         <f t="shared" si="2"/>
         <v>-215.909830428954</v>
       </c>
-      <c r="I11">
+      <c r="I13">
         <f t="shared" si="3"/>
         <v>-1.23335643431639</v>
       </c>
-      <c r="L11">
+      <c r="L13">
         <v>0.98</v>
       </c>
-      <c r="M11">
-        <f t="shared" si="0"/>
+      <c r="M13">
+        <f>6.6317507281457*L13</f>
         <v>6.49911571358279</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
-      <c r="A12" t="s">
+    <row r="14" spans="1:13">
+      <c r="A14" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B14" s="1">
         <v>6.56543322086424</v>
       </c>
-      <c r="C12">
+      <c r="C14">
         <v>-9.36401425</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D14" s="7">
         <f t="shared" si="1"/>
         <v>-9.3425189263749</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E14" s="7">
         <v>1.209655</v>
       </c>
-      <c r="F12">
+      <c r="F14">
         <v>0.0214953236250955</v>
       </c>
-      <c r="G12">
+      <c r="G14">
         <v>0.0208437353704383</v>
       </c>
-      <c r="H12">
+      <c r="H14">
         <f t="shared" si="2"/>
         <v>-215.899524262735</v>
       </c>
-      <c r="I12">
+      <c r="I14">
         <f t="shared" si="3"/>
         <v>-1.22305026809653</v>
       </c>
-      <c r="L12">
+      <c r="L14">
         <v>0.97</v>
       </c>
-      <c r="M12">
-        <f t="shared" si="0"/>
+      <c r="M14">
+        <f>6.6317507281457*L14</f>
         <v>6.43279820630133</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
-      <c r="A13" t="s">
+    <row r="15" spans="1:13">
+      <c r="A15" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B15" s="1">
         <v>6.49911571358279</v>
       </c>
-      <c r="C13">
+      <c r="C15">
         <v>-9.363318</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D15" s="7">
         <f t="shared" si="1"/>
         <v>-9.34181344827522</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E15" s="7">
         <v>1.650845</v>
       </c>
-      <c r="F13">
+      <c r="F15">
         <v>0.0215045517247771</v>
       </c>
-      <c r="G13">
+      <c r="G15">
         <v>0.0208632790939217</v>
       </c>
-      <c r="H13">
+      <c r="H15">
         <f t="shared" si="2"/>
         <v>-215.883471313673</v>
       </c>
-      <c r="I13">
+      <c r="I15">
         <f t="shared" si="3"/>
         <v>-1.20699731903488</v>
       </c>
-      <c r="L13">
+      <c r="L15">
         <v>0.96</v>
       </c>
-      <c r="M13">
-        <f t="shared" si="0"/>
+      <c r="M15">
+        <f>6.6317507281457*L15</f>
         <v>6.36648069901987</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
-      <c r="A14" t="s">
+    <row r="16" spans="1:13">
+      <c r="A16" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B16" s="1">
         <v>6.43279820630133</v>
       </c>
-      <c r="C14">
+      <c r="C16">
         <v>-9.36232725</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D16" s="7">
         <f t="shared" si="1"/>
         <v>-9.34080128378352</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E16" s="7">
         <v>2.184954</v>
       </c>
-      <c r="F14">
+      <c r="F16">
         <v>0.0215259662164836</v>
       </c>
-      <c r="G14">
+      <c r="G16">
         <v>0.0208786517777622</v>
       </c>
-      <c r="H14">
+      <c r="H16">
         <f t="shared" si="2"/>
         <v>-215.860628284182</v>
       </c>
-      <c r="I14">
+      <c r="I16">
         <f t="shared" si="3"/>
         <v>-1.18415428954427</v>
       </c>
-      <c r="J14">
+      <c r="J16">
         <v>0.95</v>
       </c>
-      <c r="K14">
-        <f t="shared" ref="K14:K25" si="4">6.72574231244026*J14</f>
+      <c r="K16">
+        <f t="shared" ref="K16:K27" si="4">6.72574231244026*J16</f>
         <v>6.38945519681825</v>
       </c>
-      <c r="L14">
+      <c r="L16">
         <v>0.95</v>
       </c>
-      <c r="M14">
-        <f t="shared" si="0"/>
+      <c r="M16">
+        <f>6.6317507281457*L16</f>
         <v>6.30016319173841</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
-      <c r="A15" t="s">
+    <row r="17" spans="1:13">
+      <c r="A17" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B17" s="1">
         <v>6.36648069901987</v>
       </c>
-      <c r="C15">
+      <c r="C17">
         <v>-9.3610255</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D17" s="7">
         <f t="shared" si="1"/>
         <v>-9.33948007495655</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E17" s="7">
         <v>2.81936</v>
       </c>
-      <c r="F15">
+      <c r="F17">
         <v>0.0215454250434452</v>
       </c>
-      <c r="G15">
+      <c r="G17">
         <v>0.0209155631075892</v>
       </c>
-      <c r="H15">
+      <c r="H17">
         <f t="shared" si="2"/>
         <v>-215.830614745308</v>
       </c>
-      <c r="I15">
+      <c r="I17">
         <f t="shared" si="3"/>
         <v>-1.15414075067028</v>
       </c>
-      <c r="J15">
+      <c r="J17">
         <v>0.9</v>
       </c>
-      <c r="K15">
+      <c r="K17">
         <f t="shared" si="4"/>
         <v>6.05316808119623</v>
       </c>
-      <c r="L15">
+      <c r="L17">
         <v>0.94</v>
       </c>
-      <c r="M15">
-        <f t="shared" ref="M15:M25" si="5">6.6317507281457*L15</f>
+      <c r="M17">
+        <f t="shared" ref="M17:M27" si="5">6.6317507281457*L17</f>
         <v>6.23384568445696</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
-      <c r="A16" t="s">
+    <row r="18" spans="1:13">
+      <c r="A18" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B18" s="1">
         <v>6.30016319173841</v>
       </c>
-      <c r="C16">
+      <c r="C18">
         <v>-9.359363</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D18" s="7">
         <f t="shared" si="1"/>
         <v>-9.33780344436616</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E18" s="7">
         <v>3.470399</v>
       </c>
-      <c r="F16">
+      <c r="F18">
         <v>0.02155955563384</v>
       </c>
-      <c r="G16">
+      <c r="G18">
         <v>0.02093910836919</v>
       </c>
-      <c r="H16">
+      <c r="H18">
         <f t="shared" si="2"/>
         <v>-215.792283646113</v>
       </c>
-      <c r="I16">
+      <c r="I18">
         <f t="shared" si="3"/>
         <v>-1.11580965147456</v>
       </c>
-      <c r="J16">
+      <c r="J18">
         <v>0.85</v>
       </c>
-      <c r="K16">
+      <c r="K18">
         <f t="shared" si="4"/>
         <v>5.71688096557422</v>
       </c>
-      <c r="L16">
+      <c r="L18">
         <v>0.93</v>
       </c>
-      <c r="M16">
+      <c r="M18">
         <f t="shared" si="5"/>
         <v>6.1675281771755</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
-      <c r="A17" t="s">
+    <row r="19" spans="1:13">
+      <c r="A19" t="s">
         <v>17</v>
       </c>
-      <c r="B17">
+      <c r="B19">
         <v>6.23384568445696</v>
       </c>
-      <c r="C17">
+      <c r="C19">
         <v>-9.3572985</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D19" s="7">
         <f t="shared" si="1"/>
         <v>-9.33572266567675</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E19" s="7">
         <v>8.313759</v>
       </c>
-      <c r="F17">
+      <c r="F19">
         <v>0.0215758343232551</v>
       </c>
-      <c r="G17">
+      <c r="G19">
         <v>0.0209624503779583</v>
       </c>
-      <c r="H17">
+      <c r="H19">
         <f t="shared" si="2"/>
         <v>-215.744683914209</v>
       </c>
-      <c r="I17">
+      <c r="I19">
         <f t="shared" si="3"/>
         <v>-1.06820991957107</v>
       </c>
-      <c r="J17">
+      <c r="J19">
         <v>0.8</v>
       </c>
-      <c r="K17">
+      <c r="K19">
         <f t="shared" si="4"/>
         <v>5.38059384995221</v>
       </c>
-      <c r="M17">
+      <c r="M19">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
-      <c r="A18" t="s">
+    <row r="20" spans="1:13">
+      <c r="A20" t="s">
         <v>18</v>
       </c>
-      <c r="B18">
+      <c r="B20">
         <v>6.1675281771755</v>
       </c>
-      <c r="C18">
+      <c r="C20">
         <v>-9.35477725</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D20" s="7">
         <f t="shared" si="1"/>
         <v>-9.33318746929334</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E20" s="7">
         <v>16.364584</v>
       </c>
-      <c r="F18">
+      <c r="F20">
         <v>0.0215897807066604</v>
       </c>
-      <c r="G18">
+      <c r="G20">
         <v>0.0209664669130575</v>
       </c>
-      <c r="H18">
+      <c r="H20">
         <f t="shared" si="2"/>
         <v>-215.686553217158</v>
       </c>
-      <c r="I18">
+      <c r="I20">
         <f t="shared" si="3"/>
         <v>-1.01007922252012</v>
       </c>
-      <c r="J18">
+      <c r="J20">
         <v>0.75</v>
       </c>
-      <c r="K18">
+      <c r="K20">
         <f t="shared" si="4"/>
         <v>5.04430673433019</v>
       </c>
-      <c r="L18">
+      <c r="L20">
         <v>0.75</v>
       </c>
-      <c r="M18">
+      <c r="M20">
         <f t="shared" si="5"/>
         <v>4.97381304610928</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
-      <c r="A19" t="s">
+    <row r="21" spans="1:13">
+      <c r="A21" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B21" s="1">
         <v>5.96857565533113</v>
       </c>
-      <c r="C19">
+      <c r="C21">
         <v>-9.3439195</v>
       </c>
-      <c r="D19" s="7">
-        <f t="shared" ref="D19:D30" si="6">C19+F19</f>
+      <c r="D21" s="7">
+        <f t="shared" ref="D21:D32" si="6">C21+F21</f>
         <v>-9.3439195</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E21" s="7">
         <v>29.162834</v>
       </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="H19">
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="H21">
         <f t="shared" si="2"/>
         <v>-215.436213672922</v>
       </c>
-      <c r="J19">
+      <c r="J21">
         <v>0.7</v>
       </c>
-      <c r="K19">
+      <c r="K21">
         <f t="shared" si="4"/>
         <v>4.70801961870818</v>
       </c>
-      <c r="L19">
+      <c r="L21">
         <v>0.7</v>
       </c>
-      <c r="M19">
+      <c r="M21">
         <f t="shared" si="5"/>
         <v>4.64222550970199</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
-      <c r="A20" t="s">
+    <row r="22" spans="1:13">
+      <c r="A22" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B22" s="1">
         <v>5.63698811892385</v>
       </c>
-      <c r="C20">
+      <c r="C22">
         <v>-9.31057675</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D22" s="7">
         <f t="shared" si="6"/>
         <v>-9.31057675</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E22" s="7">
         <v>49.590418</v>
       </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="H20">
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="H22">
         <f t="shared" si="2"/>
         <v>-214.667453217158</v>
       </c>
-      <c r="J20">
+      <c r="J22">
         <v>0.65</v>
       </c>
-      <c r="K20">
+      <c r="K22">
         <f t="shared" si="4"/>
         <v>4.37173250308617</v>
       </c>
-      <c r="L20">
+      <c r="L22">
         <v>0.65</v>
       </c>
-      <c r="M20">
+      <c r="M22">
         <f t="shared" si="5"/>
         <v>4.31063797329471</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
-      <c r="A21" t="s">
+    <row r="23" spans="1:13">
+      <c r="A23" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B23" s="1">
         <v>5.30540058251656</v>
       </c>
-      <c r="C21">
+      <c r="C23">
         <v>-9.2470915</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D23" s="7">
         <f t="shared" si="6"/>
         <v>-9.2470915</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E23" s="7">
         <v>81.795232</v>
       </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="H21">
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="H23">
         <f t="shared" si="2"/>
         <v>-213.203718230563</v>
       </c>
-      <c r="J21">
+      <c r="J23">
         <v>0.6</v>
       </c>
-      <c r="K21">
+      <c r="K23">
         <f t="shared" si="4"/>
         <v>4.03544538746416</v>
       </c>
-      <c r="L21">
+      <c r="L23">
         <v>0.6</v>
       </c>
-      <c r="M21">
+      <c r="M23">
         <f t="shared" si="5"/>
         <v>3.97905043688742</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
-      <c r="A22" t="s">
+    <row r="24" spans="1:13">
+      <c r="A24" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B24" s="1">
         <v>4.97381304610928</v>
       </c>
-      <c r="C22">
+      <c r="C24">
         <v>-9.13348925</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D24" s="7">
         <f t="shared" si="6"/>
         <v>-9.13348925</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E24" s="7">
         <v>126.264436</v>
       </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="H22">
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="H24">
         <f t="shared" si="2"/>
         <v>-210.584470643432</v>
       </c>
-      <c r="J22">
+      <c r="J24">
         <v>0.55</v>
       </c>
-      <c r="K22">
+      <c r="K24">
         <f t="shared" si="4"/>
         <v>3.69915827184214</v>
       </c>
-      <c r="L22">
+      <c r="L24">
         <v>0.55</v>
       </c>
-      <c r="M22">
+      <c r="M24">
         <f t="shared" si="5"/>
         <v>3.64746290048014</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
-      <c r="A23" t="s">
+    <row r="25" spans="1:13">
+      <c r="A25" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B25" s="1">
         <v>4.64222550970199</v>
       </c>
-      <c r="C23">
+      <c r="C25">
         <v>-8.9380785</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D25" s="7">
         <f t="shared" si="6"/>
         <v>-8.9380785</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E25" s="7">
         <v>184.537527</v>
       </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="H23">
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="H25">
         <f t="shared" si="2"/>
         <v>-206.079021715818</v>
       </c>
-      <c r="J23">
+      <c r="J25">
         <v>0.5</v>
       </c>
-      <c r="K23">
+      <c r="K25">
         <f t="shared" si="4"/>
         <v>3.36287115622013</v>
       </c>
-      <c r="L23">
+      <c r="L25">
         <v>0.500000000000001</v>
       </c>
-      <c r="M23">
+      <c r="M25">
         <f t="shared" si="5"/>
         <v>3.31587536407286</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
-      <c r="A24" t="s">
+    <row r="26" spans="1:13">
+      <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B26" s="1">
         <v>4.31063797329471</v>
       </c>
-      <c r="C24">
+      <c r="C26">
         <v>-8.63161825</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D26" s="7">
         <f t="shared" si="6"/>
         <v>-8.63161825</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E26" s="7">
         <v>278.177108</v>
       </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="H24">
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="H26">
         <f t="shared" si="2"/>
         <v>-199.013182171582</v>
       </c>
-      <c r="J24">
+      <c r="J26">
         <v>0.45</v>
       </c>
-      <c r="K24">
+      <c r="K26">
         <f t="shared" si="4"/>
         <v>3.02658404059812</v>
       </c>
-      <c r="L24">
+      <c r="L26">
         <v>0.450000000000001</v>
       </c>
-      <c r="M24">
+      <c r="M26">
         <f t="shared" si="5"/>
         <v>2.98428782766557</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
-      <c r="A25" t="s">
+    <row r="27" spans="1:13">
+      <c r="A27" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B27" s="1">
         <v>3.97905043688742</v>
       </c>
-      <c r="C25">
+      <c r="C27">
         <v>-8.18573275</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D27" s="7">
         <f t="shared" si="6"/>
         <v>-8.18573275</v>
       </c>
-      <c r="E25" s="7">
+      <c r="E27" s="7">
         <v>410.94174</v>
       </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-      <c r="H25">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="H27">
         <f t="shared" si="2"/>
         <v>-188.732712198391</v>
       </c>
-      <c r="J25">
+      <c r="J27">
         <v>0.399999999999999</v>
       </c>
-      <c r="K25">
+      <c r="K27">
         <f t="shared" si="4"/>
         <v>2.6902969249761</v>
       </c>
-      <c r="L25">
+      <c r="L27">
         <v>0.400000000000001</v>
       </c>
-      <c r="M25">
+      <c r="M27">
         <f t="shared" si="5"/>
         <v>2.65270029125829</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
-      <c r="A26" t="s">
+    <row r="28" spans="1:8">
+      <c r="A28" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B28" s="1">
         <v>3.64746290048014</v>
       </c>
-      <c r="C26">
+      <c r="C28">
         <v>-7.534209</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D28" s="7">
         <f t="shared" si="6"/>
         <v>-7.534209</v>
       </c>
-      <c r="E26">
+      <c r="E28">
         <v>515.291824</v>
       </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-      <c r="H26">
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="H28">
         <f t="shared" si="2"/>
         <v>-173.710984986595</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
-      <c r="A27" t="s">
+    <row r="29" spans="1:8">
+      <c r="A29" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B29" s="1">
         <v>3.31587536407285</v>
       </c>
-      <c r="C27">
+      <c r="C29">
         <v>-6.56529875</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D29" s="7">
         <f t="shared" si="6"/>
         <v>-6.56529875</v>
       </c>
-      <c r="E27">
+      <c r="E29">
         <v>765.428943</v>
       </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
-      <c r="H27">
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="H29">
         <f t="shared" si="2"/>
         <v>-151.371499329759</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
-      <c r="A28" t="s">
+    <row r="30" spans="1:8">
+      <c r="A30" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B30" s="1">
         <v>2.98428782766557</v>
       </c>
-      <c r="C28">
+      <c r="C30">
         <v>-5.3080285</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D30" s="7">
         <f t="shared" si="6"/>
         <v>-5.3080285</v>
       </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28" s="1">
-        <v>0</v>
-      </c>
-      <c r="H28">
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0</v>
+      </c>
+      <c r="H30">
         <f t="shared" si="2"/>
         <v>-122.383498927614</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
-      <c r="A29" t="s">
+    <row r="31" spans="1:8">
+      <c r="A31" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B31" s="1">
         <v>2.65270029125828</v>
       </c>
-      <c r="C29">
+      <c r="C31">
         <v>-3.53590775</v>
       </c>
-      <c r="D29" s="7">
+      <c r="D31" s="7">
         <f t="shared" si="6"/>
         <v>-3.53590775</v>
       </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29" s="1">
-        <v>0</v>
-      </c>
-      <c r="H29">
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0</v>
+      </c>
+      <c r="H31">
         <f t="shared" si="2"/>
         <v>-81.5249508042895</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
-      <c r="A30" t="s">
-        <v>35</v>
-      </c>
-      <c r="C30">
+    <row r="32" spans="1:8">
+      <c r="A32" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32">
         <v>-9.310968</v>
       </c>
-      <c r="D30" s="7">
+      <c r="D32" s="7">
         <f t="shared" si="6"/>
         <v>-9.2921861209303</v>
       </c>
-      <c r="F30">
+      <c r="F32">
         <v>0.0187818790697002</v>
       </c>
-      <c r="H30">
-        <f>C30/2.611E+22*6.02E+23</f>
+      <c r="H32">
+        <f>C32/2.611E+22*6.02E+23</f>
         <v>-214.676473994638</v>
       </c>
     </row>
-    <row r="35" spans="2:3">
-      <c r="B35" s="2">
+    <row r="37" spans="2:3">
+      <c r="B37" s="2">
         <v>-37.453385</v>
       </c>
-      <c r="C35">
-        <f>B35/4</f>
+      <c r="C37">
+        <f>B37/4</f>
         <v>-9.36334625</v>
       </c>
     </row>
-    <row r="36" spans="2:3">
-      <c r="B36" s="2">
+    <row r="38" spans="2:3">
+      <c r="B38" s="2">
         <v>-37.450887</v>
       </c>
-      <c r="C36">
-        <f>B36/4</f>
+      <c r="C38">
+        <f>B38/4</f>
         <v>-9.36272175</v>
       </c>
     </row>
@@ -8239,7 +8285,7 @@
   <sheetPr/>
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
@@ -8259,37 +8305,37 @@
     <row r="1" spans="1:12">
       <c r="A1" s="5"/>
       <c r="B1" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="L1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -8902,40 +8948,40 @@
   <sheetData>
     <row r="1" spans="2:21">
       <c r="B1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="N1">
         <v>4</v>
       </c>
       <c r="O1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P1">
         <v>2</v>
@@ -8960,16 +9006,16 @@
       <c r="D2" s="2"/>
       <c r="F2" s="2"/>
       <c r="L2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="N2">
         <v>4</v>
       </c>
       <c r="O2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P2">
         <v>2</v>
@@ -8992,16 +9038,16 @@
     </row>
     <row r="3" spans="1:21">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C3">
         <v>4</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -9022,16 +9068,16 @@
         <v>482660.6238</v>
       </c>
       <c r="L3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="N3">
         <v>4</v>
       </c>
       <c r="O3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P3">
         <v>2</v>
@@ -9054,16 +9100,16 @@
     </row>
     <row r="4" spans="1:21">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C4">
         <v>4</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -9084,16 +9130,16 @@
         <v>970759.5956</v>
       </c>
       <c r="L4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="N4">
         <v>4</v>
       </c>
       <c r="O4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P4">
         <v>2</v>
@@ -9116,16 +9162,16 @@
     </row>
     <row r="5" spans="1:21">
       <c r="A5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -9140,19 +9186,19 @@
         <v>0.001</v>
       </c>
       <c r="I5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="N5">
         <v>4</v>
       </c>
       <c r="O5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P5">
         <v>2</v>
@@ -9175,16 +9221,16 @@
     </row>
     <row r="6" spans="1:21">
       <c r="A6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C6">
         <v>4</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -9199,19 +9245,19 @@
         <v>0.001</v>
       </c>
       <c r="I6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="N6">
         <v>4</v>
       </c>
       <c r="O6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P6">
         <v>2</v>
@@ -9234,16 +9280,16 @@
     </row>
     <row r="7" spans="1:21">
       <c r="A7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C7">
         <v>4</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -9258,19 +9304,19 @@
         <v>0.001</v>
       </c>
       <c r="I7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="L7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="N7">
         <v>4</v>
       </c>
       <c r="O7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P7">
         <v>2</v>
@@ -9293,16 +9339,16 @@
     </row>
     <row r="8" spans="1:21">
       <c r="A8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C8">
         <v>4</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -9317,19 +9363,19 @@
         <v>0.001</v>
       </c>
       <c r="I8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N8">
         <v>4</v>
       </c>
       <c r="O8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P8">
         <v>2</v>
@@ -9352,16 +9398,16 @@
     </row>
     <row r="9" spans="1:21">
       <c r="A9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B9" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C9">
         <v>4</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -9376,19 +9422,19 @@
         <v>0.001</v>
       </c>
       <c r="I9" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M9" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="N9">
         <v>4</v>
       </c>
       <c r="O9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P9">
         <v>2</v>
@@ -9411,16 +9457,16 @@
     </row>
     <row r="10" spans="1:21">
       <c r="A10" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B10" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C10">
         <v>4</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -9435,19 +9481,19 @@
         <v>0.001</v>
       </c>
       <c r="I10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="L10" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M10" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="N10">
         <v>4</v>
       </c>
       <c r="O10" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P10">
         <v>2</v>
@@ -9470,16 +9516,16 @@
     </row>
     <row r="11" spans="1:21">
       <c r="A11" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B11" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C11">
         <v>4</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -9494,19 +9540,19 @@
         <v>0.001</v>
       </c>
       <c r="I11" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L11" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M11" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="N11">
         <v>4</v>
       </c>
       <c r="O11" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P11">
         <v>2</v>
@@ -9529,16 +9575,16 @@
     </row>
     <row r="12" spans="1:21">
       <c r="A12" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B12" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C12">
         <v>4</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -9553,19 +9599,19 @@
         <v>0.001</v>
       </c>
       <c r="I12" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L12" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M12" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="N12">
         <v>4</v>
       </c>
       <c r="O12" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P12">
         <v>2</v>
@@ -9588,16 +9634,16 @@
     </row>
     <row r="13" spans="1:21">
       <c r="A13" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B13" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C13">
         <v>4</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -9612,19 +9658,19 @@
         <v>0.001</v>
       </c>
       <c r="I13" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L13" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M13" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="N13">
         <v>4</v>
       </c>
       <c r="O13" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P13">
         <v>2</v>
@@ -9647,16 +9693,16 @@
     </row>
     <row r="14" spans="1:21">
       <c r="A14" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B14" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C14">
         <v>4</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E14">
         <v>2</v>
@@ -9671,19 +9717,19 @@
         <v>0.001</v>
       </c>
       <c r="I14" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L14" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M14" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="N14">
         <v>4</v>
       </c>
       <c r="O14" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P14">
         <v>2</v>
@@ -9706,16 +9752,16 @@
     </row>
     <row r="15" spans="1:21">
       <c r="A15" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B15" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C15">
         <v>4</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E15">
         <v>2</v>
@@ -9730,19 +9776,19 @@
         <v>0.001</v>
       </c>
       <c r="I15" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L15" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M15" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="N15">
         <v>4</v>
       </c>
       <c r="O15" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P15">
         <v>2</v>
@@ -9765,16 +9811,16 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B16" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C16">
         <v>4</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E16">
         <v>2</v>
@@ -9789,21 +9835,21 @@
         <v>0.001</v>
       </c>
       <c r="I16" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B17" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C17">
         <v>4</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -9818,7 +9864,7 @@
         <v>0.001</v>
       </c>
       <c r="I17" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="4:6">
@@ -10051,66 +10097,66 @@
   <sheetData>
     <row r="1" spans="2:20">
       <c r="B1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1" t="s">
+        <v>55</v>
+      </c>
+      <c r="M1" t="s">
         <v>49</v>
       </c>
-      <c r="E1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="N1" t="s">
         <v>50</v>
       </c>
-      <c r="G1" t="s">
+      <c r="O1" t="s">
         <v>51</v>
       </c>
-      <c r="H1" t="s">
+      <c r="P1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q1" t="s">
         <v>52</v>
       </c>
-      <c r="I1" t="s">
+      <c r="R1" t="s">
         <v>53</v>
       </c>
-      <c r="M1" t="s">
-        <v>47</v>
-      </c>
-      <c r="N1" t="s">
-        <v>48</v>
-      </c>
-      <c r="O1" t="s">
-        <v>49</v>
-      </c>
-      <c r="P1" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>50</v>
-      </c>
-      <c r="R1" t="s">
-        <v>51</v>
-      </c>
       <c r="S1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:21">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C3">
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -10131,16 +10177,16 @@
         <v>18.1605</v>
       </c>
       <c r="L3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="N3">
         <v>4</v>
       </c>
       <c r="O3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P3">
         <v>2</v>
@@ -10163,16 +10209,16 @@
     </row>
     <row r="4" spans="1:21">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C4">
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -10193,16 +10239,16 @@
         <v>28.8197</v>
       </c>
       <c r="L4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="N4">
         <v>4</v>
       </c>
       <c r="O4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P4">
         <v>2</v>
@@ -10225,16 +10271,16 @@
     </row>
     <row r="5" spans="1:21">
       <c r="A5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -10255,16 +10301,16 @@
         <v>34.1747</v>
       </c>
       <c r="L5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="N5">
         <v>4</v>
       </c>
       <c r="O5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P5">
         <v>2</v>
@@ -10287,16 +10333,16 @@
     </row>
     <row r="6" spans="1:21">
       <c r="A6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C6">
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -10317,16 +10363,16 @@
         <v>36.1374</v>
       </c>
       <c r="L6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="N6">
         <v>4</v>
       </c>
       <c r="O6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P6">
         <v>2</v>
@@ -10349,16 +10395,16 @@
     </row>
     <row r="7" spans="1:21">
       <c r="A7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C7">
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -10379,16 +10425,16 @@
         <v>70.2939</v>
       </c>
       <c r="L7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="N7">
         <v>4</v>
       </c>
       <c r="O7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P7">
         <v>2</v>
@@ -10411,16 +10457,16 @@
     </row>
     <row r="8" spans="1:21">
       <c r="A8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C8">
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -10441,16 +10487,16 @@
         <v>71.9524</v>
       </c>
       <c r="L8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="N8">
         <v>4</v>
       </c>
       <c r="O8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P8">
         <v>2</v>
@@ -10473,16 +10519,16 @@
     </row>
     <row r="9" spans="1:21">
       <c r="A9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B9" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C9">
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -10503,16 +10549,16 @@
         <v>122.1317</v>
       </c>
       <c r="L9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M9" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="N9">
         <v>4</v>
       </c>
       <c r="O9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P9">
         <v>2</v>
@@ -10535,16 +10581,16 @@
     </row>
     <row r="10" spans="1:21">
       <c r="A10" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B10" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C10">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -10565,16 +10611,16 @@
         <v>123.3252</v>
       </c>
       <c r="L10" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M10" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N10">
         <v>4</v>
       </c>
       <c r="O10" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P10">
         <v>2</v>
@@ -10597,16 +10643,16 @@
     </row>
     <row r="11" spans="1:21">
       <c r="A11" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B11" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C11">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -10627,16 +10673,16 @@
         <v>124.914</v>
       </c>
       <c r="L11" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M11" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="N11">
         <v>4</v>
       </c>
       <c r="O11" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P11">
         <v>2</v>
@@ -10659,16 +10705,16 @@
     </row>
     <row r="12" spans="1:21">
       <c r="A12" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B12" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C12">
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -10689,16 +10735,16 @@
         <v>126.2395</v>
       </c>
       <c r="L12" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M12" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="N12">
         <v>4</v>
       </c>
       <c r="O12" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P12">
         <v>2</v>
@@ -10721,16 +10767,16 @@
     </row>
     <row r="13" spans="1:21">
       <c r="A13" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B13" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C13">
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -10751,16 +10797,16 @@
         <v>126.7795</v>
       </c>
       <c r="L13" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M13" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="N13">
         <v>4</v>
       </c>
       <c r="O13" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P13">
         <v>2</v>
@@ -10783,16 +10829,16 @@
     </row>
     <row r="14" spans="1:21">
       <c r="A14" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B14" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C14">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E14">
         <v>2</v>
@@ -10813,16 +10859,16 @@
         <v>126.7898</v>
       </c>
       <c r="L14" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M14" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="N14">
         <v>4</v>
       </c>
       <c r="O14" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P14">
         <v>2</v>
@@ -10845,16 +10891,16 @@
     </row>
     <row r="15" spans="1:21">
       <c r="A15" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B15" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C15">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E15">
         <v>2</v>
@@ -10875,16 +10921,16 @@
         <v>128.7828</v>
       </c>
       <c r="L15" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M15" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="N15">
         <v>4</v>
       </c>
       <c r="O15" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P15">
         <v>2</v>
@@ -10907,16 +10953,16 @@
     </row>
     <row r="16" spans="1:21">
       <c r="A16" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B16" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C16">
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E16">
         <v>2</v>
@@ -10937,16 +10983,16 @@
         <v>139.6101</v>
       </c>
       <c r="L16" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M16" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="N16">
         <v>4</v>
       </c>
       <c r="O16" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P16">
         <v>2</v>
@@ -10969,16 +11015,16 @@
     </row>
     <row r="17" spans="1:21">
       <c r="A17" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B17" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C17">
         <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -10999,16 +11045,16 @@
         <v>173.5574</v>
       </c>
       <c r="L17" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M17" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="N17">
         <v>4</v>
       </c>
       <c r="O17" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P17">
         <v>2</v>
@@ -11058,19 +11104,19 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B1">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D1" s="2">
         <v>-37.198963</v>
       </c>
       <c r="E1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F1" s="2">
         <v>-37.198963</v>
@@ -11079,7 +11125,7 @@
         <v>7</v>
       </c>
       <c r="H1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I1">
         <f t="shared" ref="I1:I9" si="0">F1/4</f>
@@ -11088,19 +11134,19 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D2" s="2">
         <v>-37.213084</v>
       </c>
       <c r="E2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F2" s="2">
         <v>-37.213084</v>
@@ -11109,7 +11155,7 @@
         <v>7</v>
       </c>
       <c r="H2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I2">
         <f t="shared" si="0"/>
@@ -11118,19 +11164,19 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D3" s="2">
         <v>-37.221192</v>
       </c>
       <c r="E3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F3" s="2">
         <v>-37.221192</v>
@@ -11139,7 +11185,7 @@
         <v>7</v>
       </c>
       <c r="H3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I3">
         <f t="shared" si="0"/>
@@ -11148,19 +11194,19 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D4" s="2">
         <v>-37.221673</v>
       </c>
       <c r="E4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F4" s="2">
         <v>-37.221673</v>
@@ -11169,7 +11215,7 @@
         <v>7</v>
       </c>
       <c r="H4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I4">
         <f t="shared" si="0"/>
@@ -11178,19 +11224,19 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D5" s="2">
         <v>-37.221664</v>
       </c>
       <c r="E5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F5" s="2">
         <v>-37.221664</v>
@@ -11199,7 +11245,7 @@
         <v>7</v>
       </c>
       <c r="H5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I5">
         <f t="shared" si="0"/>
@@ -11208,19 +11254,19 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D6" s="2">
         <v>-37.221032</v>
       </c>
       <c r="E6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F6" s="2">
         <v>-37.221032</v>
@@ -11229,7 +11275,7 @@
         <v>7</v>
       </c>
       <c r="H6" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I6">
         <f t="shared" si="0"/>
@@ -11238,19 +11284,19 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D7" s="2">
         <v>-37.219775</v>
       </c>
       <c r="E7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F7" s="2">
         <v>-37.219775</v>
@@ -11259,7 +11305,7 @@
         <v>7</v>
       </c>
       <c r="H7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I7">
         <f t="shared" si="0"/>
@@ -11268,19 +11314,19 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D8" s="2">
         <v>-37.217743</v>
       </c>
       <c r="E8" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F8" s="2">
         <v>-37.217743</v>
@@ -11289,7 +11335,7 @@
         <v>7</v>
       </c>
       <c r="H8" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I8">
         <f t="shared" si="0"/>
@@ -11298,19 +11344,19 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D9" s="2">
         <v>-37.214844</v>
       </c>
       <c r="E9" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F9" s="2">
         <v>-37.214844</v>
@@ -11319,7 +11365,7 @@
         <v>7</v>
       </c>
       <c r="H9" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I9">
         <f t="shared" si="0"/>
@@ -11328,19 +11374,19 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D10" s="2">
         <v>-37.210978</v>
       </c>
       <c r="E10" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F10" s="2">
         <v>-37.210978</v>
@@ -11349,7 +11395,7 @@
         <v>7</v>
       </c>
       <c r="H10" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I10">
         <f t="shared" ref="I10:I24" si="1">F10/4</f>
@@ -11358,19 +11404,19 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D11" s="2">
         <v>-37.205987</v>
       </c>
       <c r="E11" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F11" s="2">
         <v>-37.205987</v>
@@ -11379,7 +11425,7 @@
         <v>7</v>
       </c>
       <c r="H11" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I11">
         <f t="shared" si="1"/>
@@ -11388,19 +11434,19 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D12" s="2">
         <v>-37.199727</v>
       </c>
       <c r="E12" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F12" s="2">
         <v>-37.199727</v>
@@ -11409,7 +11455,7 @@
         <v>7</v>
       </c>
       <c r="H12" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I12">
         <f t="shared" si="1"/>
@@ -11418,19 +11464,19 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D13" s="2">
         <v>-37.192026</v>
       </c>
       <c r="E13" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F13" s="2">
         <v>-37.192026</v>
@@ -11439,7 +11485,7 @@
         <v>7</v>
       </c>
       <c r="H13" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I13">
         <f t="shared" si="1"/>
@@ -11448,19 +11494,19 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D14" s="2">
         <v>-37.125248</v>
       </c>
       <c r="E14" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F14" s="2">
         <v>-37.125248</v>
@@ -11469,7 +11515,7 @@
         <v>7</v>
       </c>
       <c r="H14" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I14">
         <f t="shared" si="1"/>
@@ -11478,19 +11524,19 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D15" s="2">
         <v>-36.987991</v>
       </c>
       <c r="E15" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F15" s="2">
         <v>-36.987991</v>
@@ -11499,7 +11545,7 @@
         <v>7</v>
       </c>
       <c r="H15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I15">
         <f t="shared" si="1"/>
@@ -11508,19 +11554,19 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D16" s="2">
         <v>-36.737023</v>
       </c>
       <c r="E16" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F16" s="2">
         <v>-36.737023</v>
@@ -11529,7 +11575,7 @@
         <v>7</v>
       </c>
       <c r="H16" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I16">
         <f t="shared" si="1"/>
@@ -11538,19 +11584,19 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D17" s="2">
         <v>-36.306229</v>
       </c>
       <c r="E17" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F17" s="2">
         <v>-36.306229</v>
@@ -11559,7 +11605,7 @@
         <v>7</v>
       </c>
       <c r="H17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I17">
         <f t="shared" si="1"/>
@@ -11568,19 +11614,19 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D18" s="2">
         <v>-35.587047</v>
       </c>
       <c r="E18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F18" s="2">
         <v>-35.587047</v>
@@ -11589,7 +11635,7 @@
         <v>7</v>
       </c>
       <c r="H18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I18">
         <f t="shared" si="1"/>
@@ -11598,19 +11644,19 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D19" s="2">
         <v>-34.443888</v>
       </c>
       <c r="E19" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F19" s="2">
         <v>-34.443888</v>
@@ -11619,7 +11665,7 @@
         <v>7</v>
       </c>
       <c r="H19" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I19">
         <f t="shared" si="1"/>
@@ -11628,19 +11674,19 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D20" s="2">
         <v>-32.739216</v>
       </c>
       <c r="E20" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F20" s="2">
         <v>-32.739216</v>
@@ -11649,7 +11695,7 @@
         <v>7</v>
       </c>
       <c r="H20" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I20">
         <f t="shared" si="1"/>
@@ -11658,19 +11704,19 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D21" s="2">
         <v>-30.244928</v>
       </c>
       <c r="E21" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F21" s="2">
         <v>-30.244928</v>
@@ -11679,7 +11725,7 @@
         <v>7</v>
       </c>
       <c r="H21" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I21">
         <f t="shared" si="1"/>
@@ -11688,19 +11734,19 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D22" s="2">
         <v>-26.487302</v>
       </c>
       <c r="E22" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F22" s="2">
         <v>-26.487302</v>
@@ -11709,7 +11755,7 @@
         <v>7</v>
       </c>
       <c r="H22" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I22">
         <f t="shared" si="1"/>
@@ -11718,19 +11764,19 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D23" s="2">
         <v>-21.520284</v>
       </c>
       <c r="E23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F23" s="2">
         <v>-21.520284</v>
@@ -11739,7 +11785,7 @@
         <v>7</v>
       </c>
       <c r="H23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I23">
         <f t="shared" si="1"/>
@@ -11748,19 +11794,19 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B24">
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D24" s="2">
         <v>-14.619444</v>
       </c>
       <c r="E24" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F24" s="2">
         <v>-14.619444</v>
@@ -11769,7 +11815,7 @@
         <v>7</v>
       </c>
       <c r="H24" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I24">
         <f t="shared" si="1"/>
@@ -11802,7 +11848,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -11826,7 +11872,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -11850,7 +11896,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -11874,7 +11920,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -11898,7 +11944,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -11922,7 +11968,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -11946,7 +11992,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -11970,7 +12016,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -11994,7 +12040,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -12018,7 +12064,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -12042,7 +12088,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -12066,7 +12112,7 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -12090,7 +12136,7 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -12114,7 +12160,7 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -12138,7 +12184,7 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -12162,7 +12208,7 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -12186,7 +12232,7 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -12210,7 +12256,7 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -12234,7 +12280,7 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -12258,7 +12304,7 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -12282,7 +12328,7 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -12306,7 +12352,7 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -12330,7 +12376,7 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -12354,7 +12400,7 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -12378,7 +12424,7 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C25">
         <v>28.9925335</v>
@@ -12422,19 +12468,19 @@
   <sheetData>
     <row r="1" spans="1:21">
       <c r="A1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B1">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D1" s="2">
         <v>-37.198963</v>
       </c>
       <c r="E1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F1" s="2">
         <v>-37.198963</v>
@@ -12443,7 +12489,7 @@
         <v>7</v>
       </c>
       <c r="H1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I1">
         <f>-37.199</f>
@@ -12454,13 +12500,13 @@
         <v>-9.29974075</v>
       </c>
       <c r="L1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="N1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="O1">
         <v>-2.70814</v>
@@ -12487,19 +12533,19 @@
     </row>
     <row r="2" spans="1:21">
       <c r="A2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D2" s="2">
         <v>-37.213084</v>
       </c>
       <c r="E2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F2" s="2">
         <v>-37.213084</v>
@@ -12508,7 +12554,7 @@
         <v>7</v>
       </c>
       <c r="H2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I2">
         <f>-37.2131</f>
@@ -12519,13 +12565,13 @@
         <v>-9.303271</v>
       </c>
       <c r="L2" t="s">
+        <v>141</v>
+      </c>
+      <c r="M2" t="s">
         <v>139</v>
       </c>
-      <c r="M2" t="s">
-        <v>137</v>
-      </c>
       <c r="N2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="O2">
         <v>-3.40202</v>
@@ -12552,19 +12598,19 @@
     </row>
     <row r="3" spans="1:21">
       <c r="A3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D3" s="2">
         <v>-37.221192</v>
       </c>
       <c r="E3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F3" s="2">
         <v>-37.221192</v>
@@ -12573,7 +12619,7 @@
         <v>7</v>
       </c>
       <c r="H3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I3">
         <f>-37.2212</f>
@@ -12584,13 +12630,13 @@
         <v>-9.305298</v>
       </c>
       <c r="L3" t="s">
+        <v>142</v>
+      </c>
+      <c r="M3" t="s">
+        <v>139</v>
+      </c>
+      <c r="N3" t="s">
         <v>140</v>
-      </c>
-      <c r="M3" t="s">
-        <v>137</v>
-      </c>
-      <c r="N3" t="s">
-        <v>138</v>
       </c>
       <c r="O3">
         <v>-4.50753</v>
@@ -12617,19 +12663,19 @@
     </row>
     <row r="4" spans="1:21">
       <c r="A4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D4" s="2">
         <v>-37.221673</v>
       </c>
       <c r="E4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F4" s="2">
         <v>-37.221673</v>
@@ -12638,7 +12684,7 @@
         <v>7</v>
       </c>
       <c r="H4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I4">
         <f>-37.2217</f>
@@ -12649,13 +12695,13 @@
         <v>-9.30541825</v>
       </c>
       <c r="L4" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="M4" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="N4" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="O4">
         <v>-4.78273</v>
@@ -12682,19 +12728,19 @@
     </row>
     <row r="5" spans="1:21">
       <c r="A5" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D5" s="2">
         <v>-37.221664</v>
       </c>
       <c r="E5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F5" s="2">
         <v>-37.221664</v>
@@ -12703,7 +12749,7 @@
         <v>7</v>
       </c>
       <c r="H5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I5">
         <f>-37.2217</f>
@@ -12714,13 +12760,13 @@
         <v>-9.305416</v>
       </c>
       <c r="L5" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="M5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="N5" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="O5">
         <v>-5.08591</v>
@@ -12747,19 +12793,19 @@
     </row>
     <row r="6" spans="1:21">
       <c r="A6" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D6" s="2">
         <v>-37.221032</v>
       </c>
       <c r="E6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F6" s="2">
         <v>-37.221032</v>
@@ -12768,7 +12814,7 @@
         <v>7</v>
       </c>
       <c r="H6" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I6">
         <f>-37.221</f>
@@ -12779,13 +12825,13 @@
         <v>-9.305258</v>
       </c>
       <c r="L6" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="M6" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="N6" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="O6">
         <v>-5.40348</v>
@@ -12812,19 +12858,19 @@
     </row>
     <row r="7" spans="1:21">
       <c r="A7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D7" s="2">
         <v>-37.219775</v>
       </c>
       <c r="E7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F7" s="2">
         <v>-37.219775</v>
@@ -12833,7 +12879,7 @@
         <v>7</v>
       </c>
       <c r="H7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I7">
         <f>-37.2198</f>
@@ -12844,16 +12890,16 @@
         <v>-9.30494375</v>
       </c>
       <c r="K7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="L7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="M7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="N7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="O7">
         <v>-5.75432</v>
@@ -12880,19 +12926,19 @@
     </row>
     <row r="8" spans="1:21">
       <c r="A8" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D8" s="2">
         <v>-37.217743</v>
       </c>
       <c r="E8" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F8" s="2">
         <v>-37.217743</v>
@@ -12901,7 +12947,7 @@
         <v>7</v>
       </c>
       <c r="H8" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I8">
         <f>-37.2177</f>
@@ -12912,13 +12958,13 @@
         <v>-9.30443575</v>
       </c>
       <c r="L8" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M8" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="N8" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="O8">
         <v>-6.11871</v>
@@ -12945,19 +12991,19 @@
     </row>
     <row r="9" spans="1:21">
       <c r="A9" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D9" s="2">
         <v>-37.214844</v>
       </c>
       <c r="E9" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F9" s="2">
         <v>-37.214844</v>
@@ -12966,7 +13012,7 @@
         <v>7</v>
       </c>
       <c r="H9" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I9">
         <f>-37.2148</f>
@@ -12977,13 +13023,13 @@
         <v>-9.303711</v>
       </c>
       <c r="L9" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="M9" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="N9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="O9">
         <v>-6.54105</v>
@@ -13010,19 +13056,19 @@
     </row>
     <row r="10" spans="1:21">
       <c r="A10" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D10" s="2">
         <v>-37.210978</v>
       </c>
       <c r="E10" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F10" s="2">
         <v>-37.210978</v>
@@ -13031,7 +13077,7 @@
         <v>7</v>
       </c>
       <c r="H10" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I10">
         <f>-37.211</f>
@@ -13042,13 +13088,13 @@
         <v>-9.3027445</v>
       </c>
       <c r="L10" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M10" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="N10" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="O10">
         <v>-6.92346</v>
@@ -13075,19 +13121,19 @@
     </row>
     <row r="11" spans="1:21">
       <c r="A11" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D11" s="2">
         <v>-37.205987</v>
       </c>
       <c r="E11" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F11" s="2">
         <v>-37.205987</v>
@@ -13096,7 +13142,7 @@
         <v>7</v>
       </c>
       <c r="H11" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I11">
         <f>-37.206</f>
@@ -13107,13 +13153,13 @@
         <v>-9.30149675</v>
       </c>
       <c r="L11" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M11" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="N11" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="O11">
         <v>-7.3603</v>
@@ -13140,19 +13186,19 @@
     </row>
     <row r="12" spans="1:21">
       <c r="A12" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D12" s="2">
         <v>-37.199727</v>
       </c>
       <c r="E12" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F12" s="2">
         <v>-37.199727</v>
@@ -13161,7 +13207,7 @@
         <v>7</v>
       </c>
       <c r="H12" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I12">
         <f>-37.1997</f>
@@ -13172,13 +13218,13 @@
         <v>-9.29993175</v>
       </c>
       <c r="L12" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="M12" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="N12" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="O12">
         <v>-7.85094</v>
@@ -13205,19 +13251,19 @@
     </row>
     <row r="13" spans="1:21">
       <c r="A13" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D13" s="2">
         <v>-37.192026</v>
       </c>
       <c r="E13" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F13" s="2">
         <v>-37.192026</v>
@@ -13226,7 +13272,7 @@
         <v>7</v>
       </c>
       <c r="H13" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I13">
         <f>-37.192</f>
@@ -13237,13 +13283,13 @@
         <v>-9.2980065</v>
       </c>
       <c r="L13" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M13" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="N13" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="O13">
         <v>-8.29527</v>
@@ -13270,19 +13316,19 @@
     </row>
     <row r="14" spans="1:21">
       <c r="A14" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D14" s="2">
         <v>-37.125248</v>
       </c>
       <c r="E14" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F14" s="2">
         <v>-37.125248</v>
@@ -13291,7 +13337,7 @@
         <v>7</v>
       </c>
       <c r="H14" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I14">
         <f>-37.1252</f>
@@ -13302,13 +13348,13 @@
         <v>-9.281312</v>
       </c>
       <c r="L14" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="M14" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="N14" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="O14">
         <v>-11.01718</v>
@@ -13335,19 +13381,19 @@
     </row>
     <row r="15" spans="1:21">
       <c r="A15" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D15" s="2">
         <v>-36.987991</v>
       </c>
       <c r="E15" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F15" s="2">
         <v>-36.987991</v>
@@ -13356,7 +13402,7 @@
         <v>7</v>
       </c>
       <c r="H15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I15">
         <f>-36.988</f>
@@ -13367,13 +13413,13 @@
         <v>-9.24699775</v>
       </c>
       <c r="L15" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="M15" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="N15" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="O15">
         <v>-14.16293</v>
@@ -13400,19 +13446,19 @@
     </row>
     <row r="16" spans="1:21">
       <c r="A16" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D16" s="2">
         <v>-36.737023</v>
       </c>
       <c r="E16" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F16" s="2">
         <v>-36.737023</v>
@@ -13421,7 +13467,7 @@
         <v>7</v>
       </c>
       <c r="H16" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I16">
         <f>-36.737</f>
@@ -13432,13 +13478,13 @@
         <v>-9.18425575</v>
       </c>
       <c r="L16" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M16" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="N16" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="O16">
         <v>-17.17197</v>
@@ -13465,19 +13511,19 @@
     </row>
     <row r="17" spans="1:21">
       <c r="A17" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D17" s="2">
         <v>-36.306229</v>
       </c>
       <c r="E17" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F17" s="2">
         <v>-36.306229</v>
@@ -13486,7 +13532,7 @@
         <v>7</v>
       </c>
       <c r="H17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I17">
         <f>-36.3062</f>
@@ -13497,13 +13543,13 @@
         <v>-9.07655725</v>
       </c>
       <c r="L17" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M17" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="N17" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="O17">
         <v>-17.75908</v>
@@ -13530,19 +13576,19 @@
     </row>
     <row r="18" spans="1:21">
       <c r="A18" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D18" s="2">
         <v>-35.587047</v>
       </c>
       <c r="E18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F18" s="2">
         <v>-35.587047</v>
@@ -13551,7 +13597,7 @@
         <v>7</v>
       </c>
       <c r="H18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I18">
         <f>-35.587</f>
@@ -13562,13 +13608,13 @@
         <v>-8.89676175</v>
       </c>
       <c r="L18" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M18" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="N18" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="O18">
         <v>-14.08485</v>
@@ -13595,19 +13641,19 @@
     </row>
     <row r="19" spans="1:21">
       <c r="A19" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D19" s="2">
         <v>-34.443888</v>
       </c>
       <c r="E19" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F19" s="2">
         <v>-34.443888</v>
@@ -13616,7 +13662,7 @@
         <v>7</v>
       </c>
       <c r="H19" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I19">
         <f>-34.4439</f>
@@ -13627,13 +13673,13 @@
         <v>-8.610972</v>
       </c>
       <c r="L19" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M19" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="N19" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="O19">
         <v>-9.69094</v>
@@ -13660,19 +13706,19 @@
     </row>
     <row r="20" spans="1:21">
       <c r="A20" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D20" s="2">
         <v>-32.739216</v>
       </c>
       <c r="E20" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F20" s="2">
         <v>-32.739216</v>
@@ -13681,7 +13727,7 @@
         <v>7</v>
       </c>
       <c r="H20" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I20">
         <f>-32.7392</f>
@@ -13692,13 +13738,13 @@
         <v>-8.184804</v>
       </c>
       <c r="L20" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="M20" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="N20" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="O20">
         <v>62.64671</v>
@@ -13725,19 +13771,19 @@
     </row>
     <row r="21" spans="1:21">
       <c r="A21" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D21" s="2">
         <v>-30.244928</v>
       </c>
       <c r="E21" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F21" s="2">
         <v>-30.244928</v>
@@ -13746,7 +13792,7 @@
         <v>7</v>
       </c>
       <c r="H21" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I21">
         <f>-30.2449</f>
@@ -13757,13 +13803,13 @@
         <v>-7.561232</v>
       </c>
       <c r="L21" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="M21" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="N21" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="O21">
         <v>238.657</v>
@@ -13790,19 +13836,19 @@
     </row>
     <row r="22" spans="1:21">
       <c r="A22" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D22" s="2">
         <v>-26.487302</v>
       </c>
       <c r="E22" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F22" s="2">
         <v>-26.487302</v>
@@ -13811,7 +13857,7 @@
         <v>7</v>
       </c>
       <c r="H22" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I22">
         <f>-26.4873</f>
@@ -13822,13 +13868,13 @@
         <v>-6.6218255</v>
       </c>
       <c r="L22" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="M22" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="N22" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="O22">
         <v>709.01882</v>
@@ -13855,19 +13901,19 @@
     </row>
     <row r="23" spans="1:21">
       <c r="A23" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D23" s="2">
         <v>-21.520284</v>
       </c>
       <c r="E23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F23" s="2">
         <v>-21.520284</v>
@@ -13876,7 +13922,7 @@
         <v>7</v>
       </c>
       <c r="H23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I23">
         <f>-21.5203</f>
@@ -13887,13 +13933,13 @@
         <v>-5.380071</v>
       </c>
       <c r="L23" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="M23" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="N23" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="O23">
         <v>1922.70321</v>
@@ -13920,19 +13966,19 @@
     </row>
     <row r="24" spans="1:21">
       <c r="A24" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B24">
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D24" s="2">
         <v>-14.619444</v>
       </c>
       <c r="E24" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F24" s="2">
         <v>-14.619444</v>
@@ -13941,7 +13987,7 @@
         <v>7</v>
       </c>
       <c r="H24" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I24">
         <f>-14.6194</f>
@@ -13952,13 +13998,13 @@
         <v>-3.654861</v>
       </c>
       <c r="L24" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="M24" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="N24" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="O24">
         <v>3453.20136</v>

--- a/data/data_collection.xlsx
+++ b/data/data_collection.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370" tabRatio="719" activeTab="1"/>
+    <workbookView windowWidth="20385" windowHeight="7950" tabRatio="719" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="data11" sheetId="1" r:id="rId1"/>
@@ -197,7 +197,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174">
   <si>
     <t>C(A)</t>
   </si>
@@ -302,6 +302,15 @@
   </si>
   <si>
     <t>E0(kcal/mol)</t>
+  </si>
+  <si>
+    <t>F0/(kcal/mol)</t>
+  </si>
+  <si>
+    <t>E0 diff</t>
+  </si>
+  <si>
+    <t>F0 diff</t>
   </si>
   <si>
     <t>eqa1</t>
@@ -717,10 +726,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -731,23 +740,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -763,12 +757,20 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -783,8 +785,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -798,54 +809,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -868,6 +831,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
@@ -877,6 +879,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -891,7 +900,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -903,7 +936,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -915,7 +972,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -933,25 +990,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -963,55 +1032,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1023,37 +1050,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1071,7 +1068,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1082,21 +1091,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1124,26 +1118,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1161,9 +1135,20 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1182,151 +1167,175 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3586,8 +3595,8 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="tmp" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh preserveSortFilterLayout="1" nextId="2">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_2" connectionId="11" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+  <queryTableRefresh preserveSortFilterLayout="0" nextId="2">
     <queryTableFields count="1">
       <queryTableField id="1" dataBound="0"/>
     </queryTableFields>
@@ -3596,7 +3605,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_2" connectionId="13" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="0" nextId="10">
     <queryTableFields count="9">
       <queryTableField id="1" dataBound="0"/>
@@ -3614,7 +3623,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_2" connectionId="13" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="0" nextId="10">
     <queryTableFields count="9">
       <queryTableField id="1" dataBound="0"/>
@@ -3650,7 +3659,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="15" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_3" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="0" nextId="7">
     <queryTableFields count="6">
       <queryTableField id="1" dataBound="0"/>
@@ -3665,7 +3674,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_3" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="15" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="0" nextId="7">
     <queryTableFields count="6">
       <queryTableField id="1" dataBound="0"/>
@@ -3690,8 +3699,8 @@
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_2" connectionId="11" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh preserveSortFilterLayout="0" nextId="2">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="tmp" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+  <queryTableRefresh preserveSortFilterLayout="1" nextId="2">
     <queryTableFields count="1">
       <queryTableField id="1" dataBound="0"/>
     </queryTableFields>
@@ -3700,6 +3709,25 @@
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+  <queryTableRefresh preserveSortFilterLayout="0" nextId="11">
+    <queryTableFields count="10">
+      <queryTableField id="1" dataBound="0"/>
+      <queryTableField id="2" dataBound="0"/>
+      <queryTableField id="3" dataBound="0"/>
+      <queryTableField id="4" dataBound="0"/>
+      <queryTableField id="5" dataBound="0"/>
+      <queryTableField id="6" dataBound="0"/>
+      <queryTableField id="7" dataBound="0"/>
+      <queryTableField id="8" dataBound="0"/>
+      <queryTableField id="9" dataBound="0"/>
+      <queryTableField id="10" dataBound="0"/>
+    </queryTableFields>
+  </queryTableRefresh>
+</queryTable>
+</file>
+
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_2" connectionId="10" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="0" nextId="11">
     <queryTableFields count="10">
@@ -3718,27 +3746,8 @@
 </queryTable>
 </file>
 
-<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh preserveSortFilterLayout="0" nextId="11">
-    <queryTableFields count="10">
-      <queryTableField id="1" dataBound="0"/>
-      <queryTableField id="2" dataBound="0"/>
-      <queryTableField id="3" dataBound="0"/>
-      <queryTableField id="4" dataBound="0"/>
-      <queryTableField id="5" dataBound="0"/>
-      <queryTableField id="6" dataBound="0"/>
-      <queryTableField id="7" dataBound="0"/>
-      <queryTableField id="8" dataBound="0"/>
-      <queryTableField id="9" dataBound="0"/>
-      <queryTableField id="10" dataBound="0"/>
-    </queryTableFields>
-  </queryTableRefresh>
-</queryTable>
-</file>
-
 <file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_2" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="0" nextId="11">
     <queryTableFields count="10">
       <queryTableField id="1" dataBound="0"/>
@@ -3757,7 +3766,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_2" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="0" nextId="11">
     <queryTableFields count="10">
       <queryTableField id="1" dataBound="0"/>
@@ -4946,13 +4955,13 @@
         <v>7.734603659</v>
       </c>
       <c r="B1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E1">
         <v>-2.70814</v>
@@ -4978,13 +4987,13 @@
         <v>7.398316544</v>
       </c>
       <c r="B2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E2">
         <v>-3.40202</v>
@@ -5010,13 +5019,13 @@
         <v>7.06202942799999</v>
       </c>
       <c r="B3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C3" t="s">
         <v>142</v>
       </c>
-      <c r="C3" t="s">
-        <v>139</v>
-      </c>
       <c r="D3" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E3">
         <v>-4.50753</v>
@@ -5042,13 +5051,13 @@
         <v>6.99477200493787</v>
       </c>
       <c r="B4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D4" t="s">
         <v>143</v>
-      </c>
-      <c r="C4" t="s">
-        <v>139</v>
-      </c>
-      <c r="D4" t="s">
-        <v>140</v>
       </c>
       <c r="E4">
         <v>-4.78273</v>
@@ -5074,13 +5083,13 @@
         <v>6.92751458181347</v>
       </c>
       <c r="B5" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C5" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D5" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E5">
         <v>-5.08591</v>
@@ -5106,13 +5115,13 @@
         <v>6.86025715868907</v>
       </c>
       <c r="B6" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C6" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D6" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E6">
         <v>-5.40348</v>
@@ -5138,13 +5147,13 @@
         <v>6.79299973556466</v>
       </c>
       <c r="B7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E7">
         <v>-5.75432</v>
@@ -5170,13 +5179,13 @@
         <v>6.72574231244026</v>
       </c>
       <c r="B8" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C8" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D8" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E8">
         <v>-6.11871</v>
@@ -5202,13 +5211,13 @@
         <v>6.65848488931586</v>
       </c>
       <c r="B9" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C9" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D9" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E9">
         <v>-6.54105</v>
@@ -5234,13 +5243,13 @@
         <v>6.59122746619145</v>
       </c>
       <c r="B10" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C10" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D10" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E10">
         <v>-6.92346</v>
@@ -5266,13 +5275,13 @@
         <v>6.52397004306705</v>
       </c>
       <c r="B11" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C11" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D11" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E11">
         <v>-7.3603</v>
@@ -5298,13 +5307,13 @@
         <v>6.45671261994265</v>
       </c>
       <c r="B12" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C12" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D12" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E12">
         <v>-7.85094</v>
@@ -5330,13 +5339,13 @@
         <v>6.389455197</v>
       </c>
       <c r="B13" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C13" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D13" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E13">
         <v>-8.29527</v>
@@ -5362,13 +5371,13 @@
         <v>6.05316808099999</v>
       </c>
       <c r="B14" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C14" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D14" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E14">
         <v>-11.01718</v>
@@ -5394,13 +5403,13 @@
         <v>5.71688096599999</v>
       </c>
       <c r="B15" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C15" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D15" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E15">
         <v>-14.16293</v>
@@ -5426,13 +5435,13 @@
         <v>5.38059385</v>
       </c>
       <c r="B16" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C16" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D16" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E16">
         <v>-17.17197</v>
@@ -5458,13 +5467,13 @@
         <v>5.044306734</v>
       </c>
       <c r="B17" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C17" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D17" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E17">
         <v>-17.75908</v>
@@ -5490,13 +5499,13 @@
         <v>4.70801961899999</v>
       </c>
       <c r="B18" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C18" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D18" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E18">
         <v>-14.08485</v>
@@ -5522,13 +5531,13 @@
         <v>4.37173250299999</v>
       </c>
       <c r="B19" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C19" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D19" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E19">
         <v>-9.69094</v>
@@ -5554,13 +5563,13 @@
         <v>4.035445387</v>
       </c>
       <c r="B20" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C20" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D20" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E20">
         <v>62.64671</v>
@@ -5586,13 +5595,13 @@
         <v>3.69915827100001</v>
       </c>
       <c r="B21" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C21" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D21" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E21">
         <v>238.657</v>
@@ -5618,13 +5627,13 @@
         <v>3.36287115500002</v>
       </c>
       <c r="B22" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C22" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D22" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E22">
         <v>709.01882</v>
@@ -5650,13 +5659,13 @@
         <v>3.02658403900003</v>
       </c>
       <c r="B23" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C23" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D23" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E23">
         <v>1922.70321</v>
@@ -5682,13 +5691,13 @@
         <v>2.69029692300004</v>
       </c>
       <c r="B24" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C24" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D24" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E24">
         <v>3453.20136</v>
@@ -5750,7 +5759,7 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -5772,7 +5781,7 @@
         <v>0.0212973013381394</v>
       </c>
       <c r="J1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="K1">
         <v>300</v>
@@ -5796,7 +5805,7 @@
     </row>
     <row r="2" spans="1:16">
       <c r="A2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -5818,7 +5827,7 @@
         <v>0.0213150838717795</v>
       </c>
       <c r="J2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="K2">
         <v>300</v>
@@ -5842,7 +5851,7 @@
     </row>
     <row r="3" spans="1:16">
       <c r="A3" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -5864,7 +5873,7 @@
         <v>0.0213514365883235</v>
       </c>
       <c r="J3" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="K3">
         <v>300</v>
@@ -5888,7 +5897,7 @@
     </row>
     <row r="4" spans="1:16">
       <c r="A4" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -5910,7 +5919,7 @@
         <v>0.0213704943512894</v>
       </c>
       <c r="J4" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K4">
         <v>300</v>
@@ -5934,7 +5943,7 @@
     </row>
     <row r="5" spans="1:16">
       <c r="A5" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -5956,7 +5965,7 @@
         <v>0.0213854811300705</v>
       </c>
       <c r="J5" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="K5">
         <v>300</v>
@@ -5980,7 +5989,7 @@
     </row>
     <row r="6" spans="1:16">
       <c r="A6" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -6002,7 +6011,7 @@
         <v>0.0214245984414376</v>
       </c>
       <c r="J6" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="K6">
         <v>300</v>
@@ -6026,7 +6035,7 @@
     </row>
     <row r="7" spans="1:16">
       <c r="A7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -6048,7 +6057,7 @@
         <v>0.0214416347213709</v>
       </c>
       <c r="J7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="K7">
         <v>300</v>
@@ -6072,7 +6081,7 @@
     </row>
     <row r="8" spans="1:16">
       <c r="A8" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -6094,7 +6103,7 @@
         <v>0.0214761407685137</v>
       </c>
       <c r="J8" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="K8">
         <v>300</v>
@@ -6118,7 +6127,7 @@
     </row>
     <row r="9" spans="1:16">
       <c r="A9" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -6140,7 +6149,7 @@
         <v>0.0214953236250955</v>
       </c>
       <c r="J9" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="K9">
         <v>300</v>
@@ -6164,7 +6173,7 @@
     </row>
     <row r="10" spans="1:16">
       <c r="A10" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -6186,7 +6195,7 @@
         <v>0.0215045517247771</v>
       </c>
       <c r="J10" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="K10">
         <v>300</v>
@@ -6210,7 +6219,7 @@
     </row>
     <row r="11" spans="1:16">
       <c r="A11" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -6232,7 +6241,7 @@
         <v>0.0215259662164836</v>
       </c>
       <c r="J11" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="K11">
         <v>300</v>
@@ -6256,7 +6265,7 @@
     </row>
     <row r="12" spans="1:16">
       <c r="A12" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -6278,7 +6287,7 @@
         <v>0.0215454250434452</v>
       </c>
       <c r="J12" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="K12">
         <v>300</v>
@@ -6302,7 +6311,7 @@
     </row>
     <row r="13" spans="1:16">
       <c r="A13" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -6324,7 +6333,7 @@
         <v>0.02155955563384</v>
       </c>
       <c r="J13" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="K13">
         <v>300</v>
@@ -6348,7 +6357,7 @@
     </row>
     <row r="14" spans="1:16">
       <c r="A14" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -6370,7 +6379,7 @@
         <v>0.0215758343232551</v>
       </c>
       <c r="J14" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="K14">
         <v>300</v>
@@ -6394,7 +6403,7 @@
     </row>
     <row r="15" spans="1:16">
       <c r="A15" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -6416,7 +6425,7 @@
         <v>0.0215897807066604</v>
       </c>
       <c r="J15" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="K15">
         <v>300</v>
@@ -6440,7 +6449,7 @@
     </row>
     <row r="16" spans="1:16">
       <c r="A16" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -6462,7 +6471,7 @@
         <v>0.00616135745718576</v>
       </c>
       <c r="J16" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="K16">
         <v>300</v>
@@ -6486,7 +6495,7 @@
     </row>
     <row r="17" spans="1:16">
       <c r="A17" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -6508,7 +6517,7 @@
         <v>0.00642130111638179</v>
       </c>
       <c r="J17" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="K17">
         <v>300</v>
@@ -6532,7 +6541,7 @@
     </row>
     <row r="18" spans="1:16">
       <c r="A18" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -6554,7 +6563,7 @@
         <v>0.00668963932810497</v>
       </c>
       <c r="J18" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="K18">
         <v>300</v>
@@ -6578,7 +6587,7 @@
     </row>
     <row r="19" spans="1:16">
       <c r="A19" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -6600,7 +6609,7 @@
         <v>0.00722596664254261</v>
       </c>
       <c r="J19" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K19">
         <v>300</v>
@@ -6624,7 +6633,7 @@
     </row>
     <row r="20" spans="1:16">
       <c r="A20" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -6646,7 +6655,7 @@
         <v>0.00725404306569759</v>
       </c>
       <c r="J20" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="K20">
         <v>300</v>
@@ -6670,7 +6679,7 @@
     </row>
     <row r="21" spans="1:16">
       <c r="A21" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -6692,7 +6701,7 @@
         <v>0.00725404306569759</v>
       </c>
       <c r="J21" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="K21">
         <v>300</v>
@@ -6716,7 +6725,7 @@
     </row>
     <row r="22" spans="1:16">
       <c r="A22" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -6738,7 +6747,7 @@
         <v>0.00725404306569759</v>
       </c>
       <c r="J22" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="K22">
         <v>300</v>
@@ -6762,7 +6771,7 @@
     </row>
     <row r="23" spans="1:16">
       <c r="A23" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -6784,7 +6793,7 @@
         <v>0.00725404306569759</v>
       </c>
       <c r="J23" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="K23">
         <v>300</v>
@@ -6808,7 +6817,7 @@
     </row>
     <row r="24" spans="1:16">
       <c r="A24" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -6830,7 +6839,7 @@
         <v>0.00725404306569759</v>
       </c>
       <c r="J24" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="K24">
         <v>300</v>
@@ -6854,7 +6863,7 @@
     </row>
     <row r="25" spans="1:15">
       <c r="A25" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -6872,7 +6881,7 @@
         <v>22.395319</v>
       </c>
       <c r="J25" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="K25">
         <v>300</v>
@@ -6892,7 +6901,7 @@
     </row>
     <row r="26" spans="1:15">
       <c r="A26" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -6910,7 +6919,7 @@
         <v>22.395319</v>
       </c>
       <c r="J26" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="K26">
         <v>300</v>
@@ -6930,7 +6939,7 @@
     </row>
     <row r="27" spans="1:15">
       <c r="A27" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -6948,7 +6957,7 @@
         <v>72.8132429</v>
       </c>
       <c r="J27" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="K27">
         <v>300</v>
@@ -6968,7 +6977,7 @@
     </row>
     <row r="28" spans="1:15">
       <c r="A28" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -6986,7 +6995,7 @@
         <v>16.0294562</v>
       </c>
       <c r="J28" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="K28">
         <v>300</v>
@@ -7006,7 +7015,7 @@
     </row>
     <row r="29" spans="1:15">
       <c r="A29" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -7024,7 +7033,7 @@
         <v>17.5375936</v>
       </c>
       <c r="J29" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="K29">
         <v>300</v>
@@ -7044,7 +7053,7 @@
     </row>
     <row r="30" spans="1:15">
       <c r="A30" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -7062,7 +7071,7 @@
         <v>18.1291886</v>
       </c>
       <c r="J30" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="K30">
         <v>300</v>
@@ -7095,10 +7104,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:M38"/>
+  <dimension ref="A1:O38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -7106,15 +7115,15 @@
     <col min="2" max="2" width="19.1666666666667" customWidth="1"/>
     <col min="3" max="3" width="12.625"/>
     <col min="4" max="4" width="13.75"/>
-    <col min="5" max="5" width="10.375"/>
+    <col min="5" max="5" width="11.5"/>
     <col min="6" max="6" width="12.625"/>
     <col min="7" max="7" width="21.8333333333333" customWidth="1"/>
-    <col min="8" max="9" width="14.1666666666667" customWidth="1"/>
-    <col min="10" max="11" width="12.625"/>
-    <col min="13" max="13" width="12.625"/>
+    <col min="8" max="11" width="14.1666666666667" customWidth="1"/>
+    <col min="12" max="13" width="12.625"/>
+    <col min="15" max="15" width="12.625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:11">
       <c r="A1" s="4"/>
       <c r="B1" s="4" t="s">
         <v>0</v>
@@ -7137,9 +7146,17 @@
       <c r="H1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="I1" s="4"/>
-    </row>
-    <row r="2" spans="2:13">
+      <c r="I1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="2:15">
       <c r="B2" s="1">
         <v>7.62651333736756</v>
       </c>
@@ -7147,7 +7164,7 @@
         <v>-9.35571075</v>
       </c>
       <c r="D2" s="7">
-        <f>C2+F2</f>
+        <f t="shared" ref="D2:D8" si="0">C2+F2</f>
         <v>-9.35571075</v>
       </c>
       <c r="E2" s="7">
@@ -7159,15 +7176,15 @@
       <c r="G2">
         <v>0</v>
       </c>
-      <c r="L2">
+      <c r="N2">
         <v>1.07</v>
       </c>
-      <c r="M2">
-        <f>6.6317507281457*L2</f>
+      <c r="O2">
+        <f t="shared" ref="O2:O9" si="1">6.6317507281457*N2</f>
         <v>7.0959732791159</v>
       </c>
     </row>
-    <row r="3" spans="2:13">
+    <row r="3" spans="2:15">
       <c r="B3" s="1">
         <v>7.29492580096027</v>
       </c>
@@ -7175,7 +7192,7 @@
         <v>-9.36041425</v>
       </c>
       <c r="D3" s="7">
-        <f>C3+F3</f>
+        <f t="shared" si="0"/>
         <v>-9.36041425</v>
       </c>
       <c r="E3" s="7">
@@ -7187,18 +7204,21 @@
       <c r="G3">
         <v>0</v>
       </c>
-      <c r="I3" s="8">
+      <c r="J3" s="8">
         <v>-214.676473994638</v>
       </c>
-      <c r="L3">
+      <c r="K3" s="8">
+        <v>-214.243433351208</v>
+      </c>
+      <c r="N3">
         <v>1.06</v>
       </c>
-      <c r="M3">
-        <f>6.6317507281457*L3</f>
+      <c r="O3">
+        <f t="shared" si="1"/>
         <v>7.02965577183444</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:15">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -7209,7 +7229,7 @@
         <v>-9.36272175</v>
       </c>
       <c r="D4" s="7">
-        <f>C4+F4</f>
+        <f t="shared" si="0"/>
         <v>-9.34142444866186</v>
       </c>
       <c r="E4" s="7">
@@ -7222,25 +7242,33 @@
         <v>0.0206405764390277</v>
       </c>
       <c r="H4">
-        <f>C4/2.611E+22*6.02*1E+23</f>
+        <f t="shared" ref="H4:H8" si="2">C4/2.611E+22*6.02*1E+23</f>
         <v>-215.869723994638</v>
       </c>
       <c r="I4">
-        <f>H4+214.676473994638</f>
-        <v>-1.19325000000003</v>
+        <f>D4/2.611E+22*6.02*1E+23</f>
+        <v>-215.378687020086</v>
       </c>
       <c r="J4">
+        <f t="shared" ref="J4:J8" si="3">H4+214.676473994638</f>
+        <v>-1.19325000000001</v>
+      </c>
+      <c r="K4">
+        <f>I4+214.243433351208</f>
+        <v>-1.13525366887779</v>
+      </c>
+      <c r="L4">
         <v>0.95</v>
       </c>
-      <c r="L4">
+      <c r="N4">
         <v>1.05</v>
       </c>
-      <c r="M4">
-        <f>6.6317507281457*L4</f>
+      <c r="O4">
+        <f t="shared" si="1"/>
         <v>6.96333826455299</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:15">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -7251,7 +7279,7 @@
         <v>-9.36334625</v>
       </c>
       <c r="D5" s="7">
-        <f>C5+F5</f>
+        <f t="shared" si="0"/>
         <v>-9.34203116612822</v>
       </c>
       <c r="E5" s="7">
@@ -7264,22 +7292,30 @@
         <v>0.02066163725461</v>
       </c>
       <c r="H5">
-        <f>C5/2.611E+22*6.02*1E+23</f>
+        <f t="shared" si="2"/>
         <v>-215.884122654155</v>
       </c>
       <c r="I5">
-        <f>H5+214.676473994638</f>
-        <v>-1.20764865951742</v>
-      </c>
-      <c r="L5">
+        <f t="shared" ref="I5:I20" si="4">D5/2.611E+22*6.02*1E+23</f>
+        <v>-215.392675680168</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="3"/>
+        <v>-1.20764865951699</v>
+      </c>
+      <c r="K5">
+        <f t="shared" ref="K5:K20" si="5">I5+214.243433351208</f>
+        <v>-1.14924232896001</v>
+      </c>
+      <c r="N5">
         <v>1.04</v>
       </c>
-      <c r="M5">
-        <f>6.6317507281457*L5</f>
+      <c r="O5">
+        <f t="shared" si="1"/>
         <v>6.89702075727153</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:15">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -7290,7 +7326,7 @@
         <v>-9.36387875</v>
       </c>
       <c r="D6" s="7">
-        <f>C6+F6</f>
+        <f t="shared" si="0"/>
         <v>-9.34252731341168</v>
       </c>
       <c r="E6" s="7">
@@ -7303,22 +7339,30 @@
         <v>0.0206943201157467</v>
       </c>
       <c r="H6">
-        <f>C6/2.611E+22*6.02*1E+23</f>
+        <f t="shared" si="2"/>
         <v>-215.896400134048</v>
       </c>
       <c r="I6">
-        <f>H6+214.676473994638</f>
-        <v>-1.21992613941021</v>
-      </c>
-      <c r="L6">
+        <f t="shared" si="4"/>
+        <v>-215.404115000913</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="3"/>
+        <v>-1.21992613941001</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="5"/>
+        <v>-1.16068164970457</v>
+      </c>
+      <c r="N6">
         <v>1.03</v>
       </c>
-      <c r="M6">
-        <f>6.6317507281457*L6</f>
+      <c r="O6">
+        <f t="shared" si="1"/>
         <v>6.83070324999007</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:15">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -7329,7 +7373,7 @@
         <v>-9.364291</v>
       </c>
       <c r="D7" s="7">
-        <f>C7+F7</f>
+        <f t="shared" si="0"/>
         <v>-9.34292050564871</v>
       </c>
       <c r="E7" s="7">
@@ -7342,22 +7386,30 @@
         <v>0.0207214062522322</v>
       </c>
       <c r="H7">
-        <f>C7/2.611E+22*6.02*1E+23</f>
+        <f t="shared" si="2"/>
         <v>-215.905905093834</v>
       </c>
       <c r="I7">
-        <f>H7+214.676473994638</f>
-        <v>-1.22943109919572</v>
-      </c>
-      <c r="L7">
+        <f t="shared" si="4"/>
+        <v>-215.413180559193</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="3"/>
+        <v>-1.22943109919601</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="5"/>
+        <v>-1.16974720798473</v>
+      </c>
+      <c r="N7">
         <v>1.025</v>
       </c>
-      <c r="M7">
-        <f>6.6317507281457*L7</f>
+      <c r="O7">
+        <f t="shared" si="1"/>
         <v>6.79754449634934</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:15">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -7368,7 +7420,7 @@
         <v>-9.36458075</v>
       </c>
       <c r="D8" s="7">
-        <f>C8+F8</f>
+        <f t="shared" si="0"/>
         <v>-9.34319526886993</v>
       </c>
       <c r="E8" s="7">
@@ -7381,43 +7433,51 @@
         <v>0.0207224978899954</v>
       </c>
       <c r="H8">
-        <f>C8/2.611E+22*6.02*1E+23</f>
+        <f t="shared" si="2"/>
         <v>-215.912585656836</v>
       </c>
       <c r="I8">
-        <f>H8+214.676473994638</f>
-        <v>-1.2361116621984</v>
+        <f t="shared" si="4"/>
+        <v>-215.419515582524</v>
       </c>
       <c r="J8">
+        <f t="shared" si="3"/>
+        <v>-1.236111662198</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="5"/>
+        <v>-1.1760822313158</v>
+      </c>
+      <c r="L8">
         <f>B12*2</f>
         <v>13.3961364708543</v>
       </c>
-      <c r="L8">
+      <c r="N8">
         <v>1.02</v>
       </c>
-      <c r="M8">
-        <f>6.6317507281457*L8</f>
+      <c r="O8">
+        <f t="shared" si="1"/>
         <v>6.76438574270861</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:15">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B9" s="1">
         <v>6.79754449634934</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
-      <c r="L9">
+      <c r="N9">
         <v>1.015</v>
       </c>
-      <c r="M9">
-        <f>6.6317507281457*L9</f>
+      <c r="O9">
+        <f t="shared" si="1"/>
         <v>6.73122698906788</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:15">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -7445,42 +7505,50 @@
         <v>-215.915778954424</v>
       </c>
       <c r="I10">
+        <f t="shared" si="4"/>
+        <v>-215.421806979634</v>
+      </c>
+      <c r="J10">
         <f>H10+214.676473994638</f>
-        <v>-1.23930495978553</v>
-      </c>
-      <c r="J10">
+        <v>-1.23930495978601</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="5"/>
+        <v>-1.17837362842636</v>
+      </c>
+      <c r="L10">
         <v>1</v>
       </c>
-      <c r="K10">
-        <f>6.72574231244026*J10</f>
+      <c r="M10">
+        <f>6.72574231244026*L10</f>
         <v>6.72574231244026</v>
       </c>
-      <c r="L10">
+      <c r="N10">
         <v>1.01</v>
       </c>
-      <c r="M10">
-        <f t="shared" ref="M10:M16" si="0">6.6317507281457*L10</f>
+      <c r="O10">
+        <f t="shared" ref="O10:O16" si="6">6.6317507281457*N10</f>
         <v>6.69806823542716</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:15">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B11" s="1">
         <v>6.73122698906788</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
-      <c r="L11">
+      <c r="N11">
         <v>1</v>
       </c>
-      <c r="M11">
-        <f>6.6317507281457*L11</f>
+      <c r="O11">
+        <f t="shared" si="6"/>
         <v>6.6317507281457</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:15">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -7491,7 +7559,7 @@
         <v>-9.364684</v>
       </c>
       <c r="D12" s="7">
-        <f t="shared" ref="D12:D20" si="1">C12+F12</f>
+        <f t="shared" ref="D12:D20" si="7">C12+F12</f>
         <v>-9.34324236527863</v>
       </c>
       <c r="E12" s="7">
@@ -7504,22 +7572,30 @@
         <v>0.0207971474890624</v>
       </c>
       <c r="H12">
-        <f t="shared" ref="H12:H31" si="2">C12/2.611E+22*6.02*1E+23</f>
+        <f t="shared" ref="H12:H31" si="8">C12/2.611E+22*6.02*1E+23</f>
         <v>-215.914966219839</v>
       </c>
       <c r="I12">
-        <f t="shared" ref="I12:I20" si="3">H12+214.676473994638</f>
-        <v>-1.23849222520113</v>
-      </c>
-      <c r="L12">
+        <f t="shared" si="4"/>
+        <v>-215.420601451464</v>
+      </c>
+      <c r="J12">
+        <f t="shared" ref="J12:J20" si="9">H12+214.676473994638</f>
+        <v>-1.23849222520099</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="5"/>
+        <v>-1.17716810025632</v>
+      </c>
+      <c r="N12">
         <v>0.99</v>
       </c>
-      <c r="M12">
-        <f>6.6317507281457*L12</f>
+      <c r="O12">
+        <f t="shared" si="6"/>
         <v>6.56543322086424</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:15">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -7530,7 +7606,7 @@
         <v>-9.36446125</v>
       </c>
       <c r="D13" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>-9.34298510923149</v>
       </c>
       <c r="E13" s="7">
@@ -7543,22 +7619,30 @@
         <v>0.0208237304654679</v>
       </c>
       <c r="H13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>-215.909830428954</v>
       </c>
       <c r="I13">
-        <f t="shared" si="3"/>
-        <v>-1.23335643431639</v>
-      </c>
-      <c r="L13">
+        <f t="shared" si="4"/>
+        <v>-215.414670078796</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="9"/>
+        <v>-1.23335643431599</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="5"/>
+        <v>-1.17123672758763</v>
+      </c>
+      <c r="N13">
         <v>0.98</v>
       </c>
-      <c r="M13">
-        <f>6.6317507281457*L13</f>
+      <c r="O13">
+        <f t="shared" si="6"/>
         <v>6.49911571358279</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:15">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -7569,7 +7653,7 @@
         <v>-9.36401425</v>
       </c>
       <c r="D14" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>-9.3425189263749</v>
       </c>
       <c r="E14" s="7">
@@ -7582,22 +7666,30 @@
         <v>0.0208437353704383</v>
       </c>
       <c r="H14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>-215.899524262735</v>
       </c>
       <c r="I14">
-        <f t="shared" si="3"/>
-        <v>-1.22305026809653</v>
-      </c>
-      <c r="L14">
+        <f t="shared" si="4"/>
+        <v>-215.403921626874</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="9"/>
+        <v>-1.22305026809701</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="5"/>
+        <v>-1.16048827566641</v>
+      </c>
+      <c r="N14">
         <v>0.97</v>
       </c>
-      <c r="M14">
-        <f>6.6317507281457*L14</f>
+      <c r="O14">
+        <f t="shared" si="6"/>
         <v>6.43279820630133</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:15">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -7608,7 +7700,7 @@
         <v>-9.363318</v>
       </c>
       <c r="D15" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>-9.34181344827522</v>
       </c>
       <c r="E15" s="7">
@@ -7621,22 +7713,30 @@
         <v>0.0208632790939217</v>
       </c>
       <c r="H15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>-215.883471313673</v>
       </c>
       <c r="I15">
-        <f t="shared" si="3"/>
-        <v>-1.20699731903488</v>
-      </c>
-      <c r="L15">
+        <f t="shared" si="4"/>
+        <v>-215.387655911976</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="9"/>
+        <v>-1.206997319035</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="5"/>
+        <v>-1.14422256076764</v>
+      </c>
+      <c r="N15">
         <v>0.96</v>
       </c>
-      <c r="M15">
-        <f>6.6317507281457*L15</f>
+      <c r="O15">
+        <f t="shared" si="6"/>
         <v>6.36648069901987</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:15">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -7647,7 +7747,7 @@
         <v>-9.36232725</v>
       </c>
       <c r="D16" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>-9.34080128378352</v>
       </c>
       <c r="E16" s="7">
@@ -7660,29 +7760,37 @@
         <v>0.0208786517777622</v>
       </c>
       <c r="H16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>-215.860628284182</v>
       </c>
       <c r="I16">
-        <f t="shared" si="3"/>
-        <v>-1.18415428954427</v>
+        <f t="shared" si="4"/>
+        <v>-215.364319143534</v>
       </c>
       <c r="J16">
-        <v>0.95</v>
+        <f t="shared" si="9"/>
+        <v>-1.18415428954401</v>
       </c>
       <c r="K16">
-        <f t="shared" ref="K16:K27" si="4">6.72574231244026*J16</f>
-        <v>6.38945519681825</v>
+        <f t="shared" si="5"/>
+        <v>-1.12088579232613</v>
       </c>
       <c r="L16">
         <v>0.95</v>
       </c>
       <c r="M16">
-        <f>6.6317507281457*L16</f>
+        <f t="shared" ref="M16:M27" si="10">6.72574231244026*L16</f>
+        <v>6.38945519681825</v>
+      </c>
+      <c r="N16">
+        <v>0.95</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="6"/>
         <v>6.30016319173841</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:15">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -7693,7 +7801,7 @@
         <v>-9.3610255</v>
       </c>
       <c r="D17" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>-9.33948007495655</v>
       </c>
       <c r="E17" s="7">
@@ -7706,29 +7814,37 @@
         <v>0.0209155631075892</v>
       </c>
       <c r="H17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>-215.830614745308</v>
       </c>
       <c r="I17">
-        <f t="shared" si="3"/>
-        <v>-1.15414075067028</v>
+        <f t="shared" si="4"/>
+        <v>-215.333856956103</v>
       </c>
       <c r="J17">
+        <f t="shared" si="9"/>
+        <v>-1.15414075067</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="5"/>
+        <v>-1.09042360489482</v>
+      </c>
+      <c r="L17">
         <v>0.9</v>
       </c>
-      <c r="K17">
-        <f t="shared" si="4"/>
+      <c r="M17">
+        <f t="shared" si="10"/>
         <v>6.05316808119623</v>
       </c>
-      <c r="L17">
+      <c r="N17">
         <v>0.94</v>
       </c>
-      <c r="M17">
-        <f t="shared" ref="M17:M27" si="5">6.6317507281457*L17</f>
+      <c r="O17">
+        <f t="shared" ref="O17:O27" si="11">6.6317507281457*N17</f>
         <v>6.23384568445696</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:15">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -7739,7 +7855,7 @@
         <v>-9.359363</v>
       </c>
       <c r="D18" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>-9.33780344436616</v>
       </c>
       <c r="E18" s="7">
@@ -7752,29 +7868,37 @@
         <v>0.02093910836919</v>
       </c>
       <c r="H18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>-215.792283646113</v>
       </c>
       <c r="I18">
-        <f t="shared" si="3"/>
-        <v>-1.11580965147456</v>
+        <f t="shared" si="4"/>
+        <v>-215.295200057772</v>
       </c>
       <c r="J18">
+        <f t="shared" si="9"/>
+        <v>-1.11580965147499</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="5"/>
+        <v>-1.05176670656402</v>
+      </c>
+      <c r="L18">
         <v>0.85</v>
       </c>
-      <c r="K18">
-        <f t="shared" si="4"/>
+      <c r="M18">
+        <f t="shared" si="10"/>
         <v>5.71688096557422</v>
       </c>
-      <c r="L18">
+      <c r="N18">
         <v>0.93</v>
       </c>
-      <c r="M18">
-        <f t="shared" si="5"/>
+      <c r="O18">
+        <f t="shared" si="11"/>
         <v>6.1675281771755</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:15">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -7785,7 +7909,7 @@
         <v>-9.3572985</v>
       </c>
       <c r="D19" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>-9.33572266567675</v>
       </c>
       <c r="E19" s="7">
@@ -7798,26 +7922,34 @@
         <v>0.0209624503779583</v>
       </c>
       <c r="H19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>-215.744683914209</v>
       </c>
       <c r="I19">
-        <f t="shared" si="3"/>
-        <v>-1.06820991957107</v>
+        <f t="shared" si="4"/>
+        <v>-215.247224999517</v>
       </c>
       <c r="J19">
+        <f t="shared" si="9"/>
+        <v>-1.06820991957099</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="5"/>
+        <v>-1.00379164830943</v>
+      </c>
+      <c r="L19">
         <v>0.8</v>
       </c>
-      <c r="K19">
-        <f t="shared" si="4"/>
+      <c r="M19">
+        <f t="shared" si="10"/>
         <v>5.38059384995221</v>
       </c>
-      <c r="M19">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="O19">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -7828,7 +7960,7 @@
         <v>-9.35477725</v>
       </c>
       <c r="D20" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>-9.33318746929334</v>
       </c>
       <c r="E20" s="7">
@@ -7841,29 +7973,37 @@
         <v>0.0209664669130575</v>
       </c>
       <c r="H20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>-215.686553217158</v>
       </c>
       <c r="I20">
-        <f t="shared" si="3"/>
-        <v>-1.01007922252012</v>
+        <f t="shared" si="4"/>
+        <v>-215.188772750463</v>
       </c>
       <c r="J20">
-        <v>0.75</v>
+        <f t="shared" si="9"/>
+        <v>-1.01007922252001</v>
       </c>
       <c r="K20">
-        <f t="shared" si="4"/>
-        <v>5.04430673433019</v>
+        <f t="shared" si="5"/>
+        <v>-0.945339399255005</v>
       </c>
       <c r="L20">
         <v>0.75</v>
       </c>
       <c r="M20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
+        <v>5.04430673433019</v>
+      </c>
+      <c r="N20">
+        <v>0.75</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="11"/>
         <v>4.97381304610928</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:15">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -7874,7 +8014,7 @@
         <v>-9.3439195</v>
       </c>
       <c r="D21" s="7">
-        <f t="shared" ref="D21:D32" si="6">C21+F21</f>
+        <f t="shared" ref="D21:D32" si="12">C21+F21</f>
         <v>-9.3439195</v>
       </c>
       <c r="E21" s="7">
@@ -7884,25 +8024,25 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>-215.436213672922</v>
-      </c>
-      <c r="J21">
-        <v>0.7</v>
-      </c>
-      <c r="K21">
-        <f t="shared" si="4"/>
-        <v>4.70801961870818</v>
       </c>
       <c r="L21">
         <v>0.7</v>
       </c>
       <c r="M21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
+        <v>4.70801961870818</v>
+      </c>
+      <c r="N21">
+        <v>0.7</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="11"/>
         <v>4.64222550970199</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:15">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -7913,7 +8053,7 @@
         <v>-9.31057675</v>
       </c>
       <c r="D22" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>-9.31057675</v>
       </c>
       <c r="E22" s="7">
@@ -7923,25 +8063,25 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>-214.667453217158</v>
-      </c>
-      <c r="J22">
-        <v>0.65</v>
-      </c>
-      <c r="K22">
-        <f t="shared" si="4"/>
-        <v>4.37173250308617</v>
       </c>
       <c r="L22">
         <v>0.65</v>
       </c>
       <c r="M22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
+        <v>4.37173250308617</v>
+      </c>
+      <c r="N22">
+        <v>0.65</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="11"/>
         <v>4.31063797329471</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:15">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -7952,7 +8092,7 @@
         <v>-9.2470915</v>
       </c>
       <c r="D23" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>-9.2470915</v>
       </c>
       <c r="E23" s="7">
@@ -7962,25 +8102,25 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>-213.203718230563</v>
-      </c>
-      <c r="J23">
-        <v>0.6</v>
-      </c>
-      <c r="K23">
-        <f t="shared" si="4"/>
-        <v>4.03544538746416</v>
       </c>
       <c r="L23">
         <v>0.6</v>
       </c>
       <c r="M23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
+        <v>4.03544538746416</v>
+      </c>
+      <c r="N23">
+        <v>0.6</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="11"/>
         <v>3.97905043688742</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:15">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -7991,7 +8131,7 @@
         <v>-9.13348925</v>
       </c>
       <c r="D24" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>-9.13348925</v>
       </c>
       <c r="E24" s="7">
@@ -8001,25 +8141,25 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>-210.584470643432</v>
-      </c>
-      <c r="J24">
-        <v>0.55</v>
-      </c>
-      <c r="K24">
-        <f t="shared" si="4"/>
-        <v>3.69915827184214</v>
       </c>
       <c r="L24">
         <v>0.55</v>
       </c>
       <c r="M24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
+        <v>3.69915827184214</v>
+      </c>
+      <c r="N24">
+        <v>0.55</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="11"/>
         <v>3.64746290048014</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:15">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -8030,7 +8170,7 @@
         <v>-8.9380785</v>
       </c>
       <c r="D25" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>-8.9380785</v>
       </c>
       <c r="E25" s="7">
@@ -8040,25 +8180,25 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>-206.079021715818</v>
       </c>
-      <c r="J25">
+      <c r="L25">
         <v>0.5</v>
       </c>
-      <c r="K25">
-        <f t="shared" si="4"/>
+      <c r="M25">
+        <f t="shared" si="10"/>
         <v>3.36287115622013</v>
       </c>
-      <c r="L25">
+      <c r="N25">
         <v>0.500000000000001</v>
       </c>
-      <c r="M25">
-        <f t="shared" si="5"/>
+      <c r="O25">
+        <f t="shared" si="11"/>
         <v>3.31587536407286</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:15">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -8069,7 +8209,7 @@
         <v>-8.63161825</v>
       </c>
       <c r="D26" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>-8.63161825</v>
       </c>
       <c r="E26" s="7">
@@ -8079,25 +8219,25 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>-199.013182171582</v>
       </c>
-      <c r="J26">
+      <c r="L26">
         <v>0.45</v>
       </c>
-      <c r="K26">
-        <f t="shared" si="4"/>
+      <c r="M26">
+        <f t="shared" si="10"/>
         <v>3.02658404059812</v>
       </c>
-      <c r="L26">
+      <c r="N26">
         <v>0.450000000000001</v>
       </c>
-      <c r="M26">
-        <f t="shared" si="5"/>
+      <c r="O26">
+        <f t="shared" si="11"/>
         <v>2.98428782766557</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:15">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -8108,7 +8248,7 @@
         <v>-8.18573275</v>
       </c>
       <c r="D27" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>-8.18573275</v>
       </c>
       <c r="E27" s="7">
@@ -8118,21 +8258,21 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>-188.732712198391</v>
       </c>
-      <c r="J27">
+      <c r="L27">
         <v>0.399999999999999</v>
       </c>
-      <c r="K27">
-        <f t="shared" si="4"/>
+      <c r="M27">
+        <f t="shared" si="10"/>
         <v>2.6902969249761</v>
       </c>
-      <c r="L27">
+      <c r="N27">
         <v>0.400000000000001</v>
       </c>
-      <c r="M27">
-        <f t="shared" si="5"/>
+      <c r="O27">
+        <f t="shared" si="11"/>
         <v>2.65270029125829</v>
       </c>
     </row>
@@ -8147,7 +8287,7 @@
         <v>-7.534209</v>
       </c>
       <c r="D28" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>-7.534209</v>
       </c>
       <c r="E28">
@@ -8157,7 +8297,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>-173.710984986595</v>
       </c>
     </row>
@@ -8172,7 +8312,7 @@
         <v>-6.56529875</v>
       </c>
       <c r="D29" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>-6.56529875</v>
       </c>
       <c r="E29">
@@ -8182,7 +8322,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>-151.371499329759</v>
       </c>
     </row>
@@ -8197,7 +8337,7 @@
         <v>-5.3080285</v>
       </c>
       <c r="D30" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>-5.3080285</v>
       </c>
       <c r="E30">
@@ -8207,7 +8347,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>-122.383498927614</v>
       </c>
     </row>
@@ -8222,7 +8362,7 @@
         <v>-3.53590775</v>
       </c>
       <c r="D31" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>-3.53590775</v>
       </c>
       <c r="E31">
@@ -8232,19 +8372,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>-81.5249508042895</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C32">
         <v>-9.310968</v>
       </c>
       <c r="D32" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>-9.2921861209303</v>
       </c>
       <c r="F32">
@@ -8254,14 +8394,25 @@
         <f>C32/2.611E+22*6.02E+23</f>
         <v>-214.676473994638</v>
       </c>
-    </row>
-    <row r="37" spans="2:3">
+      <c r="I32">
+        <f>D32/2.611E+22*6.02*1E+23</f>
+        <v>-214.243433351208</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5">
       <c r="B37" s="2">
         <v>-37.453385</v>
       </c>
       <c r="C37">
         <f>B37/4</f>
         <v>-9.36334625</v>
+      </c>
+      <c r="D37" s="2">
+        <v>37.450887</v>
+      </c>
+      <c r="E37">
+        <f>D37/4</f>
+        <v>9.36272175</v>
       </c>
     </row>
     <row r="38" spans="2:3">
@@ -8305,37 +8456,37 @@
     <row r="1" spans="1:12">
       <c r="A1" s="5"/>
       <c r="B1" s="5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -8948,40 +9099,40 @@
   <sheetData>
     <row r="1" spans="2:21">
       <c r="B1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="H1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="I1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="L1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="N1">
         <v>4</v>
       </c>
       <c r="O1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="P1">
         <v>2</v>
@@ -9006,16 +9157,16 @@
       <c r="D2" s="2"/>
       <c r="F2" s="2"/>
       <c r="L2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="N2">
         <v>4</v>
       </c>
       <c r="O2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="P2">
         <v>2</v>
@@ -9038,16 +9189,16 @@
     </row>
     <row r="3" spans="1:21">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C3">
         <v>4</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -9068,16 +9219,16 @@
         <v>482660.6238</v>
       </c>
       <c r="L3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M3" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="N3">
         <v>4</v>
       </c>
       <c r="O3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="P3">
         <v>2</v>
@@ -9100,16 +9251,16 @@
     </row>
     <row r="4" spans="1:21">
       <c r="A4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C4">
         <v>4</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -9130,16 +9281,16 @@
         <v>970759.5956</v>
       </c>
       <c r="L4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="N4">
         <v>4</v>
       </c>
       <c r="O4" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="P4">
         <v>2</v>
@@ -9162,16 +9313,16 @@
     </row>
     <row r="5" spans="1:21">
       <c r="A5" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -9186,19 +9337,19 @@
         <v>0.001</v>
       </c>
       <c r="I5" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="L5" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M5" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="N5">
         <v>4</v>
       </c>
       <c r="O5" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="P5">
         <v>2</v>
@@ -9221,16 +9372,16 @@
     </row>
     <row r="6" spans="1:21">
       <c r="A6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B6" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C6">
         <v>4</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -9245,19 +9396,19 @@
         <v>0.001</v>
       </c>
       <c r="I6" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="L6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M6" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="N6">
         <v>4</v>
       </c>
       <c r="O6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="P6">
         <v>2</v>
@@ -9280,16 +9431,16 @@
     </row>
     <row r="7" spans="1:21">
       <c r="A7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C7">
         <v>4</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -9304,19 +9455,19 @@
         <v>0.001</v>
       </c>
       <c r="I7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="N7">
         <v>4</v>
       </c>
       <c r="O7" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="P7">
         <v>2</v>
@@ -9339,16 +9490,16 @@
     </row>
     <row r="8" spans="1:21">
       <c r="A8" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B8" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C8">
         <v>4</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -9363,19 +9514,19 @@
         <v>0.001</v>
       </c>
       <c r="I8" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="L8" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M8" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="N8">
         <v>4</v>
       </c>
       <c r="O8" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="P8">
         <v>2</v>
@@ -9398,16 +9549,16 @@
     </row>
     <row r="9" spans="1:21">
       <c r="A9" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B9" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C9">
         <v>4</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -9422,19 +9573,19 @@
         <v>0.001</v>
       </c>
       <c r="I9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="L9" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M9" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="N9">
         <v>4</v>
       </c>
       <c r="O9" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="P9">
         <v>2</v>
@@ -9457,16 +9608,16 @@
     </row>
     <row r="10" spans="1:21">
       <c r="A10" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B10" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C10">
         <v>4</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -9481,19 +9632,19 @@
         <v>0.001</v>
       </c>
       <c r="I10" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="L10" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M10" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="N10">
         <v>4</v>
       </c>
       <c r="O10" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="P10">
         <v>2</v>
@@ -9516,16 +9667,16 @@
     </row>
     <row r="11" spans="1:21">
       <c r="A11" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B11" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C11">
         <v>4</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -9540,19 +9691,19 @@
         <v>0.001</v>
       </c>
       <c r="I11" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="L11" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M11" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="N11">
         <v>4</v>
       </c>
       <c r="O11" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="P11">
         <v>2</v>
@@ -9575,16 +9726,16 @@
     </row>
     <row r="12" spans="1:21">
       <c r="A12" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B12" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C12">
         <v>4</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -9599,19 +9750,19 @@
         <v>0.001</v>
       </c>
       <c r="I12" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="L12" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M12" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="N12">
         <v>4</v>
       </c>
       <c r="O12" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="P12">
         <v>2</v>
@@ -9634,16 +9785,16 @@
     </row>
     <row r="13" spans="1:21">
       <c r="A13" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B13" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C13">
         <v>4</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -9658,19 +9809,19 @@
         <v>0.001</v>
       </c>
       <c r="I13" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="L13" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M13" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="N13">
         <v>4</v>
       </c>
       <c r="O13" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="P13">
         <v>2</v>
@@ -9693,16 +9844,16 @@
     </row>
     <row r="14" spans="1:21">
       <c r="A14" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B14" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C14">
         <v>4</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E14">
         <v>2</v>
@@ -9717,19 +9868,19 @@
         <v>0.001</v>
       </c>
       <c r="I14" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="L14" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M14" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="N14">
         <v>4</v>
       </c>
       <c r="O14" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="P14">
         <v>2</v>
@@ -9752,16 +9903,16 @@
     </row>
     <row r="15" spans="1:21">
       <c r="A15" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B15" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C15">
         <v>4</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E15">
         <v>2</v>
@@ -9776,19 +9927,19 @@
         <v>0.001</v>
       </c>
       <c r="I15" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="L15" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M15" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="N15">
         <v>4</v>
       </c>
       <c r="O15" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="P15">
         <v>2</v>
@@ -9811,16 +9962,16 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B16" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C16">
         <v>4</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E16">
         <v>2</v>
@@ -9835,21 +9986,21 @@
         <v>0.001</v>
       </c>
       <c r="I16" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B17" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C17">
         <v>4</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -9864,7 +10015,7 @@
         <v>0.001</v>
       </c>
       <c r="I17" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="4:6">
@@ -10097,66 +10248,66 @@
   <sheetData>
     <row r="1" spans="2:20">
       <c r="B1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I1" t="s">
+        <v>58</v>
+      </c>
+      <c r="M1" t="s">
         <v>52</v>
       </c>
-      <c r="G1" t="s">
+      <c r="N1" t="s">
         <v>53</v>
       </c>
-      <c r="H1" t="s">
+      <c r="O1" t="s">
         <v>54</v>
       </c>
-      <c r="I1" t="s">
+      <c r="P1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q1" t="s">
         <v>55</v>
       </c>
-      <c r="M1" t="s">
-        <v>49</v>
-      </c>
-      <c r="N1" t="s">
-        <v>50</v>
-      </c>
-      <c r="O1" t="s">
-        <v>51</v>
-      </c>
-      <c r="P1" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>52</v>
-      </c>
       <c r="R1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="S1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="T1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:21">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C3">
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -10177,16 +10328,16 @@
         <v>18.1605</v>
       </c>
       <c r="L3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="N3">
         <v>4</v>
       </c>
       <c r="O3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="P3">
         <v>2</v>
@@ -10209,16 +10360,16 @@
     </row>
     <row r="4" spans="1:21">
       <c r="A4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C4">
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -10239,16 +10390,16 @@
         <v>28.8197</v>
       </c>
       <c r="L4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M4" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="N4">
         <v>4</v>
       </c>
       <c r="O4" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="P4">
         <v>2</v>
@@ -10271,16 +10422,16 @@
     </row>
     <row r="5" spans="1:21">
       <c r="A5" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -10301,16 +10452,16 @@
         <v>34.1747</v>
       </c>
       <c r="L5" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M5" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="N5">
         <v>4</v>
       </c>
       <c r="O5" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="P5">
         <v>2</v>
@@ -10333,16 +10484,16 @@
     </row>
     <row r="6" spans="1:21">
       <c r="A6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B6" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C6">
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -10363,16 +10514,16 @@
         <v>36.1374</v>
       </c>
       <c r="L6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M6" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="N6">
         <v>4</v>
       </c>
       <c r="O6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="P6">
         <v>2</v>
@@ -10395,16 +10546,16 @@
     </row>
     <row r="7" spans="1:21">
       <c r="A7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C7">
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -10425,16 +10576,16 @@
         <v>70.2939</v>
       </c>
       <c r="L7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="N7">
         <v>4</v>
       </c>
       <c r="O7" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="P7">
         <v>2</v>
@@ -10457,16 +10608,16 @@
     </row>
     <row r="8" spans="1:21">
       <c r="A8" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B8" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C8">
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -10487,16 +10638,16 @@
         <v>71.9524</v>
       </c>
       <c r="L8" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M8" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="N8">
         <v>4</v>
       </c>
       <c r="O8" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="P8">
         <v>2</v>
@@ -10519,16 +10670,16 @@
     </row>
     <row r="9" spans="1:21">
       <c r="A9" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B9" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C9">
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -10549,16 +10700,16 @@
         <v>122.1317</v>
       </c>
       <c r="L9" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M9" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="N9">
         <v>4</v>
       </c>
       <c r="O9" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="P9">
         <v>2</v>
@@ -10581,16 +10732,16 @@
     </row>
     <row r="10" spans="1:21">
       <c r="A10" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B10" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C10">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -10611,16 +10762,16 @@
         <v>123.3252</v>
       </c>
       <c r="L10" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M10" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="N10">
         <v>4</v>
       </c>
       <c r="O10" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="P10">
         <v>2</v>
@@ -10643,16 +10794,16 @@
     </row>
     <row r="11" spans="1:21">
       <c r="A11" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B11" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C11">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -10673,16 +10824,16 @@
         <v>124.914</v>
       </c>
       <c r="L11" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M11" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="N11">
         <v>4</v>
       </c>
       <c r="O11" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="P11">
         <v>2</v>
@@ -10705,16 +10856,16 @@
     </row>
     <row r="12" spans="1:21">
       <c r="A12" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B12" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C12">
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -10735,16 +10886,16 @@
         <v>126.2395</v>
       </c>
       <c r="L12" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M12" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="N12">
         <v>4</v>
       </c>
       <c r="O12" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="P12">
         <v>2</v>
@@ -10767,16 +10918,16 @@
     </row>
     <row r="13" spans="1:21">
       <c r="A13" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B13" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C13">
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -10797,16 +10948,16 @@
         <v>126.7795</v>
       </c>
       <c r="L13" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M13" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="N13">
         <v>4</v>
       </c>
       <c r="O13" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="P13">
         <v>2</v>
@@ -10829,16 +10980,16 @@
     </row>
     <row r="14" spans="1:21">
       <c r="A14" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B14" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C14">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E14">
         <v>2</v>
@@ -10859,16 +11010,16 @@
         <v>126.7898</v>
       </c>
       <c r="L14" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M14" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="N14">
         <v>4</v>
       </c>
       <c r="O14" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="P14">
         <v>2</v>
@@ -10891,16 +11042,16 @@
     </row>
     <row r="15" spans="1:21">
       <c r="A15" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B15" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C15">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E15">
         <v>2</v>
@@ -10921,16 +11072,16 @@
         <v>128.7828</v>
       </c>
       <c r="L15" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M15" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="N15">
         <v>4</v>
       </c>
       <c r="O15" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="P15">
         <v>2</v>
@@ -10953,16 +11104,16 @@
     </row>
     <row r="16" spans="1:21">
       <c r="A16" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B16" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C16">
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E16">
         <v>2</v>
@@ -10983,16 +11134,16 @@
         <v>139.6101</v>
       </c>
       <c r="L16" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M16" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="N16">
         <v>4</v>
       </c>
       <c r="O16" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="P16">
         <v>2</v>
@@ -11015,16 +11166,16 @@
     </row>
     <row r="17" spans="1:21">
       <c r="A17" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B17" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C17">
         <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -11045,16 +11196,16 @@
         <v>173.5574</v>
       </c>
       <c r="L17" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M17" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="N17">
         <v>4</v>
       </c>
       <c r="O17" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="P17">
         <v>2</v>
@@ -11104,19 +11255,19 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B1">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D1" s="2">
         <v>-37.198963</v>
       </c>
       <c r="E1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F1" s="2">
         <v>-37.198963</v>
@@ -11125,7 +11276,7 @@
         <v>7</v>
       </c>
       <c r="H1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I1">
         <f t="shared" ref="I1:I9" si="0">F1/4</f>
@@ -11134,19 +11285,19 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D2" s="2">
         <v>-37.213084</v>
       </c>
       <c r="E2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F2" s="2">
         <v>-37.213084</v>
@@ -11155,7 +11306,7 @@
         <v>7</v>
       </c>
       <c r="H2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I2">
         <f t="shared" si="0"/>
@@ -11164,19 +11315,19 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D3" s="2">
         <v>-37.221192</v>
       </c>
       <c r="E3" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F3" s="2">
         <v>-37.221192</v>
@@ -11185,7 +11336,7 @@
         <v>7</v>
       </c>
       <c r="H3" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I3">
         <f t="shared" si="0"/>
@@ -11194,19 +11345,19 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D4" s="2">
         <v>-37.221673</v>
       </c>
       <c r="E4" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F4" s="2">
         <v>-37.221673</v>
@@ -11215,7 +11366,7 @@
         <v>7</v>
       </c>
       <c r="H4" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I4">
         <f t="shared" si="0"/>
@@ -11224,19 +11375,19 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D5" s="2">
         <v>-37.221664</v>
       </c>
       <c r="E5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F5" s="2">
         <v>-37.221664</v>
@@ -11245,7 +11396,7 @@
         <v>7</v>
       </c>
       <c r="H5" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I5">
         <f t="shared" si="0"/>
@@ -11254,19 +11405,19 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D6" s="2">
         <v>-37.221032</v>
       </c>
       <c r="E6" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F6" s="2">
         <v>-37.221032</v>
@@ -11275,7 +11426,7 @@
         <v>7</v>
       </c>
       <c r="H6" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I6">
         <f t="shared" si="0"/>
@@ -11284,19 +11435,19 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D7" s="2">
         <v>-37.219775</v>
       </c>
       <c r="E7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F7" s="2">
         <v>-37.219775</v>
@@ -11305,7 +11456,7 @@
         <v>7</v>
       </c>
       <c r="H7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I7">
         <f t="shared" si="0"/>
@@ -11314,19 +11465,19 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D8" s="2">
         <v>-37.217743</v>
       </c>
       <c r="E8" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F8" s="2">
         <v>-37.217743</v>
@@ -11335,7 +11486,7 @@
         <v>7</v>
       </c>
       <c r="H8" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I8">
         <f t="shared" si="0"/>
@@ -11344,19 +11495,19 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D9" s="2">
         <v>-37.214844</v>
       </c>
       <c r="E9" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F9" s="2">
         <v>-37.214844</v>
@@ -11365,7 +11516,7 @@
         <v>7</v>
       </c>
       <c r="H9" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I9">
         <f t="shared" si="0"/>
@@ -11374,19 +11525,19 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D10" s="2">
         <v>-37.210978</v>
       </c>
       <c r="E10" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F10" s="2">
         <v>-37.210978</v>
@@ -11395,7 +11546,7 @@
         <v>7</v>
       </c>
       <c r="H10" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I10">
         <f t="shared" ref="I10:I24" si="1">F10/4</f>
@@ -11404,19 +11555,19 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D11" s="2">
         <v>-37.205987</v>
       </c>
       <c r="E11" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F11" s="2">
         <v>-37.205987</v>
@@ -11425,7 +11576,7 @@
         <v>7</v>
       </c>
       <c r="H11" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I11">
         <f t="shared" si="1"/>
@@ -11434,19 +11585,19 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D12" s="2">
         <v>-37.199727</v>
       </c>
       <c r="E12" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F12" s="2">
         <v>-37.199727</v>
@@ -11455,7 +11606,7 @@
         <v>7</v>
       </c>
       <c r="H12" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I12">
         <f t="shared" si="1"/>
@@ -11464,19 +11615,19 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D13" s="2">
         <v>-37.192026</v>
       </c>
       <c r="E13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F13" s="2">
         <v>-37.192026</v>
@@ -11485,7 +11636,7 @@
         <v>7</v>
       </c>
       <c r="H13" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I13">
         <f t="shared" si="1"/>
@@ -11494,19 +11645,19 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D14" s="2">
         <v>-37.125248</v>
       </c>
       <c r="E14" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F14" s="2">
         <v>-37.125248</v>
@@ -11515,7 +11666,7 @@
         <v>7</v>
       </c>
       <c r="H14" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I14">
         <f t="shared" si="1"/>
@@ -11524,19 +11675,19 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D15" s="2">
         <v>-36.987991</v>
       </c>
       <c r="E15" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F15" s="2">
         <v>-36.987991</v>
@@ -11545,7 +11696,7 @@
         <v>7</v>
       </c>
       <c r="H15" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I15">
         <f t="shared" si="1"/>
@@ -11554,19 +11705,19 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D16" s="2">
         <v>-36.737023</v>
       </c>
       <c r="E16" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F16" s="2">
         <v>-36.737023</v>
@@ -11575,7 +11726,7 @@
         <v>7</v>
       </c>
       <c r="H16" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I16">
         <f t="shared" si="1"/>
@@ -11584,19 +11735,19 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D17" s="2">
         <v>-36.306229</v>
       </c>
       <c r="E17" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F17" s="2">
         <v>-36.306229</v>
@@ -11605,7 +11756,7 @@
         <v>7</v>
       </c>
       <c r="H17" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I17">
         <f t="shared" si="1"/>
@@ -11614,19 +11765,19 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D18" s="2">
         <v>-35.587047</v>
       </c>
       <c r="E18" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F18" s="2">
         <v>-35.587047</v>
@@ -11635,7 +11786,7 @@
         <v>7</v>
       </c>
       <c r="H18" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I18">
         <f t="shared" si="1"/>
@@ -11644,19 +11795,19 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D19" s="2">
         <v>-34.443888</v>
       </c>
       <c r="E19" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F19" s="2">
         <v>-34.443888</v>
@@ -11665,7 +11816,7 @@
         <v>7</v>
       </c>
       <c r="H19" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I19">
         <f t="shared" si="1"/>
@@ -11674,19 +11825,19 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D20" s="2">
         <v>-32.739216</v>
       </c>
       <c r="E20" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F20" s="2">
         <v>-32.739216</v>
@@ -11695,7 +11846,7 @@
         <v>7</v>
       </c>
       <c r="H20" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I20">
         <f t="shared" si="1"/>
@@ -11704,19 +11855,19 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D21" s="2">
         <v>-30.244928</v>
       </c>
       <c r="E21" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F21" s="2">
         <v>-30.244928</v>
@@ -11725,7 +11876,7 @@
         <v>7</v>
       </c>
       <c r="H21" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I21">
         <f t="shared" si="1"/>
@@ -11734,19 +11885,19 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D22" s="2">
         <v>-26.487302</v>
       </c>
       <c r="E22" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F22" s="2">
         <v>-26.487302</v>
@@ -11755,7 +11906,7 @@
         <v>7</v>
       </c>
       <c r="H22" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I22">
         <f t="shared" si="1"/>
@@ -11764,19 +11915,19 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D23" s="2">
         <v>-21.520284</v>
       </c>
       <c r="E23" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F23" s="2">
         <v>-21.520284</v>
@@ -11785,7 +11936,7 @@
         <v>7</v>
       </c>
       <c r="H23" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I23">
         <f t="shared" si="1"/>
@@ -11794,19 +11945,19 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B24">
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D24" s="2">
         <v>-14.619444</v>
       </c>
       <c r="E24" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F24" s="2">
         <v>-14.619444</v>
@@ -11815,7 +11966,7 @@
         <v>7</v>
       </c>
       <c r="H24" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I24">
         <f t="shared" si="1"/>
@@ -11848,7 +11999,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -11872,7 +12023,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -11896,7 +12047,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -11920,7 +12071,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -11944,7 +12095,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -11968,7 +12119,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -11992,7 +12143,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -12016,7 +12167,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -12040,7 +12191,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -12064,7 +12215,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -12088,7 +12239,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -12112,7 +12263,7 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -12136,7 +12287,7 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -12160,7 +12311,7 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -12184,7 +12335,7 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -12208,7 +12359,7 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -12232,7 +12383,7 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -12256,7 +12407,7 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -12280,7 +12431,7 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -12304,7 +12455,7 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -12328,7 +12479,7 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -12352,7 +12503,7 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -12376,7 +12527,7 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -12400,7 +12551,7 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -12424,7 +12575,7 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C25">
         <v>28.9925335</v>
@@ -12468,19 +12619,19 @@
   <sheetData>
     <row r="1" spans="1:21">
       <c r="A1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B1">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D1" s="2">
         <v>-37.198963</v>
       </c>
       <c r="E1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F1" s="2">
         <v>-37.198963</v>
@@ -12489,7 +12640,7 @@
         <v>7</v>
       </c>
       <c r="H1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I1">
         <f>-37.199</f>
@@ -12500,13 +12651,13 @@
         <v>-9.29974075</v>
       </c>
       <c r="L1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="M1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="N1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="O1">
         <v>-2.70814</v>
@@ -12533,19 +12684,19 @@
     </row>
     <row r="2" spans="1:21">
       <c r="A2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D2" s="2">
         <v>-37.213084</v>
       </c>
       <c r="E2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F2" s="2">
         <v>-37.213084</v>
@@ -12554,7 +12705,7 @@
         <v>7</v>
       </c>
       <c r="H2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I2">
         <f>-37.2131</f>
@@ -12565,13 +12716,13 @@
         <v>-9.303271</v>
       </c>
       <c r="L2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="M2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="N2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="O2">
         <v>-3.40202</v>
@@ -12598,19 +12749,19 @@
     </row>
     <row r="3" spans="1:21">
       <c r="A3" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D3" s="2">
         <v>-37.221192</v>
       </c>
       <c r="E3" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F3" s="2">
         <v>-37.221192</v>
@@ -12619,7 +12770,7 @@
         <v>7</v>
       </c>
       <c r="H3" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I3">
         <f>-37.2212</f>
@@ -12630,13 +12781,13 @@
         <v>-9.305298</v>
       </c>
       <c r="L3" t="s">
+        <v>145</v>
+      </c>
+      <c r="M3" t="s">
         <v>142</v>
       </c>
-      <c r="M3" t="s">
-        <v>139</v>
-      </c>
       <c r="N3" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="O3">
         <v>-4.50753</v>
@@ -12663,19 +12814,19 @@
     </row>
     <row r="4" spans="1:21">
       <c r="A4" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D4" s="2">
         <v>-37.221673</v>
       </c>
       <c r="E4" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F4" s="2">
         <v>-37.221673</v>
@@ -12684,7 +12835,7 @@
         <v>7</v>
       </c>
       <c r="H4" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I4">
         <f>-37.2217</f>
@@ -12695,13 +12846,13 @@
         <v>-9.30541825</v>
       </c>
       <c r="L4" t="s">
+        <v>146</v>
+      </c>
+      <c r="M4" t="s">
+        <v>142</v>
+      </c>
+      <c r="N4" t="s">
         <v>143</v>
-      </c>
-      <c r="M4" t="s">
-        <v>139</v>
-      </c>
-      <c r="N4" t="s">
-        <v>140</v>
       </c>
       <c r="O4">
         <v>-4.78273</v>
@@ -12728,19 +12879,19 @@
     </row>
     <row r="5" spans="1:21">
       <c r="A5" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D5" s="2">
         <v>-37.221664</v>
       </c>
       <c r="E5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F5" s="2">
         <v>-37.221664</v>
@@ -12749,7 +12900,7 @@
         <v>7</v>
       </c>
       <c r="H5" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I5">
         <f>-37.2217</f>
@@ -12760,13 +12911,13 @@
         <v>-9.305416</v>
       </c>
       <c r="L5" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="M5" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="N5" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="O5">
         <v>-5.08591</v>
@@ -12793,19 +12944,19 @@
     </row>
     <row r="6" spans="1:21">
       <c r="A6" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D6" s="2">
         <v>-37.221032</v>
       </c>
       <c r="E6" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F6" s="2">
         <v>-37.221032</v>
@@ -12814,7 +12965,7 @@
         <v>7</v>
       </c>
       <c r="H6" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I6">
         <f>-37.221</f>
@@ -12825,13 +12976,13 @@
         <v>-9.305258</v>
       </c>
       <c r="L6" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="M6" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="N6" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="O6">
         <v>-5.40348</v>
@@ -12858,19 +13009,19 @@
     </row>
     <row r="7" spans="1:21">
       <c r="A7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D7" s="2">
         <v>-37.219775</v>
       </c>
       <c r="E7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F7" s="2">
         <v>-37.219775</v>
@@ -12879,7 +13030,7 @@
         <v>7</v>
       </c>
       <c r="H7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I7">
         <f>-37.2198</f>
@@ -12890,16 +13041,16 @@
         <v>-9.30494375</v>
       </c>
       <c r="K7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="L7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="M7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="N7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="O7">
         <v>-5.75432</v>
@@ -12926,19 +13077,19 @@
     </row>
     <row r="8" spans="1:21">
       <c r="A8" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D8" s="2">
         <v>-37.217743</v>
       </c>
       <c r="E8" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F8" s="2">
         <v>-37.217743</v>
@@ -12947,7 +13098,7 @@
         <v>7</v>
       </c>
       <c r="H8" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I8">
         <f>-37.2177</f>
@@ -12958,13 +13109,13 @@
         <v>-9.30443575</v>
       </c>
       <c r="L8" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="M8" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="N8" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="O8">
         <v>-6.11871</v>
@@ -12991,19 +13142,19 @@
     </row>
     <row r="9" spans="1:21">
       <c r="A9" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D9" s="2">
         <v>-37.214844</v>
       </c>
       <c r="E9" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F9" s="2">
         <v>-37.214844</v>
@@ -13012,7 +13163,7 @@
         <v>7</v>
       </c>
       <c r="H9" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I9">
         <f>-37.2148</f>
@@ -13023,13 +13174,13 @@
         <v>-9.303711</v>
       </c>
       <c r="L9" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="M9" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="N9" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="O9">
         <v>-6.54105</v>
@@ -13056,19 +13207,19 @@
     </row>
     <row r="10" spans="1:21">
       <c r="A10" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D10" s="2">
         <v>-37.210978</v>
       </c>
       <c r="E10" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F10" s="2">
         <v>-37.210978</v>
@@ -13077,7 +13228,7 @@
         <v>7</v>
       </c>
       <c r="H10" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I10">
         <f>-37.211</f>
@@ -13088,13 +13239,13 @@
         <v>-9.3027445</v>
       </c>
       <c r="L10" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="M10" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="N10" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="O10">
         <v>-6.92346</v>
@@ -13121,19 +13272,19 @@
     </row>
     <row r="11" spans="1:21">
       <c r="A11" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D11" s="2">
         <v>-37.205987</v>
       </c>
       <c r="E11" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F11" s="2">
         <v>-37.205987</v>
@@ -13142,7 +13293,7 @@
         <v>7</v>
       </c>
       <c r="H11" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I11">
         <f>-37.206</f>
@@ -13153,13 +13304,13 @@
         <v>-9.30149675</v>
       </c>
       <c r="L11" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="M11" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="N11" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="O11">
         <v>-7.3603</v>
@@ -13186,19 +13337,19 @@
     </row>
     <row r="12" spans="1:21">
       <c r="A12" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D12" s="2">
         <v>-37.199727</v>
       </c>
       <c r="E12" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F12" s="2">
         <v>-37.199727</v>
@@ -13207,7 +13358,7 @@
         <v>7</v>
       </c>
       <c r="H12" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I12">
         <f>-37.1997</f>
@@ -13218,13 +13369,13 @@
         <v>-9.29993175</v>
       </c>
       <c r="L12" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="M12" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="N12" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="O12">
         <v>-7.85094</v>
@@ -13251,19 +13402,19 @@
     </row>
     <row r="13" spans="1:21">
       <c r="A13" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D13" s="2">
         <v>-37.192026</v>
       </c>
       <c r="E13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F13" s="2">
         <v>-37.192026</v>
@@ -13272,7 +13423,7 @@
         <v>7</v>
       </c>
       <c r="H13" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I13">
         <f>-37.192</f>
@@ -13283,13 +13434,13 @@
         <v>-9.2980065</v>
       </c>
       <c r="L13" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="M13" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="N13" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="O13">
         <v>-8.29527</v>
@@ -13316,19 +13467,19 @@
     </row>
     <row r="14" spans="1:21">
       <c r="A14" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D14" s="2">
         <v>-37.125248</v>
       </c>
       <c r="E14" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F14" s="2">
         <v>-37.125248</v>
@@ -13337,7 +13488,7 @@
         <v>7</v>
       </c>
       <c r="H14" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I14">
         <f>-37.1252</f>
@@ -13348,13 +13499,13 @@
         <v>-9.281312</v>
       </c>
       <c r="L14" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="M14" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="N14" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="O14">
         <v>-11.01718</v>
@@ -13381,19 +13532,19 @@
     </row>
     <row r="15" spans="1:21">
       <c r="A15" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D15" s="2">
         <v>-36.987991</v>
       </c>
       <c r="E15" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F15" s="2">
         <v>-36.987991</v>
@@ -13402,7 +13553,7 @@
         <v>7</v>
       </c>
       <c r="H15" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I15">
         <f>-36.988</f>
@@ -13413,13 +13564,13 @@
         <v>-9.24699775</v>
       </c>
       <c r="L15" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="M15" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="N15" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="O15">
         <v>-14.16293</v>
@@ -13446,19 +13597,19 @@
     </row>
     <row r="16" spans="1:21">
       <c r="A16" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D16" s="2">
         <v>-36.737023</v>
       </c>
       <c r="E16" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F16" s="2">
         <v>-36.737023</v>
@@ -13467,7 +13618,7 @@
         <v>7</v>
       </c>
       <c r="H16" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I16">
         <f>-36.737</f>
@@ -13478,13 +13629,13 @@
         <v>-9.18425575</v>
       </c>
       <c r="L16" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="M16" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="N16" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="O16">
         <v>-17.17197</v>
@@ -13511,19 +13662,19 @@
     </row>
     <row r="17" spans="1:21">
       <c r="A17" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D17" s="2">
         <v>-36.306229</v>
       </c>
       <c r="E17" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F17" s="2">
         <v>-36.306229</v>
@@ -13532,7 +13683,7 @@
         <v>7</v>
       </c>
       <c r="H17" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I17">
         <f>-36.3062</f>
@@ -13543,13 +13694,13 @@
         <v>-9.07655725</v>
       </c>
       <c r="L17" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="M17" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="N17" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="O17">
         <v>-17.75908</v>
@@ -13576,19 +13727,19 @@
     </row>
     <row r="18" spans="1:21">
       <c r="A18" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D18" s="2">
         <v>-35.587047</v>
       </c>
       <c r="E18" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F18" s="2">
         <v>-35.587047</v>
@@ -13597,7 +13748,7 @@
         <v>7</v>
       </c>
       <c r="H18" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I18">
         <f>-35.587</f>
@@ -13608,13 +13759,13 @@
         <v>-8.89676175</v>
       </c>
       <c r="L18" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="M18" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="N18" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="O18">
         <v>-14.08485</v>
@@ -13641,19 +13792,19 @@
     </row>
     <row r="19" spans="1:21">
       <c r="A19" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D19" s="2">
         <v>-34.443888</v>
       </c>
       <c r="E19" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F19" s="2">
         <v>-34.443888</v>
@@ -13662,7 +13813,7 @@
         <v>7</v>
       </c>
       <c r="H19" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I19">
         <f>-34.4439</f>
@@ -13673,13 +13824,13 @@
         <v>-8.610972</v>
       </c>
       <c r="L19" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="M19" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="N19" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="O19">
         <v>-9.69094</v>
@@ -13706,19 +13857,19 @@
     </row>
     <row r="20" spans="1:21">
       <c r="A20" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D20" s="2">
         <v>-32.739216</v>
       </c>
       <c r="E20" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F20" s="2">
         <v>-32.739216</v>
@@ -13727,7 +13878,7 @@
         <v>7</v>
       </c>
       <c r="H20" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I20">
         <f>-32.7392</f>
@@ -13738,13 +13889,13 @@
         <v>-8.184804</v>
       </c>
       <c r="L20" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="M20" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="N20" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="O20">
         <v>62.64671</v>
@@ -13771,19 +13922,19 @@
     </row>
     <row r="21" spans="1:21">
       <c r="A21" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D21" s="2">
         <v>-30.244928</v>
       </c>
       <c r="E21" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F21" s="2">
         <v>-30.244928</v>
@@ -13792,7 +13943,7 @@
         <v>7</v>
       </c>
       <c r="H21" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I21">
         <f>-30.2449</f>
@@ -13803,13 +13954,13 @@
         <v>-7.561232</v>
       </c>
       <c r="L21" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="M21" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="N21" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="O21">
         <v>238.657</v>
@@ -13836,19 +13987,19 @@
     </row>
     <row r="22" spans="1:21">
       <c r="A22" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D22" s="2">
         <v>-26.487302</v>
       </c>
       <c r="E22" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F22" s="2">
         <v>-26.487302</v>
@@ -13857,7 +14008,7 @@
         <v>7</v>
       </c>
       <c r="H22" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I22">
         <f>-26.4873</f>
@@ -13868,13 +14019,13 @@
         <v>-6.6218255</v>
       </c>
       <c r="L22" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="M22" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="N22" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="O22">
         <v>709.01882</v>
@@ -13901,19 +14052,19 @@
     </row>
     <row r="23" spans="1:21">
       <c r="A23" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D23" s="2">
         <v>-21.520284</v>
       </c>
       <c r="E23" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F23" s="2">
         <v>-21.520284</v>
@@ -13922,7 +14073,7 @@
         <v>7</v>
       </c>
       <c r="H23" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I23">
         <f>-21.5203</f>
@@ -13933,13 +14084,13 @@
         <v>-5.380071</v>
       </c>
       <c r="L23" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="M23" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="N23" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="O23">
         <v>1922.70321</v>
@@ -13966,19 +14117,19 @@
     </row>
     <row r="24" spans="1:21">
       <c r="A24" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B24">
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D24" s="2">
         <v>-14.619444</v>
       </c>
       <c r="E24" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F24" s="2">
         <v>-14.619444</v>
@@ -13987,7 +14138,7 @@
         <v>7</v>
       </c>
       <c r="H24" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I24">
         <f>-14.6194</f>
@@ -13998,13 +14149,13 @@
         <v>-3.654861</v>
       </c>
       <c r="L24" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="M24" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="N24" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="O24">
         <v>3453.20136</v>

--- a/data/data_collection.xlsx
+++ b/data/data_collection.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="7950" tabRatio="719" activeTab="1"/>
+    <workbookView windowWidth="20145" windowHeight="7365" tabRatio="719" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="data11" sheetId="1" r:id="rId1"/>
@@ -729,8 +729,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
@@ -746,27 +746,13 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -775,7 +761,22 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -795,32 +796,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -834,38 +827,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -880,7 +850,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -888,7 +858,37 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -903,7 +903,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -921,6 +927,120 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -933,55 +1053,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -993,97 +1065,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1099,18 +1099,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1120,6 +1113,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1154,6 +1162,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1168,177 +1194,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3611,8 +3611,8 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="tmp" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh preserveSortFilterLayout="1" nextId="2">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_2" connectionId="11" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+  <queryTableRefresh preserveSortFilterLayout="0" nextId="2">
     <queryTableFields count="1">
       <queryTableField id="1" dataBound="0"/>
     </queryTableFields>
@@ -3621,7 +3621,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_2" connectionId="13" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="0" nextId="10">
     <queryTableFields count="9">
       <queryTableField id="1" dataBound="0"/>
@@ -3639,7 +3639,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_2" connectionId="13" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="0" nextId="10">
     <queryTableFields count="9">
       <queryTableField id="1" dataBound="0"/>
@@ -3675,7 +3675,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="15" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_3" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="0" nextId="7">
     <queryTableFields count="6">
       <queryTableField id="1" dataBound="0"/>
@@ -3690,7 +3690,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_3" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="15" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="0" nextId="7">
     <queryTableFields count="6">
       <queryTableField id="1" dataBound="0"/>
@@ -3715,8 +3715,8 @@
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_2" connectionId="11" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh preserveSortFilterLayout="0" nextId="2">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="tmp" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+  <queryTableRefresh preserveSortFilterLayout="1" nextId="2">
     <queryTableFields count="1">
       <queryTableField id="1" dataBound="0"/>
     </queryTableFields>
@@ -3725,6 +3725,25 @@
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+  <queryTableRefresh preserveSortFilterLayout="0" nextId="11">
+    <queryTableFields count="10">
+      <queryTableField id="1" dataBound="0"/>
+      <queryTableField id="2" dataBound="0"/>
+      <queryTableField id="3" dataBound="0"/>
+      <queryTableField id="4" dataBound="0"/>
+      <queryTableField id="5" dataBound="0"/>
+      <queryTableField id="6" dataBound="0"/>
+      <queryTableField id="7" dataBound="0"/>
+      <queryTableField id="8" dataBound="0"/>
+      <queryTableField id="9" dataBound="0"/>
+      <queryTableField id="10" dataBound="0"/>
+    </queryTableFields>
+  </queryTableRefresh>
+</queryTable>
+</file>
+
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_2" connectionId="10" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="0" nextId="11">
     <queryTableFields count="10">
@@ -3743,27 +3762,8 @@
 </queryTable>
 </file>
 
-<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh preserveSortFilterLayout="0" nextId="11">
-    <queryTableFields count="10">
-      <queryTableField id="1" dataBound="0"/>
-      <queryTableField id="2" dataBound="0"/>
-      <queryTableField id="3" dataBound="0"/>
-      <queryTableField id="4" dataBound="0"/>
-      <queryTableField id="5" dataBound="0"/>
-      <queryTableField id="6" dataBound="0"/>
-      <queryTableField id="7" dataBound="0"/>
-      <queryTableField id="8" dataBound="0"/>
-      <queryTableField id="9" dataBound="0"/>
-      <queryTableField id="10" dataBound="0"/>
-    </queryTableFields>
-  </queryTableRefresh>
-</queryTable>
-</file>
-
 <file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_2" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="0" nextId="11">
     <queryTableFields count="10">
       <queryTableField id="1" dataBound="0"/>
@@ -3782,7 +3782,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_2" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="0" nextId="11">
     <queryTableFields count="10">
       <queryTableField id="1" dataBound="0"/>
@@ -7122,7 +7122,7 @@
   <sheetPr/>
   <dimension ref="A1:O38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
@@ -8426,7 +8426,6 @@
     </row>
     <row r="37" spans="2:4">
       <c r="B37" s="2"/>
-      <c r="C37"/>
       <c r="D37" s="2"/>
     </row>
     <row r="38" spans="2:2">
@@ -8444,8 +8443,8 @@
   <sheetPr/>
   <dimension ref="A1:M16384"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -8531,7 +8530,7 @@
         <v>-0.5127</v>
       </c>
       <c r="J2" s="6">
-        <v>-1.1506</v>
+        <v>-1.0943</v>
       </c>
       <c r="K2" s="6">
         <v>-1.1123</v>
@@ -8572,7 +8571,7 @@
         <v>-0.524</v>
       </c>
       <c r="J3" s="6">
-        <v>-1.175</v>
+        <v>-1.1177</v>
       </c>
       <c r="K3" s="6">
         <v>-1.1315</v>
@@ -8613,7 +8612,7 @@
         <v>-0.5337</v>
       </c>
       <c r="J4" s="6">
-        <v>-1.1968</v>
+        <v>-1.1385</v>
       </c>
       <c r="K4" s="6">
         <v>-1.1482</v>
@@ -8654,7 +8653,7 @@
         <v>-0.5414</v>
       </c>
       <c r="J5" s="6">
-        <v>-1.2154</v>
+        <v>-1.1562</v>
       </c>
       <c r="K5" s="6">
         <v>-1.162</v>
@@ -8695,7 +8694,7 @@
         <v>-0.5467</v>
       </c>
       <c r="J6" s="6">
-        <v>-1.2303</v>
+        <v>-1.1702</v>
       </c>
       <c r="K6" s="6">
         <v>-1.1725</v>
@@ -8736,7 +8735,7 @@
         <v>-0.5491</v>
       </c>
       <c r="J7" s="6">
-        <v>-1.2406</v>
+        <v>-1.1798</v>
       </c>
       <c r="K7" s="6">
         <v>-1.179</v>
@@ -8777,7 +8776,7 @@
         <v>-0.5479</v>
       </c>
       <c r="J8" s="6">
-        <v>-1.2456</v>
+        <v>-1.1841</v>
       </c>
       <c r="K8" s="6">
         <v>-1.1809</v>
@@ -8818,7 +8817,7 @@
         <v>-0.5424</v>
       </c>
       <c r="J9" s="6">
-        <v>-1.2443</v>
+        <v>-1.1823</v>
       </c>
       <c r="K9" s="6">
         <v>-1.1774</v>
@@ -8859,7 +8858,7 @@
         <v>-0.5318</v>
       </c>
       <c r="J10" s="6">
-        <v>-1.2357</v>
+        <v>-1.1732</v>
       </c>
       <c r="K10" s="6">
         <v>-1.1676</v>
@@ -8900,7 +8899,7 @@
         <v>-0.5151</v>
       </c>
       <c r="J11" s="6">
-        <v>-1.2185</v>
+        <v>-1.1556</v>
       </c>
       <c r="K11" s="6">
         <v>-1.1505</v>
@@ -8941,7 +8940,7 @@
         <v>-0.4912</v>
       </c>
       <c r="J12" s="6">
-        <v>-1.1915</v>
+        <v>-1.1283</v>
       </c>
       <c r="K12" s="6">
         <v>-1.1251</v>
@@ -8982,7 +8981,7 @@
         <v>-0.4588</v>
       </c>
       <c r="J13" s="6">
-        <v>-1.1531</v>
+        <v>-1.0897</v>
       </c>
       <c r="K13" s="6">
         <v>-1.0901</v>
@@ -9023,7 +9022,7 @@
         <v>-0.4165</v>
       </c>
       <c r="J14" s="6">
-        <v>-1.1017</v>
+        <v>-1.0381</v>
       </c>
       <c r="K14" s="6">
         <v>-1.044</v>
@@ -9064,7 +9063,7 @@
         <v>-0.3625</v>
       </c>
       <c r="J15" s="6">
-        <v>-1.0353</v>
+        <v>-0.9716</v>
       </c>
       <c r="K15" s="6">
         <v>-0.9853</v>
@@ -9105,7 +9104,7 @@
         <v>-0.2949</v>
       </c>
       <c r="J16" s="6">
-        <v>-0.9518</v>
+        <v>-0.8879</v>
       </c>
       <c r="K16" s="6">
         <v>-0.9121</v>

--- a/data/data_collection.xlsx
+++ b/data/data_collection.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20145" windowHeight="7365" tabRatio="719" activeTab="2"/>
+    <workbookView windowWidth="20145" windowHeight="7365" tabRatio="719" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="data11" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Sheet3" sheetId="11" r:id="rId11"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="7">phonopy!$A$1:$F$24</definedName>
+    <definedName name="ExternalData_1" localSheetId="7">phonopy!$A$1:$E$24</definedName>
     <definedName name="ExternalData_1" localSheetId="6">Sheet1!$A$1:$I$24</definedName>
     <definedName name="ExternalData_1" localSheetId="3">Sheet2!$A$1:$J$17</definedName>
     <definedName name="ExternalData_1" localSheetId="10">Sheet3!$A$1:$F$30</definedName>
@@ -197,7 +197,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172">
   <si>
     <t>C(A)</t>
   </si>
@@ -311,12 +311,6 @@
   </si>
   <si>
     <t>F0 diff</t>
-  </si>
-  <si>
-    <t>eqa1</t>
-  </si>
-  <si>
-    <t>eqb1</t>
   </si>
   <si>
     <t>ref</t>
@@ -595,36 +589,6 @@
     <t>./z08/thermal.txt:</t>
   </si>
   <si>
-    <t>./z09/thermal.txt:</t>
-  </si>
-  <si>
-    <t>./z10/thermal.txt:</t>
-  </si>
-  <si>
-    <t>./z11/thermal.txt:</t>
-  </si>
-  <si>
-    <t>./z12/thermal.txt:</t>
-  </si>
-  <si>
-    <t>./z13/thermal.txt:</t>
-  </si>
-  <si>
-    <t>./z14/thermal.txt:</t>
-  </si>
-  <si>
-    <t>./z15/thermal.txt:</t>
-  </si>
-  <si>
-    <t>./z16/thermal.txt:</t>
-  </si>
-  <si>
-    <t>./z17/thermal.txt:</t>
-  </si>
-  <si>
-    <t>reference structure</t>
-  </si>
-  <si>
     <t>./a/OUTCAR:</t>
   </si>
   <si>
@@ -706,6 +670,33 @@
     <t>./z17/OUTCAR:</t>
   </si>
   <si>
+    <t>./z09/thermal.txt:</t>
+  </si>
+  <si>
+    <t>./z10/thermal.txt:</t>
+  </si>
+  <si>
+    <t>./z11/thermal.txt:</t>
+  </si>
+  <si>
+    <t>./z12/thermal.txt:</t>
+  </si>
+  <si>
+    <t>./z13/thermal.txt:</t>
+  </si>
+  <si>
+    <t>./z14/thermal.txt:</t>
+  </si>
+  <si>
+    <t>./z15/thermal.txt:</t>
+  </si>
+  <si>
+    <t>./z16/thermal.txt:</t>
+  </si>
+  <si>
+    <t>./z17/thermal.txt:</t>
+  </si>
+  <si>
     <t>./z18/thermal.txt:</t>
   </si>
   <si>
@@ -729,10 +720,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -744,15 +735,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -767,14 +750,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -788,6 +764,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -796,8 +780,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -811,6 +818,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -819,23 +833,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -849,14 +848,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -866,29 +879,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -903,7 +894,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -915,25 +978,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -945,13 +1014,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -963,43 +1044,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1011,79 +1068,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1097,13 +1088,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1113,21 +1108,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1165,6 +1145,30 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -1173,172 +1177,159 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3611,8 +3602,8 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_2" connectionId="11" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh preserveSortFilterLayout="0" nextId="2">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="tmp" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+  <queryTableRefresh preserveSortFilterLayout="1" nextId="2">
     <queryTableFields count="1">
       <queryTableField id="1" dataBound="0"/>
     </queryTableFields>
@@ -3621,7 +3612,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_2" connectionId="13" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="0" nextId="10">
     <queryTableFields count="9">
       <queryTableField id="1" dataBound="0"/>
@@ -3639,7 +3630,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_2" connectionId="13" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="0" nextId="10">
     <queryTableFields count="9">
       <queryTableField id="1" dataBound="0"/>
@@ -3675,7 +3666,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_3" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="15" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="0" nextId="7">
     <queryTableFields count="6">
       <queryTableField id="1" dataBound="0"/>
@@ -3690,7 +3681,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="15" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_3" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="0" nextId="7">
     <queryTableFields count="6">
       <queryTableField id="1" dataBound="0"/>
@@ -3715,8 +3706,8 @@
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="tmp" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh preserveSortFilterLayout="1" nextId="2">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_2" connectionId="11" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+  <queryTableRefresh preserveSortFilterLayout="0" nextId="2">
     <queryTableFields count="1">
       <queryTableField id="1" dataBound="0"/>
     </queryTableFields>
@@ -3725,6 +3716,25 @@
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_2" connectionId="10" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+  <queryTableRefresh preserveSortFilterLayout="0" nextId="11">
+    <queryTableFields count="10">
+      <queryTableField id="1" dataBound="0"/>
+      <queryTableField id="2" dataBound="0"/>
+      <queryTableField id="3" dataBound="0"/>
+      <queryTableField id="4" dataBound="0"/>
+      <queryTableField id="5" dataBound="0"/>
+      <queryTableField id="6" dataBound="0"/>
+      <queryTableField id="7" dataBound="0"/>
+      <queryTableField id="8" dataBound="0"/>
+      <queryTableField id="9" dataBound="0"/>
+      <queryTableField id="10" dataBound="0"/>
+    </queryTableFields>
+  </queryTableRefresh>
+</queryTable>
+</file>
+
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="0" nextId="11">
     <queryTableFields count="10">
@@ -3743,27 +3753,8 @@
 </queryTable>
 </file>
 
-<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_2" connectionId="10" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh preserveSortFilterLayout="0" nextId="11">
-    <queryTableFields count="10">
-      <queryTableField id="1" dataBound="0"/>
-      <queryTableField id="2" dataBound="0"/>
-      <queryTableField id="3" dataBound="0"/>
-      <queryTableField id="4" dataBound="0"/>
-      <queryTableField id="5" dataBound="0"/>
-      <queryTableField id="6" dataBound="0"/>
-      <queryTableField id="7" dataBound="0"/>
-      <queryTableField id="8" dataBound="0"/>
-      <queryTableField id="9" dataBound="0"/>
-      <queryTableField id="10" dataBound="0"/>
-    </queryTableFields>
-  </queryTableRefresh>
-</queryTable>
-</file>
-
 <file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_2" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="0" nextId="11">
     <queryTableFields count="10">
       <queryTableField id="1" dataBound="0"/>
@@ -3782,7 +3773,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_2" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="0" nextId="11">
     <queryTableFields count="10">
       <queryTableField id="1" dataBound="0"/>
@@ -3820,14 +3811,13 @@
 
 <file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="14" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh preserveSortFilterLayout="0" nextId="7">
-    <queryTableFields count="6">
+  <queryTableRefresh preserveSortFilterLayout="0" nextId="6">
+    <queryTableFields count="5">
       <queryTableField id="1" dataBound="0"/>
       <queryTableField id="2" dataBound="0"/>
       <queryTableField id="3" dataBound="0"/>
       <queryTableField id="4" dataBound="0"/>
       <queryTableField id="5" dataBound="0"/>
-      <queryTableField id="6" dataBound="0"/>
     </queryTableFields>
   </queryTableRefresh>
 </queryTable>
@@ -4971,13 +4961,13 @@
         <v>7.734603659</v>
       </c>
       <c r="B1" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="C1" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="D1" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="E1">
         <v>-2.70814</v>
@@ -5003,13 +4993,13 @@
         <v>7.398316544</v>
       </c>
       <c r="B2" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="C2" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="D2" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="E2">
         <v>-3.40202</v>
@@ -5035,13 +5025,13 @@
         <v>7.06202942799999</v>
       </c>
       <c r="B3" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="C3" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="D3" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="E3">
         <v>-4.50753</v>
@@ -5067,13 +5057,13 @@
         <v>6.99477200493787</v>
       </c>
       <c r="B4" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="C4" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="D4" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="E4">
         <v>-4.78273</v>
@@ -5099,13 +5089,13 @@
         <v>6.92751458181347</v>
       </c>
       <c r="B5" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="C5" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="D5" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="E5">
         <v>-5.08591</v>
@@ -5131,13 +5121,13 @@
         <v>6.86025715868907</v>
       </c>
       <c r="B6" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="C6" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="D6" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="E6">
         <v>-5.40348</v>
@@ -5163,13 +5153,13 @@
         <v>6.79299973556466</v>
       </c>
       <c r="B7" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="C7" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="D7" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="E7">
         <v>-5.75432</v>
@@ -5195,13 +5185,13 @@
         <v>6.72574231244026</v>
       </c>
       <c r="B8" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="C8" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="D8" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="E8">
         <v>-6.11871</v>
@@ -5227,13 +5217,13 @@
         <v>6.65848488931586</v>
       </c>
       <c r="B9" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="C9" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="D9" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="E9">
         <v>-6.54105</v>
@@ -5259,13 +5249,13 @@
         <v>6.59122746619145</v>
       </c>
       <c r="B10" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="C10" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="D10" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="E10">
         <v>-6.92346</v>
@@ -5291,13 +5281,13 @@
         <v>6.52397004306705</v>
       </c>
       <c r="B11" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="C11" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="D11" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="E11">
         <v>-7.3603</v>
@@ -5323,13 +5313,13 @@
         <v>6.45671261994265</v>
       </c>
       <c r="B12" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="C12" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="D12" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="E12">
         <v>-7.85094</v>
@@ -5355,13 +5345,13 @@
         <v>6.389455197</v>
       </c>
       <c r="B13" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="C13" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="D13" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="E13">
         <v>-8.29527</v>
@@ -5387,13 +5377,13 @@
         <v>6.05316808099999</v>
       </c>
       <c r="B14" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="C14" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="D14" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="E14">
         <v>-11.01718</v>
@@ -5419,13 +5409,13 @@
         <v>5.71688096599999</v>
       </c>
       <c r="B15" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="C15" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="D15" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="E15">
         <v>-14.16293</v>
@@ -5451,13 +5441,13 @@
         <v>5.38059385</v>
       </c>
       <c r="B16" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="C16" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="D16" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="E16">
         <v>-17.17197</v>
@@ -5483,13 +5473,13 @@
         <v>5.044306734</v>
       </c>
       <c r="B17" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="C17" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="D17" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="E17">
         <v>-17.75908</v>
@@ -5515,13 +5505,13 @@
         <v>4.70801961899999</v>
       </c>
       <c r="B18" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="C18" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="D18" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="E18">
         <v>-14.08485</v>
@@ -5547,13 +5537,13 @@
         <v>4.37173250299999</v>
       </c>
       <c r="B19" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="C19" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="D19" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="E19">
         <v>-9.69094</v>
@@ -5579,13 +5569,13 @@
         <v>4.035445387</v>
       </c>
       <c r="B20" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="C20" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="D20" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="E20">
         <v>62.64671</v>
@@ -5611,13 +5601,13 @@
         <v>3.69915827100001</v>
       </c>
       <c r="B21" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="C21" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="D21" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="E21">
         <v>238.657</v>
@@ -5643,13 +5633,13 @@
         <v>3.36287115500002</v>
       </c>
       <c r="B22" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="C22" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="D22" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="E22">
         <v>709.01882</v>
@@ -5675,13 +5665,13 @@
         <v>3.02658403900003</v>
       </c>
       <c r="B23" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="C23" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="D23" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="E23">
         <v>1922.70321</v>
@@ -5707,13 +5697,13 @@
         <v>2.69029692300004</v>
       </c>
       <c r="B24" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="C24" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="D24" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="E24">
         <v>3453.20136</v>
@@ -5775,7 +5765,7 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -5797,7 +5787,7 @@
         <v>0.0212973013381394</v>
       </c>
       <c r="J1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="K1">
         <v>300</v>
@@ -5821,7 +5811,7 @@
     </row>
     <row r="2" spans="1:16">
       <c r="A2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -5843,7 +5833,7 @@
         <v>0.0213150838717795</v>
       </c>
       <c r="J2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="K2">
         <v>300</v>
@@ -5867,7 +5857,7 @@
     </row>
     <row r="3" spans="1:16">
       <c r="A3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -5889,7 +5879,7 @@
         <v>0.0213514365883235</v>
       </c>
       <c r="J3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="K3">
         <v>300</v>
@@ -5913,7 +5903,7 @@
     </row>
     <row r="4" spans="1:16">
       <c r="A4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -5935,7 +5925,7 @@
         <v>0.0213704943512894</v>
       </c>
       <c r="J4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K4">
         <v>300</v>
@@ -5959,7 +5949,7 @@
     </row>
     <row r="5" spans="1:16">
       <c r="A5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -5981,7 +5971,7 @@
         <v>0.0213854811300705</v>
       </c>
       <c r="J5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="K5">
         <v>300</v>
@@ -6005,7 +5995,7 @@
     </row>
     <row r="6" spans="1:16">
       <c r="A6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -6027,7 +6017,7 @@
         <v>0.0214245984414376</v>
       </c>
       <c r="J6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K6">
         <v>300</v>
@@ -6051,7 +6041,7 @@
     </row>
     <row r="7" spans="1:16">
       <c r="A7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -6073,7 +6063,7 @@
         <v>0.0214416347213709</v>
       </c>
       <c r="J7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="K7">
         <v>300</v>
@@ -6097,7 +6087,7 @@
     </row>
     <row r="8" spans="1:16">
       <c r="A8" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -6119,7 +6109,7 @@
         <v>0.0214761407685137</v>
       </c>
       <c r="J8" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K8">
         <v>300</v>
@@ -6143,7 +6133,7 @@
     </row>
     <row r="9" spans="1:16">
       <c r="A9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -6165,7 +6155,7 @@
         <v>0.0214953236250955</v>
       </c>
       <c r="J9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K9">
         <v>300</v>
@@ -6189,7 +6179,7 @@
     </row>
     <row r="10" spans="1:16">
       <c r="A10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -6211,7 +6201,7 @@
         <v>0.0215045517247771</v>
       </c>
       <c r="J10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="K10">
         <v>300</v>
@@ -6235,7 +6225,7 @@
     </row>
     <row r="11" spans="1:16">
       <c r="A11" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -6257,7 +6247,7 @@
         <v>0.0215259662164836</v>
       </c>
       <c r="J11" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K11">
         <v>300</v>
@@ -6281,7 +6271,7 @@
     </row>
     <row r="12" spans="1:16">
       <c r="A12" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -6303,7 +6293,7 @@
         <v>0.0215454250434452</v>
       </c>
       <c r="J12" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K12">
         <v>300</v>
@@ -6327,7 +6317,7 @@
     </row>
     <row r="13" spans="1:16">
       <c r="A13" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -6349,7 +6339,7 @@
         <v>0.02155955563384</v>
       </c>
       <c r="J13" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K13">
         <v>300</v>
@@ -6373,7 +6363,7 @@
     </row>
     <row r="14" spans="1:16">
       <c r="A14" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -6395,7 +6385,7 @@
         <v>0.0215758343232551</v>
       </c>
       <c r="J14" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K14">
         <v>300</v>
@@ -6419,7 +6409,7 @@
     </row>
     <row r="15" spans="1:16">
       <c r="A15" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -6441,7 +6431,7 @@
         <v>0.0215897807066604</v>
       </c>
       <c r="J15" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K15">
         <v>300</v>
@@ -6465,7 +6455,7 @@
     </row>
     <row r="16" spans="1:16">
       <c r="A16" t="s">
-        <v>132</v>
+        <v>157</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -6487,7 +6477,7 @@
         <v>0.00616135745718576</v>
       </c>
       <c r="J16" t="s">
-        <v>132</v>
+        <v>157</v>
       </c>
       <c r="K16">
         <v>300</v>
@@ -6511,7 +6501,7 @@
     </row>
     <row r="17" spans="1:16">
       <c r="A17" t="s">
-        <v>133</v>
+        <v>158</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -6533,7 +6523,7 @@
         <v>0.00642130111638179</v>
       </c>
       <c r="J17" t="s">
-        <v>133</v>
+        <v>158</v>
       </c>
       <c r="K17">
         <v>300</v>
@@ -6557,7 +6547,7 @@
     </row>
     <row r="18" spans="1:16">
       <c r="A18" t="s">
-        <v>134</v>
+        <v>159</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -6579,7 +6569,7 @@
         <v>0.00668963932810497</v>
       </c>
       <c r="J18" t="s">
-        <v>134</v>
+        <v>159</v>
       </c>
       <c r="K18">
         <v>300</v>
@@ -6603,7 +6593,7 @@
     </row>
     <row r="19" spans="1:16">
       <c r="A19" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -6625,7 +6615,7 @@
         <v>0.00722596664254261</v>
       </c>
       <c r="J19" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="K19">
         <v>300</v>
@@ -6649,7 +6639,7 @@
     </row>
     <row r="20" spans="1:16">
       <c r="A20" t="s">
-        <v>136</v>
+        <v>161</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -6671,7 +6661,7 @@
         <v>0.00725404306569759</v>
       </c>
       <c r="J20" t="s">
-        <v>136</v>
+        <v>161</v>
       </c>
       <c r="K20">
         <v>300</v>
@@ -6695,7 +6685,7 @@
     </row>
     <row r="21" spans="1:16">
       <c r="A21" t="s">
-        <v>137</v>
+        <v>162</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -6717,7 +6707,7 @@
         <v>0.00725404306569759</v>
       </c>
       <c r="J21" t="s">
-        <v>137</v>
+        <v>162</v>
       </c>
       <c r="K21">
         <v>300</v>
@@ -6741,7 +6731,7 @@
     </row>
     <row r="22" spans="1:16">
       <c r="A22" t="s">
-        <v>138</v>
+        <v>163</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -6763,7 +6753,7 @@
         <v>0.00725404306569759</v>
       </c>
       <c r="J22" t="s">
-        <v>138</v>
+        <v>163</v>
       </c>
       <c r="K22">
         <v>300</v>
@@ -6787,7 +6777,7 @@
     </row>
     <row r="23" spans="1:16">
       <c r="A23" t="s">
-        <v>139</v>
+        <v>164</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -6809,7 +6799,7 @@
         <v>0.00725404306569759</v>
       </c>
       <c r="J23" t="s">
-        <v>139</v>
+        <v>164</v>
       </c>
       <c r="K23">
         <v>300</v>
@@ -6833,7 +6823,7 @@
     </row>
     <row r="24" spans="1:16">
       <c r="A24" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -6855,7 +6845,7 @@
         <v>0.00725404306569759</v>
       </c>
       <c r="J24" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="K24">
         <v>300</v>
@@ -6879,7 +6869,7 @@
     </row>
     <row r="25" spans="1:15">
       <c r="A25" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -6897,7 +6887,7 @@
         <v>22.395319</v>
       </c>
       <c r="J25" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="K25">
         <v>300</v>
@@ -6917,7 +6907,7 @@
     </row>
     <row r="26" spans="1:15">
       <c r="A26" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -6935,7 +6925,7 @@
         <v>22.395319</v>
       </c>
       <c r="J26" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="K26">
         <v>300</v>
@@ -6955,7 +6945,7 @@
     </row>
     <row r="27" spans="1:15">
       <c r="A27" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -6973,7 +6963,7 @@
         <v>72.8132429</v>
       </c>
       <c r="J27" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="K27">
         <v>300</v>
@@ -6993,7 +6983,7 @@
     </row>
     <row r="28" spans="1:15">
       <c r="A28" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -7011,7 +7001,7 @@
         <v>16.0294562</v>
       </c>
       <c r="J28" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K28">
         <v>300</v>
@@ -7031,7 +7021,7 @@
     </row>
     <row r="29" spans="1:15">
       <c r="A29" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -7049,7 +7039,7 @@
         <v>17.5375936</v>
       </c>
       <c r="J29" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="K29">
         <v>300</v>
@@ -7069,7 +7059,7 @@
     </row>
     <row r="30" spans="1:15">
       <c r="A30" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -7087,7 +7077,7 @@
         <v>18.1291886</v>
       </c>
       <c r="J30" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="K30">
         <v>300</v>
@@ -7120,10 +7110,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:O38"/>
+  <dimension ref="A1:O36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -7312,7 +7302,7 @@
         <v>-215.884122654155</v>
       </c>
       <c r="I5">
-        <f t="shared" ref="I5:I20" si="4">D5/2.611E+22*6.02*1E+23</f>
+        <f>D5/2.611E+22*6.02*1E+23</f>
         <v>-215.392675680168</v>
       </c>
       <c r="J5">
@@ -7320,7 +7310,7 @@
         <v>-1.20764865951699</v>
       </c>
       <c r="K5">
-        <f t="shared" ref="K5:K20" si="5">I5+214.243433351208</f>
+        <f>I5+214.243433351208</f>
         <v>-1.14924232896001</v>
       </c>
       <c r="N5">
@@ -7359,7 +7349,7 @@
         <v>-215.896400134048</v>
       </c>
       <c r="I6">
-        <f t="shared" si="4"/>
+        <f>D6/2.611E+22*6.02*1E+23</f>
         <v>-215.404115000913</v>
       </c>
       <c r="J6">
@@ -7367,7 +7357,7 @@
         <v>-1.21992613941001</v>
       </c>
       <c r="K6">
-        <f t="shared" si="5"/>
+        <f>I6+214.243433351208</f>
         <v>-1.16068164970457</v>
       </c>
       <c r="N6">
@@ -7406,7 +7396,7 @@
         <v>-215.905905093834</v>
       </c>
       <c r="I7">
-        <f t="shared" si="4"/>
+        <f>D7/2.611E+22*6.02*1E+23</f>
         <v>-215.413180559193</v>
       </c>
       <c r="J7">
@@ -7414,7 +7404,7 @@
         <v>-1.22943109919601</v>
       </c>
       <c r="K7">
-        <f t="shared" si="5"/>
+        <f>I7+214.243433351208</f>
         <v>-1.16974720798473</v>
       </c>
       <c r="N7">
@@ -7437,13 +7427,13 @@
       </c>
       <c r="D8" s="10">
         <f t="shared" si="0"/>
-        <v>-9.34319526886993</v>
+        <v>-9.34318635039476</v>
       </c>
       <c r="E8" s="10">
         <v>-0.194466</v>
       </c>
       <c r="F8">
-        <v>0.0213854811300705</v>
+        <v>0.0213943996052378</v>
       </c>
       <c r="G8">
         <v>0.0207224978899954</v>
@@ -7453,19 +7443,19 @@
         <v>-215.912585656836</v>
       </c>
       <c r="I8">
-        <f t="shared" si="4"/>
-        <v>-215.419515582524</v>
+        <f>D8/2.611E+22*6.02*1E+23</f>
+        <v>-215.419309955482</v>
       </c>
       <c r="J8">
         <f t="shared" si="3"/>
         <v>-1.236111662198</v>
       </c>
       <c r="K8">
-        <f t="shared" si="5"/>
-        <v>-1.1760822313158</v>
+        <f>I8+214.243433351208</f>
+        <v>-1.17587660427441</v>
       </c>
       <c r="L8">
-        <f>B12*2</f>
+        <f>B10*2</f>
         <v>13.3961364708543</v>
       </c>
       <c r="N8">
@@ -7478,958 +7468,918 @@
     </row>
     <row r="9" spans="1:15">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="B9" s="1">
-        <v>6.79754449634934</v>
-      </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
+        <v>6.76438574270861</v>
+      </c>
+      <c r="C9">
+        <v>-9.36471925</v>
+      </c>
+      <c r="D9" s="10">
+        <f>C9+F9</f>
+        <v>-9.34329465155856</v>
+      </c>
+      <c r="E9" s="10">
+        <v>0.083872</v>
+      </c>
+      <c r="F9">
+        <v>0.0214245984414376</v>
+      </c>
+      <c r="G9">
+        <v>0.0207691221463404</v>
+      </c>
+      <c r="H9">
+        <f>C9/2.611E+22*6.02*1E+23</f>
+        <v>-215.915778954424</v>
+      </c>
+      <c r="I9">
+        <f>D9/2.611E+22*6.02*1E+23</f>
+        <v>-215.421806979634</v>
+      </c>
+      <c r="J9">
+        <f>H9+214.676473994638</f>
+        <v>-1.23930495978553</v>
+      </c>
+      <c r="K9">
+        <f>I9+214.243433351208</f>
+        <v>-1.17837362842636</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <f>6.72574231244026*L9</f>
+        <v>6.72574231244026</v>
+      </c>
       <c r="N9">
-        <v>1.015</v>
+        <v>1.01</v>
       </c>
       <c r="O9">
-        <f t="shared" si="1"/>
-        <v>6.73122698906788</v>
+        <f>6.6317507281457*N9</f>
+        <v>6.69806823542716</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1">
-        <v>6.76438574270861</v>
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>6.69806823542716</v>
       </c>
       <c r="C10">
-        <v>-9.36471925</v>
+        <v>-9.364684</v>
       </c>
       <c r="D10" s="10">
-        <f>C10+F10</f>
-        <v>-9.34329465155856</v>
+        <f t="shared" ref="D10:D18" si="4">C10+F10</f>
+        <v>-9.34324753680807</v>
       </c>
       <c r="E10" s="10">
-        <v>0.083872</v>
+        <v>0.40474</v>
       </c>
       <c r="F10">
-        <v>0.0214245984414376</v>
+        <v>0.0214364631919282</v>
       </c>
       <c r="G10">
-        <v>0.0207691221463404</v>
+        <v>0.0207971474890624</v>
       </c>
       <c r="H10">
-        <f>C10/2.611E+22*6.02*1E+23</f>
-        <v>-215.915778954424</v>
+        <f t="shared" ref="H10:H29" si="5">C10/2.611E+22*6.02*1E+23</f>
+        <v>-215.914966219839</v>
       </c>
       <c r="I10">
-        <f t="shared" si="4"/>
-        <v>-215.421806979634</v>
+        <f t="shared" ref="I10:I18" si="6">D10/2.611E+22*6.02*1E+23</f>
+        <v>-215.4207206878</v>
       </c>
       <c r="J10">
-        <f>H10+214.676473994638</f>
-        <v>-1.23930495978601</v>
+        <f t="shared" ref="J10:J18" si="7">H10+214.676473994638</f>
+        <v>-1.23849222520113</v>
       </c>
       <c r="K10">
-        <f t="shared" si="5"/>
-        <v>-1.17837362842636</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <f>6.72574231244026*L10</f>
-        <v>6.72574231244026</v>
+        <f t="shared" ref="K10:K18" si="8">I10+214.243433351208</f>
+        <v>-1.177287336592</v>
       </c>
       <c r="N10">
-        <v>1.01</v>
+        <v>0.99</v>
       </c>
       <c r="O10">
-        <f t="shared" ref="O10:O16" si="6">6.6317507281457*N10</f>
-        <v>6.69806823542716</v>
+        <f>6.6317507281457*N10</f>
+        <v>6.56543322086424</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="B11" s="1">
-        <v>6.73122698906788</v>
-      </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
+        <v>6.6317507281457</v>
+      </c>
+      <c r="C11">
+        <v>-9.36446125</v>
+      </c>
+      <c r="D11" s="10">
+        <f t="shared" si="4"/>
+        <v>-9.34298510923149</v>
+      </c>
+      <c r="E11" s="10">
+        <v>0.766066</v>
+      </c>
+      <c r="F11">
+        <v>0.0214761407685137</v>
+      </c>
+      <c r="G11">
+        <v>0.0208237304654679</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="5"/>
+        <v>-215.909830428954</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="6"/>
+        <v>-215.414670078796</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="7"/>
+        <v>-1.23335643431639</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="8"/>
+        <v>-1.17123672758763</v>
+      </c>
       <c r="N11">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O11">
-        <f t="shared" si="6"/>
-        <v>6.6317507281457</v>
+        <f>6.6317507281457*N11</f>
+        <v>6.49911571358279</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>6.69806823542716</v>
+        <v>12</v>
+      </c>
+      <c r="B12" s="1">
+        <v>6.56543322086424</v>
       </c>
       <c r="C12">
-        <v>-9.364684</v>
+        <v>-9.36401425</v>
       </c>
       <c r="D12" s="10">
-        <f t="shared" ref="D12:D20" si="7">C12+F12</f>
-        <v>-9.34324236527863</v>
+        <f t="shared" si="4"/>
+        <v>-9.3425189263749</v>
       </c>
       <c r="E12" s="10">
-        <v>0.40474</v>
+        <v>1.209655</v>
       </c>
       <c r="F12">
-        <v>0.0214416347213709</v>
+        <v>0.0214953236250955</v>
       </c>
       <c r="G12">
-        <v>0.0207971474890624</v>
+        <v>0.0208437353704383</v>
       </c>
       <c r="H12">
-        <f t="shared" ref="H12:H31" si="8">C12/2.611E+22*6.02*1E+23</f>
-        <v>-215.914966219839</v>
+        <f t="shared" si="5"/>
+        <v>-215.899524262735</v>
       </c>
       <c r="I12">
-        <f t="shared" si="4"/>
-        <v>-215.420601451464</v>
+        <f t="shared" si="6"/>
+        <v>-215.403921626874</v>
       </c>
       <c r="J12">
-        <f t="shared" ref="J12:J20" si="9">H12+214.676473994638</f>
-        <v>-1.23849222520099</v>
+        <f t="shared" si="7"/>
+        <v>-1.22305026809653</v>
       </c>
       <c r="K12">
-        <f t="shared" si="5"/>
-        <v>-1.17716810025632</v>
+        <f t="shared" si="8"/>
+        <v>-1.16048827566641</v>
       </c>
       <c r="N12">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="O12">
-        <f t="shared" si="6"/>
-        <v>6.56543322086424</v>
+        <f>6.6317507281457*N12</f>
+        <v>6.43279820630133</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B13" s="1">
-        <v>6.6317507281457</v>
+        <v>6.49911571358279</v>
       </c>
       <c r="C13">
-        <v>-9.36446125</v>
+        <v>-9.363318</v>
       </c>
       <c r="D13" s="10">
+        <f t="shared" si="4"/>
+        <v>-9.34181344827522</v>
+      </c>
+      <c r="E13" s="10">
+        <v>1.650845</v>
+      </c>
+      <c r="F13">
+        <v>0.0215045517247771</v>
+      </c>
+      <c r="G13">
+        <v>0.0208632790939217</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="5"/>
+        <v>-215.883471313673</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="6"/>
+        <v>-215.387655911976</v>
+      </c>
+      <c r="J13">
         <f t="shared" si="7"/>
-        <v>-9.34298510923149</v>
-      </c>
-      <c r="E13" s="10">
-        <v>0.766066</v>
-      </c>
-      <c r="F13">
-        <v>0.0214761407685137</v>
-      </c>
-      <c r="G13">
-        <v>0.0208237304654679</v>
-      </c>
-      <c r="H13">
+        <v>-1.20699731903488</v>
+      </c>
+      <c r="K13">
         <f t="shared" si="8"/>
-        <v>-215.909830428954</v>
-      </c>
-      <c r="I13">
-        <f t="shared" si="4"/>
-        <v>-215.414670078796</v>
-      </c>
-      <c r="J13">
-        <f t="shared" si="9"/>
-        <v>-1.23335643431599</v>
-      </c>
-      <c r="K13">
-        <f t="shared" si="5"/>
-        <v>-1.17123672758763</v>
+        <v>-1.14422256076764</v>
       </c>
       <c r="N13">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
       <c r="O13">
-        <f t="shared" si="6"/>
-        <v>6.49911571358279</v>
+        <f>6.6317507281457*N13</f>
+        <v>6.36648069901987</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B14" s="1">
-        <v>6.56543322086424</v>
+        <v>6.43279820630133</v>
       </c>
       <c r="C14">
-        <v>-9.36401425</v>
+        <v>-9.36232725</v>
       </c>
       <c r="D14" s="10">
+        <f t="shared" si="4"/>
+        <v>-9.34080128378352</v>
+      </c>
+      <c r="E14" s="10">
+        <v>2.184954</v>
+      </c>
+      <c r="F14">
+        <v>0.0215259662164836</v>
+      </c>
+      <c r="G14">
+        <v>0.0208786517777622</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="5"/>
+        <v>-215.860628284182</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="6"/>
+        <v>-215.364319143534</v>
+      </c>
+      <c r="J14">
         <f t="shared" si="7"/>
-        <v>-9.3425189263749</v>
-      </c>
-      <c r="E14" s="10">
-        <v>1.209655</v>
-      </c>
-      <c r="F14">
-        <v>0.0214953236250955</v>
-      </c>
-      <c r="G14">
-        <v>0.0208437353704383</v>
-      </c>
-      <c r="H14">
+        <v>-1.18415428954427</v>
+      </c>
+      <c r="K14">
         <f t="shared" si="8"/>
-        <v>-215.899524262735</v>
-      </c>
-      <c r="I14">
-        <f t="shared" si="4"/>
-        <v>-215.403921626874</v>
-      </c>
-      <c r="J14">
-        <f t="shared" si="9"/>
-        <v>-1.22305026809701</v>
-      </c>
-      <c r="K14">
-        <f t="shared" si="5"/>
-        <v>-1.16048827566641</v>
+        <v>-1.12088579232613</v>
+      </c>
+      <c r="L14">
+        <v>0.95</v>
+      </c>
+      <c r="M14">
+        <f t="shared" ref="M14:M25" si="9">6.72574231244026*L14</f>
+        <v>6.38945519681825</v>
       </c>
       <c r="N14">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="O14">
-        <f t="shared" si="6"/>
-        <v>6.43279820630133</v>
+        <f>6.6317507281457*N14</f>
+        <v>6.30016319173841</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B15" s="1">
-        <v>6.49911571358279</v>
+        <v>6.36648069901987</v>
       </c>
       <c r="C15">
-        <v>-9.363318</v>
+        <v>-9.3610255</v>
       </c>
       <c r="D15" s="10">
+        <f t="shared" si="4"/>
+        <v>-9.33948007495655</v>
+      </c>
+      <c r="E15" s="10">
+        <v>2.81936</v>
+      </c>
+      <c r="F15">
+        <v>0.0215454250434452</v>
+      </c>
+      <c r="G15">
+        <v>0.0209155631075892</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="5"/>
+        <v>-215.830614745308</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="6"/>
+        <v>-215.333856956103</v>
+      </c>
+      <c r="J15">
         <f t="shared" si="7"/>
-        <v>-9.34181344827522</v>
-      </c>
-      <c r="E15" s="10">
-        <v>1.650845</v>
-      </c>
-      <c r="F15">
-        <v>0.0215045517247771</v>
-      </c>
-      <c r="G15">
-        <v>0.0208632790939217</v>
-      </c>
-      <c r="H15">
+        <v>-1.15414075067028</v>
+      </c>
+      <c r="K15">
         <f t="shared" si="8"/>
-        <v>-215.883471313673</v>
-      </c>
-      <c r="I15">
-        <f t="shared" si="4"/>
-        <v>-215.387655911976</v>
-      </c>
-      <c r="J15">
+        <v>-1.09042360489482</v>
+      </c>
+      <c r="L15">
+        <v>0.9</v>
+      </c>
+      <c r="M15">
         <f t="shared" si="9"/>
-        <v>-1.206997319035</v>
-      </c>
-      <c r="K15">
-        <f t="shared" si="5"/>
-        <v>-1.14422256076764</v>
+        <v>6.05316808119623</v>
       </c>
       <c r="N15">
-        <v>0.96</v>
+        <v>0.94</v>
       </c>
       <c r="O15">
-        <f t="shared" si="6"/>
-        <v>6.36648069901987</v>
+        <f t="shared" ref="O15:O25" si="10">6.6317507281457*N15</f>
+        <v>6.23384568445696</v>
       </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B16" s="1">
-        <v>6.43279820630133</v>
+        <v>6.30016319173841</v>
       </c>
       <c r="C16">
-        <v>-9.36232725</v>
+        <v>-9.359363</v>
       </c>
       <c r="D16" s="10">
+        <f t="shared" si="4"/>
+        <v>-9.33780344436616</v>
+      </c>
+      <c r="E16" s="10">
+        <v>3.470399</v>
+      </c>
+      <c r="F16">
+        <v>0.02155955563384</v>
+      </c>
+      <c r="G16">
+        <v>0.02093910836919</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="5"/>
+        <v>-215.792283646113</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="6"/>
+        <v>-215.295200057772</v>
+      </c>
+      <c r="J16">
         <f t="shared" si="7"/>
-        <v>-9.34080128378352</v>
-      </c>
-      <c r="E16" s="10">
-        <v>2.184954</v>
-      </c>
-      <c r="F16">
-        <v>0.0215259662164836</v>
-      </c>
-      <c r="G16">
-        <v>0.0208786517777622</v>
-      </c>
-      <c r="H16">
+        <v>-1.11580965147456</v>
+      </c>
+      <c r="K16">
         <f t="shared" si="8"/>
-        <v>-215.860628284182</v>
-      </c>
-      <c r="I16">
-        <f t="shared" si="4"/>
-        <v>-215.364319143534</v>
-      </c>
-      <c r="J16">
+        <v>-1.05176670656402</v>
+      </c>
+      <c r="L16">
+        <v>0.85</v>
+      </c>
+      <c r="M16">
         <f t="shared" si="9"/>
-        <v>-1.18415428954401</v>
-      </c>
-      <c r="K16">
-        <f t="shared" si="5"/>
-        <v>-1.12088579232613</v>
-      </c>
-      <c r="L16">
-        <v>0.95</v>
-      </c>
-      <c r="M16">
-        <f t="shared" ref="M16:M27" si="10">6.72574231244026*L16</f>
-        <v>6.38945519681825</v>
+        <v>5.71688096557422</v>
       </c>
       <c r="N16">
-        <v>0.95</v>
+        <v>0.93</v>
       </c>
       <c r="O16">
-        <f t="shared" si="6"/>
-        <v>6.30016319173841</v>
+        <f t="shared" si="10"/>
+        <v>6.1675281771755</v>
       </c>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="1">
-        <v>6.36648069901987</v>
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>6.23384568445696</v>
       </c>
       <c r="C17">
-        <v>-9.3610255</v>
+        <v>-9.3572985</v>
       </c>
       <c r="D17" s="10">
+        <f t="shared" si="4"/>
+        <v>-9.33572266567675</v>
+      </c>
+      <c r="E17" s="10">
+        <v>8.313759</v>
+      </c>
+      <c r="F17">
+        <v>0.0215758343232551</v>
+      </c>
+      <c r="G17">
+        <v>0.0209624503779583</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="5"/>
+        <v>-215.744683914209</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="6"/>
+        <v>-215.247224999517</v>
+      </c>
+      <c r="J17">
         <f t="shared" si="7"/>
-        <v>-9.33948007495655</v>
-      </c>
-      <c r="E17" s="10">
-        <v>2.81936</v>
-      </c>
-      <c r="F17">
-        <v>0.0215454250434452</v>
-      </c>
-      <c r="G17">
-        <v>0.0209155631075892</v>
-      </c>
-      <c r="H17">
+        <v>-1.06820991957107</v>
+      </c>
+      <c r="K17">
         <f t="shared" si="8"/>
-        <v>-215.830614745308</v>
-      </c>
-      <c r="I17">
-        <f t="shared" si="4"/>
-        <v>-215.333856956103</v>
-      </c>
-      <c r="J17">
+        <v>-1.00379164830943</v>
+      </c>
+      <c r="L17">
+        <v>0.8</v>
+      </c>
+      <c r="M17">
         <f t="shared" si="9"/>
-        <v>-1.15414075067</v>
-      </c>
-      <c r="K17">
-        <f t="shared" si="5"/>
-        <v>-1.09042360489482</v>
-      </c>
-      <c r="L17">
-        <v>0.9</v>
-      </c>
-      <c r="M17">
+        <v>5.38059384995221</v>
+      </c>
+      <c r="O17">
         <f t="shared" si="10"/>
-        <v>6.05316808119623</v>
-      </c>
-      <c r="N17">
-        <v>0.94</v>
-      </c>
-      <c r="O17">
-        <f t="shared" ref="O17:O27" si="11">6.6317507281457*N17</f>
-        <v>6.23384568445696</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="1">
-        <v>6.30016319173841</v>
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <v>6.1675281771755</v>
       </c>
       <c r="C18">
-        <v>-9.359363</v>
+        <v>-9.35477725</v>
       </c>
       <c r="D18" s="10">
+        <f t="shared" si="4"/>
+        <v>-9.33318746929334</v>
+      </c>
+      <c r="E18" s="10">
+        <v>16.364584</v>
+      </c>
+      <c r="F18">
+        <v>0.0215897807066604</v>
+      </c>
+      <c r="G18">
+        <v>0.0209664669130575</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="5"/>
+        <v>-215.686553217158</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="6"/>
+        <v>-215.188772750463</v>
+      </c>
+      <c r="J18">
         <f t="shared" si="7"/>
-        <v>-9.33780344436616</v>
-      </c>
-      <c r="E18" s="10">
-        <v>3.470399</v>
-      </c>
-      <c r="F18">
-        <v>0.02155955563384</v>
-      </c>
-      <c r="G18">
-        <v>0.02093910836919</v>
-      </c>
-      <c r="H18">
+        <v>-1.01007922252012</v>
+      </c>
+      <c r="K18">
         <f t="shared" si="8"/>
-        <v>-215.792283646113</v>
-      </c>
-      <c r="I18">
-        <f t="shared" si="4"/>
-        <v>-215.295200057772</v>
-      </c>
-      <c r="J18">
+        <v>-0.945339399255005</v>
+      </c>
+      <c r="L18">
+        <v>0.75</v>
+      </c>
+      <c r="M18">
         <f t="shared" si="9"/>
-        <v>-1.11580965147499</v>
-      </c>
-      <c r="K18">
-        <f t="shared" si="5"/>
-        <v>-1.05176670656402</v>
-      </c>
-      <c r="L18">
-        <v>0.85</v>
-      </c>
-      <c r="M18">
+        <v>5.04430673433019</v>
+      </c>
+      <c r="N18">
+        <v>0.75</v>
+      </c>
+      <c r="O18">
         <f t="shared" si="10"/>
-        <v>5.71688096557422</v>
-      </c>
-      <c r="N18">
-        <v>0.93</v>
-      </c>
-      <c r="O18">
-        <f t="shared" si="11"/>
-        <v>6.1675281771755</v>
+        <v>4.97381304610928</v>
       </c>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19">
-        <v>6.23384568445696</v>
+        <v>19</v>
+      </c>
+      <c r="B19" s="1">
+        <v>5.96857565533113</v>
       </c>
       <c r="C19">
-        <v>-9.3572985</v>
+        <v>-9.3439195</v>
       </c>
       <c r="D19" s="10">
-        <f t="shared" si="7"/>
-        <v>-9.33572266567675</v>
+        <f t="shared" ref="D19:D30" si="11">C19+F19</f>
+        <v>-9.3439195</v>
       </c>
       <c r="E19" s="10">
-        <v>8.313759</v>
+        <v>29.162834</v>
       </c>
       <c r="F19">
-        <v>0.0215758343232551</v>
-      </c>
-      <c r="G19">
-        <v>0.0209624503779583</v>
+        <v>0</v>
       </c>
       <c r="H19">
-        <f t="shared" si="8"/>
-        <v>-215.744683914209</v>
-      </c>
-      <c r="I19">
-        <f t="shared" si="4"/>
-        <v>-215.247224999517</v>
-      </c>
-      <c r="J19">
+        <f t="shared" si="5"/>
+        <v>-215.436213672922</v>
+      </c>
+      <c r="L19">
+        <v>0.7</v>
+      </c>
+      <c r="M19">
         <f t="shared" si="9"/>
-        <v>-1.06820991957099</v>
-      </c>
-      <c r="K19">
-        <f t="shared" si="5"/>
-        <v>-1.00379164830943</v>
-      </c>
-      <c r="L19">
-        <v>0.8</v>
-      </c>
-      <c r="M19">
+        <v>4.70801961870818</v>
+      </c>
+      <c r="N19">
+        <v>0.7</v>
+      </c>
+      <c r="O19">
         <f t="shared" si="10"/>
-        <v>5.38059384995221</v>
-      </c>
-      <c r="O19">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <v>4.64222550970199</v>
       </c>
     </row>
     <row r="20" spans="1:15">
       <c r="A20" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20">
-        <v>6.1675281771755</v>
+        <v>20</v>
+      </c>
+      <c r="B20" s="1">
+        <v>5.63698811892385</v>
       </c>
       <c r="C20">
-        <v>-9.35477725</v>
+        <v>-9.31057675</v>
       </c>
       <c r="D20" s="10">
-        <f t="shared" si="7"/>
-        <v>-9.33318746929334</v>
+        <f t="shared" si="11"/>
+        <v>-9.31057675</v>
       </c>
       <c r="E20" s="10">
-        <v>16.364584</v>
+        <v>49.590418</v>
       </c>
       <c r="F20">
-        <v>0.0215897807066604</v>
-      </c>
-      <c r="G20">
-        <v>0.0209664669130575</v>
+        <v>0</v>
       </c>
       <c r="H20">
-        <f t="shared" si="8"/>
-        <v>-215.686553217158</v>
-      </c>
-      <c r="I20">
-        <f t="shared" si="4"/>
-        <v>-215.188772750463</v>
-      </c>
-      <c r="J20">
+        <f t="shared" si="5"/>
+        <v>-214.667453217158</v>
+      </c>
+      <c r="L20">
+        <v>0.65</v>
+      </c>
+      <c r="M20">
         <f t="shared" si="9"/>
-        <v>-1.01007922252001</v>
-      </c>
-      <c r="K20">
-        <f t="shared" si="5"/>
-        <v>-0.945339399255005</v>
-      </c>
-      <c r="L20">
-        <v>0.75</v>
-      </c>
-      <c r="M20">
+        <v>4.37173250308617</v>
+      </c>
+      <c r="N20">
+        <v>0.65</v>
+      </c>
+      <c r="O20">
         <f t="shared" si="10"/>
-        <v>5.04430673433019</v>
-      </c>
-      <c r="N20">
-        <v>0.75</v>
-      </c>
-      <c r="O20">
-        <f t="shared" si="11"/>
-        <v>4.97381304610928</v>
+        <v>4.31063797329471</v>
       </c>
     </row>
     <row r="21" spans="1:15">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B21" s="1">
-        <v>5.96857565533113</v>
+        <v>5.30540058251656</v>
       </c>
       <c r="C21">
-        <v>-9.3439195</v>
+        <v>-9.2470915</v>
       </c>
       <c r="D21" s="10">
-        <f t="shared" ref="D21:D32" si="12">C21+F21</f>
-        <v>-9.3439195</v>
+        <f t="shared" si="11"/>
+        <v>-9.2470915</v>
       </c>
       <c r="E21" s="10">
-        <v>29.162834</v>
+        <v>81.795232</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="H21">
-        <f t="shared" si="8"/>
-        <v>-215.436213672922</v>
+        <f t="shared" si="5"/>
+        <v>-213.203718230563</v>
       </c>
       <c r="L21">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="M21">
+        <f t="shared" si="9"/>
+        <v>4.03544538746416</v>
+      </c>
+      <c r="N21">
+        <v>0.6</v>
+      </c>
+      <c r="O21">
         <f t="shared" si="10"/>
-        <v>4.70801961870818</v>
-      </c>
-      <c r="N21">
-        <v>0.7</v>
-      </c>
-      <c r="O21">
-        <f t="shared" si="11"/>
-        <v>4.64222550970199</v>
+        <v>3.97905043688742</v>
       </c>
     </row>
     <row r="22" spans="1:15">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B22" s="1">
-        <v>5.63698811892385</v>
+        <v>4.97381304610928</v>
       </c>
       <c r="C22">
-        <v>-9.31057675</v>
+        <v>-9.13348925</v>
       </c>
       <c r="D22" s="10">
-        <f t="shared" si="12"/>
-        <v>-9.31057675</v>
+        <f t="shared" si="11"/>
+        <v>-9.13348925</v>
       </c>
       <c r="E22" s="10">
-        <v>49.590418</v>
+        <v>126.264436</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="H22">
-        <f t="shared" si="8"/>
-        <v>-214.667453217158</v>
+        <f t="shared" si="5"/>
+        <v>-210.584470643432</v>
       </c>
       <c r="L22">
-        <v>0.65</v>
+        <v>0.55</v>
       </c>
       <c r="M22">
+        <f t="shared" si="9"/>
+        <v>3.69915827184214</v>
+      </c>
+      <c r="N22">
+        <v>0.55</v>
+      </c>
+      <c r="O22">
         <f t="shared" si="10"/>
-        <v>4.37173250308617</v>
-      </c>
-      <c r="N22">
-        <v>0.65</v>
-      </c>
-      <c r="O22">
-        <f t="shared" si="11"/>
-        <v>4.31063797329471</v>
+        <v>3.64746290048014</v>
       </c>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B23" s="1">
-        <v>5.30540058251656</v>
+        <v>4.64222550970199</v>
       </c>
       <c r="C23">
-        <v>-9.2470915</v>
+        <v>-8.9380785</v>
       </c>
       <c r="D23" s="10">
-        <f t="shared" si="12"/>
-        <v>-9.2470915</v>
+        <f t="shared" si="11"/>
+        <v>-8.9380785</v>
       </c>
       <c r="E23" s="10">
-        <v>81.795232</v>
+        <v>184.537527</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="H23">
-        <f t="shared" si="8"/>
-        <v>-213.203718230563</v>
+        <f t="shared" si="5"/>
+        <v>-206.079021715818</v>
       </c>
       <c r="L23">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="M23">
+        <f t="shared" si="9"/>
+        <v>3.36287115622013</v>
+      </c>
+      <c r="N23">
+        <v>0.500000000000001</v>
+      </c>
+      <c r="O23">
         <f t="shared" si="10"/>
-        <v>4.03544538746416</v>
-      </c>
-      <c r="N23">
-        <v>0.6</v>
-      </c>
-      <c r="O23">
-        <f t="shared" si="11"/>
-        <v>3.97905043688742</v>
+        <v>3.31587536407286</v>
       </c>
     </row>
     <row r="24" spans="1:15">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B24" s="1">
-        <v>4.97381304610928</v>
+        <v>4.31063797329471</v>
       </c>
       <c r="C24">
-        <v>-9.13348925</v>
+        <v>-8.63161825</v>
       </c>
       <c r="D24" s="10">
-        <f t="shared" si="12"/>
-        <v>-9.13348925</v>
+        <f t="shared" si="11"/>
+        <v>-8.63161825</v>
       </c>
       <c r="E24" s="10">
-        <v>126.264436</v>
+        <v>278.177108</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="H24">
-        <f t="shared" si="8"/>
-        <v>-210.584470643432</v>
+        <f t="shared" si="5"/>
+        <v>-199.013182171582</v>
       </c>
       <c r="L24">
-        <v>0.55</v>
+        <v>0.45</v>
       </c>
       <c r="M24">
+        <f t="shared" si="9"/>
+        <v>3.02658404059812</v>
+      </c>
+      <c r="N24">
+        <v>0.450000000000001</v>
+      </c>
+      <c r="O24">
         <f t="shared" si="10"/>
-        <v>3.69915827184214</v>
-      </c>
-      <c r="N24">
-        <v>0.55</v>
-      </c>
-      <c r="O24">
-        <f t="shared" si="11"/>
-        <v>3.64746290048014</v>
+        <v>2.98428782766557</v>
       </c>
     </row>
     <row r="25" spans="1:15">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B25" s="1">
-        <v>4.64222550970199</v>
+        <v>3.97905043688742</v>
       </c>
       <c r="C25">
-        <v>-8.9380785</v>
+        <v>-8.18573275</v>
       </c>
       <c r="D25" s="10">
-        <f t="shared" si="12"/>
-        <v>-8.9380785</v>
+        <f t="shared" si="11"/>
+        <v>-8.18573275</v>
       </c>
       <c r="E25" s="10">
-        <v>184.537527</v>
+        <v>410.94174</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="H25">
-        <f t="shared" si="8"/>
-        <v>-206.079021715818</v>
+        <f t="shared" si="5"/>
+        <v>-188.732712198391</v>
       </c>
       <c r="L25">
-        <v>0.5</v>
+        <v>0.399999999999999</v>
       </c>
       <c r="M25">
+        <f t="shared" si="9"/>
+        <v>2.6902969249761</v>
+      </c>
+      <c r="N25">
+        <v>0.400000000000001</v>
+      </c>
+      <c r="O25">
         <f t="shared" si="10"/>
-        <v>3.36287115622013</v>
-      </c>
-      <c r="N25">
-        <v>0.500000000000001</v>
-      </c>
-      <c r="O25">
+        <v>2.65270029125829</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="1">
+        <v>3.64746290048014</v>
+      </c>
+      <c r="C26">
+        <v>-7.534209</v>
+      </c>
+      <c r="D26" s="10">
         <f t="shared" si="11"/>
-        <v>3.31587536407286</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" s="1">
-        <v>4.31063797329471</v>
-      </c>
-      <c r="C26">
-        <v>-8.63161825</v>
-      </c>
-      <c r="D26" s="10">
-        <f t="shared" si="12"/>
-        <v>-8.63161825</v>
-      </c>
-      <c r="E26" s="10">
-        <v>278.177108</v>
+        <v>-7.534209</v>
+      </c>
+      <c r="E26">
+        <v>515.291824</v>
       </c>
       <c r="F26">
         <v>0</v>
       </c>
       <c r="H26">
-        <f t="shared" si="8"/>
-        <v>-199.013182171582</v>
-      </c>
-      <c r="L26">
-        <v>0.45</v>
-      </c>
-      <c r="M26">
-        <f t="shared" si="10"/>
-        <v>3.02658404059812</v>
-      </c>
-      <c r="N26">
-        <v>0.450000000000001</v>
-      </c>
-      <c r="O26">
+        <f t="shared" si="5"/>
+        <v>-173.710984986595</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="1">
+        <v>3.31587536407285</v>
+      </c>
+      <c r="C27">
+        <v>-6.56529875</v>
+      </c>
+      <c r="D27" s="10">
         <f t="shared" si="11"/>
-        <v>2.98428782766557</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15">
-      <c r="A27" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" s="1">
-        <v>3.97905043688742</v>
-      </c>
-      <c r="C27">
-        <v>-8.18573275</v>
-      </c>
-      <c r="D27" s="10">
-        <f t="shared" si="12"/>
-        <v>-8.18573275</v>
-      </c>
-      <c r="E27" s="10">
-        <v>410.94174</v>
+        <v>-6.56529875</v>
+      </c>
+      <c r="E27">
+        <v>765.428943</v>
       </c>
       <c r="F27">
         <v>0</v>
       </c>
       <c r="H27">
-        <f t="shared" si="8"/>
-        <v>-188.732712198391</v>
-      </c>
-      <c r="L27">
-        <v>0.399999999999999</v>
-      </c>
-      <c r="M27">
-        <f t="shared" si="10"/>
-        <v>2.6902969249761</v>
-      </c>
-      <c r="N27">
-        <v>0.400000000000001</v>
-      </c>
-      <c r="O27">
-        <f t="shared" si="11"/>
-        <v>2.65270029125829</v>
+        <f t="shared" si="5"/>
+        <v>-151.371499329759</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B28" s="1">
-        <v>3.64746290048014</v>
+        <v>2.98428782766557</v>
       </c>
       <c r="C28">
-        <v>-7.534209</v>
+        <v>-5.3080285</v>
       </c>
       <c r="D28" s="10">
-        <f t="shared" si="12"/>
-        <v>-7.534209</v>
+        <f t="shared" si="11"/>
+        <v>-5.3080285</v>
       </c>
       <c r="E28">
-        <v>515.291824</v>
-      </c>
-      <c r="F28">
         <v>0</v>
       </c>
+      <c r="F28" s="1">
+        <v>0</v>
+      </c>
       <c r="H28">
-        <f t="shared" si="8"/>
-        <v>-173.710984986595</v>
+        <f t="shared" si="5"/>
+        <v>-122.383498927614</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B29" s="1">
-        <v>3.31587536407285</v>
+        <v>2.65270029125828</v>
       </c>
       <c r="C29">
-        <v>-6.56529875</v>
+        <v>-3.53590775</v>
       </c>
       <c r="D29" s="10">
-        <f t="shared" si="12"/>
-        <v>-6.56529875</v>
+        <f t="shared" si="11"/>
+        <v>-3.53590775</v>
       </c>
       <c r="E29">
-        <v>765.428943</v>
-      </c>
-      <c r="F29">
         <v>0</v>
       </c>
+      <c r="F29" s="1">
+        <v>0</v>
+      </c>
       <c r="H29">
-        <f t="shared" si="8"/>
-        <v>-151.371499329759</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <f t="shared" si="5"/>
+        <v>-81.5249508042895</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30" s="1">
-        <v>2.98428782766557</v>
+        <v>38</v>
       </c>
       <c r="C30">
-        <v>-5.3080285</v>
+        <v>-9.310968</v>
       </c>
       <c r="D30" s="10">
-        <f t="shared" si="12"/>
-        <v>-5.3080285</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30" s="1">
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>-9.2921861209303</v>
+      </c>
+      <c r="F30">
+        <v>0.0187818790697002</v>
       </c>
       <c r="H30">
-        <f t="shared" si="8"/>
-        <v>-122.383498927614</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" t="s">
-        <v>29</v>
-      </c>
-      <c r="B31" s="1">
-        <v>2.65270029125828</v>
-      </c>
-      <c r="C31">
-        <v>-3.53590775</v>
-      </c>
-      <c r="D31" s="10">
-        <f t="shared" si="12"/>
-        <v>-3.53590775</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31" s="1">
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <f t="shared" si="8"/>
-        <v>-81.5249508042895</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" t="s">
-        <v>40</v>
-      </c>
-      <c r="C32">
-        <v>-9.310968</v>
-      </c>
-      <c r="D32" s="10">
-        <f t="shared" si="12"/>
-        <v>-9.2921861209303</v>
-      </c>
-      <c r="F32">
-        <v>0.0187818790697002</v>
-      </c>
-      <c r="H32">
-        <f>C32/2.611E+22*6.02E+23</f>
+        <f>C30/2.611E+22*6.02E+23</f>
         <v>-214.676473994638</v>
       </c>
-      <c r="I32">
-        <f>D32/2.611E+22*6.02*1E+23</f>
+      <c r="I30">
+        <f>D30/2.611E+22*6.02*1E+23</f>
         <v>-214.243433351208</v>
       </c>
     </row>
-    <row r="36" spans="3:4">
-      <c r="C36" s="2">
-        <v>-37.458736</v>
-      </c>
-      <c r="D36">
-        <f>C36/4</f>
-        <v>-9.364684</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4">
-      <c r="B37" s="2"/>
-      <c r="D37" s="2"/>
-    </row>
-    <row r="38" spans="2:2">
-      <c r="B38" s="2"/>
+    <row r="34" spans="3:3">
+      <c r="C34" s="2"/>
+    </row>
+    <row r="35" spans="2:4">
+      <c r="B35" s="2"/>
+      <c r="D35" s="2"/>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -8441,18 +8391,19 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:M16384"/>
+  <dimension ref="A1:M16381"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J16"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28:G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="9" style="3"/>
-    <col min="2" max="2" width="9" style="4"/>
-    <col min="4" max="4" width="13.75"/>
-    <col min="6" max="6" width="12.8333333333333" customWidth="1"/>
+    <col min="1" max="1" width="16.375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.625" style="4" customWidth="1"/>
+    <col min="3" max="4" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="11.25" customWidth="1"/>
+    <col min="6" max="6" width="13.25" customWidth="1"/>
     <col min="7" max="7" width="10.3333333333333" customWidth="1"/>
     <col min="8" max="8" width="11.625" customWidth="1"/>
     <col min="9" max="9" width="9.16666666666667" customWidth="1"/>
@@ -8465,40 +8416,40 @@
     <row r="1" spans="1:13">
       <c r="A1" s="5"/>
       <c r="B1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="M1" s="9" t="s">
         <v>50</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="M1" s="9" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -58210,15 +58161,6 @@
     </row>
     <row r="16381" spans="4:4">
       <c r="D16381" s="4"/>
-    </row>
-    <row r="16382" spans="4:4">
-      <c r="D16382" s="4"/>
-    </row>
-    <row r="16383" spans="4:4">
-      <c r="D16383" s="4"/>
-    </row>
-    <row r="16384" spans="4:4">
-      <c r="D16384" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -58260,40 +58202,40 @@
   <sheetData>
     <row r="1" spans="2:21">
       <c r="B1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="G1" t="s">
         <v>55</v>
       </c>
-      <c r="E1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" t="s">
         <v>56</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>57</v>
       </c>
-      <c r="H1" t="s">
+      <c r="L1" t="s">
         <v>58</v>
       </c>
-      <c r="I1" t="s">
+      <c r="M1" t="s">
         <v>59</v>
-      </c>
-      <c r="L1" t="s">
-        <v>60</v>
-      </c>
-      <c r="M1" t="s">
-        <v>61</v>
       </c>
       <c r="N1">
         <v>4</v>
       </c>
       <c r="O1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P1">
         <v>2</v>
@@ -58318,16 +58260,16 @@
       <c r="D2" s="2"/>
       <c r="F2" s="2"/>
       <c r="L2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="N2">
         <v>4</v>
       </c>
       <c r="O2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P2">
         <v>2</v>
@@ -58350,16 +58292,16 @@
     </row>
     <row r="3" spans="1:21">
       <c r="A3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C3">
         <v>4</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -58380,16 +58322,16 @@
         <v>482660.6238</v>
       </c>
       <c r="L3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="N3">
         <v>4</v>
       </c>
       <c r="O3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P3">
         <v>2</v>
@@ -58412,16 +58354,16 @@
     </row>
     <row r="4" spans="1:21">
       <c r="A4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C4">
         <v>4</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -58442,16 +58384,16 @@
         <v>970759.5956</v>
       </c>
       <c r="L4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="N4">
         <v>4</v>
       </c>
       <c r="O4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P4">
         <v>2</v>
@@ -58474,16 +58416,16 @@
     </row>
     <row r="5" spans="1:21">
       <c r="A5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -58498,19 +58440,19 @@
         <v>0.001</v>
       </c>
       <c r="I5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="N5">
         <v>4</v>
       </c>
       <c r="O5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P5">
         <v>2</v>
@@ -58533,16 +58475,16 @@
     </row>
     <row r="6" spans="1:21">
       <c r="A6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C6">
         <v>4</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -58557,19 +58499,19 @@
         <v>0.001</v>
       </c>
       <c r="I6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="L6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="N6">
         <v>4</v>
       </c>
       <c r="O6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P6">
         <v>2</v>
@@ -58592,16 +58534,16 @@
     </row>
     <row r="7" spans="1:21">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C7">
         <v>4</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -58616,19 +58558,19 @@
         <v>0.001</v>
       </c>
       <c r="I7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="L7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="N7">
         <v>4</v>
       </c>
       <c r="O7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P7">
         <v>2</v>
@@ -58651,16 +58593,16 @@
     </row>
     <row r="8" spans="1:21">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C8">
         <v>4</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -58675,19 +58617,19 @@
         <v>0.001</v>
       </c>
       <c r="I8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="L8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="N8">
         <v>4</v>
       </c>
       <c r="O8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P8">
         <v>2</v>
@@ -58710,16 +58652,16 @@
     </row>
     <row r="9" spans="1:21">
       <c r="A9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C9">
         <v>4</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -58734,19 +58676,19 @@
         <v>0.001</v>
       </c>
       <c r="I9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="N9">
         <v>4</v>
       </c>
       <c r="O9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P9">
         <v>2</v>
@@ -58769,16 +58711,16 @@
     </row>
     <row r="10" spans="1:21">
       <c r="A10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C10">
         <v>4</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -58793,19 +58735,19 @@
         <v>0.001</v>
       </c>
       <c r="I10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="N10">
         <v>4</v>
       </c>
       <c r="O10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P10">
         <v>2</v>
@@ -58828,16 +58770,16 @@
     </row>
     <row r="11" spans="1:21">
       <c r="A11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C11">
         <v>4</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -58852,19 +58794,19 @@
         <v>0.001</v>
       </c>
       <c r="I11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M11" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="N11">
         <v>4</v>
       </c>
       <c r="O11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P11">
         <v>2</v>
@@ -58887,16 +58829,16 @@
     </row>
     <row r="12" spans="1:21">
       <c r="A12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C12">
         <v>4</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -58911,19 +58853,19 @@
         <v>0.001</v>
       </c>
       <c r="I12" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="L12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="N12">
         <v>4</v>
       </c>
       <c r="O12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P12">
         <v>2</v>
@@ -58946,16 +58888,16 @@
     </row>
     <row r="13" spans="1:21">
       <c r="A13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B13" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C13">
         <v>4</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -58970,19 +58912,19 @@
         <v>0.001</v>
       </c>
       <c r="I13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="L13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M13" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="N13">
         <v>4</v>
       </c>
       <c r="O13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P13">
         <v>2</v>
@@ -59005,16 +58947,16 @@
     </row>
     <row r="14" spans="1:21">
       <c r="A14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B14" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C14">
         <v>4</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E14">
         <v>2</v>
@@ -59029,19 +58971,19 @@
         <v>0.001</v>
       </c>
       <c r="I14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="N14">
         <v>4</v>
       </c>
       <c r="O14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P14">
         <v>2</v>
@@ -59064,16 +59006,16 @@
     </row>
     <row r="15" spans="1:21">
       <c r="A15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C15">
         <v>4</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E15">
         <v>2</v>
@@ -59088,19 +59030,19 @@
         <v>0.001</v>
       </c>
       <c r="I15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="N15">
         <v>4</v>
       </c>
       <c r="O15" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P15">
         <v>2</v>
@@ -59123,16 +59065,16 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B16" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C16">
         <v>4</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E16">
         <v>2</v>
@@ -59147,21 +59089,21 @@
         <v>0.001</v>
       </c>
       <c r="I16" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B17" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C17">
         <v>4</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -59176,7 +59118,7 @@
         <v>0.001</v>
       </c>
       <c r="I17" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="4:6">
@@ -59409,66 +59351,66 @@
   <sheetData>
     <row r="1" spans="2:20">
       <c r="B1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" t="s">
         <v>53</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" t="s">
         <v>54</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>55</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I1" t="s">
+        <v>57</v>
+      </c>
+      <c r="M1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O1" t="s">
+        <v>53</v>
+      </c>
+      <c r="P1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q1" t="s">
         <v>54</v>
       </c>
-      <c r="F1" t="s">
+      <c r="R1" t="s">
+        <v>55</v>
+      </c>
+      <c r="S1" t="s">
         <v>56</v>
       </c>
-      <c r="G1" t="s">
+      <c r="T1" t="s">
         <v>57</v>
-      </c>
-      <c r="H1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I1" t="s">
-        <v>59</v>
-      </c>
-      <c r="M1" t="s">
-        <v>53</v>
-      </c>
-      <c r="N1" t="s">
-        <v>54</v>
-      </c>
-      <c r="O1" t="s">
-        <v>55</v>
-      </c>
-      <c r="P1" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>56</v>
-      </c>
-      <c r="R1" t="s">
-        <v>57</v>
-      </c>
-      <c r="S1" t="s">
-        <v>58</v>
-      </c>
-      <c r="T1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:21">
       <c r="A3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C3">
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -59489,16 +59431,16 @@
         <v>18.1605</v>
       </c>
       <c r="L3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="N3">
         <v>4</v>
       </c>
       <c r="O3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P3">
         <v>2</v>
@@ -59521,16 +59463,16 @@
     </row>
     <row r="4" spans="1:21">
       <c r="A4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C4">
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -59551,16 +59493,16 @@
         <v>28.8197</v>
       </c>
       <c r="L4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="N4">
         <v>4</v>
       </c>
       <c r="O4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P4">
         <v>2</v>
@@ -59583,16 +59525,16 @@
     </row>
     <row r="5" spans="1:21">
       <c r="A5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -59613,16 +59555,16 @@
         <v>34.1747</v>
       </c>
       <c r="L5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="N5">
         <v>4</v>
       </c>
       <c r="O5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P5">
         <v>2</v>
@@ -59645,16 +59587,16 @@
     </row>
     <row r="6" spans="1:21">
       <c r="A6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C6">
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -59675,16 +59617,16 @@
         <v>36.1374</v>
       </c>
       <c r="L6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="N6">
         <v>4</v>
       </c>
       <c r="O6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P6">
         <v>2</v>
@@ -59707,16 +59649,16 @@
     </row>
     <row r="7" spans="1:21">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C7">
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -59737,16 +59679,16 @@
         <v>70.2939</v>
       </c>
       <c r="L7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="N7">
         <v>4</v>
       </c>
       <c r="O7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P7">
         <v>2</v>
@@ -59769,16 +59711,16 @@
     </row>
     <row r="8" spans="1:21">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C8">
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -59799,16 +59741,16 @@
         <v>71.9524</v>
       </c>
       <c r="L8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="N8">
         <v>4</v>
       </c>
       <c r="O8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P8">
         <v>2</v>
@@ -59831,16 +59773,16 @@
     </row>
     <row r="9" spans="1:21">
       <c r="A9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C9">
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -59861,16 +59803,16 @@
         <v>122.1317</v>
       </c>
       <c r="L9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="N9">
         <v>4</v>
       </c>
       <c r="O9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P9">
         <v>2</v>
@@ -59893,16 +59835,16 @@
     </row>
     <row r="10" spans="1:21">
       <c r="A10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C10">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -59923,16 +59865,16 @@
         <v>123.3252</v>
       </c>
       <c r="L10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="N10">
         <v>4</v>
       </c>
       <c r="O10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P10">
         <v>2</v>
@@ -59955,16 +59897,16 @@
     </row>
     <row r="11" spans="1:21">
       <c r="A11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C11">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -59985,16 +59927,16 @@
         <v>124.914</v>
       </c>
       <c r="L11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="N11">
         <v>4</v>
       </c>
       <c r="O11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P11">
         <v>2</v>
@@ -60017,16 +59959,16 @@
     </row>
     <row r="12" spans="1:21">
       <c r="A12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C12">
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -60047,16 +59989,16 @@
         <v>126.2395</v>
       </c>
       <c r="L12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="N12">
         <v>4</v>
       </c>
       <c r="O12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P12">
         <v>2</v>
@@ -60079,16 +60021,16 @@
     </row>
     <row r="13" spans="1:21">
       <c r="A13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B13" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C13">
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -60109,16 +60051,16 @@
         <v>126.7795</v>
       </c>
       <c r="L13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M13" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="N13">
         <v>4</v>
       </c>
       <c r="O13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P13">
         <v>2</v>
@@ -60141,16 +60083,16 @@
     </row>
     <row r="14" spans="1:21">
       <c r="A14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B14" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C14">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E14">
         <v>2</v>
@@ -60171,16 +60113,16 @@
         <v>126.7898</v>
       </c>
       <c r="L14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M14" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="N14">
         <v>4</v>
       </c>
       <c r="O14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P14">
         <v>2</v>
@@ -60203,16 +60145,16 @@
     </row>
     <row r="15" spans="1:21">
       <c r="A15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C15">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E15">
         <v>2</v>
@@ -60233,16 +60175,16 @@
         <v>128.7828</v>
       </c>
       <c r="L15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="N15">
         <v>4</v>
       </c>
       <c r="O15" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P15">
         <v>2</v>
@@ -60265,16 +60207,16 @@
     </row>
     <row r="16" spans="1:21">
       <c r="A16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B16" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C16">
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E16">
         <v>2</v>
@@ -60295,16 +60237,16 @@
         <v>139.6101</v>
       </c>
       <c r="L16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M16" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="N16">
         <v>4</v>
       </c>
       <c r="O16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P16">
         <v>2</v>
@@ -60327,16 +60269,16 @@
     </row>
     <row r="17" spans="1:21">
       <c r="A17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B17" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C17">
         <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -60357,16 +60299,16 @@
         <v>173.5574</v>
       </c>
       <c r="L17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M17" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="N17">
         <v>4</v>
       </c>
       <c r="O17" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P17">
         <v>2</v>
@@ -60416,19 +60358,19 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B1">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D1" s="2">
         <v>-37.198963</v>
       </c>
       <c r="E1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F1" s="2">
         <v>-37.198963</v>
@@ -60437,7 +60379,7 @@
         <v>7</v>
       </c>
       <c r="H1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I1">
         <f t="shared" ref="I1:I9" si="0">F1/4</f>
@@ -60446,19 +60388,19 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D2" s="2">
         <v>-37.213084</v>
       </c>
       <c r="E2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F2" s="2">
         <v>-37.213084</v>
@@ -60467,7 +60409,7 @@
         <v>7</v>
       </c>
       <c r="H2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I2">
         <f t="shared" si="0"/>
@@ -60476,19 +60418,19 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D3" s="2">
         <v>-37.221192</v>
       </c>
       <c r="E3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F3" s="2">
         <v>-37.221192</v>
@@ -60497,7 +60439,7 @@
         <v>7</v>
       </c>
       <c r="H3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I3">
         <f t="shared" si="0"/>
@@ -60506,19 +60448,19 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D4" s="2">
         <v>-37.221673</v>
       </c>
       <c r="E4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F4" s="2">
         <v>-37.221673</v>
@@ -60527,7 +60469,7 @@
         <v>7</v>
       </c>
       <c r="H4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I4">
         <f t="shared" si="0"/>
@@ -60536,19 +60478,19 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D5" s="2">
         <v>-37.221664</v>
       </c>
       <c r="E5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F5" s="2">
         <v>-37.221664</v>
@@ -60557,7 +60499,7 @@
         <v>7</v>
       </c>
       <c r="H5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I5">
         <f t="shared" si="0"/>
@@ -60566,19 +60508,19 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D6" s="2">
         <v>-37.221032</v>
       </c>
       <c r="E6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F6" s="2">
         <v>-37.221032</v>
@@ -60587,7 +60529,7 @@
         <v>7</v>
       </c>
       <c r="H6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I6">
         <f t="shared" si="0"/>
@@ -60596,19 +60538,19 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D7" s="2">
         <v>-37.219775</v>
       </c>
       <c r="E7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F7" s="2">
         <v>-37.219775</v>
@@ -60617,7 +60559,7 @@
         <v>7</v>
       </c>
       <c r="H7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I7">
         <f t="shared" si="0"/>
@@ -60626,19 +60568,19 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D8" s="2">
         <v>-37.217743</v>
       </c>
       <c r="E8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F8" s="2">
         <v>-37.217743</v>
@@ -60647,7 +60589,7 @@
         <v>7</v>
       </c>
       <c r="H8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I8">
         <f t="shared" si="0"/>
@@ -60656,19 +60598,19 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D9" s="2">
         <v>-37.214844</v>
       </c>
       <c r="E9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F9" s="2">
         <v>-37.214844</v>
@@ -60677,7 +60619,7 @@
         <v>7</v>
       </c>
       <c r="H9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I9">
         <f t="shared" si="0"/>
@@ -60686,19 +60628,19 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D10" s="2">
         <v>-37.210978</v>
       </c>
       <c r="E10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F10" s="2">
         <v>-37.210978</v>
@@ -60707,7 +60649,7 @@
         <v>7</v>
       </c>
       <c r="H10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I10">
         <f t="shared" ref="I10:I24" si="1">F10/4</f>
@@ -60716,19 +60658,19 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D11" s="2">
         <v>-37.205987</v>
       </c>
       <c r="E11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F11" s="2">
         <v>-37.205987</v>
@@ -60737,7 +60679,7 @@
         <v>7</v>
       </c>
       <c r="H11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I11">
         <f t="shared" si="1"/>
@@ -60746,19 +60688,19 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D12" s="2">
         <v>-37.199727</v>
       </c>
       <c r="E12" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F12" s="2">
         <v>-37.199727</v>
@@ -60767,7 +60709,7 @@
         <v>7</v>
       </c>
       <c r="H12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I12">
         <f t="shared" si="1"/>
@@ -60776,19 +60718,19 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D13" s="2">
         <v>-37.192026</v>
       </c>
       <c r="E13" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F13" s="2">
         <v>-37.192026</v>
@@ -60797,7 +60739,7 @@
         <v>7</v>
       </c>
       <c r="H13" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I13">
         <f t="shared" si="1"/>
@@ -60806,19 +60748,19 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D14" s="2">
         <v>-37.125248</v>
       </c>
       <c r="E14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F14" s="2">
         <v>-37.125248</v>
@@ -60827,7 +60769,7 @@
         <v>7</v>
       </c>
       <c r="H14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I14">
         <f t="shared" si="1"/>
@@ -60836,19 +60778,19 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D15" s="2">
         <v>-36.987991</v>
       </c>
       <c r="E15" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F15" s="2">
         <v>-36.987991</v>
@@ -60857,7 +60799,7 @@
         <v>7</v>
       </c>
       <c r="H15" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I15">
         <f t="shared" si="1"/>
@@ -60866,19 +60808,19 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D16" s="2">
         <v>-36.737023</v>
       </c>
       <c r="E16" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F16" s="2">
         <v>-36.737023</v>
@@ -60887,7 +60829,7 @@
         <v>7</v>
       </c>
       <c r="H16" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I16">
         <f t="shared" si="1"/>
@@ -60896,19 +60838,19 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D17" s="2">
         <v>-36.306229</v>
       </c>
       <c r="E17" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F17" s="2">
         <v>-36.306229</v>
@@ -60917,7 +60859,7 @@
         <v>7</v>
       </c>
       <c r="H17" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I17">
         <f t="shared" si="1"/>
@@ -60926,19 +60868,19 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D18" s="2">
         <v>-35.587047</v>
       </c>
       <c r="E18" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F18" s="2">
         <v>-35.587047</v>
@@ -60947,7 +60889,7 @@
         <v>7</v>
       </c>
       <c r="H18" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I18">
         <f t="shared" si="1"/>
@@ -60956,19 +60898,19 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D19" s="2">
         <v>-34.443888</v>
       </c>
       <c r="E19" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F19" s="2">
         <v>-34.443888</v>
@@ -60977,7 +60919,7 @@
         <v>7</v>
       </c>
       <c r="H19" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I19">
         <f t="shared" si="1"/>
@@ -60986,19 +60928,19 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D20" s="2">
         <v>-32.739216</v>
       </c>
       <c r="E20" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F20" s="2">
         <v>-32.739216</v>
@@ -61007,7 +60949,7 @@
         <v>7</v>
       </c>
       <c r="H20" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I20">
         <f t="shared" si="1"/>
@@ -61016,19 +60958,19 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D21" s="2">
         <v>-30.244928</v>
       </c>
       <c r="E21" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F21" s="2">
         <v>-30.244928</v>
@@ -61037,7 +60979,7 @@
         <v>7</v>
       </c>
       <c r="H21" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I21">
         <f t="shared" si="1"/>
@@ -61046,19 +60988,19 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D22" s="2">
         <v>-26.487302</v>
       </c>
       <c r="E22" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F22" s="2">
         <v>-26.487302</v>
@@ -61067,7 +61009,7 @@
         <v>7</v>
       </c>
       <c r="H22" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I22">
         <f t="shared" si="1"/>
@@ -61076,19 +61018,19 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D23" s="2">
         <v>-21.520284</v>
       </c>
       <c r="E23" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F23" s="2">
         <v>-21.520284</v>
@@ -61097,7 +61039,7 @@
         <v>7</v>
       </c>
       <c r="H23" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I23">
         <f t="shared" si="1"/>
@@ -61106,19 +61048,19 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B24">
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D24" s="2">
         <v>-14.619444</v>
       </c>
       <c r="E24" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F24" s="2">
         <v>-14.619444</v>
@@ -61127,7 +61069,7 @@
         <v>7</v>
       </c>
       <c r="H24" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I24">
         <f t="shared" si="1"/>
@@ -61143,30 +61085,30 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="F1" sqref="F1:F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="16.3333333333333" customWidth="1"/>
     <col min="2" max="2" width="2.33333333333333" customWidth="1"/>
     <col min="3" max="3" width="11.5" customWidth="1"/>
     <col min="4" max="5" width="2.33333333333333" customWidth="1"/>
-    <col min="6" max="6" width="11.5" customWidth="1"/>
+    <col min="6" max="6" width="12.625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B1">
         <v>0</v>
       </c>
       <c r="C1">
-        <v>64.7392709</v>
+        <v>65.7508996</v>
       </c>
       <c r="D1">
         <v>0</v>
@@ -61175,22 +61117,19 @@
         <v>0</v>
       </c>
       <c r="F1">
-        <v>64.7392709</v>
-      </c>
-      <c r="G1">
         <f>C1*1000/6.022140857E+23*6242000000000000000/32</f>
-        <v>0.0209696258021805</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>0.0212973013381394</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2">
-        <v>65.1230977</v>
+        <v>65.8057994</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -61199,22 +61138,19 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>65.1230977</v>
-      </c>
-      <c r="G2">
-        <f t="shared" ref="G2:G24" si="0">C2*1000/6.022140857E+23*6242000000000000000/32</f>
-        <v>0.0210939507174438</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <f t="shared" ref="F2:F24" si="0">C2*1000/6.022140857E+23*6242000000000000000/32</f>
+        <v>0.0213150838717795</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3">
-        <v>65.7098612</v>
+        <v>65.9180307</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -61223,22 +61159,19 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>65.7098612</v>
-      </c>
-      <c r="G3">
         <f t="shared" si="0"/>
-        <v>0.0212840086352783</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>0.0213514365883235</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
       <c r="C4">
-        <v>65.6899503</v>
+        <v>65.9768675</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -61247,22 +61180,19 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>65.6899503</v>
-      </c>
-      <c r="G4">
         <f t="shared" si="0"/>
-        <v>0.0212775593176295</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.0213704943512894</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5">
-        <v>65.7649873</v>
+        <v>66.0506699</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -61271,22 +61201,19 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>72.8132429</v>
-      </c>
-      <c r="G5">
         <f t="shared" si="0"/>
-        <v>0.0213018644695016</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>0.0213943996052378</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6">
-        <v>65.8146289</v>
+        <v>66.1439024</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -61295,22 +61222,19 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>65.8146289</v>
-      </c>
-      <c r="G6">
         <f t="shared" si="0"/>
-        <v>0.0213179438253818</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.0214245984414376</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7">
-        <v>65.8802829</v>
+        <v>66.1805323</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -61319,22 +61243,19 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>65.8802829</v>
-      </c>
-      <c r="G7">
         <f t="shared" si="0"/>
-        <v>0.0213392097400774</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>0.0214364631919282</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="C8">
-        <v>72.8132429</v>
+        <v>66.3030284</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -61343,22 +61264,19 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>72.8132429</v>
-      </c>
-      <c r="G8">
         <f t="shared" si="0"/>
-        <v>0.0235848571636644</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.0214761407685137</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="C9">
-        <v>66.2587349</v>
+        <v>66.3622514</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -61367,22 +61285,19 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>66.2587349</v>
-      </c>
-      <c r="G9">
         <f t="shared" si="0"/>
-        <v>0.0214617937098034</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0.0214953236250955</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10">
-        <v>66.3663481</v>
+        <v>66.3907412</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -61391,22 +61306,19 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>66.3663481</v>
-      </c>
-      <c r="G10">
         <f t="shared" si="0"/>
-        <v>0.0214966505826721</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.0215045517247771</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11">
-        <v>72.8132429</v>
+        <v>66.4568539</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -61415,22 +61327,19 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>72.8132429</v>
-      </c>
-      <c r="G11">
         <f t="shared" si="0"/>
-        <v>0.0235848571636644</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>0.0215259662164836</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12">
-        <v>72.8132429</v>
+        <v>66.5169289</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -61439,22 +61348,19 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>72.8132429</v>
-      </c>
-      <c r="G12">
         <f t="shared" si="0"/>
-        <v>0.0235848571636644</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0.0215454250434452</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
       <c r="C13">
-        <v>66.2587349</v>
+        <v>66.5605541</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -61463,22 +61369,19 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>66.2587349</v>
-      </c>
-      <c r="G13">
         <f t="shared" si="0"/>
-        <v>0.0214617937098034</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>0.02155955563384</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
       <c r="C14">
-        <v>66.3663481</v>
+        <v>66.6108111</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -61487,22 +61390,19 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>66.3663481</v>
-      </c>
-      <c r="G14">
         <f t="shared" si="0"/>
-        <v>0.0214966505826721</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0.0215758343232551</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
       <c r="C15">
-        <v>66.5061517</v>
+        <v>66.6538676</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -61511,239 +61411,8 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>66.5061517</v>
-      </c>
-      <c r="G15">
         <f t="shared" si="0"/>
-        <v>0.0215419342124851</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" t="s">
-        <v>132</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <v>66.6643361</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>66.6643361</v>
-      </c>
-      <c r="G16">
-        <f t="shared" si="0"/>
-        <v>0.0215931715469442</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" t="s">
-        <v>133</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17">
-        <v>66.8469612</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>66.8469612</v>
-      </c>
-      <c r="G17">
-        <f t="shared" si="0"/>
-        <v>0.0216523254415718</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" t="s">
-        <v>134</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="C18">
-        <v>66.8870315</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>66.8870315</v>
-      </c>
-      <c r="G18">
-        <f t="shared" si="0"/>
-        <v>0.0216653045682302</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" t="s">
-        <v>135</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19">
-        <v>65.7001752</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>65.7001752</v>
-      </c>
-      <c r="G19">
-        <f t="shared" si="0"/>
-        <v>0.021280871253706</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" t="s">
-        <v>136</v>
-      </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-      <c r="C20">
-        <v>62.9240536</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>62.9240536</v>
-      </c>
-      <c r="G20">
-        <f t="shared" si="0"/>
-        <v>0.0203816607694967</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" t="s">
-        <v>137</v>
-      </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-      <c r="C21">
-        <v>57.9594963</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>57.9594963</v>
-      </c>
-      <c r="G21">
-        <f t="shared" si="0"/>
-        <v>0.0187735964924786</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" t="s">
-        <v>138</v>
-      </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-      <c r="C22">
-        <v>50.0209324</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>50.0209324</v>
-      </c>
-      <c r="G22">
-        <f t="shared" si="0"/>
-        <v>0.0162022250192528</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" t="s">
-        <v>139</v>
-      </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-      <c r="C23">
-        <v>49.6791241</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>49.6791241</v>
-      </c>
-      <c r="G23">
-        <f t="shared" si="0"/>
-        <v>0.0160915102699602</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" t="s">
-        <v>140</v>
-      </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
-      <c r="C24">
-        <v>48.0262328</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>48.0262328</v>
-      </c>
-      <c r="G24">
-        <f t="shared" si="0"/>
-        <v>0.0155561240728216</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" t="s">
-        <v>141</v>
-      </c>
-      <c r="C25">
-        <v>28.9925335</v>
-      </c>
-      <c r="G25">
-        <f>C25*1000/6.022140857E+23*6242000000000000000/16</f>
-        <v>0.0187818790697002</v>
+        <v>0.0215897807066604</v>
       </c>
     </row>
   </sheetData>
@@ -61780,19 +61449,19 @@
   <sheetData>
     <row r="1" spans="1:21">
       <c r="A1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B1">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D1" s="2">
         <v>-37.198963</v>
       </c>
       <c r="E1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F1" s="2">
         <v>-37.198963</v>
@@ -61801,7 +61470,7 @@
         <v>7</v>
       </c>
       <c r="H1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I1">
         <f>-37.199</f>
@@ -61812,13 +61481,13 @@
         <v>-9.29974075</v>
       </c>
       <c r="L1" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="M1" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="N1" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="O1">
         <v>-2.70814</v>
@@ -61845,19 +61514,19 @@
     </row>
     <row r="2" spans="1:21">
       <c r="A2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D2" s="2">
         <v>-37.213084</v>
       </c>
       <c r="E2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F2" s="2">
         <v>-37.213084</v>
@@ -61866,7 +61535,7 @@
         <v>7</v>
       </c>
       <c r="H2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I2">
         <f>-37.2131</f>
@@ -61877,13 +61546,13 @@
         <v>-9.303271</v>
       </c>
       <c r="L2" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="M2" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="N2" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="O2">
         <v>-3.40202</v>
@@ -61910,19 +61579,19 @@
     </row>
     <row r="3" spans="1:21">
       <c r="A3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D3" s="2">
         <v>-37.221192</v>
       </c>
       <c r="E3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F3" s="2">
         <v>-37.221192</v>
@@ -61931,7 +61600,7 @@
         <v>7</v>
       </c>
       <c r="H3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I3">
         <f>-37.2212</f>
@@ -61942,13 +61611,13 @@
         <v>-9.305298</v>
       </c>
       <c r="L3" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="M3" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="N3" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="O3">
         <v>-4.50753</v>
@@ -61975,19 +61644,19 @@
     </row>
     <row r="4" spans="1:21">
       <c r="A4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D4" s="2">
         <v>-37.221673</v>
       </c>
       <c r="E4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F4" s="2">
         <v>-37.221673</v>
@@ -61996,7 +61665,7 @@
         <v>7</v>
       </c>
       <c r="H4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I4">
         <f>-37.2217</f>
@@ -62007,13 +61676,13 @@
         <v>-9.30541825</v>
       </c>
       <c r="L4" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="M4" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="N4" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="O4">
         <v>-4.78273</v>
@@ -62040,19 +61709,19 @@
     </row>
     <row r="5" spans="1:21">
       <c r="A5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D5" s="2">
         <v>-37.221664</v>
       </c>
       <c r="E5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F5" s="2">
         <v>-37.221664</v>
@@ -62061,7 +61730,7 @@
         <v>7</v>
       </c>
       <c r="H5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I5">
         <f>-37.2217</f>
@@ -62072,13 +61741,13 @@
         <v>-9.305416</v>
       </c>
       <c r="L5" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="M5" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="N5" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="O5">
         <v>-5.08591</v>
@@ -62105,19 +61774,19 @@
     </row>
     <row r="6" spans="1:21">
       <c r="A6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D6" s="2">
         <v>-37.221032</v>
       </c>
       <c r="E6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F6" s="2">
         <v>-37.221032</v>
@@ -62126,7 +61795,7 @@
         <v>7</v>
       </c>
       <c r="H6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I6">
         <f>-37.221</f>
@@ -62137,13 +61806,13 @@
         <v>-9.305258</v>
       </c>
       <c r="L6" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="M6" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="N6" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="O6">
         <v>-5.40348</v>
@@ -62170,19 +61839,19 @@
     </row>
     <row r="7" spans="1:21">
       <c r="A7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D7" s="2">
         <v>-37.219775</v>
       </c>
       <c r="E7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F7" s="2">
         <v>-37.219775</v>
@@ -62191,7 +61860,7 @@
         <v>7</v>
       </c>
       <c r="H7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I7">
         <f>-37.2198</f>
@@ -62202,16 +61871,16 @@
         <v>-9.30494375</v>
       </c>
       <c r="K7" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="L7" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="M7" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="N7" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="O7">
         <v>-5.75432</v>
@@ -62238,19 +61907,19 @@
     </row>
     <row r="8" spans="1:21">
       <c r="A8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D8" s="2">
         <v>-37.217743</v>
       </c>
       <c r="E8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F8" s="2">
         <v>-37.217743</v>
@@ -62259,7 +61928,7 @@
         <v>7</v>
       </c>
       <c r="H8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I8">
         <f>-37.2177</f>
@@ -62270,13 +61939,13 @@
         <v>-9.30443575</v>
       </c>
       <c r="L8" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="M8" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="N8" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="O8">
         <v>-6.11871</v>
@@ -62303,19 +61972,19 @@
     </row>
     <row r="9" spans="1:21">
       <c r="A9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
      